--- a/bsc_scan_binance/src/main/resources/MQL5/XXX.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiGek\bsc_scan_binance\src\main\resources\MQL5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\ScanBinance\bsc_scan_binance\src\main\resources\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3729BB-3286-4BB8-8168-C0DE0300C7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896"/>
+    <workbookView xWindow="5724" yWindow="0" windowWidth="32100" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Input L30" sheetId="2" r:id="rId1"/>
     <sheet name="Tính TP thay đổi hệ số, quãng" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -331,36 +334,36 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0;\-0;;\ @"/>
-    <numFmt numFmtId="168" formatCode="0.00;\-0.00;;\ @"/>
-    <numFmt numFmtId="169" formatCode="#,##0.000"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="0;\-0;;\ @"/>
+    <numFmt numFmtId="181" formatCode="0.00;\-0.00;;\ @"/>
+    <numFmt numFmtId="182" formatCode="#,##0.000"/>
+    <numFmt numFmtId="183" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -374,33 +377,33 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1278,7 +1281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -1290,15 +1293,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="181" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1329,7 +1332,7 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="13" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1390,22 +1393,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="13" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1466,6 +1469,72 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="19" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="19" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="19" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="19" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="26" fillId="8" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1477,72 +1546,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="19" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="19" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="19" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="19" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1562,12 +1565,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
-    <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Input" xfId="6" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -1963,60 +1966,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="12" customWidth="1"/>
-    <col min="3" max="4" width="14.6640625" style="11" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="5"/>
+    <col min="1" max="1" width="14.69921875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" style="12" customWidth="1"/>
+    <col min="3" max="4" width="14.69921875" style="11" customWidth="1"/>
+    <col min="5" max="6" width="9.09765625" style="5"/>
     <col min="7" max="7" width="19" style="5" customWidth="1"/>
-    <col min="8" max="24" width="10.5546875" style="5" customWidth="1"/>
-    <col min="25" max="26" width="9.109375" style="5"/>
-    <col min="27" max="27" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.109375" style="5"/>
+    <col min="8" max="24" width="10.59765625" style="5" customWidth="1"/>
+    <col min="25" max="26" width="9.09765625" style="5"/>
+    <col min="27" max="27" width="14.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.8984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.09765625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17.399999999999999" thickBot="1">
-      <c r="A1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-    </row>
-    <row r="2" spans="1:24" ht="26.4" thickTop="1" thickBot="1">
-      <c r="A2" s="94" t="s">
+    <row r="1" spans="1:24" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+    </row>
+    <row r="2" spans="1:24" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="96">
+      <c r="B2" s="79"/>
+      <c r="C2" s="80">
         <v>3</v>
       </c>
-      <c r="D2" s="97"/>
+      <c r="D2" s="81"/>
       <c r="H2" s="70"/>
       <c r="I2" s="70"/>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75" t="s">
+      <c r="K2" s="97"/>
+      <c r="L2" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75" t="s">
+      <c r="M2" s="97"/>
+      <c r="N2" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
       <c r="Q2" s="70"/>
       <c r="R2" s="70"/>
       <c r="S2" s="70"/>
@@ -2026,35 +2029,35 @@
       <c r="W2" s="70"/>
       <c r="X2" s="70"/>
     </row>
-    <row r="3" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A3" s="88" t="s">
+    <row r="3" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="90">
+      <c r="B3" s="73"/>
+      <c r="C3" s="74">
         <f>C2</f>
         <v>3</v>
       </c>
-      <c r="D3" s="91"/>
+      <c r="D3" s="75"/>
       <c r="G3" s="51"/>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
-      <c r="J3" s="72">
+      <c r="J3" s="94">
         <f>SUM('Bảng Input L30'!B13:B43)</f>
         <v>35.683784674299567</v>
       </c>
-      <c r="K3" s="72"/>
-      <c r="L3" s="73">
+      <c r="K3" s="94"/>
+      <c r="L3" s="95">
         <f>J3*91</f>
         <v>3247.2244053612608</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="74">
+      <c r="M3" s="95"/>
+      <c r="N3" s="96">
         <f>L3+'Bảng Input L30'!C44</f>
         <v>20491.780072496964</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
       <c r="S3" s="43"/>
@@ -2064,16 +2067,16 @@
       <c r="W3" s="43"/>
       <c r="X3" s="43"/>
     </row>
-    <row r="4" spans="1:24" ht="19.8" thickTop="1" thickBot="1">
-      <c r="A4" s="88" t="s">
+    <row r="4" spans="1:24" ht="19.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="90">
+      <c r="B4" s="73"/>
+      <c r="C4" s="74">
         <f>C3</f>
         <v>3</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="75"/>
       <c r="G4" s="52" t="s">
         <v>14</v>
       </c>
@@ -2097,16 +2100,16 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="19.8" thickTop="1" thickBot="1">
-      <c r="A5" s="88" t="s">
+    <row r="5" spans="1:24" ht="19.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90">
+      <c r="B5" s="73"/>
+      <c r="C5" s="74">
         <f>C4</f>
         <v>3</v>
       </c>
-      <c r="D5" s="91"/>
+      <c r="D5" s="75"/>
       <c r="G5" s="53" t="s">
         <v>77</v>
       </c>
@@ -2130,16 +2133,16 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="21.6" thickTop="1" thickBot="1">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:24" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="90">
+      <c r="B6" s="73"/>
+      <c r="C6" s="74">
         <f>C5</f>
         <v>3</v>
       </c>
-      <c r="D6" s="91"/>
+      <c r="D6" s="75"/>
       <c r="G6" s="55" t="s">
         <v>16</v>
       </c>
@@ -2150,16 +2153,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="17.399999999999999" thickTop="1">
-      <c r="A7" s="88" t="s">
+    <row r="7" spans="1:24" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="90">
+      <c r="B7" s="73"/>
+      <c r="C7" s="74">
         <f>C6</f>
         <v>3</v>
       </c>
-      <c r="D7" s="91"/>
+      <c r="D7" s="75"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="67">
@@ -2226,15 +2229,15 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="21.6">
-      <c r="A8" s="78" t="s">
+    <row r="8" spans="1:24" ht="21.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80">
+      <c r="B8" s="85"/>
+      <c r="C8" s="86">
         <v>0.01</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="87"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="67">
@@ -2301,15 +2304,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16.8">
-      <c r="A9" s="78" t="s">
+    <row r="9" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="82">
+      <c r="B9" s="85"/>
+      <c r="C9" s="88">
         <v>1.6180000000000001</v>
       </c>
-      <c r="D9" s="83"/>
+      <c r="D9" s="89"/>
       <c r="G9" s="57" t="s">
         <v>17</v>
       </c>
@@ -2365,15 +2368,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="22.2" thickBot="1">
-      <c r="A10" s="84" t="s">
+    <row r="10" spans="1:24" ht="22.2" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86">
+      <c r="B10" s="91"/>
+      <c r="C10" s="92">
         <v>16</v>
       </c>
-      <c r="D10" s="87"/>
+      <c r="D10" s="93"/>
       <c r="G10" s="61" t="s">
         <v>75</v>
       </c>
@@ -2429,7 +2432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="18" thickTop="1" thickBot="1">
+    <row r="11" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -2506,7 +2509,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="18" thickTop="1" thickBot="1">
+    <row r="12" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>8</v>
       </c>
@@ -2588,7 +2591,7 @@
         <v>-58.247999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="17.399999999999999" thickTop="1">
+    <row r="13" spans="1:24" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="str">
         <f>IF($C$10&gt;0,"L1",0)</f>
         <v>L1</v>
@@ -2671,7 +2674,7 @@
         <v>-86.391492000000014</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="16.8">
+    <row r="14" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="str">
         <f>IF(A13=0,0,IF(VALUE(MID(A13,2,2))&gt;=$C$10,0,"L"&amp;VALUE(MID(A13,2,2))+1))</f>
         <v>L2</v>
@@ -2751,7 +2754,7 @@
         <v>-127.07403096000002</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="16.8">
+    <row r="15" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="str">
         <f t="shared" ref="A15:A43" si="8">IF(A14=0,0,IF(VALUE(MID(A14,2,2))&gt;=$C$10,0,"L"&amp;VALUE(MID(A14,2,2))+1))</f>
         <v>L3</v>
@@ -2828,7 +2831,7 @@
         <v>-185.04520388395204</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="16.8">
+    <row r="16" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L4</v>
@@ -2902,7 +2905,7 @@
         <v>-266.13612434154169</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="16.8">
+    <row r="17" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L5</v>
@@ -2973,7 +2976,7 @@
         <v>-376.7822180365377</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="16.8">
+    <row r="18" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L6</v>
@@ -3041,7 +3044,7 @@
         <v>-522.54311038552976</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="16.8">
+    <row r="19" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L7</v>
@@ -3106,7 +3109,7 @@
         <v>-704.56229383648929</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="16.8">
+    <row r="20" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="str">
         <f>IF(A19=0,0,IF(VALUE(MID(A19,2,2))&gt;=$C$10,0,"L"&amp;VALUE(MID(A19,2,2))+1))</f>
         <v>L8</v>
@@ -3168,7 +3171,7 @@
         <v>-911.98543314195194</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="16.8">
+    <row r="21" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L9</v>
@@ -3227,7 +3230,7 @@
         <v>-1106.6943231177586</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="16.8">
+    <row r="22" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L10</v>
@@ -3283,7 +3286,7 @@
         <v>-1193.7542765363557</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="16.8">
+    <row r="23" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L11</v>
@@ -3336,7 +3339,7 @@
         <v>-965.7472097179118</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="16.8">
+    <row r="24" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L12</v>
@@ -3386,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="16.8">
+    <row r="25" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L13</v>
@@ -3433,7 +3436,7 @@
         <v>1562.5789853235817</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="16.8">
+    <row r="26" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A26" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L14</v>
@@ -3477,7 +3480,7 @@
         <v>8181.4260551485049</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="16.8">
+    <row r="27" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A27" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L15</v>
@@ -3563,7 +3566,7 @@
         <v>3200.0413245140589</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="16.8">
+    <row r="28" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L16</v>
@@ -3647,7 +3650,7 @@
         <v>35.683784674299567</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="16.8">
+    <row r="29" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A29" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3665,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="16.8">
+    <row r="30" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A30" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3683,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="16.8">
+    <row r="31" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A31" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3701,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="16.8">
+    <row r="32" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A32" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3719,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.8">
+    <row r="33" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A33" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3737,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.8">
+    <row r="34" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A34" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3755,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.8">
+    <row r="35" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A35" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3773,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.8">
+    <row r="36" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A36" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3791,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.8">
+    <row r="37" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A37" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3809,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.8">
+    <row r="38" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A38" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3827,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.8">
+    <row r="39" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A39" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3845,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.8">
+    <row r="40" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A40" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3863,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.8">
+    <row r="41" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A41" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3881,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.8">
+    <row r="42" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A42" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3899,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17.399999999999999" thickBot="1">
+    <row r="43" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3917,11 +3920,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18" thickTop="1" thickBot="1">
-      <c r="A44" s="76" t="s">
+    <row r="44" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="77"/>
+      <c r="B44" s="83"/>
       <c r="C44" s="48">
         <f>SUM(C13:C43)</f>
         <v>17244.555667135704</v>
@@ -3931,12 +3934,31 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="13.8" thickTop="1"/>
+    <row r="45" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="C2:D10" name="DATA_2"/>
   </protectedRanges>
   <mergeCells count="26">
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A1:D1"/>
@@ -3944,25 +3966,6 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="I10">
@@ -4051,26 +4054,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:W32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="13"/>
+    <col min="1" max="1" width="9.09765625" style="13"/>
     <col min="2" max="2" width="6" style="13" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" style="39"/>
-    <col min="5" max="5" width="15.44140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="39"/>
-    <col min="7" max="20" width="9.109375" style="13"/>
-    <col min="21" max="21" width="10.44140625" style="13" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" style="13"/>
+    <col min="3" max="4" width="9.09765625" style="39"/>
+    <col min="5" max="5" width="15.3984375" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.09765625" style="39"/>
+    <col min="7" max="20" width="9.09765625" style="13"/>
+    <col min="21" max="21" width="10.3984375" style="13" customWidth="1"/>
+    <col min="22" max="16384" width="9.09765625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B1" s="99" t="s">
         <v>58</v>
       </c>
@@ -4089,7 +4092,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="2" spans="2:23">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B2" s="99" t="s">
         <v>59</v>
       </c>
@@ -4143,7 +4146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:23">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B3" s="99"/>
       <c r="C3" s="99"/>
       <c r="D3" s="100"/>
@@ -4209,7 +4212,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="14.4" thickBot="1">
+    <row r="4" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="101" t="s">
         <v>60</v>
       </c>
@@ -4265,7 +4268,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="15" thickBot="1">
+    <row r="5" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="50" t="s">
         <v>57</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:23">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B6" s="26" t="s">
         <v>35</v>
       </c>
@@ -4411,7 +4414,7 @@
       <c r="V6" s="32"/>
       <c r="W6" s="32"/>
     </row>
-    <row r="7" spans="2:23">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B7" s="26" t="s">
         <v>36</v>
       </c>
@@ -4491,7 +4494,7 @@
       <c r="V7" s="32"/>
       <c r="W7" s="32"/>
     </row>
-    <row r="8" spans="2:23">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B8" s="26" t="s">
         <v>37</v>
       </c>
@@ -4568,7 +4571,7 @@
       <c r="V8" s="32"/>
       <c r="W8" s="32"/>
     </row>
-    <row r="9" spans="2:23">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B9" s="26" t="s">
         <v>38</v>
       </c>
@@ -4642,7 +4645,7 @@
       <c r="V9" s="32"/>
       <c r="W9" s="32"/>
     </row>
-    <row r="10" spans="2:23">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B10" s="26" t="s">
         <v>39</v>
       </c>
@@ -4713,7 +4716,7 @@
       <c r="V10" s="32"/>
       <c r="W10" s="32"/>
     </row>
-    <row r="11" spans="2:23">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B11" s="26" t="s">
         <v>40</v>
       </c>
@@ -4781,7 +4784,7 @@
       <c r="V11" s="32"/>
       <c r="W11" s="32"/>
     </row>
-    <row r="12" spans="2:23">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B12" s="26" t="s">
         <v>41</v>
       </c>
@@ -4845,7 +4848,7 @@
       <c r="V12" s="32"/>
       <c r="W12" s="32"/>
     </row>
-    <row r="13" spans="2:23">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B13" s="26" t="s">
         <v>42</v>
       </c>
@@ -4907,7 +4910,7 @@
       <c r="V13" s="32"/>
       <c r="W13" s="32"/>
     </row>
-    <row r="14" spans="2:23">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B14" s="26" t="s">
         <v>43</v>
       </c>
@@ -4965,7 +4968,7 @@
       <c r="V14" s="32"/>
       <c r="W14" s="32"/>
     </row>
-    <row r="15" spans="2:23" ht="14.1" customHeight="1">
+    <row r="15" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="26" t="s">
         <v>44</v>
       </c>
@@ -5020,7 +5023,7 @@
       <c r="V15" s="32"/>
       <c r="W15" s="32"/>
     </row>
-    <row r="16" spans="2:23">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B16" s="26" t="s">
         <v>45</v>
       </c>
@@ -5072,7 +5075,7 @@
       <c r="V16" s="32"/>
       <c r="W16" s="32"/>
     </row>
-    <row r="17" spans="2:23">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B17" s="26" t="s">
         <v>46</v>
       </c>
@@ -5121,7 +5124,7 @@
       <c r="V17" s="32"/>
       <c r="W17" s="32"/>
     </row>
-    <row r="18" spans="2:23">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B18" s="26" t="s">
         <v>47</v>
       </c>
@@ -5167,7 +5170,7 @@
       <c r="V18" s="32"/>
       <c r="W18" s="32"/>
     </row>
-    <row r="19" spans="2:23">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B19" s="26" t="s">
         <v>48</v>
       </c>
@@ -5210,7 +5213,7 @@
       <c r="V19" s="32"/>
       <c r="W19" s="32"/>
     </row>
-    <row r="20" spans="2:23" ht="14.4" thickBot="1">
+    <row r="20" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="26" t="s">
         <v>49</v>
       </c>
@@ -5250,7 +5253,7 @@
       <c r="V20" s="32"/>
       <c r="W20" s="32"/>
     </row>
-    <row r="21" spans="2:23" ht="14.4" thickBot="1">
+    <row r="21" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="26" t="s">
         <v>50</v>
       </c>
@@ -5320,7 +5323,7 @@
       <c r="V21" s="32"/>
       <c r="W21" s="32"/>
     </row>
-    <row r="22" spans="2:23" ht="14.4" thickBot="1">
+    <row r="22" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="26" t="s">
         <v>61</v>
       </c>
@@ -5343,14 +5346,14 @@
       <c r="V22" s="32"/>
       <c r="W22" s="32"/>
     </row>
-    <row r="23" spans="2:23" ht="14.4" thickBot="1">
+    <row r="23" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="26" t="s">
         <v>62</v>
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="32"/>
     </row>
-    <row r="24" spans="2:23" ht="14.4" thickBot="1">
+    <row r="24" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="26" t="s">
         <v>63</v>
       </c>
@@ -5375,14 +5378,14 @@
       <c r="U24" s="98"/>
       <c r="V24" s="98"/>
     </row>
-    <row r="25" spans="2:23" ht="14.4" thickBot="1">
+    <row r="25" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="2:23" ht="14.4" thickBot="1">
+    <row r="26" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="26" t="s">
         <v>65</v>
       </c>
@@ -5405,35 +5408,35 @@
       <c r="V26" s="32"/>
       <c r="W26" s="32"/>
     </row>
-    <row r="27" spans="2:23" ht="14.4" thickBot="1">
+    <row r="27" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F27" s="40"/>
     </row>
-    <row r="28" spans="2:23" ht="14.4" thickBot="1">
+    <row r="28" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F28" s="40"/>
     </row>
-    <row r="29" spans="2:23" ht="14.4" thickBot="1">
+    <row r="29" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="26" t="s">
         <v>68</v>
       </c>
       <c r="F29" s="40"/>
     </row>
-    <row r="30" spans="2:23">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B30" s="26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="2:23">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B31" s="26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:23">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B32" s="26" t="s">
         <v>71</v>
       </c>

--- a/bsc_scan_binance/src/main/resources/MQL5/XXX.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\ScanBinance\bsc_scan_binance\src\main\resources\MQL5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiGek\bsc_scan_binance\src\main\resources\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3729BB-3286-4BB8-8168-C0DE0300C7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5724" yWindow="0" windowWidth="32100" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5724" yWindow="0" windowWidth="32100" windowHeight="16680"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Input L30" sheetId="2" r:id="rId1"/>
     <sheet name="Tính TP thay đổi hệ số, quãng" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -334,36 +333,36 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="0;\-0;;\ @"/>
-    <numFmt numFmtId="181" formatCode="0.00;\-0.00;;\ @"/>
-    <numFmt numFmtId="182" formatCode="#,##0.000"/>
-    <numFmt numFmtId="183" formatCode="#,##0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0;\-0;;\ @"/>
+    <numFmt numFmtId="168" formatCode="0.00;\-0.00;;\ @"/>
+    <numFmt numFmtId="169" formatCode="#,##0.000"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -377,33 +376,33 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1281,7 +1280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -1293,15 +1292,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="180" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1332,7 +1331,7 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="13" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1393,22 +1392,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="180" fontId="13" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1469,16 +1468,64 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="26" fillId="8" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="10" borderId="27" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="19" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="19" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1493,59 +1540,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="19" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="19" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="19" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="19" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="26" fillId="8" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="10" borderId="27" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="15" fillId="19" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="19" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1565,12 +1564,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Input" xfId="6" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -1966,60 +1965,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.69921875" style="12" customWidth="1"/>
-    <col min="3" max="4" width="14.69921875" style="11" customWidth="1"/>
-    <col min="5" max="6" width="9.09765625" style="5"/>
+    <col min="1" max="1" width="14.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="12" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" style="11" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="5"/>
     <col min="7" max="7" width="19" style="5" customWidth="1"/>
-    <col min="8" max="24" width="10.59765625" style="5" customWidth="1"/>
-    <col min="25" max="26" width="9.09765625" style="5"/>
-    <col min="27" max="27" width="14.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.8984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.09765625" style="5"/>
+    <col min="8" max="24" width="10.5546875" style="5" customWidth="1"/>
+    <col min="25" max="26" width="9.109375" style="5"/>
+    <col min="27" max="27" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-    </row>
-    <row r="2" spans="1:24" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="78" t="s">
+    <row r="1" spans="1:24" ht="17.399999999999999" thickBot="1">
+      <c r="A1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+    </row>
+    <row r="2" spans="1:24" ht="26.4" thickTop="1" thickBot="1">
+      <c r="A2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="80">
-        <v>3</v>
-      </c>
-      <c r="D2" s="81"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="96">
+        <v>10</v>
+      </c>
+      <c r="D2" s="97"/>
       <c r="H2" s="70"/>
       <c r="I2" s="70"/>
-      <c r="J2" s="97" t="s">
+      <c r="J2" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97" t="s">
+      <c r="K2" s="75"/>
+      <c r="L2" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97" t="s">
+      <c r="M2" s="75"/>
+      <c r="N2" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
       <c r="Q2" s="70"/>
       <c r="R2" s="70"/>
       <c r="S2" s="70"/>
@@ -2029,35 +2028,35 @@
       <c r="W2" s="70"/>
       <c r="X2" s="70"/>
     </row>
-    <row r="3" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="72" t="s">
+    <row r="3" spans="1:24" ht="18" thickTop="1" thickBot="1">
+      <c r="A3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74">
+      <c r="B3" s="89"/>
+      <c r="C3" s="90">
         <f>C2</f>
-        <v>3</v>
-      </c>
-      <c r="D3" s="75"/>
+        <v>10</v>
+      </c>
+      <c r="D3" s="91"/>
       <c r="G3" s="51"/>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
-      <c r="J3" s="94">
+      <c r="J3" s="72">
         <f>SUM('Bảng Input L30'!B13:B43)</f>
-        <v>35.683784674299567</v>
-      </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="95">
+        <v>8.4119686371282683</v>
+      </c>
+      <c r="K3" s="72"/>
+      <c r="L3" s="73">
         <f>J3*91</f>
-        <v>3247.2244053612608</v>
-      </c>
-      <c r="M3" s="95"/>
-      <c r="N3" s="96">
+        <v>765.48914597867247</v>
+      </c>
+      <c r="M3" s="73"/>
+      <c r="N3" s="74">
         <f>L3+'Bảng Input L30'!C44</f>
-        <v>20491.780072496964</v>
-      </c>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
+        <v>14166.732895377165</v>
+      </c>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
       <c r="S3" s="43"/>
@@ -2067,16 +2066,16 @@
       <c r="W3" s="43"/>
       <c r="X3" s="43"/>
     </row>
-    <row r="4" spans="1:24" ht="19.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="72" t="s">
+    <row r="4" spans="1:24" ht="19.8" thickTop="1" thickBot="1">
+      <c r="A4" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="74">
+      <c r="B4" s="89"/>
+      <c r="C4" s="90">
         <f>C3</f>
-        <v>3</v>
-      </c>
-      <c r="D4" s="75"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="91"/>
       <c r="G4" s="52" t="s">
         <v>14</v>
       </c>
@@ -2100,21 +2099,21 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="19.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="72" t="s">
+    <row r="5" spans="1:24" ht="19.8" thickTop="1" thickBot="1">
+      <c r="A5" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74">
+      <c r="B5" s="89"/>
+      <c r="C5" s="90">
         <f>C4</f>
-        <v>3</v>
-      </c>
-      <c r="D5" s="75"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="91"/>
       <c r="G5" s="53" t="s">
         <v>77</v>
       </c>
       <c r="H5" s="54">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -2133,36 +2132,36 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="72" t="s">
+    <row r="6" spans="1:24" ht="21.6" thickTop="1" thickBot="1">
+      <c r="A6" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74">
+      <c r="B6" s="89"/>
+      <c r="C6" s="90">
         <f>C5</f>
-        <v>3</v>
-      </c>
-      <c r="D6" s="75"/>
+        <v>10</v>
+      </c>
+      <c r="D6" s="91"/>
       <c r="G6" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="56">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J6" s="71" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72" t="s">
+    <row r="7" spans="1:24" ht="17.399999999999999" thickTop="1">
+      <c r="A7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="74">
+      <c r="B7" s="89"/>
+      <c r="C7" s="90">
         <f>C6</f>
-        <v>3</v>
-      </c>
-      <c r="D7" s="75"/>
+        <v>10</v>
+      </c>
+      <c r="D7" s="91"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="67">
@@ -2170,74 +2169,74 @@
       </c>
       <c r="J7" s="67">
         <f>I7-H$5</f>
-        <v>2197</v>
+        <v>2190</v>
       </c>
       <c r="K7" s="67">
         <f t="shared" ref="K7:X7" si="0">J7-$H$5</f>
-        <v>2194</v>
+        <v>2180</v>
       </c>
       <c r="L7" s="67">
         <f t="shared" si="0"/>
-        <v>2191</v>
+        <v>2170</v>
       </c>
       <c r="M7" s="67">
         <f t="shared" si="0"/>
-        <v>2188</v>
+        <v>2160</v>
       </c>
       <c r="N7" s="67">
         <f t="shared" si="0"/>
-        <v>2185</v>
+        <v>2150</v>
       </c>
       <c r="O7" s="67">
         <f t="shared" si="0"/>
-        <v>2182</v>
+        <v>2140</v>
       </c>
       <c r="P7" s="67">
         <f t="shared" si="0"/>
-        <v>2179</v>
+        <v>2130</v>
       </c>
       <c r="Q7" s="67">
         <f t="shared" si="0"/>
-        <v>2176</v>
+        <v>2120</v>
       </c>
       <c r="R7" s="67">
         <f t="shared" si="0"/>
-        <v>2173</v>
+        <v>2110</v>
       </c>
       <c r="S7" s="67">
         <f t="shared" si="0"/>
-        <v>2170</v>
+        <v>2100</v>
       </c>
       <c r="T7" s="67">
         <f t="shared" si="0"/>
-        <v>2167</v>
+        <v>2090</v>
       </c>
       <c r="U7" s="67">
         <f t="shared" si="0"/>
-        <v>2164</v>
+        <v>2080</v>
       </c>
       <c r="V7" s="67">
         <f t="shared" si="0"/>
-        <v>2161</v>
+        <v>2070</v>
       </c>
       <c r="W7" s="67">
         <f t="shared" si="0"/>
-        <v>2158</v>
+        <v>2060</v>
       </c>
       <c r="X7" s="67">
         <f t="shared" si="0"/>
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="21.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="84" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="21.6">
+      <c r="A8" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="86">
+      <c r="B8" s="79"/>
+      <c r="C8" s="80">
         <v>0.01</v>
       </c>
-      <c r="D8" s="87"/>
+      <c r="D8" s="81"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="67">
@@ -2245,74 +2244,74 @@
       </c>
       <c r="J8" s="67">
         <f t="shared" ref="J8:X8" si="1">$I$7-J7</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K8" s="67">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L8" s="67">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="M8" s="67">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="N8" s="67">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="O8" s="67">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="P8" s="67">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="Q8" s="67">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="R8" s="67">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="S8" s="67">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="T8" s="67">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="U8" s="67">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="V8" s="67">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="W8" s="67">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="X8" s="67">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="84" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="16.8">
+      <c r="A9" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="88">
+      <c r="B9" s="79"/>
+      <c r="C9" s="82">
         <v>1.6180000000000001</v>
       </c>
-      <c r="D9" s="89"/>
+      <c r="D9" s="83"/>
       <c r="G9" s="57" t="s">
         <v>17</v>
       </c>
@@ -2368,15 +2367,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="22.2" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="90" t="s">
+    <row r="10" spans="1:24" ht="22.2" thickBot="1">
+      <c r="A10" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="92">
-        <v>16</v>
-      </c>
-      <c r="D10" s="93"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="86">
+        <v>13</v>
+      </c>
+      <c r="D10" s="87"/>
       <c r="G10" s="61" t="s">
         <v>75</v>
       </c>
@@ -2432,7 +2431,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -2446,11 +2445,11 @@
       </c>
       <c r="I11" s="59">
         <f>H11*H6*100</f>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J11" s="59">
         <f>H11*100*(H6-H5)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K11" s="59">
         <f t="shared" ref="K11:X11" si="2">$H$11*100*($H$6-$H$5*J10)</f>
@@ -2458,58 +2457,58 @@
       </c>
       <c r="L11" s="59">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="M11" s="59">
         <f t="shared" si="2"/>
-        <v>-6</v>
+        <v>-20</v>
       </c>
       <c r="N11" s="59">
         <f t="shared" si="2"/>
-        <v>-9</v>
+        <v>-30</v>
       </c>
       <c r="O11" s="59">
         <f t="shared" si="2"/>
-        <v>-12</v>
+        <v>-40</v>
       </c>
       <c r="P11" s="59">
         <f t="shared" si="2"/>
-        <v>-15</v>
+        <v>-50</v>
       </c>
       <c r="Q11" s="59">
         <f t="shared" si="2"/>
-        <v>-18</v>
+        <v>-60</v>
       </c>
       <c r="R11" s="59">
         <f t="shared" si="2"/>
-        <v>-21</v>
+        <v>-70</v>
       </c>
       <c r="S11" s="59">
         <f t="shared" si="2"/>
-        <v>-24</v>
+        <v>-80</v>
       </c>
       <c r="T11" s="59">
         <f t="shared" si="2"/>
-        <v>-27</v>
+        <v>-90</v>
       </c>
       <c r="U11" s="59">
         <f t="shared" si="2"/>
-        <v>-30</v>
+        <v>-100</v>
       </c>
       <c r="V11" s="59">
         <f t="shared" si="2"/>
-        <v>-33</v>
+        <v>-110</v>
       </c>
       <c r="W11" s="59">
         <f t="shared" si="2"/>
-        <v>-36</v>
+        <v>-120</v>
       </c>
       <c r="X11" s="59">
         <f t="shared" si="2"/>
-        <v>-39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A12" s="44" t="s">
         <v>8</v>
       </c>
@@ -2532,11 +2531,11 @@
       <c r="I12" s="3"/>
       <c r="J12" s="59">
         <f>H12*100*H6</f>
-        <v>9.7079999999999984</v>
+        <v>32.36</v>
       </c>
       <c r="K12" s="59">
         <f>H12*100*(H6-H5)</f>
-        <v>4.8539999999999992</v>
+        <v>16.18</v>
       </c>
       <c r="L12" s="59">
         <f t="shared" ref="L12:X12" si="4">$H$12*100*($H$6-$H$5*J10)</f>
@@ -2544,54 +2543,54 @@
       </c>
       <c r="M12" s="59">
         <f t="shared" si="4"/>
-        <v>-4.8539999999999992</v>
+        <v>-16.18</v>
       </c>
       <c r="N12" s="59">
         <f t="shared" si="4"/>
-        <v>-9.7079999999999984</v>
+        <v>-32.36</v>
       </c>
       <c r="O12" s="59">
         <f t="shared" si="4"/>
-        <v>-14.561999999999999</v>
+        <v>-48.54</v>
       </c>
       <c r="P12" s="59">
         <f t="shared" si="4"/>
-        <v>-19.415999999999997</v>
+        <v>-64.72</v>
       </c>
       <c r="Q12" s="59">
         <f t="shared" si="4"/>
-        <v>-24.27</v>
+        <v>-80.899999999999991</v>
       </c>
       <c r="R12" s="59">
         <f t="shared" si="4"/>
-        <v>-29.123999999999999</v>
+        <v>-97.08</v>
       </c>
       <c r="S12" s="59">
         <f t="shared" si="4"/>
-        <v>-33.977999999999994</v>
+        <v>-113.25999999999999</v>
       </c>
       <c r="T12" s="59">
         <f t="shared" si="4"/>
-        <v>-38.831999999999994</v>
+        <v>-129.44</v>
       </c>
       <c r="U12" s="59">
         <f t="shared" si="4"/>
-        <v>-43.686</v>
+        <v>-145.61999999999998</v>
       </c>
       <c r="V12" s="59">
         <f t="shared" si="4"/>
-        <v>-48.54</v>
+        <v>-161.79999999999998</v>
       </c>
       <c r="W12" s="59">
         <f t="shared" si="4"/>
-        <v>-53.393999999999998</v>
+        <v>-177.98</v>
       </c>
       <c r="X12" s="59">
         <f t="shared" si="4"/>
-        <v>-58.247999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
+        <v>-194.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="17.399999999999999" thickTop="1">
       <c r="A13" s="47" t="str">
         <f>IF($C$10&gt;0,"L1",0)</f>
         <v>L1</v>
@@ -2602,11 +2601,11 @@
       </c>
       <c r="C13" s="9">
         <f>+B13*D13*100</f>
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="D13" s="9">
         <f>IF(A13=0,0,$C$2+$C$3+$C$4+$C$5+$C$6+($C$7*($C$10-6)))</f>
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="G13" s="62">
         <v>3</v>
@@ -2619,11 +2618,11 @@
       <c r="J13" s="3"/>
       <c r="K13" s="59">
         <f>H13*100*H6</f>
-        <v>15.707544000000002</v>
+        <v>52.358480000000007</v>
       </c>
       <c r="L13" s="59">
         <f>H13*100*(H6-H5)</f>
-        <v>7.8537720000000011</v>
+        <v>26.179240000000004</v>
       </c>
       <c r="M13" s="59">
         <f t="shared" ref="M13:X13" si="5">$H$13*100*($H$6-$H$5*J10)</f>
@@ -2631,50 +2630,50 @@
       </c>
       <c r="N13" s="59">
         <f t="shared" si="5"/>
-        <v>-7.8537720000000011</v>
+        <v>-26.179240000000004</v>
       </c>
       <c r="O13" s="59">
         <f t="shared" si="5"/>
-        <v>-15.707544000000002</v>
+        <v>-52.358480000000007</v>
       </c>
       <c r="P13" s="59">
         <f t="shared" si="5"/>
-        <v>-23.561316000000005</v>
+        <v>-78.537720000000007</v>
       </c>
       <c r="Q13" s="59">
         <f t="shared" si="5"/>
-        <v>-31.415088000000004</v>
+        <v>-104.71696000000001</v>
       </c>
       <c r="R13" s="59">
         <f t="shared" si="5"/>
-        <v>-39.268860000000004</v>
+        <v>-130.89620000000002</v>
       </c>
       <c r="S13" s="59">
         <f t="shared" si="5"/>
-        <v>-47.12263200000001</v>
+        <v>-157.07544000000001</v>
       </c>
       <c r="T13" s="59">
         <f t="shared" si="5"/>
-        <v>-54.976404000000009</v>
+        <v>-183.25468000000004</v>
       </c>
       <c r="U13" s="59">
         <f t="shared" si="5"/>
-        <v>-62.830176000000009</v>
+        <v>-209.43392000000003</v>
       </c>
       <c r="V13" s="59">
         <f t="shared" si="5"/>
-        <v>-70.683948000000015</v>
+        <v>-235.61316000000002</v>
       </c>
       <c r="W13" s="59">
         <f t="shared" si="5"/>
-        <v>-78.537720000000007</v>
+        <v>-261.79240000000004</v>
       </c>
       <c r="X13" s="59">
         <f t="shared" si="5"/>
-        <v>-86.391492000000014</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-287.97164000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="16.8">
       <c r="A14" s="47" t="str">
         <f>IF(A13=0,0,IF(VALUE(MID(A13,2,2))&gt;=$C$10,0,"L"&amp;VALUE(MID(A13,2,2))+1))</f>
         <v>L2</v>
@@ -2685,11 +2684,11 @@
       </c>
       <c r="C14" s="9">
         <f t="shared" ref="C14:C43" si="6">+B14*D14*100</f>
-        <v>67.955999999999989</v>
+        <v>177.98000000000002</v>
       </c>
       <c r="D14" s="9">
         <f>IF(A14=0,0,$C$3+$C$4+$C$5+$C$6+($C$7*($C$10-6)))</f>
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="G14" s="62">
         <v>4</v>
@@ -2703,11 +2702,11 @@
       <c r="K14" s="3"/>
       <c r="L14" s="59">
         <f>H14*100*H6</f>
-        <v>25.414806192</v>
+        <v>84.716020640000011</v>
       </c>
       <c r="M14" s="59">
         <f>H14*100*(H6-H5)</f>
-        <v>12.707403096</v>
+        <v>42.358010320000005</v>
       </c>
       <c r="N14" s="59">
         <f t="shared" ref="N14:X14" si="7">$H$14*100*($H$6-$H$5*J10)</f>
@@ -2715,46 +2714,46 @@
       </c>
       <c r="O14" s="59">
         <f t="shared" si="7"/>
-        <v>-12.707403096</v>
+        <v>-42.358010320000005</v>
       </c>
       <c r="P14" s="59">
         <f t="shared" si="7"/>
-        <v>-25.414806192</v>
+        <v>-84.716020640000011</v>
       </c>
       <c r="Q14" s="59">
         <f t="shared" si="7"/>
-        <v>-38.122209288000001</v>
+        <v>-127.07403096000002</v>
       </c>
       <c r="R14" s="59">
         <f t="shared" si="7"/>
-        <v>-50.829612384000001</v>
+        <v>-169.43204128000002</v>
       </c>
       <c r="S14" s="59">
         <f t="shared" si="7"/>
-        <v>-63.537015480000008</v>
+        <v>-211.79005160000003</v>
       </c>
       <c r="T14" s="59">
         <f t="shared" si="7"/>
-        <v>-76.244418576000001</v>
+        <v>-254.14806192000003</v>
       </c>
       <c r="U14" s="59">
         <f t="shared" si="7"/>
-        <v>-88.951821672000008</v>
+        <v>-296.50607224000004</v>
       </c>
       <c r="V14" s="59">
         <f t="shared" si="7"/>
-        <v>-101.659224768</v>
+        <v>-338.86408256000004</v>
       </c>
       <c r="W14" s="59">
         <f t="shared" si="7"/>
-        <v>-114.36662786400001</v>
+        <v>-381.22209288000005</v>
       </c>
       <c r="X14" s="59">
         <f t="shared" si="7"/>
-        <v>-127.07403096000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-423.58010320000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="16.8">
       <c r="A15" s="47" t="str">
         <f t="shared" ref="A15:A43" si="8">IF(A14=0,0,IF(VALUE(MID(A14,2,2))&gt;=$C$10,0,"L"&amp;VALUE(MID(A14,2,2))+1))</f>
         <v>L3</v>
@@ -2765,11 +2764,11 @@
       </c>
       <c r="C15" s="9">
         <f t="shared" si="6"/>
-        <v>102.09903600000001</v>
+        <v>261.79240000000004</v>
       </c>
       <c r="D15" s="9">
         <f>IF(A15=0,0,$C$4+$C$5+$C$6+($C$7*($C$10-6)))</f>
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="G15" s="62">
         <v>5</v>
@@ -2784,11 +2783,11 @@
       <c r="L15" s="3"/>
       <c r="M15" s="59">
         <f>H15*H6*100</f>
-        <v>41.121156418656014</v>
+        <v>137.07052139552002</v>
       </c>
       <c r="N15" s="59">
         <f>H15*100*(H6-H5)</f>
-        <v>20.560578209328003</v>
+        <v>68.535260697760009</v>
       </c>
       <c r="O15" s="59">
         <f t="shared" ref="O15:X15" si="10">$H$15*100*($H$6-$H$5*J10)</f>
@@ -2796,42 +2795,42 @@
       </c>
       <c r="P15" s="59">
         <f t="shared" si="10"/>
-        <v>-20.560578209328003</v>
+        <v>-68.535260697760009</v>
       </c>
       <c r="Q15" s="59">
         <f t="shared" si="10"/>
-        <v>-41.121156418656007</v>
+        <v>-137.07052139552002</v>
       </c>
       <c r="R15" s="59">
         <f t="shared" si="10"/>
-        <v>-61.681734627984014</v>
+        <v>-205.60578209328006</v>
       </c>
       <c r="S15" s="59">
         <f t="shared" si="10"/>
-        <v>-82.242312837312014</v>
+        <v>-274.14104279104004</v>
       </c>
       <c r="T15" s="59">
         <f t="shared" si="10"/>
-        <v>-102.80289104664003</v>
+        <v>-342.67630348880004</v>
       </c>
       <c r="U15" s="59">
         <f t="shared" si="10"/>
-        <v>-123.36346925596803</v>
+        <v>-411.21156418656011</v>
       </c>
       <c r="V15" s="59">
         <f t="shared" si="10"/>
-        <v>-143.92404746529604</v>
+        <v>-479.74682488432012</v>
       </c>
       <c r="W15" s="59">
         <f t="shared" si="10"/>
-        <v>-164.48462567462403</v>
+        <v>-548.28208558208007</v>
       </c>
       <c r="X15" s="59">
         <f t="shared" si="10"/>
-        <v>-185.04520388395204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-616.81734627984008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="16.8">
       <c r="A16" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L4</v>
@@ -2842,11 +2841,11 @@
       </c>
       <c r="C16" s="9">
         <f t="shared" si="6"/>
-        <v>152.48883715200003</v>
+        <v>381.2220928800001</v>
       </c>
       <c r="D16" s="9">
         <f>IF(A16=0,0,$C$5+$C$6+($C$7*($C$10-6)))</f>
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="G16" s="62">
         <v>6</v>
@@ -2862,11 +2861,11 @@
       <c r="M16" s="3"/>
       <c r="N16" s="59">
         <f>H16*H6*100</f>
-        <v>66.534031085385422</v>
+        <v>221.78010361795143</v>
       </c>
       <c r="O16" s="59">
         <f>H16*100*(H6-H5)</f>
-        <v>33.267015542692711</v>
+        <v>110.89005180897571</v>
       </c>
       <c r="P16" s="59">
         <f t="shared" ref="P16:X16" si="11">$H$16*100*($H$6-$H$5*J10)</f>
@@ -2874,38 +2873,38 @@
       </c>
       <c r="Q16" s="59">
         <f t="shared" si="11"/>
-        <v>-33.267015542692711</v>
+        <v>-110.89005180897571</v>
       </c>
       <c r="R16" s="59">
         <f t="shared" si="11"/>
-        <v>-66.534031085385422</v>
+        <v>-221.78010361795143</v>
       </c>
       <c r="S16" s="59">
         <f t="shared" si="11"/>
-        <v>-99.80104662807814</v>
+        <v>-332.67015542692712</v>
       </c>
       <c r="T16" s="59">
         <f t="shared" si="11"/>
-        <v>-133.06806217077084</v>
+        <v>-443.56020723590285</v>
       </c>
       <c r="U16" s="59">
         <f t="shared" si="11"/>
-        <v>-166.33507771346356</v>
+        <v>-554.45025904487852</v>
       </c>
       <c r="V16" s="59">
         <f t="shared" si="11"/>
-        <v>-199.60209325615628</v>
+        <v>-665.34031085385425</v>
       </c>
       <c r="W16" s="59">
         <f t="shared" si="11"/>
-        <v>-232.869108798849</v>
+        <v>-776.23036266282998</v>
       </c>
       <c r="X16" s="59">
         <f t="shared" si="11"/>
-        <v>-266.13612434154169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-887.1204144718057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="16.8">
       <c r="A17" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L5</v>
@@ -2916,11 +2915,11 @@
       </c>
       <c r="C17" s="9">
         <f t="shared" si="6"/>
-        <v>226.16636030260807</v>
+        <v>548.28208558208007</v>
       </c>
       <c r="D17" s="9">
         <f>IF(A17=0,0,$C$6+($C$7*($C$10-6)))</f>
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="G17" s="62">
         <v>7</v>
@@ -2937,11 +2936,11 @@
       <c r="N17" s="3"/>
       <c r="O17" s="59">
         <f>H6*H17*100</f>
-        <v>107.65206229615363</v>
+        <v>358.84020765384548</v>
       </c>
       <c r="P17" s="59">
         <f>H17*100*(H6-H5)</f>
-        <v>53.826031148076808</v>
+        <v>179.42010382692271</v>
       </c>
       <c r="Q17" s="59">
         <f t="shared" ref="Q17:X17" si="12">$H$17*100*($H$6-$H$5*J10)</f>
@@ -2949,34 +2948,34 @@
       </c>
       <c r="R17" s="59">
         <f t="shared" si="12"/>
-        <v>-53.826031148076808</v>
+        <v>-179.42010382692271</v>
       </c>
       <c r="S17" s="59">
         <f t="shared" si="12"/>
-        <v>-107.65206229615362</v>
+        <v>-358.84020765384543</v>
       </c>
       <c r="T17" s="59">
         <f t="shared" si="12"/>
-        <v>-161.47809344423044</v>
+        <v>-538.26031148076811</v>
       </c>
       <c r="U17" s="59">
         <f t="shared" si="12"/>
-        <v>-215.30412459230723</v>
+        <v>-717.68041530769085</v>
       </c>
       <c r="V17" s="59">
         <f t="shared" si="12"/>
-        <v>-269.13015574038405</v>
+        <v>-897.10051913461348</v>
       </c>
       <c r="W17" s="59">
         <f t="shared" si="12"/>
-        <v>-322.95618688846088</v>
+        <v>-1076.5206229615362</v>
       </c>
       <c r="X17" s="59">
         <f t="shared" si="12"/>
-        <v>-376.7822180365377</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-1255.940726788459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="16.8">
       <c r="A18" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L6</v>
@@ -2987,11 +2986,11 @@
       </c>
       <c r="C18" s="9">
         <f t="shared" si="6"/>
-        <v>332.67015542692712</v>
+        <v>776.23036266282998</v>
       </c>
       <c r="D18" s="9">
         <f>IF(A18=0,0,($C$7*($C$10-6)))</f>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G18" s="62">
         <v>8</v>
@@ -3009,11 +3008,11 @@
       <c r="O18" s="3"/>
       <c r="P18" s="59">
         <f>H6*H18*100</f>
-        <v>174.18103679517657</v>
+        <v>580.60345598392189</v>
       </c>
       <c r="Q18" s="59">
         <f>H18*100*(H6-H5)</f>
-        <v>87.090518397588298</v>
+        <v>290.301727991961</v>
       </c>
       <c r="R18" s="59">
         <f t="shared" ref="R18:X18" si="13">$H$18*100*($H$6-$H$5*J10)</f>
@@ -3021,30 +3020,30 @@
       </c>
       <c r="S18" s="59">
         <f t="shared" si="13"/>
-        <v>-87.090518397588298</v>
+        <v>-290.301727991961</v>
       </c>
       <c r="T18" s="59">
         <f t="shared" si="13"/>
-        <v>-174.1810367951766</v>
+        <v>-580.603455983922</v>
       </c>
       <c r="U18" s="59">
         <f t="shared" si="13"/>
-        <v>-261.27155519276488</v>
+        <v>-870.90518397588289</v>
       </c>
       <c r="V18" s="59">
         <f t="shared" si="13"/>
-        <v>-348.36207359035319</v>
+        <v>-1161.206911967844</v>
       </c>
       <c r="W18" s="59">
         <f t="shared" si="13"/>
-        <v>-435.45259198794145</v>
+        <v>-1451.5086399598049</v>
       </c>
       <c r="X18" s="59">
         <f t="shared" si="13"/>
-        <v>-522.54311038552976</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-1741.8103679517658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="16.8">
       <c r="A19" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L7</v>
@@ -3055,11 +3054,11 @@
       </c>
       <c r="C19" s="9">
         <f t="shared" si="6"/>
-        <v>484.43428033269134</v>
+        <v>1076.5206229615364</v>
       </c>
       <c r="D19" s="9">
         <f>IF(A19=0,0,($C$7*($C$10-7)))</f>
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="G19" s="62">
         <v>9</v>
@@ -3078,11 +3077,11 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="59">
         <f>H6*H19*100</f>
-        <v>281.82491753459573</v>
+        <v>939.41639178198579</v>
       </c>
       <c r="R19" s="59">
         <f>H19*100*(H6-H5)</f>
-        <v>140.91245876729786</v>
+        <v>469.70819589099284</v>
       </c>
       <c r="S19" s="59">
         <f t="shared" ref="S19:X19" si="14">$H$19*100*($H$6-$H$5*J10)</f>
@@ -3090,26 +3089,26 @@
       </c>
       <c r="T19" s="59">
         <f t="shared" si="14"/>
-        <v>-140.91245876729786</v>
+        <v>-469.70819589099284</v>
       </c>
       <c r="U19" s="59">
         <f t="shared" si="14"/>
-        <v>-281.82491753459573</v>
+        <v>-939.41639178198568</v>
       </c>
       <c r="V19" s="59">
         <f t="shared" si="14"/>
-        <v>-422.73737630189356</v>
+        <v>-1409.1245876729786</v>
       </c>
       <c r="W19" s="59">
         <f t="shared" si="14"/>
-        <v>-563.64983506919145</v>
+        <v>-1878.8327835639714</v>
       </c>
       <c r="X19" s="59">
         <f t="shared" si="14"/>
-        <v>-704.56229383648929</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-2348.5409794549641</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="16.8">
       <c r="A20" s="47" t="str">
         <f>IF(A19=0,0,IF(VALUE(MID(A19,2,2))&gt;=$C$10,0,"L"&amp;VALUE(MID(A19,2,2))+1))</f>
         <v>L8</v>
@@ -3120,11 +3119,11 @@
       </c>
       <c r="C20" s="9">
         <f t="shared" si="6"/>
-        <v>696.72414718070627</v>
+        <v>1451.5086399598049</v>
       </c>
       <c r="D20" s="9">
         <f>IF(A20=0,0,($C$7*($C$10-8)))</f>
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G20" s="62">
         <v>10</v>
@@ -3144,11 +3143,11 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="59">
         <f>H6*H20*100</f>
-        <v>455.99271657097586</v>
+        <v>1519.9757219032531</v>
       </c>
       <c r="S20" s="59">
         <f>H20*100*(H6-H5)</f>
-        <v>227.99635828548799</v>
+        <v>759.98786095162654</v>
       </c>
       <c r="T20" s="59">
         <f>$H$20*100*($H$6-$H$5*J10)</f>
@@ -3156,22 +3155,22 @@
       </c>
       <c r="U20" s="59">
         <f>$H$20*100*($H$6-$H$5*K10)</f>
-        <v>-227.99635828548799</v>
+        <v>-759.98786095162654</v>
       </c>
       <c r="V20" s="59">
         <f>$H$20*100*($H$6-$H$5*L10)</f>
-        <v>-455.99271657097597</v>
+        <v>-1519.9757219032531</v>
       </c>
       <c r="W20" s="59">
         <f>$H$20*100*($H$6-$H$5*M10)</f>
-        <v>-683.98907485646396</v>
+        <v>-2279.9635828548799</v>
       </c>
       <c r="X20" s="59">
         <f>$H$20*100*($H$6-$H$5*N10)</f>
-        <v>-911.98543314195194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-3039.9514438065062</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="16.8">
       <c r="A21" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L9</v>
@@ -3182,11 +3181,11 @@
       </c>
       <c r="C21" s="9">
         <f t="shared" si="6"/>
-        <v>986.38721137108507</v>
+        <v>1878.8327835639716</v>
       </c>
       <c r="D21" s="9">
         <f>IF(A21=0,0,($C$7*($C$10-9)))</f>
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="G21" s="62">
         <v>11</v>
@@ -3207,11 +3206,11 @@
       <c r="R21" s="3"/>
       <c r="S21" s="60">
         <f>H6*H21*100</f>
-        <v>737.79621541183906</v>
+        <v>2459.3207180394634</v>
       </c>
       <c r="T21" s="60">
         <f>H21*100*(H6-H5)</f>
-        <v>368.89810770591953</v>
+        <v>1229.6603590197317</v>
       </c>
       <c r="U21" s="60">
         <f>$H$21*100*($H$6-$H$5*J10)</f>
@@ -3219,18 +3218,18 @@
       </c>
       <c r="V21" s="60">
         <f>$H$21*100*($H$6-$H$5*K10)</f>
-        <v>-368.89810770591953</v>
+        <v>-1229.6603590197317</v>
       </c>
       <c r="W21" s="60">
         <f>$H$21*100*($H$6-$H$5*L10)</f>
-        <v>-737.79621541183906</v>
+        <v>-2459.3207180394634</v>
       </c>
       <c r="X21" s="60">
         <f>$H$21*100*($H$6-$H$5*M10)</f>
-        <v>-1106.6943231177586</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-3688.9810770591953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="16.8">
       <c r="A22" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L10</v>
@@ -3241,11 +3240,11 @@
       </c>
       <c r="C22" s="9">
         <f t="shared" si="6"/>
-        <v>1367.9781497129277</v>
+        <v>2279.9635828548794</v>
       </c>
       <c r="D22" s="9">
         <f>IF(A22=0,0,($C$7*($C$10-10)))</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G22" s="62">
         <v>12</v>
@@ -3267,11 +3266,11 @@
       <c r="S22" s="60"/>
       <c r="T22" s="60">
         <f>H6*H22*100</f>
-        <v>1193.7542765363555</v>
+        <v>3979.1809217878522</v>
       </c>
       <c r="U22" s="60">
         <f>H22*100*(H6-H5)</f>
-        <v>596.87713826817787</v>
+        <v>1989.5904608939261</v>
       </c>
       <c r="V22" s="60">
         <f>$H$22*100*($H$6-$H$5*J10)</f>
@@ -3279,14 +3278,14 @@
       </c>
       <c r="W22" s="60">
         <f>$H$22*100*($H$6-$H$5*K10)</f>
-        <v>-596.87713826817787</v>
+        <v>-1989.5904608939261</v>
       </c>
       <c r="X22" s="60">
         <f>$H$22*100*($H$6-$H$5*L10)</f>
-        <v>-1193.7542765363557</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-3979.1809217878522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="16.8">
       <c r="A23" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L11</v>
@@ -3297,11 +3296,11 @@
       </c>
       <c r="C23" s="9">
         <f t="shared" si="6"/>
-        <v>1844.4905385295974</v>
+        <v>2459.3207180394634</v>
       </c>
       <c r="D23" s="9">
         <f>IF(A23=0,0,($C$7*($C$10-11)))</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G23" s="62">
         <v>13</v>
@@ -3324,11 +3323,11 @@
       <c r="T23" s="60"/>
       <c r="U23" s="60">
         <f>H6*H23*100</f>
-        <v>1931.4944194358236</v>
+        <v>6438.3147314527459</v>
       </c>
       <c r="V23" s="60">
         <f>H23*100*(H6-H5)</f>
-        <v>965.7472097179118</v>
+        <v>3219.157365726373</v>
       </c>
       <c r="W23" s="60">
         <f>$H$23*100*($H$6-$H$5*J10)</f>
@@ -3336,10 +3335,10 @@
       </c>
       <c r="X23" s="60">
         <f>$H$23*100*($H$6-$H$5*K10)</f>
-        <v>-965.7472097179118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-3219.157365726373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="16.8">
       <c r="A24" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L12</v>
@@ -3350,11 +3349,11 @@
       </c>
       <c r="C24" s="9">
         <f t="shared" si="6"/>
-        <v>2387.508553072711</v>
+        <v>1989.5904608939261</v>
       </c>
       <c r="D24" s="9">
         <f>IF(A24=0,0,($C$7*($C$10-12)))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G24" s="62">
         <v>14</v>
@@ -3378,18 +3377,18 @@
       <c r="U24" s="60"/>
       <c r="V24" s="60">
         <f>H6*H24*100</f>
-        <v>3125.157970647163</v>
+        <v>10417.193235490544</v>
       </c>
       <c r="W24" s="60">
         <f>H24*100*(H6-H5)</f>
-        <v>1562.5789853235817</v>
+        <v>5208.5966177452719</v>
       </c>
       <c r="X24" s="60">
         <f>$H$24*100*($H$6-$H$5*J10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="16.8">
       <c r="A25" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L13</v>
@@ -3400,11 +3399,11 @@
       </c>
       <c r="C25" s="9">
         <f t="shared" si="6"/>
-        <v>2897.2416291537356</v>
+        <v>0</v>
       </c>
       <c r="D25" s="9">
         <f>IF(A25=0,0,($C$7*($C$10-13)))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G25" s="62">
         <v>15</v>
@@ -3429,29 +3428,29 @@
       <c r="V25" s="60"/>
       <c r="W25" s="60">
         <f>H6*H25*100</f>
-        <v>5056.5055965071115</v>
+        <v>16855.018655023701</v>
       </c>
       <c r="X25" s="60">
         <f>H24*100*(H6-H5)</f>
-        <v>1562.5789853235817</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="47" t="str">
+        <v>5208.5966177452719</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="16.8">
+      <c r="A26" s="47">
         <f t="shared" si="8"/>
-        <v>L14</v>
+        <v>0</v>
       </c>
       <c r="B26" s="10">
         <f t="shared" si="9"/>
-        <v>5.2085966177452718</v>
+        <v>0</v>
       </c>
       <c r="C26" s="9">
         <f t="shared" si="6"/>
-        <v>3125.157970647163</v>
+        <v>0</v>
       </c>
       <c r="D26" s="9">
         <f>IF(A26=0,0,($C$7*($C$10-14)))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G26" s="62">
         <v>16</v>
@@ -3477,25 +3476,25 @@
       <c r="W26" s="60"/>
       <c r="X26" s="60">
         <f>H26*H6*100</f>
-        <v>8181.4260551485049</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="47" t="str">
+        <v>27271.420183828348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="16.8">
+      <c r="A27" s="47">
         <f t="shared" si="8"/>
-        <v>L15</v>
+        <v>0</v>
       </c>
       <c r="B27" s="10">
         <f t="shared" si="9"/>
-        <v>8.4275093275118511</v>
+        <v>0</v>
       </c>
       <c r="C27" s="9">
         <f t="shared" si="6"/>
-        <v>2528.2527982535557</v>
+        <v>0</v>
       </c>
       <c r="D27" s="9">
         <f>IF(A27=0,0,($C$7*($C$10-15)))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G27" s="64" t="s">
         <v>51</v>
@@ -3503,77 +3502,77 @@
       <c r="H27" s="65"/>
       <c r="I27" s="66">
         <f t="shared" ref="I27:X27" si="15">SUM(I11:I26)</f>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J27" s="66">
         <f t="shared" si="15"/>
-        <v>12.707999999999998</v>
+        <v>42.36</v>
       </c>
       <c r="K27" s="66">
         <f t="shared" si="15"/>
-        <v>20.561544000000001</v>
+        <v>68.538480000000007</v>
       </c>
       <c r="L27" s="66">
         <f t="shared" si="15"/>
-        <v>30.268578192</v>
+        <v>100.89526064000002</v>
       </c>
       <c r="M27" s="66">
         <f t="shared" si="15"/>
-        <v>42.974559514656015</v>
+        <v>143.24853171552002</v>
       </c>
       <c r="N27" s="66">
         <f t="shared" si="15"/>
-        <v>60.532837294713431</v>
+        <v>201.77612431571143</v>
       </c>
       <c r="O27" s="66">
         <f t="shared" si="15"/>
-        <v>85.942130742846345</v>
+        <v>286.4737691428212</v>
       </c>
       <c r="P27" s="66">
         <f t="shared" si="15"/>
-        <v>124.05436754192537</v>
+        <v>413.51455847308455</v>
       </c>
       <c r="Q27" s="66">
         <f t="shared" si="15"/>
-        <v>182.71996668283532</v>
+        <v>609.06655560945103</v>
       </c>
       <c r="R27" s="66">
         <f t="shared" si="15"/>
-        <v>274.64090609282744</v>
+        <v>915.46968697609168</v>
       </c>
       <c r="S27" s="66">
         <f t="shared" si="15"/>
-        <v>420.36898605819499</v>
+        <v>1401.2299535273162</v>
       </c>
       <c r="T27" s="66">
         <f t="shared" si="15"/>
-        <v>653.15701944215925</v>
+        <v>2177.1900648071978</v>
       </c>
       <c r="U27" s="66">
         <f t="shared" si="15"/>
-        <v>1026.8080574574142</v>
+        <v>3422.6935248580476</v>
       </c>
       <c r="V27" s="66">
         <f t="shared" si="15"/>
-        <v>1628.3754369660958</v>
+        <v>5427.9181232203209</v>
       </c>
       <c r="W27" s="66">
         <f t="shared" si="15"/>
-        <v>2598.7114570111453</v>
+        <v>8662.3715233704806</v>
       </c>
       <c r="X27" s="66">
         <f t="shared" si="15"/>
-        <v>3200.0413245140589</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="47" t="str">
+        <v>10666.80441504686</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="16.8">
+      <c r="A28" s="47">
         <f t="shared" si="8"/>
-        <v>L16</v>
+        <v>0</v>
       </c>
       <c r="B28" s="10">
         <f t="shared" si="9"/>
-        <v>13.635710091914175</v>
+        <v>0</v>
       </c>
       <c r="C28" s="9">
         <f t="shared" si="6"/>
@@ -3650,7 +3649,7 @@
         <v>35.683784674299567</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="16.8">
       <c r="A29" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3668,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="16.8">
       <c r="A30" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3686,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="16.8">
       <c r="A31" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3704,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="16.8">
       <c r="A32" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3722,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="16.8">
       <c r="A33" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3740,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="16.8">
       <c r="A34" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3758,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="16.8">
       <c r="A35" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3776,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="16.8">
       <c r="A36" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3794,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="16.8">
       <c r="A37" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3812,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="16.8">
       <c r="A38" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3830,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="16.8">
       <c r="A39" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3848,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="16.8">
       <c r="A40" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3866,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="16.8">
       <c r="A41" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3884,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="16.8">
       <c r="A42" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3902,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="17.399999999999999" thickBot="1">
       <c r="A43" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3920,32 +3919,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="82" t="s">
+    <row r="44" spans="1:4" ht="18" thickTop="1" thickBot="1">
+      <c r="A44" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="83"/>
+      <c r="B44" s="77"/>
       <c r="C44" s="48">
         <f>SUM(C13:C43)</f>
-        <v>17244.555667135704</v>
+        <v>13401.243749398493</v>
       </c>
       <c r="D44" s="49">
         <f>MAX(D13:D43)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="13.8" thickTop="1"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="C2:D10" name="DATA_2"/>
   </protectedRanges>
   <mergeCells count="26">
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
@@ -3953,19 +3959,12 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="I10">
@@ -4054,26 +4053,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="13"/>
+    <col min="1" max="1" width="9.109375" style="13"/>
     <col min="2" max="2" width="6" style="13" customWidth="1"/>
-    <col min="3" max="4" width="9.09765625" style="39"/>
-    <col min="5" max="5" width="15.3984375" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.09765625" style="39"/>
-    <col min="7" max="20" width="9.09765625" style="13"/>
-    <col min="21" max="21" width="10.3984375" style="13" customWidth="1"/>
-    <col min="22" max="16384" width="9.09765625" style="13"/>
+    <col min="3" max="4" width="9.109375" style="39"/>
+    <col min="5" max="5" width="15.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="39"/>
+    <col min="7" max="20" width="9.109375" style="13"/>
+    <col min="21" max="21" width="10.44140625" style="13" customWidth="1"/>
+    <col min="22" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:23">
       <c r="B1" s="99" t="s">
         <v>58</v>
       </c>
@@ -4092,7 +4091,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:23">
       <c r="B2" s="99" t="s">
         <v>59</v>
       </c>
@@ -4146,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:23">
       <c r="B3" s="99"/>
       <c r="C3" s="99"/>
       <c r="D3" s="100"/>
@@ -4212,7 +4211,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:23" ht="14.4" thickBot="1">
       <c r="B4" s="101" t="s">
         <v>60</v>
       </c>
@@ -4268,7 +4267,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:23" ht="15" thickBot="1">
       <c r="B5" s="50" t="s">
         <v>57</v>
       </c>
@@ -4333,7 +4332,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:23">
       <c r="B6" s="26" t="s">
         <v>35</v>
       </c>
@@ -4414,7 +4413,7 @@
       <c r="V6" s="32"/>
       <c r="W6" s="32"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:23">
       <c r="B7" s="26" t="s">
         <v>36</v>
       </c>
@@ -4494,7 +4493,7 @@
       <c r="V7" s="32"/>
       <c r="W7" s="32"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:23">
       <c r="B8" s="26" t="s">
         <v>37</v>
       </c>
@@ -4571,7 +4570,7 @@
       <c r="V8" s="32"/>
       <c r="W8" s="32"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:23">
       <c r="B9" s="26" t="s">
         <v>38</v>
       </c>
@@ -4645,7 +4644,7 @@
       <c r="V9" s="32"/>
       <c r="W9" s="32"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:23">
       <c r="B10" s="26" t="s">
         <v>39</v>
       </c>
@@ -4716,7 +4715,7 @@
       <c r="V10" s="32"/>
       <c r="W10" s="32"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:23">
       <c r="B11" s="26" t="s">
         <v>40</v>
       </c>
@@ -4784,7 +4783,7 @@
       <c r="V11" s="32"/>
       <c r="W11" s="32"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:23">
       <c r="B12" s="26" t="s">
         <v>41</v>
       </c>
@@ -4848,7 +4847,7 @@
       <c r="V12" s="32"/>
       <c r="W12" s="32"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:23">
       <c r="B13" s="26" t="s">
         <v>42</v>
       </c>
@@ -4910,7 +4909,7 @@
       <c r="V13" s="32"/>
       <c r="W13" s="32"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:23">
       <c r="B14" s="26" t="s">
         <v>43</v>
       </c>
@@ -4968,7 +4967,7 @@
       <c r="V14" s="32"/>
       <c r="W14" s="32"/>
     </row>
-    <row r="15" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:23" ht="14.1" customHeight="1">
       <c r="B15" s="26" t="s">
         <v>44</v>
       </c>
@@ -5023,7 +5022,7 @@
       <c r="V15" s="32"/>
       <c r="W15" s="32"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:23">
       <c r="B16" s="26" t="s">
         <v>45</v>
       </c>
@@ -5075,7 +5074,7 @@
       <c r="V16" s="32"/>
       <c r="W16" s="32"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:23">
       <c r="B17" s="26" t="s">
         <v>46</v>
       </c>
@@ -5124,7 +5123,7 @@
       <c r="V17" s="32"/>
       <c r="W17" s="32"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:23">
       <c r="B18" s="26" t="s">
         <v>47</v>
       </c>
@@ -5170,7 +5169,7 @@
       <c r="V18" s="32"/>
       <c r="W18" s="32"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:23">
       <c r="B19" s="26" t="s">
         <v>48</v>
       </c>
@@ -5213,7 +5212,7 @@
       <c r="V19" s="32"/>
       <c r="W19" s="32"/>
     </row>
-    <row r="20" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:23" ht="14.4" thickBot="1">
       <c r="B20" s="26" t="s">
         <v>49</v>
       </c>
@@ -5253,7 +5252,7 @@
       <c r="V20" s="32"/>
       <c r="W20" s="32"/>
     </row>
-    <row r="21" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:23" ht="14.4" thickBot="1">
       <c r="B21" s="26" t="s">
         <v>50</v>
       </c>
@@ -5323,7 +5322,7 @@
       <c r="V21" s="32"/>
       <c r="W21" s="32"/>
     </row>
-    <row r="22" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:23" ht="14.4" thickBot="1">
       <c r="B22" s="26" t="s">
         <v>61</v>
       </c>
@@ -5346,14 +5345,14 @@
       <c r="V22" s="32"/>
       <c r="W22" s="32"/>
     </row>
-    <row r="23" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:23" ht="14.4" thickBot="1">
       <c r="B23" s="26" t="s">
         <v>62</v>
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="32"/>
     </row>
-    <row r="24" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:23" ht="14.4" thickBot="1">
       <c r="B24" s="26" t="s">
         <v>63</v>
       </c>
@@ -5378,14 +5377,14 @@
       <c r="U24" s="98"/>
       <c r="V24" s="98"/>
     </row>
-    <row r="25" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:23" ht="14.4" thickBot="1">
       <c r="B25" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:23" ht="14.4" thickBot="1">
       <c r="B26" s="26" t="s">
         <v>65</v>
       </c>
@@ -5408,35 +5407,35 @@
       <c r="V26" s="32"/>
       <c r="W26" s="32"/>
     </row>
-    <row r="27" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:23" ht="14.4" thickBot="1">
       <c r="B27" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F27" s="40"/>
     </row>
-    <row r="28" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:23" ht="14.4" thickBot="1">
       <c r="B28" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F28" s="40"/>
     </row>
-    <row r="29" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:23" ht="14.4" thickBot="1">
       <c r="B29" s="26" t="s">
         <v>68</v>
       </c>
       <c r="F29" s="40"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:23">
       <c r="B30" s="26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:23">
       <c r="B31" s="26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:23">
       <c r="B32" s="26" t="s">
         <v>71</v>
       </c>

--- a/bsc_scan_binance/src/main/resources/MQL5/XXX.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiGek\bsc_scan_binance\src\main\resources\MQL5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\ScanBinance\bsc_scan_binance\src\main\resources\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C27ADDA-01C2-408D-9CAF-543DC841DD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5724" yWindow="0" windowWidth="32100" windowHeight="16680"/>
+    <workbookView xWindow="5724" yWindow="0" windowWidth="32100" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Input L30" sheetId="2" r:id="rId1"/>
-    <sheet name="Tính TP thay đổi hệ số, quãng" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="Tính TP thay đổi hệ số, quãng" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="95">
   <si>
     <t>THÔNG TIN ĐẦU VÀO</t>
   </si>
@@ -329,40 +331,152 @@
     <t>Quãng giá dca</t>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>is_allow_trend_shift</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>iStochastic</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>Không ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m tra</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>12h</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>109k</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>115k</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>144k</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>110k</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>4h</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>iStochastic + 1h</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>103k</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>iStochastic + 4h</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>106k</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>iStochastic + 8h</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>101k</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>Ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t:</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0;\-0;;\ @"/>
-    <numFmt numFmtId="168" formatCode="0.00;\-0.00;;\ @"/>
-    <numFmt numFmtId="169" formatCode="#,##0.000"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="0;\-0;;\ @"/>
+    <numFmt numFmtId="181" formatCode="0.00;\-0.00;;\ @"/>
+    <numFmt numFmtId="182" formatCode="#,##0.000"/>
+    <numFmt numFmtId="183" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -376,33 +490,33 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -534,8 +648,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,6 +765,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,7 +1407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -1292,15 +1419,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="181" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1331,7 +1458,7 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="13" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1392,22 +1519,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1451,7 +1578,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="21" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1468,6 +1594,72 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="19" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="19" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="19" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="19" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="26" fillId="8" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1480,72 +1672,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="19" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="19" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="19" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="19" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1559,19 +1685,134 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="20" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
-    <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Input" xfId="6" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1701,6 +1942,451 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238376</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>169441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47CF6802-8B75-4C3A-97DA-4FFCA1A83584}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="672353" y="5827059"/>
+          <a:ext cx="6961905" cy="11590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>257422</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>188489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5154B7A5-EEE1-644E-197F-39A4D4DD73BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8068235" y="5827059"/>
+          <a:ext cx="6980952" cy="11609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>257423</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>159917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D13D575-0115-847D-E921-EFB3242E5AC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15464118" y="5827059"/>
+          <a:ext cx="6980952" cy="11580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>311723</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>49640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC598B6-6101-55B8-949C-603D39221B00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22610618" y="5888182"/>
+          <a:ext cx="6961905" cy="11590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>311723</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>149265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD6BDF8-AF47-0390-6FE5-953A4275A1BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29925818" y="5888182"/>
+          <a:ext cx="6961905" cy="11219047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>311723</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>130219</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42ABD512-DBBD-4DFF-9802-14ED3390AB77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="665018" y="18371127"/>
+          <a:ext cx="6961905" cy="11200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>321246</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>139743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84A2230F-6A69-191E-FCE4-1918CFE18AC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7980218" y="18371127"/>
+          <a:ext cx="6971428" cy="11209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>330770</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>218500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51E0037A-6D83-E4BA-7B8B-F3E530FAA0A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15295418" y="18371127"/>
+          <a:ext cx="6980952" cy="11523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>665017</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>10472</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECEB2F2B-BAC2-4F16-811A-10DEB820FF12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="665017" y="25436945"/>
+          <a:ext cx="21291055" cy="11596255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>330770</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>49640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4200C937-2E7B-80D6-684C-6D69602E1866}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22610618" y="13425055"/>
+          <a:ext cx="6980952" cy="11590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1965,98 +2651,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="12" customWidth="1"/>
-    <col min="3" max="4" width="14.6640625" style="11" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="5"/>
+    <col min="1" max="1" width="14.69921875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" style="12" customWidth="1"/>
+    <col min="3" max="4" width="14.69921875" style="11" customWidth="1"/>
+    <col min="5" max="6" width="9.09765625" style="5"/>
     <col min="7" max="7" width="19" style="5" customWidth="1"/>
-    <col min="8" max="24" width="10.5546875" style="5" customWidth="1"/>
-    <col min="25" max="26" width="9.109375" style="5"/>
-    <col min="27" max="27" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.109375" style="5"/>
+    <col min="8" max="24" width="10.59765625" style="5" customWidth="1"/>
+    <col min="25" max="26" width="9.09765625" style="5"/>
+    <col min="27" max="27" width="14.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.8984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.09765625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17.399999999999999" thickBot="1">
-      <c r="A1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-    </row>
-    <row r="2" spans="1:24" ht="26.4" thickTop="1" thickBot="1">
-      <c r="A2" s="94" t="s">
+    <row r="1" spans="1:24" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+    </row>
+    <row r="2" spans="1:24" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="96">
+      <c r="B2" s="78"/>
+      <c r="C2" s="79">
         <v>10</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="75" t="s">
+      <c r="D2" s="80"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75" t="s">
+      <c r="K2" s="96"/>
+      <c r="L2" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75" t="s">
+      <c r="M2" s="96"/>
+      <c r="N2" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-    </row>
-    <row r="3" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A3" s="88" t="s">
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+    </row>
+    <row r="3" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="90">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73">
         <f>C2</f>
         <v>10</v>
       </c>
-      <c r="D3" s="91"/>
+      <c r="D3" s="74"/>
       <c r="G3" s="51"/>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
-      <c r="J3" s="72">
+      <c r="J3" s="93">
         <f>SUM('Bảng Input L30'!B13:B43)</f>
         <v>8.4119686371282683</v>
       </c>
-      <c r="K3" s="72"/>
-      <c r="L3" s="73">
+      <c r="K3" s="93"/>
+      <c r="L3" s="94">
         <f>J3*91</f>
         <v>765.48914597867247</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="74">
+      <c r="M3" s="94"/>
+      <c r="N3" s="95">
         <f>L3+'Bảng Input L30'!C44</f>
         <v>14166.732895377165</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
       <c r="S3" s="43"/>
@@ -2066,20 +2752,20 @@
       <c r="W3" s="43"/>
       <c r="X3" s="43"/>
     </row>
-    <row r="4" spans="1:24" ht="19.8" thickTop="1" thickBot="1">
-      <c r="A4" s="88" t="s">
+    <row r="4" spans="1:24" ht="19.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="90">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73">
         <f>C3</f>
         <v>10</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="74"/>
       <c r="G4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="67">
         <v>1.6180000000000001</v>
       </c>
       <c r="I4" s="1"/>
@@ -2099,16 +2785,16 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="19.8" thickTop="1" thickBot="1">
-      <c r="A5" s="88" t="s">
+    <row r="5" spans="1:24" ht="19.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90">
+      <c r="B5" s="72"/>
+      <c r="C5" s="73">
         <f>C4</f>
         <v>10</v>
       </c>
-      <c r="D5" s="91"/>
+      <c r="D5" s="74"/>
       <c r="G5" s="53" t="s">
         <v>77</v>
       </c>
@@ -2132,186 +2818,186 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="21.6" thickTop="1" thickBot="1">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:24" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="90">
+      <c r="B6" s="72"/>
+      <c r="C6" s="73">
         <f>C5</f>
         <v>10</v>
       </c>
-      <c r="D6" s="91"/>
+      <c r="D6" s="74"/>
       <c r="G6" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="56">
         <v>20</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="N6" s="70" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="17.399999999999999" thickTop="1">
-      <c r="A7" s="88" t="s">
+    <row r="7" spans="1:24" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="90">
+      <c r="B7" s="72"/>
+      <c r="C7" s="73">
         <f>C6</f>
         <v>10</v>
       </c>
-      <c r="D7" s="91"/>
+      <c r="D7" s="74"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="67">
+      <c r="I7" s="66">
         <v>2200</v>
       </c>
-      <c r="J7" s="67">
+      <c r="J7" s="66">
         <f>I7-H$5</f>
         <v>2190</v>
       </c>
-      <c r="K7" s="67">
+      <c r="K7" s="66">
         <f t="shared" ref="K7:X7" si="0">J7-$H$5</f>
         <v>2180</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="66">
         <f t="shared" si="0"/>
         <v>2170</v>
       </c>
-      <c r="M7" s="67">
+      <c r="M7" s="66">
         <f t="shared" si="0"/>
         <v>2160</v>
       </c>
-      <c r="N7" s="67">
+      <c r="N7" s="66">
         <f t="shared" si="0"/>
         <v>2150</v>
       </c>
-      <c r="O7" s="67">
+      <c r="O7" s="66">
         <f t="shared" si="0"/>
         <v>2140</v>
       </c>
-      <c r="P7" s="67">
+      <c r="P7" s="66">
         <f t="shared" si="0"/>
         <v>2130</v>
       </c>
-      <c r="Q7" s="67">
+      <c r="Q7" s="66">
         <f t="shared" si="0"/>
         <v>2120</v>
       </c>
-      <c r="R7" s="67">
+      <c r="R7" s="66">
         <f t="shared" si="0"/>
         <v>2110</v>
       </c>
-      <c r="S7" s="67">
+      <c r="S7" s="66">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="T7" s="67">
+      <c r="T7" s="66">
         <f t="shared" si="0"/>
         <v>2090</v>
       </c>
-      <c r="U7" s="67">
+      <c r="U7" s="66">
         <f t="shared" si="0"/>
         <v>2080</v>
       </c>
-      <c r="V7" s="67">
+      <c r="V7" s="66">
         <f t="shared" si="0"/>
         <v>2070</v>
       </c>
-      <c r="W7" s="67">
+      <c r="W7" s="66">
         <f t="shared" si="0"/>
         <v>2060</v>
       </c>
-      <c r="X7" s="67">
+      <c r="X7" s="66">
         <f t="shared" si="0"/>
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="21.6">
-      <c r="A8" s="78" t="s">
+    <row r="8" spans="1:24" ht="21.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80">
+      <c r="B8" s="84"/>
+      <c r="C8" s="85">
         <v>0.01</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="86"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="67">
-        <v>0</v>
-      </c>
-      <c r="J8" s="67">
+      <c r="I8" s="66">
+        <v>0</v>
+      </c>
+      <c r="J8" s="66">
         <f t="shared" ref="J8:X8" si="1">$I$7-J7</f>
         <v>10</v>
       </c>
-      <c r="K8" s="67">
+      <c r="K8" s="66">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="L8" s="67">
+      <c r="L8" s="66">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="M8" s="67">
+      <c r="M8" s="66">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="N8" s="67">
+      <c r="N8" s="66">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="O8" s="67">
+      <c r="O8" s="66">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="P8" s="67">
+      <c r="P8" s="66">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="Q8" s="67">
+      <c r="Q8" s="66">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="R8" s="67">
+      <c r="R8" s="66">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S8" s="67">
+      <c r="S8" s="66">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="T8" s="67">
+      <c r="T8" s="66">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="U8" s="67">
+      <c r="U8" s="66">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="V8" s="67">
+      <c r="V8" s="66">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="W8" s="67">
+      <c r="W8" s="66">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="X8" s="67">
+      <c r="X8" s="66">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16.8">
-      <c r="A9" s="78" t="s">
+    <row r="9" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="82">
+      <c r="B9" s="84"/>
+      <c r="C9" s="87">
         <v>1.6180000000000001</v>
       </c>
-      <c r="D9" s="83"/>
+      <c r="D9" s="88"/>
       <c r="G9" s="57" t="s">
         <v>17</v>
       </c>
@@ -2367,15 +3053,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="22.2" thickBot="1">
-      <c r="A10" s="84" t="s">
+    <row r="10" spans="1:24" ht="22.2" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86">
+      <c r="B10" s="90"/>
+      <c r="C10" s="91">
         <v>13</v>
       </c>
-      <c r="D10" s="87"/>
+      <c r="D10" s="92"/>
       <c r="G10" s="61" t="s">
         <v>75</v>
       </c>
@@ -2431,7 +3117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="18" thickTop="1" thickBot="1">
+    <row r="11" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -2508,7 +3194,7 @@
         <v>-130</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="18" thickTop="1" thickBot="1">
+    <row r="12" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>8</v>
       </c>
@@ -2590,7 +3276,7 @@
         <v>-194.16</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="17.399999999999999" thickTop="1">
+    <row r="13" spans="1:24" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="str">
         <f>IF($C$10&gt;0,"L1",0)</f>
         <v>L1</v>
@@ -2673,7 +3359,7 @@
         <v>-287.97164000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="16.8">
+    <row r="14" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="str">
         <f>IF(A13=0,0,IF(VALUE(MID(A13,2,2))&gt;=$C$10,0,"L"&amp;VALUE(MID(A13,2,2))+1))</f>
         <v>L2</v>
@@ -2753,7 +3439,7 @@
         <v>-423.58010320000005</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="16.8">
+    <row r="15" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="str">
         <f t="shared" ref="A15:A43" si="8">IF(A14=0,0,IF(VALUE(MID(A14,2,2))&gt;=$C$10,0,"L"&amp;VALUE(MID(A14,2,2))+1))</f>
         <v>L3</v>
@@ -2830,7 +3516,7 @@
         <v>-616.81734627984008</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="16.8">
+    <row r="16" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L4</v>
@@ -2904,7 +3590,7 @@
         <v>-887.1204144718057</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="16.8">
+    <row r="17" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L5</v>
@@ -2975,7 +3661,7 @@
         <v>-1255.940726788459</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="16.8">
+    <row r="18" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L6</v>
@@ -3043,7 +3729,7 @@
         <v>-1741.8103679517658</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="16.8">
+    <row r="19" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L7</v>
@@ -3108,7 +3794,7 @@
         <v>-2348.5409794549641</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="16.8">
+    <row r="20" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="str">
         <f>IF(A19=0,0,IF(VALUE(MID(A19,2,2))&gt;=$C$10,0,"L"&amp;VALUE(MID(A19,2,2))+1))</f>
         <v>L8</v>
@@ -3170,7 +3856,7 @@
         <v>-3039.9514438065062</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="16.8">
+    <row r="21" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L9</v>
@@ -3229,7 +3915,7 @@
         <v>-3688.9810770591953</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="16.8">
+    <row r="22" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L10</v>
@@ -3285,7 +3971,7 @@
         <v>-3979.1809217878522</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="16.8">
+    <row r="23" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L11</v>
@@ -3338,7 +4024,7 @@
         <v>-3219.157365726373</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="16.8">
+    <row r="24" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L12</v>
@@ -3388,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="16.8">
+    <row r="25" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L13</v>
@@ -3435,7 +4121,7 @@
         <v>5208.5966177452719</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="16.8">
+    <row r="26" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A26" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3479,7 +4165,7 @@
         <v>27271.420183828348</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="16.8">
+    <row r="27" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A27" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3499,73 +4185,76 @@
       <c r="G27" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="65"/>
-      <c r="I27" s="66">
+      <c r="H27" s="102">
+        <f>SUM(H11:H26)</f>
+        <v>35.683784674299567</v>
+      </c>
+      <c r="I27" s="65">
         <f t="shared" ref="I27:X27" si="15">SUM(I11:I26)</f>
         <v>20</v>
       </c>
-      <c r="J27" s="66">
+      <c r="J27" s="65">
         <f t="shared" si="15"/>
         <v>42.36</v>
       </c>
-      <c r="K27" s="66">
+      <c r="K27" s="65">
         <f t="shared" si="15"/>
         <v>68.538480000000007</v>
       </c>
-      <c r="L27" s="66">
+      <c r="L27" s="65">
         <f t="shared" si="15"/>
         <v>100.89526064000002</v>
       </c>
-      <c r="M27" s="66">
+      <c r="M27" s="65">
         <f t="shared" si="15"/>
         <v>143.24853171552002</v>
       </c>
-      <c r="N27" s="66">
+      <c r="N27" s="65">
         <f t="shared" si="15"/>
         <v>201.77612431571143</v>
       </c>
-      <c r="O27" s="66">
+      <c r="O27" s="65">
         <f t="shared" si="15"/>
         <v>286.4737691428212</v>
       </c>
-      <c r="P27" s="66">
+      <c r="P27" s="65">
         <f t="shared" si="15"/>
         <v>413.51455847308455</v>
       </c>
-      <c r="Q27" s="66">
+      <c r="Q27" s="65">
         <f t="shared" si="15"/>
         <v>609.06655560945103</v>
       </c>
-      <c r="R27" s="66">
+      <c r="R27" s="65">
         <f t="shared" si="15"/>
         <v>915.46968697609168</v>
       </c>
-      <c r="S27" s="66">
+      <c r="S27" s="65">
         <f t="shared" si="15"/>
         <v>1401.2299535273162</v>
       </c>
-      <c r="T27" s="66">
+      <c r="T27" s="65">
         <f t="shared" si="15"/>
         <v>2177.1900648071978</v>
       </c>
-      <c r="U27" s="66">
+      <c r="U27" s="65">
         <f t="shared" si="15"/>
         <v>3422.6935248580476</v>
       </c>
-      <c r="V27" s="66">
+      <c r="V27" s="65">
         <f t="shared" si="15"/>
         <v>5427.9181232203209</v>
       </c>
-      <c r="W27" s="66">
+      <c r="W27" s="65">
         <f t="shared" si="15"/>
         <v>8662.3715233704806</v>
       </c>
-      <c r="X27" s="66">
+      <c r="X27" s="65">
         <f t="shared" si="15"/>
         <v>10666.80441504686</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="16.8">
+    <row r="28" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A28" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3584,72 +4273,72 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="69">
+      <c r="I28" s="68">
         <f>SUM($H11:$H11)</f>
         <v>0.01</v>
       </c>
-      <c r="J28" s="69">
+      <c r="J28" s="68">
         <f>SUM($H11:$H12)</f>
         <v>2.6180000000000002E-2</v>
       </c>
-      <c r="K28" s="69">
+      <c r="K28" s="68">
         <f>SUM($H11:$H13)</f>
         <v>5.2359240000000001E-2</v>
       </c>
-      <c r="L28" s="69">
+      <c r="L28" s="68">
         <f>SUM($H11:$H14)</f>
         <v>9.4717250320000002E-2</v>
       </c>
-      <c r="M28" s="69">
+      <c r="M28" s="68">
         <f>SUM($H11:$H15)</f>
         <v>0.16325251101776</v>
       </c>
-      <c r="N28" s="69">
+      <c r="N28" s="68">
         <f>SUM($H11:$H16)</f>
         <v>0.27414256282673571</v>
       </c>
-      <c r="O28" s="69">
+      <c r="O28" s="68">
         <f>SUM($H11:$H17)</f>
         <v>0.45356266665365841</v>
       </c>
-      <c r="P28" s="69">
+      <c r="P28" s="68">
         <f>SUM($H11:$H18)</f>
         <v>0.74386439464561938</v>
       </c>
-      <c r="Q28" s="69">
+      <c r="Q28" s="68">
         <f>SUM($H11:$H19)</f>
         <v>1.2135725905366122</v>
       </c>
-      <c r="R28" s="69">
+      <c r="R28" s="68">
         <f>SUM($H11:$H20)</f>
         <v>1.9735604514882388</v>
       </c>
-      <c r="S28" s="69">
+      <c r="S28" s="68">
         <f>SUM($H11:$H21)</f>
         <v>3.2032208105079705</v>
       </c>
-      <c r="T28" s="69">
+      <c r="T28" s="68">
         <f>SUM($H11:$H22)</f>
         <v>5.1928112714018964</v>
       </c>
-      <c r="U28" s="69">
+      <c r="U28" s="68">
         <f>SUM($H11:$H23)</f>
         <v>8.4119686371282683</v>
       </c>
-      <c r="V28" s="69">
+      <c r="V28" s="68">
         <f>SUM($H11:$H24)</f>
         <v>13.62056525487354</v>
       </c>
-      <c r="W28" s="69">
+      <c r="W28" s="68">
         <f>SUM($H11:$H25)</f>
         <v>22.048074582385389</v>
       </c>
-      <c r="X28" s="69">
+      <c r="X28" s="68">
         <f>SUM($H11:$H26)</f>
         <v>35.683784674299567</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="16.8">
+    <row r="29" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A29" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3667,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="16.8">
+    <row r="30" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A30" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3685,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="16.8">
+    <row r="31" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A31" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3703,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="16.8">
+    <row r="32" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A32" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3721,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.8">
+    <row r="33" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A33" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3739,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.8">
+    <row r="34" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A34" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3757,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.8">
+    <row r="35" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A35" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3775,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.8">
+    <row r="36" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A36" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3793,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.8">
+    <row r="37" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A37" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3811,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.8">
+    <row r="38" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A38" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3829,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.8">
+    <row r="39" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A39" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3847,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.8">
+    <row r="40" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A40" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3865,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.8">
+    <row r="41" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A41" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3883,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.8">
+    <row r="42" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A42" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3901,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17.399999999999999" thickBot="1">
+    <row r="43" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3919,11 +4608,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18" thickTop="1" thickBot="1">
-      <c r="A44" s="76" t="s">
+    <row r="44" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="77"/>
+      <c r="B44" s="82"/>
       <c r="C44" s="48">
         <f>SUM(C13:C43)</f>
         <v>13401.243749398493</v>
@@ -3933,12 +4622,31 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="13.8" thickTop="1"/>
+    <row r="45" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="C2:D10" name="DATA_2"/>
   </protectedRanges>
   <mergeCells count="26">
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A1:D1"/>
@@ -3946,104 +4654,85 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="31" priority="30">
       <formula>$I$10=$C$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="30" priority="31">
       <formula>$J$10=$C$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="29" priority="32">
       <formula>$K$10=$C$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>$L$10=$C$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>$M$10=$C$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>$N$10=$C$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>$O$10=$C$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>$P$10=$C$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>$Q$10=$C$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>$R$10=$C$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>$S$10=$C$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>$T$10=$C$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$U$10=$C$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>$V$10=$C$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>$W$10=$C$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X10">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$X$10=$C$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4053,31 +4742,112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA98322F-0878-4665-AE70-EE3935159A4D}">
+  <dimension ref="B3:AU56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A89" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="3" spans="2:47" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU3">
+        <v>107.7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" t="s">
+        <v>89</v>
+      </c>
+      <c r="M56" t="s">
+        <v>90</v>
+      </c>
+      <c r="O56" t="s">
+        <v>91</v>
+      </c>
+      <c r="X56" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:W32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="13"/>
+    <col min="1" max="1" width="9.09765625" style="13"/>
     <col min="2" max="2" width="6" style="13" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" style="39"/>
-    <col min="5" max="5" width="15.44140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="39"/>
-    <col min="7" max="20" width="9.109375" style="13"/>
-    <col min="21" max="21" width="10.44140625" style="13" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" style="13"/>
+    <col min="3" max="4" width="9.09765625" style="39"/>
+    <col min="5" max="5" width="15.3984375" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.09765625" style="39"/>
+    <col min="7" max="20" width="9.09765625" style="13"/>
+    <col min="21" max="21" width="10.3984375" style="13" customWidth="1"/>
+    <col min="22" max="16384" width="9.09765625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23">
-      <c r="B1" s="99" t="s">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B1" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="14" t="s">
         <v>55</v>
       </c>
@@ -4091,12 +4861,12 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="2" spans="2:23">
-      <c r="B2" s="99" t="s">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B2" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
       <c r="E2" s="16" t="s">
         <v>15</v>
       </c>
@@ -4145,10 +4915,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:23">
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="19" t="s">
         <v>56</v>
       </c>
@@ -4211,12 +4981,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="14.4" thickBot="1">
-      <c r="B4" s="101" t="s">
+    <row r="4" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="102"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
@@ -4267,7 +5037,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="15" thickBot="1">
+    <row r="5" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="50" t="s">
         <v>57</v>
       </c>
@@ -4332,7 +5102,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:23">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B6" s="26" t="s">
         <v>35</v>
       </c>
@@ -4413,7 +5183,7 @@
       <c r="V6" s="32"/>
       <c r="W6" s="32"/>
     </row>
-    <row r="7" spans="2:23">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B7" s="26" t="s">
         <v>36</v>
       </c>
@@ -4493,7 +5263,7 @@
       <c r="V7" s="32"/>
       <c r="W7" s="32"/>
     </row>
-    <row r="8" spans="2:23">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B8" s="26" t="s">
         <v>37</v>
       </c>
@@ -4570,7 +5340,7 @@
       <c r="V8" s="32"/>
       <c r="W8" s="32"/>
     </row>
-    <row r="9" spans="2:23">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B9" s="26" t="s">
         <v>38</v>
       </c>
@@ -4644,7 +5414,7 @@
       <c r="V9" s="32"/>
       <c r="W9" s="32"/>
     </row>
-    <row r="10" spans="2:23">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B10" s="26" t="s">
         <v>39</v>
       </c>
@@ -4715,7 +5485,7 @@
       <c r="V10" s="32"/>
       <c r="W10" s="32"/>
     </row>
-    <row r="11" spans="2:23">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B11" s="26" t="s">
         <v>40</v>
       </c>
@@ -4783,7 +5553,7 @@
       <c r="V11" s="32"/>
       <c r="W11" s="32"/>
     </row>
-    <row r="12" spans="2:23">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B12" s="26" t="s">
         <v>41</v>
       </c>
@@ -4847,7 +5617,7 @@
       <c r="V12" s="32"/>
       <c r="W12" s="32"/>
     </row>
-    <row r="13" spans="2:23">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B13" s="26" t="s">
         <v>42</v>
       </c>
@@ -4909,7 +5679,7 @@
       <c r="V13" s="32"/>
       <c r="W13" s="32"/>
     </row>
-    <row r="14" spans="2:23">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B14" s="26" t="s">
         <v>43</v>
       </c>
@@ -4967,7 +5737,7 @@
       <c r="V14" s="32"/>
       <c r="W14" s="32"/>
     </row>
-    <row r="15" spans="2:23" ht="14.1" customHeight="1">
+    <row r="15" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="26" t="s">
         <v>44</v>
       </c>
@@ -5022,7 +5792,7 @@
       <c r="V15" s="32"/>
       <c r="W15" s="32"/>
     </row>
-    <row r="16" spans="2:23">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B16" s="26" t="s">
         <v>45</v>
       </c>
@@ -5074,7 +5844,7 @@
       <c r="V16" s="32"/>
       <c r="W16" s="32"/>
     </row>
-    <row r="17" spans="2:23">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B17" s="26" t="s">
         <v>46</v>
       </c>
@@ -5123,7 +5893,7 @@
       <c r="V17" s="32"/>
       <c r="W17" s="32"/>
     </row>
-    <row r="18" spans="2:23">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B18" s="26" t="s">
         <v>47</v>
       </c>
@@ -5169,7 +5939,7 @@
       <c r="V18" s="32"/>
       <c r="W18" s="32"/>
     </row>
-    <row r="19" spans="2:23">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B19" s="26" t="s">
         <v>48</v>
       </c>
@@ -5212,7 +5982,7 @@
       <c r="V19" s="32"/>
       <c r="W19" s="32"/>
     </row>
-    <row r="20" spans="2:23" ht="14.4" thickBot="1">
+    <row r="20" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="26" t="s">
         <v>49</v>
       </c>
@@ -5252,7 +6022,7 @@
       <c r="V20" s="32"/>
       <c r="W20" s="32"/>
     </row>
-    <row r="21" spans="2:23" ht="14.4" thickBot="1">
+    <row r="21" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="26" t="s">
         <v>50</v>
       </c>
@@ -5322,7 +6092,7 @@
       <c r="V21" s="32"/>
       <c r="W21" s="32"/>
     </row>
-    <row r="22" spans="2:23" ht="14.4" thickBot="1">
+    <row r="22" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="26" t="s">
         <v>61</v>
       </c>
@@ -5345,14 +6115,14 @@
       <c r="V22" s="32"/>
       <c r="W22" s="32"/>
     </row>
-    <row r="23" spans="2:23" ht="14.4" thickBot="1">
+    <row r="23" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="26" t="s">
         <v>62</v>
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="32"/>
     </row>
-    <row r="24" spans="2:23" ht="14.4" thickBot="1">
+    <row r="24" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="26" t="s">
         <v>63</v>
       </c>
@@ -5360,31 +6130,31 @@
         <f>SUM(F6:F20)</f>
         <v>36.629999999999995</v>
       </c>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="98"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
-    </row>
-    <row r="25" spans="2:23" ht="14.4" thickBot="1">
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="97"/>
+      <c r="T24" s="97"/>
+      <c r="U24" s="97"/>
+      <c r="V24" s="97"/>
+    </row>
+    <row r="25" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="2:23" ht="14.4" thickBot="1">
+    <row r="26" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="26" t="s">
         <v>65</v>
       </c>
@@ -5407,35 +6177,35 @@
       <c r="V26" s="32"/>
       <c r="W26" s="32"/>
     </row>
-    <row r="27" spans="2:23" ht="14.4" thickBot="1">
+    <row r="27" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F27" s="40"/>
     </row>
-    <row r="28" spans="2:23" ht="14.4" thickBot="1">
+    <row r="28" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F28" s="40"/>
     </row>
-    <row r="29" spans="2:23" ht="14.4" thickBot="1">
+    <row r="29" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="26" t="s">
         <v>68</v>
       </c>
       <c r="F29" s="40"/>
     </row>
-    <row r="30" spans="2:23">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B30" s="26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="2:23">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B31" s="26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:23">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B32" s="26" t="s">
         <v>71</v>
       </c>

--- a/bsc_scan_binance/src/main/resources/MQL5/XXX.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\ScanBinance\bsc_scan_binance\src\main\resources\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C27ADDA-01C2-408D-9CAF-543DC841DD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB2614B-380A-4734-AC18-939D126F9488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5724" yWindow="0" windowWidth="32100" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
   <si>
     <t>THÔNG TIN ĐẦU VÀO</t>
   </si>
@@ -257,67 +257,6 @@
   </si>
   <si>
     <t>.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Khối lượng </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF002060"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ban đ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF002060"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ầ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF002060"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>u</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t>Số Lệ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF002060"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>nh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF002060"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> đánh</t>
-    </r>
-    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>L</t>
@@ -443,6 +382,45 @@
     </r>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>TP</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>TP L17</t>
+  </si>
+  <si>
+    <t>TP L18</t>
+  </si>
+  <si>
+    <t>TP L19</t>
+  </si>
+  <si>
+    <t>TP L20</t>
+  </si>
+  <si>
+    <t>TP L21</t>
+  </si>
+  <si>
+    <t>TP L22</t>
+  </si>
+  <si>
+    <t>TP L23</t>
+  </si>
+  <si>
+    <t>TP L24</t>
+  </si>
+  <si>
+    <t>TP L25</t>
+  </si>
+  <si>
+    <t>Khối lượng ban đầu</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Số Lệnh đánh</t>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
@@ -451,14 +429,14 @@
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="0;\-0;;\ @"/>
     <numFmt numFmtId="181" formatCode="0.00;\-0.00;;\ @"/>
     <numFmt numFmtId="182" formatCode="#,##0.000"/>
     <numFmt numFmtId="183" formatCode="#,##0.0"/>
+    <numFmt numFmtId="184" formatCode="#,##0.000_);\(#,##0.000\)"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,20 +586,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF002060"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF002060"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="163"/>
     </font>
     <font>
       <i/>
@@ -775,7 +739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -793,103 +757,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -901,92 +768,6 @@
       </top>
       <bottom style="hair">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,17 +881,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1402,6 +1172,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1410,22 +1217,22 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="180" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="181" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1437,173 +1244,173 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="14" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="12" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="13" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="17" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="180" fontId="13" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="20" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="20" fillId="6" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="20" fillId="20" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="24" fillId="8" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="10" borderId="13" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1612,84 +1419,42 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="19" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="19" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="19" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="19" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="26" fillId="8" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="10" borderId="27" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="20" fillId="20" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="19" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="15" fillId="19" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="15" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="19" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -1700,119 +1465,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -2652,10 +2305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X45"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2665,15 +2318,11 @@
     <col min="3" max="4" width="14.69921875" style="11" customWidth="1"/>
     <col min="5" max="6" width="9.09765625" style="5"/>
     <col min="7" max="7" width="19" style="5" customWidth="1"/>
-    <col min="8" max="24" width="10.59765625" style="5" customWidth="1"/>
-    <col min="25" max="26" width="9.09765625" style="5"/>
-    <col min="27" max="27" width="14.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.8984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.09765625" style="5"/>
+    <col min="8" max="33" width="10.59765625" style="5" customWidth="1"/>
+    <col min="34" max="16384" width="9.09765625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
@@ -2681,68 +2330,77 @@
       <c r="C1" s="76"/>
       <c r="D1" s="76"/>
     </row>
-    <row r="2" spans="1:24" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="77" t="s">
+    <row r="2" spans="1:33" ht="25.2" x14ac:dyDescent="0.4">
+      <c r="A2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="79">
-        <v>10</v>
-      </c>
-      <c r="D2" s="80"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="96" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="83">
+        <v>3</v>
+      </c>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96" t="s">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96" t="s">
+      <c r="M2" s="72"/>
+      <c r="N2" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-    </row>
-    <row r="3" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="71" t="s">
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+    </row>
+    <row r="3" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73">
-        <f>C2</f>
-        <v>10</v>
-      </c>
-      <c r="D3" s="74"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="84">
+        <f>D2</f>
+        <v>3</v>
+      </c>
       <c r="G3" s="51"/>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
-      <c r="J3" s="93">
+      <c r="J3" s="69">
         <f>SUM('Bảng Input L30'!B13:B43)</f>
-        <v>8.4119686371282683</v>
-      </c>
-      <c r="K3" s="93"/>
-      <c r="L3" s="94">
+        <v>640.51297768286497</v>
+      </c>
+      <c r="K3" s="69"/>
+      <c r="L3" s="70">
         <f>J3*91</f>
-        <v>765.48914597867247</v>
-      </c>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95">
+        <v>58286.680969140711</v>
+      </c>
+      <c r="M3" s="70"/>
+      <c r="N3" s="71">
         <f>L3+'Bảng Input L30'!C44</f>
-        <v>14166.732895377165</v>
-      </c>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
+        <v>561261.6839788137</v>
+      </c>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
       <c r="S3" s="43"/>
@@ -2751,24 +2409,36 @@
       <c r="V3" s="43"/>
       <c r="W3" s="43"/>
       <c r="X3" s="43"/>
-    </row>
-    <row r="4" spans="1:24" ht="19.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="71" t="s">
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+    </row>
+    <row r="4" spans="1:33" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A4" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73">
-        <f>C3</f>
-        <v>10</v>
-      </c>
-      <c r="D4" s="74"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="84">
+        <f>D3</f>
+        <v>3</v>
+      </c>
       <c r="G4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="82">
+        <f>D9</f>
         <v>1.6180000000000001</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1">
+        <v>1.3819999999999999</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2784,24 +2454,35 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" ht="19.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="71" t="s">
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="1:33" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A5" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73">
-        <f>C4</f>
-        <v>10</v>
-      </c>
-      <c r="D5" s="74"/>
-      <c r="G5" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="54">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="84">
+        <f>D4</f>
+        <v>3</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="53">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.6180000000000001</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -2817,384 +2498,528 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-    </row>
-    <row r="6" spans="1:24" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="71" t="s">
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+    </row>
+    <row r="6" spans="1:33" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73">
-        <f>C5</f>
-        <v>10</v>
-      </c>
-      <c r="D6" s="74"/>
-      <c r="G6" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="56">
-        <v>20</v>
-      </c>
-      <c r="N6" s="70" t="s">
+      <c r="B6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="84">
+        <f>D5</f>
+        <v>3</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="54">
+        <v>9</v>
+      </c>
+      <c r="N6" s="67" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71" t="s">
+    <row r="7" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73">
-        <f>C6</f>
-        <v>10</v>
-      </c>
-      <c r="D7" s="74"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="84">
+        <f>D6</f>
+        <v>3</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="66">
+      <c r="I7" s="64">
         <v>2200</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="64">
         <f>I7-H$5</f>
-        <v>2190</v>
-      </c>
-      <c r="K7" s="66">
+        <v>2197</v>
+      </c>
+      <c r="K7" s="64">
         <f t="shared" ref="K7:X7" si="0">J7-$H$5</f>
-        <v>2180</v>
-      </c>
-      <c r="L7" s="66">
+        <v>2194</v>
+      </c>
+      <c r="L7" s="64">
+        <f t="shared" si="0"/>
+        <v>2191</v>
+      </c>
+      <c r="M7" s="64">
+        <f t="shared" si="0"/>
+        <v>2188</v>
+      </c>
+      <c r="N7" s="64">
+        <f t="shared" si="0"/>
+        <v>2185</v>
+      </c>
+      <c r="O7" s="64">
+        <f t="shared" si="0"/>
+        <v>2182</v>
+      </c>
+      <c r="P7" s="64">
+        <f t="shared" si="0"/>
+        <v>2179</v>
+      </c>
+      <c r="Q7" s="64">
+        <f t="shared" si="0"/>
+        <v>2176</v>
+      </c>
+      <c r="R7" s="64">
+        <f t="shared" si="0"/>
+        <v>2173</v>
+      </c>
+      <c r="S7" s="64">
         <f t="shared" si="0"/>
         <v>2170</v>
       </c>
-      <c r="M7" s="66">
+      <c r="T7" s="64">
         <f t="shared" si="0"/>
-        <v>2160</v>
-      </c>
-      <c r="N7" s="66">
+        <v>2167</v>
+      </c>
+      <c r="U7" s="64">
         <f t="shared" si="0"/>
-        <v>2150</v>
-      </c>
-      <c r="O7" s="66">
+        <v>2164</v>
+      </c>
+      <c r="V7" s="64">
         <f t="shared" si="0"/>
+        <v>2161</v>
+      </c>
+      <c r="W7" s="64">
+        <f t="shared" si="0"/>
+        <v>2158</v>
+      </c>
+      <c r="X7" s="64">
+        <f t="shared" si="0"/>
+        <v>2155</v>
+      </c>
+      <c r="Y7" s="64">
+        <f t="shared" ref="Y7" si="1">X7-$H$5</f>
+        <v>2152</v>
+      </c>
+      <c r="Z7" s="64">
+        <f t="shared" ref="Z7" si="2">Y7-$H$5</f>
+        <v>2149</v>
+      </c>
+      <c r="AA7" s="64">
+        <f t="shared" ref="AA7" si="3">Z7-$H$5</f>
+        <v>2146</v>
+      </c>
+      <c r="AB7" s="64">
+        <f t="shared" ref="AB7" si="4">AA7-$H$5</f>
+        <v>2143</v>
+      </c>
+      <c r="AC7" s="64">
+        <f t="shared" ref="AC7" si="5">AB7-$H$5</f>
         <v>2140</v>
       </c>
-      <c r="P7" s="66">
-        <f t="shared" si="0"/>
-        <v>2130</v>
-      </c>
-      <c r="Q7" s="66">
-        <f t="shared" si="0"/>
-        <v>2120</v>
-      </c>
-      <c r="R7" s="66">
-        <f t="shared" si="0"/>
-        <v>2110</v>
-      </c>
-      <c r="S7" s="66">
-        <f t="shared" si="0"/>
-        <v>2100</v>
-      </c>
-      <c r="T7" s="66">
-        <f t="shared" si="0"/>
-        <v>2090</v>
-      </c>
-      <c r="U7" s="66">
-        <f t="shared" si="0"/>
-        <v>2080</v>
-      </c>
-      <c r="V7" s="66">
-        <f t="shared" si="0"/>
-        <v>2070</v>
-      </c>
-      <c r="W7" s="66">
-        <f t="shared" si="0"/>
-        <v>2060</v>
-      </c>
-      <c r="X7" s="66">
-        <f t="shared" si="0"/>
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="21.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="85">
+      <c r="AD7" s="64">
+        <f t="shared" ref="AD7" si="6">AC7-$H$5</f>
+        <v>2137</v>
+      </c>
+      <c r="AE7" s="64">
+        <f t="shared" ref="AE7" si="7">AD7-$H$5</f>
+        <v>2134</v>
+      </c>
+      <c r="AF7" s="64">
+        <f t="shared" ref="AF7" si="8">AE7-$H$5</f>
+        <v>2131</v>
+      </c>
+      <c r="AG7" s="64">
+        <f t="shared" ref="AG7" si="9">AF7-$H$5</f>
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="89"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="85">
         <v>0.01</v>
       </c>
-      <c r="D8" s="86"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="66">
-        <v>0</v>
-      </c>
-      <c r="J8" s="66">
-        <f t="shared" ref="J8:X8" si="1">$I$7-J7</f>
+      <c r="I8" s="64">
+        <v>0</v>
+      </c>
+      <c r="J8" s="64">
+        <f t="shared" ref="J8:X8" si="10">$I$7-J7</f>
+        <v>3</v>
+      </c>
+      <c r="K8" s="64">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="L8" s="64">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="M8" s="64">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="N8" s="64">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="O8" s="64">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="P8" s="64">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="Q8" s="64">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="R8" s="64">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="S8" s="64">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="T8" s="64">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="U8" s="64">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="V8" s="64">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="W8" s="64">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="X8" s="64">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="Y8" s="64">
+        <f t="shared" ref="Y8:AG8" si="11">$I$7-Y7</f>
+        <v>48</v>
+      </c>
+      <c r="Z8" s="64">
+        <f t="shared" si="11"/>
+        <v>51</v>
+      </c>
+      <c r="AA8" s="64">
+        <f t="shared" si="11"/>
+        <v>54</v>
+      </c>
+      <c r="AB8" s="64">
+        <f t="shared" si="11"/>
+        <v>57</v>
+      </c>
+      <c r="AC8" s="64">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="AD8" s="64">
+        <f t="shared" si="11"/>
+        <v>63</v>
+      </c>
+      <c r="AE8" s="64">
+        <f t="shared" si="11"/>
+        <v>66</v>
+      </c>
+      <c r="AF8" s="64">
+        <f t="shared" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="AG8" s="64">
+        <f t="shared" si="11"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="89"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="86">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y9" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z9" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA9" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB9" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC9" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD9" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE9" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF9" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG9" s="55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="89"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="87">
+        <v>22</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="55">
+        <v>1</v>
+      </c>
+      <c r="J10" s="55">
+        <v>2</v>
+      </c>
+      <c r="K10" s="55">
+        <v>3</v>
+      </c>
+      <c r="L10" s="55">
+        <v>4</v>
+      </c>
+      <c r="M10" s="55">
+        <v>5</v>
+      </c>
+      <c r="N10" s="55">
+        <v>6</v>
+      </c>
+      <c r="O10" s="55">
+        <v>7</v>
+      </c>
+      <c r="P10" s="55">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="55">
+        <v>9</v>
+      </c>
+      <c r="R10" s="55">
         <v>10</v>
       </c>
-      <c r="K8" s="66">
-        <f t="shared" si="1"/>
+      <c r="S10" s="55">
+        <v>11</v>
+      </c>
+      <c r="T10" s="55">
+        <v>12</v>
+      </c>
+      <c r="U10" s="55">
+        <v>13</v>
+      </c>
+      <c r="V10" s="55">
+        <v>14</v>
+      </c>
+      <c r="W10" s="55">
+        <v>15</v>
+      </c>
+      <c r="X10" s="55">
+        <v>16</v>
+      </c>
+      <c r="Y10" s="55">
+        <v>17</v>
+      </c>
+      <c r="Z10" s="55">
+        <v>18</v>
+      </c>
+      <c r="AA10" s="55">
+        <v>19</v>
+      </c>
+      <c r="AB10" s="55">
         <v>20</v>
       </c>
-      <c r="L8" s="66">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="M8" s="66">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N8" s="66">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="O8" s="66">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="P8" s="66">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="Q8" s="66">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="R8" s="66">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="S8" s="66">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="T8" s="66">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="U8" s="66">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="V8" s="66">
-        <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="W8" s="66">
-        <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-      <c r="X8" s="66">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="87">
-        <v>1.6180000000000001</v>
-      </c>
-      <c r="D9" s="88"/>
-      <c r="G9" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="57" t="s">
+      <c r="AC10" s="55">
         <v>21</v>
       </c>
-      <c r="L9" s="57" t="s">
+      <c r="AD10" s="55">
         <v>22</v>
       </c>
-      <c r="M9" s="57" t="s">
+      <c r="AE10" s="55">
         <v>23</v>
       </c>
-      <c r="N9" s="57" t="s">
+      <c r="AF10" s="55">
         <v>24</v>
       </c>
-      <c r="O9" s="57" t="s">
+      <c r="AG10" s="55">
         <v>25</v>
       </c>
-      <c r="P9" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="R9" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="S9" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="U9" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="V9" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="W9" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="X9" s="57" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="22.2" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="91">
-        <v>13</v>
-      </c>
-      <c r="D10" s="92"/>
-      <c r="G10" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="57">
-        <v>1</v>
-      </c>
-      <c r="J10" s="57">
-        <v>2</v>
-      </c>
-      <c r="K10" s="57">
-        <v>3</v>
-      </c>
-      <c r="L10" s="57">
-        <v>4</v>
-      </c>
-      <c r="M10" s="57">
-        <v>5</v>
-      </c>
-      <c r="N10" s="57">
-        <v>6</v>
-      </c>
-      <c r="O10" s="57">
-        <v>7</v>
-      </c>
-      <c r="P10" s="57">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="57">
-        <v>9</v>
-      </c>
-      <c r="R10" s="57">
-        <v>10</v>
-      </c>
-      <c r="S10" s="57">
-        <v>11</v>
-      </c>
-      <c r="T10" s="57">
-        <v>12</v>
-      </c>
-      <c r="U10" s="57">
-        <v>13</v>
-      </c>
-      <c r="V10" s="57">
-        <v>14</v>
-      </c>
-      <c r="W10" s="57">
-        <v>15</v>
-      </c>
-      <c r="X10" s="57">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:33" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="G11" s="62">
+      <c r="G11" s="60">
         <v>1</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="61">
         <f>'Bảng Input L30'!B13</f>
         <v>0.01</v>
       </c>
-      <c r="I11" s="59">
+      <c r="I11" s="57">
         <f>H11*H6*100</f>
-        <v>20</v>
-      </c>
-      <c r="J11" s="59">
+        <v>9</v>
+      </c>
+      <c r="J11" s="57">
         <f>H11*100*(H6-H5)</f>
-        <v>10</v>
-      </c>
-      <c r="K11" s="59">
-        <f t="shared" ref="K11:X11" si="2">$H$11*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="59">
-        <f t="shared" si="2"/>
-        <v>-10</v>
-      </c>
-      <c r="M11" s="59">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="N11" s="59">
-        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K11" s="57">
+        <f t="shared" ref="K11:X11" si="12">$H$11*100*($H$6-$H$5*J10)</f>
+        <v>3</v>
+      </c>
+      <c r="L11" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="57">
+        <f>$H$11*100*($H$6-$H$5*L10)</f>
+        <v>-3</v>
+      </c>
+      <c r="N11" s="57">
+        <f t="shared" si="12"/>
+        <v>-6</v>
+      </c>
+      <c r="O11" s="57">
+        <f t="shared" si="12"/>
+        <v>-9</v>
+      </c>
+      <c r="P11" s="57">
+        <f t="shared" si="12"/>
+        <v>-12</v>
+      </c>
+      <c r="Q11" s="57">
+        <f t="shared" si="12"/>
+        <v>-15</v>
+      </c>
+      <c r="R11" s="57">
+        <f t="shared" si="12"/>
+        <v>-18</v>
+      </c>
+      <c r="S11" s="57">
+        <f t="shared" si="12"/>
+        <v>-21</v>
+      </c>
+      <c r="T11" s="57">
+        <f t="shared" si="12"/>
+        <v>-24</v>
+      </c>
+      <c r="U11" s="57">
+        <f t="shared" si="12"/>
+        <v>-27</v>
+      </c>
+      <c r="V11" s="57">
+        <f t="shared" si="12"/>
         <v>-30</v>
       </c>
-      <c r="O11" s="59">
-        <f t="shared" si="2"/>
-        <v>-40</v>
-      </c>
-      <c r="P11" s="59">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="Q11" s="59">
-        <f t="shared" si="2"/>
-        <v>-60</v>
-      </c>
-      <c r="R11" s="59">
-        <f t="shared" si="2"/>
-        <v>-70</v>
-      </c>
-      <c r="S11" s="59">
-        <f t="shared" si="2"/>
-        <v>-80</v>
-      </c>
-      <c r="T11" s="59">
-        <f t="shared" si="2"/>
-        <v>-90</v>
-      </c>
-      <c r="U11" s="59">
-        <f t="shared" si="2"/>
-        <v>-100</v>
-      </c>
-      <c r="V11" s="59">
-        <f t="shared" si="2"/>
-        <v>-110</v>
-      </c>
-      <c r="W11" s="59">
-        <f t="shared" si="2"/>
-        <v>-120</v>
-      </c>
-      <c r="X11" s="59">
-        <f t="shared" si="2"/>
-        <v>-130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W11" s="57">
+        <f t="shared" si="12"/>
+        <v>-33</v>
+      </c>
+      <c r="X11" s="57">
+        <f t="shared" si="12"/>
+        <v>-36</v>
+      </c>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="57"/>
+    </row>
+    <row r="12" spans="1:33" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>8</v>
       </c>
@@ -3207,337 +3032,373 @@
       <c r="D12" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="60">
         <v>2</v>
       </c>
-      <c r="H12" s="58">
-        <f t="shared" ref="H12:H26" si="3">H11*$H$4</f>
+      <c r="H12" s="56">
+        <f t="shared" ref="H12:H26" si="13">H11*$H$4</f>
         <v>1.618E-2</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="59">
+      <c r="J12" s="57">
         <f>H12*100*H6</f>
-        <v>32.36</v>
-      </c>
-      <c r="K12" s="59">
+        <v>14.561999999999999</v>
+      </c>
+      <c r="K12" s="57">
         <f>H12*100*(H6-H5)</f>
-        <v>16.18</v>
-      </c>
-      <c r="L12" s="59">
-        <f t="shared" ref="L12:X12" si="4">$H$12*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="59">
-        <f t="shared" si="4"/>
-        <v>-16.18</v>
-      </c>
-      <c r="N12" s="59">
-        <f t="shared" si="4"/>
-        <v>-32.36</v>
-      </c>
-      <c r="O12" s="59">
-        <f t="shared" si="4"/>
+        <v>9.7079999999999984</v>
+      </c>
+      <c r="L12" s="57">
+        <f t="shared" ref="L12:X12" si="14">$H$12*100*($H$6-$H$5*J10)</f>
+        <v>4.8539999999999992</v>
+      </c>
+      <c r="M12" s="57">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="57">
+        <f t="shared" si="14"/>
+        <v>-4.8539999999999992</v>
+      </c>
+      <c r="O12" s="57">
+        <f t="shared" si="14"/>
+        <v>-9.7079999999999984</v>
+      </c>
+      <c r="P12" s="57">
+        <f t="shared" si="14"/>
+        <v>-14.561999999999999</v>
+      </c>
+      <c r="Q12" s="57">
+        <f t="shared" si="14"/>
+        <v>-19.415999999999997</v>
+      </c>
+      <c r="R12" s="57">
+        <f t="shared" si="14"/>
+        <v>-24.27</v>
+      </c>
+      <c r="S12" s="57">
+        <f t="shared" si="14"/>
+        <v>-29.123999999999999</v>
+      </c>
+      <c r="T12" s="57">
+        <f t="shared" si="14"/>
+        <v>-33.977999999999994</v>
+      </c>
+      <c r="U12" s="57">
+        <f t="shared" si="14"/>
+        <v>-38.831999999999994</v>
+      </c>
+      <c r="V12" s="57">
+        <f t="shared" si="14"/>
+        <v>-43.686</v>
+      </c>
+      <c r="W12" s="57">
+        <f t="shared" si="14"/>
         <v>-48.54</v>
       </c>
-      <c r="P12" s="59">
-        <f t="shared" si="4"/>
-        <v>-64.72</v>
-      </c>
-      <c r="Q12" s="59">
-        <f t="shared" si="4"/>
-        <v>-80.899999999999991</v>
-      </c>
-      <c r="R12" s="59">
-        <f t="shared" si="4"/>
-        <v>-97.08</v>
-      </c>
-      <c r="S12" s="59">
-        <f t="shared" si="4"/>
-        <v>-113.25999999999999</v>
-      </c>
-      <c r="T12" s="59">
-        <f t="shared" si="4"/>
-        <v>-129.44</v>
-      </c>
-      <c r="U12" s="59">
-        <f t="shared" si="4"/>
-        <v>-145.61999999999998</v>
-      </c>
-      <c r="V12" s="59">
-        <f t="shared" si="4"/>
-        <v>-161.79999999999998</v>
-      </c>
-      <c r="W12" s="59">
-        <f t="shared" si="4"/>
-        <v>-177.98</v>
-      </c>
-      <c r="X12" s="59">
-        <f t="shared" si="4"/>
-        <v>-194.16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="X12" s="57">
+        <f t="shared" si="14"/>
+        <v>-53.393999999999998</v>
+      </c>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
+    </row>
+    <row r="13" spans="1:33" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="str">
-        <f>IF($C$10&gt;0,"L1",0)</f>
+        <f>IF($D$10&gt;0,"L1",0)</f>
         <v>L1</v>
       </c>
       <c r="B13" s="8">
-        <f>+C8</f>
+        <f>+D8</f>
         <v>0.01</v>
       </c>
       <c r="C13" s="9">
         <f>+B13*D13*100</f>
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="D13" s="9">
-        <f>IF(A13=0,0,$C$2+$C$3+$C$4+$C$5+$C$6+($C$7*($C$10-6)))</f>
-        <v>120</v>
-      </c>
-      <c r="G13" s="62">
+        <f>IF(A13=0,0,$D$2+$D$3+$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
+        <v>63</v>
+      </c>
+      <c r="G13" s="60">
         <v>3</v>
       </c>
-      <c r="H13" s="58">
-        <f t="shared" si="3"/>
+      <c r="H13" s="56">
+        <f t="shared" si="13"/>
         <v>2.6179240000000003E-2</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="59">
+      <c r="K13" s="57">
         <f>H13*100*H6</f>
-        <v>52.358480000000007</v>
-      </c>
-      <c r="L13" s="59">
+        <v>23.561316000000005</v>
+      </c>
+      <c r="L13" s="57">
         <f>H13*100*(H6-H5)</f>
-        <v>26.179240000000004</v>
-      </c>
-      <c r="M13" s="59">
-        <f t="shared" ref="M13:X13" si="5">$H$13*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="59">
-        <f t="shared" si="5"/>
-        <v>-26.179240000000004</v>
-      </c>
-      <c r="O13" s="59">
-        <f t="shared" si="5"/>
-        <v>-52.358480000000007</v>
-      </c>
-      <c r="P13" s="59">
-        <f t="shared" si="5"/>
+        <v>15.707544000000002</v>
+      </c>
+      <c r="M13" s="57">
+        <f t="shared" ref="M13:X13" si="15">$H$13*100*($H$6-$H$5*J10)</f>
+        <v>7.8537720000000011</v>
+      </c>
+      <c r="N13" s="57">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="57">
+        <f t="shared" si="15"/>
+        <v>-7.8537720000000011</v>
+      </c>
+      <c r="P13" s="57">
+        <f t="shared" si="15"/>
+        <v>-15.707544000000002</v>
+      </c>
+      <c r="Q13" s="57">
+        <f t="shared" si="15"/>
+        <v>-23.561316000000005</v>
+      </c>
+      <c r="R13" s="57">
+        <f t="shared" si="15"/>
+        <v>-31.415088000000004</v>
+      </c>
+      <c r="S13" s="57">
+        <f t="shared" si="15"/>
+        <v>-39.268860000000004</v>
+      </c>
+      <c r="T13" s="57">
+        <f t="shared" si="15"/>
+        <v>-47.12263200000001</v>
+      </c>
+      <c r="U13" s="57">
+        <f t="shared" si="15"/>
+        <v>-54.976404000000009</v>
+      </c>
+      <c r="V13" s="57">
+        <f t="shared" si="15"/>
+        <v>-62.830176000000009</v>
+      </c>
+      <c r="W13" s="57">
+        <f t="shared" si="15"/>
+        <v>-70.683948000000015</v>
+      </c>
+      <c r="X13" s="57">
+        <f t="shared" si="15"/>
         <v>-78.537720000000007</v>
       </c>
-      <c r="Q13" s="59">
-        <f t="shared" si="5"/>
-        <v>-104.71696000000001</v>
-      </c>
-      <c r="R13" s="59">
-        <f t="shared" si="5"/>
-        <v>-130.89620000000002</v>
-      </c>
-      <c r="S13" s="59">
-        <f t="shared" si="5"/>
-        <v>-157.07544000000001</v>
-      </c>
-      <c r="T13" s="59">
-        <f t="shared" si="5"/>
-        <v>-183.25468000000004</v>
-      </c>
-      <c r="U13" s="59">
-        <f t="shared" si="5"/>
-        <v>-209.43392000000003</v>
-      </c>
-      <c r="V13" s="59">
-        <f t="shared" si="5"/>
-        <v>-235.61316000000002</v>
-      </c>
-      <c r="W13" s="59">
-        <f t="shared" si="5"/>
-        <v>-261.79240000000004</v>
-      </c>
-      <c r="X13" s="59">
-        <f t="shared" si="5"/>
-        <v>-287.97164000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="57"/>
+    </row>
+    <row r="14" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="str">
-        <f>IF(A13=0,0,IF(VALUE(MID(A13,2,2))&gt;=$C$10,0,"L"&amp;VALUE(MID(A13,2,2))+1))</f>
+        <f>IF(A13=0,0,IF(VALUE(MID(A13,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A13,2,2))+1))</f>
         <v>L2</v>
       </c>
       <c r="B14" s="10">
-        <f>IF(A14&lt;&gt;0,B13*$C$9,0)</f>
+        <f>IF(A14&lt;&gt;0,B13*$D$9,0)</f>
         <v>1.618E-2</v>
       </c>
       <c r="C14" s="9">
-        <f t="shared" ref="C14:C43" si="6">+B14*D14*100</f>
-        <v>177.98000000000002</v>
+        <f t="shared" ref="C14:C43" si="16">+B14*D14*100</f>
+        <v>97.08</v>
       </c>
       <c r="D14" s="9">
-        <f>IF(A14=0,0,$C$3+$C$4+$C$5+$C$6+($C$7*($C$10-6)))</f>
-        <v>110</v>
-      </c>
-      <c r="G14" s="62">
+        <f>IF(A14=0,0,$D$3+$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
+        <v>60</v>
+      </c>
+      <c r="G14" s="60">
         <v>4</v>
       </c>
-      <c r="H14" s="58">
-        <f t="shared" si="3"/>
+      <c r="H14" s="56">
+        <f t="shared" si="13"/>
         <v>4.2358010320000007E-2</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="59">
+      <c r="L14" s="57">
         <f>H14*100*H6</f>
-        <v>84.716020640000011</v>
-      </c>
-      <c r="M14" s="59">
+        <v>38.122209288000001</v>
+      </c>
+      <c r="M14" s="57">
         <f>H14*100*(H6-H5)</f>
-        <v>42.358010320000005</v>
-      </c>
-      <c r="N14" s="59">
-        <f t="shared" ref="N14:X14" si="7">$H$14*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="59">
-        <f t="shared" si="7"/>
-        <v>-42.358010320000005</v>
-      </c>
-      <c r="P14" s="59">
-        <f t="shared" si="7"/>
-        <v>-84.716020640000011</v>
-      </c>
-      <c r="Q14" s="59">
-        <f t="shared" si="7"/>
-        <v>-127.07403096000002</v>
-      </c>
-      <c r="R14" s="59">
-        <f t="shared" si="7"/>
-        <v>-169.43204128000002</v>
-      </c>
-      <c r="S14" s="59">
-        <f t="shared" si="7"/>
-        <v>-211.79005160000003</v>
-      </c>
-      <c r="T14" s="59">
-        <f t="shared" si="7"/>
-        <v>-254.14806192000003</v>
-      </c>
-      <c r="U14" s="59">
-        <f t="shared" si="7"/>
-        <v>-296.50607224000004</v>
-      </c>
-      <c r="V14" s="59">
-        <f t="shared" si="7"/>
-        <v>-338.86408256000004</v>
-      </c>
-      <c r="W14" s="59">
-        <f t="shared" si="7"/>
-        <v>-381.22209288000005</v>
-      </c>
-      <c r="X14" s="59">
-        <f t="shared" si="7"/>
-        <v>-423.58010320000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>25.414806192</v>
+      </c>
+      <c r="N14" s="57">
+        <f t="shared" ref="N14:X14" si="17">$H$14*100*($H$6-$H$5*J10)</f>
+        <v>12.707403096</v>
+      </c>
+      <c r="O14" s="57">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="57">
+        <f t="shared" si="17"/>
+        <v>-12.707403096</v>
+      </c>
+      <c r="Q14" s="57">
+        <f t="shared" si="17"/>
+        <v>-25.414806192</v>
+      </c>
+      <c r="R14" s="57">
+        <f t="shared" si="17"/>
+        <v>-38.122209288000001</v>
+      </c>
+      <c r="S14" s="57">
+        <f t="shared" si="17"/>
+        <v>-50.829612384000001</v>
+      </c>
+      <c r="T14" s="57">
+        <f t="shared" si="17"/>
+        <v>-63.537015480000008</v>
+      </c>
+      <c r="U14" s="57">
+        <f t="shared" si="17"/>
+        <v>-76.244418576000001</v>
+      </c>
+      <c r="V14" s="57">
+        <f t="shared" si="17"/>
+        <v>-88.951821672000008</v>
+      </c>
+      <c r="W14" s="57">
+        <f t="shared" si="17"/>
+        <v>-101.659224768</v>
+      </c>
+      <c r="X14" s="57">
+        <f t="shared" si="17"/>
+        <v>-114.36662786400001</v>
+      </c>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="57"/>
+    </row>
+    <row r="15" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="str">
-        <f t="shared" ref="A15:A43" si="8">IF(A14=0,0,IF(VALUE(MID(A14,2,2))&gt;=$C$10,0,"L"&amp;VALUE(MID(A14,2,2))+1))</f>
+        <f>IF(A14=0,0,IF(VALUE(MID(A14,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A14,2,2))+1))</f>
         <v>L3</v>
       </c>
       <c r="B15" s="10">
-        <f t="shared" ref="B15:B43" si="9">IF(A15&lt;&gt;0,B14*$C$9,0)</f>
+        <f>IF(A15&lt;&gt;0,B14*$D$9,0)</f>
         <v>2.6179240000000003E-2</v>
       </c>
       <c r="C15" s="9">
-        <f t="shared" si="6"/>
-        <v>261.79240000000004</v>
+        <f t="shared" si="16"/>
+        <v>149.22166799999999</v>
       </c>
       <c r="D15" s="9">
-        <f>IF(A15=0,0,$C$4+$C$5+$C$6+($C$7*($C$10-6)))</f>
-        <v>100</v>
-      </c>
-      <c r="G15" s="62">
+        <f>IF(A15=0,0,$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
+        <v>57</v>
+      </c>
+      <c r="G15" s="60">
         <v>5</v>
       </c>
-      <c r="H15" s="58">
-        <f t="shared" si="3"/>
+      <c r="H15" s="56">
+        <f t="shared" si="13"/>
         <v>6.8535260697760017E-2</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="59">
+      <c r="M15" s="57">
         <f>H15*H6*100</f>
-        <v>137.07052139552002</v>
-      </c>
-      <c r="N15" s="59">
+        <v>61.681734627984021</v>
+      </c>
+      <c r="N15" s="57">
         <f>H15*100*(H6-H5)</f>
-        <v>68.535260697760009</v>
-      </c>
-      <c r="O15" s="59">
-        <f t="shared" ref="O15:X15" si="10">$H$15*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="59">
-        <f t="shared" si="10"/>
-        <v>-68.535260697760009</v>
-      </c>
-      <c r="Q15" s="59">
-        <f t="shared" si="10"/>
-        <v>-137.07052139552002</v>
-      </c>
-      <c r="R15" s="59">
-        <f t="shared" si="10"/>
-        <v>-205.60578209328006</v>
-      </c>
-      <c r="S15" s="59">
-        <f t="shared" si="10"/>
-        <v>-274.14104279104004</v>
-      </c>
-      <c r="T15" s="59">
-        <f t="shared" si="10"/>
-        <v>-342.67630348880004</v>
-      </c>
-      <c r="U15" s="59">
-        <f t="shared" si="10"/>
-        <v>-411.21156418656011</v>
-      </c>
-      <c r="V15" s="59">
-        <f t="shared" si="10"/>
-        <v>-479.74682488432012</v>
-      </c>
-      <c r="W15" s="59">
-        <f t="shared" si="10"/>
-        <v>-548.28208558208007</v>
-      </c>
-      <c r="X15" s="59">
-        <f t="shared" si="10"/>
-        <v>-616.81734627984008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>41.121156418656007</v>
+      </c>
+      <c r="O15" s="57">
+        <f t="shared" ref="O15:X15" si="18">$H$15*100*($H$6-$H$5*J10)</f>
+        <v>20.560578209328003</v>
+      </c>
+      <c r="P15" s="57">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="57">
+        <f t="shared" si="18"/>
+        <v>-20.560578209328003</v>
+      </c>
+      <c r="R15" s="57">
+        <f t="shared" si="18"/>
+        <v>-41.121156418656007</v>
+      </c>
+      <c r="S15" s="57">
+        <f t="shared" si="18"/>
+        <v>-61.681734627984014</v>
+      </c>
+      <c r="T15" s="57">
+        <f t="shared" si="18"/>
+        <v>-82.242312837312014</v>
+      </c>
+      <c r="U15" s="57">
+        <f t="shared" si="18"/>
+        <v>-102.80289104664003</v>
+      </c>
+      <c r="V15" s="57">
+        <f t="shared" si="18"/>
+        <v>-123.36346925596803</v>
+      </c>
+      <c r="W15" s="57">
+        <f t="shared" si="18"/>
+        <v>-143.92404746529604</v>
+      </c>
+      <c r="X15" s="57">
+        <f t="shared" si="18"/>
+        <v>-164.48462567462403</v>
+      </c>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="57"/>
+    </row>
+    <row r="16" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A15=0,0,IF(VALUE(MID(A15,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A15,2,2))+1))</f>
         <v>L4</v>
       </c>
       <c r="B16" s="10">
-        <f t="shared" si="9"/>
+        <f>IF(A16&lt;&gt;0,B15*$D$9,0)</f>
         <v>4.2358010320000007E-2</v>
       </c>
       <c r="C16" s="9">
-        <f t="shared" si="6"/>
-        <v>381.2220928800001</v>
+        <f t="shared" si="16"/>
+        <v>228.73325572800005</v>
       </c>
       <c r="D16" s="9">
-        <f>IF(A16=0,0,$C$5+$C$6+($C$7*($C$10-6)))</f>
-        <v>90</v>
-      </c>
-      <c r="G16" s="62">
+        <f>IF(A16=0,0,$D$5+$D$6+($D$7*($D$10-6)))</f>
+        <v>54</v>
+      </c>
+      <c r="G16" s="60">
         <v>6</v>
       </c>
-      <c r="H16" s="58">
-        <f t="shared" si="3"/>
+      <c r="H16" s="56">
+        <f t="shared" si="13"/>
         <v>0.11089005180897571</v>
       </c>
       <c r="I16" s="3"/>
@@ -3545,73 +3406,82 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="59">
+      <c r="N16" s="57">
         <f>H16*H6*100</f>
-        <v>221.78010361795143</v>
-      </c>
-      <c r="O16" s="59">
+        <v>99.80104662807814</v>
+      </c>
+      <c r="O16" s="57">
         <f>H16*100*(H6-H5)</f>
-        <v>110.89005180897571</v>
-      </c>
-      <c r="P16" s="59">
-        <f t="shared" ref="P16:X16" si="11">$H$16*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="59">
-        <f t="shared" si="11"/>
-        <v>-110.89005180897571</v>
-      </c>
-      <c r="R16" s="59">
-        <f t="shared" si="11"/>
-        <v>-221.78010361795143</v>
-      </c>
-      <c r="S16" s="59">
-        <f t="shared" si="11"/>
-        <v>-332.67015542692712</v>
-      </c>
-      <c r="T16" s="59">
-        <f t="shared" si="11"/>
-        <v>-443.56020723590285</v>
-      </c>
-      <c r="U16" s="59">
-        <f t="shared" si="11"/>
-        <v>-554.45025904487852</v>
-      </c>
-      <c r="V16" s="59">
-        <f t="shared" si="11"/>
-        <v>-665.34031085385425</v>
-      </c>
-      <c r="W16" s="59">
-        <f t="shared" si="11"/>
-        <v>-776.23036266282998</v>
-      </c>
-      <c r="X16" s="59">
-        <f t="shared" si="11"/>
-        <v>-887.1204144718057</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>66.534031085385422</v>
+      </c>
+      <c r="P16" s="57">
+        <f t="shared" ref="P16:X16" si="19">$H$16*100*($H$6-$H$5*J10)</f>
+        <v>33.267015542692711</v>
+      </c>
+      <c r="Q16" s="57">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="57">
+        <f t="shared" si="19"/>
+        <v>-33.267015542692711</v>
+      </c>
+      <c r="S16" s="57">
+        <f t="shared" si="19"/>
+        <v>-66.534031085385422</v>
+      </c>
+      <c r="T16" s="57">
+        <f t="shared" si="19"/>
+        <v>-99.80104662807814</v>
+      </c>
+      <c r="U16" s="57">
+        <f t="shared" si="19"/>
+        <v>-133.06806217077084</v>
+      </c>
+      <c r="V16" s="57">
+        <f t="shared" si="19"/>
+        <v>-166.33507771346356</v>
+      </c>
+      <c r="W16" s="57">
+        <f t="shared" si="19"/>
+        <v>-199.60209325615628</v>
+      </c>
+      <c r="X16" s="57">
+        <f t="shared" si="19"/>
+        <v>-232.869108798849</v>
+      </c>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
+    </row>
+    <row r="17" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A16=0,0,IF(VALUE(MID(A16,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A16,2,2))+1))</f>
         <v>L5</v>
       </c>
       <c r="B17" s="10">
-        <f t="shared" si="9"/>
+        <f>IF(A17&lt;&gt;0,B16*$D$9,0)</f>
         <v>6.8535260697760017E-2</v>
       </c>
       <c r="C17" s="9">
-        <f t="shared" si="6"/>
-        <v>548.28208558208007</v>
+        <f t="shared" si="16"/>
+        <v>349.52982955857607</v>
       </c>
       <c r="D17" s="9">
-        <f>IF(A17=0,0,$C$6+($C$7*($C$10-6)))</f>
-        <v>80</v>
-      </c>
-      <c r="G17" s="62">
+        <f>IF(A17=0,0,$D$6+($D$7*($D$10-6)))</f>
+        <v>51</v>
+      </c>
+      <c r="G17" s="60">
         <v>7</v>
       </c>
-      <c r="H17" s="58">
-        <f t="shared" si="3"/>
+      <c r="H17" s="56">
+        <f t="shared" si="13"/>
         <v>0.17942010382692272</v>
       </c>
       <c r="I17" s="3"/>
@@ -3620,69 +3490,78 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="59">
+      <c r="O17" s="57">
         <f>H6*H17*100</f>
-        <v>358.84020765384548</v>
-      </c>
-      <c r="P17" s="59">
+        <v>161.47809344423047</v>
+      </c>
+      <c r="P17" s="57">
         <f>H17*100*(H6-H5)</f>
-        <v>179.42010382692271</v>
-      </c>
-      <c r="Q17" s="59">
-        <f t="shared" ref="Q17:X17" si="12">$H$17*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="59">
-        <f t="shared" si="12"/>
-        <v>-179.42010382692271</v>
-      </c>
-      <c r="S17" s="59">
-        <f t="shared" si="12"/>
-        <v>-358.84020765384543</v>
-      </c>
-      <c r="T17" s="59">
-        <f t="shared" si="12"/>
-        <v>-538.26031148076811</v>
-      </c>
-      <c r="U17" s="59">
-        <f t="shared" si="12"/>
-        <v>-717.68041530769085</v>
-      </c>
-      <c r="V17" s="59">
-        <f t="shared" si="12"/>
-        <v>-897.10051913461348</v>
-      </c>
-      <c r="W17" s="59">
-        <f t="shared" si="12"/>
-        <v>-1076.5206229615362</v>
-      </c>
-      <c r="X17" s="59">
-        <f t="shared" si="12"/>
-        <v>-1255.940726788459</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>107.65206229615362</v>
+      </c>
+      <c r="Q17" s="57">
+        <f t="shared" ref="Q17:X17" si="20">$H$17*100*($H$6-$H$5*J10)</f>
+        <v>53.826031148076808</v>
+      </c>
+      <c r="R17" s="57">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="57">
+        <f t="shared" si="20"/>
+        <v>-53.826031148076808</v>
+      </c>
+      <c r="T17" s="57">
+        <f t="shared" si="20"/>
+        <v>-107.65206229615362</v>
+      </c>
+      <c r="U17" s="57">
+        <f t="shared" si="20"/>
+        <v>-161.47809344423044</v>
+      </c>
+      <c r="V17" s="57">
+        <f t="shared" si="20"/>
+        <v>-215.30412459230723</v>
+      </c>
+      <c r="W17" s="57">
+        <f t="shared" si="20"/>
+        <v>-269.13015574038405</v>
+      </c>
+      <c r="X17" s="57">
+        <f t="shared" si="20"/>
+        <v>-322.95618688846088</v>
+      </c>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="57"/>
+    </row>
+    <row r="18" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A17=0,0,IF(VALUE(MID(A17,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A17,2,2))+1))</f>
         <v>L6</v>
       </c>
       <c r="B18" s="10">
-        <f t="shared" si="9"/>
+        <f>IF(A18&lt;&gt;0,B17*$D$9,0)</f>
         <v>0.11089005180897571</v>
       </c>
       <c r="C18" s="9">
-        <f t="shared" si="6"/>
-        <v>776.23036266282998</v>
+        <f t="shared" si="16"/>
+        <v>532.27224868308338</v>
       </c>
       <c r="D18" s="9">
-        <f>IF(A18=0,0,($C$7*($C$10-6)))</f>
-        <v>70</v>
-      </c>
-      <c r="G18" s="62">
+        <f>IF(A18=0,0,($D$7*($D$10-6)))</f>
+        <v>48</v>
+      </c>
+      <c r="G18" s="60">
         <v>8</v>
       </c>
-      <c r="H18" s="58">
-        <f t="shared" si="3"/>
+      <c r="H18" s="56">
+        <f t="shared" si="13"/>
         <v>0.29030172799196097</v>
       </c>
       <c r="I18" s="3"/>
@@ -3692,65 +3571,74 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="59">
+      <c r="P18" s="57">
         <f>H6*H18*100</f>
-        <v>580.60345598392189</v>
-      </c>
-      <c r="Q18" s="59">
+        <v>261.27155519276488</v>
+      </c>
+      <c r="Q18" s="57">
         <f>H18*100*(H6-H5)</f>
-        <v>290.301727991961</v>
-      </c>
-      <c r="R18" s="59">
-        <f t="shared" ref="R18:X18" si="13">$H$18*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="59">
+        <v>174.1810367951766</v>
+      </c>
+      <c r="R18" s="57">
+        <f t="shared" ref="R18:X18" si="21">$H$18*100*($H$6-$H$5*J10)</f>
+        <v>87.090518397588298</v>
+      </c>
+      <c r="S18" s="57">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="57">
+        <f t="shared" si="21"/>
+        <v>-87.090518397588298</v>
+      </c>
+      <c r="U18" s="57">
+        <f t="shared" si="21"/>
+        <v>-174.1810367951766</v>
+      </c>
+      <c r="V18" s="57">
+        <f t="shared" si="21"/>
+        <v>-261.27155519276488</v>
+      </c>
+      <c r="W18" s="57">
+        <f t="shared" si="21"/>
+        <v>-348.36207359035319</v>
+      </c>
+      <c r="X18" s="57">
+        <f t="shared" si="21"/>
+        <v>-435.45259198794145</v>
+      </c>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="57"/>
+      <c r="AG18" s="57"/>
+    </row>
+    <row r="19" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="47" t="str">
+        <f>IF(A18=0,0,IF(VALUE(MID(A18,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A18,2,2))+1))</f>
+        <v>L7</v>
+      </c>
+      <c r="B19" s="10">
+        <f>IF(A19&lt;&gt;0,B18*$D$9,0)</f>
+        <v>0.17942010382692272</v>
+      </c>
+      <c r="C19" s="9">
+        <f t="shared" si="16"/>
+        <v>807.39046722115222</v>
+      </c>
+      <c r="D19" s="9">
+        <f>IF(A19=0,0,($D$7*($D$10-7)))</f>
+        <v>45</v>
+      </c>
+      <c r="G19" s="60">
+        <v>9</v>
+      </c>
+      <c r="H19" s="56">
         <f t="shared" si="13"/>
-        <v>-290.301727991961</v>
-      </c>
-      <c r="T18" s="59">
-        <f t="shared" si="13"/>
-        <v>-580.603455983922</v>
-      </c>
-      <c r="U18" s="59">
-        <f t="shared" si="13"/>
-        <v>-870.90518397588289</v>
-      </c>
-      <c r="V18" s="59">
-        <f t="shared" si="13"/>
-        <v>-1161.206911967844</v>
-      </c>
-      <c r="W18" s="59">
-        <f t="shared" si="13"/>
-        <v>-1451.5086399598049</v>
-      </c>
-      <c r="X18" s="59">
-        <f t="shared" si="13"/>
-        <v>-1741.8103679517658</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="47" t="str">
-        <f t="shared" si="8"/>
-        <v>L7</v>
-      </c>
-      <c r="B19" s="10">
-        <f t="shared" si="9"/>
-        <v>0.17942010382692272</v>
-      </c>
-      <c r="C19" s="9">
-        <f t="shared" si="6"/>
-        <v>1076.5206229615364</v>
-      </c>
-      <c r="D19" s="9">
-        <f>IF(A19=0,0,($C$7*($C$10-7)))</f>
-        <v>60</v>
-      </c>
-      <c r="G19" s="62">
-        <v>9</v>
-      </c>
-      <c r="H19" s="58">
-        <f t="shared" si="3"/>
         <v>0.46970819589099289</v>
       </c>
       <c r="I19" s="3"/>
@@ -3761,61 +3649,70 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="59">
+      <c r="Q19" s="57">
         <f>H6*H19*100</f>
-        <v>939.41639178198579</v>
-      </c>
-      <c r="R19" s="59">
+        <v>422.73737630189362</v>
+      </c>
+      <c r="R19" s="57">
         <f>H19*100*(H6-H5)</f>
-        <v>469.70819589099284</v>
-      </c>
-      <c r="S19" s="59">
-        <f t="shared" ref="S19:X19" si="14">$H$19*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="59">
-        <f t="shared" si="14"/>
-        <v>-469.70819589099284</v>
-      </c>
-      <c r="U19" s="59">
-        <f t="shared" si="14"/>
-        <v>-939.41639178198568</v>
-      </c>
-      <c r="V19" s="59">
-        <f t="shared" si="14"/>
-        <v>-1409.1245876729786</v>
-      </c>
-      <c r="W19" s="59">
-        <f t="shared" si="14"/>
-        <v>-1878.8327835639714</v>
-      </c>
-      <c r="X19" s="59">
-        <f t="shared" si="14"/>
-        <v>-2348.5409794549641</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>281.82491753459573</v>
+      </c>
+      <c r="S19" s="57">
+        <f t="shared" ref="S19:X19" si="22">$H$19*100*($H$6-$H$5*J10)</f>
+        <v>140.91245876729786</v>
+      </c>
+      <c r="T19" s="57">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="57">
+        <f t="shared" si="22"/>
+        <v>-140.91245876729786</v>
+      </c>
+      <c r="V19" s="57">
+        <f t="shared" si="22"/>
+        <v>-281.82491753459573</v>
+      </c>
+      <c r="W19" s="57">
+        <f t="shared" si="22"/>
+        <v>-422.73737630189356</v>
+      </c>
+      <c r="X19" s="57">
+        <f t="shared" si="22"/>
+        <v>-563.64983506919145</v>
+      </c>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="57"/>
+      <c r="AG19" s="57"/>
+    </row>
+    <row r="20" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="str">
-        <f>IF(A19=0,0,IF(VALUE(MID(A19,2,2))&gt;=$C$10,0,"L"&amp;VALUE(MID(A19,2,2))+1))</f>
+        <f>IF(A19=0,0,IF(VALUE(MID(A19,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A19,2,2))+1))</f>
         <v>L8</v>
       </c>
       <c r="B20" s="10">
-        <f t="shared" si="9"/>
+        <f>IF(A20&lt;&gt;0,B19*$D$9,0)</f>
         <v>0.29030172799196097</v>
       </c>
       <c r="C20" s="9">
-        <f t="shared" si="6"/>
-        <v>1451.5086399598049</v>
+        <f t="shared" si="16"/>
+        <v>1219.2672575662361</v>
       </c>
       <c r="D20" s="9">
-        <f>IF(A20=0,0,($C$7*($C$10-8)))</f>
-        <v>50</v>
-      </c>
-      <c r="G20" s="62">
+        <f>IF(A20=0,0,($D$7*($D$10-8)))</f>
+        <v>42</v>
+      </c>
+      <c r="G20" s="60">
         <v>10</v>
       </c>
-      <c r="H20" s="58">
-        <f t="shared" si="3"/>
+      <c r="H20" s="56">
+        <f t="shared" si="13"/>
         <v>0.75998786095162651</v>
       </c>
       <c r="I20" s="3"/>
@@ -3827,57 +3724,66 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="59">
+      <c r="R20" s="57">
         <f>H6*H20*100</f>
-        <v>1519.9757219032531</v>
-      </c>
-      <c r="S20" s="59">
+        <v>683.98907485646384</v>
+      </c>
+      <c r="S20" s="57">
         <f>H20*100*(H6-H5)</f>
-        <v>759.98786095162654</v>
-      </c>
-      <c r="T20" s="59">
+        <v>455.99271657097597</v>
+      </c>
+      <c r="T20" s="57">
         <f>$H$20*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="59">
+        <v>227.99635828548799</v>
+      </c>
+      <c r="U20" s="57">
         <f>$H$20*100*($H$6-$H$5*K10)</f>
-        <v>-759.98786095162654</v>
-      </c>
-      <c r="V20" s="59">
+        <v>0</v>
+      </c>
+      <c r="V20" s="57">
         <f>$H$20*100*($H$6-$H$5*L10)</f>
-        <v>-1519.9757219032531</v>
-      </c>
-      <c r="W20" s="59">
+        <v>-227.99635828548799</v>
+      </c>
+      <c r="W20" s="57">
         <f>$H$20*100*($H$6-$H$5*M10)</f>
-        <v>-2279.9635828548799</v>
-      </c>
-      <c r="X20" s="59">
+        <v>-455.99271657097597</v>
+      </c>
+      <c r="X20" s="57">
         <f>$H$20*100*($H$6-$H$5*N10)</f>
-        <v>-3039.9514438065062</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-683.98907485646396</v>
+      </c>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="57"/>
+    </row>
+    <row r="21" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A20=0,0,IF(VALUE(MID(A20,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A20,2,2))+1))</f>
         <v>L9</v>
       </c>
       <c r="B21" s="10">
-        <f t="shared" si="9"/>
+        <f>IF(A21&lt;&gt;0,B20*$D$9,0)</f>
         <v>0.46970819589099289</v>
       </c>
       <c r="C21" s="9">
-        <f t="shared" si="6"/>
-        <v>1878.8327835639716</v>
+        <f t="shared" si="16"/>
+        <v>1831.8619639748722</v>
       </c>
       <c r="D21" s="9">
-        <f>IF(A21=0,0,($C$7*($C$10-9)))</f>
-        <v>40</v>
-      </c>
-      <c r="G21" s="62">
+        <f>IF(A21=0,0,($D$7*($D$10-9)))</f>
+        <v>39</v>
+      </c>
+      <c r="G21" s="60">
         <v>11</v>
       </c>
-      <c r="H21" s="58">
-        <f t="shared" si="3"/>
+      <c r="H21" s="56">
+        <f t="shared" si="13"/>
         <v>1.2296603590197317</v>
       </c>
       <c r="I21" s="3"/>
@@ -3890,53 +3796,62 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-      <c r="S21" s="60">
+      <c r="S21" s="58">
         <f>H6*H21*100</f>
-        <v>2459.3207180394634</v>
-      </c>
-      <c r="T21" s="60">
+        <v>1106.6943231177586</v>
+      </c>
+      <c r="T21" s="58">
         <f>H21*100*(H6-H5)</f>
-        <v>1229.6603590197317</v>
-      </c>
-      <c r="U21" s="60">
+        <v>737.79621541183906</v>
+      </c>
+      <c r="U21" s="58">
         <f>$H$21*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="60">
+        <v>368.89810770591953</v>
+      </c>
+      <c r="V21" s="58">
         <f>$H$21*100*($H$6-$H$5*K10)</f>
-        <v>-1229.6603590197317</v>
-      </c>
-      <c r="W21" s="60">
+        <v>0</v>
+      </c>
+      <c r="W21" s="58">
         <f>$H$21*100*($H$6-$H$5*L10)</f>
-        <v>-2459.3207180394634</v>
-      </c>
-      <c r="X21" s="60">
+        <v>-368.89810770591953</v>
+      </c>
+      <c r="X21" s="58">
         <f>$H$21*100*($H$6-$H$5*M10)</f>
-        <v>-3688.9810770591953</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-737.79621541183906</v>
+      </c>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="58"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="58"/>
+    </row>
+    <row r="22" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A21=0,0,IF(VALUE(MID(A21,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A21,2,2))+1))</f>
         <v>L10</v>
       </c>
       <c r="B22" s="10">
-        <f t="shared" si="9"/>
+        <f>IF(A22&lt;&gt;0,B21*$D$9,0)</f>
         <v>0.75998786095162651</v>
       </c>
       <c r="C22" s="9">
-        <f t="shared" si="6"/>
-        <v>2279.9635828548794</v>
+        <f t="shared" si="16"/>
+        <v>2735.9562994258554</v>
       </c>
       <c r="D22" s="9">
-        <f>IF(A22=0,0,($C$7*($C$10-10)))</f>
-        <v>30</v>
-      </c>
-      <c r="G22" s="62">
+        <f>IF(A22=0,0,($D$7*($D$10-10)))</f>
+        <v>36</v>
+      </c>
+      <c r="G22" s="60">
         <v>12</v>
       </c>
-      <c r="H22" s="58">
-        <f t="shared" si="3"/>
+      <c r="H22" s="56">
+        <f t="shared" si="13"/>
         <v>1.9895904608939261</v>
       </c>
       <c r="I22" s="3"/>
@@ -3949,50 +3864,59 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60">
+      <c r="S22" s="58"/>
+      <c r="T22" s="58">
         <f>H6*H22*100</f>
-        <v>3979.1809217878522</v>
-      </c>
-      <c r="U22" s="60">
+        <v>1790.6314148045335</v>
+      </c>
+      <c r="U22" s="58">
         <f>H22*100*(H6-H5)</f>
-        <v>1989.5904608939261</v>
-      </c>
-      <c r="V22" s="60">
+        <v>1193.7542765363557</v>
+      </c>
+      <c r="V22" s="58">
         <f>$H$22*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="60">
+        <v>596.87713826817787</v>
+      </c>
+      <c r="W22" s="58">
         <f>$H$22*100*($H$6-$H$5*K10)</f>
-        <v>-1989.5904608939261</v>
-      </c>
-      <c r="X22" s="60">
+        <v>0</v>
+      </c>
+      <c r="X22" s="58">
         <f>$H$22*100*($H$6-$H$5*L10)</f>
-        <v>-3979.1809217878522</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-596.87713826817787</v>
+      </c>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="58"/>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="58"/>
+    </row>
+    <row r="23" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A22=0,0,IF(VALUE(MID(A22,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A22,2,2))+1))</f>
         <v>L11</v>
       </c>
       <c r="B23" s="10">
-        <f t="shared" si="9"/>
+        <f>IF(A23&lt;&gt;0,B22*$D$9,0)</f>
         <v>1.2296603590197317</v>
       </c>
       <c r="C23" s="9">
-        <f t="shared" si="6"/>
-        <v>2459.3207180394634</v>
+        <f t="shared" si="16"/>
+        <v>4057.8791847651146</v>
       </c>
       <c r="D23" s="9">
-        <f>IF(A23=0,0,($C$7*($C$10-11)))</f>
-        <v>20</v>
-      </c>
-      <c r="G23" s="62">
+        <f>IF(A23=0,0,($D$7*($D$10-11)))</f>
+        <v>33</v>
+      </c>
+      <c r="G23" s="60">
         <v>13</v>
       </c>
-      <c r="H23" s="58">
-        <f t="shared" si="3"/>
+      <c r="H23" s="56">
+        <f t="shared" si="13"/>
         <v>3.2191573657263728</v>
       </c>
       <c r="I23" s="3"/>
@@ -4005,47 +3929,56 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60">
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58">
         <f>H6*H23*100</f>
-        <v>6438.3147314527459</v>
-      </c>
-      <c r="V23" s="60">
+        <v>2897.2416291537356</v>
+      </c>
+      <c r="V23" s="58">
         <f>H23*100*(H6-H5)</f>
-        <v>3219.157365726373</v>
-      </c>
-      <c r="W23" s="60">
+        <v>1931.4944194358236</v>
+      </c>
+      <c r="W23" s="58">
         <f>$H$23*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="X23" s="60">
+        <v>965.7472097179118</v>
+      </c>
+      <c r="X23" s="58">
         <f>$H$23*100*($H$6-$H$5*K10)</f>
-        <v>-3219.157365726373</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="58"/>
+      <c r="AD23" s="58"/>
+      <c r="AE23" s="58"/>
+      <c r="AF23" s="58"/>
+      <c r="AG23" s="58"/>
+    </row>
+    <row r="24" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A23=0,0,IF(VALUE(MID(A23,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A23,2,2))+1))</f>
         <v>L12</v>
       </c>
       <c r="B24" s="10">
-        <f t="shared" si="9"/>
+        <f>IF(A24&lt;&gt;0,B23*$D$9,0)</f>
         <v>1.9895904608939261</v>
       </c>
       <c r="C24" s="9">
-        <f t="shared" si="6"/>
-        <v>1989.5904608939261</v>
+        <f t="shared" si="16"/>
+        <v>5968.7713826817781</v>
       </c>
       <c r="D24" s="9">
-        <f>IF(A24=0,0,($C$7*($C$10-12)))</f>
-        <v>10</v>
-      </c>
-      <c r="G24" s="62">
+        <f>IF(A24=0,0,($D$7*($D$10-12)))</f>
+        <v>30</v>
+      </c>
+      <c r="G24" s="60">
         <v>14</v>
       </c>
-      <c r="H24" s="58">
-        <f t="shared" si="3"/>
+      <c r="H24" s="56">
+        <f t="shared" si="13"/>
         <v>5.2085966177452718</v>
       </c>
       <c r="I24" s="3"/>
@@ -4058,44 +3991,53 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="60">
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58">
         <f>H6*H24*100</f>
-        <v>10417.193235490544</v>
-      </c>
-      <c r="W24" s="60">
+        <v>4687.7369559707449</v>
+      </c>
+      <c r="W24" s="58">
         <f>H24*100*(H6-H5)</f>
-        <v>5208.5966177452719</v>
-      </c>
-      <c r="X24" s="60">
+        <v>3125.1579706471634</v>
+      </c>
+      <c r="X24" s="58">
         <f>$H$24*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>1562.5789853235817</v>
+      </c>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="58"/>
+      <c r="AE24" s="58"/>
+      <c r="AF24" s="58"/>
+      <c r="AG24" s="58"/>
+    </row>
+    <row r="25" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A24=0,0,IF(VALUE(MID(A24,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A24,2,2))+1))</f>
         <v>L13</v>
       </c>
       <c r="B25" s="10">
-        <f t="shared" si="9"/>
+        <f>IF(A25&lt;&gt;0,B24*$D$9,0)</f>
         <v>3.2191573657263728</v>
       </c>
       <c r="C25" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>8691.7248874612069</v>
       </c>
       <c r="D25" s="9">
-        <f>IF(A25=0,0,($C$7*($C$10-13)))</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="62">
+        <f>IF(A25=0,0,($D$7*($D$10-13)))</f>
+        <v>27</v>
+      </c>
+      <c r="G25" s="60">
         <v>15</v>
       </c>
-      <c r="H25" s="58">
-        <f t="shared" si="3"/>
+      <c r="H25" s="56">
+        <f t="shared" si="13"/>
         <v>8.4275093275118511</v>
       </c>
       <c r="I25" s="3"/>
@@ -4108,41 +4050,50 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="60">
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58">
         <f>H6*H25*100</f>
-        <v>16855.018655023701</v>
-      </c>
-      <c r="X25" s="60">
+        <v>7584.7583947606663</v>
+      </c>
+      <c r="X25" s="58">
         <f>H24*100*(H6-H5)</f>
-        <v>5208.5966177452719</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3125.1579706471634</v>
+      </c>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="58"/>
+      <c r="AF25" s="58"/>
+      <c r="AG25" s="58"/>
+    </row>
+    <row r="26" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="47" t="str">
+        <f>IF(A25=0,0,IF(VALUE(MID(A25,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A25,2,2))+1))</f>
+        <v>L14</v>
       </c>
       <c r="B26" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>IF(A26&lt;&gt;0,B25*$D$9,0)</f>
+        <v>5.2085966177452718</v>
       </c>
       <c r="C26" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>12500.631882588652</v>
       </c>
       <c r="D26" s="9">
-        <f>IF(A26=0,0,($C$7*($C$10-14)))</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="62">
+        <f>IF(A26=0,0,($D$7*($D$10-14)))</f>
+        <v>24</v>
+      </c>
+      <c r="G26" s="60">
         <v>16</v>
       </c>
-      <c r="H26" s="58">
-        <f t="shared" si="3"/>
+      <c r="H26" s="56">
+        <f t="shared" si="13"/>
         <v>13.635710091914175</v>
       </c>
       <c r="I26" s="3"/>
@@ -4155,585 +4106,1844 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60">
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58">
         <f>H26*H6*100</f>
-        <v>27271.420183828348</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>12272.139082722759</v>
+      </c>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="58"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="58"/>
+      <c r="AF26" s="58"/>
+      <c r="AG26" s="58"/>
+    </row>
+    <row r="27" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="47" t="str">
+        <f>IF(A26=0,0,IF(VALUE(MID(A26,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A26,2,2))+1))</f>
+        <v>L15</v>
       </c>
       <c r="B27" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>IF(A27&lt;&gt;0,B26*$D$9,0)</f>
+        <v>8.4275093275118511</v>
       </c>
       <c r="C27" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>17697.769587774888</v>
       </c>
       <c r="D27" s="9">
-        <f>IF(A27=0,0,($C$7*($C$10-15)))</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="64" t="s">
+        <f>IF(A27=0,0,($D$7*($D$10-15)))</f>
+        <v>21</v>
+      </c>
+      <c r="G27" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="102">
+      <c r="H27" s="68">
         <f>SUM(H11:H26)</f>
         <v>35.683784674299567</v>
       </c>
-      <c r="I27" s="65">
-        <f t="shared" ref="I27:X27" si="15">SUM(I11:I26)</f>
-        <v>20</v>
-      </c>
-      <c r="J27" s="65">
-        <f t="shared" si="15"/>
-        <v>42.36</v>
-      </c>
-      <c r="K27" s="65">
-        <f t="shared" si="15"/>
-        <v>68.538480000000007</v>
-      </c>
-      <c r="L27" s="65">
-        <f t="shared" si="15"/>
-        <v>100.89526064000002</v>
-      </c>
-      <c r="M27" s="65">
-        <f t="shared" si="15"/>
-        <v>143.24853171552002</v>
-      </c>
-      <c r="N27" s="65">
-        <f t="shared" si="15"/>
-        <v>201.77612431571143</v>
-      </c>
-      <c r="O27" s="65">
-        <f t="shared" si="15"/>
-        <v>286.4737691428212</v>
-      </c>
-      <c r="P27" s="65">
-        <f t="shared" si="15"/>
-        <v>413.51455847308455</v>
-      </c>
-      <c r="Q27" s="65">
-        <f t="shared" si="15"/>
-        <v>609.06655560945103</v>
-      </c>
-      <c r="R27" s="65">
-        <f t="shared" si="15"/>
-        <v>915.46968697609168</v>
-      </c>
-      <c r="S27" s="65">
-        <f t="shared" si="15"/>
-        <v>1401.2299535273162</v>
-      </c>
-      <c r="T27" s="65">
-        <f t="shared" si="15"/>
-        <v>2177.1900648071978</v>
-      </c>
-      <c r="U27" s="65">
-        <f t="shared" si="15"/>
-        <v>3422.6935248580476</v>
-      </c>
-      <c r="V27" s="65">
-        <f t="shared" si="15"/>
-        <v>5427.9181232203209</v>
-      </c>
-      <c r="W27" s="65">
-        <f t="shared" si="15"/>
-        <v>8662.3715233704806</v>
-      </c>
-      <c r="X27" s="65">
-        <f t="shared" si="15"/>
-        <v>10666.80441504686</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="I27" s="63">
+        <f t="shared" ref="I27:X27" si="23">SUM(I11:I26)</f>
+        <v>9</v>
+      </c>
+      <c r="J27" s="63">
+        <f t="shared" si="23"/>
+        <v>20.561999999999998</v>
+      </c>
+      <c r="K27" s="63">
+        <f t="shared" si="23"/>
+        <v>36.269316000000003</v>
+      </c>
+      <c r="L27" s="63">
+        <f t="shared" si="23"/>
+        <v>58.683753288000005</v>
+      </c>
+      <c r="M27" s="63">
+        <f t="shared" si="23"/>
+        <v>91.950312819984021</v>
+      </c>
+      <c r="N27" s="63">
+        <f t="shared" si="23"/>
+        <v>142.77560614273415</v>
+      </c>
+      <c r="O27" s="63">
+        <f t="shared" si="23"/>
+        <v>222.0109307389439</v>
+      </c>
+      <c r="P27" s="63">
+        <f t="shared" si="23"/>
+        <v>347.21368593561124</v>
+      </c>
+      <c r="Q27" s="63">
+        <f t="shared" si="23"/>
+        <v>546.79174384381906</v>
+      </c>
+      <c r="R27" s="63">
+        <f t="shared" si="23"/>
+        <v>866.70904153929916</v>
+      </c>
+      <c r="S27" s="63">
+        <f t="shared" si="23"/>
+        <v>1381.335229210586</v>
+      </c>
+      <c r="T27" s="63">
+        <f t="shared" si="23"/>
+        <v>2211.0004008627284</v>
+      </c>
+      <c r="U27" s="63">
+        <f t="shared" si="23"/>
+        <v>3550.3986485958949</v>
+      </c>
+      <c r="V27" s="63">
+        <f t="shared" si="23"/>
+        <v>5714.5450134281591</v>
+      </c>
+      <c r="W27" s="63">
+        <f t="shared" si="23"/>
+        <v>9213.1338317267619</v>
+      </c>
+      <c r="X27" s="63">
+        <f t="shared" si="23"/>
+        <v>12939.502913873956</v>
+      </c>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="63"/>
+      <c r="AB27" s="63"/>
+      <c r="AC27" s="63"/>
+      <c r="AD27" s="63"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
+      <c r="AG27" s="63"/>
+    </row>
+    <row r="28" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="47" t="str">
+        <f>IF(A27=0,0,IF(VALUE(MID(A27,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A27,2,2))+1))</f>
+        <v>L16</v>
       </c>
       <c r="B28" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>IF(A28&lt;&gt;0,B27*$D$9,0)</f>
+        <v>13.635710091914175</v>
       </c>
       <c r="C28" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>24544.278165445518</v>
       </c>
       <c r="D28" s="9">
-        <f>IF(A28=0,0,($C$7*($C$10-16)))</f>
-        <v>0</v>
+        <f>IF(A28=0,0,($D$7*($D$10-16)))</f>
+        <v>18</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="68">
+      <c r="I28" s="65">
         <f>SUM($H11:$H11)</f>
         <v>0.01</v>
       </c>
-      <c r="J28" s="68">
+      <c r="J28" s="65">
         <f>SUM($H11:$H12)</f>
         <v>2.6180000000000002E-2</v>
       </c>
-      <c r="K28" s="68">
+      <c r="K28" s="65">
         <f>SUM($H11:$H13)</f>
         <v>5.2359240000000001E-2</v>
       </c>
-      <c r="L28" s="68">
+      <c r="L28" s="65">
         <f>SUM($H11:$H14)</f>
         <v>9.4717250320000002E-2</v>
       </c>
-      <c r="M28" s="68">
+      <c r="M28" s="65">
         <f>SUM($H11:$H15)</f>
         <v>0.16325251101776</v>
       </c>
-      <c r="N28" s="68">
+      <c r="N28" s="65">
         <f>SUM($H11:$H16)</f>
         <v>0.27414256282673571</v>
       </c>
-      <c r="O28" s="68">
+      <c r="O28" s="65">
         <f>SUM($H11:$H17)</f>
         <v>0.45356266665365841</v>
       </c>
-      <c r="P28" s="68">
+      <c r="P28" s="65">
         <f>SUM($H11:$H18)</f>
         <v>0.74386439464561938</v>
       </c>
-      <c r="Q28" s="68">
+      <c r="Q28" s="65">
         <f>SUM($H11:$H19)</f>
         <v>1.2135725905366122</v>
       </c>
-      <c r="R28" s="68">
+      <c r="R28" s="65">
         <f>SUM($H11:$H20)</f>
         <v>1.9735604514882388</v>
       </c>
-      <c r="S28" s="68">
+      <c r="S28" s="65">
         <f>SUM($H11:$H21)</f>
         <v>3.2032208105079705</v>
       </c>
-      <c r="T28" s="68">
+      <c r="T28" s="65">
         <f>SUM($H11:$H22)</f>
         <v>5.1928112714018964</v>
       </c>
-      <c r="U28" s="68">
+      <c r="U28" s="65">
         <f>SUM($H11:$H23)</f>
         <v>8.4119686371282683</v>
       </c>
-      <c r="V28" s="68">
+      <c r="V28" s="65">
         <f>SUM($H11:$H24)</f>
         <v>13.62056525487354</v>
       </c>
-      <c r="W28" s="68">
+      <c r="W28" s="65">
         <f>SUM($H11:$H25)</f>
         <v>22.048074582385389</v>
       </c>
-      <c r="X28" s="68">
+      <c r="X28" s="65">
         <f>SUM($H11:$H26)</f>
         <v>35.683784674299567</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="Y28" s="65"/>
+      <c r="Z28" s="65"/>
+      <c r="AA28" s="65"/>
+      <c r="AB28" s="65"/>
+      <c r="AC28" s="65"/>
+      <c r="AD28" s="65"/>
+      <c r="AE28" s="65"/>
+      <c r="AF28" s="65"/>
+      <c r="AG28" s="65"/>
+    </row>
+    <row r="29" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="47" t="str">
+        <f>IF(A28=0,0,IF(VALUE(MID(A28,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A28,2,2))+1))</f>
+        <v>L17</v>
       </c>
       <c r="B29" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>IF(A29&lt;&gt;0,B28*$D$9,0)</f>
+        <v>22.062578928717137</v>
       </c>
       <c r="C29" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>33093.868393075703</v>
       </c>
       <c r="D29" s="9">
-        <f>IF(A29=0,0,($C$7*($C$10-17)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(A29=0,0,($D$7*($D$10-17)))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="47" t="str">
+        <f>IF(A29=0,0,IF(VALUE(MID(A29,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A29,2,2))+1))</f>
+        <v>L18</v>
       </c>
       <c r="B30" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>IF(A30&lt;&gt;0,B29*$D$9,0)</f>
+        <v>35.697252706664329</v>
       </c>
       <c r="C30" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>42836.703247997197</v>
       </c>
       <c r="D30" s="9">
-        <f>IF(A30=0,0,($C$7*($C$10-18)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(A30=0,0,($D$7*($D$10-18)))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="47" t="str">
+        <f>IF(A30=0,0,IF(VALUE(MID(A30,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A30,2,2))+1))</f>
+        <v>L19</v>
       </c>
       <c r="B31" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>IF(A31&lt;&gt;0,B30*$D$9,0)</f>
+        <v>57.758154879382886</v>
       </c>
       <c r="C31" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>51982.339391444599</v>
       </c>
       <c r="D31" s="9">
-        <f>IF(A31=0,0,($C$7*($C$10-19)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(A31=0,0,($D$7*($D$10-19)))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="47" t="str">
+        <f>IF(A31=0,0,IF(VALUE(MID(A31,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A31,2,2))+1))</f>
+        <v>L20</v>
       </c>
       <c r="B32" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>IF(A32&lt;&gt;0,B31*$D$9,0)</f>
+        <v>93.452694594841518</v>
       </c>
       <c r="C32" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>56071.616756904907</v>
       </c>
       <c r="D32" s="9">
-        <f>IF(A32=0,0,($C$7*($C$10-20)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(A32=0,0,($D$7*($D$10-20)))</f>
+        <v>6</v>
+      </c>
+      <c r="G32" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q32" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="R32" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="S32" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="T32" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="U32" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="V32" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="W32" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="X32" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y32" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z32" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA32" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB32" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC32" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD32" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE32" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF32" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG32" s="55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="47" t="str">
+        <f>IF(A32=0,0,IF(VALUE(MID(A32,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A32,2,2))+1))</f>
+        <v>L21</v>
       </c>
       <c r="B33" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>IF(A33&lt;&gt;0,B32*$D$9,0)</f>
+        <v>151.20645985445358</v>
       </c>
       <c r="C33" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>90723.875912672156</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" ref="D33:D43" si="16">IF(A33=0,0,($C$7*($C$10-20)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(A33=0,0,($D$7*($D$10-20)))</f>
+        <v>6</v>
+      </c>
+      <c r="G33" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="55">
+        <v>1</v>
+      </c>
+      <c r="J33" s="55">
+        <v>2</v>
+      </c>
+      <c r="K33" s="55">
+        <v>3</v>
+      </c>
+      <c r="L33" s="55">
+        <v>4</v>
+      </c>
+      <c r="M33" s="55">
+        <v>5</v>
+      </c>
+      <c r="N33" s="55">
+        <v>6</v>
+      </c>
+      <c r="O33" s="55">
+        <v>7</v>
+      </c>
+      <c r="P33" s="55">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="55">
+        <v>9</v>
+      </c>
+      <c r="R33" s="55">
+        <v>10</v>
+      </c>
+      <c r="S33" s="55">
+        <v>11</v>
+      </c>
+      <c r="T33" s="55">
+        <v>12</v>
+      </c>
+      <c r="U33" s="55">
+        <v>13</v>
+      </c>
+      <c r="V33" s="55">
+        <v>14</v>
+      </c>
+      <c r="W33" s="55">
+        <v>15</v>
+      </c>
+      <c r="X33" s="55">
+        <v>16</v>
+      </c>
+      <c r="Y33" s="55">
+        <v>17</v>
+      </c>
+      <c r="Z33" s="55">
+        <v>18</v>
+      </c>
+      <c r="AA33" s="55">
+        <v>19</v>
+      </c>
+      <c r="AB33" s="55">
+        <v>20</v>
+      </c>
+      <c r="AC33" s="55">
+        <v>21</v>
+      </c>
+      <c r="AD33" s="55">
+        <v>22</v>
+      </c>
+      <c r="AE33" s="55">
+        <v>23</v>
+      </c>
+      <c r="AF33" s="55">
+        <v>24</v>
+      </c>
+      <c r="AG33" s="55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="47" t="str">
+        <f>IF(A33=0,0,IF(VALUE(MID(A33,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A33,2,2))+1))</f>
+        <v>L22</v>
       </c>
       <c r="B34" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>IF(A34&lt;&gt;0,B33*$D$9,0)</f>
+        <v>244.65205204450592</v>
       </c>
       <c r="C34" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>146791.23122670356</v>
       </c>
       <c r="D34" s="9">
+        <f>IF(A34=0,0,($D$7*($D$10-20)))</f>
+        <v>6</v>
+      </c>
+      <c r="G34" s="60">
+        <v>1</v>
+      </c>
+      <c r="H34" s="61">
+        <f>'Bảng Input L30'!B13</f>
+        <v>0.01</v>
+      </c>
+      <c r="I34" s="57">
+        <f>$H34*100*($H$5*I$33 - $H$5*$H$4)</f>
+        <v>-1.8540000000000001</v>
+      </c>
+      <c r="J34" s="57">
+        <f>$H34*100*($H$5*J$33 - $H$5*$H$4)</f>
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="K34" s="57">
+        <f>$H34*100*($H$5*K$33 - $H$5*$H$4)</f>
+        <v>4.1459999999999999</v>
+      </c>
+      <c r="L34" s="57">
+        <f>$H34*100*($H$5*L$33 - $H$5*$H$4)</f>
+        <v>7.1459999999999999</v>
+      </c>
+      <c r="M34" s="57">
+        <f t="shared" ref="M34" si="24">$H$11*100*($H$6-$H$5*L33)</f>
+        <v>-3</v>
+      </c>
+      <c r="N34" s="57">
+        <f t="shared" ref="N34" si="25">$H$11*100*($H$6-$H$5*M33)</f>
+        <v>-6</v>
+      </c>
+      <c r="O34" s="57">
+        <f t="shared" ref="O34" si="26">$H$11*100*($H$6-$H$5*N33)</f>
+        <v>-9</v>
+      </c>
+      <c r="P34" s="57">
+        <f t="shared" ref="P34" si="27">$H$11*100*($H$6-$H$5*O33)</f>
+        <v>-12</v>
+      </c>
+      <c r="Q34" s="57">
+        <f t="shared" ref="Q34" si="28">$H$11*100*($H$6-$H$5*P33)</f>
+        <v>-15</v>
+      </c>
+      <c r="R34" s="57">
+        <f t="shared" ref="R34" si="29">$H$11*100*($H$6-$H$5*Q33)</f>
+        <v>-18</v>
+      </c>
+      <c r="S34" s="57">
+        <f t="shared" ref="S34" si="30">$H$11*100*($H$6-$H$5*R33)</f>
+        <v>-21</v>
+      </c>
+      <c r="T34" s="57">
+        <f t="shared" ref="T34" si="31">$H$11*100*($H$6-$H$5*S33)</f>
+        <v>-24</v>
+      </c>
+      <c r="U34" s="57">
+        <f t="shared" ref="U34" si="32">$H$11*100*($H$6-$H$5*T33)</f>
+        <v>-27</v>
+      </c>
+      <c r="V34" s="57">
+        <f t="shared" ref="V34" si="33">$H$11*100*($H$6-$H$5*U33)</f>
+        <v>-30</v>
+      </c>
+      <c r="W34" s="57">
+        <f t="shared" ref="W34" si="34">$H$11*100*($H$6-$H$5*V33)</f>
+        <v>-33</v>
+      </c>
+      <c r="X34" s="57">
+        <f t="shared" ref="X34" si="35">$H$11*100*($H$6-$H$5*W33)</f>
+        <v>-36</v>
+      </c>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="57"/>
+      <c r="AC34" s="57"/>
+      <c r="AD34" s="57"/>
+      <c r="AE34" s="57"/>
+      <c r="AF34" s="57"/>
+      <c r="AG34" s="57"/>
+    </row>
+    <row r="35" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="47">
+        <f>IF(A34=0,0,IF(VALUE(MID(A34,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A34,2,2))+1))</f>
+        <v>0</v>
+      </c>
+      <c r="B35" s="10">
+        <f>IF(A35&lt;&gt;0,B34*$D$9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="B35" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C35" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="D35" s="9">
+        <f>IF(A35=0,0,($D$7*($D$10-20)))</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="60">
+        <v>2</v>
+      </c>
+      <c r="H35" s="56">
+        <f t="shared" ref="H35:H49" si="36">H34*$H$4</f>
+        <v>1.618E-2</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="57">
+        <f>$H35*100*($H$5*J$33 - $H$5*$H$4)</f>
+        <v>1.8542279999999998</v>
+      </c>
+      <c r="K35" s="57">
+        <f>$H35*100*($H$5*K$33 - $H$5*$H$4)</f>
+        <v>6.7082279999999992</v>
+      </c>
+      <c r="L35" s="57">
+        <f t="shared" ref="L35:L37" si="37">$H35*100*($H$5*L$33 - $H$5*$H$4)</f>
+        <v>11.562227999999999</v>
+      </c>
+      <c r="M35" s="57">
+        <f t="shared" ref="M35" si="38">$H$12*100*($H$6-$H$5*K33)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="57">
+        <f t="shared" ref="N35" si="39">$H$12*100*($H$6-$H$5*L33)</f>
+        <v>-4.8539999999999992</v>
+      </c>
+      <c r="O35" s="57">
+        <f t="shared" ref="O35" si="40">$H$12*100*($H$6-$H$5*M33)</f>
+        <v>-9.7079999999999984</v>
+      </c>
+      <c r="P35" s="57">
+        <f t="shared" ref="P35" si="41">$H$12*100*($H$6-$H$5*N33)</f>
+        <v>-14.561999999999999</v>
+      </c>
+      <c r="Q35" s="57">
+        <f t="shared" ref="Q35" si="42">$H$12*100*($H$6-$H$5*O33)</f>
+        <v>-19.415999999999997</v>
+      </c>
+      <c r="R35" s="57">
+        <f t="shared" ref="R35" si="43">$H$12*100*($H$6-$H$5*P33)</f>
+        <v>-24.27</v>
+      </c>
+      <c r="S35" s="57">
+        <f t="shared" ref="S35" si="44">$H$12*100*($H$6-$H$5*Q33)</f>
+        <v>-29.123999999999999</v>
+      </c>
+      <c r="T35" s="57">
+        <f t="shared" ref="T35" si="45">$H$12*100*($H$6-$H$5*R33)</f>
+        <v>-33.977999999999994</v>
+      </c>
+      <c r="U35" s="57">
+        <f t="shared" ref="U35" si="46">$H$12*100*($H$6-$H$5*S33)</f>
+        <v>-38.831999999999994</v>
+      </c>
+      <c r="V35" s="57">
+        <f t="shared" ref="V35" si="47">$H$12*100*($H$6-$H$5*T33)</f>
+        <v>-43.686</v>
+      </c>
+      <c r="W35" s="57">
+        <f t="shared" ref="W35" si="48">$H$12*100*($H$6-$H$5*U33)</f>
+        <v>-48.54</v>
+      </c>
+      <c r="X35" s="57">
+        <f t="shared" ref="X35" si="49">$H$12*100*($H$6-$H$5*V33)</f>
+        <v>-53.393999999999998</v>
+      </c>
+      <c r="Y35" s="57"/>
+      <c r="Z35" s="57"/>
+      <c r="AA35" s="57"/>
+      <c r="AB35" s="57"/>
+      <c r="AC35" s="57"/>
+      <c r="AD35" s="57"/>
+      <c r="AE35" s="57"/>
+      <c r="AF35" s="57"/>
+      <c r="AG35" s="57"/>
+    </row>
+    <row r="36" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="47">
+        <f>IF(A35=0,0,IF(VALUE(MID(A35,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A35,2,2))+1))</f>
+        <v>0</v>
+      </c>
+      <c r="B36" s="10">
+        <f>IF(A36&lt;&gt;0,B35*$D$9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="B36" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C36" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="D36" s="9">
+        <f>IF(A36=0,0,($D$7*($D$10-20)))</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="60">
+        <v>3</v>
+      </c>
+      <c r="H36" s="56">
+        <f t="shared" si="36"/>
+        <v>2.6179240000000003E-2</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="57">
+        <f>$H36*100*($H$5*K$33 - $H$5*$H$4)</f>
+        <v>10.853912904000001</v>
+      </c>
+      <c r="L36" s="57">
+        <f t="shared" si="37"/>
+        <v>18.707684904000001</v>
+      </c>
+      <c r="M36" s="57">
+        <f t="shared" ref="M36" si="50">$H$13*100*($H$6-$H$5*J33)</f>
+        <v>7.8537720000000011</v>
+      </c>
+      <c r="N36" s="57">
+        <f t="shared" ref="N36" si="51">$H$13*100*($H$6-$H$5*K33)</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="57">
+        <f t="shared" ref="O36" si="52">$H$13*100*($H$6-$H$5*L33)</f>
+        <v>-7.8537720000000011</v>
+      </c>
+      <c r="P36" s="57">
+        <f t="shared" ref="P36" si="53">$H$13*100*($H$6-$H$5*M33)</f>
+        <v>-15.707544000000002</v>
+      </c>
+      <c r="Q36" s="57">
+        <f t="shared" ref="Q36" si="54">$H$13*100*($H$6-$H$5*N33)</f>
+        <v>-23.561316000000005</v>
+      </c>
+      <c r="R36" s="57">
+        <f t="shared" ref="R36" si="55">$H$13*100*($H$6-$H$5*O33)</f>
+        <v>-31.415088000000004</v>
+      </c>
+      <c r="S36" s="57">
+        <f t="shared" ref="S36" si="56">$H$13*100*($H$6-$H$5*P33)</f>
+        <v>-39.268860000000004</v>
+      </c>
+      <c r="T36" s="57">
+        <f t="shared" ref="T36" si="57">$H$13*100*($H$6-$H$5*Q33)</f>
+        <v>-47.12263200000001</v>
+      </c>
+      <c r="U36" s="57">
+        <f t="shared" ref="U36" si="58">$H$13*100*($H$6-$H$5*R33)</f>
+        <v>-54.976404000000009</v>
+      </c>
+      <c r="V36" s="57">
+        <f t="shared" ref="V36" si="59">$H$13*100*($H$6-$H$5*S33)</f>
+        <v>-62.830176000000009</v>
+      </c>
+      <c r="W36" s="57">
+        <f t="shared" ref="W36" si="60">$H$13*100*($H$6-$H$5*T33)</f>
+        <v>-70.683948000000015</v>
+      </c>
+      <c r="X36" s="57">
+        <f t="shared" ref="X36" si="61">$H$13*100*($H$6-$H$5*U33)</f>
+        <v>-78.537720000000007</v>
+      </c>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="57"/>
+      <c r="AB36" s="57"/>
+      <c r="AC36" s="57"/>
+      <c r="AD36" s="57"/>
+      <c r="AE36" s="57"/>
+      <c r="AF36" s="57"/>
+      <c r="AG36" s="57"/>
+    </row>
+    <row r="37" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="47">
+        <f>IF(A36=0,0,IF(VALUE(MID(A36,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A36,2,2))+1))</f>
+        <v>0</v>
+      </c>
+      <c r="B37" s="10">
+        <f>IF(A37&lt;&gt;0,B36*$D$9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="B37" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C37" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="D37" s="9">
+        <f>IF(A37=0,0,($D$7*($D$10-20)))</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="60">
+        <v>4</v>
+      </c>
+      <c r="H37" s="56">
+        <f t="shared" si="36"/>
+        <v>4.2358010320000007E-2</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="57">
+        <f t="shared" si="37"/>
+        <v>30.269034174672001</v>
+      </c>
+      <c r="M37" s="57">
+        <f>H37*100*(H29-H28)</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="57">
+        <f t="shared" ref="N37" si="62">$H$14*100*($H$6-$H$5*J33)</f>
+        <v>12.707403096</v>
+      </c>
+      <c r="O37" s="57">
+        <f t="shared" ref="O37" si="63">$H$14*100*($H$6-$H$5*K33)</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="57">
+        <f t="shared" ref="P37" si="64">$H$14*100*($H$6-$H$5*L33)</f>
+        <v>-12.707403096</v>
+      </c>
+      <c r="Q37" s="57">
+        <f t="shared" ref="Q37" si="65">$H$14*100*($H$6-$H$5*M33)</f>
+        <v>-25.414806192</v>
+      </c>
+      <c r="R37" s="57">
+        <f t="shared" ref="R37" si="66">$H$14*100*($H$6-$H$5*N33)</f>
+        <v>-38.122209288000001</v>
+      </c>
+      <c r="S37" s="57">
+        <f t="shared" ref="S37" si="67">$H$14*100*($H$6-$H$5*O33)</f>
+        <v>-50.829612384000001</v>
+      </c>
+      <c r="T37" s="57">
+        <f t="shared" ref="T37" si="68">$H$14*100*($H$6-$H$5*P33)</f>
+        <v>-63.537015480000008</v>
+      </c>
+      <c r="U37" s="57">
+        <f t="shared" ref="U37" si="69">$H$14*100*($H$6-$H$5*Q33)</f>
+        <v>-76.244418576000001</v>
+      </c>
+      <c r="V37" s="57">
+        <f t="shared" ref="V37" si="70">$H$14*100*($H$6-$H$5*R33)</f>
+        <v>-88.951821672000008</v>
+      </c>
+      <c r="W37" s="57">
+        <f t="shared" ref="W37" si="71">$H$14*100*($H$6-$H$5*S33)</f>
+        <v>-101.659224768</v>
+      </c>
+      <c r="X37" s="57">
+        <f t="shared" ref="X37" si="72">$H$14*100*($H$6-$H$5*T33)</f>
+        <v>-114.36662786400001</v>
+      </c>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="57"/>
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="57"/>
+      <c r="AE37" s="57"/>
+      <c r="AF37" s="57"/>
+      <c r="AG37" s="57"/>
+    </row>
+    <row r="38" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="47">
+        <f>IF(A37=0,0,IF(VALUE(MID(A37,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A37,2,2))+1))</f>
+        <v>0</v>
+      </c>
+      <c r="B38" s="10">
+        <f>IF(A38&lt;&gt;0,B37*$D$9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="B38" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C38" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="D38" s="9">
+        <f>IF(A38=0,0,($D$7*($D$10-20)))</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="60">
+        <v>5</v>
+      </c>
+      <c r="H38" s="56">
+        <f t="shared" si="36"/>
+        <v>6.8535260697760017E-2</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="57">
+        <f>H38*H29*100</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="57">
+        <f>H38*100*(H29-H28)</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="57">
+        <f t="shared" ref="O38" si="73">$H$15*100*($H$6-$H$5*J33)</f>
+        <v>20.560578209328003</v>
+      </c>
+      <c r="P38" s="57">
+        <f t="shared" ref="P38" si="74">$H$15*100*($H$6-$H$5*K33)</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="57">
+        <f t="shared" ref="Q38" si="75">$H$15*100*($H$6-$H$5*L33)</f>
+        <v>-20.560578209328003</v>
+      </c>
+      <c r="R38" s="57">
+        <f t="shared" ref="R38" si="76">$H$15*100*($H$6-$H$5*M33)</f>
+        <v>-41.121156418656007</v>
+      </c>
+      <c r="S38" s="57">
+        <f t="shared" ref="S38" si="77">$H$15*100*($H$6-$H$5*N33)</f>
+        <v>-61.681734627984014</v>
+      </c>
+      <c r="T38" s="57">
+        <f t="shared" ref="T38" si="78">$H$15*100*($H$6-$H$5*O33)</f>
+        <v>-82.242312837312014</v>
+      </c>
+      <c r="U38" s="57">
+        <f t="shared" ref="U38" si="79">$H$15*100*($H$6-$H$5*P33)</f>
+        <v>-102.80289104664003</v>
+      </c>
+      <c r="V38" s="57">
+        <f t="shared" ref="V38" si="80">$H$15*100*($H$6-$H$5*Q33)</f>
+        <v>-123.36346925596803</v>
+      </c>
+      <c r="W38" s="57">
+        <f t="shared" ref="W38" si="81">$H$15*100*($H$6-$H$5*R33)</f>
+        <v>-143.92404746529604</v>
+      </c>
+      <c r="X38" s="57">
+        <f t="shared" ref="X38" si="82">$H$15*100*($H$6-$H$5*S33)</f>
+        <v>-164.48462567462403</v>
+      </c>
+      <c r="Y38" s="57"/>
+      <c r="Z38" s="57"/>
+      <c r="AA38" s="57"/>
+      <c r="AB38" s="57"/>
+      <c r="AC38" s="57"/>
+      <c r="AD38" s="57"/>
+      <c r="AE38" s="57"/>
+      <c r="AF38" s="57"/>
+      <c r="AG38" s="57"/>
+    </row>
+    <row r="39" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="47">
+        <f>IF(A38=0,0,IF(VALUE(MID(A38,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A38,2,2))+1))</f>
+        <v>0</v>
+      </c>
+      <c r="B39" s="10">
+        <f>IF(A39&lt;&gt;0,B38*$D$9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="B39" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C39" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="D39" s="9">
+        <f>IF(A39=0,0,($D$7*($D$10-20)))</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="60">
+        <v>6</v>
+      </c>
+      <c r="H39" s="56">
+        <f t="shared" si="36"/>
+        <v>0.11089005180897571</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="57">
+        <f>H39*H29*100</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="57">
+        <f>H39*100*(H29-H28)</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="57">
+        <f t="shared" ref="P39" si="83">$H$16*100*($H$6-$H$5*J33)</f>
+        <v>33.267015542692711</v>
+      </c>
+      <c r="Q39" s="57">
+        <f t="shared" ref="Q39" si="84">$H$16*100*($H$6-$H$5*K33)</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="57">
+        <f t="shared" ref="R39" si="85">$H$16*100*($H$6-$H$5*L33)</f>
+        <v>-33.267015542692711</v>
+      </c>
+      <c r="S39" s="57">
+        <f t="shared" ref="S39" si="86">$H$16*100*($H$6-$H$5*M33)</f>
+        <v>-66.534031085385422</v>
+      </c>
+      <c r="T39" s="57">
+        <f t="shared" ref="T39" si="87">$H$16*100*($H$6-$H$5*N33)</f>
+        <v>-99.80104662807814</v>
+      </c>
+      <c r="U39" s="57">
+        <f t="shared" ref="U39" si="88">$H$16*100*($H$6-$H$5*O33)</f>
+        <v>-133.06806217077084</v>
+      </c>
+      <c r="V39" s="57">
+        <f t="shared" ref="V39" si="89">$H$16*100*($H$6-$H$5*P33)</f>
+        <v>-166.33507771346356</v>
+      </c>
+      <c r="W39" s="57">
+        <f t="shared" ref="W39" si="90">$H$16*100*($H$6-$H$5*Q33)</f>
+        <v>-199.60209325615628</v>
+      </c>
+      <c r="X39" s="57">
+        <f t="shared" ref="X39" si="91">$H$16*100*($H$6-$H$5*R33)</f>
+        <v>-232.869108798849</v>
+      </c>
+      <c r="Y39" s="57"/>
+      <c r="Z39" s="57"/>
+      <c r="AA39" s="57"/>
+      <c r="AB39" s="57"/>
+      <c r="AC39" s="57"/>
+      <c r="AD39" s="57"/>
+      <c r="AE39" s="57"/>
+      <c r="AF39" s="57"/>
+      <c r="AG39" s="57"/>
+    </row>
+    <row r="40" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="47">
+        <f>IF(A39=0,0,IF(VALUE(MID(A39,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A39,2,2))+1))</f>
+        <v>0</v>
+      </c>
+      <c r="B40" s="10">
+        <f>IF(A40&lt;&gt;0,B39*$D$9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="B40" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C40" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="D40" s="9">
+        <f>IF(A40=0,0,($D$7*($D$10-20)))</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="60">
+        <v>7</v>
+      </c>
+      <c r="H40" s="56">
+        <f t="shared" si="36"/>
+        <v>0.17942010382692272</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="57">
+        <f>H29*H40*100</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="57">
+        <f>H40*100*(H29-H28)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="57">
+        <f t="shared" ref="Q40" si="92">$H$17*100*($H$6-$H$5*J33)</f>
+        <v>53.826031148076808</v>
+      </c>
+      <c r="R40" s="57">
+        <f t="shared" ref="R40" si="93">$H$17*100*($H$6-$H$5*K33)</f>
+        <v>0</v>
+      </c>
+      <c r="S40" s="57">
+        <f t="shared" ref="S40" si="94">$H$17*100*($H$6-$H$5*L33)</f>
+        <v>-53.826031148076808</v>
+      </c>
+      <c r="T40" s="57">
+        <f t="shared" ref="T40" si="95">$H$17*100*($H$6-$H$5*M33)</f>
+        <v>-107.65206229615362</v>
+      </c>
+      <c r="U40" s="57">
+        <f t="shared" ref="U40" si="96">$H$17*100*($H$6-$H$5*N33)</f>
+        <v>-161.47809344423044</v>
+      </c>
+      <c r="V40" s="57">
+        <f t="shared" ref="V40" si="97">$H$17*100*($H$6-$H$5*O33)</f>
+        <v>-215.30412459230723</v>
+      </c>
+      <c r="W40" s="57">
+        <f t="shared" ref="W40" si="98">$H$17*100*($H$6-$H$5*P33)</f>
+        <v>-269.13015574038405</v>
+      </c>
+      <c r="X40" s="57">
+        <f t="shared" ref="X40" si="99">$H$17*100*($H$6-$H$5*Q33)</f>
+        <v>-322.95618688846088</v>
+      </c>
+      <c r="Y40" s="57"/>
+      <c r="Z40" s="57"/>
+      <c r="AA40" s="57"/>
+      <c r="AB40" s="57"/>
+      <c r="AC40" s="57"/>
+      <c r="AD40" s="57"/>
+      <c r="AE40" s="57"/>
+      <c r="AF40" s="57"/>
+      <c r="AG40" s="57"/>
+    </row>
+    <row r="41" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="47">
+        <f>IF(A40=0,0,IF(VALUE(MID(A40,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A40,2,2))+1))</f>
+        <v>0</v>
+      </c>
+      <c r="B41" s="10">
+        <f>IF(A41&lt;&gt;0,B40*$D$9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="B41" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C41" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="D41" s="9">
+        <f>IF(A41=0,0,($D$7*($D$10-20)))</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="60">
+        <v>8</v>
+      </c>
+      <c r="H41" s="56">
+        <f t="shared" si="36"/>
+        <v>0.29030172799196097</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="57">
+        <f>H29*H41*100</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="57">
+        <f>H41*100*(H29-H28)</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="57">
+        <f t="shared" ref="R41" si="100">$H$18*100*($H$6-$H$5*J33)</f>
+        <v>87.090518397588298</v>
+      </c>
+      <c r="S41" s="57">
+        <f t="shared" ref="S41" si="101">$H$18*100*($H$6-$H$5*K33)</f>
+        <v>0</v>
+      </c>
+      <c r="T41" s="57">
+        <f t="shared" ref="T41" si="102">$H$18*100*($H$6-$H$5*L33)</f>
+        <v>-87.090518397588298</v>
+      </c>
+      <c r="U41" s="57">
+        <f t="shared" ref="U41" si="103">$H$18*100*($H$6-$H$5*M33)</f>
+        <v>-174.1810367951766</v>
+      </c>
+      <c r="V41" s="57">
+        <f t="shared" ref="V41" si="104">$H$18*100*($H$6-$H$5*N33)</f>
+        <v>-261.27155519276488</v>
+      </c>
+      <c r="W41" s="57">
+        <f t="shared" ref="W41" si="105">$H$18*100*($H$6-$H$5*O33)</f>
+        <v>-348.36207359035319</v>
+      </c>
+      <c r="X41" s="57">
+        <f t="shared" ref="X41" si="106">$H$18*100*($H$6-$H$5*P33)</f>
+        <v>-435.45259198794145</v>
+      </c>
+      <c r="Y41" s="57"/>
+      <c r="Z41" s="57"/>
+      <c r="AA41" s="57"/>
+      <c r="AB41" s="57"/>
+      <c r="AC41" s="57"/>
+      <c r="AD41" s="57"/>
+      <c r="AE41" s="57"/>
+      <c r="AF41" s="57"/>
+      <c r="AG41" s="57"/>
+    </row>
+    <row r="42" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="47">
+        <f>IF(A41=0,0,IF(VALUE(MID(A41,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A41,2,2))+1))</f>
+        <v>0</v>
+      </c>
+      <c r="B42" s="10">
+        <f>IF(A42&lt;&gt;0,B41*$D$9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="B42" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C42" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="D42" s="9">
+        <f>IF(A42=0,0,($D$7*($D$10-20)))</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="60">
+        <v>9</v>
+      </c>
+      <c r="H42" s="56">
+        <f t="shared" si="36"/>
+        <v>0.46970819589099289</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="57">
+        <f>H29*H42*100</f>
+        <v>0</v>
+      </c>
+      <c r="R42" s="57">
+        <f>H42*100*(H29-H28)</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="57">
+        <f t="shared" ref="S42" si="107">$H$19*100*($H$6-$H$5*J33)</f>
+        <v>140.91245876729786</v>
+      </c>
+      <c r="T42" s="57">
+        <f t="shared" ref="T42" si="108">$H$19*100*($H$6-$H$5*K33)</f>
+        <v>0</v>
+      </c>
+      <c r="U42" s="57">
+        <f t="shared" ref="U42" si="109">$H$19*100*($H$6-$H$5*L33)</f>
+        <v>-140.91245876729786</v>
+      </c>
+      <c r="V42" s="57">
+        <f t="shared" ref="V42" si="110">$H$19*100*($H$6-$H$5*M33)</f>
+        <v>-281.82491753459573</v>
+      </c>
+      <c r="W42" s="57">
+        <f t="shared" ref="W42" si="111">$H$19*100*($H$6-$H$5*N33)</f>
+        <v>-422.73737630189356</v>
+      </c>
+      <c r="X42" s="57">
+        <f t="shared" ref="X42" si="112">$H$19*100*($H$6-$H$5*O33)</f>
+        <v>-563.64983506919145</v>
+      </c>
+      <c r="Y42" s="57"/>
+      <c r="Z42" s="57"/>
+      <c r="AA42" s="57"/>
+      <c r="AB42" s="57"/>
+      <c r="AC42" s="57"/>
+      <c r="AD42" s="57"/>
+      <c r="AE42" s="57"/>
+      <c r="AF42" s="57"/>
+      <c r="AG42" s="57"/>
+    </row>
+    <row r="43" spans="1:33" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="47">
+        <f>IF(A42=0,0,IF(VALUE(MID(A42,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A42,2,2))+1))</f>
+        <v>0</v>
+      </c>
+      <c r="B43" s="10">
+        <f>IF(A43&lt;&gt;0,B42*$D$9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="B43" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C43" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="D43" s="9">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="81" t="s">
+        <f>IF(A43=0,0,($D$7*($D$10-20)))</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="60">
+        <v>10</v>
+      </c>
+      <c r="H43" s="56">
+        <f t="shared" si="36"/>
+        <v>0.75998786095162651</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="57">
+        <f>H29*H43*100</f>
+        <v>0</v>
+      </c>
+      <c r="S43" s="57">
+        <f>H43*100*(H29-H28)</f>
+        <v>0</v>
+      </c>
+      <c r="T43" s="57">
+        <f>$H$20*100*($H$6-$H$5*J33)</f>
+        <v>227.99635828548799</v>
+      </c>
+      <c r="U43" s="57">
+        <f>$H$20*100*($H$6-$H$5*K33)</f>
+        <v>0</v>
+      </c>
+      <c r="V43" s="57">
+        <f>$H$20*100*($H$6-$H$5*L33)</f>
+        <v>-227.99635828548799</v>
+      </c>
+      <c r="W43" s="57">
+        <f>$H$20*100*($H$6-$H$5*M33)</f>
+        <v>-455.99271657097597</v>
+      </c>
+      <c r="X43" s="57">
+        <f>$H$20*100*($H$6-$H$5*N33)</f>
+        <v>-683.98907485646396</v>
+      </c>
+      <c r="Y43" s="57"/>
+      <c r="Z43" s="57"/>
+      <c r="AA43" s="57"/>
+      <c r="AB43" s="57"/>
+      <c r="AC43" s="57"/>
+      <c r="AD43" s="57"/>
+      <c r="AE43" s="57"/>
+      <c r="AF43" s="57"/>
+      <c r="AG43" s="57"/>
+    </row>
+    <row r="44" spans="1:33" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="82"/>
+      <c r="B44" s="74"/>
       <c r="C44" s="48">
         <f>SUM(C13:C43)</f>
-        <v>13401.243749398493</v>
+        <v>502975.00300967303</v>
       </c>
       <c r="D44" s="49">
         <f>MAX(D13:D43)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>63</v>
+      </c>
+      <c r="G44" s="60">
+        <v>11</v>
+      </c>
+      <c r="H44" s="56">
+        <f t="shared" si="36"/>
+        <v>1.2296603590197317</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="58">
+        <f>H29*H44*100</f>
+        <v>0</v>
+      </c>
+      <c r="T44" s="58">
+        <f>H44*100*(H29-H28)</f>
+        <v>0</v>
+      </c>
+      <c r="U44" s="58">
+        <f>$H$21*100*($H$6-$H$5*J33)</f>
+        <v>368.89810770591953</v>
+      </c>
+      <c r="V44" s="58">
+        <f>$H$21*100*($H$6-$H$5*K33)</f>
+        <v>0</v>
+      </c>
+      <c r="W44" s="58">
+        <f>$H$21*100*($H$6-$H$5*L33)</f>
+        <v>-368.89810770591953</v>
+      </c>
+      <c r="X44" s="58">
+        <f>$H$21*100*($H$6-$H$5*M33)</f>
+        <v>-737.79621541183906</v>
+      </c>
+      <c r="Y44" s="58"/>
+      <c r="Z44" s="58"/>
+      <c r="AA44" s="58"/>
+      <c r="AB44" s="58"/>
+      <c r="AC44" s="58"/>
+      <c r="AD44" s="58"/>
+      <c r="AE44" s="58"/>
+      <c r="AF44" s="58"/>
+      <c r="AG44" s="58"/>
+    </row>
+    <row r="45" spans="1:33" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G45" s="60">
+        <v>12</v>
+      </c>
+      <c r="H45" s="56">
+        <f t="shared" si="36"/>
+        <v>1.9895904608939261</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="58"/>
+      <c r="T45" s="58">
+        <f>H29*H45*100</f>
+        <v>0</v>
+      </c>
+      <c r="U45" s="58">
+        <f>H45*100*(H29-H28)</f>
+        <v>0</v>
+      </c>
+      <c r="V45" s="58">
+        <f>$H$22*100*($H$6-$H$5*J33)</f>
+        <v>596.87713826817787</v>
+      </c>
+      <c r="W45" s="58">
+        <f>$H$22*100*($H$6-$H$5*K33)</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="58">
+        <f>$H$22*100*($H$6-$H$5*L33)</f>
+        <v>-596.87713826817787</v>
+      </c>
+      <c r="Y45" s="58"/>
+      <c r="Z45" s="58"/>
+      <c r="AA45" s="58"/>
+      <c r="AB45" s="58"/>
+      <c r="AC45" s="58"/>
+      <c r="AD45" s="58"/>
+      <c r="AE45" s="58"/>
+      <c r="AF45" s="58"/>
+      <c r="AG45" s="58"/>
+    </row>
+    <row r="46" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+      <c r="G46" s="60">
+        <v>13</v>
+      </c>
+      <c r="H46" s="56">
+        <f t="shared" si="36"/>
+        <v>3.2191573657263728</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="58"/>
+      <c r="T46" s="58"/>
+      <c r="U46" s="58">
+        <f>H29*H46*100</f>
+        <v>0</v>
+      </c>
+      <c r="V46" s="58">
+        <f>H46*100*(H29-H28)</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="58">
+        <f>$H$23*100*($H$6-$H$5*J33)</f>
+        <v>965.7472097179118</v>
+      </c>
+      <c r="X46" s="58">
+        <f>$H$23*100*($H$6-$H$5*K33)</f>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="58"/>
+      <c r="Z46" s="58"/>
+      <c r="AA46" s="58"/>
+      <c r="AB46" s="58"/>
+      <c r="AC46" s="58"/>
+      <c r="AD46" s="58"/>
+      <c r="AE46" s="58"/>
+      <c r="AF46" s="58"/>
+      <c r="AG46" s="58"/>
+    </row>
+    <row r="47" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+      <c r="G47" s="60">
+        <v>14</v>
+      </c>
+      <c r="H47" s="56">
+        <f t="shared" si="36"/>
+        <v>5.2085966177452718</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="58"/>
+      <c r="T47" s="58"/>
+      <c r="U47" s="58"/>
+      <c r="V47" s="58">
+        <f>H29*H47*100</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="58">
+        <f>H47*100*(H29-H28)</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="58">
+        <f>$H$24*100*($H$6-$H$5*J33)</f>
+        <v>1562.5789853235817</v>
+      </c>
+      <c r="Y47" s="58"/>
+      <c r="Z47" s="58"/>
+      <c r="AA47" s="58"/>
+      <c r="AB47" s="58"/>
+      <c r="AC47" s="58"/>
+      <c r="AD47" s="58"/>
+      <c r="AE47" s="58"/>
+      <c r="AF47" s="58"/>
+      <c r="AG47" s="58"/>
+    </row>
+    <row r="48" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+      <c r="G48" s="60">
+        <v>15</v>
+      </c>
+      <c r="H48" s="56">
+        <f t="shared" si="36"/>
+        <v>8.4275093275118511</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="58"/>
+      <c r="T48" s="58"/>
+      <c r="U48" s="58"/>
+      <c r="V48" s="58"/>
+      <c r="W48" s="58">
+        <f>H29*H48*100</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="58">
+        <f>H47*100*(H29-H28)</f>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="58"/>
+      <c r="Z48" s="58"/>
+      <c r="AA48" s="58"/>
+      <c r="AB48" s="58"/>
+      <c r="AC48" s="58"/>
+      <c r="AD48" s="58"/>
+      <c r="AE48" s="58"/>
+      <c r="AF48" s="58"/>
+      <c r="AG48" s="58"/>
+    </row>
+    <row r="49" spans="7:33" ht="15" x14ac:dyDescent="0.25">
+      <c r="G49" s="60">
+        <v>16</v>
+      </c>
+      <c r="H49" s="56">
+        <f t="shared" si="36"/>
+        <v>13.635710091914175</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="58"/>
+      <c r="T49" s="58"/>
+      <c r="U49" s="58"/>
+      <c r="V49" s="58"/>
+      <c r="W49" s="58"/>
+      <c r="X49" s="58">
+        <f>H49*H29*100</f>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="58"/>
+      <c r="Z49" s="58"/>
+      <c r="AA49" s="58"/>
+      <c r="AB49" s="58"/>
+      <c r="AC49" s="58"/>
+      <c r="AD49" s="58"/>
+      <c r="AE49" s="58"/>
+      <c r="AF49" s="58"/>
+      <c r="AG49" s="58"/>
+    </row>
+    <row r="50" spans="7:33" ht="15" x14ac:dyDescent="0.25">
+      <c r="G50" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="68">
+        <f>SUM(H34:H49)</f>
+        <v>35.683784674299567</v>
+      </c>
+      <c r="I50" s="63">
+        <f t="shared" ref="I50:X50" si="113">SUM(I34:I49)</f>
+        <v>-1.8540000000000001</v>
+      </c>
+      <c r="J50" s="63">
+        <f t="shared" si="113"/>
+        <v>3.0002279999999999</v>
+      </c>
+      <c r="K50" s="63">
+        <f t="shared" si="113"/>
+        <v>21.708140904</v>
+      </c>
+      <c r="L50" s="63">
+        <f t="shared" si="113"/>
+        <v>67.684947078671996</v>
+      </c>
+      <c r="M50" s="63">
+        <f t="shared" si="113"/>
+        <v>4.8537720000000011</v>
+      </c>
+      <c r="N50" s="63">
+        <f t="shared" si="113"/>
+        <v>1.853403096000001</v>
+      </c>
+      <c r="O50" s="63">
+        <f t="shared" si="113"/>
+        <v>-6.0011937906719943</v>
+      </c>
+      <c r="P50" s="63">
+        <f t="shared" si="113"/>
+        <v>-21.709931553307285</v>
+      </c>
+      <c r="Q50" s="63">
+        <f t="shared" si="113"/>
+        <v>-50.126669253251194</v>
+      </c>
+      <c r="R50" s="63">
+        <f t="shared" si="113"/>
+        <v>-99.104950851760421</v>
+      </c>
+      <c r="S50" s="63">
+        <f t="shared" si="113"/>
+        <v>-181.35181047814839</v>
+      </c>
+      <c r="T50" s="63">
+        <f t="shared" si="113"/>
+        <v>-317.42722935364407</v>
+      </c>
+      <c r="U50" s="63">
+        <f t="shared" si="113"/>
+        <v>-540.59725709419627</v>
+      </c>
+      <c r="V50" s="63">
+        <f t="shared" si="113"/>
+        <v>-904.68636197840954</v>
+      </c>
+      <c r="W50" s="63">
+        <f t="shared" si="113"/>
+        <v>-1496.7825336810672</v>
+      </c>
+      <c r="X50" s="63">
+        <f t="shared" si="113"/>
+        <v>-2457.7941394959662</v>
+      </c>
+      <c r="Y50" s="63"/>
+      <c r="Z50" s="63"/>
+      <c r="AA50" s="63"/>
+      <c r="AB50" s="63"/>
+      <c r="AC50" s="63"/>
+      <c r="AD50" s="63"/>
+      <c r="AE50" s="63"/>
+      <c r="AF50" s="63"/>
+      <c r="AG50" s="63"/>
+    </row>
+    <row r="51" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="65">
+        <f>SUM($H34:$H34)</f>
+        <v>0.01</v>
+      </c>
+      <c r="J51" s="65">
+        <f>SUM($H34:$H35)</f>
+        <v>2.6180000000000002E-2</v>
+      </c>
+      <c r="K51" s="65">
+        <f>SUM($H34:$H36)</f>
+        <v>5.2359240000000001E-2</v>
+      </c>
+      <c r="L51" s="65">
+        <f>SUM($H34:$H37)</f>
+        <v>9.4717250320000002E-2</v>
+      </c>
+      <c r="M51" s="65">
+        <f>SUM($H34:$H38)</f>
+        <v>0.16325251101776</v>
+      </c>
+      <c r="N51" s="65">
+        <f>SUM($H34:$H39)</f>
+        <v>0.27414256282673571</v>
+      </c>
+      <c r="O51" s="65">
+        <f>SUM($H34:$H40)</f>
+        <v>0.45356266665365841</v>
+      </c>
+      <c r="P51" s="65">
+        <f>SUM($H34:$H41)</f>
+        <v>0.74386439464561938</v>
+      </c>
+      <c r="Q51" s="65">
+        <f>SUM($H34:$H42)</f>
+        <v>1.2135725905366122</v>
+      </c>
+      <c r="R51" s="65">
+        <f>SUM($H34:$H43)</f>
+        <v>1.9735604514882388</v>
+      </c>
+      <c r="S51" s="65">
+        <f>SUM($H34:$H44)</f>
+        <v>3.2032208105079705</v>
+      </c>
+      <c r="T51" s="65">
+        <f>SUM($H34:$H45)</f>
+        <v>5.1928112714018964</v>
+      </c>
+      <c r="U51" s="65">
+        <f>SUM($H34:$H46)</f>
+        <v>8.4119686371282683</v>
+      </c>
+      <c r="V51" s="65">
+        <f>SUM($H34:$H47)</f>
+        <v>13.62056525487354</v>
+      </c>
+      <c r="W51" s="65">
+        <f>SUM($H34:$H48)</f>
+        <v>22.048074582385389</v>
+      </c>
+      <c r="X51" s="65">
+        <f>SUM($H34:$H49)</f>
+        <v>35.683784674299567</v>
+      </c>
+      <c r="Y51" s="65"/>
+      <c r="Z51" s="65"/>
+      <c r="AA51" s="65"/>
+      <c r="AB51" s="65"/>
+      <c r="AC51" s="65"/>
+      <c r="AD51" s="65"/>
+      <c r="AE51" s="65"/>
+      <c r="AF51" s="65"/>
+      <c r="AG51" s="65"/>
+    </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="C2:D10" name="DATA_2"/>
+    <protectedRange sqref="D2:D10" name="DATA_2"/>
   </protectedRanges>
-  <mergeCells count="26">
+  <mergeCells count="8">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="31" priority="30">
-      <formula>$I$10=$C$10</formula>
+  <conditionalFormatting sqref="I10 I33">
+    <cfRule type="expression" dxfId="15" priority="49">
+      <formula>$I$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="30" priority="31">
-      <formula>$J$10=$C$10</formula>
+  <conditionalFormatting sqref="J10 J33">
+    <cfRule type="expression" dxfId="14" priority="50">
+      <formula>$J$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="29" priority="32">
-      <formula>$K$10=$C$10</formula>
+  <conditionalFormatting sqref="K10 K33">
+    <cfRule type="expression" dxfId="13" priority="51">
+      <formula>$K$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="28" priority="29">
-      <formula>$L$10=$C$10</formula>
+  <conditionalFormatting sqref="L10 L33">
+    <cfRule type="expression" dxfId="12" priority="52">
+      <formula>$L$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="27" priority="28">
-      <formula>$M$10=$C$10</formula>
+  <conditionalFormatting sqref="M10 M33">
+    <cfRule type="expression" dxfId="11" priority="53">
+      <formula>$M$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="26" priority="27">
-      <formula>$N$10=$C$10</formula>
+  <conditionalFormatting sqref="N10 N33">
+    <cfRule type="expression" dxfId="10" priority="54">
+      <formula>$N$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="25" priority="26">
-      <formula>$O$10=$C$10</formula>
+  <conditionalFormatting sqref="O10 O33">
+    <cfRule type="expression" dxfId="9" priority="55">
+      <formula>$O$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P10">
-    <cfRule type="expression" dxfId="24" priority="25">
-      <formula>$P$10=$C$10</formula>
+  <conditionalFormatting sqref="P10 P33">
+    <cfRule type="expression" dxfId="8" priority="56">
+      <formula>$P$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q10">
-    <cfRule type="expression" dxfId="23" priority="24">
-      <formula>$Q$10=$C$10</formula>
+  <conditionalFormatting sqref="Q10 Q33">
+    <cfRule type="expression" dxfId="7" priority="57">
+      <formula>$Q$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R10">
-    <cfRule type="expression" dxfId="22" priority="23">
-      <formula>$R$10=$C$10</formula>
+  <conditionalFormatting sqref="R10 R33">
+    <cfRule type="expression" dxfId="6" priority="58">
+      <formula>$R$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S10">
-    <cfRule type="expression" dxfId="21" priority="22">
-      <formula>$S$10=$C$10</formula>
+  <conditionalFormatting sqref="S10 S33">
+    <cfRule type="expression" dxfId="5" priority="59">
+      <formula>$S$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T10">
-    <cfRule type="expression" dxfId="20" priority="21">
-      <formula>$T$10=$C$10</formula>
+  <conditionalFormatting sqref="T10 T33">
+    <cfRule type="expression" dxfId="4" priority="60">
+      <formula>$T$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U10">
-    <cfRule type="expression" dxfId="19" priority="20">
-      <formula>$U$10=$C$10</formula>
+  <conditionalFormatting sqref="U10 U33">
+    <cfRule type="expression" dxfId="3" priority="61">
+      <formula>$U$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V10">
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>$V$10=$C$10</formula>
+  <conditionalFormatting sqref="V10 V33">
+    <cfRule type="expression" dxfId="2" priority="62">
+      <formula>$V$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W10">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>$W$10=$C$10</formula>
+  <conditionalFormatting sqref="W10 W33">
+    <cfRule type="expression" dxfId="1" priority="63">
+      <formula>$W$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X10">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$X$10=$C$10</formula>
+  <conditionalFormatting sqref="X10:AG10 X33:AG33">
+    <cfRule type="expression" dxfId="0" priority="64">
+      <formula>$X$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4753,34 +5963,34 @@
   <sheetData>
     <row r="3" spans="2:47" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" t="s">
         <v>78</v>
       </c>
-      <c r="E3" t="s">
+      <c r="O3" t="s">
+        <v>83</v>
+      </c>
+      <c r="X3" t="s">
         <v>79</v>
       </c>
-      <c r="G3" t="s">
+      <c r="Y3" t="s">
         <v>84</v>
       </c>
-      <c r="M3" t="s">
+      <c r="AI3" t="s">
         <v>80</v>
       </c>
-      <c r="O3" t="s">
+      <c r="AJ3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT3" t="s">
         <v>85</v>
-      </c>
-      <c r="X3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>87</v>
       </c>
       <c r="AU3">
         <v>107.7</v>
@@ -4788,31 +5998,31 @@
     </row>
     <row r="56" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" t="s">
+        <v>87</v>
+      </c>
+      <c r="M56" t="s">
         <v>88</v>
       </c>
-      <c r="D56" t="s">
+      <c r="O56" t="s">
         <v>89</v>
       </c>
-      <c r="M56" t="s">
+      <c r="X56" t="s">
         <v>90</v>
       </c>
-      <c r="O56" t="s">
+      <c r="Z56" t="s">
         <v>91</v>
       </c>
-      <c r="X56" t="s">
+      <c r="AI56" t="s">
         <v>92</v>
       </c>
-      <c r="Z56" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI56" t="s">
-        <v>94</v>
-      </c>
       <c r="AJ56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AL56" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4843,11 +6053,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="14" t="s">
         <v>55</v>
       </c>
@@ -4862,11 +6072,11 @@
       </c>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="99"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="16" t="s">
         <v>15</v>
       </c>
@@ -4916,9 +6126,9 @@
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="19" t="s">
         <v>56</v>
       </c>
@@ -4982,11 +6192,11 @@
       </c>
     </row>
     <row r="4" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
@@ -6130,22 +7340,22 @@
         <f>SUM(F6:F20)</f>
         <v>36.629999999999995</v>
       </c>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="97"/>
-      <c r="S24" s="97"/>
-      <c r="T24" s="97"/>
-      <c r="U24" s="97"/>
-      <c r="V24" s="97"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="77"/>
     </row>
     <row r="25" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="26" t="s">

--- a/bsc_scan_binance/src/main/resources/MQL5/XXX.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\ScanBinance\bsc_scan_binance\src\main\resources\MQL5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiGek\bsc_scan_binance\src\main\resources\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB2614B-380A-4734-AC18-939D126F9488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5724" yWindow="0" windowWidth="32100" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5724" yWindow="0" windowWidth="32100" windowHeight="16680"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Input L30" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
     <sheet name="Tính TP thay đổi hệ số, quãng" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="98">
   <si>
     <t>THÔNG TIN ĐẦU VÀO</t>
   </si>
@@ -296,7 +295,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -374,7 +373,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -387,74 +386,53 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>TP L17</t>
-  </si>
-  <si>
-    <t>TP L18</t>
-  </si>
-  <si>
-    <t>TP L19</t>
-  </si>
-  <si>
-    <t>TP L20</t>
-  </si>
-  <si>
-    <t>TP L21</t>
-  </si>
-  <si>
-    <t>TP L22</t>
-  </si>
-  <si>
-    <t>TP L23</t>
-  </si>
-  <si>
-    <t>TP L24</t>
-  </si>
-  <si>
-    <t>TP L25</t>
-  </si>
-  <si>
     <t>Khối lượng ban đầu</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Số Lệnh đánh</t>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Di chuyển:</t>
+  </si>
+  <si>
+    <t>amp tp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="0;\-0;;\ @"/>
-    <numFmt numFmtId="181" formatCode="0.00;\-0.00;;\ @"/>
-    <numFmt numFmtId="182" formatCode="#,##0.000"/>
-    <numFmt numFmtId="183" formatCode="#,##0.0"/>
-    <numFmt numFmtId="184" formatCode="#,##0.000_);\(#,##0.000\)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0;\-0;;\ @"/>
+    <numFmt numFmtId="167" formatCode="0.00;\-0.00;;\ @"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="170" formatCode="#,##0.000_);\(#,##0.000\)"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -468,33 +446,33 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1214,27 +1192,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="180" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1265,7 +1243,7 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1326,22 +1304,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="180" fontId="13" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1395,6 +1373,39 @@
     <xf numFmtId="4" fontId="20" fillId="20" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="19" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="19" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="19" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="24" fillId="8" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1407,18 +1418,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1434,36 +1433,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="19" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="19" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="15" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="19" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Input" xfId="6" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -1617,7 +1604,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47CF6802-8B75-4C3A-97DA-4FFCA1A83584}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47CF6802-8B75-4C3A-97DA-4FFCA1A83584}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,7 +1648,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5154B7A5-EEE1-644E-197F-39A4D4DD73BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5154B7A5-EEE1-644E-197F-39A4D4DD73BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1705,7 +1692,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D13D575-0115-847D-E921-EFB3242E5AC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D13D575-0115-847D-E921-EFB3242E5AC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1749,7 +1736,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC598B6-6101-55B8-949C-603D39221B00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AFC598B6-6101-55B8-949C-603D39221B00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1780,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD6BDF8-AF47-0390-6FE5-953A4275A1BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1CD6BDF8-AF47-0390-6FE5-953A4275A1BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1837,7 +1824,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42ABD512-DBBD-4DFF-9802-14ED3390AB77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42ABD512-DBBD-4DFF-9802-14ED3390AB77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1881,7 +1868,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84A2230F-6A69-191E-FCE4-1918CFE18AC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84A2230F-6A69-191E-FCE4-1918CFE18AC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1925,7 +1912,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51E0037A-6D83-E4BA-7B8B-F3E530FAA0A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51E0037A-6D83-E4BA-7B8B-F3E530FAA0A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1969,7 +1956,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECEB2F2B-BAC2-4F16-811A-10DEB820FF12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ECEB2F2B-BAC2-4F16-811A-10DEB820FF12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2013,7 +2000,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4200C937-2E7B-80D6-684C-6D69602E1866}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4200C937-2E7B-80D6-684C-6D69602E1866}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2031,6 +2018,196 @@
         <a:xfrm>
           <a:off x="22610618" y="13425055"/>
           <a:ext cx="6980952" cy="11590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>465828</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>50002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="29177673"/>
+          <a:ext cx="7171428" cy="8695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>475276</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>165131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="29177673"/>
+          <a:ext cx="7790476" cy="8990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>513371</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>31798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15849600" y="29177673"/>
+          <a:ext cx="7828571" cy="8857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>532419</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>88941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23774400" y="29177673"/>
+          <a:ext cx="7847619" cy="8914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>503848</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>80260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31699200" y="29177673"/>
+          <a:ext cx="7819048" cy="9085714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2304,56 +2481,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.69921875" style="12" customWidth="1"/>
-    <col min="3" max="4" width="14.69921875" style="11" customWidth="1"/>
-    <col min="5" max="6" width="9.09765625" style="5"/>
+    <col min="1" max="1" width="14.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="12" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" style="11" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="5"/>
     <col min="7" max="7" width="19" style="5" customWidth="1"/>
-    <col min="8" max="33" width="10.59765625" style="5" customWidth="1"/>
-    <col min="34" max="16384" width="9.09765625" style="5"/>
+    <col min="8" max="24" width="10.5546875" style="5" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-    </row>
-    <row r="2" spans="1:33" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="88" t="s">
+    <row r="1" spans="1:24" ht="16.8">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+    </row>
+    <row r="2" spans="1:24" ht="25.2">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="83">
+      <c r="B2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="70">
         <v>3</v>
       </c>
       <c r="H2" s="66"/>
       <c r="I2" s="66"/>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72" t="s">
+      <c r="K2" s="85"/>
+      <c r="L2" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72" t="s">
+      <c r="M2" s="85"/>
+      <c r="N2" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
       <c r="Q2" s="66"/>
       <c r="R2" s="66"/>
       <c r="S2" s="66"/>
@@ -2362,45 +2539,36 @@
       <c r="V2" s="66"/>
       <c r="W2" s="66"/>
       <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-    </row>
-    <row r="3" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="88" t="s">
+    </row>
+    <row r="3" spans="1:24" ht="16.8">
+      <c r="A3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="84">
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="71">
         <f>D2</f>
         <v>3</v>
       </c>
       <c r="G3" s="51"/>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
-      <c r="J3" s="69">
-        <f>SUM('Bảng Input L30'!B13:B43)</f>
-        <v>640.51297768286497</v>
-      </c>
-      <c r="K3" s="69"/>
-      <c r="L3" s="70">
+      <c r="J3" s="82">
+        <f>SUM('Bảng Input L30'!B13:B44)</f>
+        <v>1.9735604514882388</v>
+      </c>
+      <c r="K3" s="82"/>
+      <c r="L3" s="83">
         <f>J3*91</f>
-        <v>58286.680969140711</v>
-      </c>
-      <c r="M3" s="70"/>
-      <c r="N3" s="71">
-        <f>L3+'Bảng Input L30'!C44</f>
-        <v>561261.6839788137</v>
-      </c>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
+        <v>179.59400108542974</v>
+      </c>
+      <c r="M3" s="83"/>
+      <c r="N3" s="84">
+        <f>L3+'Bảng Input L30'!C45</f>
+        <v>1089.0893658855455</v>
+      </c>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
       <c r="S3" s="43"/>
@@ -2409,30 +2577,21 @@
       <c r="V3" s="43"/>
       <c r="W3" s="43"/>
       <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-    </row>
-    <row r="4" spans="1:33" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="s">
+    </row>
+    <row r="4" spans="1:24" ht="18.600000000000001">
+      <c r="A4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="84">
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="71">
         <f>D3</f>
         <v>3</v>
       </c>
       <c r="G4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="82">
+      <c r="H4" s="69">
         <f>D9</f>
         <v>1.6180000000000001</v>
       </c>
@@ -2454,23 +2613,14 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-    </row>
-    <row r="5" spans="1:33" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A5" s="88" t="s">
+    </row>
+    <row r="5" spans="1:24" ht="18.600000000000001">
+      <c r="A5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="84">
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="71">
         <f>D4</f>
         <v>3</v>
       </c>
@@ -2498,23 +2648,14 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-    </row>
-    <row r="6" spans="1:33" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="88" t="s">
+    </row>
+    <row r="6" spans="1:24" ht="21" thickBot="1">
+      <c r="A6" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="84">
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="71">
         <f>D5</f>
         <v>3</v>
       </c>
@@ -2528,13 +2669,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="88" t="s">
+    <row r="7" spans="1:24" ht="16.8">
+      <c r="A7" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="84">
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="71">
         <f>D6</f>
         <v>3</v>
       </c>
@@ -2603,50 +2744,14 @@
         <f t="shared" si="0"/>
         <v>2155</v>
       </c>
-      <c r="Y7" s="64">
-        <f t="shared" ref="Y7" si="1">X7-$H$5</f>
-        <v>2152</v>
-      </c>
-      <c r="Z7" s="64">
-        <f t="shared" ref="Z7" si="2">Y7-$H$5</f>
-        <v>2149</v>
-      </c>
-      <c r="AA7" s="64">
-        <f t="shared" ref="AA7" si="3">Z7-$H$5</f>
-        <v>2146</v>
-      </c>
-      <c r="AB7" s="64">
-        <f t="shared" ref="AB7" si="4">AA7-$H$5</f>
-        <v>2143</v>
-      </c>
-      <c r="AC7" s="64">
-        <f t="shared" ref="AC7" si="5">AB7-$H$5</f>
-        <v>2140</v>
-      </c>
-      <c r="AD7" s="64">
-        <f t="shared" ref="AD7" si="6">AC7-$H$5</f>
-        <v>2137</v>
-      </c>
-      <c r="AE7" s="64">
-        <f t="shared" ref="AE7" si="7">AD7-$H$5</f>
-        <v>2134</v>
-      </c>
-      <c r="AF7" s="64">
-        <f t="shared" ref="AF7" si="8">AE7-$H$5</f>
-        <v>2131</v>
-      </c>
-      <c r="AG7" s="64">
-        <f t="shared" ref="AG7" si="9">AF7-$H$5</f>
-        <v>2128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="88" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="85">
+    </row>
+    <row r="8" spans="1:24" ht="16.8">
+      <c r="A8" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="72">
         <v>0.01</v>
       </c>
       <c r="G8" s="1"/>
@@ -2655,109 +2760,73 @@
         <v>0</v>
       </c>
       <c r="J8" s="64">
-        <f t="shared" ref="J8:X8" si="10">$I$7-J7</f>
+        <f t="shared" ref="J8:X8" si="1">$I$7-J7</f>
         <v>3</v>
       </c>
       <c r="K8" s="64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L8" s="64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M8" s="64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="N8" s="64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O8" s="64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="P8" s="64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="Q8" s="64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="R8" s="64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="S8" s="64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="T8" s="64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="U8" s="64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="V8" s="64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="W8" s="64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="X8" s="64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="Y8" s="64">
-        <f t="shared" ref="Y8:AG8" si="11">$I$7-Y7</f>
-        <v>48</v>
-      </c>
-      <c r="Z8" s="64">
-        <f t="shared" si="11"/>
-        <v>51</v>
-      </c>
-      <c r="AA8" s="64">
-        <f t="shared" si="11"/>
-        <v>54</v>
-      </c>
-      <c r="AB8" s="64">
-        <f t="shared" si="11"/>
-        <v>57</v>
-      </c>
-      <c r="AC8" s="64">
-        <f t="shared" si="11"/>
-        <v>60</v>
-      </c>
-      <c r="AD8" s="64">
-        <f t="shared" si="11"/>
-        <v>63</v>
-      </c>
-      <c r="AE8" s="64">
-        <f t="shared" si="11"/>
-        <v>66</v>
-      </c>
-      <c r="AF8" s="64">
-        <f t="shared" si="11"/>
-        <v>69</v>
-      </c>
-      <c r="AG8" s="64">
-        <f t="shared" si="11"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="88" t="s">
+    </row>
+    <row r="9" spans="1:24" ht="16.8">
+      <c r="A9" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="86">
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="73">
         <v>1.6180000000000001</v>
       </c>
       <c r="G9" s="55" t="s">
@@ -2814,42 +2883,15 @@
       <c r="X9" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="Y9" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z9" s="55" t="s">
+    </row>
+    <row r="10" spans="1:24" ht="16.8">
+      <c r="A10" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="AA9" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB9" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC9" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD9" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE9" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF9" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG9" s="55" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="87">
-        <v>22</v>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="74">
+        <v>10</v>
       </c>
       <c r="G10" s="59" t="s">
         <v>73</v>
@@ -2905,35 +2947,8 @@
       <c r="X10" s="55">
         <v>16</v>
       </c>
-      <c r="Y10" s="55">
-        <v>17</v>
-      </c>
-      <c r="Z10" s="55">
-        <v>18</v>
-      </c>
-      <c r="AA10" s="55">
-        <v>19</v>
-      </c>
-      <c r="AB10" s="55">
-        <v>20</v>
-      </c>
-      <c r="AC10" s="55">
-        <v>21</v>
-      </c>
-      <c r="AD10" s="55">
-        <v>22</v>
-      </c>
-      <c r="AE10" s="55">
-        <v>23</v>
-      </c>
-      <c r="AF10" s="55">
-        <v>24</v>
-      </c>
-      <c r="AG10" s="55">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:24" ht="17.399999999999999" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -2954,11 +2969,11 @@
         <v>6</v>
       </c>
       <c r="K11" s="57">
-        <f t="shared" ref="K11:X11" si="12">$H$11*100*($H$6-$H$5*J10)</f>
+        <f t="shared" ref="K11:X11" si="2">$H$11*100*($H$6-$H$5*J10)</f>
         <v>3</v>
       </c>
       <c r="L11" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M11" s="57">
@@ -2966,60 +2981,51 @@
         <v>-3</v>
       </c>
       <c r="N11" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-6</v>
       </c>
       <c r="O11" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-9</v>
       </c>
       <c r="P11" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-12</v>
       </c>
       <c r="Q11" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-15</v>
       </c>
       <c r="R11" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-18</v>
       </c>
       <c r="S11" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-21</v>
       </c>
       <c r="T11" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-24</v>
       </c>
       <c r="U11" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-27</v>
       </c>
       <c r="V11" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-30</v>
       </c>
       <c r="W11" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-33</v>
       </c>
       <c r="X11" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-36</v>
       </c>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="57"/>
-    </row>
-    <row r="12" spans="1:33" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A12" s="44" t="s">
         <v>8</v>
       </c>
@@ -3036,7 +3042,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="56">
-        <f t="shared" ref="H12:H26" si="13">H11*$H$4</f>
+        <f t="shared" ref="H12:H26" si="3">H11*$H$4</f>
         <v>1.618E-2</v>
       </c>
       <c r="I12" s="3"/>
@@ -3049,68 +3055,59 @@
         <v>9.7079999999999984</v>
       </c>
       <c r="L12" s="57">
-        <f t="shared" ref="L12:X12" si="14">$H$12*100*($H$6-$H$5*J10)</f>
+        <f t="shared" ref="L12:X12" si="4">$H$12*100*($H$6-$H$5*J10)</f>
         <v>4.8539999999999992</v>
       </c>
       <c r="M12" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N12" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>-4.8539999999999992</v>
       </c>
       <c r="O12" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>-9.7079999999999984</v>
       </c>
       <c r="P12" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>-14.561999999999999</v>
       </c>
       <c r="Q12" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>-19.415999999999997</v>
       </c>
       <c r="R12" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>-24.27</v>
       </c>
       <c r="S12" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>-29.123999999999999</v>
       </c>
       <c r="T12" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>-33.977999999999994</v>
       </c>
       <c r="U12" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>-38.831999999999994</v>
       </c>
       <c r="V12" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>-43.686</v>
       </c>
       <c r="W12" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>-48.54</v>
       </c>
       <c r="X12" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>-53.393999999999998</v>
       </c>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="57"/>
-      <c r="AG12" s="57"/>
-    </row>
-    <row r="13" spans="1:33" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:24" ht="17.399999999999999" thickTop="1">
       <c r="A13" s="47" t="str">
         <f>IF($D$10&gt;0,"L1",0)</f>
         <v>L1</v>
@@ -3121,17 +3118,17 @@
       </c>
       <c r="C13" s="9">
         <f>+B13*D13*100</f>
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D13" s="9">
         <f>IF(A13=0,0,$D$2+$D$3+$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="G13" s="60">
         <v>3</v>
       </c>
       <c r="H13" s="56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>2.6179240000000003E-2</v>
       </c>
       <c r="I13" s="3"/>
@@ -3145,85 +3142,76 @@
         <v>15.707544000000002</v>
       </c>
       <c r="M13" s="57">
-        <f t="shared" ref="M13:X13" si="15">$H$13*100*($H$6-$H$5*J10)</f>
+        <f t="shared" ref="M13:X13" si="5">$H$13*100*($H$6-$H$5*J10)</f>
         <v>7.8537720000000011</v>
       </c>
       <c r="N13" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O13" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>-7.8537720000000011</v>
       </c>
       <c r="P13" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>-15.707544000000002</v>
       </c>
       <c r="Q13" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>-23.561316000000005</v>
       </c>
       <c r="R13" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>-31.415088000000004</v>
       </c>
       <c r="S13" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>-39.268860000000004</v>
       </c>
       <c r="T13" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>-47.12263200000001</v>
       </c>
       <c r="U13" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>-54.976404000000009</v>
       </c>
       <c r="V13" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>-62.830176000000009</v>
       </c>
       <c r="W13" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>-70.683948000000015</v>
       </c>
       <c r="X13" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>-78.537720000000007</v>
       </c>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="57"/>
-      <c r="AG13" s="57"/>
-    </row>
-    <row r="14" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:24" ht="16.8">
       <c r="A14" s="47" t="str">
-        <f>IF(A13=0,0,IF(VALUE(MID(A13,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A13,2,2))+1))</f>
+        <f t="shared" ref="A14:A44" si="6">IF(A13=0,0,IF(VALUE(MID(A13,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A13,2,2))+1))</f>
         <v>L2</v>
       </c>
       <c r="B14" s="10">
-        <f>IF(A14&lt;&gt;0,B13*$D$9,0)</f>
+        <f t="shared" ref="B14:B44" si="7">IF(A14&lt;&gt;0,B13*$D$9,0)</f>
         <v>1.618E-2</v>
       </c>
       <c r="C14" s="9">
-        <f t="shared" ref="C14:C43" si="16">+B14*D14*100</f>
-        <v>97.08</v>
+        <f t="shared" ref="C14:C44" si="8">+B14*D14*100</f>
+        <v>38.832000000000001</v>
       </c>
       <c r="D14" s="9">
         <f>IF(A14=0,0,$D$3+$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G14" s="60">
         <v>4</v>
       </c>
       <c r="H14" s="56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>4.2358010320000007E-2</v>
       </c>
       <c r="I14" s="3"/>
@@ -3238,81 +3226,72 @@
         <v>25.414806192</v>
       </c>
       <c r="N14" s="57">
-        <f t="shared" ref="N14:X14" si="17">$H$14*100*($H$6-$H$5*J10)</f>
+        <f t="shared" ref="N14:X14" si="9">$H$14*100*($H$6-$H$5*J10)</f>
         <v>12.707403096</v>
       </c>
       <c r="O14" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P14" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>-12.707403096</v>
       </c>
       <c r="Q14" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>-25.414806192</v>
       </c>
       <c r="R14" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>-38.122209288000001</v>
       </c>
       <c r="S14" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>-50.829612384000001</v>
       </c>
       <c r="T14" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>-63.537015480000008</v>
       </c>
       <c r="U14" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>-76.244418576000001</v>
       </c>
       <c r="V14" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>-88.951821672000008</v>
       </c>
       <c r="W14" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>-101.659224768</v>
       </c>
       <c r="X14" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>-114.36662786400001</v>
       </c>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="57"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="57"/>
-      <c r="AG14" s="57"/>
-    </row>
-    <row r="15" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:24" ht="16.8">
       <c r="A15" s="47" t="str">
-        <f>IF(A14=0,0,IF(VALUE(MID(A14,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A14,2,2))+1))</f>
+        <f t="shared" si="6"/>
         <v>L3</v>
       </c>
       <c r="B15" s="10">
-        <f>IF(A15&lt;&gt;0,B14*$D$9,0)</f>
+        <f t="shared" si="7"/>
         <v>2.6179240000000003E-2</v>
       </c>
       <c r="C15" s="9">
-        <f t="shared" si="16"/>
-        <v>149.22166799999999</v>
+        <f t="shared" si="8"/>
+        <v>54.976404000000002</v>
       </c>
       <c r="D15" s="9">
         <f>IF(A15=0,0,$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G15" s="60">
         <v>5</v>
       </c>
       <c r="H15" s="56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>6.8535260697760017E-2</v>
       </c>
       <c r="I15" s="4"/>
@@ -3328,77 +3307,68 @@
         <v>41.121156418656007</v>
       </c>
       <c r="O15" s="57">
-        <f t="shared" ref="O15:X15" si="18">$H$15*100*($H$6-$H$5*J10)</f>
+        <f t="shared" ref="O15:X15" si="10">$H$15*100*($H$6-$H$5*J10)</f>
         <v>20.560578209328003</v>
       </c>
       <c r="P15" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q15" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>-20.560578209328003</v>
       </c>
       <c r="R15" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>-41.121156418656007</v>
       </c>
       <c r="S15" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>-61.681734627984014</v>
       </c>
       <c r="T15" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>-82.242312837312014</v>
       </c>
       <c r="U15" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>-102.80289104664003</v>
       </c>
       <c r="V15" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>-123.36346925596803</v>
       </c>
       <c r="W15" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>-143.92404746529604</v>
       </c>
       <c r="X15" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>-164.48462567462403</v>
       </c>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="57"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="57"/>
-      <c r="AG15" s="57"/>
-    </row>
-    <row r="16" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:24" ht="16.8">
       <c r="A16" s="47" t="str">
-        <f>IF(A15=0,0,IF(VALUE(MID(A15,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A15,2,2))+1))</f>
+        <f t="shared" si="6"/>
         <v>L4</v>
       </c>
       <c r="B16" s="10">
-        <f>IF(A16&lt;&gt;0,B15*$D$9,0)</f>
+        <f t="shared" si="7"/>
         <v>4.2358010320000007E-2</v>
       </c>
       <c r="C16" s="9">
-        <f t="shared" si="16"/>
-        <v>228.73325572800005</v>
+        <f t="shared" si="8"/>
+        <v>76.244418576000015</v>
       </c>
       <c r="D16" s="9">
         <f>IF(A16=0,0,$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G16" s="60">
         <v>6</v>
       </c>
       <c r="H16" s="56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>0.11089005180897571</v>
       </c>
       <c r="I16" s="3"/>
@@ -3415,73 +3385,64 @@
         <v>66.534031085385422</v>
       </c>
       <c r="P16" s="57">
-        <f t="shared" ref="P16:X16" si="19">$H$16*100*($H$6-$H$5*J10)</f>
+        <f t="shared" ref="P16:X16" si="11">$H$16*100*($H$6-$H$5*J10)</f>
         <v>33.267015542692711</v>
       </c>
       <c r="Q16" s="57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R16" s="57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>-33.267015542692711</v>
       </c>
       <c r="S16" s="57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>-66.534031085385422</v>
       </c>
       <c r="T16" s="57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>-99.80104662807814</v>
       </c>
       <c r="U16" s="57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>-133.06806217077084</v>
       </c>
       <c r="V16" s="57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>-166.33507771346356</v>
       </c>
       <c r="W16" s="57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>-199.60209325615628</v>
       </c>
       <c r="X16" s="57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>-232.869108798849</v>
       </c>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
-    </row>
-    <row r="17" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:24" ht="16.8">
       <c r="A17" s="47" t="str">
-        <f>IF(A16=0,0,IF(VALUE(MID(A16,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A16,2,2))+1))</f>
+        <f t="shared" si="6"/>
         <v>L5</v>
       </c>
       <c r="B17" s="10">
-        <f>IF(A17&lt;&gt;0,B16*$D$9,0)</f>
+        <f t="shared" si="7"/>
         <v>6.8535260697760017E-2</v>
       </c>
       <c r="C17" s="9">
-        <f t="shared" si="16"/>
-        <v>349.52982955857607</v>
+        <f t="shared" si="8"/>
+        <v>102.80289104664003</v>
       </c>
       <c r="D17" s="9">
         <f>IF(A17=0,0,$D$6+($D$7*($D$10-6)))</f>
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="G17" s="60">
         <v>7</v>
       </c>
       <c r="H17" s="56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>0.17942010382692272</v>
       </c>
       <c r="I17" s="3"/>
@@ -3499,69 +3460,60 @@
         <v>107.65206229615362</v>
       </c>
       <c r="Q17" s="57">
-        <f t="shared" ref="Q17:X17" si="20">$H$17*100*($H$6-$H$5*J10)</f>
+        <f t="shared" ref="Q17:X17" si="12">$H$17*100*($H$6-$H$5*J10)</f>
         <v>53.826031148076808</v>
       </c>
       <c r="R17" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S17" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>-53.826031148076808</v>
       </c>
       <c r="T17" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>-107.65206229615362</v>
       </c>
       <c r="U17" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>-161.47809344423044</v>
       </c>
       <c r="V17" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>-215.30412459230723</v>
       </c>
       <c r="W17" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>-269.13015574038405</v>
       </c>
       <c r="X17" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>-322.95618688846088</v>
       </c>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="57"/>
-      <c r="AC17" s="57"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="57"/>
-    </row>
-    <row r="18" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:24" ht="16.8">
       <c r="A18" s="47" t="str">
-        <f>IF(A17=0,0,IF(VALUE(MID(A17,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A17,2,2))+1))</f>
+        <f t="shared" si="6"/>
         <v>L6</v>
       </c>
       <c r="B18" s="10">
-        <f>IF(A18&lt;&gt;0,B17*$D$9,0)</f>
+        <f t="shared" si="7"/>
         <v>0.11089005180897571</v>
       </c>
       <c r="C18" s="9">
-        <f t="shared" si="16"/>
-        <v>532.27224868308338</v>
+        <f t="shared" si="8"/>
+        <v>133.06806217077084</v>
       </c>
       <c r="D18" s="9">
         <f>IF(A18=0,0,($D$7*($D$10-6)))</f>
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G18" s="60">
         <v>8</v>
       </c>
       <c r="H18" s="56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>0.29030172799196097</v>
       </c>
       <c r="I18" s="3"/>
@@ -3580,65 +3532,56 @@
         <v>174.1810367951766</v>
       </c>
       <c r="R18" s="57">
-        <f t="shared" ref="R18:X18" si="21">$H$18*100*($H$6-$H$5*J10)</f>
+        <f t="shared" ref="R18:X18" si="13">$H$18*100*($H$6-$H$5*J10)</f>
         <v>87.090518397588298</v>
       </c>
       <c r="S18" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T18" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>-87.090518397588298</v>
       </c>
       <c r="U18" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>-174.1810367951766</v>
       </c>
       <c r="V18" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>-261.27155519276488</v>
       </c>
       <c r="W18" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>-348.36207359035319</v>
       </c>
       <c r="X18" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>-435.45259198794145</v>
       </c>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="57"/>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="57"/>
-      <c r="AG18" s="57"/>
-    </row>
-    <row r="19" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:24" ht="16.8">
       <c r="A19" s="47" t="str">
-        <f>IF(A18=0,0,IF(VALUE(MID(A18,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A18,2,2))+1))</f>
+        <f t="shared" si="6"/>
         <v>L7</v>
       </c>
       <c r="B19" s="10">
-        <f>IF(A19&lt;&gt;0,B18*$D$9,0)</f>
+        <f t="shared" si="7"/>
         <v>0.17942010382692272</v>
       </c>
       <c r="C19" s="9">
-        <f t="shared" si="16"/>
-        <v>807.39046722115222</v>
+        <f t="shared" si="8"/>
+        <v>161.47809344423047</v>
       </c>
       <c r="D19" s="9">
         <f>IF(A19=0,0,($D$7*($D$10-7)))</f>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="G19" s="60">
         <v>9</v>
       </c>
       <c r="H19" s="56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>0.46970819589099289</v>
       </c>
       <c r="I19" s="3"/>
@@ -3658,61 +3601,52 @@
         <v>281.82491753459573</v>
       </c>
       <c r="S19" s="57">
-        <f t="shared" ref="S19:X19" si="22">$H$19*100*($H$6-$H$5*J10)</f>
+        <f t="shared" ref="S19:X19" si="14">$H$19*100*($H$6-$H$5*J10)</f>
         <v>140.91245876729786</v>
       </c>
       <c r="T19" s="57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U19" s="57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>-140.91245876729786</v>
       </c>
       <c r="V19" s="57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>-281.82491753459573</v>
       </c>
       <c r="W19" s="57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>-422.73737630189356</v>
       </c>
       <c r="X19" s="57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>-563.64983506919145</v>
       </c>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="57"/>
-      <c r="AC19" s="57"/>
-      <c r="AD19" s="57"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="57"/>
-      <c r="AG19" s="57"/>
-    </row>
-    <row r="20" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:24" ht="16.8">
       <c r="A20" s="47" t="str">
-        <f>IF(A19=0,0,IF(VALUE(MID(A19,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A19,2,2))+1))</f>
+        <f t="shared" si="6"/>
         <v>L8</v>
       </c>
       <c r="B20" s="10">
-        <f>IF(A20&lt;&gt;0,B19*$D$9,0)</f>
+        <f t="shared" si="7"/>
         <v>0.29030172799196097</v>
       </c>
       <c r="C20" s="9">
-        <f t="shared" si="16"/>
-        <v>1219.2672575662361</v>
+        <f t="shared" si="8"/>
+        <v>174.18103679517657</v>
       </c>
       <c r="D20" s="9">
         <f>IF(A20=0,0,($D$7*($D$10-8)))</f>
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="G20" s="60">
         <v>10</v>
       </c>
       <c r="H20" s="56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>0.75998786095162651</v>
       </c>
       <c r="I20" s="3"/>
@@ -3752,38 +3686,29 @@
         <f>$H$20*100*($H$6-$H$5*N10)</f>
         <v>-683.98907485646396</v>
       </c>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="57"/>
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="57"/>
-      <c r="AG20" s="57"/>
-    </row>
-    <row r="21" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:24" ht="16.8">
       <c r="A21" s="47" t="str">
-        <f>IF(A20=0,0,IF(VALUE(MID(A20,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A20,2,2))+1))</f>
+        <f t="shared" si="6"/>
         <v>L9</v>
       </c>
       <c r="B21" s="10">
-        <f>IF(A21&lt;&gt;0,B20*$D$9,0)</f>
+        <f t="shared" si="7"/>
         <v>0.46970819589099289</v>
       </c>
       <c r="C21" s="9">
-        <f t="shared" si="16"/>
-        <v>1831.8619639748722</v>
+        <f t="shared" si="8"/>
+        <v>140.91245876729786</v>
       </c>
       <c r="D21" s="9">
         <f>IF(A21=0,0,($D$7*($D$10-9)))</f>
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="G21" s="60">
         <v>11</v>
       </c>
       <c r="H21" s="56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>1.2296603590197317</v>
       </c>
       <c r="I21" s="3"/>
@@ -3820,38 +3745,29 @@
         <f>$H$21*100*($H$6-$H$5*M10)</f>
         <v>-737.79621541183906</v>
       </c>
-      <c r="Y21" s="58"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="58"/>
-      <c r="AF21" s="58"/>
-      <c r="AG21" s="58"/>
-    </row>
-    <row r="22" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:24" ht="16.8">
       <c r="A22" s="47" t="str">
-        <f>IF(A21=0,0,IF(VALUE(MID(A21,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A21,2,2))+1))</f>
+        <f t="shared" si="6"/>
         <v>L10</v>
       </c>
       <c r="B22" s="10">
-        <f>IF(A22&lt;&gt;0,B21*$D$9,0)</f>
+        <f t="shared" si="7"/>
         <v>0.75998786095162651</v>
       </c>
       <c r="C22" s="9">
-        <f t="shared" si="16"/>
-        <v>2735.9562994258554</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D22" s="9">
         <f>IF(A22=0,0,($D$7*($D$10-10)))</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G22" s="60">
         <v>12</v>
       </c>
       <c r="H22" s="56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>1.9895904608939261</v>
       </c>
       <c r="I22" s="3"/>
@@ -3885,38 +3801,29 @@
         <f>$H$22*100*($H$6-$H$5*L10)</f>
         <v>-596.87713826817787</v>
       </c>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="58"/>
-      <c r="AE22" s="58"/>
-      <c r="AF22" s="58"/>
-      <c r="AG22" s="58"/>
-    </row>
-    <row r="23" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="str">
-        <f>IF(A22=0,0,IF(VALUE(MID(A22,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A22,2,2))+1))</f>
-        <v>L11</v>
+    </row>
+    <row r="23" spans="1:24" ht="16.8">
+      <c r="A23" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="B23" s="10">
-        <f>IF(A23&lt;&gt;0,B22*$D$9,0)</f>
-        <v>1.2296603590197317</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="C23" s="9">
-        <f t="shared" si="16"/>
-        <v>4057.8791847651146</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D23" s="9">
         <f>IF(A23=0,0,($D$7*($D$10-11)))</f>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G23" s="60">
         <v>13</v>
       </c>
       <c r="H23" s="56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>3.2191573657263728</v>
       </c>
       <c r="I23" s="3"/>
@@ -3947,38 +3854,29 @@
         <f>$H$23*100*($H$6-$H$5*K10)</f>
         <v>0</v>
       </c>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="58"/>
-      <c r="AF23" s="58"/>
-      <c r="AG23" s="58"/>
-    </row>
-    <row r="24" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="str">
-        <f>IF(A23=0,0,IF(VALUE(MID(A23,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A23,2,2))+1))</f>
-        <v>L12</v>
+    </row>
+    <row r="24" spans="1:24" ht="16.8">
+      <c r="A24" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="B24" s="10">
-        <f>IF(A24&lt;&gt;0,B23*$D$9,0)</f>
-        <v>1.9895904608939261</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="C24" s="9">
-        <f t="shared" si="16"/>
-        <v>5968.7713826817781</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D24" s="9">
         <f>IF(A24=0,0,($D$7*($D$10-12)))</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G24" s="60">
         <v>14</v>
       </c>
       <c r="H24" s="56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>5.2085966177452718</v>
       </c>
       <c r="I24" s="3"/>
@@ -4006,38 +3904,29 @@
         <f>$H$24*100*($H$6-$H$5*J10)</f>
         <v>1562.5789853235817</v>
       </c>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="58"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="58"/>
-      <c r="AD24" s="58"/>
-      <c r="AE24" s="58"/>
-      <c r="AF24" s="58"/>
-      <c r="AG24" s="58"/>
-    </row>
-    <row r="25" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="47" t="str">
-        <f>IF(A24=0,0,IF(VALUE(MID(A24,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A24,2,2))+1))</f>
-        <v>L13</v>
+    </row>
+    <row r="25" spans="1:24" ht="16.8">
+      <c r="A25" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="B25" s="10">
-        <f>IF(A25&lt;&gt;0,B24*$D$9,0)</f>
-        <v>3.2191573657263728</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="C25" s="9">
-        <f t="shared" si="16"/>
-        <v>8691.7248874612069</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D25" s="9">
         <f>IF(A25=0,0,($D$7*($D$10-13)))</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G25" s="60">
         <v>15</v>
       </c>
       <c r="H25" s="56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>8.4275093275118511</v>
       </c>
       <c r="I25" s="3"/>
@@ -4062,38 +3951,29 @@
         <f>H24*100*(H6-H5)</f>
         <v>3125.1579706471634</v>
       </c>
-      <c r="Y25" s="58"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="58"/>
-      <c r="AF25" s="58"/>
-      <c r="AG25" s="58"/>
-    </row>
-    <row r="26" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="47" t="str">
-        <f>IF(A25=0,0,IF(VALUE(MID(A25,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A25,2,2))+1))</f>
-        <v>L14</v>
+    </row>
+    <row r="26" spans="1:24" ht="16.8">
+      <c r="A26" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="B26" s="10">
-        <f>IF(A26&lt;&gt;0,B25*$D$9,0)</f>
-        <v>5.2085966177452718</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="C26" s="9">
-        <f t="shared" si="16"/>
-        <v>12500.631882588652</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D26" s="9">
         <f>IF(A26=0,0,($D$7*($D$10-14)))</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G26" s="60">
         <v>16</v>
       </c>
       <c r="H26" s="56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>13.635710091914175</v>
       </c>
       <c r="I26" s="3"/>
@@ -4115,32 +3995,23 @@
         <f>H26*H6*100</f>
         <v>12272.139082722759</v>
       </c>
-      <c r="Y26" s="58"/>
-      <c r="Z26" s="58"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="58"/>
-      <c r="AD26" s="58"/>
-      <c r="AE26" s="58"/>
-      <c r="AF26" s="58"/>
-      <c r="AG26" s="58"/>
-    </row>
-    <row r="27" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="47" t="str">
-        <f>IF(A26=0,0,IF(VALUE(MID(A26,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A26,2,2))+1))</f>
-        <v>L15</v>
+    </row>
+    <row r="27" spans="1:24" ht="16.8">
+      <c r="A27" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="B27" s="10">
-        <f>IF(A27&lt;&gt;0,B26*$D$9,0)</f>
-        <v>8.4275093275118511</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="C27" s="9">
-        <f t="shared" si="16"/>
-        <v>17697.769587774888</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D27" s="9">
         <f>IF(A27=0,0,($D$7*($D$10-15)))</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G27" s="62" t="s">
         <v>51</v>
@@ -4150,95 +4021,86 @@
         <v>35.683784674299567</v>
       </c>
       <c r="I27" s="63">
-        <f t="shared" ref="I27:X27" si="23">SUM(I11:I26)</f>
+        <f t="shared" ref="I27:X27" si="15">SUM(I11:I26)</f>
         <v>9</v>
       </c>
       <c r="J27" s="63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>20.561999999999998</v>
       </c>
       <c r="K27" s="63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>36.269316000000003</v>
       </c>
       <c r="L27" s="63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>58.683753288000005</v>
       </c>
       <c r="M27" s="63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>91.950312819984021</v>
       </c>
       <c r="N27" s="63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>142.77560614273415</v>
       </c>
       <c r="O27" s="63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>222.0109307389439</v>
       </c>
       <c r="P27" s="63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>347.21368593561124</v>
       </c>
       <c r="Q27" s="63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>546.79174384381906</v>
       </c>
       <c r="R27" s="63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>866.70904153929916</v>
       </c>
       <c r="S27" s="63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>1381.335229210586</v>
       </c>
       <c r="T27" s="63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>2211.0004008627284</v>
       </c>
       <c r="U27" s="63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>3550.3986485958949</v>
       </c>
       <c r="V27" s="63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>5714.5450134281591</v>
       </c>
       <c r="W27" s="63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>9213.1338317267619</v>
       </c>
       <c r="X27" s="63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>12939.502913873956</v>
       </c>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="63"/>
-      <c r="AA27" s="63"/>
-      <c r="AB27" s="63"/>
-      <c r="AC27" s="63"/>
-      <c r="AD27" s="63"/>
-      <c r="AE27" s="63"/>
-      <c r="AF27" s="63"/>
-      <c r="AG27" s="63"/>
-    </row>
-    <row r="28" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="47" t="str">
-        <f>IF(A27=0,0,IF(VALUE(MID(A27,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A27,2,2))+1))</f>
-        <v>L16</v>
+    </row>
+    <row r="28" spans="1:24" ht="16.8">
+      <c r="A28" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="B28" s="10">
-        <f>IF(A28&lt;&gt;0,B27*$D$9,0)</f>
-        <v>13.635710091914175</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="C28" s="9">
-        <f t="shared" si="16"/>
-        <v>24544.278165445518</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D28" s="9">
         <f>IF(A28=0,0,($D$7*($D$10-16)))</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -4306,914 +4168,871 @@
         <f>SUM($H11:$H26)</f>
         <v>35.683784674299567</v>
       </c>
-      <c r="Y28" s="65"/>
-      <c r="Z28" s="65"/>
-      <c r="AA28" s="65"/>
-      <c r="AB28" s="65"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="65"/>
-      <c r="AE28" s="65"/>
-      <c r="AF28" s="65"/>
-      <c r="AG28" s="65"/>
-    </row>
-    <row r="29" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="47" t="str">
-        <f>IF(A28=0,0,IF(VALUE(MID(A28,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A28,2,2))+1))</f>
-        <v>L17</v>
+    </row>
+    <row r="29" spans="1:24" ht="16.8">
+      <c r="A29" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="B29" s="10">
-        <f>IF(A29&lt;&gt;0,B28*$D$9,0)</f>
-        <v>22.062578928717137</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="C29" s="9">
-        <f t="shared" si="16"/>
-        <v>33093.868393075703</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D29" s="9">
         <f>IF(A29=0,0,($D$7*($D$10-17)))</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="47" t="str">
-        <f>IF(A29=0,0,IF(VALUE(MID(A29,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A29,2,2))+1))</f>
-        <v>L18</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="16.8">
+      <c r="A30" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="B30" s="10">
-        <f>IF(A30&lt;&gt;0,B29*$D$9,0)</f>
-        <v>35.697252706664329</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="C30" s="9">
-        <f t="shared" si="16"/>
-        <v>42836.703247997197</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D30" s="9">
         <f>IF(A30=0,0,($D$7*($D$10-18)))</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="61">
+        <v>10</v>
+      </c>
+      <c r="I30" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" s="93">
+        <f>$H$30*$D$10</f>
+        <v>100</v>
+      </c>
+      <c r="K30" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="L30" s="93">
+        <f>$H$30*$D$10*0.618</f>
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="16.8">
+      <c r="A31" s="47"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="I31" s="93">
+        <f>I$34*$H$30</f>
+        <v>10</v>
+      </c>
+      <c r="J31" s="93">
+        <f>J$34*$H$30</f>
+        <v>20</v>
+      </c>
+      <c r="K31" s="93">
+        <f t="shared" ref="K31:X31" si="16">K$34*$H$30</f>
+        <v>30</v>
+      </c>
+      <c r="L31" s="93">
+        <f t="shared" si="16"/>
+        <v>40</v>
+      </c>
+      <c r="M31" s="93">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="N31" s="93">
+        <f t="shared" si="16"/>
+        <v>60</v>
+      </c>
+      <c r="O31" s="93">
+        <f t="shared" si="16"/>
+        <v>70</v>
+      </c>
+      <c r="P31" s="93">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="Q31" s="93">
+        <f t="shared" si="16"/>
+        <v>90</v>
+      </c>
+      <c r="R31" s="93">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="S31" s="93">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="T31" s="93">
+        <f t="shared" si="16"/>
+        <v>120</v>
+      </c>
+      <c r="U31" s="93">
+        <f t="shared" si="16"/>
+        <v>130</v>
+      </c>
+      <c r="V31" s="93">
+        <f t="shared" si="16"/>
+        <v>140</v>
+      </c>
+      <c r="W31" s="93">
+        <f t="shared" si="16"/>
+        <v>150</v>
+      </c>
+      <c r="X31" s="93">
+        <f t="shared" si="16"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="16.8">
+      <c r="A32" s="47">
+        <f>IF(A30=0,0,IF(VALUE(MID(A30,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A30,2,2))+1))</f>
+        <v>0</v>
+      </c>
+      <c r="B32" s="10">
+        <f>IF(A32&lt;&gt;0,B30*$D$9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="9">
+        <f>IF(A32=0,0,($D$7*($D$10-19)))</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93">
+        <f t="shared" ref="I32:P32" si="17">$H$30*I$34*0.618</f>
+        <v>6.18</v>
+      </c>
+      <c r="J32" s="93">
+        <f t="shared" si="17"/>
+        <v>12.36</v>
+      </c>
+      <c r="K32" s="93">
+        <f t="shared" si="17"/>
+        <v>18.54</v>
+      </c>
+      <c r="L32" s="93">
+        <f t="shared" si="17"/>
+        <v>24.72</v>
+      </c>
+      <c r="M32" s="93">
+        <f t="shared" si="17"/>
+        <v>30.9</v>
+      </c>
+      <c r="N32" s="93">
+        <f t="shared" si="17"/>
+        <v>37.08</v>
+      </c>
+      <c r="O32" s="93">
+        <f t="shared" si="17"/>
+        <v>43.26</v>
+      </c>
+      <c r="P32" s="93">
+        <f t="shared" si="17"/>
+        <v>49.44</v>
+      </c>
+      <c r="Q32" s="93">
+        <f>$H$30*Q$34*0.618</f>
+        <v>55.62</v>
+      </c>
+      <c r="R32" s="93">
+        <f t="shared" ref="R32:X32" si="18">$H$30*R$34*0.618</f>
+        <v>61.8</v>
+      </c>
+      <c r="S32" s="93">
+        <f t="shared" si="18"/>
+        <v>67.98</v>
+      </c>
+      <c r="T32" s="93">
+        <f t="shared" si="18"/>
+        <v>74.16</v>
+      </c>
+      <c r="U32" s="93">
+        <f t="shared" si="18"/>
+        <v>80.34</v>
+      </c>
+      <c r="V32" s="93">
+        <f t="shared" si="18"/>
+        <v>86.52</v>
+      </c>
+      <c r="W32" s="93">
+        <f t="shared" si="18"/>
+        <v>92.7</v>
+      </c>
+      <c r="X32" s="93">
+        <f t="shared" si="18"/>
+        <v>98.88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="16.8">
+      <c r="A33" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="B33" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" ref="D33:D44" si="19">IF(A33=0,0,($D$7*($D$10-20)))</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q33" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="R33" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="S33" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="T33" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="U33" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="V33" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="W33" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="X33" s="55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="16.8">
+      <c r="A34" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="B34" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="55">
+        <v>1</v>
+      </c>
+      <c r="J34" s="55">
+        <v>2</v>
+      </c>
+      <c r="K34" s="55">
+        <v>3</v>
+      </c>
+      <c r="L34" s="55">
+        <v>4</v>
+      </c>
+      <c r="M34" s="55">
+        <v>5</v>
+      </c>
+      <c r="N34" s="55">
+        <v>6</v>
+      </c>
+      <c r="O34" s="55">
+        <v>7</v>
+      </c>
+      <c r="P34" s="55">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="55">
+        <v>9</v>
+      </c>
+      <c r="R34" s="55">
+        <v>10</v>
+      </c>
+      <c r="S34" s="55">
+        <v>11</v>
+      </c>
+      <c r="T34" s="55">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="47" t="str">
-        <f>IF(A30=0,0,IF(VALUE(MID(A30,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A30,2,2))+1))</f>
-        <v>L19</v>
-      </c>
-      <c r="B31" s="10">
-        <f>IF(A31&lt;&gt;0,B30*$D$9,0)</f>
-        <v>57.758154879382886</v>
-      </c>
-      <c r="C31" s="9">
-        <f t="shared" si="16"/>
-        <v>51982.339391444599</v>
-      </c>
-      <c r="D31" s="9">
-        <f>IF(A31=0,0,($D$7*($D$10-19)))</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="47" t="str">
-        <f>IF(A31=0,0,IF(VALUE(MID(A31,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A31,2,2))+1))</f>
-        <v>L20</v>
-      </c>
-      <c r="B32" s="10">
-        <f>IF(A32&lt;&gt;0,B31*$D$9,0)</f>
-        <v>93.452694594841518</v>
-      </c>
-      <c r="C32" s="9">
-        <f t="shared" si="16"/>
-        <v>56071.616756904907</v>
-      </c>
-      <c r="D32" s="9">
-        <f>IF(A32=0,0,($D$7*($D$10-20)))</f>
-        <v>6</v>
-      </c>
-      <c r="G32" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="I32" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="M32" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="N32" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="P32" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q32" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="R32" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="S32" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="T32" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="U32" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="V32" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="W32" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="X32" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y32" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z32" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA32" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB32" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC32" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD32" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE32" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF32" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG32" s="55" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="47" t="str">
-        <f>IF(A32=0,0,IF(VALUE(MID(A32,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A32,2,2))+1))</f>
-        <v>L21</v>
-      </c>
-      <c r="B33" s="10">
-        <f>IF(A33&lt;&gt;0,B32*$D$9,0)</f>
-        <v>151.20645985445358</v>
-      </c>
-      <c r="C33" s="9">
-        <f t="shared" si="16"/>
-        <v>90723.875912672156</v>
-      </c>
-      <c r="D33" s="9">
-        <f>IF(A33=0,0,($D$7*($D$10-20)))</f>
-        <v>6</v>
-      </c>
-      <c r="G33" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="H33" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="55">
+      <c r="U34" s="55">
+        <v>13</v>
+      </c>
+      <c r="V34" s="55">
+        <v>14</v>
+      </c>
+      <c r="W34" s="55">
+        <v>15</v>
+      </c>
+      <c r="X34" s="55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="16.8">
+      <c r="A35" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="B35" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="60">
         <v>1</v>
       </c>
-      <c r="J33" s="55">
+      <c r="H35" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="I35" s="57">
+        <f>H30</f>
+        <v>10</v>
+      </c>
+      <c r="J35" s="57">
+        <f>$H35*100*($I$32 - (J$34 - $I$34)*$H$30)</f>
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="K35" s="57">
+        <f t="shared" ref="K35:X35" si="20">$H35*100*($I$32 - (K$34 - $I$34)*$H$30)</f>
+        <v>-138.19999999999999</v>
+      </c>
+      <c r="L35" s="57">
+        <f t="shared" si="20"/>
+        <v>-238.2</v>
+      </c>
+      <c r="M35" s="57">
+        <f t="shared" si="20"/>
+        <v>-338.2</v>
+      </c>
+      <c r="N35" s="57">
+        <f t="shared" si="20"/>
+        <v>-438.2</v>
+      </c>
+      <c r="O35" s="57">
+        <f t="shared" si="20"/>
+        <v>-538.20000000000005</v>
+      </c>
+      <c r="P35" s="57">
+        <f t="shared" si="20"/>
+        <v>-638.20000000000005</v>
+      </c>
+      <c r="Q35" s="57">
+        <f t="shared" si="20"/>
+        <v>-738.19999999999993</v>
+      </c>
+      <c r="R35" s="57">
+        <f t="shared" si="20"/>
+        <v>-838.19999999999993</v>
+      </c>
+      <c r="S35" s="57">
+        <f t="shared" si="20"/>
+        <v>-938.19999999999993</v>
+      </c>
+      <c r="T35" s="57">
+        <f t="shared" si="20"/>
+        <v>-1038.1999999999998</v>
+      </c>
+      <c r="U35" s="57">
+        <f t="shared" si="20"/>
+        <v>-1138.1999999999998</v>
+      </c>
+      <c r="V35" s="57">
+        <f t="shared" si="20"/>
+        <v>-1238.1999999999998</v>
+      </c>
+      <c r="W35" s="57">
+        <f t="shared" si="20"/>
+        <v>-1338.1999999999998</v>
+      </c>
+      <c r="X35" s="57">
+        <f t="shared" si="20"/>
+        <v>-1438.1999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="16.8">
+      <c r="A36" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="B36" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="60">
         <v>2</v>
       </c>
-      <c r="K33" s="55">
+      <c r="H36" s="56">
+        <f>H35</f>
+        <v>0.1</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="57">
+        <f>$H36*100*($H$30*J$34*0.618)</f>
+        <v>123.6</v>
+      </c>
+      <c r="K36" s="57">
+        <f>$H36*100*($J$32 - (K$34 - $J$34)*$H$30)</f>
+        <v>23.599999999999994</v>
+      </c>
+      <c r="L36" s="57">
+        <f t="shared" ref="L36:X36" si="21">$H36*100*($J$32 - (L$34 - $J$34)*$H$30)</f>
+        <v>-76.400000000000006</v>
+      </c>
+      <c r="M36" s="57">
+        <f t="shared" si="21"/>
+        <v>-176.4</v>
+      </c>
+      <c r="N36" s="57">
+        <f t="shared" si="21"/>
+        <v>-276.39999999999998</v>
+      </c>
+      <c r="O36" s="57">
+        <f t="shared" si="21"/>
+        <v>-376.4</v>
+      </c>
+      <c r="P36" s="57">
+        <f t="shared" si="21"/>
+        <v>-476.4</v>
+      </c>
+      <c r="Q36" s="57">
+        <f t="shared" si="21"/>
+        <v>-576.4</v>
+      </c>
+      <c r="R36" s="57">
+        <f t="shared" si="21"/>
+        <v>-676.4</v>
+      </c>
+      <c r="S36" s="57">
+        <f t="shared" si="21"/>
+        <v>-776.4</v>
+      </c>
+      <c r="T36" s="57">
+        <f t="shared" si="21"/>
+        <v>-876.4</v>
+      </c>
+      <c r="U36" s="57">
+        <f t="shared" si="21"/>
+        <v>-976.4</v>
+      </c>
+      <c r="V36" s="57">
+        <f t="shared" si="21"/>
+        <v>-1076.4000000000001</v>
+      </c>
+      <c r="W36" s="57">
+        <f t="shared" si="21"/>
+        <v>-1176.4000000000001</v>
+      </c>
+      <c r="X36" s="57">
+        <f t="shared" si="21"/>
+        <v>-1276.4000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="16.8">
+      <c r="A37" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="B37" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="60">
         <v>3</v>
       </c>
-      <c r="L33" s="55">
-        <v>4</v>
-      </c>
-      <c r="M33" s="55">
-        <v>5</v>
-      </c>
-      <c r="N33" s="55">
-        <v>6</v>
-      </c>
-      <c r="O33" s="55">
-        <v>7</v>
-      </c>
-      <c r="P33" s="55">
-        <v>8</v>
-      </c>
-      <c r="Q33" s="55">
-        <v>9</v>
-      </c>
-      <c r="R33" s="55">
-        <v>10</v>
-      </c>
-      <c r="S33" s="55">
-        <v>11</v>
-      </c>
-      <c r="T33" s="55">
-        <v>12</v>
-      </c>
-      <c r="U33" s="55">
-        <v>13</v>
-      </c>
-      <c r="V33" s="55">
-        <v>14</v>
-      </c>
-      <c r="W33" s="55">
-        <v>15</v>
-      </c>
-      <c r="X33" s="55">
-        <v>16</v>
-      </c>
-      <c r="Y33" s="55">
-        <v>17</v>
-      </c>
-      <c r="Z33" s="55">
-        <v>18</v>
-      </c>
-      <c r="AA33" s="55">
-        <v>19</v>
-      </c>
-      <c r="AB33" s="55">
-        <v>20</v>
-      </c>
-      <c r="AC33" s="55">
-        <v>21</v>
-      </c>
-      <c r="AD33" s="55">
-        <v>22</v>
-      </c>
-      <c r="AE33" s="55">
-        <v>23</v>
-      </c>
-      <c r="AF33" s="55">
-        <v>24</v>
-      </c>
-      <c r="AG33" s="55">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="47" t="str">
-        <f>IF(A33=0,0,IF(VALUE(MID(A33,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A33,2,2))+1))</f>
-        <v>L22</v>
-      </c>
-      <c r="B34" s="10">
-        <f>IF(A34&lt;&gt;0,B33*$D$9,0)</f>
-        <v>244.65205204450592</v>
-      </c>
-      <c r="C34" s="9">
-        <f t="shared" si="16"/>
-        <v>146791.23122670356</v>
-      </c>
-      <c r="D34" s="9">
-        <f>IF(A34=0,0,($D$7*($D$10-20)))</f>
-        <v>6</v>
-      </c>
-      <c r="G34" s="60">
-        <v>1</v>
-      </c>
-      <c r="H34" s="61">
-        <f>'Bảng Input L30'!B13</f>
-        <v>0.01</v>
-      </c>
-      <c r="I34" s="57">
-        <f>$H34*100*($H$5*I$33 - $H$5*$H$4)</f>
-        <v>-1.8540000000000001</v>
-      </c>
-      <c r="J34" s="57">
-        <f>$H34*100*($H$5*J$33 - $H$5*$H$4)</f>
-        <v>1.1459999999999999</v>
-      </c>
-      <c r="K34" s="57">
-        <f>$H34*100*($H$5*K$33 - $H$5*$H$4)</f>
-        <v>4.1459999999999999</v>
-      </c>
-      <c r="L34" s="57">
-        <f>$H34*100*($H$5*L$33 - $H$5*$H$4)</f>
-        <v>7.1459999999999999</v>
-      </c>
-      <c r="M34" s="57">
-        <f t="shared" ref="M34" si="24">$H$11*100*($H$6-$H$5*L33)</f>
-        <v>-3</v>
-      </c>
-      <c r="N34" s="57">
-        <f t="shared" ref="N34" si="25">$H$11*100*($H$6-$H$5*M33)</f>
-        <v>-6</v>
-      </c>
-      <c r="O34" s="57">
-        <f t="shared" ref="O34" si="26">$H$11*100*($H$6-$H$5*N33)</f>
-        <v>-9</v>
-      </c>
-      <c r="P34" s="57">
-        <f t="shared" ref="P34" si="27">$H$11*100*($H$6-$H$5*O33)</f>
-        <v>-12</v>
-      </c>
-      <c r="Q34" s="57">
-        <f t="shared" ref="Q34" si="28">$H$11*100*($H$6-$H$5*P33)</f>
-        <v>-15</v>
-      </c>
-      <c r="R34" s="57">
-        <f t="shared" ref="R34" si="29">$H$11*100*($H$6-$H$5*Q33)</f>
-        <v>-18</v>
-      </c>
-      <c r="S34" s="57">
-        <f t="shared" ref="S34" si="30">$H$11*100*($H$6-$H$5*R33)</f>
-        <v>-21</v>
-      </c>
-      <c r="T34" s="57">
-        <f t="shared" ref="T34" si="31">$H$11*100*($H$6-$H$5*S33)</f>
-        <v>-24</v>
-      </c>
-      <c r="U34" s="57">
-        <f t="shared" ref="U34" si="32">$H$11*100*($H$6-$H$5*T33)</f>
-        <v>-27</v>
-      </c>
-      <c r="V34" s="57">
-        <f t="shared" ref="V34" si="33">$H$11*100*($H$6-$H$5*U33)</f>
-        <v>-30</v>
-      </c>
-      <c r="W34" s="57">
-        <f t="shared" ref="W34" si="34">$H$11*100*($H$6-$H$5*V33)</f>
-        <v>-33</v>
-      </c>
-      <c r="X34" s="57">
-        <f t="shared" ref="X34" si="35">$H$11*100*($H$6-$H$5*W33)</f>
-        <v>-36</v>
-      </c>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="57"/>
-      <c r="AA34" s="57"/>
-      <c r="AB34" s="57"/>
-      <c r="AC34" s="57"/>
-      <c r="AD34" s="57"/>
-      <c r="AE34" s="57"/>
-      <c r="AF34" s="57"/>
-      <c r="AG34" s="57"/>
-    </row>
-    <row r="35" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="47">
-        <f>IF(A34=0,0,IF(VALUE(MID(A34,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A34,2,2))+1))</f>
-        <v>0</v>
-      </c>
-      <c r="B35" s="10">
-        <f>IF(A35&lt;&gt;0,B34*$D$9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="9">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="D35" s="9">
-        <f>IF(A35=0,0,($D$7*($D$10-20)))</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="60">
-        <v>2</v>
-      </c>
-      <c r="H35" s="56">
-        <f t="shared" ref="H35:H49" si="36">H34*$H$4</f>
-        <v>1.618E-2</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="57">
-        <f>$H35*100*($H$5*J$33 - $H$5*$H$4)</f>
-        <v>1.8542279999999998</v>
-      </c>
-      <c r="K35" s="57">
-        <f>$H35*100*($H$5*K$33 - $H$5*$H$4)</f>
-        <v>6.7082279999999992</v>
-      </c>
-      <c r="L35" s="57">
-        <f t="shared" ref="L35:L37" si="37">$H35*100*($H$5*L$33 - $H$5*$H$4)</f>
-        <v>11.562227999999999</v>
-      </c>
-      <c r="M35" s="57">
-        <f t="shared" ref="M35" si="38">$H$12*100*($H$6-$H$5*K33)</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="57">
-        <f t="shared" ref="N35" si="39">$H$12*100*($H$6-$H$5*L33)</f>
-        <v>-4.8539999999999992</v>
-      </c>
-      <c r="O35" s="57">
-        <f t="shared" ref="O35" si="40">$H$12*100*($H$6-$H$5*M33)</f>
-        <v>-9.7079999999999984</v>
-      </c>
-      <c r="P35" s="57">
-        <f t="shared" ref="P35" si="41">$H$12*100*($H$6-$H$5*N33)</f>
-        <v>-14.561999999999999</v>
-      </c>
-      <c r="Q35" s="57">
-        <f t="shared" ref="Q35" si="42">$H$12*100*($H$6-$H$5*O33)</f>
-        <v>-19.415999999999997</v>
-      </c>
-      <c r="R35" s="57">
-        <f t="shared" ref="R35" si="43">$H$12*100*($H$6-$H$5*P33)</f>
-        <v>-24.27</v>
-      </c>
-      <c r="S35" s="57">
-        <f t="shared" ref="S35" si="44">$H$12*100*($H$6-$H$5*Q33)</f>
-        <v>-29.123999999999999</v>
-      </c>
-      <c r="T35" s="57">
-        <f t="shared" ref="T35" si="45">$H$12*100*($H$6-$H$5*R33)</f>
-        <v>-33.977999999999994</v>
-      </c>
-      <c r="U35" s="57">
-        <f t="shared" ref="U35" si="46">$H$12*100*($H$6-$H$5*S33)</f>
-        <v>-38.831999999999994</v>
-      </c>
-      <c r="V35" s="57">
-        <f t="shared" ref="V35" si="47">$H$12*100*($H$6-$H$5*T33)</f>
-        <v>-43.686</v>
-      </c>
-      <c r="W35" s="57">
-        <f t="shared" ref="W35" si="48">$H$12*100*($H$6-$H$5*U33)</f>
-        <v>-48.54</v>
-      </c>
-      <c r="X35" s="57">
-        <f t="shared" ref="X35" si="49">$H$12*100*($H$6-$H$5*V33)</f>
-        <v>-53.393999999999998</v>
-      </c>
-      <c r="Y35" s="57"/>
-      <c r="Z35" s="57"/>
-      <c r="AA35" s="57"/>
-      <c r="AB35" s="57"/>
-      <c r="AC35" s="57"/>
-      <c r="AD35" s="57"/>
-      <c r="AE35" s="57"/>
-      <c r="AF35" s="57"/>
-      <c r="AG35" s="57"/>
-    </row>
-    <row r="36" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="47">
-        <f>IF(A35=0,0,IF(VALUE(MID(A35,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A35,2,2))+1))</f>
-        <v>0</v>
-      </c>
-      <c r="B36" s="10">
-        <f>IF(A36&lt;&gt;0,B35*$D$9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="9">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="D36" s="9">
-        <f>IF(A36=0,0,($D$7*($D$10-20)))</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="60">
-        <v>3</v>
-      </c>
-      <c r="H36" s="56">
-        <f t="shared" si="36"/>
-        <v>2.6179240000000003E-2</v>
-      </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="57">
-        <f>$H36*100*($H$5*K$33 - $H$5*$H$4)</f>
-        <v>10.853912904000001</v>
-      </c>
-      <c r="L36" s="57">
-        <f t="shared" si="37"/>
-        <v>18.707684904000001</v>
-      </c>
-      <c r="M36" s="57">
-        <f t="shared" ref="M36" si="50">$H$13*100*($H$6-$H$5*J33)</f>
-        <v>7.8537720000000011</v>
-      </c>
-      <c r="N36" s="57">
-        <f t="shared" ref="N36" si="51">$H$13*100*($H$6-$H$5*K33)</f>
-        <v>0</v>
-      </c>
-      <c r="O36" s="57">
-        <f t="shared" ref="O36" si="52">$H$13*100*($H$6-$H$5*L33)</f>
-        <v>-7.8537720000000011</v>
-      </c>
-      <c r="P36" s="57">
-        <f t="shared" ref="P36" si="53">$H$13*100*($H$6-$H$5*M33)</f>
-        <v>-15.707544000000002</v>
-      </c>
-      <c r="Q36" s="57">
-        <f t="shared" ref="Q36" si="54">$H$13*100*($H$6-$H$5*N33)</f>
-        <v>-23.561316000000005</v>
-      </c>
-      <c r="R36" s="57">
-        <f t="shared" ref="R36" si="55">$H$13*100*($H$6-$H$5*O33)</f>
-        <v>-31.415088000000004</v>
-      </c>
-      <c r="S36" s="57">
-        <f t="shared" ref="S36" si="56">$H$13*100*($H$6-$H$5*P33)</f>
-        <v>-39.268860000000004</v>
-      </c>
-      <c r="T36" s="57">
-        <f t="shared" ref="T36" si="57">$H$13*100*($H$6-$H$5*Q33)</f>
-        <v>-47.12263200000001</v>
-      </c>
-      <c r="U36" s="57">
-        <f t="shared" ref="U36" si="58">$H$13*100*($H$6-$H$5*R33)</f>
-        <v>-54.976404000000009</v>
-      </c>
-      <c r="V36" s="57">
-        <f t="shared" ref="V36" si="59">$H$13*100*($H$6-$H$5*S33)</f>
-        <v>-62.830176000000009</v>
-      </c>
-      <c r="W36" s="57">
-        <f t="shared" ref="W36" si="60">$H$13*100*($H$6-$H$5*T33)</f>
-        <v>-70.683948000000015</v>
-      </c>
-      <c r="X36" s="57">
-        <f t="shared" ref="X36" si="61">$H$13*100*($H$6-$H$5*U33)</f>
-        <v>-78.537720000000007</v>
-      </c>
-      <c r="Y36" s="57"/>
-      <c r="Z36" s="57"/>
-      <c r="AA36" s="57"/>
-      <c r="AB36" s="57"/>
-      <c r="AC36" s="57"/>
-      <c r="AD36" s="57"/>
-      <c r="AE36" s="57"/>
-      <c r="AF36" s="57"/>
-      <c r="AG36" s="57"/>
-    </row>
-    <row r="37" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="47">
-        <f>IF(A36=0,0,IF(VALUE(MID(A36,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A36,2,2))+1))</f>
-        <v>0</v>
-      </c>
-      <c r="B37" s="10">
-        <f>IF(A37&lt;&gt;0,B36*$D$9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="9">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="D37" s="9">
-        <f>IF(A37=0,0,($D$7*($D$10-20)))</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="60">
-        <v>4</v>
-      </c>
       <c r="H37" s="56">
-        <f t="shared" si="36"/>
-        <v>4.2358010320000007E-2</v>
+        <f t="shared" ref="H37:H50" si="22">H36</f>
+        <v>0.1</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+      <c r="K37" s="57">
+        <f>$H37*100*($H$30*K$34*0.618)</f>
+        <v>185.39999999999998</v>
+      </c>
       <c r="L37" s="57">
-        <f t="shared" si="37"/>
-        <v>30.269034174672001</v>
+        <f>$H37*100*($K$32 - (L$34 - $K$34)*$H$30)</f>
+        <v>85.399999999999991</v>
       </c>
       <c r="M37" s="57">
-        <f>H37*100*(H29-H28)</f>
-        <v>0</v>
+        <f t="shared" ref="M37:X37" si="23">$H37*100*($K$32 - (M$34 - $K$34)*$H$30)</f>
+        <v>-14.600000000000009</v>
       </c>
       <c r="N37" s="57">
-        <f t="shared" ref="N37" si="62">$H$14*100*($H$6-$H$5*J33)</f>
-        <v>12.707403096</v>
+        <f t="shared" si="23"/>
+        <v>-114.60000000000001</v>
       </c>
       <c r="O37" s="57">
-        <f t="shared" ref="O37" si="63">$H$14*100*($H$6-$H$5*K33)</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>-214.60000000000002</v>
       </c>
       <c r="P37" s="57">
-        <f t="shared" ref="P37" si="64">$H$14*100*($H$6-$H$5*L33)</f>
-        <v>-12.707403096</v>
+        <f t="shared" si="23"/>
+        <v>-314.60000000000002</v>
       </c>
       <c r="Q37" s="57">
-        <f t="shared" ref="Q37" si="65">$H$14*100*($H$6-$H$5*M33)</f>
-        <v>-25.414806192</v>
+        <f t="shared" si="23"/>
+        <v>-414.6</v>
       </c>
       <c r="R37" s="57">
-        <f t="shared" ref="R37" si="66">$H$14*100*($H$6-$H$5*N33)</f>
-        <v>-38.122209288000001</v>
+        <f t="shared" si="23"/>
+        <v>-514.6</v>
       </c>
       <c r="S37" s="57">
-        <f t="shared" ref="S37" si="67">$H$14*100*($H$6-$H$5*O33)</f>
-        <v>-50.829612384000001</v>
+        <f t="shared" si="23"/>
+        <v>-614.6</v>
       </c>
       <c r="T37" s="57">
-        <f t="shared" ref="T37" si="68">$H$14*100*($H$6-$H$5*P33)</f>
-        <v>-63.537015480000008</v>
+        <f t="shared" si="23"/>
+        <v>-714.60000000000014</v>
       </c>
       <c r="U37" s="57">
-        <f t="shared" ref="U37" si="69">$H$14*100*($H$6-$H$5*Q33)</f>
-        <v>-76.244418576000001</v>
+        <f t="shared" si="23"/>
+        <v>-814.60000000000014</v>
       </c>
       <c r="V37" s="57">
-        <f t="shared" ref="V37" si="70">$H$14*100*($H$6-$H$5*R33)</f>
-        <v>-88.951821672000008</v>
+        <f t="shared" si="23"/>
+        <v>-914.60000000000014</v>
       </c>
       <c r="W37" s="57">
-        <f t="shared" ref="W37" si="71">$H$14*100*($H$6-$H$5*S33)</f>
-        <v>-101.659224768</v>
+        <f t="shared" si="23"/>
+        <v>-1014.6000000000001</v>
       </c>
       <c r="X37" s="57">
-        <f t="shared" ref="X37" si="72">$H$14*100*($H$6-$H$5*T33)</f>
-        <v>-114.36662786400001</v>
-      </c>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="57"/>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="57"/>
-      <c r="AE37" s="57"/>
-      <c r="AF37" s="57"/>
-      <c r="AG37" s="57"/>
-    </row>
-    <row r="38" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="23"/>
+        <v>-1114.6000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="16.8">
       <c r="A38" s="47">
-        <f>IF(A37=0,0,IF(VALUE(MID(A37,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A37,2,2))+1))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B38" s="10">
-        <f>IF(A38&lt;&gt;0,B37*$D$9,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C38" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D38" s="9">
-        <f>IF(A38=0,0,($D$7*($D$10-20)))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G38" s="60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H38" s="56">
-        <f t="shared" si="36"/>
-        <v>6.8535260697760017E-2</v>
-      </c>
-      <c r="I38" s="4"/>
+        <f t="shared" si="22"/>
+        <v>0.1</v>
+      </c>
+      <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
+      <c r="L38" s="57">
+        <f>$H38*100*($H$30*L$34*0.618)</f>
+        <v>247.2</v>
+      </c>
       <c r="M38" s="57">
-        <f>H38*H29*100</f>
-        <v>0</v>
+        <f>$H38*100*($L$32 - (M$34 - $L$34)*$H$30)</f>
+        <v>147.19999999999999</v>
       </c>
       <c r="N38" s="57">
-        <f>H38*100*(H29-H28)</f>
-        <v>0</v>
+        <f t="shared" ref="N38:X38" si="24">$H38*100*($L$32 - (N$34 - $L$34)*$H$30)</f>
+        <v>47.199999999999989</v>
       </c>
       <c r="O38" s="57">
-        <f t="shared" ref="O38" si="73">$H$15*100*($H$6-$H$5*J33)</f>
-        <v>20.560578209328003</v>
+        <f t="shared" si="24"/>
+        <v>-52.800000000000011</v>
       </c>
       <c r="P38" s="57">
-        <f t="shared" ref="P38" si="74">$H$15*100*($H$6-$H$5*K33)</f>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>-152.80000000000001</v>
       </c>
       <c r="Q38" s="57">
-        <f t="shared" ref="Q38" si="75">$H$15*100*($H$6-$H$5*L33)</f>
-        <v>-20.560578209328003</v>
+        <f t="shared" si="24"/>
+        <v>-252.8</v>
       </c>
       <c r="R38" s="57">
-        <f t="shared" ref="R38" si="76">$H$15*100*($H$6-$H$5*M33)</f>
-        <v>-41.121156418656007</v>
+        <f t="shared" si="24"/>
+        <v>-352.8</v>
       </c>
       <c r="S38" s="57">
-        <f t="shared" ref="S38" si="77">$H$15*100*($H$6-$H$5*N33)</f>
-        <v>-61.681734627984014</v>
+        <f t="shared" si="24"/>
+        <v>-452.8</v>
       </c>
       <c r="T38" s="57">
-        <f t="shared" ref="T38" si="78">$H$15*100*($H$6-$H$5*O33)</f>
-        <v>-82.242312837312014</v>
+        <f t="shared" si="24"/>
+        <v>-552.79999999999995</v>
       </c>
       <c r="U38" s="57">
-        <f t="shared" ref="U38" si="79">$H$15*100*($H$6-$H$5*P33)</f>
-        <v>-102.80289104664003</v>
+        <f t="shared" si="24"/>
+        <v>-652.79999999999995</v>
       </c>
       <c r="V38" s="57">
-        <f t="shared" ref="V38" si="80">$H$15*100*($H$6-$H$5*Q33)</f>
-        <v>-123.36346925596803</v>
+        <f t="shared" si="24"/>
+        <v>-752.8</v>
       </c>
       <c r="W38" s="57">
-        <f t="shared" ref="W38" si="81">$H$15*100*($H$6-$H$5*R33)</f>
-        <v>-143.92404746529604</v>
+        <f t="shared" si="24"/>
+        <v>-852.8</v>
       </c>
       <c r="X38" s="57">
-        <f t="shared" ref="X38" si="82">$H$15*100*($H$6-$H$5*S33)</f>
-        <v>-164.48462567462403</v>
-      </c>
-      <c r="Y38" s="57"/>
-      <c r="Z38" s="57"/>
-      <c r="AA38" s="57"/>
-      <c r="AB38" s="57"/>
-      <c r="AC38" s="57"/>
-      <c r="AD38" s="57"/>
-      <c r="AE38" s="57"/>
-      <c r="AF38" s="57"/>
-      <c r="AG38" s="57"/>
-    </row>
-    <row r="39" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>-952.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="16.8">
       <c r="A39" s="47">
-        <f>IF(A38=0,0,IF(VALUE(MID(A38,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A38,2,2))+1))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B39" s="10">
-        <f>IF(A39&lt;&gt;0,B38*$D$9,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C39" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D39" s="9">
-        <f>IF(A39=0,0,($D$7*($D$10-20)))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G39" s="60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H39" s="56">
-        <f t="shared" si="36"/>
-        <v>0.11089005180897571</v>
-      </c>
-      <c r="I39" s="3"/>
+        <f t="shared" si="22"/>
+        <v>0.1</v>
+      </c>
+      <c r="I39" s="4"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
+      <c r="M39" s="57">
+        <f>$H39*100*($H$30*M$34*0.618)</f>
+        <v>309</v>
+      </c>
       <c r="N39" s="57">
-        <f>H39*H29*100</f>
-        <v>0</v>
+        <f>$H39*100*($M$32 - (N$34 - $M$34)*$H$30)</f>
+        <v>209</v>
       </c>
       <c r="O39" s="57">
-        <f>H39*100*(H29-H28)</f>
-        <v>0</v>
+        <f t="shared" ref="O39:X39" si="25">$H39*100*($M$32 - (O$34 - $M$34)*$H$30)</f>
+        <v>108.99999999999999</v>
       </c>
       <c r="P39" s="57">
-        <f t="shared" ref="P39" si="83">$H$16*100*($H$6-$H$5*J33)</f>
-        <v>33.267015542692711</v>
+        <f t="shared" si="25"/>
+        <v>8.9999999999999858</v>
       </c>
       <c r="Q39" s="57">
-        <f t="shared" ref="Q39" si="84">$H$16*100*($H$6-$H$5*K33)</f>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>-91.000000000000014</v>
       </c>
       <c r="R39" s="57">
-        <f t="shared" ref="R39" si="85">$H$16*100*($H$6-$H$5*L33)</f>
-        <v>-33.267015542692711</v>
+        <f t="shared" si="25"/>
+        <v>-191</v>
       </c>
       <c r="S39" s="57">
-        <f t="shared" ref="S39" si="86">$H$16*100*($H$6-$H$5*M33)</f>
-        <v>-66.534031085385422</v>
+        <f t="shared" si="25"/>
+        <v>-291</v>
       </c>
       <c r="T39" s="57">
-        <f t="shared" ref="T39" si="87">$H$16*100*($H$6-$H$5*N33)</f>
-        <v>-99.80104662807814</v>
+        <f t="shared" si="25"/>
+        <v>-391</v>
       </c>
       <c r="U39" s="57">
-        <f t="shared" ref="U39" si="88">$H$16*100*($H$6-$H$5*O33)</f>
-        <v>-133.06806217077084</v>
+        <f t="shared" si="25"/>
+        <v>-491</v>
       </c>
       <c r="V39" s="57">
-        <f t="shared" ref="V39" si="89">$H$16*100*($H$6-$H$5*P33)</f>
-        <v>-166.33507771346356</v>
+        <f t="shared" si="25"/>
+        <v>-591</v>
       </c>
       <c r="W39" s="57">
-        <f t="shared" ref="W39" si="90">$H$16*100*($H$6-$H$5*Q33)</f>
-        <v>-199.60209325615628</v>
+        <f t="shared" si="25"/>
+        <v>-691</v>
       </c>
       <c r="X39" s="57">
-        <f t="shared" ref="X39" si="91">$H$16*100*($H$6-$H$5*R33)</f>
-        <v>-232.869108798849</v>
-      </c>
-      <c r="Y39" s="57"/>
-      <c r="Z39" s="57"/>
-      <c r="AA39" s="57"/>
-      <c r="AB39" s="57"/>
-      <c r="AC39" s="57"/>
-      <c r="AD39" s="57"/>
-      <c r="AE39" s="57"/>
-      <c r="AF39" s="57"/>
-      <c r="AG39" s="57"/>
-    </row>
-    <row r="40" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="25"/>
+        <v>-791</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="16.8">
       <c r="A40" s="47">
-        <f>IF(A39=0,0,IF(VALUE(MID(A39,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A39,2,2))+1))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B40" s="10">
-        <f>IF(A40&lt;&gt;0,B39*$D$9,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C40" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D40" s="9">
-        <f>IF(A40=0,0,($D$7*($D$10-20)))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G40" s="60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H40" s="56">
-        <f t="shared" si="36"/>
-        <v>0.17942010382692272</v>
+        <f t="shared" si="22"/>
+        <v>0.1</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
+      <c r="N40" s="57">
+        <f>$H40*100*($H$30*N$34*0.618)</f>
+        <v>370.79999999999995</v>
+      </c>
       <c r="O40" s="57">
-        <f>H29*H40*100</f>
-        <v>0</v>
+        <f>$H40*100*($N$32 - (O$34 - $N$34)*$H$30)</f>
+        <v>270.79999999999995</v>
       </c>
       <c r="P40" s="57">
-        <f>H40*100*(H29-H28)</f>
-        <v>0</v>
+        <f t="shared" ref="P40:X40" si="26">$H40*100*($N$32 - (P$34 - $N$34)*$H$30)</f>
+        <v>170.79999999999998</v>
       </c>
       <c r="Q40" s="57">
-        <f t="shared" ref="Q40" si="92">$H$17*100*($H$6-$H$5*J33)</f>
-        <v>53.826031148076808</v>
+        <f t="shared" si="26"/>
+        <v>70.799999999999983</v>
       </c>
       <c r="R40" s="57">
-        <f t="shared" ref="R40" si="93">$H$17*100*($H$6-$H$5*K33)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-29.200000000000017</v>
       </c>
       <c r="S40" s="57">
-        <f t="shared" ref="S40" si="94">$H$17*100*($H$6-$H$5*L33)</f>
-        <v>-53.826031148076808</v>
+        <f t="shared" si="26"/>
+        <v>-129.20000000000002</v>
       </c>
       <c r="T40" s="57">
-        <f t="shared" ref="T40" si="95">$H$17*100*($H$6-$H$5*M33)</f>
-        <v>-107.65206229615362</v>
+        <f t="shared" si="26"/>
+        <v>-229.20000000000002</v>
       </c>
       <c r="U40" s="57">
-        <f t="shared" ref="U40" si="96">$H$17*100*($H$6-$H$5*N33)</f>
-        <v>-161.47809344423044</v>
+        <f t="shared" si="26"/>
+        <v>-329.20000000000005</v>
       </c>
       <c r="V40" s="57">
-        <f t="shared" ref="V40" si="97">$H$17*100*($H$6-$H$5*O33)</f>
-        <v>-215.30412459230723</v>
+        <f t="shared" si="26"/>
+        <v>-429.20000000000005</v>
       </c>
       <c r="W40" s="57">
-        <f t="shared" ref="W40" si="98">$H$17*100*($H$6-$H$5*P33)</f>
-        <v>-269.13015574038405</v>
+        <f t="shared" si="26"/>
+        <v>-529.20000000000005</v>
       </c>
       <c r="X40" s="57">
-        <f t="shared" ref="X40" si="99">$H$17*100*($H$6-$H$5*Q33)</f>
-        <v>-322.95618688846088</v>
-      </c>
-      <c r="Y40" s="57"/>
-      <c r="Z40" s="57"/>
-      <c r="AA40" s="57"/>
-      <c r="AB40" s="57"/>
-      <c r="AC40" s="57"/>
-      <c r="AD40" s="57"/>
-      <c r="AE40" s="57"/>
-      <c r="AF40" s="57"/>
-      <c r="AG40" s="57"/>
-    </row>
-    <row r="41" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="26"/>
+        <v>-629.20000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="16.8">
       <c r="A41" s="47">
-        <f>IF(A40=0,0,IF(VALUE(MID(A40,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A40,2,2))+1))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B41" s="10">
-        <f>IF(A41&lt;&gt;0,B40*$D$9,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C41" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D41" s="9">
-        <f>IF(A41=0,0,($D$7*($D$10-20)))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G41" s="60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H41" s="56">
-        <f t="shared" si="36"/>
-        <v>0.29030172799196097</v>
+        <f t="shared" si="22"/>
+        <v>0.1</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -5221,76 +5040,70 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
+      <c r="O41" s="57">
+        <f>$H41*100*($H$30*O$34*0.618)</f>
+        <v>432.59999999999997</v>
+      </c>
       <c r="P41" s="57">
-        <f>H29*H41*100</f>
-        <v>0</v>
+        <f>$H41*100*($O$32 - (P$34 - $O$34)*$H$30)</f>
+        <v>332.59999999999997</v>
       </c>
       <c r="Q41" s="57">
-        <f>H41*100*(H29-H28)</f>
-        <v>0</v>
+        <f t="shared" ref="Q41:X41" si="27">$H41*100*($O$32 - (Q$34 - $O$34)*$H$30)</f>
+        <v>232.59999999999997</v>
       </c>
       <c r="R41" s="57">
-        <f t="shared" ref="R41" si="100">$H$18*100*($H$6-$H$5*J33)</f>
-        <v>87.090518397588298</v>
+        <f t="shared" si="27"/>
+        <v>132.59999999999997</v>
       </c>
       <c r="S41" s="57">
-        <f t="shared" ref="S41" si="101">$H$18*100*($H$6-$H$5*K33)</f>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>32.59999999999998</v>
       </c>
       <c r="T41" s="57">
-        <f t="shared" ref="T41" si="102">$H$18*100*($H$6-$H$5*L33)</f>
-        <v>-87.090518397588298</v>
+        <f t="shared" si="27"/>
+        <v>-67.40000000000002</v>
       </c>
       <c r="U41" s="57">
-        <f t="shared" ref="U41" si="103">$H$18*100*($H$6-$H$5*M33)</f>
-        <v>-174.1810367951766</v>
+        <f t="shared" si="27"/>
+        <v>-167.40000000000003</v>
       </c>
       <c r="V41" s="57">
-        <f t="shared" ref="V41" si="104">$H$18*100*($H$6-$H$5*N33)</f>
-        <v>-261.27155519276488</v>
+        <f t="shared" si="27"/>
+        <v>-267.40000000000003</v>
       </c>
       <c r="W41" s="57">
-        <f t="shared" ref="W41" si="105">$H$18*100*($H$6-$H$5*O33)</f>
-        <v>-348.36207359035319</v>
+        <f t="shared" si="27"/>
+        <v>-367.40000000000003</v>
       </c>
       <c r="X41" s="57">
-        <f t="shared" ref="X41" si="106">$H$18*100*($H$6-$H$5*P33)</f>
-        <v>-435.45259198794145</v>
-      </c>
-      <c r="Y41" s="57"/>
-      <c r="Z41" s="57"/>
-      <c r="AA41" s="57"/>
-      <c r="AB41" s="57"/>
-      <c r="AC41" s="57"/>
-      <c r="AD41" s="57"/>
-      <c r="AE41" s="57"/>
-      <c r="AF41" s="57"/>
-      <c r="AG41" s="57"/>
-    </row>
-    <row r="42" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="27"/>
+        <v>-467.40000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="16.8">
       <c r="A42" s="47">
-        <f>IF(A41=0,0,IF(VALUE(MID(A41,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A41,2,2))+1))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B42" s="10">
-        <f>IF(A42&lt;&gt;0,B41*$D$9,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C42" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D42" s="9">
-        <f>IF(A42=0,0,($D$7*($D$10-20)))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G42" s="60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H42" s="56">
-        <f t="shared" si="36"/>
-        <v>0.46970819589099289</v>
+        <f t="shared" si="22"/>
+        <v>0.1</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -5299,72 +5112,66 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
+      <c r="P42" s="57">
+        <f>$H42*100*($H$30*P$34*0.618)</f>
+        <v>494.4</v>
+      </c>
       <c r="Q42" s="57">
-        <f>H29*H42*100</f>
-        <v>0</v>
+        <f>$H42*100*($P$32 - (Q$34 - $P$34)*$H$30)</f>
+        <v>394.4</v>
       </c>
       <c r="R42" s="57">
-        <f>H42*100*(H29-H28)</f>
-        <v>0</v>
+        <f t="shared" ref="R42:X42" si="28">$H42*100*($P$32 - (R$34 - $P$34)*$H$30)</f>
+        <v>294.39999999999998</v>
       </c>
       <c r="S42" s="57">
-        <f t="shared" ref="S42" si="107">$H$19*100*($H$6-$H$5*J33)</f>
-        <v>140.91245876729786</v>
+        <f t="shared" si="28"/>
+        <v>194.39999999999998</v>
       </c>
       <c r="T42" s="57">
-        <f t="shared" ref="T42" si="108">$H$19*100*($H$6-$H$5*K33)</f>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>94.399999999999977</v>
       </c>
       <c r="U42" s="57">
-        <f t="shared" ref="U42" si="109">$H$19*100*($H$6-$H$5*L33)</f>
-        <v>-140.91245876729786</v>
+        <f t="shared" si="28"/>
+        <v>-5.6000000000000227</v>
       </c>
       <c r="V42" s="57">
-        <f t="shared" ref="V42" si="110">$H$19*100*($H$6-$H$5*M33)</f>
-        <v>-281.82491753459573</v>
+        <f t="shared" si="28"/>
+        <v>-105.60000000000002</v>
       </c>
       <c r="W42" s="57">
-        <f t="shared" ref="W42" si="111">$H$19*100*($H$6-$H$5*N33)</f>
-        <v>-422.73737630189356</v>
+        <f t="shared" si="28"/>
+        <v>-205.60000000000002</v>
       </c>
       <c r="X42" s="57">
-        <f t="shared" ref="X42" si="112">$H$19*100*($H$6-$H$5*O33)</f>
-        <v>-563.64983506919145</v>
-      </c>
-      <c r="Y42" s="57"/>
-      <c r="Z42" s="57"/>
-      <c r="AA42" s="57"/>
-      <c r="AB42" s="57"/>
-      <c r="AC42" s="57"/>
-      <c r="AD42" s="57"/>
-      <c r="AE42" s="57"/>
-      <c r="AF42" s="57"/>
-      <c r="AG42" s="57"/>
-    </row>
-    <row r="43" spans="1:33" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>-305.60000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="16.8">
       <c r="A43" s="47">
-        <f>IF(A42=0,0,IF(VALUE(MID(A42,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A42,2,2))+1))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B43" s="10">
-        <f>IF(A43&lt;&gt;0,B42*$D$9,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C43" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D43" s="9">
-        <f>IF(A43=0,0,($D$7*($D$10-20)))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G43" s="60">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H43" s="56">
-        <f t="shared" si="36"/>
-        <v>0.75998786095162651</v>
+        <f t="shared" si="22"/>
+        <v>0.1</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -5374,64 +5181,62 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
+      <c r="Q43" s="57">
+        <f>$H43*100*($H$30*Q$34*0.618)</f>
+        <v>556.19999999999993</v>
+      </c>
       <c r="R43" s="57">
-        <f>H29*H43*100</f>
-        <v>0</v>
+        <f>$H43*100*($Q$32 - (R$34 - $Q$34)*$H$30)</f>
+        <v>456.2</v>
       </c>
       <c r="S43" s="57">
-        <f>H43*100*(H29-H28)</f>
-        <v>0</v>
+        <f t="shared" ref="S43:X43" si="29">$H43*100*($Q$32 - (S$34 - $Q$34)*$H$30)</f>
+        <v>356.2</v>
       </c>
       <c r="T43" s="57">
-        <f>$H$20*100*($H$6-$H$5*J33)</f>
-        <v>227.99635828548799</v>
+        <f t="shared" si="29"/>
+        <v>256.2</v>
       </c>
       <c r="U43" s="57">
-        <f>$H$20*100*($H$6-$H$5*K33)</f>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>156.19999999999999</v>
       </c>
       <c r="V43" s="57">
-        <f>$H$20*100*($H$6-$H$5*L33)</f>
-        <v>-227.99635828548799</v>
+        <f t="shared" si="29"/>
+        <v>56.199999999999974</v>
       </c>
       <c r="W43" s="57">
-        <f>$H$20*100*($H$6-$H$5*M33)</f>
-        <v>-455.99271657097597</v>
+        <f t="shared" si="29"/>
+        <v>-43.800000000000026</v>
       </c>
       <c r="X43" s="57">
-        <f>$H$20*100*($H$6-$H$5*N33)</f>
-        <v>-683.98907485646396</v>
-      </c>
-      <c r="Y43" s="57"/>
-      <c r="Z43" s="57"/>
-      <c r="AA43" s="57"/>
-      <c r="AB43" s="57"/>
-      <c r="AC43" s="57"/>
-      <c r="AD43" s="57"/>
-      <c r="AE43" s="57"/>
-      <c r="AF43" s="57"/>
-      <c r="AG43" s="57"/>
-    </row>
-    <row r="44" spans="1:33" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="74"/>
-      <c r="C44" s="48">
-        <f>SUM(C13:C43)</f>
-        <v>502975.00300967303</v>
-      </c>
-      <c r="D44" s="49">
-        <f>MAX(D13:D43)</f>
-        <v>63</v>
+        <f t="shared" si="29"/>
+        <v>-143.80000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="17.399999999999999" thickBot="1">
+      <c r="A44" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="B44" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="G44" s="60">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H44" s="56">
-        <f t="shared" si="36"/>
-        <v>1.2296603590197317</v>
+        <f t="shared" si="22"/>
+        <v>0.1</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -5442,48 +5247,54 @@
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="58">
-        <f>H29*H44*100</f>
-        <v>0</v>
-      </c>
-      <c r="T44" s="58">
-        <f>H44*100*(H29-H28)</f>
-        <v>0</v>
-      </c>
-      <c r="U44" s="58">
-        <f>$H$21*100*($H$6-$H$5*J33)</f>
-        <v>368.89810770591953</v>
-      </c>
-      <c r="V44" s="58">
-        <f>$H$21*100*($H$6-$H$5*K33)</f>
-        <v>0</v>
-      </c>
-      <c r="W44" s="58">
-        <f>$H$21*100*($H$6-$H$5*L33)</f>
-        <v>-368.89810770591953</v>
-      </c>
-      <c r="X44" s="58">
-        <f>$H$21*100*($H$6-$H$5*M33)</f>
-        <v>-737.79621541183906</v>
-      </c>
-      <c r="Y44" s="58"/>
-      <c r="Z44" s="58"/>
-      <c r="AA44" s="58"/>
-      <c r="AB44" s="58"/>
-      <c r="AC44" s="58"/>
-      <c r="AD44" s="58"/>
-      <c r="AE44" s="58"/>
-      <c r="AF44" s="58"/>
-      <c r="AG44" s="58"/>
-    </row>
-    <row r="45" spans="1:33" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R44" s="57">
+        <f>$H44*100*($H$30*R$34*0.618)</f>
+        <v>618</v>
+      </c>
+      <c r="S44" s="57">
+        <f>$H44*100*($R$32 - (S$34 - $R$34)*$H$30)</f>
+        <v>518</v>
+      </c>
+      <c r="T44" s="57">
+        <f t="shared" ref="T44:X44" si="30">$H44*100*($R$32 - (T$34 - $R$34)*$H$30)</f>
+        <v>418</v>
+      </c>
+      <c r="U44" s="57">
+        <f t="shared" si="30"/>
+        <v>318</v>
+      </c>
+      <c r="V44" s="57">
+        <f t="shared" si="30"/>
+        <v>217.99999999999997</v>
+      </c>
+      <c r="W44" s="57">
+        <f t="shared" si="30"/>
+        <v>117.99999999999997</v>
+      </c>
+      <c r="X44" s="57">
+        <f t="shared" si="30"/>
+        <v>17.999999999999972</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" thickTop="1" thickBot="1">
+      <c r="A45" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="81"/>
+      <c r="C45" s="48">
+        <f>SUM(C13:C44)</f>
+        <v>909.49536480011568</v>
+      </c>
+      <c r="D45" s="49">
+        <f>MAX(D13:D44)</f>
+        <v>27</v>
+      </c>
       <c r="G45" s="60">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H45" s="56">
-        <f t="shared" si="36"/>
-        <v>1.9895904608939261</v>
+        <f t="shared" si="22"/>
+        <v>0.1</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -5495,44 +5306,38 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
-      <c r="S45" s="58"/>
-      <c r="T45" s="58">
-        <f>H29*H45*100</f>
-        <v>0</v>
-      </c>
-      <c r="U45" s="58">
-        <f>H45*100*(H29-H28)</f>
-        <v>0</v>
-      </c>
-      <c r="V45" s="58">
-        <f>$H$22*100*($H$6-$H$5*J33)</f>
-        <v>596.87713826817787</v>
-      </c>
-      <c r="W45" s="58">
-        <f>$H$22*100*($H$6-$H$5*K33)</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="58">
-        <f>$H$22*100*($H$6-$H$5*L33)</f>
-        <v>-596.87713826817787</v>
-      </c>
-      <c r="Y45" s="58"/>
-      <c r="Z45" s="58"/>
-      <c r="AA45" s="58"/>
-      <c r="AB45" s="58"/>
-      <c r="AC45" s="58"/>
-      <c r="AD45" s="58"/>
-      <c r="AE45" s="58"/>
-      <c r="AF45" s="58"/>
-      <c r="AG45" s="58"/>
-    </row>
-    <row r="46" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+      <c r="S45" s="57">
+        <f>$H45*100*($H$30*S$34*0.618)</f>
+        <v>679.80000000000007</v>
+      </c>
+      <c r="T45" s="57">
+        <f>$H45*100*($S$32 - (T$34 - $S$34)*$H$30)</f>
+        <v>579.80000000000007</v>
+      </c>
+      <c r="U45" s="57">
+        <f t="shared" ref="U45:X45" si="31">$H45*100*($S$32 - (U$34 - $S$34)*$H$30)</f>
+        <v>479.80000000000007</v>
+      </c>
+      <c r="V45" s="57">
+        <f t="shared" si="31"/>
+        <v>379.80000000000007</v>
+      </c>
+      <c r="W45" s="57">
+        <f t="shared" si="31"/>
+        <v>279.80000000000007</v>
+      </c>
+      <c r="X45" s="57">
+        <f t="shared" si="31"/>
+        <v>179.80000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="15.6" thickTop="1">
       <c r="G46" s="60">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H46" s="56">
-        <f t="shared" si="36"/>
-        <v>3.2191573657263728</v>
+        <f t="shared" si="22"/>
+        <v>0.1</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -5545,40 +5350,34 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="58"/>
-      <c r="T46" s="58"/>
-      <c r="U46" s="58">
-        <f>H29*H46*100</f>
-        <v>0</v>
-      </c>
-      <c r="V46" s="58">
-        <f>H46*100*(H29-H28)</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="58">
-        <f>$H$23*100*($H$6-$H$5*J33)</f>
-        <v>965.7472097179118</v>
-      </c>
-      <c r="X46" s="58">
-        <f>$H$23*100*($H$6-$H$5*K33)</f>
-        <v>0</v>
-      </c>
-      <c r="Y46" s="58"/>
-      <c r="Z46" s="58"/>
-      <c r="AA46" s="58"/>
-      <c r="AB46" s="58"/>
-      <c r="AC46" s="58"/>
-      <c r="AD46" s="58"/>
-      <c r="AE46" s="58"/>
-      <c r="AF46" s="58"/>
-      <c r="AG46" s="58"/>
-    </row>
-    <row r="47" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+      <c r="T46" s="57">
+        <f>$H46*100*($H$30*T$34*0.618)</f>
+        <v>741.59999999999991</v>
+      </c>
+      <c r="U46" s="57">
+        <f>$H46*100*($T$32 - (U$34 - $T$34)*$H$30)</f>
+        <v>641.59999999999991</v>
+      </c>
+      <c r="V46" s="57">
+        <f>$H46*100*($T$32 - (V$34 - $T$34)*$H$30)</f>
+        <v>541.59999999999991</v>
+      </c>
+      <c r="W46" s="57">
+        <f>$H46*100*($T$32 - (W$34 - $T$34)*$H$30)</f>
+        <v>441.59999999999997</v>
+      </c>
+      <c r="X46" s="57">
+        <f>$H46*100*($T$32 - (X$34 - $T$34)*$H$30)</f>
+        <v>341.59999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="15">
       <c r="G47" s="60">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H47" s="56">
-        <f t="shared" si="36"/>
-        <v>5.2085966177452718</v>
+        <f t="shared" si="22"/>
+        <v>0.1</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -5592,36 +5391,30 @@
       <c r="R47" s="3"/>
       <c r="S47" s="58"/>
       <c r="T47" s="58"/>
-      <c r="U47" s="58"/>
-      <c r="V47" s="58">
-        <f>H29*H47*100</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="58">
-        <f>H47*100*(H29-H28)</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="58">
-        <f>$H$24*100*($H$6-$H$5*J33)</f>
-        <v>1562.5789853235817</v>
-      </c>
-      <c r="Y47" s="58"/>
-      <c r="Z47" s="58"/>
-      <c r="AA47" s="58"/>
-      <c r="AB47" s="58"/>
-      <c r="AC47" s="58"/>
-      <c r="AD47" s="58"/>
-      <c r="AE47" s="58"/>
-      <c r="AF47" s="58"/>
-      <c r="AG47" s="58"/>
-    </row>
-    <row r="48" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+      <c r="U47" s="57">
+        <f>$H47*100*($H$30*U$34*0.618)</f>
+        <v>803.40000000000009</v>
+      </c>
+      <c r="V47" s="57">
+        <f>$H47*100*($U$32 - (V$34 - $U$34)*$H$30)</f>
+        <v>703.40000000000009</v>
+      </c>
+      <c r="W47" s="57">
+        <f>$H47*100*($U$32 - (W$34 - $U$34)*$H$30)</f>
+        <v>603.40000000000009</v>
+      </c>
+      <c r="X47" s="57">
+        <f>$H47*100*($U$32 - (X$34 - $U$34)*$H$30)</f>
+        <v>503.40000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="15">
       <c r="G48" s="60">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H48" s="56">
-        <f t="shared" si="36"/>
-        <v>8.4275093275118511</v>
+        <f t="shared" si="22"/>
+        <v>0.1</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -5636,32 +5429,26 @@
       <c r="S48" s="58"/>
       <c r="T48" s="58"/>
       <c r="U48" s="58"/>
-      <c r="V48" s="58"/>
-      <c r="W48" s="58">
-        <f>H29*H48*100</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="58">
-        <f>H47*100*(H29-H28)</f>
-        <v>0</v>
-      </c>
-      <c r="Y48" s="58"/>
-      <c r="Z48" s="58"/>
-      <c r="AA48" s="58"/>
-      <c r="AB48" s="58"/>
-      <c r="AC48" s="58"/>
-      <c r="AD48" s="58"/>
-      <c r="AE48" s="58"/>
-      <c r="AF48" s="58"/>
-      <c r="AG48" s="58"/>
-    </row>
-    <row r="49" spans="7:33" ht="15" x14ac:dyDescent="0.25">
+      <c r="V48" s="57">
+        <f>$H48*100*($H$30*V$34*0.618)</f>
+        <v>865.19999999999993</v>
+      </c>
+      <c r="W48" s="57">
+        <f>$H48*100*($V$32 - (W$34 - $V$34)*$H$30)</f>
+        <v>765.19999999999993</v>
+      </c>
+      <c r="X48" s="57">
+        <f>$H48*100*($V$32 - (X$34 - $V$34)*$H$30)</f>
+        <v>665.19999999999993</v>
+      </c>
+    </row>
+    <row r="49" spans="7:24" ht="15">
       <c r="G49" s="60">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H49" s="56">
-        <f t="shared" si="36"/>
-        <v>13.635710091914175</v>
+        <f t="shared" si="22"/>
+        <v>0.1</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -5677,179 +5464,183 @@
       <c r="T49" s="58"/>
       <c r="U49" s="58"/>
       <c r="V49" s="58"/>
-      <c r="W49" s="58"/>
-      <c r="X49" s="58">
-        <f>H49*H29*100</f>
-        <v>0</v>
-      </c>
-      <c r="Y49" s="58"/>
-      <c r="Z49" s="58"/>
-      <c r="AA49" s="58"/>
-      <c r="AB49" s="58"/>
-      <c r="AC49" s="58"/>
-      <c r="AD49" s="58"/>
-      <c r="AE49" s="58"/>
-      <c r="AF49" s="58"/>
-      <c r="AG49" s="58"/>
-    </row>
-    <row r="50" spans="7:33" ht="15" x14ac:dyDescent="0.25">
-      <c r="G50" s="62" t="s">
+      <c r="W49" s="57">
+        <f>$H49*100*($H$30*W$34*0.618)</f>
+        <v>927</v>
+      </c>
+      <c r="X49" s="57">
+        <f>$H49*100*($W$32 - (X$34 - $W$34)*$H$30)</f>
+        <v>827</v>
+      </c>
+    </row>
+    <row r="50" spans="7:24" ht="15">
+      <c r="G50" s="60">
+        <v>16</v>
+      </c>
+      <c r="H50" s="56">
+        <f t="shared" si="22"/>
+        <v>0.1</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="58"/>
+      <c r="T50" s="58"/>
+      <c r="U50" s="58"/>
+      <c r="V50" s="58"/>
+      <c r="W50" s="58"/>
+      <c r="X50" s="57">
+        <f>$H50*100*($H$30*X$34*0.618)</f>
+        <v>988.8</v>
+      </c>
+    </row>
+    <row r="51" spans="7:24" ht="15">
+      <c r="G51" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="H50" s="68">
-        <f>SUM(H34:H49)</f>
-        <v>35.683784674299567</v>
-      </c>
-      <c r="I50" s="63">
-        <f t="shared" ref="I50:X50" si="113">SUM(I34:I49)</f>
-        <v>-1.8540000000000001</v>
-      </c>
-      <c r="J50" s="63">
-        <f t="shared" si="113"/>
-        <v>3.0002279999999999</v>
-      </c>
-      <c r="K50" s="63">
-        <f t="shared" si="113"/>
-        <v>21.708140904</v>
-      </c>
-      <c r="L50" s="63">
-        <f t="shared" si="113"/>
-        <v>67.684947078671996</v>
-      </c>
-      <c r="M50" s="63">
-        <f t="shared" si="113"/>
-        <v>4.8537720000000011</v>
-      </c>
-      <c r="N50" s="63">
-        <f t="shared" si="113"/>
-        <v>1.853403096000001</v>
-      </c>
-      <c r="O50" s="63">
-        <f t="shared" si="113"/>
-        <v>-6.0011937906719943</v>
-      </c>
-      <c r="P50" s="63">
-        <f t="shared" si="113"/>
-        <v>-21.709931553307285</v>
-      </c>
-      <c r="Q50" s="63">
-        <f t="shared" si="113"/>
-        <v>-50.126669253251194</v>
-      </c>
-      <c r="R50" s="63">
-        <f t="shared" si="113"/>
-        <v>-99.104950851760421</v>
-      </c>
-      <c r="S50" s="63">
-        <f t="shared" si="113"/>
-        <v>-181.35181047814839</v>
-      </c>
-      <c r="T50" s="63">
-        <f t="shared" si="113"/>
-        <v>-317.42722935364407</v>
-      </c>
-      <c r="U50" s="63">
-        <f t="shared" si="113"/>
-        <v>-540.59725709419627</v>
-      </c>
-      <c r="V50" s="63">
-        <f t="shared" si="113"/>
-        <v>-904.68636197840954</v>
-      </c>
-      <c r="W50" s="63">
-        <f t="shared" si="113"/>
-        <v>-1496.7825336810672</v>
-      </c>
-      <c r="X50" s="63">
-        <f t="shared" si="113"/>
-        <v>-2457.7941394959662</v>
-      </c>
-      <c r="Y50" s="63"/>
-      <c r="Z50" s="63"/>
-      <c r="AA50" s="63"/>
-      <c r="AB50" s="63"/>
-      <c r="AC50" s="63"/>
-      <c r="AD50" s="63"/>
-      <c r="AE50" s="63"/>
-      <c r="AF50" s="63"/>
-      <c r="AG50" s="63"/>
-    </row>
-    <row r="51" spans="7:33" x14ac:dyDescent="0.25">
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="65">
-        <f>SUM($H34:$H34)</f>
-        <v>0.01</v>
-      </c>
-      <c r="J51" s="65">
-        <f>SUM($H34:$H35)</f>
-        <v>2.6180000000000002E-2</v>
-      </c>
-      <c r="K51" s="65">
-        <f>SUM($H34:$H36)</f>
-        <v>5.2359240000000001E-2</v>
-      </c>
-      <c r="L51" s="65">
-        <f>SUM($H34:$H37)</f>
-        <v>9.4717250320000002E-2</v>
-      </c>
-      <c r="M51" s="65">
-        <f>SUM($H34:$H38)</f>
-        <v>0.16325251101776</v>
-      </c>
-      <c r="N51" s="65">
-        <f>SUM($H34:$H39)</f>
-        <v>0.27414256282673571</v>
-      </c>
-      <c r="O51" s="65">
-        <f>SUM($H34:$H40)</f>
-        <v>0.45356266665365841</v>
-      </c>
-      <c r="P51" s="65">
-        <f>SUM($H34:$H41)</f>
-        <v>0.74386439464561938</v>
-      </c>
-      <c r="Q51" s="65">
-        <f>SUM($H34:$H42)</f>
-        <v>1.2135725905366122</v>
-      </c>
-      <c r="R51" s="65">
-        <f>SUM($H34:$H43)</f>
-        <v>1.9735604514882388</v>
-      </c>
-      <c r="S51" s="65">
-        <f>SUM($H34:$H44)</f>
-        <v>3.2032208105079705</v>
-      </c>
-      <c r="T51" s="65">
-        <f>SUM($H34:$H45)</f>
-        <v>5.1928112714018964</v>
-      </c>
-      <c r="U51" s="65">
-        <f>SUM($H34:$H46)</f>
-        <v>8.4119686371282683</v>
-      </c>
-      <c r="V51" s="65">
-        <f>SUM($H34:$H47)</f>
-        <v>13.62056525487354</v>
-      </c>
-      <c r="W51" s="65">
-        <f>SUM($H34:$H48)</f>
-        <v>22.048074582385389</v>
-      </c>
-      <c r="X51" s="65">
-        <f>SUM($H34:$H49)</f>
-        <v>35.683784674299567</v>
-      </c>
-      <c r="Y51" s="65"/>
-      <c r="Z51" s="65"/>
-      <c r="AA51" s="65"/>
-      <c r="AB51" s="65"/>
-      <c r="AC51" s="65"/>
-      <c r="AD51" s="65"/>
-      <c r="AE51" s="65"/>
-      <c r="AF51" s="65"/>
-      <c r="AG51" s="65"/>
+      <c r="H51" s="68">
+        <f>SUM(H35:H50)</f>
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="I51" s="63">
+        <f t="shared" ref="I51:X51" si="32">SUM(I35:I50)</f>
+        <v>10</v>
+      </c>
+      <c r="J51" s="63">
+        <f t="shared" si="32"/>
+        <v>85.399999999999991</v>
+      </c>
+      <c r="K51" s="63">
+        <f t="shared" si="32"/>
+        <v>70.799999999999983</v>
+      </c>
+      <c r="L51" s="63">
+        <f t="shared" si="32"/>
+        <v>17.999999999999943</v>
+      </c>
+      <c r="M51" s="63">
+        <f t="shared" si="32"/>
+        <v>-73.000000000000057</v>
+      </c>
+      <c r="N51" s="63">
+        <f t="shared" si="32"/>
+        <v>-202.20000000000005</v>
+      </c>
+      <c r="O51" s="63">
+        <f t="shared" si="32"/>
+        <v>-369.60000000000008</v>
+      </c>
+      <c r="P51" s="63">
+        <f t="shared" si="32"/>
+        <v>-575.19999999999993</v>
+      </c>
+      <c r="Q51" s="63">
+        <f t="shared" si="32"/>
+        <v>-819.00000000000034</v>
+      </c>
+      <c r="R51" s="63">
+        <f t="shared" si="32"/>
+        <v>-1100.9999999999998</v>
+      </c>
+      <c r="S51" s="63">
+        <f t="shared" si="32"/>
+        <v>-1421.1999999999998</v>
+      </c>
+      <c r="T51" s="63">
+        <f t="shared" si="32"/>
+        <v>-1779.6</v>
+      </c>
+      <c r="U51" s="63">
+        <f t="shared" si="32"/>
+        <v>-2176.1999999999998</v>
+      </c>
+      <c r="V51" s="63">
+        <f t="shared" si="32"/>
+        <v>-2611.0000000000005</v>
+      </c>
+      <c r="W51" s="63">
+        <f t="shared" si="32"/>
+        <v>-3083.9999999999991</v>
+      </c>
+      <c r="X51" s="63">
+        <f t="shared" si="32"/>
+        <v>-3595.2</v>
+      </c>
+    </row>
+    <row r="52" spans="7:24">
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="65">
+        <f>SUM($H35:$H35)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J52" s="65">
+        <f>SUM($H35:$H36)</f>
+        <v>0.2</v>
+      </c>
+      <c r="K52" s="65">
+        <f>SUM($H35:$H37)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="L52" s="65">
+        <f>SUM($H35:$H38)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M52" s="65">
+        <f>SUM($H35:$H39)</f>
+        <v>0.5</v>
+      </c>
+      <c r="N52" s="65">
+        <f>SUM($H35:$H40)</f>
+        <v>0.6</v>
+      </c>
+      <c r="O52" s="65">
+        <f>SUM($H35:$H41)</f>
+        <v>0.7</v>
+      </c>
+      <c r="P52" s="65">
+        <f>SUM($H35:$H42)</f>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="Q52" s="65">
+        <f>SUM($H35:$H43)</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="R52" s="65">
+        <f>SUM($H35:$H44)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="S52" s="65">
+        <f>SUM($H35:$H45)</f>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="T52" s="65">
+        <f>SUM($H35:$H46)</f>
+        <v>1.2</v>
+      </c>
+      <c r="U52" s="65">
+        <f>SUM($H35:$H47)</f>
+        <v>1.3</v>
+      </c>
+      <c r="V52" s="65">
+        <f>SUM($H35:$H48)</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="W52" s="65">
+        <f>SUM($H35:$H49)</f>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="X52" s="65">
+        <f>SUM($H35:$H50)</f>
+        <v>1.6000000000000003</v>
+      </c>
     </row>
   </sheetData>
   <protectedRanges>
@@ -5857,7 +5648,7 @@
   </protectedRanges>
   <mergeCells count="8">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:P3"/>
@@ -5866,82 +5657,82 @@
     <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
-  <conditionalFormatting sqref="I10 I33">
+  <conditionalFormatting sqref="I10 I34">
     <cfRule type="expression" dxfId="15" priority="49">
       <formula>$I$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10 J33">
+  <conditionalFormatting sqref="J10 J34">
     <cfRule type="expression" dxfId="14" priority="50">
       <formula>$J$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10 K33">
+  <conditionalFormatting sqref="K10 K34">
     <cfRule type="expression" dxfId="13" priority="51">
       <formula>$K$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10 L33">
+  <conditionalFormatting sqref="L10 L34">
     <cfRule type="expression" dxfId="12" priority="52">
       <formula>$L$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10 M33">
+  <conditionalFormatting sqref="M10 M34">
     <cfRule type="expression" dxfId="11" priority="53">
       <formula>$M$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N10 N33">
+  <conditionalFormatting sqref="N10 N34">
     <cfRule type="expression" dxfId="10" priority="54">
       <formula>$N$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10 O33">
+  <conditionalFormatting sqref="O10 O34">
     <cfRule type="expression" dxfId="9" priority="55">
       <formula>$O$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P10 P33">
+  <conditionalFormatting sqref="P10 P34">
     <cfRule type="expression" dxfId="8" priority="56">
       <formula>$P$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q10 Q33">
+  <conditionalFormatting sqref="Q10 Q34">
     <cfRule type="expression" dxfId="7" priority="57">
       <formula>$Q$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R10 R33">
+  <conditionalFormatting sqref="R10 R34">
     <cfRule type="expression" dxfId="6" priority="58">
       <formula>$R$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S10 S33">
+  <conditionalFormatting sqref="S10 S34">
     <cfRule type="expression" dxfId="5" priority="59">
       <formula>$S$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T10 T33">
+  <conditionalFormatting sqref="T10 T34">
     <cfRule type="expression" dxfId="4" priority="60">
       <formula>$T$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U10 U33">
+  <conditionalFormatting sqref="U10 U34">
     <cfRule type="expression" dxfId="3" priority="61">
       <formula>$U$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V10 V33">
+  <conditionalFormatting sqref="V10 V34">
     <cfRule type="expression" dxfId="2" priority="62">
       <formula>$V$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W10 W33">
+  <conditionalFormatting sqref="W10 W34">
     <cfRule type="expression" dxfId="1" priority="63">
       <formula>$W$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X10:AG10 X33:AG33">
+  <conditionalFormatting sqref="X10 X34">
     <cfRule type="expression" dxfId="0" priority="64">
       <formula>$X$10=$D$10</formula>
     </cfRule>
@@ -5952,16 +5743,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA98322F-0878-4665-AE70-EE3935159A4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AU56"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView topLeftCell="K149" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V224" sqref="V224"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="3" spans="2:47" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:47">
       <c r="B3" t="s">
         <v>76</v>
       </c>
@@ -5996,7 +5787,7 @@
         <v>107.7</v>
       </c>
     </row>
-    <row r="56" spans="2:38" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:38">
       <c r="B56" t="s">
         <v>86</v>
       </c>
@@ -6033,31 +5824,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="13"/>
+    <col min="1" max="1" width="9.109375" style="13"/>
     <col min="2" max="2" width="6" style="13" customWidth="1"/>
-    <col min="3" max="4" width="9.09765625" style="39"/>
-    <col min="5" max="5" width="15.3984375" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.09765625" style="39"/>
-    <col min="7" max="20" width="9.09765625" style="13"/>
-    <col min="21" max="21" width="10.3984375" style="13" customWidth="1"/>
-    <col min="22" max="16384" width="9.09765625" style="13"/>
+    <col min="3" max="4" width="9.109375" style="39"/>
+    <col min="5" max="5" width="15.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="39"/>
+    <col min="7" max="20" width="9.109375" style="13"/>
+    <col min="21" max="21" width="10.44140625" style="13" customWidth="1"/>
+    <col min="22" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B1" s="78" t="s">
+    <row r="1" spans="2:23">
+      <c r="B1" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="14" t="s">
         <v>55</v>
       </c>
@@ -6071,12 +5862,12 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B2" s="78" t="s">
+    <row r="2" spans="2:23">
+      <c r="B2" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="16" t="s">
         <v>15</v>
       </c>
@@ -6125,10 +5916,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
+    <row r="3" spans="2:23">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
       <c r="E3" s="19" t="s">
         <v>56</v>
       </c>
@@ -6191,12 +5982,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="80" t="s">
+    <row r="4" spans="2:23" ht="14.4" thickBot="1">
+      <c r="B4" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
@@ -6247,7 +6038,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:23" ht="15" thickBot="1">
       <c r="B5" s="50" t="s">
         <v>57</v>
       </c>
@@ -6312,7 +6103,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:23">
       <c r="B6" s="26" t="s">
         <v>35</v>
       </c>
@@ -6393,7 +6184,7 @@
       <c r="V6" s="32"/>
       <c r="W6" s="32"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:23">
       <c r="B7" s="26" t="s">
         <v>36</v>
       </c>
@@ -6473,7 +6264,7 @@
       <c r="V7" s="32"/>
       <c r="W7" s="32"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:23">
       <c r="B8" s="26" t="s">
         <v>37</v>
       </c>
@@ -6550,7 +6341,7 @@
       <c r="V8" s="32"/>
       <c r="W8" s="32"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:23">
       <c r="B9" s="26" t="s">
         <v>38</v>
       </c>
@@ -6624,7 +6415,7 @@
       <c r="V9" s="32"/>
       <c r="W9" s="32"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:23">
       <c r="B10" s="26" t="s">
         <v>39</v>
       </c>
@@ -6695,7 +6486,7 @@
       <c r="V10" s="32"/>
       <c r="W10" s="32"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:23">
       <c r="B11" s="26" t="s">
         <v>40</v>
       </c>
@@ -6763,7 +6554,7 @@
       <c r="V11" s="32"/>
       <c r="W11" s="32"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:23">
       <c r="B12" s="26" t="s">
         <v>41</v>
       </c>
@@ -6827,7 +6618,7 @@
       <c r="V12" s="32"/>
       <c r="W12" s="32"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:23">
       <c r="B13" s="26" t="s">
         <v>42</v>
       </c>
@@ -6889,7 +6680,7 @@
       <c r="V13" s="32"/>
       <c r="W13" s="32"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:23">
       <c r="B14" s="26" t="s">
         <v>43</v>
       </c>
@@ -6947,7 +6738,7 @@
       <c r="V14" s="32"/>
       <c r="W14" s="32"/>
     </row>
-    <row r="15" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:23" ht="14.1" customHeight="1">
       <c r="B15" s="26" t="s">
         <v>44</v>
       </c>
@@ -7002,7 +6793,7 @@
       <c r="V15" s="32"/>
       <c r="W15" s="32"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:23">
       <c r="B16" s="26" t="s">
         <v>45</v>
       </c>
@@ -7054,7 +6845,7 @@
       <c r="V16" s="32"/>
       <c r="W16" s="32"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:23">
       <c r="B17" s="26" t="s">
         <v>46</v>
       </c>
@@ -7103,7 +6894,7 @@
       <c r="V17" s="32"/>
       <c r="W17" s="32"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:23">
       <c r="B18" s="26" t="s">
         <v>47</v>
       </c>
@@ -7149,7 +6940,7 @@
       <c r="V18" s="32"/>
       <c r="W18" s="32"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:23">
       <c r="B19" s="26" t="s">
         <v>48</v>
       </c>
@@ -7192,7 +6983,7 @@
       <c r="V19" s="32"/>
       <c r="W19" s="32"/>
     </row>
-    <row r="20" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:23" ht="14.4" thickBot="1">
       <c r="B20" s="26" t="s">
         <v>49</v>
       </c>
@@ -7232,7 +7023,7 @@
       <c r="V20" s="32"/>
       <c r="W20" s="32"/>
     </row>
-    <row r="21" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:23" ht="14.4" thickBot="1">
       <c r="B21" s="26" t="s">
         <v>50</v>
       </c>
@@ -7302,7 +7093,7 @@
       <c r="V21" s="32"/>
       <c r="W21" s="32"/>
     </row>
-    <row r="22" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:23" ht="14.4" thickBot="1">
       <c r="B22" s="26" t="s">
         <v>61</v>
       </c>
@@ -7325,14 +7116,14 @@
       <c r="V22" s="32"/>
       <c r="W22" s="32"/>
     </row>
-    <row r="23" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:23" ht="14.4" thickBot="1">
       <c r="B23" s="26" t="s">
         <v>62</v>
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="32"/>
     </row>
-    <row r="24" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:23" ht="14.4" thickBot="1">
       <c r="B24" s="26" t="s">
         <v>63</v>
       </c>
@@ -7340,31 +7131,31 @@
         <f>SUM(F6:F20)</f>
         <v>36.629999999999995</v>
       </c>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="77"/>
-      <c r="T24" s="77"/>
-      <c r="U24" s="77"/>
-      <c r="V24" s="77"/>
-    </row>
-    <row r="25" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="86"/>
+    </row>
+    <row r="25" spans="2:23" ht="14.4" thickBot="1">
       <c r="B25" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:23" ht="14.4" thickBot="1">
       <c r="B26" s="26" t="s">
         <v>65</v>
       </c>
@@ -7387,35 +7178,35 @@
       <c r="V26" s="32"/>
       <c r="W26" s="32"/>
     </row>
-    <row r="27" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:23" ht="14.4" thickBot="1">
       <c r="B27" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F27" s="40"/>
     </row>
-    <row r="28" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:23" ht="14.4" thickBot="1">
       <c r="B28" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F28" s="40"/>
     </row>
-    <row r="29" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:23" ht="14.4" thickBot="1">
       <c r="B29" s="26" t="s">
         <v>68</v>
       </c>
       <c r="F29" s="40"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:23">
       <c r="B30" s="26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:23">
       <c r="B31" s="26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:23">
       <c r="B32" s="26" t="s">
         <v>71</v>
       </c>

--- a/bsc_scan_binance/src/main/resources/MQL5/XXX.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\ScanBinance\bsc_scan_binance\src\main\resources\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BFD479-90CA-4C30-BD8F-895B8B102ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83338E18-6260-4E92-B715-C50DB7C5194B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6072" yWindow="0" windowWidth="32100" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6072" yWindow="4620" windowWidth="32100" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Input L30" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="89">
   <si>
     <t>THÔNG TIN ĐẦU VÀO</t>
   </si>
@@ -366,19 +366,51 @@
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>L16</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>L17</t>
+  </si>
+  <si>
+    <t>L18</t>
+  </si>
+  <si>
+    <t>L19</t>
+  </si>
+  <si>
+    <t>L20</t>
+  </si>
+  <si>
+    <t>L21</t>
+  </si>
+  <si>
+    <t>L22</t>
+  </si>
+  <si>
+    <t>L23</t>
+  </si>
+  <si>
+    <t>L24</t>
+  </si>
+  <si>
+    <t>L25</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="0;\-0;;\ @"/>
     <numFmt numFmtId="180" formatCode="0.00;\-0.00;;\ @"/>
     <numFmt numFmtId="181" formatCode="#,##0.000"/>
-    <numFmt numFmtId="183" formatCode="#,##0.000_);\(#,##0.000\)"/>
+    <numFmt numFmtId="182" formatCode="#,##0.000_);\(#,##0.000\)"/>
+    <numFmt numFmtId="187" formatCode="#,##0_);\(#,##0\)"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -597,12 +629,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
@@ -688,8 +714,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="45">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -834,30 +866,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1281,18 +1289,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="179" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="180" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1304,34 +1312,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1360,35 +1368,29 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="19" fillId="5" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="19" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1401,30 +1403,171 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="19" fillId="18" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="19" fillId="17" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="18" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="15" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="11" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="17" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="18" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="18" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="15" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="17" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="19" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="19" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="19" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="19" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="19" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="16" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="18" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="18" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1437,167 +1580,29 @@
     <xf numFmtId="4" fontId="13" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="23" fillId="8" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="23" fillId="7" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="25" fillId="10" borderId="13" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="25" fillId="9" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="11" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="18" fillId="20" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="18" fillId="20" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="19" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="19" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="17" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="20" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="20" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="20" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="20" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="20" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="20" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="20" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="17" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="19" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="19" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2412,13 +2417,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>281286</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>157415</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2456,13 +2461,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>297360</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>170331</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2478,8 +2483,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="690282" y="14988988"/>
-          <a:ext cx="17590278" cy="5728449"/>
+          <a:off x="690282" y="15885459"/>
+          <a:ext cx="17590278" cy="5728448"/>
           <a:chOff x="690282" y="11842376"/>
           <a:chExt cx="17213760" cy="5728449"/>
         </a:xfrm>
@@ -2865,7 +2870,7 @@
   <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2880,75 +2885,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="A1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
     </row>
     <row r="2" spans="1:24" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="51">
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="114">
         <v>10</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="66" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66" t="s">
+      <c r="K2" s="111"/>
+      <c r="L2" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66" t="s">
+      <c r="M2" s="111"/>
+      <c r="N2" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
     </row>
     <row r="3" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="52">
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="48">
         <f>D2</f>
         <v>10</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
-      <c r="J3" s="63">
+      <c r="J3" s="108">
         <f>SUM('Bảng Input L30'!B13:B44)</f>
-        <v>0.16325251101776</v>
-      </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="64">
+        <v>22.048074582385389</v>
+      </c>
+      <c r="K3" s="108"/>
+      <c r="L3" s="109">
         <f>J3*91</f>
-        <v>14.855978502616161</v>
-      </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="65">
+        <v>2006.3747869970705</v>
+      </c>
+      <c r="M3" s="109"/>
+      <c r="N3" s="110">
         <f>L3+'Bảng Input L30'!C45</f>
-        <v>198.11246882261617</v>
-      </c>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
+        <v>37440.15242839737</v>
+      </c>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
       <c r="Q3" s="25"/>
       <c r="R3" s="25"/>
       <c r="S3" s="25"/>
@@ -2959,19 +2964,19 @@
       <c r="X3" s="25"/>
     </row>
     <row r="4" spans="1:24" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="52">
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="48">
         <f>D3</f>
         <v>10</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="112">
         <f>D9</f>
         <v>1.6180000000000001</v>
       </c>
@@ -2995,19 +3000,20 @@
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="1:24" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="52">
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="48">
         <f>D4</f>
         <v>10</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="113">
+        <f>D2</f>
         <v>10</v>
       </c>
       <c r="I5" s="2">
@@ -3029,302 +3035,303 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="56" t="s">
+    <row r="6" spans="1:24" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="52">
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="48">
         <f>D5</f>
         <v>10</v>
       </c>
       <c r="G6" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="35">
-        <v>20</v>
-      </c>
-      <c r="N6" s="48" t="s">
+      <c r="H6" s="113">
+        <f>H5*3</f>
+        <v>30</v>
+      </c>
+      <c r="N6" s="46" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="52">
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="48">
         <f>D6</f>
         <v>10</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="45">
+      <c r="I7" s="43">
         <v>2200</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="43">
         <f>I7-H$5</f>
         <v>2190</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="43">
         <f t="shared" ref="K7:X7" si="0">J7-$H$5</f>
         <v>2180</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="43">
         <f t="shared" si="0"/>
         <v>2170</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="43">
         <f t="shared" si="0"/>
         <v>2160</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N7" s="43">
         <f t="shared" si="0"/>
         <v>2150</v>
       </c>
-      <c r="O7" s="45">
+      <c r="O7" s="43">
         <f t="shared" si="0"/>
         <v>2140</v>
       </c>
-      <c r="P7" s="45">
+      <c r="P7" s="43">
         <f t="shared" si="0"/>
         <v>2130</v>
       </c>
-      <c r="Q7" s="45">
+      <c r="Q7" s="43">
         <f t="shared" si="0"/>
         <v>2120</v>
       </c>
-      <c r="R7" s="45">
+      <c r="R7" s="43">
         <f t="shared" si="0"/>
         <v>2110</v>
       </c>
-      <c r="S7" s="45">
+      <c r="S7" s="43">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="T7" s="45">
+      <c r="T7" s="43">
         <f t="shared" si="0"/>
         <v>2090</v>
       </c>
-      <c r="U7" s="45">
+      <c r="U7" s="43">
         <f t="shared" si="0"/>
         <v>2080</v>
       </c>
-      <c r="V7" s="45">
+      <c r="V7" s="43">
         <f t="shared" si="0"/>
         <v>2070</v>
       </c>
-      <c r="W7" s="45">
+      <c r="W7" s="43">
         <f t="shared" si="0"/>
         <v>2060</v>
       </c>
-      <c r="X7" s="45">
+      <c r="X7" s="43">
         <f t="shared" si="0"/>
         <v>2050</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="53">
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="49">
         <v>0.01</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="45">
-        <v>0</v>
-      </c>
-      <c r="J8" s="45">
+      <c r="I8" s="43">
+        <v>0</v>
+      </c>
+      <c r="J8" s="43">
         <f t="shared" ref="J8:X8" si="1">$I$7-J7</f>
         <v>10</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K8" s="43">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="43">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="43">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="N8" s="45">
+      <c r="N8" s="43">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="O8" s="45">
+      <c r="O8" s="43">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="P8" s="45">
+      <c r="P8" s="43">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="Q8" s="45">
+      <c r="Q8" s="43">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="R8" s="45">
+      <c r="R8" s="43">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S8" s="45">
+      <c r="S8" s="43">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="T8" s="45">
+      <c r="T8" s="43">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="U8" s="45">
+      <c r="U8" s="43">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="V8" s="45">
+      <c r="V8" s="43">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="W8" s="45">
+      <c r="W8" s="43">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="X8" s="45">
+      <c r="X8" s="43">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="54">
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="50">
         <v>1.6180000000000001</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="36" t="s">
+      <c r="N9" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="36" t="s">
+      <c r="O9" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="36" t="s">
+      <c r="P9" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="36" t="s">
+      <c r="Q9" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="36" t="s">
+      <c r="R9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="S9" s="36" t="s">
+      <c r="S9" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="T9" s="36" t="s">
+      <c r="T9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="U9" s="36" t="s">
+      <c r="U9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="V9" s="36" t="s">
+      <c r="V9" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="W9" s="36" t="s">
+      <c r="W9" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="X9" s="36" t="s">
+      <c r="X9" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="55">
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="115">
+        <v>15</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="34">
+        <v>1</v>
+      </c>
+      <c r="J10" s="34">
+        <v>2</v>
+      </c>
+      <c r="K10" s="34">
+        <v>3</v>
+      </c>
+      <c r="L10" s="34">
+        <v>4</v>
+      </c>
+      <c r="M10" s="34">
         <v>5</v>
       </c>
-      <c r="G10" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="36">
-        <v>1</v>
-      </c>
-      <c r="J10" s="36">
-        <v>2</v>
-      </c>
-      <c r="K10" s="36">
-        <v>3</v>
-      </c>
-      <c r="L10" s="36">
-        <v>4</v>
-      </c>
-      <c r="M10" s="36">
-        <v>5</v>
-      </c>
-      <c r="N10" s="36">
+      <c r="N10" s="34">
         <v>6</v>
       </c>
-      <c r="O10" s="36">
+      <c r="O10" s="34">
         <v>7</v>
       </c>
-      <c r="P10" s="36">
+      <c r="P10" s="34">
         <v>8</v>
       </c>
-      <c r="Q10" s="36">
+      <c r="Q10" s="34">
         <v>9</v>
       </c>
-      <c r="R10" s="36">
+      <c r="R10" s="34">
         <v>10</v>
       </c>
-      <c r="S10" s="36">
+      <c r="S10" s="34">
         <v>11</v>
       </c>
-      <c r="T10" s="36">
+      <c r="T10" s="34">
         <v>12</v>
       </c>
-      <c r="U10" s="36">
+      <c r="U10" s="34">
         <v>13</v>
       </c>
-      <c r="V10" s="36">
+      <c r="V10" s="34">
         <v>14</v>
       </c>
-      <c r="W10" s="36">
+      <c r="W10" s="34">
         <v>15</v>
       </c>
-      <c r="X10" s="36">
+      <c r="X10" s="34">
         <v>16</v>
       </c>
     </row>
@@ -3333,76 +3340,76 @@
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="G11" s="41">
+      <c r="G11" s="39">
         <v>1</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="40">
         <f>'Bảng Input L30'!B13</f>
         <v>0.01</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="36">
         <f>H11*H6*100</f>
+        <v>30</v>
+      </c>
+      <c r="J11" s="36">
+        <f>H11*100*(H6-H5)</f>
         <v>20</v>
       </c>
-      <c r="J11" s="38">
-        <f>H11*100*(H6-H5)</f>
+      <c r="K11" s="36">
+        <f t="shared" ref="K11:X11" si="2">$H$11*100*($H$6-$H$5*J10)</f>
         <v>10</v>
       </c>
-      <c r="K11" s="38">
-        <f t="shared" ref="K11:X11" si="2">$H$11*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="38">
+      <c r="L11" s="36">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="36">
+        <f>$H$11*100*($H$6-$H$5*L10)</f>
         <v>-10</v>
       </c>
-      <c r="M11" s="38">
-        <f>$H$11*100*($H$6-$H$5*L10)</f>
+      <c r="N11" s="36">
+        <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="N11" s="38">
+      <c r="O11" s="36">
         <f t="shared" si="2"/>
         <v>-30</v>
       </c>
-      <c r="O11" s="38">
+      <c r="P11" s="36">
         <f t="shared" si="2"/>
         <v>-40</v>
       </c>
-      <c r="P11" s="38">
+      <c r="Q11" s="36">
         <f t="shared" si="2"/>
         <v>-50</v>
       </c>
-      <c r="Q11" s="38">
+      <c r="R11" s="36">
         <f t="shared" si="2"/>
         <v>-60</v>
       </c>
-      <c r="R11" s="38">
+      <c r="S11" s="36">
         <f t="shared" si="2"/>
         <v>-70</v>
       </c>
-      <c r="S11" s="38">
+      <c r="T11" s="36">
         <f t="shared" si="2"/>
         <v>-80</v>
       </c>
-      <c r="T11" s="38">
+      <c r="U11" s="36">
         <f t="shared" si="2"/>
         <v>-90</v>
       </c>
-      <c r="U11" s="38">
+      <c r="V11" s="36">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-      <c r="V11" s="38">
+      <c r="W11" s="36">
         <f t="shared" si="2"/>
         <v>-110</v>
       </c>
-      <c r="W11" s="38">
+      <c r="X11" s="36">
         <f t="shared" si="2"/>
         <v>-120</v>
-      </c>
-      <c r="X11" s="38">
-        <f t="shared" si="2"/>
-        <v>-130</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3418,73 +3425,73 @@
       <c r="D12" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="39">
         <v>2</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="35">
         <f t="shared" ref="H12:H26" si="3">H11*$H$4</f>
         <v>1.618E-2</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="38">
+      <c r="J12" s="36">
         <f>H12*100*H6</f>
+        <v>48.54</v>
+      </c>
+      <c r="K12" s="36">
+        <f>H12*100*(H6-H5)</f>
         <v>32.36</v>
       </c>
-      <c r="K12" s="38">
-        <f>H12*100*(H6-H5)</f>
+      <c r="L12" s="36">
+        <f t="shared" ref="L12:X12" si="4">$H$12*100*($H$6-$H$5*J10)</f>
         <v>16.18</v>
       </c>
-      <c r="L12" s="38">
-        <f t="shared" ref="L12:X12" si="4">$H$12*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="38">
+      <c r="M12" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="36">
         <f t="shared" si="4"/>
         <v>-16.18</v>
       </c>
-      <c r="N12" s="38">
+      <c r="O12" s="36">
         <f t="shared" si="4"/>
         <v>-32.36</v>
       </c>
-      <c r="O12" s="38">
+      <c r="P12" s="36">
         <f t="shared" si="4"/>
         <v>-48.54</v>
       </c>
-      <c r="P12" s="38">
+      <c r="Q12" s="36">
         <f t="shared" si="4"/>
         <v>-64.72</v>
       </c>
-      <c r="Q12" s="38">
+      <c r="R12" s="36">
         <f t="shared" si="4"/>
         <v>-80.899999999999991</v>
       </c>
-      <c r="R12" s="38">
+      <c r="S12" s="36">
         <f t="shared" si="4"/>
         <v>-97.08</v>
       </c>
-      <c r="S12" s="38">
+      <c r="T12" s="36">
         <f t="shared" si="4"/>
         <v>-113.25999999999999</v>
       </c>
-      <c r="T12" s="38">
+      <c r="U12" s="36">
         <f t="shared" si="4"/>
         <v>-129.44</v>
       </c>
-      <c r="U12" s="38">
+      <c r="V12" s="36">
         <f t="shared" si="4"/>
         <v>-145.61999999999998</v>
       </c>
-      <c r="V12" s="38">
+      <c r="W12" s="36">
         <f t="shared" si="4"/>
         <v>-161.79999999999998</v>
       </c>
-      <c r="W12" s="38">
+      <c r="X12" s="36">
         <f t="shared" si="4"/>
         <v>-177.98</v>
-      </c>
-      <c r="X12" s="38">
-        <f t="shared" si="4"/>
-        <v>-194.16</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
@@ -3498,76 +3505,76 @@
       </c>
       <c r="C13" s="9">
         <f>+B13*D13*100</f>
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D13" s="9">
         <f>IF(A13=0,0,$D$2+$D$3+$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>40</v>
-      </c>
-      <c r="G13" s="41">
+        <v>140</v>
+      </c>
+      <c r="G13" s="39">
         <v>3</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="35">
         <f t="shared" si="3"/>
         <v>2.6179240000000003E-2</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="38">
+      <c r="K13" s="36">
         <f>H13*100*H6</f>
+        <v>78.537720000000007</v>
+      </c>
+      <c r="L13" s="36">
+        <f>H13*100*(H6-H5)</f>
         <v>52.358480000000007</v>
       </c>
-      <c r="L13" s="38">
-        <f>H13*100*(H6-H5)</f>
+      <c r="M13" s="36">
+        <f t="shared" ref="M13:X13" si="5">$H$13*100*($H$6-$H$5*J10)</f>
         <v>26.179240000000004</v>
       </c>
-      <c r="M13" s="38">
-        <f t="shared" ref="M13:X13" si="5">$H$13*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="38">
+      <c r="N13" s="36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="36">
         <f t="shared" si="5"/>
         <v>-26.179240000000004</v>
       </c>
-      <c r="O13" s="38">
+      <c r="P13" s="36">
         <f t="shared" si="5"/>
         <v>-52.358480000000007</v>
       </c>
-      <c r="P13" s="38">
+      <c r="Q13" s="36">
         <f t="shared" si="5"/>
         <v>-78.537720000000007</v>
       </c>
-      <c r="Q13" s="38">
+      <c r="R13" s="36">
         <f t="shared" si="5"/>
         <v>-104.71696000000001</v>
       </c>
-      <c r="R13" s="38">
+      <c r="S13" s="36">
         <f t="shared" si="5"/>
         <v>-130.89620000000002</v>
       </c>
-      <c r="S13" s="38">
+      <c r="T13" s="36">
         <f t="shared" si="5"/>
         <v>-157.07544000000001</v>
       </c>
-      <c r="T13" s="38">
+      <c r="U13" s="36">
         <f t="shared" si="5"/>
         <v>-183.25468000000004</v>
       </c>
-      <c r="U13" s="38">
+      <c r="V13" s="36">
         <f t="shared" si="5"/>
         <v>-209.43392000000003</v>
       </c>
-      <c r="V13" s="38">
+      <c r="W13" s="36">
         <f t="shared" si="5"/>
         <v>-235.61316000000002</v>
       </c>
-      <c r="W13" s="38">
+      <c r="X13" s="36">
         <f t="shared" si="5"/>
         <v>-261.79240000000004</v>
-      </c>
-      <c r="X13" s="38">
-        <f t="shared" si="5"/>
-        <v>-287.97164000000004</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
@@ -3581,73 +3588,73 @@
       </c>
       <c r="C14" s="9">
         <f t="shared" ref="C14:C44" si="8">+B14*D14*100</f>
-        <v>48.54</v>
+        <v>210.34</v>
       </c>
       <c r="D14" s="9">
         <f>IF(A14=0,0,$D$3+$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>30</v>
-      </c>
-      <c r="G14" s="41">
+        <v>130</v>
+      </c>
+      <c r="G14" s="39">
         <v>4</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="35">
         <f t="shared" si="3"/>
         <v>4.2358010320000007E-2</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="38">
+      <c r="L14" s="36">
         <f>H14*100*H6</f>
+        <v>127.07403096000002</v>
+      </c>
+      <c r="M14" s="36">
+        <f>H14*100*(H6-H5)</f>
         <v>84.716020640000011</v>
       </c>
-      <c r="M14" s="38">
-        <f>H14*100*(H6-H5)</f>
+      <c r="N14" s="36">
+        <f t="shared" ref="N14:X14" si="9">$H$14*100*($H$6-$H$5*J10)</f>
         <v>42.358010320000005</v>
       </c>
-      <c r="N14" s="38">
-        <f t="shared" ref="N14:X14" si="9">$H$14*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="38">
+      <c r="O14" s="36">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="36">
         <f t="shared" si="9"/>
         <v>-42.358010320000005</v>
       </c>
-      <c r="P14" s="38">
+      <c r="Q14" s="36">
         <f t="shared" si="9"/>
         <v>-84.716020640000011</v>
       </c>
-      <c r="Q14" s="38">
+      <c r="R14" s="36">
         <f t="shared" si="9"/>
         <v>-127.07403096000002</v>
       </c>
-      <c r="R14" s="38">
+      <c r="S14" s="36">
         <f t="shared" si="9"/>
         <v>-169.43204128000002</v>
       </c>
-      <c r="S14" s="38">
+      <c r="T14" s="36">
         <f t="shared" si="9"/>
         <v>-211.79005160000003</v>
       </c>
-      <c r="T14" s="38">
+      <c r="U14" s="36">
         <f t="shared" si="9"/>
         <v>-254.14806192000003</v>
       </c>
-      <c r="U14" s="38">
+      <c r="V14" s="36">
         <f t="shared" si="9"/>
         <v>-296.50607224000004</v>
       </c>
-      <c r="V14" s="38">
+      <c r="W14" s="36">
         <f t="shared" si="9"/>
         <v>-338.86408256000004</v>
       </c>
-      <c r="W14" s="38">
+      <c r="X14" s="36">
         <f t="shared" si="9"/>
         <v>-381.22209288000005</v>
-      </c>
-      <c r="X14" s="38">
-        <f t="shared" si="9"/>
-        <v>-423.58010320000005</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
@@ -3661,16 +3668,16 @@
       </c>
       <c r="C15" s="9">
         <f t="shared" si="8"/>
-        <v>52.358480000000007</v>
+        <v>314.15088000000003</v>
       </c>
       <c r="D15" s="9">
         <f>IF(A15=0,0,$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>20</v>
-      </c>
-      <c r="G15" s="41">
+        <v>120</v>
+      </c>
+      <c r="G15" s="39">
         <v>5</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="35">
         <f t="shared" si="3"/>
         <v>6.8535260697760017E-2</v>
       </c>
@@ -3678,53 +3685,53 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="38">
+      <c r="M15" s="36">
         <f>H15*H6*100</f>
+        <v>205.60578209328006</v>
+      </c>
+      <c r="N15" s="36">
+        <f>H15*100*(H6-H5)</f>
         <v>137.07052139552002</v>
       </c>
-      <c r="N15" s="38">
-        <f>H15*100*(H6-H5)</f>
+      <c r="O15" s="36">
+        <f t="shared" ref="O15:X15" si="10">$H$15*100*($H$6-$H$5*J10)</f>
         <v>68.535260697760009</v>
       </c>
-      <c r="O15" s="38">
-        <f t="shared" ref="O15:X15" si="10">$H$15*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="38">
+      <c r="P15" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="36">
         <f t="shared" si="10"/>
         <v>-68.535260697760009</v>
       </c>
-      <c r="Q15" s="38">
+      <c r="R15" s="36">
         <f t="shared" si="10"/>
         <v>-137.07052139552002</v>
       </c>
-      <c r="R15" s="38">
+      <c r="S15" s="36">
         <f t="shared" si="10"/>
         <v>-205.60578209328006</v>
       </c>
-      <c r="S15" s="38">
+      <c r="T15" s="36">
         <f t="shared" si="10"/>
         <v>-274.14104279104004</v>
       </c>
-      <c r="T15" s="38">
+      <c r="U15" s="36">
         <f t="shared" si="10"/>
         <v>-342.67630348880004</v>
       </c>
-      <c r="U15" s="38">
+      <c r="V15" s="36">
         <f t="shared" si="10"/>
         <v>-411.21156418656011</v>
       </c>
-      <c r="V15" s="38">
+      <c r="W15" s="36">
         <f t="shared" si="10"/>
         <v>-479.74682488432012</v>
       </c>
-      <c r="W15" s="38">
+      <c r="X15" s="36">
         <f t="shared" si="10"/>
         <v>-548.28208558208007</v>
-      </c>
-      <c r="X15" s="38">
-        <f t="shared" si="10"/>
-        <v>-616.81734627984008</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
@@ -3738,16 +3745,16 @@
       </c>
       <c r="C16" s="9">
         <f t="shared" si="8"/>
-        <v>42.358010320000005</v>
+        <v>465.93811352000012</v>
       </c>
       <c r="D16" s="9">
         <f>IF(A16=0,0,$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>10</v>
-      </c>
-      <c r="G16" s="41">
+        <v>110</v>
+      </c>
+      <c r="G16" s="39">
         <v>6</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="35">
         <f t="shared" si="3"/>
         <v>0.11089005180897571</v>
       </c>
@@ -3756,49 +3763,49 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="38">
+      <c r="N16" s="36">
         <f>H16*H6*100</f>
+        <v>332.67015542692712</v>
+      </c>
+      <c r="O16" s="36">
+        <f>H16*100*(H6-H5)</f>
         <v>221.78010361795143</v>
       </c>
-      <c r="O16" s="38">
-        <f>H16*100*(H6-H5)</f>
+      <c r="P16" s="36">
+        <f t="shared" ref="P16:X16" si="11">$H$16*100*($H$6-$H$5*J10)</f>
         <v>110.89005180897571</v>
       </c>
-      <c r="P16" s="38">
-        <f t="shared" ref="P16:X16" si="11">$H$16*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="38">
+      <c r="Q16" s="36">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="36">
         <f t="shared" si="11"/>
         <v>-110.89005180897571</v>
       </c>
-      <c r="R16" s="38">
+      <c r="S16" s="36">
         <f t="shared" si="11"/>
         <v>-221.78010361795143</v>
       </c>
-      <c r="S16" s="38">
+      <c r="T16" s="36">
         <f t="shared" si="11"/>
         <v>-332.67015542692712</v>
       </c>
-      <c r="T16" s="38">
+      <c r="U16" s="36">
         <f t="shared" si="11"/>
         <v>-443.56020723590285</v>
       </c>
-      <c r="U16" s="38">
+      <c r="V16" s="36">
         <f t="shared" si="11"/>
         <v>-554.45025904487852</v>
       </c>
-      <c r="V16" s="38">
+      <c r="W16" s="36">
         <f t="shared" si="11"/>
         <v>-665.34031085385425</v>
       </c>
-      <c r="W16" s="38">
+      <c r="X16" s="36">
         <f t="shared" si="11"/>
         <v>-776.23036266282998</v>
-      </c>
-      <c r="X16" s="38">
-        <f t="shared" si="11"/>
-        <v>-887.1204144718057</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
@@ -3812,16 +3819,16 @@
       </c>
       <c r="C17" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>685.35260697760009</v>
       </c>
       <c r="D17" s="9">
         <f>IF(A17=0,0,$D$6+($D$7*($D$10-6)))</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="41">
+        <v>100</v>
+      </c>
+      <c r="G17" s="39">
         <v>7</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="35">
         <f t="shared" si="3"/>
         <v>0.17942010382692272</v>
       </c>
@@ -3831,68 +3838,68 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="38">
+      <c r="O17" s="36">
         <f>H6*H17*100</f>
-        <v>358.84020765384548</v>
-      </c>
-      <c r="P17" s="38">
+        <v>538.26031148076822</v>
+      </c>
+      <c r="P17" s="36">
         <f>H17*100*(H6-H5)</f>
+        <v>358.84020765384543</v>
+      </c>
+      <c r="Q17" s="36">
+        <f t="shared" ref="Q17:X17" si="12">$H$17*100*($H$6-$H$5*J10)</f>
         <v>179.42010382692271</v>
       </c>
-      <c r="Q17" s="38">
-        <f t="shared" ref="Q17:X17" si="12">$H$17*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="38">
+      <c r="R17" s="36">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="36">
         <f t="shared" si="12"/>
         <v>-179.42010382692271</v>
       </c>
-      <c r="S17" s="38">
+      <c r="T17" s="36">
         <f t="shared" si="12"/>
         <v>-358.84020765384543</v>
       </c>
-      <c r="T17" s="38">
+      <c r="U17" s="36">
         <f t="shared" si="12"/>
         <v>-538.26031148076811</v>
       </c>
-      <c r="U17" s="38">
+      <c r="V17" s="36">
         <f t="shared" si="12"/>
         <v>-717.68041530769085</v>
       </c>
-      <c r="V17" s="38">
+      <c r="W17" s="36">
         <f t="shared" si="12"/>
         <v>-897.10051913461348</v>
       </c>
-      <c r="W17" s="38">
+      <c r="X17" s="36">
         <f t="shared" si="12"/>
         <v>-1076.5206229615362</v>
       </c>
-      <c r="X17" s="38">
-        <f t="shared" si="12"/>
-        <v>-1255.940726788459</v>
-      </c>
     </row>
     <row r="18" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="29">
+      <c r="A18" s="29" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>L6</v>
       </c>
       <c r="B18" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.11089005180897571</v>
       </c>
       <c r="C18" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>998.01046628078143</v>
       </c>
       <c r="D18" s="9">
         <f>IF(A18=0,0,($D$7*($D$10-6)))</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="41">
+        <v>90</v>
+      </c>
+      <c r="G18" s="39">
         <v>8</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="35">
         <f t="shared" si="3"/>
         <v>0.29030172799196097</v>
       </c>
@@ -3903,64 +3910,64 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="38">
+      <c r="P18" s="36">
         <f>H6*H18*100</f>
-        <v>580.60345598392189</v>
-      </c>
-      <c r="Q18" s="38">
+        <v>870.90518397588289</v>
+      </c>
+      <c r="Q18" s="36">
         <f>H18*100*(H6-H5)</f>
+        <v>580.603455983922</v>
+      </c>
+      <c r="R18" s="36">
+        <f t="shared" ref="R18:X18" si="13">$H$18*100*($H$6-$H$5*J10)</f>
         <v>290.301727991961</v>
       </c>
-      <c r="R18" s="38">
-        <f t="shared" ref="R18:X18" si="13">$H$18*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="38">
+      <c r="S18" s="36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="36">
         <f t="shared" si="13"/>
         <v>-290.301727991961</v>
       </c>
-      <c r="T18" s="38">
+      <c r="U18" s="36">
         <f t="shared" si="13"/>
         <v>-580.603455983922</v>
       </c>
-      <c r="U18" s="38">
+      <c r="V18" s="36">
         <f t="shared" si="13"/>
         <v>-870.90518397588289</v>
       </c>
-      <c r="V18" s="38">
+      <c r="W18" s="36">
         <f t="shared" si="13"/>
         <v>-1161.206911967844</v>
       </c>
-      <c r="W18" s="38">
+      <c r="X18" s="36">
         <f t="shared" si="13"/>
         <v>-1451.5086399598049</v>
       </c>
-      <c r="X18" s="38">
-        <f t="shared" si="13"/>
-        <v>-1741.8103679517658</v>
-      </c>
     </row>
     <row r="19" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="29">
+      <c r="A19" s="29" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>L7</v>
       </c>
       <c r="B19" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.17942010382692272</v>
       </c>
       <c r="C19" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1435.3608306153819</v>
       </c>
       <c r="D19" s="9">
         <f>IF(A19=0,0,($D$7*($D$10-7)))</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="41">
+        <v>80</v>
+      </c>
+      <c r="G19" s="39">
         <v>9</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="35">
         <f t="shared" si="3"/>
         <v>0.46970819589099289</v>
       </c>
@@ -3972,60 +3979,60 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="38">
+      <c r="Q19" s="36">
         <f>H6*H19*100</f>
-        <v>939.41639178198579</v>
-      </c>
-      <c r="R19" s="38">
+        <v>1409.1245876729786</v>
+      </c>
+      <c r="R19" s="36">
         <f>H19*100*(H6-H5)</f>
+        <v>939.41639178198568</v>
+      </c>
+      <c r="S19" s="36">
+        <f t="shared" ref="S19:X19" si="14">$H$19*100*($H$6-$H$5*J10)</f>
         <v>469.70819589099284</v>
       </c>
-      <c r="S19" s="38">
-        <f t="shared" ref="S19:X19" si="14">$H$19*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="38">
+      <c r="T19" s="36">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="36">
         <f t="shared" si="14"/>
         <v>-469.70819589099284</v>
       </c>
-      <c r="U19" s="38">
+      <c r="V19" s="36">
         <f t="shared" si="14"/>
         <v>-939.41639178198568</v>
       </c>
-      <c r="V19" s="38">
+      <c r="W19" s="36">
         <f t="shared" si="14"/>
         <v>-1409.1245876729786</v>
       </c>
-      <c r="W19" s="38">
+      <c r="X19" s="36">
         <f t="shared" si="14"/>
         <v>-1878.8327835639714</v>
       </c>
-      <c r="X19" s="38">
-        <f t="shared" si="14"/>
-        <v>-2348.5409794549641</v>
-      </c>
     </row>
     <row r="20" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="29">
+      <c r="A20" s="29" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>L8</v>
       </c>
       <c r="B20" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.29030172799196097</v>
       </c>
       <c r="C20" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2032.1120959437267</v>
       </c>
       <c r="D20" s="9">
         <f>IF(A20=0,0,($D$7*($D$10-8)))</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="41">
+        <v>70</v>
+      </c>
+      <c r="G20" s="39">
         <v>10</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="35">
         <f t="shared" si="3"/>
         <v>0.75998786095162651</v>
       </c>
@@ -4038,56 +4045,56 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="38">
+      <c r="R20" s="36">
         <f>H6*H20*100</f>
+        <v>2279.9635828548794</v>
+      </c>
+      <c r="S20" s="36">
+        <f>H20*100*(H6-H5)</f>
         <v>1519.9757219032531</v>
       </c>
-      <c r="S20" s="38">
-        <f>H20*100*(H6-H5)</f>
+      <c r="T20" s="36">
+        <f>$H$20*100*($H$6-$H$5*J10)</f>
         <v>759.98786095162654</v>
       </c>
-      <c r="T20" s="38">
-        <f>$H$20*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="38">
+      <c r="U20" s="36">
         <f>$H$20*100*($H$6-$H$5*K10)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="36">
+        <f>$H$20*100*($H$6-$H$5*L10)</f>
         <v>-759.98786095162654</v>
       </c>
-      <c r="V20" s="38">
-        <f>$H$20*100*($H$6-$H$5*L10)</f>
+      <c r="W20" s="36">
+        <f>$H$20*100*($H$6-$H$5*M10)</f>
         <v>-1519.9757219032531</v>
       </c>
-      <c r="W20" s="38">
-        <f>$H$20*100*($H$6-$H$5*M10)</f>
+      <c r="X20" s="36">
+        <f>$H$20*100*($H$6-$H$5*N10)</f>
         <v>-2279.9635828548799</v>
       </c>
-      <c r="X20" s="38">
-        <f>$H$20*100*($H$6-$H$5*N10)</f>
-        <v>-3039.9514438065062</v>
-      </c>
     </row>
     <row r="21" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="29">
+      <c r="A21" s="29" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>L9</v>
       </c>
       <c r="B21" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.46970819589099289</v>
       </c>
       <c r="C21" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2818.2491753459572</v>
       </c>
       <c r="D21" s="9">
         <f>IF(A21=0,0,($D$7*($D$10-9)))</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="41">
+        <v>60</v>
+      </c>
+      <c r="G21" s="39">
         <v>11</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="35">
         <f t="shared" si="3"/>
         <v>1.2296603590197317</v>
       </c>
@@ -4101,52 +4108,52 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-      <c r="S21" s="39">
+      <c r="S21" s="37">
         <f>H6*H21*100</f>
+        <v>3688.9810770591948</v>
+      </c>
+      <c r="T21" s="37">
+        <f>H21*100*(H6-H5)</f>
         <v>2459.3207180394634</v>
       </c>
-      <c r="T21" s="39">
-        <f>H21*100*(H6-H5)</f>
+      <c r="U21" s="37">
+        <f>$H$21*100*($H$6-$H$5*J10)</f>
         <v>1229.6603590197317</v>
       </c>
-      <c r="U21" s="39">
-        <f>$H$21*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="39">
+      <c r="V21" s="37">
         <f>$H$21*100*($H$6-$H$5*K10)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="37">
+        <f>$H$21*100*($H$6-$H$5*L10)</f>
         <v>-1229.6603590197317</v>
       </c>
-      <c r="W21" s="39">
-        <f>$H$21*100*($H$6-$H$5*L10)</f>
+      <c r="X21" s="37">
+        <f>$H$21*100*($H$6-$H$5*M10)</f>
         <v>-2459.3207180394634</v>
       </c>
-      <c r="X21" s="39">
-        <f>$H$21*100*($H$6-$H$5*M10)</f>
-        <v>-3688.9810770591953</v>
-      </c>
     </row>
     <row r="22" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="29">
+      <c r="A22" s="29" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>L10</v>
       </c>
       <c r="B22" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.75998786095162651</v>
       </c>
       <c r="C22" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3799.9393047581329</v>
       </c>
       <c r="D22" s="9">
         <f>IF(A22=0,0,($D$7*($D$10-10)))</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="41">
+        <v>50</v>
+      </c>
+      <c r="G22" s="39">
         <v>12</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="35">
         <f t="shared" si="3"/>
         <v>1.9895904608939261</v>
       </c>
@@ -4160,49 +4167,49 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39">
+      <c r="S22" s="37"/>
+      <c r="T22" s="37">
         <f>H6*H22*100</f>
+        <v>5968.7713826817781</v>
+      </c>
+      <c r="U22" s="37">
+        <f>H22*100*(H6-H5)</f>
         <v>3979.1809217878522</v>
       </c>
-      <c r="U22" s="39">
-        <f>H22*100*(H6-H5)</f>
+      <c r="V22" s="37">
+        <f>$H$22*100*($H$6-$H$5*J10)</f>
         <v>1989.5904608939261</v>
       </c>
-      <c r="V22" s="39">
-        <f>$H$22*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="39">
+      <c r="W22" s="37">
         <f>$H$22*100*($H$6-$H$5*K10)</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="37">
+        <f>$H$22*100*($H$6-$H$5*L10)</f>
         <v>-1989.5904608939261</v>
       </c>
-      <c r="X22" s="39">
-        <f>$H$22*100*($H$6-$H$5*L10)</f>
-        <v>-3979.1809217878522</v>
-      </c>
     </row>
     <row r="23" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="29">
+      <c r="A23" s="29" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>L11</v>
       </c>
       <c r="B23" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.2296603590197317</v>
       </c>
       <c r="C23" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4918.6414360789267</v>
       </c>
       <c r="D23" s="9">
         <f>IF(A23=0,0,($D$7*($D$10-11)))</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="41">
+        <v>40</v>
+      </c>
+      <c r="G23" s="39">
         <v>13</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="35">
         <f t="shared" si="3"/>
         <v>3.2191573657263728</v>
       </c>
@@ -4216,46 +4223,46 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39">
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37">
         <f>H6*H23*100</f>
+        <v>9657.4720971791176</v>
+      </c>
+      <c r="V23" s="37">
+        <f>H23*100*(H6-H5)</f>
         <v>6438.3147314527459</v>
       </c>
-      <c r="V23" s="39">
-        <f>H23*100*(H6-H5)</f>
+      <c r="W23" s="37">
+        <f>$H$23*100*($H$6-$H$5*J10)</f>
         <v>3219.157365726373</v>
       </c>
-      <c r="W23" s="39">
-        <f>$H$23*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
-      <c r="X23" s="39">
+      <c r="X23" s="37">
         <f>$H$23*100*($H$6-$H$5*K10)</f>
-        <v>-3219.157365726373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="29">
+      <c r="A24" s="29" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>L12</v>
       </c>
       <c r="B24" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.9895904608939261</v>
       </c>
       <c r="C24" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5968.7713826817781</v>
       </c>
       <c r="D24" s="9">
         <f>IF(A24=0,0,($D$7*($D$10-12)))</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="41">
+        <v>30</v>
+      </c>
+      <c r="G24" s="39">
         <v>14</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="35">
         <f t="shared" si="3"/>
         <v>5.2085966177452718</v>
       </c>
@@ -4269,43 +4276,43 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39">
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37">
         <f>H6*H24*100</f>
+        <v>15625.789853235816</v>
+      </c>
+      <c r="W24" s="37">
+        <f>H24*100*(H6-H5)</f>
         <v>10417.193235490544</v>
       </c>
-      <c r="W24" s="39">
-        <f>H24*100*(H6-H5)</f>
+      <c r="X24" s="37">
+        <f>$H$24*100*($H$6-$H$5*J10)</f>
         <v>5208.5966177452719</v>
       </c>
-      <c r="X24" s="39">
-        <f>$H$24*100*($H$6-$H$5*J10)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="25" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="29">
+      <c r="A25" s="29" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>L13</v>
       </c>
       <c r="B25" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.2191573657263728</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6438.3147314527459</v>
       </c>
       <c r="D25" s="9">
         <f>IF(A25=0,0,($D$7*($D$10-13)))</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="41">
+        <v>20</v>
+      </c>
+      <c r="G25" s="39">
         <v>15</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="35">
         <f t="shared" si="3"/>
         <v>8.4275093275118511</v>
       </c>
@@ -4319,40 +4326,40 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39">
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37">
         <f>H6*H25*100</f>
-        <v>16855.018655023701</v>
-      </c>
-      <c r="X25" s="39">
+        <v>25282.527982535554</v>
+      </c>
+      <c r="X25" s="37">
         <f>H24*100*(H6-H5)</f>
-        <v>5208.5966177452719</v>
+        <v>10417.193235490544</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="29">
+      <c r="A26" s="29" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>L14</v>
       </c>
       <c r="B26" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5.2085966177452718</v>
       </c>
       <c r="C26" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5208.5966177452719</v>
       </c>
       <c r="D26" s="9">
         <f>IF(A26=0,0,($D$7*($D$10-14)))</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="41">
+        <v>10</v>
+      </c>
+      <c r="G26" s="39">
         <v>16</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="35">
         <f t="shared" si="3"/>
         <v>13.635710091914175</v>
       </c>
@@ -4366,24 +4373,24 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39">
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37">
         <f>H26*H6*100</f>
-        <v>27271.420183828348</v>
+        <v>40907.130275742529</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="29">
+      <c r="A27" s="29" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>L15</v>
       </c>
       <c r="B27" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.4275093275118511</v>
       </c>
       <c r="C27" s="9">
         <f t="shared" si="8"/>
@@ -4393,76 +4400,76 @@
         <f>IF(A27=0,0,($D$7*($D$10-15)))</f>
         <v>0</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="49">
+      <c r="H27" s="47">
         <f>SUM(H11:H26)</f>
         <v>35.683784674299567</v>
       </c>
-      <c r="I27" s="44">
+      <c r="I27" s="42">
         <f t="shared" ref="I27:X27" si="15">SUM(I11:I26)</f>
-        <v>20</v>
-      </c>
-      <c r="J27" s="44">
+        <v>30</v>
+      </c>
+      <c r="J27" s="42">
         <f t="shared" si="15"/>
-        <v>42.36</v>
-      </c>
-      <c r="K27" s="44">
+        <v>68.539999999999992</v>
+      </c>
+      <c r="K27" s="42">
         <f t="shared" si="15"/>
-        <v>68.538480000000007</v>
-      </c>
-      <c r="L27" s="44">
+        <v>120.89772000000001</v>
+      </c>
+      <c r="L27" s="42">
         <f t="shared" si="15"/>
-        <v>100.89526064000002</v>
-      </c>
-      <c r="M27" s="44">
+        <v>195.61251096000001</v>
+      </c>
+      <c r="M27" s="42">
         <f t="shared" si="15"/>
-        <v>143.24853171552002</v>
-      </c>
-      <c r="N27" s="44">
+        <v>306.50104273328009</v>
+      </c>
+      <c r="N27" s="42">
         <f t="shared" si="15"/>
-        <v>201.77612431571143</v>
-      </c>
-      <c r="O27" s="44">
+        <v>475.91868714244714</v>
+      </c>
+      <c r="O27" s="42">
         <f t="shared" si="15"/>
-        <v>286.4737691428212</v>
-      </c>
-      <c r="P27" s="44">
+        <v>740.03643579647962</v>
+      </c>
+      <c r="P27" s="42">
         <f t="shared" si="15"/>
-        <v>413.51455847308455</v>
-      </c>
-      <c r="Q27" s="44">
+        <v>1157.378953118704</v>
+      </c>
+      <c r="Q27" s="42">
         <f t="shared" si="15"/>
-        <v>609.06655560945103</v>
-      </c>
-      <c r="R27" s="44">
+        <v>1822.6391461460632</v>
+      </c>
+      <c r="R27" s="42">
         <f t="shared" si="15"/>
-        <v>915.46968697609168</v>
-      </c>
-      <c r="S27" s="44">
+        <v>2889.0301384643303</v>
+      </c>
+      <c r="S27" s="42">
         <f t="shared" si="15"/>
-        <v>1401.2299535273162</v>
-      </c>
-      <c r="T27" s="44">
+        <v>4604.4507640352867</v>
+      </c>
+      <c r="T27" s="42">
         <f t="shared" si="15"/>
-        <v>2177.1900648071978</v>
-      </c>
-      <c r="U27" s="44">
+        <v>7370.001336209094</v>
+      </c>
+      <c r="U27" s="42">
         <f t="shared" si="15"/>
-        <v>3422.6935248580476</v>
-      </c>
-      <c r="V27" s="44">
+        <v>11834.662161986314</v>
+      </c>
+      <c r="V27" s="42">
         <f t="shared" si="15"/>
-        <v>5427.9181232203209</v>
-      </c>
-      <c r="W27" s="44">
+        <v>19048.483378093864</v>
+      </c>
+      <c r="W27" s="42">
         <f t="shared" si="15"/>
-        <v>8662.3715233704806</v>
-      </c>
-      <c r="X27" s="44">
+        <v>30710.446105755873</v>
+      </c>
+      <c r="X27" s="42">
         <f t="shared" si="15"/>
-        <v>10666.80441504686</v>
+        <v>43131.676379579854</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
@@ -4484,67 +4491,67 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="46">
+      <c r="I28" s="44">
         <f>SUM($H11:$H11)</f>
         <v>0.01</v>
       </c>
-      <c r="J28" s="46">
+      <c r="J28" s="44">
         <f>SUM($H11:$H12)</f>
         <v>2.6180000000000002E-2</v>
       </c>
-      <c r="K28" s="46">
+      <c r="K28" s="44">
         <f>SUM($H11:$H13)</f>
         <v>5.2359240000000001E-2</v>
       </c>
-      <c r="L28" s="46">
+      <c r="L28" s="44">
         <f>SUM($H11:$H14)</f>
         <v>9.4717250320000002E-2</v>
       </c>
-      <c r="M28" s="46">
+      <c r="M28" s="44">
         <f>SUM($H11:$H15)</f>
         <v>0.16325251101776</v>
       </c>
-      <c r="N28" s="46">
+      <c r="N28" s="44">
         <f>SUM($H11:$H16)</f>
         <v>0.27414256282673571</v>
       </c>
-      <c r="O28" s="46">
+      <c r="O28" s="44">
         <f>SUM($H11:$H17)</f>
         <v>0.45356266665365841</v>
       </c>
-      <c r="P28" s="46">
+      <c r="P28" s="44">
         <f>SUM($H11:$H18)</f>
         <v>0.74386439464561938</v>
       </c>
-      <c r="Q28" s="46">
+      <c r="Q28" s="44">
         <f>SUM($H11:$H19)</f>
         <v>1.2135725905366122</v>
       </c>
-      <c r="R28" s="46">
+      <c r="R28" s="44">
         <f>SUM($H11:$H20)</f>
         <v>1.9735604514882388</v>
       </c>
-      <c r="S28" s="46">
+      <c r="S28" s="44">
         <f>SUM($H11:$H21)</f>
         <v>3.2032208105079705</v>
       </c>
-      <c r="T28" s="46">
+      <c r="T28" s="44">
         <f>SUM($H11:$H22)</f>
         <v>5.1928112714018964</v>
       </c>
-      <c r="U28" s="46">
+      <c r="U28" s="44">
         <f>SUM($H11:$H23)</f>
         <v>8.4119686371282683</v>
       </c>
-      <c r="V28" s="46">
+      <c r="V28" s="44">
         <f>SUM($H11:$H24)</f>
         <v>13.62056525487354</v>
       </c>
-      <c r="W28" s="46">
+      <c r="W28" s="44">
         <f>SUM($H11:$H25)</f>
         <v>22.048074582385389</v>
       </c>
-      <c r="X28" s="46">
+      <c r="X28" s="44">
         <f>SUM($H11:$H26)</f>
         <v>35.683784674299567</v>
       </c>
@@ -4826,17 +4833,17 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="61" t="s">
+      <c r="A45" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="62"/>
+      <c r="B45" s="107"/>
       <c r="C45" s="30">
         <f>SUM(C13:C44)</f>
-        <v>183.25649032000001</v>
+        <v>35433.777641400302</v>
       </c>
       <c r="D45" s="31">
         <f>MAX(D13:D44)</f>
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -5023,10 +5030,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:W49"/>
+  <dimension ref="B1:AE54"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB40" sqref="AB40"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -5041,18 +5048,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
       <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
@@ -5102,122 +5109,122 @@
       </c>
     </row>
     <row r="3" spans="2:23" ht="18" x14ac:dyDescent="0.45">
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="87" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88">
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75">
         <f>H2</f>
         <v>5</v>
       </c>
-      <c r="I3" s="88">
+      <c r="I3" s="75">
         <f>SUM($H$2:I2)</f>
         <v>10</v>
       </c>
-      <c r="J3" s="88">
+      <c r="J3" s="75">
         <f>SUM($H$2:J2)</f>
         <v>15</v>
       </c>
-      <c r="K3" s="88">
+      <c r="K3" s="75">
         <f>SUM($H$2:K2)</f>
         <v>20</v>
       </c>
-      <c r="L3" s="88">
+      <c r="L3" s="75">
         <f>SUM($H$2:L2)</f>
         <v>25</v>
       </c>
-      <c r="M3" s="88">
+      <c r="M3" s="75">
         <f>SUM($H$2:M2)</f>
         <v>30</v>
       </c>
-      <c r="N3" s="88">
+      <c r="N3" s="75">
         <f>SUM($H$2:N2)</f>
         <v>35</v>
       </c>
-      <c r="O3" s="88">
+      <c r="O3" s="75">
         <f>SUM($H$2:O2)</f>
         <v>40</v>
       </c>
-      <c r="P3" s="88">
+      <c r="P3" s="75">
         <f>SUM($H$2:P2)</f>
         <v>45</v>
       </c>
-      <c r="Q3" s="88">
+      <c r="Q3" s="75">
         <f>SUM($H$2:Q2)</f>
         <v>50</v>
       </c>
-      <c r="R3" s="88">
+      <c r="R3" s="75">
         <f>SUM($H$2:R2)</f>
         <v>55</v>
       </c>
-      <c r="S3" s="88">
+      <c r="S3" s="75">
         <f>SUM($H$2:S2)</f>
         <v>60</v>
       </c>
-      <c r="T3" s="88">
+      <c r="T3" s="75">
         <f>SUM($H$2:T2)</f>
         <v>65</v>
       </c>
-      <c r="U3" s="88">
+      <c r="U3" s="75">
         <f>SUM($H$2:U2)</f>
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="18"/>
-      <c r="G4" s="79">
+      <c r="G4" s="66">
         <v>30</v>
       </c>
-      <c r="H4" s="79">
+      <c r="H4" s="66">
         <v>30</v>
       </c>
-      <c r="I4" s="79">
+      <c r="I4" s="66">
         <v>30</v>
       </c>
-      <c r="J4" s="79">
+      <c r="J4" s="66">
         <v>30</v>
       </c>
-      <c r="K4" s="79">
+      <c r="K4" s="66">
         <v>30</v>
       </c>
-      <c r="L4" s="79">
+      <c r="L4" s="66">
         <v>30</v>
       </c>
-      <c r="M4" s="79">
+      <c r="M4" s="66">
         <v>30</v>
       </c>
-      <c r="N4" s="79">
+      <c r="N4" s="66">
         <v>30</v>
       </c>
-      <c r="O4" s="79">
+      <c r="O4" s="66">
         <v>30</v>
       </c>
-      <c r="P4" s="79">
+      <c r="P4" s="66">
         <v>30</v>
       </c>
-      <c r="Q4" s="94">
+      <c r="Q4" s="81">
         <v>10</v>
       </c>
-      <c r="R4" s="83">
+      <c r="R4" s="70">
         <v>10</v>
       </c>
-      <c r="S4" s="83">
+      <c r="S4" s="70">
         <v>10</v>
       </c>
-      <c r="T4" s="83">
+      <c r="T4" s="70">
         <v>10</v>
       </c>
-      <c r="U4" s="83">
+      <c r="U4" s="70">
         <v>10</v>
       </c>
     </row>
@@ -5225,66 +5232,66 @@
       <c r="B5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="54">
         <v>1</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="54">
         <v>1.3819999999999999</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="54">
         <v>1.6180000000000001</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="H5" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="79" t="s">
+      <c r="I5" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="79" t="s">
+      <c r="K5" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="79" t="s">
+      <c r="L5" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="79" t="s">
+      <c r="M5" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="79" t="s">
+      <c r="N5" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="79" t="s">
+      <c r="O5" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="79" t="s">
+      <c r="P5" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="94" t="s">
+      <c r="Q5" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="83" t="s">
+      <c r="R5" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="83" t="s">
+      <c r="S5" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="T5" s="83" t="s">
+      <c r="T5" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="U5" s="83" t="s">
+      <c r="U5" s="70" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="66" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="19">
@@ -5298,66 +5305,66 @@
         <f>C6</f>
         <v>0.01</v>
       </c>
-      <c r="F6" s="80">
+      <c r="F6" s="67">
         <v>0.01</v>
       </c>
-      <c r="G6" s="98">
+      <c r="G6" s="85">
         <f>F6*G4*100</f>
         <v>30</v>
       </c>
-      <c r="H6" s="99">
+      <c r="H6" s="86">
         <f>$F$6*(H4-H3)*100</f>
         <v>25</v>
       </c>
-      <c r="I6" s="99">
+      <c r="I6" s="86">
         <f t="shared" ref="I6:U6" si="0">$F$6*(I4-I3)*100</f>
         <v>20</v>
       </c>
-      <c r="J6" s="99">
+      <c r="J6" s="86">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="K6" s="99">
+      <c r="K6" s="86">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L6" s="99">
+      <c r="L6" s="86">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M6" s="99">
+      <c r="M6" s="86">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N6" s="99">
+      <c r="N6" s="86">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="O6" s="99">
+      <c r="O6" s="86">
         <f>$F$6*(O4-O3)*100</f>
         <v>-10</v>
       </c>
-      <c r="P6" s="100">
+      <c r="P6" s="87">
         <f t="shared" si="0"/>
         <v>-15</v>
       </c>
-      <c r="Q6" s="95">
+      <c r="Q6" s="82">
         <f t="shared" si="0"/>
         <v>-40</v>
       </c>
-      <c r="R6" s="70">
+      <c r="R6" s="57">
         <f t="shared" si="0"/>
         <v>-45</v>
       </c>
-      <c r="S6" s="70">
+      <c r="S6" s="57">
         <f t="shared" si="0"/>
         <v>-50</v>
       </c>
-      <c r="T6" s="70">
+      <c r="T6" s="57">
         <f t="shared" si="0"/>
         <v>-55.000000000000007</v>
       </c>
-      <c r="U6" s="71">
+      <c r="U6" s="58">
         <f t="shared" si="0"/>
         <v>-60</v>
       </c>
@@ -5365,7 +5372,7 @@
       <c r="W6" s="21"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="66" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="20">
@@ -5380,47 +5387,47 @@
         <f>E6*$E$5</f>
         <v>1.618E-2</v>
       </c>
-      <c r="F7" s="81">
+      <c r="F7" s="68">
         <v>0.01</v>
       </c>
-      <c r="G7" s="101"/>
-      <c r="H7" s="102">
+      <c r="G7" s="88"/>
+      <c r="H7" s="89">
         <f>F7*H4*100</f>
         <v>30</v>
       </c>
-      <c r="I7" s="102">
+      <c r="I7" s="89">
         <f>$F$7*(I4-(I3-H3))*100</f>
         <v>25</v>
       </c>
-      <c r="J7" s="102">
+      <c r="J7" s="89">
         <f>$F$7*100*(J4-(J3-$H$3))</f>
         <v>20</v>
       </c>
-      <c r="K7" s="102">
+      <c r="K7" s="89">
         <f t="shared" ref="K7:U7" si="1">$F$7*100*(K4-(K3-$H$3))</f>
         <v>15</v>
       </c>
-      <c r="L7" s="102">
+      <c r="L7" s="89">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M7" s="102">
+      <c r="M7" s="89">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N7" s="102">
+      <c r="N7" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O7" s="102">
+      <c r="O7" s="89">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="P7" s="103">
+      <c r="P7" s="90">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="Q7" s="96">
+      <c r="Q7" s="83">
         <f t="shared" si="1"/>
         <v>-35</v>
       </c>
@@ -5436,7 +5443,7 @@
         <f t="shared" si="1"/>
         <v>-50</v>
       </c>
-      <c r="U7" s="73">
+      <c r="U7" s="60">
         <f t="shared" si="1"/>
         <v>-55</v>
       </c>
@@ -5444,7 +5451,7 @@
       <c r="W7" s="21"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="66" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="20">
@@ -5456,47 +5463,47 @@
         <v>1.9099239999999996E-2</v>
       </c>
       <c r="E8" s="20">
-        <f t="shared" ref="E8:E22" si="3">E7*$E$5</f>
+        <f t="shared" ref="E8:E20" si="3">E7*$E$5</f>
         <v>2.6179240000000003E-2</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="68">
         <v>0.01</v>
       </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102">
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89">
         <f>F8*I4*100</f>
         <v>30</v>
       </c>
-      <c r="J8" s="102">
+      <c r="J8" s="89">
         <f>$F$8*100*(J4 -(J3-$I$3))</f>
         <v>25</v>
       </c>
-      <c r="K8" s="102">
+      <c r="K8" s="89">
         <f t="shared" ref="K8:U8" si="4">$F$8*100*(K4 -(K3-$I$3))</f>
         <v>20</v>
       </c>
-      <c r="L8" s="102">
+      <c r="L8" s="89">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="M8" s="102">
+      <c r="M8" s="89">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="N8" s="102">
+      <c r="N8" s="89">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="O8" s="102">
+      <c r="O8" s="89">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P8" s="103">
+      <c r="P8" s="90">
         <f t="shared" si="4"/>
         <v>-5</v>
       </c>
-      <c r="Q8" s="96">
+      <c r="Q8" s="83">
         <f t="shared" si="4"/>
         <v>-30</v>
       </c>
@@ -5512,7 +5519,7 @@
         <f t="shared" si="4"/>
         <v>-45</v>
       </c>
-      <c r="U8" s="73">
+      <c r="U8" s="60">
         <f t="shared" si="4"/>
         <v>-50</v>
       </c>
@@ -5520,7 +5527,7 @@
       <c r="W8" s="21"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="66" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="20">
@@ -5535,41 +5542,41 @@
         <f t="shared" si="3"/>
         <v>4.2358010320000007E-2</v>
       </c>
-      <c r="F9" s="81">
+      <c r="F9" s="68">
         <v>0.01</v>
       </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102">
+      <c r="G9" s="88"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89">
         <f>F9*J4*100</f>
         <v>30</v>
       </c>
-      <c r="K9" s="102">
+      <c r="K9" s="89">
         <f>$F$9*(K4-(K3-$J$3))*100</f>
         <v>25</v>
       </c>
-      <c r="L9" s="102">
+      <c r="L9" s="89">
         <f t="shared" ref="L9:U9" si="6">$F$9*(L4-(L3-$J$3))*100</f>
         <v>20</v>
       </c>
-      <c r="M9" s="102">
+      <c r="M9" s="89">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="N9" s="102">
+      <c r="N9" s="89">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="O9" s="102">
+      <c r="O9" s="89">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="P9" s="103">
+      <c r="P9" s="90">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="96">
+      <c r="Q9" s="83">
         <f t="shared" si="6"/>
         <v>-25</v>
       </c>
@@ -5585,7 +5592,7 @@
         <f t="shared" si="6"/>
         <v>-40</v>
       </c>
-      <c r="U9" s="73">
+      <c r="U9" s="60">
         <f t="shared" si="6"/>
         <v>-45</v>
       </c>
@@ -5593,7 +5600,7 @@
       <c r="W9" s="21"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="66" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="20">
@@ -5608,38 +5615,38 @@
         <f t="shared" si="3"/>
         <v>6.8535260697760017E-2</v>
       </c>
-      <c r="F10" s="81">
+      <c r="F10" s="68">
         <v>0.01</v>
       </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102">
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89">
         <f>F10*K4*100</f>
         <v>30</v>
       </c>
-      <c r="L10" s="102">
+      <c r="L10" s="89">
         <f>$F$10*(L4-(L3-$K$3))*100</f>
         <v>25</v>
       </c>
-      <c r="M10" s="102">
+      <c r="M10" s="89">
         <f>$F$10*(M4-(M3-$K$3))*100</f>
         <v>20</v>
       </c>
-      <c r="N10" s="102">
+      <c r="N10" s="89">
         <f t="shared" ref="N10:U10" si="7">$F$10*(N4-(N3-$K$3))*100</f>
         <v>15</v>
       </c>
-      <c r="O10" s="102">
+      <c r="O10" s="89">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="P10" s="103">
+      <c r="P10" s="90">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="Q10" s="96">
+      <c r="Q10" s="83">
         <f t="shared" si="7"/>
         <v>-20</v>
       </c>
@@ -5655,7 +5662,7 @@
         <f t="shared" si="7"/>
         <v>-35</v>
       </c>
-      <c r="U10" s="73">
+      <c r="U10" s="60">
         <f t="shared" si="7"/>
         <v>-40</v>
       </c>
@@ -5663,7 +5670,7 @@
       <c r="W10" s="21"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="66" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="20">
@@ -5678,35 +5685,35 @@
         <f t="shared" si="3"/>
         <v>0.11089005180897571</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F11" s="68">
         <v>0.01</v>
       </c>
-      <c r="G11" s="101"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102">
+      <c r="G11" s="88"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89">
         <f>F11*L4*100</f>
         <v>30</v>
       </c>
-      <c r="M11" s="102">
+      <c r="M11" s="89">
         <f>$F$11*(M4-(M3-$L$3))*100</f>
         <v>25</v>
       </c>
-      <c r="N11" s="102">
+      <c r="N11" s="89">
         <f>$F$11*(N4-(N3-$L$3))*100</f>
         <v>20</v>
       </c>
-      <c r="O11" s="102">
+      <c r="O11" s="89">
         <f t="shared" ref="O11:U11" si="8">$F$11*(O4-(O3-$L$3))*100</f>
         <v>15</v>
       </c>
-      <c r="P11" s="103">
+      <c r="P11" s="90">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="Q11" s="96">
+      <c r="Q11" s="83">
         <f t="shared" si="8"/>
         <v>-15</v>
       </c>
@@ -5722,7 +5729,7 @@
         <f t="shared" si="8"/>
         <v>-30</v>
       </c>
-      <c r="U11" s="73">
+      <c r="U11" s="60">
         <f t="shared" si="8"/>
         <v>-35</v>
       </c>
@@ -5730,7 +5737,7 @@
       <c r="W11" s="21"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="66" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="20">
@@ -5745,32 +5752,32 @@
         <f t="shared" si="3"/>
         <v>0.17942010382692272</v>
       </c>
-      <c r="F12" s="81">
+      <c r="F12" s="68">
         <v>0.01</v>
       </c>
-      <c r="G12" s="101"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102">
+      <c r="G12" s="88"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89">
         <f>F12*M4*100</f>
         <v>30</v>
       </c>
-      <c r="N12" s="102">
+      <c r="N12" s="89">
         <f>$F$12*(N4-(N3-$M$3))*100</f>
         <v>25</v>
       </c>
-      <c r="O12" s="102">
+      <c r="O12" s="89">
         <f>$F$12*(O4-(O3-$M$3))*100</f>
         <v>20</v>
       </c>
-      <c r="P12" s="103">
+      <c r="P12" s="90">
         <f t="shared" ref="P12:U12" si="9">$F$12*(P4-(P3-$M$3))*100</f>
         <v>15</v>
       </c>
-      <c r="Q12" s="96">
+      <c r="Q12" s="83">
         <f t="shared" si="9"/>
         <v>-10</v>
       </c>
@@ -5786,7 +5793,7 @@
         <f t="shared" si="9"/>
         <v>-25</v>
       </c>
-      <c r="U12" s="73">
+      <c r="U12" s="60">
         <f t="shared" si="9"/>
         <v>-30</v>
       </c>
@@ -5794,7 +5801,7 @@
       <c r="W12" s="21"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="66" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="20">
@@ -5809,29 +5816,29 @@
         <f t="shared" si="3"/>
         <v>0.29030172799196097</v>
       </c>
-      <c r="F13" s="81">
+      <c r="F13" s="68">
         <v>0.01</v>
       </c>
-      <c r="G13" s="101"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102">
+      <c r="G13" s="88"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89">
         <f>F13*N4*100</f>
         <v>30</v>
       </c>
-      <c r="O13" s="102">
+      <c r="O13" s="89">
         <f>$F$13*(O4-(O3-$N$3))*100</f>
         <v>25</v>
       </c>
-      <c r="P13" s="103">
+      <c r="P13" s="90">
         <f>$F$13*(P4-(P3-$N$3))*100</f>
         <v>20</v>
       </c>
-      <c r="Q13" s="96">
+      <c r="Q13" s="83">
         <f t="shared" ref="Q13:U13" si="10">$F$13*(Q4-(Q3-$N$3))*100</f>
         <v>-5</v>
       </c>
@@ -5847,7 +5854,7 @@
         <f t="shared" si="10"/>
         <v>-20</v>
       </c>
-      <c r="U13" s="73">
+      <c r="U13" s="60">
         <f t="shared" si="10"/>
         <v>-25</v>
       </c>
@@ -5855,7 +5862,7 @@
       <c r="W13" s="21"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="66" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="20">
@@ -5870,26 +5877,26 @@
         <f t="shared" si="3"/>
         <v>0.46970819589099289</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F14" s="68">
         <v>0.01</v>
       </c>
-      <c r="G14" s="101"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="102">
+      <c r="G14" s="88"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89">
         <f>F14*O4*100</f>
         <v>30</v>
       </c>
-      <c r="P14" s="103">
+      <c r="P14" s="90">
         <f>$F$14*(P4-(P3-$O$3))*100</f>
         <v>25</v>
       </c>
-      <c r="Q14" s="96">
+      <c r="Q14" s="83">
         <f>$F$14*(Q4-(Q3-$O$3))*100</f>
         <v>0</v>
       </c>
@@ -5905,7 +5912,7 @@
         <f t="shared" si="11"/>
         <v>-15</v>
       </c>
-      <c r="U14" s="73">
+      <c r="U14" s="60">
         <f t="shared" si="11"/>
         <v>-20</v>
       </c>
@@ -5913,7 +5920,7 @@
       <c r="W14" s="21"/>
     </row>
     <row r="15" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="66" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="20">
@@ -5928,23 +5935,23 @@
         <f t="shared" si="3"/>
         <v>0.75998786095162651</v>
       </c>
-      <c r="F15" s="81">
+      <c r="F15" s="68">
         <v>0.01</v>
       </c>
-      <c r="G15" s="104"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="106">
+      <c r="G15" s="91"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="93">
         <f>F15*P4*100</f>
         <v>30</v>
       </c>
-      <c r="Q15" s="97">
+      <c r="Q15" s="84">
         <f>$F$15*(Q4-(Q3-$P$3))*100</f>
         <v>5</v>
       </c>
@@ -5960,7 +5967,7 @@
         <f t="shared" si="12"/>
         <v>-10</v>
       </c>
-      <c r="U15" s="74">
+      <c r="U15" s="61">
         <f t="shared" si="12"/>
         <v>-15</v>
       </c>
@@ -5968,7 +5975,7 @@
       <c r="W15" s="21"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="69" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="20">
@@ -5983,44 +5990,44 @@
         <f t="shared" si="3"/>
         <v>1.2296603590197317</v>
       </c>
-      <c r="F16" s="84">
+      <c r="F16" s="71">
         <v>0.46970819589099289</v>
       </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="116">
+      <c r="G16" s="65"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="103">
         <f>F16*Q4*100</f>
         <v>469.7081958909929</v>
       </c>
-      <c r="R16" s="70">
+      <c r="R16" s="57">
         <f>$F$16*(R4-(R3-$Q$3))*100</f>
         <v>234.85409794549645</v>
       </c>
-      <c r="S16" s="70">
+      <c r="S16" s="57">
         <f>$F$16*(S4-(S3-$Q$3))*100</f>
         <v>0</v>
       </c>
-      <c r="T16" s="70">
+      <c r="T16" s="57">
         <f t="shared" ref="T16:U16" si="13">$F$16*(T4-(T3-$Q$3))*100</f>
         <v>-234.85409794549645</v>
       </c>
-      <c r="U16" s="71">
+      <c r="U16" s="58">
         <f t="shared" si="13"/>
         <v>-469.7081958909929</v>
       </c>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B17" s="83" t="s">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.45">
+      <c r="B17" s="70" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="20">
@@ -6035,10 +6042,10 @@
         <f t="shared" si="3"/>
         <v>1.9895904608939261</v>
       </c>
-      <c r="F17" s="85">
+      <c r="F17" s="72">
         <v>0.75998786095162651</v>
       </c>
-      <c r="G17" s="72"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
@@ -6047,9 +6054,9 @@
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="113"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="107">
+      <c r="P17" s="100"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="94">
         <f>F17*R4*100</f>
         <v>759.98786095162654</v>
       </c>
@@ -6061,15 +6068,15 @@
         <f>$F$17*(T4-(T3-$R$3))*100</f>
         <v>0</v>
       </c>
-      <c r="U17" s="73">
+      <c r="U17" s="60">
         <f t="shared" ref="U17" si="14">$F$17*(U4-(U3-$R$3))*100</f>
         <v>-379.99393047581327</v>
       </c>
       <c r="V17" s="21"/>
       <c r="W17" s="21"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B18" s="83" t="s">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.45">
+      <c r="B18" s="70" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="20">
@@ -6084,10 +6091,10 @@
         <f t="shared" si="3"/>
         <v>3.2191573657263728</v>
       </c>
-      <c r="F18" s="85">
+      <c r="F18" s="72">
         <v>1.2296603590197317</v>
       </c>
-      <c r="G18" s="72"/>
+      <c r="G18" s="59"/>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
@@ -6096,10 +6103,10 @@
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
-      <c r="P18" s="113"/>
-      <c r="Q18" s="72"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="59"/>
       <c r="R18" s="22"/>
-      <c r="S18" s="107">
+      <c r="S18" s="94">
         <f>F18*S4*100</f>
         <v>1229.6603590197317</v>
       </c>
@@ -6107,15 +6114,15 @@
         <f>$F$18*(T4-(T3-$S$3))*100</f>
         <v>614.83017950986584</v>
       </c>
-      <c r="U18" s="73">
+      <c r="U18" s="60">
         <f>$F$18*(U4-(U3-$S$3))*100</f>
         <v>0</v>
       </c>
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B19" s="83" t="s">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.45">
+      <c r="B19" s="70" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="20">
@@ -6130,10 +6137,10 @@
         <f t="shared" si="3"/>
         <v>5.2085966177452718</v>
       </c>
-      <c r="F19" s="85">
+      <c r="F19" s="72">
         <v>1.9895904608939261</v>
       </c>
-      <c r="G19" s="72"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
@@ -6142,23 +6149,23 @@
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
-      <c r="P19" s="113"/>
-      <c r="Q19" s="72"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="59"/>
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
-      <c r="T19" s="107">
+      <c r="T19" s="94">
         <f>F19*T4*100</f>
         <v>1989.5904608939261</v>
       </c>
-      <c r="U19" s="73">
+      <c r="U19" s="60">
         <f>$F$19*(U4-(U3-$T$3))*100</f>
         <v>994.79523044696305</v>
       </c>
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B20" s="83" t="s">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.45">
+      <c r="B20" s="70" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="20">
@@ -6173,100 +6180,100 @@
         <f t="shared" si="3"/>
         <v>8.4275093275118511</v>
       </c>
-      <c r="F20" s="86">
+      <c r="F20" s="73">
         <v>3.2191573657263728</v>
       </c>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="108">
+      <c r="G20" s="62"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="95">
         <f>F20*U4*100</f>
         <v>3219.157365726373</v>
       </c>
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B21" s="24"/>
-      <c r="F21" s="77">
+      <c r="F21" s="64">
         <f>SUM(F6:F20)</f>
         <v>7.7681042424826501</v>
       </c>
-      <c r="G21" s="110">
+      <c r="G21" s="97">
         <f>SUM(G6:G20)</f>
         <v>30</v>
       </c>
-      <c r="H21" s="111">
+      <c r="H21" s="98">
         <f t="shared" ref="H21:U21" si="15">SUM(H6:H20)</f>
         <v>55</v>
       </c>
-      <c r="I21" s="111">
+      <c r="I21" s="98">
         <f t="shared" si="15"/>
         <v>75</v>
       </c>
-      <c r="J21" s="111">
+      <c r="J21" s="98">
         <f t="shared" si="15"/>
         <v>90</v>
       </c>
-      <c r="K21" s="111">
+      <c r="K21" s="98">
         <f t="shared" si="15"/>
         <v>100</v>
       </c>
-      <c r="L21" s="111">
+      <c r="L21" s="98">
         <f t="shared" si="15"/>
         <v>105</v>
       </c>
-      <c r="M21" s="111">
+      <c r="M21" s="98">
         <f t="shared" si="15"/>
         <v>105</v>
       </c>
-      <c r="N21" s="111">
+      <c r="N21" s="98">
         <f t="shared" si="15"/>
         <v>100</v>
       </c>
-      <c r="O21" s="111">
+      <c r="O21" s="98">
         <f t="shared" si="15"/>
         <v>90</v>
       </c>
-      <c r="P21" s="115">
+      <c r="P21" s="102">
         <f t="shared" si="15"/>
         <v>75</v>
       </c>
-      <c r="Q21" s="109">
+      <c r="Q21" s="96">
         <f t="shared" si="15"/>
         <v>294.7081958909929</v>
       </c>
-      <c r="R21" s="109">
+      <c r="R21" s="96">
         <f t="shared" si="15"/>
         <v>769.84195889712305</v>
       </c>
-      <c r="S21" s="109">
+      <c r="S21" s="96">
         <f t="shared" si="15"/>
         <v>1334.6542894955451</v>
       </c>
-      <c r="T21" s="109">
+      <c r="T21" s="96">
         <f t="shared" si="15"/>
         <v>2044.5665424582953</v>
       </c>
-      <c r="U21" s="109">
+      <c r="U21" s="96">
         <f t="shared" si="15"/>
         <v>2989.25046980653</v>
       </c>
       <c r="V21" s="21"/>
       <c r="W21" s="21"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B22" s="24"/>
       <c r="F22" s="13"/>
       <c r="G22" s="21"/>
@@ -6287,267 +6294,397 @@
       <c r="V22" s="21"/>
       <c r="W22" s="21"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B23" s="24"/>
       <c r="F23" s="13"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B24" s="24"/>
       <c r="F24" s="13"/>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B25" s="24"/>
       <c r="F25" s="13"/>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B26" s="24"/>
       <c r="F26" s="13"/>
       <c r="G26" s="21"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B27" s="24"/>
       <c r="F27" s="13"/>
       <c r="G27" s="21"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="91"/>
+    <row r="28" spans="2:31" x14ac:dyDescent="0.45">
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="78"/>
       <c r="E28" s="15" t="s">
         <v>15</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="16"/>
       <c r="H28" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I28" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J28" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K28" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L28" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M28" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N28" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O28" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P28" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q28" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R28" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S28" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T28" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U28" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" ht="18" x14ac:dyDescent="0.45">
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="V28" s="17">
+        <v>2</v>
+      </c>
+      <c r="W28" s="17">
+        <v>2</v>
+      </c>
+      <c r="X28" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="17">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="17">
+        <v>2</v>
+      </c>
+      <c r="AB28" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC28" s="17">
+        <v>2</v>
+      </c>
+      <c r="AD28" s="17">
+        <v>2</v>
+      </c>
+      <c r="AE28" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="87"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88">
+      <c r="F29" s="74"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75">
         <f>H28</f>
-        <v>5</v>
-      </c>
-      <c r="I29" s="88">
+        <v>2</v>
+      </c>
+      <c r="I29" s="75">
         <f>SUM($H$28:I28)</f>
+        <v>4</v>
+      </c>
+      <c r="J29" s="75">
+        <f>SUM($H$28:J28)</f>
+        <v>6</v>
+      </c>
+      <c r="K29" s="75">
+        <f>SUM($H$28:K28)</f>
+        <v>8</v>
+      </c>
+      <c r="L29" s="75">
+        <f>SUM($H$28:L28)</f>
         <v>10</v>
       </c>
-      <c r="J29" s="88">
-        <f>SUM($H$28:J28)</f>
-        <v>15</v>
-      </c>
-      <c r="K29" s="88">
-        <f>SUM($H$28:K28)</f>
+      <c r="M29" s="75">
+        <f>SUM($H$28:M28)</f>
+        <v>12</v>
+      </c>
+      <c r="N29" s="75">
+        <f>SUM($H$28:N28)</f>
+        <v>14</v>
+      </c>
+      <c r="O29" s="75">
+        <f>SUM($H$28:O28)</f>
+        <v>16</v>
+      </c>
+      <c r="P29" s="75">
+        <f>SUM($H$28:P28)</f>
+        <v>18</v>
+      </c>
+      <c r="Q29" s="75">
+        <f>SUM($H$28:Q28)</f>
         <v>20</v>
       </c>
-      <c r="L29" s="88">
-        <f>SUM($H$28:L28)</f>
-        <v>25</v>
-      </c>
-      <c r="M29" s="88">
-        <f>SUM($H$28:M28)</f>
+      <c r="R29" s="75">
+        <f>SUM($H$28:R28)</f>
+        <v>22</v>
+      </c>
+      <c r="S29" s="75">
+        <f>SUM($H$28:S28)</f>
+        <v>24</v>
+      </c>
+      <c r="T29" s="75">
+        <f>SUM($H$28:T28)</f>
+        <v>26</v>
+      </c>
+      <c r="U29" s="75">
+        <f>SUM($H$28:U28)</f>
+        <v>28</v>
+      </c>
+      <c r="V29" s="75">
+        <f>SUM($H$28:V28)</f>
         <v>30</v>
       </c>
-      <c r="N29" s="88">
-        <f>SUM($H$28:N28)</f>
-        <v>35</v>
-      </c>
-      <c r="O29" s="88">
-        <f>SUM($H$28:O28)</f>
+      <c r="W29" s="75">
+        <f>SUM($H$28:W28)</f>
+        <v>32</v>
+      </c>
+      <c r="X29" s="75">
+        <f>SUM($H$28:X28)</f>
+        <v>34</v>
+      </c>
+      <c r="Y29" s="75">
+        <f>SUM($H$28:Y28)</f>
+        <v>36</v>
+      </c>
+      <c r="Z29" s="75">
+        <f>SUM($H$28:Z28)</f>
+        <v>38</v>
+      </c>
+      <c r="AA29" s="75">
+        <f>SUM($H$28:AA28)</f>
         <v>40</v>
       </c>
-      <c r="P29" s="88">
-        <f>SUM($H$28:P28)</f>
-        <v>45</v>
-      </c>
-      <c r="Q29" s="88">
-        <f>SUM($H$28:Q28)</f>
-        <v>50</v>
-      </c>
-      <c r="R29" s="88">
-        <f>SUM($H$28:R28)</f>
-        <v>55</v>
-      </c>
-      <c r="S29" s="88">
-        <f>SUM($H$28:S28)</f>
-        <v>60</v>
-      </c>
-      <c r="T29" s="88">
-        <f>SUM($H$28:T28)</f>
-        <v>65</v>
-      </c>
-      <c r="U29" s="88">
-        <f>SUM($H$28:U28)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
+      <c r="AB29" s="75">
+        <f>SUM($H$28:AB28)</f>
+        <v>42</v>
+      </c>
+      <c r="AC29" s="75">
+        <f>SUM($H$28:AC28)</f>
+        <v>44</v>
+      </c>
+      <c r="AD29" s="75">
+        <f>SUM($H$28:AD28)</f>
+        <v>46</v>
+      </c>
+      <c r="AE29" s="75">
+        <f>SUM($H$28:AE28)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:31" x14ac:dyDescent="0.45">
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="80"/>
       <c r="E30" s="18" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="18"/>
-      <c r="G30" s="79">
+      <c r="G30" s="66">
         <v>30</v>
       </c>
-      <c r="H30" s="79">
+      <c r="H30" s="66">
         <v>30</v>
       </c>
-      <c r="I30" s="79">
+      <c r="I30" s="66">
         <v>30</v>
       </c>
-      <c r="J30" s="79">
+      <c r="J30" s="66">
         <v>30</v>
       </c>
-      <c r="K30" s="79">
+      <c r="K30" s="66">
         <v>30</v>
       </c>
-      <c r="L30" s="79">
+      <c r="L30" s="66">
         <v>30</v>
       </c>
-      <c r="M30" s="79">
+      <c r="M30" s="66">
         <v>30</v>
       </c>
-      <c r="N30" s="79">
+      <c r="N30" s="66">
         <v>30</v>
       </c>
-      <c r="O30" s="79">
+      <c r="O30" s="66">
         <v>30</v>
       </c>
-      <c r="P30" s="79">
+      <c r="P30" s="66">
         <v>30</v>
       </c>
-      <c r="Q30" s="94">
+      <c r="Q30" s="81">
         <v>10</v>
       </c>
-      <c r="R30" s="83">
+      <c r="R30" s="70">
         <v>10</v>
       </c>
-      <c r="S30" s="83">
+      <c r="S30" s="70">
         <v>10</v>
       </c>
-      <c r="T30" s="83">
+      <c r="T30" s="70">
         <v>10</v>
       </c>
-      <c r="U30" s="83">
+      <c r="U30" s="70">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="V30" s="13">
+        <v>2</v>
+      </c>
+      <c r="W30" s="13">
+        <v>2</v>
+      </c>
+      <c r="X30" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z30" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA30" s="13">
+        <v>2</v>
+      </c>
+      <c r="AB30" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC30" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD30" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE30" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B31" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="67">
+      <c r="C31" s="54">
         <v>1</v>
       </c>
-      <c r="D31" s="67">
+      <c r="D31" s="54">
         <v>1.3819999999999999</v>
       </c>
-      <c r="E31" s="67">
+      <c r="E31" s="54">
         <v>1.6180000000000001</v>
       </c>
-      <c r="F31" s="69" t="s">
+      <c r="F31" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="79" t="s">
+      <c r="G31" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="79" t="s">
+      <c r="H31" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="79" t="s">
+      <c r="I31" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="J31" s="79" t="s">
+      <c r="J31" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="K31" s="79" t="s">
+      <c r="K31" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="L31" s="79" t="s">
+      <c r="L31" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="M31" s="79" t="s">
+      <c r="M31" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="N31" s="79" t="s">
+      <c r="N31" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="O31" s="79" t="s">
+      <c r="O31" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="P31" s="79" t="s">
+      <c r="P31" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="Q31" s="94" t="s">
+      <c r="Q31" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="R31" s="83" t="s">
+      <c r="R31" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="S31" s="83" t="s">
+      <c r="S31" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="T31" s="83" t="s">
+      <c r="T31" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="U31" s="83" t="s">
+      <c r="U31" s="70" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B32" s="79" t="s">
+      <c r="V31" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="W31" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="X31" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y31" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z31" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA31" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB31" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC31" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD31" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE31" s="70" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.45">
+      <c r="B32" s="66" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="19">
@@ -6561,72 +6698,72 @@
         <f>C32</f>
         <v>0.01</v>
       </c>
-      <c r="F32" s="80">
+      <c r="F32" s="67">
         <v>0.01</v>
       </c>
-      <c r="G32" s="98">
+      <c r="G32" s="85">
         <f>F32*G30*100</f>
         <v>30</v>
       </c>
-      <c r="H32" s="99">
+      <c r="H32" s="86">
         <f>$F$6*(H30-H29)*100</f>
-        <v>25</v>
-      </c>
-      <c r="I32" s="99">
-        <f t="shared" ref="I32:U32" si="16">$F$6*(I30-I29)*100</f>
+        <v>28.000000000000004</v>
+      </c>
+      <c r="I32" s="86">
+        <f t="shared" ref="I32:N32" si="16">$F$6*(I30-I29)*100</f>
+        <v>26</v>
+      </c>
+      <c r="J32" s="86">
+        <f t="shared" si="16"/>
+        <v>24</v>
+      </c>
+      <c r="K32" s="86">
+        <f t="shared" si="16"/>
+        <v>22</v>
+      </c>
+      <c r="L32" s="86">
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
-      <c r="J32" s="99">
+      <c r="M32" s="86">
         <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="K32" s="99">
+        <v>18</v>
+      </c>
+      <c r="N32" s="86">
         <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="L32" s="99">
-        <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="M32" s="99">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="99">
-        <f t="shared" si="16"/>
-        <v>-5</v>
-      </c>
-      <c r="O32" s="99">
+        <v>16</v>
+      </c>
+      <c r="O32" s="86">
         <f>$F$6*(O30-O29)*100</f>
+        <v>14.000000000000002</v>
+      </c>
+      <c r="P32" s="87">
+        <f t="shared" ref="P32:U32" si="17">$F$6*(P30-P29)*100</f>
+        <v>12</v>
+      </c>
+      <c r="Q32" s="82">
+        <f t="shared" si="17"/>
         <v>-10</v>
       </c>
-      <c r="P32" s="100">
-        <f t="shared" ref="P32:U32" si="17">$F$6*(P30-P29)*100</f>
-        <v>-15</v>
-      </c>
-      <c r="Q32" s="95">
+      <c r="R32" s="57">
         <f t="shared" si="17"/>
-        <v>-40</v>
-      </c>
-      <c r="R32" s="70">
+        <v>-12</v>
+      </c>
+      <c r="S32" s="57">
         <f t="shared" si="17"/>
-        <v>-45</v>
-      </c>
-      <c r="S32" s="70">
+        <v>-14.000000000000002</v>
+      </c>
+      <c r="T32" s="57">
         <f t="shared" si="17"/>
-        <v>-50</v>
-      </c>
-      <c r="T32" s="70">
+        <v>-16</v>
+      </c>
+      <c r="U32" s="58">
         <f t="shared" si="17"/>
-        <v>-55.000000000000007</v>
-      </c>
-      <c r="U32" s="71">
-        <f t="shared" si="17"/>
-        <v>-60</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="66" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="20">
@@ -6641,69 +6778,69 @@
         <f>E32*$E$5</f>
         <v>1.618E-2</v>
       </c>
-      <c r="F33" s="81">
+      <c r="F33" s="68">
         <v>0.01</v>
       </c>
-      <c r="G33" s="101"/>
-      <c r="H33" s="102">
+      <c r="G33" s="88"/>
+      <c r="H33" s="89">
         <f>F33*H30*100</f>
         <v>30</v>
       </c>
-      <c r="I33" s="102">
+      <c r="I33" s="89">
         <f>$F$7*(I30-(I29-H29))*100</f>
+        <v>28.000000000000004</v>
+      </c>
+      <c r="J33" s="89">
+        <f>$F$7*100*(J30-(J29-$H$3))</f>
+        <v>29</v>
+      </c>
+      <c r="K33" s="89">
+        <f t="shared" ref="K33:U33" si="18">$F$7*100*(K30-(K29-$H$3))</f>
+        <v>27</v>
+      </c>
+      <c r="L33" s="89">
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
-      <c r="J33" s="102">
-        <f>$F$7*100*(J30-(J29-$H$3))</f>
-        <v>20</v>
-      </c>
-      <c r="K33" s="102">
-        <f t="shared" ref="K33:U33" si="18">$F$7*100*(K30-(K29-$H$3))</f>
-        <v>15</v>
-      </c>
-      <c r="L33" s="102">
+      <c r="M33" s="89">
         <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="M33" s="102">
+        <v>23</v>
+      </c>
+      <c r="N33" s="89">
         <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="N33" s="102">
+        <v>21</v>
+      </c>
+      <c r="O33" s="89">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="102">
+        <v>19</v>
+      </c>
+      <c r="P33" s="90">
+        <f t="shared" si="18"/>
+        <v>17</v>
+      </c>
+      <c r="Q33" s="83">
         <f t="shared" si="18"/>
         <v>-5</v>
       </c>
-      <c r="P33" s="103">
-        <f t="shared" si="18"/>
-        <v>-10</v>
-      </c>
-      <c r="Q33" s="96">
-        <f t="shared" si="18"/>
-        <v>-35</v>
-      </c>
       <c r="R33" s="22">
         <f t="shared" si="18"/>
-        <v>-40</v>
+        <v>-7</v>
       </c>
       <c r="S33" s="22">
         <f t="shared" si="18"/>
-        <v>-45</v>
+        <v>-9</v>
       </c>
       <c r="T33" s="22">
         <f t="shared" si="18"/>
-        <v>-50</v>
-      </c>
-      <c r="U33" s="73">
+        <v>-11</v>
+      </c>
+      <c r="U33" s="60">
         <f t="shared" si="18"/>
-        <v>-55</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="66" t="s">
         <v>37</v>
       </c>
       <c r="C34" s="20">
@@ -6715,69 +6852,69 @@
         <v>1.9099239999999996E-2</v>
       </c>
       <c r="E34" s="20">
-        <f t="shared" ref="E34:E47" si="20">E33*$E$5</f>
+        <f t="shared" ref="E34:E46" si="20">E33*$E$5</f>
         <v>2.6179240000000003E-2</v>
       </c>
-      <c r="F34" s="81">
+      <c r="F34" s="68">
         <v>0.01</v>
       </c>
-      <c r="G34" s="101"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102">
+      <c r="G34" s="88"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89">
         <f>F34*I30*100</f>
         <v>30</v>
       </c>
-      <c r="J34" s="102">
+      <c r="J34" s="89">
         <f>$F$8*100*(J30 -(J29-$I$3))</f>
-        <v>25</v>
-      </c>
-      <c r="K34" s="102">
+        <v>34</v>
+      </c>
+      <c r="K34" s="89">
         <f t="shared" ref="K34:U34" si="21">$F$8*100*(K30 -(K29-$I$3))</f>
-        <v>20</v>
-      </c>
-      <c r="L34" s="102">
+        <v>32</v>
+      </c>
+      <c r="L34" s="89">
         <f t="shared" si="21"/>
-        <v>15</v>
-      </c>
-      <c r="M34" s="102">
+        <v>30</v>
+      </c>
+      <c r="M34" s="89">
         <f t="shared" si="21"/>
-        <v>10</v>
-      </c>
-      <c r="N34" s="102">
+        <v>28</v>
+      </c>
+      <c r="N34" s="89">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="O34" s="102">
+        <v>26</v>
+      </c>
+      <c r="O34" s="89">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="103">
+        <v>24</v>
+      </c>
+      <c r="P34" s="90">
         <f t="shared" si="21"/>
-        <v>-5</v>
-      </c>
-      <c r="Q34" s="96">
+        <v>22</v>
+      </c>
+      <c r="Q34" s="83">
         <f t="shared" si="21"/>
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="R34" s="22">
         <f t="shared" si="21"/>
-        <v>-35</v>
+        <v>-2</v>
       </c>
       <c r="S34" s="22">
         <f t="shared" si="21"/>
-        <v>-40</v>
+        <v>-4</v>
       </c>
       <c r="T34" s="22">
         <f t="shared" si="21"/>
-        <v>-45</v>
-      </c>
-      <c r="U34" s="73">
+        <v>-6</v>
+      </c>
+      <c r="U34" s="60">
         <f t="shared" si="21"/>
-        <v>-50</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="66" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="20">
@@ -6792,63 +6929,63 @@
         <f t="shared" si="20"/>
         <v>4.2358010320000007E-2</v>
       </c>
-      <c r="F35" s="81">
+      <c r="F35" s="68">
         <v>0.01</v>
       </c>
-      <c r="G35" s="101"/>
-      <c r="H35" s="102"/>
-      <c r="I35" s="102"/>
-      <c r="J35" s="102">
+      <c r="G35" s="88"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89">
         <f>F35*J30*100</f>
         <v>30</v>
       </c>
-      <c r="K35" s="102">
+      <c r="K35" s="89">
         <f>$F$9*(K30-(K29-$J$3))*100</f>
-        <v>25</v>
-      </c>
-      <c r="L35" s="102">
+        <v>37</v>
+      </c>
+      <c r="L35" s="89">
         <f t="shared" ref="L35:U35" si="23">$F$9*(L30-(L29-$J$3))*100</f>
-        <v>20</v>
-      </c>
-      <c r="M35" s="102">
+        <v>35</v>
+      </c>
+      <c r="M35" s="89">
         <f t="shared" si="23"/>
-        <v>15</v>
-      </c>
-      <c r="N35" s="102">
+        <v>33</v>
+      </c>
+      <c r="N35" s="89">
         <f t="shared" si="23"/>
-        <v>10</v>
-      </c>
-      <c r="O35" s="102">
+        <v>31</v>
+      </c>
+      <c r="O35" s="89">
+        <f t="shared" si="23"/>
+        <v>28.999999999999996</v>
+      </c>
+      <c r="P35" s="90">
+        <f t="shared" si="23"/>
+        <v>27</v>
+      </c>
+      <c r="Q35" s="83">
         <f t="shared" si="23"/>
         <v>5</v>
       </c>
-      <c r="P35" s="103">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="96">
-        <f t="shared" si="23"/>
-        <v>-25</v>
-      </c>
       <c r="R35" s="22">
         <f t="shared" si="23"/>
-        <v>-30</v>
+        <v>3</v>
       </c>
       <c r="S35" s="22">
         <f t="shared" si="23"/>
-        <v>-35</v>
+        <v>1</v>
       </c>
       <c r="T35" s="22">
         <f t="shared" si="23"/>
-        <v>-40</v>
-      </c>
-      <c r="U35" s="73">
+        <v>-1</v>
+      </c>
+      <c r="U35" s="60">
         <f t="shared" si="23"/>
-        <v>-45</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="66" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="20">
@@ -6863,60 +7000,60 @@
         <f t="shared" si="20"/>
         <v>6.8535260697760017E-2</v>
       </c>
-      <c r="F36" s="81">
+      <c r="F36" s="68">
         <v>0.01</v>
       </c>
-      <c r="G36" s="101"/>
-      <c r="H36" s="102"/>
-      <c r="I36" s="102"/>
-      <c r="J36" s="102"/>
-      <c r="K36" s="102">
+      <c r="G36" s="88"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89">
         <f>F36*K30*100</f>
         <v>30</v>
       </c>
-      <c r="L36" s="102">
+      <c r="L36" s="89">
         <f>$F$10*(L30-(L29-$K$3))*100</f>
-        <v>25</v>
-      </c>
-      <c r="M36" s="102">
+        <v>40</v>
+      </c>
+      <c r="M36" s="89">
         <f>$F$10*(M30-(M29-$K$3))*100</f>
-        <v>20</v>
-      </c>
-      <c r="N36" s="102">
+        <v>38</v>
+      </c>
+      <c r="N36" s="89">
         <f t="shared" ref="N36:U36" si="24">$F$10*(N30-(N29-$K$3))*100</f>
-        <v>15</v>
-      </c>
-      <c r="O36" s="102">
+        <v>36</v>
+      </c>
+      <c r="O36" s="89">
+        <f t="shared" si="24"/>
+        <v>34</v>
+      </c>
+      <c r="P36" s="90">
+        <f t="shared" si="24"/>
+        <v>32</v>
+      </c>
+      <c r="Q36" s="83">
         <f t="shared" si="24"/>
         <v>10</v>
       </c>
-      <c r="P36" s="103">
-        <f t="shared" si="24"/>
-        <v>5</v>
-      </c>
-      <c r="Q36" s="96">
-        <f t="shared" si="24"/>
-        <v>-20</v>
-      </c>
       <c r="R36" s="22">
         <f t="shared" si="24"/>
-        <v>-25</v>
+        <v>8</v>
       </c>
       <c r="S36" s="22">
         <f t="shared" si="24"/>
-        <v>-30</v>
+        <v>6</v>
       </c>
       <c r="T36" s="22">
         <f t="shared" si="24"/>
-        <v>-35</v>
-      </c>
-      <c r="U36" s="73">
+        <v>4</v>
+      </c>
+      <c r="U36" s="60">
         <f t="shared" si="24"/>
-        <v>-40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="66" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="20">
@@ -6931,57 +7068,57 @@
         <f t="shared" si="20"/>
         <v>0.11089005180897571</v>
       </c>
-      <c r="F37" s="81">
+      <c r="F37" s="68">
         <v>0.01</v>
       </c>
-      <c r="G37" s="101"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="102"/>
-      <c r="L37" s="102">
+      <c r="G37" s="88"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89">
         <f>F37*L30*100</f>
         <v>30</v>
       </c>
-      <c r="M37" s="102">
+      <c r="M37" s="89">
         <f>$F$11*(M30-(M29-$L$3))*100</f>
-        <v>25</v>
-      </c>
-      <c r="N37" s="102">
+        <v>43</v>
+      </c>
+      <c r="N37" s="89">
         <f>$F$11*(N30-(N29-$L$3))*100</f>
-        <v>20</v>
-      </c>
-      <c r="O37" s="102">
+        <v>41</v>
+      </c>
+      <c r="O37" s="89">
         <f t="shared" ref="O37:U37" si="25">$F$11*(O30-(O29-$L$3))*100</f>
+        <v>39</v>
+      </c>
+      <c r="P37" s="90">
+        <f t="shared" si="25"/>
+        <v>37</v>
+      </c>
+      <c r="Q37" s="83">
+        <f t="shared" si="25"/>
         <v>15</v>
-      </c>
-      <c r="P37" s="103">
-        <f t="shared" si="25"/>
-        <v>10</v>
-      </c>
-      <c r="Q37" s="96">
-        <f t="shared" si="25"/>
-        <v>-15</v>
       </c>
       <c r="R37" s="22">
         <f t="shared" si="25"/>
-        <v>-20</v>
+        <v>13</v>
       </c>
       <c r="S37" s="22">
         <f t="shared" si="25"/>
-        <v>-25</v>
+        <v>11</v>
       </c>
       <c r="T37" s="22">
         <f t="shared" si="25"/>
-        <v>-30</v>
-      </c>
-      <c r="U37" s="73">
+        <v>9</v>
+      </c>
+      <c r="U37" s="60">
         <f t="shared" si="25"/>
-        <v>-35</v>
+        <v>7.0000000000000009</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="66" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="20">
@@ -6996,54 +7133,54 @@
         <f t="shared" si="20"/>
         <v>0.17942010382692272</v>
       </c>
-      <c r="F38" s="81">
+      <c r="F38" s="68">
         <v>0.01</v>
       </c>
-      <c r="G38" s="101"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="102"/>
-      <c r="K38" s="102"/>
-      <c r="L38" s="102"/>
-      <c r="M38" s="102">
+      <c r="G38" s="88"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="89">
         <f>F38*M30*100</f>
         <v>30</v>
       </c>
-      <c r="N38" s="102">
+      <c r="N38" s="89">
         <f>$F$12*(N30-(N29-$M$3))*100</f>
-        <v>25</v>
-      </c>
-      <c r="O38" s="102">
+        <v>46</v>
+      </c>
+      <c r="O38" s="89">
         <f>$F$12*(O30-(O29-$M$3))*100</f>
+        <v>44</v>
+      </c>
+      <c r="P38" s="90">
+        <f t="shared" ref="P38:U38" si="26">$F$12*(P30-(P29-$M$3))*100</f>
+        <v>42</v>
+      </c>
+      <c r="Q38" s="83">
+        <f t="shared" si="26"/>
         <v>20</v>
-      </c>
-      <c r="P38" s="103">
-        <f t="shared" ref="P38:U38" si="26">$F$12*(P30-(P29-$M$3))*100</f>
-        <v>15</v>
-      </c>
-      <c r="Q38" s="96">
-        <f t="shared" si="26"/>
-        <v>-10</v>
       </c>
       <c r="R38" s="22">
         <f t="shared" si="26"/>
-        <v>-15</v>
+        <v>18</v>
       </c>
       <c r="S38" s="22">
         <f t="shared" si="26"/>
-        <v>-20</v>
+        <v>16</v>
       </c>
       <c r="T38" s="22">
         <f t="shared" si="26"/>
-        <v>-25</v>
-      </c>
-      <c r="U38" s="73">
+        <v>14.000000000000002</v>
+      </c>
+      <c r="U38" s="60">
         <f t="shared" si="26"/>
-        <v>-30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="66" t="s">
         <v>42</v>
       </c>
       <c r="C39" s="20">
@@ -7058,51 +7195,51 @@
         <f t="shared" si="20"/>
         <v>0.29030172799196097</v>
       </c>
-      <c r="F39" s="81">
+      <c r="F39" s="68">
         <v>0.01</v>
       </c>
-      <c r="G39" s="101"/>
-      <c r="H39" s="102"/>
-      <c r="I39" s="102"/>
-      <c r="J39" s="102"/>
-      <c r="K39" s="102"/>
-      <c r="L39" s="102"/>
-      <c r="M39" s="102"/>
-      <c r="N39" s="102">
+      <c r="G39" s="88"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="89"/>
+      <c r="M39" s="89"/>
+      <c r="N39" s="89">
         <f>F39*N30*100</f>
         <v>30</v>
       </c>
-      <c r="O39" s="102">
+      <c r="O39" s="89">
         <f>$F$13*(O30-(O29-$N$3))*100</f>
+        <v>49</v>
+      </c>
+      <c r="P39" s="90">
+        <f>$F$13*(P30-(P29-$N$3))*100</f>
+        <v>47</v>
+      </c>
+      <c r="Q39" s="83">
+        <f t="shared" ref="Q39:U39" si="27">$F$13*(Q30-(Q29-$N$3))*100</f>
         <v>25</v>
-      </c>
-      <c r="P39" s="103">
-        <f>$F$13*(P30-(P29-$N$3))*100</f>
-        <v>20</v>
-      </c>
-      <c r="Q39" s="96">
-        <f t="shared" ref="Q39:U39" si="27">$F$13*(Q30-(Q29-$N$3))*100</f>
-        <v>-5</v>
       </c>
       <c r="R39" s="22">
         <f t="shared" si="27"/>
-        <v>-10</v>
+        <v>23</v>
       </c>
       <c r="S39" s="22">
         <f t="shared" si="27"/>
-        <v>-15</v>
+        <v>21</v>
       </c>
       <c r="T39" s="22">
         <f t="shared" si="27"/>
-        <v>-20</v>
-      </c>
-      <c r="U39" s="73">
+        <v>19</v>
+      </c>
+      <c r="U39" s="60">
         <f t="shared" si="27"/>
-        <v>-25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="66" t="s">
         <v>43</v>
       </c>
       <c r="C40" s="20">
@@ -7117,48 +7254,48 @@
         <f t="shared" si="20"/>
         <v>0.46970819589099289</v>
       </c>
-      <c r="F40" s="81">
+      <c r="F40" s="68">
         <v>0.01</v>
       </c>
-      <c r="G40" s="101"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="102"/>
-      <c r="L40" s="102"/>
-      <c r="M40" s="102"/>
-      <c r="N40" s="102"/>
-      <c r="O40" s="102">
+      <c r="G40" s="88"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="89">
         <f>F40*O30*100</f>
         <v>30</v>
       </c>
-      <c r="P40" s="103">
+      <c r="P40" s="90">
         <f>$F$14*(P30-(P29-$O$3))*100</f>
-        <v>25</v>
-      </c>
-      <c r="Q40" s="96">
+        <v>52</v>
+      </c>
+      <c r="Q40" s="83">
         <f>$F$14*(Q30-(Q29-$O$3))*100</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R40" s="22">
         <f t="shared" ref="R40:U40" si="28">$F$14*(R30-(R29-$O$3))*100</f>
-        <v>-5</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="S40" s="22">
         <f t="shared" si="28"/>
-        <v>-10</v>
+        <v>26</v>
       </c>
       <c r="T40" s="22">
         <f t="shared" si="28"/>
-        <v>-15</v>
-      </c>
-      <c r="U40" s="73">
+        <v>24</v>
+      </c>
+      <c r="U40" s="60">
         <f t="shared" si="28"/>
-        <v>-20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="66" t="s">
         <v>44</v>
       </c>
       <c r="C41" s="20">
@@ -7173,46 +7310,46 @@
         <f t="shared" si="20"/>
         <v>0.75998786095162651</v>
       </c>
-      <c r="F41" s="81">
+      <c r="F41" s="68">
         <v>0.01</v>
       </c>
-      <c r="G41" s="104"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="105"/>
-      <c r="K41" s="105"/>
-      <c r="L41" s="105"/>
-      <c r="M41" s="105"/>
-      <c r="N41" s="105"/>
-      <c r="O41" s="105"/>
-      <c r="P41" s="106">
+      <c r="G41" s="91"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="92"/>
+      <c r="M41" s="92"/>
+      <c r="N41" s="92"/>
+      <c r="O41" s="92"/>
+      <c r="P41" s="93">
         <f>F41*P30*100</f>
         <v>30</v>
       </c>
-      <c r="Q41" s="97">
+      <c r="Q41" s="84">
         <f>$F$15*(Q30-(Q29-$P$3))*100</f>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="R41" s="23">
         <f>$F$15*(R30-(R29-$P$3))*100</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="S41" s="23">
         <f t="shared" ref="S41:U41" si="29">$F$15*(S30-(S29-$P$3))*100</f>
-        <v>-5</v>
+        <v>31</v>
       </c>
       <c r="T41" s="23">
         <f t="shared" si="29"/>
-        <v>-10</v>
-      </c>
-      <c r="U41" s="74">
+        <v>28.999999999999996</v>
+      </c>
+      <c r="U41" s="61">
         <f t="shared" si="29"/>
-        <v>-15</v>
-      </c>
-      <c r="V41" s="89"/>
+        <v>27</v>
+      </c>
+      <c r="V41" s="76"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B42" s="82" t="s">
+      <c r="B42" s="69" t="s">
         <v>45</v>
       </c>
       <c r="C42" s="20">
@@ -7227,42 +7364,42 @@
         <f t="shared" si="20"/>
         <v>1.2296603590197317</v>
       </c>
-      <c r="F42" s="84">
+      <c r="F42" s="71">
         <v>0.46970819589099289</v>
       </c>
-      <c r="G42" s="78"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
-      <c r="N42" s="68"/>
-      <c r="O42" s="68"/>
-      <c r="P42" s="112"/>
-      <c r="Q42" s="116">
+      <c r="G42" s="65"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="99"/>
+      <c r="Q42" s="103">
         <f>F42*Q30*100</f>
         <v>469.7081958909929</v>
       </c>
-      <c r="R42" s="70">
+      <c r="R42" s="57">
         <f>$F$16*(R30-(R29-$Q$3))*100</f>
-        <v>234.85409794549645</v>
-      </c>
-      <c r="S42" s="70">
+        <v>1784.891144385773</v>
+      </c>
+      <c r="S42" s="57">
         <f>$F$16*(S30-(S29-$Q$3))*100</f>
-        <v>0</v>
-      </c>
-      <c r="T42" s="70">
+        <v>1690.9495052075745</v>
+      </c>
+      <c r="T42" s="57">
         <f t="shared" ref="T42:U42" si="30">$F$16*(T30-(T29-$Q$3))*100</f>
-        <v>-234.85409794549645</v>
-      </c>
-      <c r="U42" s="71">
+        <v>1597.0078660293759</v>
+      </c>
+      <c r="U42" s="58">
         <f t="shared" si="30"/>
-        <v>-469.7081958909929</v>
+        <v>1503.0662268511771</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="70" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="20">
@@ -7277,10 +7414,10 @@
         <f t="shared" si="20"/>
         <v>1.9895904608939261</v>
       </c>
-      <c r="F43" s="85">
+      <c r="F43" s="72">
         <v>0.75998786095162651</v>
       </c>
-      <c r="G43" s="72"/>
+      <c r="G43" s="59"/>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
@@ -7289,29 +7426,29 @@
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
-      <c r="P43" s="113"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="107">
+      <c r="P43" s="100"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="94">
         <f>F43*R30*100</f>
         <v>759.98786095162654</v>
       </c>
       <c r="S43" s="22">
         <f>$F$17*(S30-(S29-$R$3))*100</f>
-        <v>379.99393047581327</v>
+        <v>3115.9502299016685</v>
       </c>
       <c r="T43" s="22">
         <f>$F$17*(T30-(T29-$R$3))*100</f>
-        <v>0</v>
-      </c>
-      <c r="U43" s="73">
+        <v>2963.9526577113434</v>
+      </c>
+      <c r="U43" s="60">
         <f t="shared" ref="U43" si="31">$F$17*(U30-(U29-$R$3))*100</f>
-        <v>-379.99393047581327</v>
+        <v>2811.9550855210182</v>
       </c>
       <c r="V43" s="21"/>
       <c r="W43" s="21"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="70" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="20">
@@ -7326,10 +7463,10 @@
         <f t="shared" si="20"/>
         <v>3.2191573657263728</v>
       </c>
-      <c r="F44" s="85">
+      <c r="F44" s="72">
         <v>1.2296603590197317</v>
       </c>
-      <c r="G44" s="72"/>
+      <c r="G44" s="59"/>
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
@@ -7338,24 +7475,24 @@
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
-      <c r="P44" s="113"/>
-      <c r="Q44" s="72"/>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="59"/>
       <c r="R44" s="22"/>
-      <c r="S44" s="107">
+      <c r="S44" s="94">
         <f>F44*S30*100</f>
         <v>1229.6603590197317</v>
       </c>
       <c r="T44" s="22">
         <f>$F$18*(T30-(T29-$S$3))*100</f>
-        <v>614.83017950986584</v>
-      </c>
-      <c r="U44" s="73">
+        <v>5410.5055796868191</v>
+      </c>
+      <c r="U44" s="60">
         <f>$F$18*(U30-(U29-$S$3))*100</f>
-        <v>0</v>
+        <v>5164.5735078828729</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B45" s="83" t="s">
+      <c r="B45" s="70" t="s">
         <v>48</v>
       </c>
       <c r="C45" s="20">
@@ -7370,10 +7507,10 @@
         <f t="shared" si="20"/>
         <v>5.2085966177452718</v>
       </c>
-      <c r="F45" s="85">
+      <c r="F45" s="72">
         <v>1.9895904608939261</v>
       </c>
-      <c r="G45" s="72"/>
+      <c r="G45" s="59"/>
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
@@ -7382,21 +7519,21 @@
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
-      <c r="P45" s="113"/>
-      <c r="Q45" s="72"/>
+      <c r="P45" s="100"/>
+      <c r="Q45" s="59"/>
       <c r="R45" s="22"/>
       <c r="S45" s="22"/>
-      <c r="T45" s="107">
+      <c r="T45" s="94">
         <f>F45*T30*100</f>
         <v>1989.5904608939261</v>
       </c>
-      <c r="U45" s="73">
+      <c r="U45" s="60">
         <f>$F$19*(U30-(U29-$T$3))*100</f>
-        <v>994.79523044696305</v>
+        <v>9351.0751662014536</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B46" s="83" t="s">
+      <c r="B46" s="70" t="s">
         <v>49</v>
       </c>
       <c r="C46" s="20">
@@ -7411,93 +7548,93 @@
         <f t="shared" si="20"/>
         <v>8.4275093275118511</v>
       </c>
-      <c r="F46" s="86">
+      <c r="F46" s="73">
         <v>3.2191573657263728</v>
       </c>
-      <c r="G46" s="75"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="76"/>
-      <c r="N46" s="76"/>
-      <c r="O46" s="76"/>
-      <c r="P46" s="114"/>
-      <c r="Q46" s="75"/>
-      <c r="R46" s="76"/>
-      <c r="S46" s="76"/>
-      <c r="T46" s="76"/>
-      <c r="U46" s="108">
+      <c r="G46" s="62"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="63"/>
+      <c r="P46" s="101"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="63"/>
+      <c r="S46" s="63"/>
+      <c r="T46" s="63"/>
+      <c r="U46" s="95">
         <f>F46*U30*100</f>
         <v>3219.157365726373</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B47" s="24"/>
-      <c r="F47" s="77">
+      <c r="F47" s="64">
         <f>SUM(F32:F46)</f>
         <v>7.7681042424826501</v>
       </c>
-      <c r="G47" s="110">
+      <c r="G47" s="97">
         <f>SUM(G32:G46)</f>
         <v>30</v>
       </c>
-      <c r="H47" s="111">
+      <c r="H47" s="98">
         <f t="shared" ref="H47:U47" si="32">SUM(H32:H46)</f>
-        <v>55</v>
-      </c>
-      <c r="I47" s="111">
+        <v>58</v>
+      </c>
+      <c r="I47" s="98">
         <f t="shared" si="32"/>
-        <v>75</v>
-      </c>
-      <c r="J47" s="111">
+        <v>84</v>
+      </c>
+      <c r="J47" s="98">
         <f t="shared" si="32"/>
-        <v>90</v>
-      </c>
-      <c r="K47" s="111">
+        <v>117</v>
+      </c>
+      <c r="K47" s="98">
         <f t="shared" si="32"/>
-        <v>100</v>
-      </c>
-      <c r="L47" s="111">
+        <v>148</v>
+      </c>
+      <c r="L47" s="98">
         <f t="shared" si="32"/>
-        <v>105</v>
-      </c>
-      <c r="M47" s="111">
+        <v>180</v>
+      </c>
+      <c r="M47" s="98">
         <f t="shared" si="32"/>
-        <v>105</v>
-      </c>
-      <c r="N47" s="111">
+        <v>213</v>
+      </c>
+      <c r="N47" s="98">
         <f t="shared" si="32"/>
-        <v>100</v>
-      </c>
-      <c r="O47" s="111">
+        <v>247</v>
+      </c>
+      <c r="O47" s="98">
         <f t="shared" si="32"/>
-        <v>90</v>
-      </c>
-      <c r="P47" s="115">
+        <v>282</v>
+      </c>
+      <c r="P47" s="102">
         <f t="shared" si="32"/>
-        <v>75</v>
-      </c>
-      <c r="Q47" s="109">
+        <v>318</v>
+      </c>
+      <c r="Q47" s="96">
         <f t="shared" si="32"/>
-        <v>294.7081958909929</v>
-      </c>
-      <c r="R47" s="109">
+        <v>594.7081958909929</v>
+      </c>
+      <c r="R47" s="96">
         <f t="shared" si="32"/>
-        <v>769.84195889712305</v>
-      </c>
-      <c r="S47" s="109">
+        <v>2649.8790053373996</v>
+      </c>
+      <c r="S47" s="96">
         <f t="shared" si="32"/>
-        <v>1334.6542894955451</v>
-      </c>
-      <c r="T47" s="109">
+        <v>6121.5600941289749</v>
+      </c>
+      <c r="T47" s="96">
         <f t="shared" si="32"/>
-        <v>2044.5665424582953</v>
-      </c>
-      <c r="U47" s="109">
+        <v>12026.056564321463</v>
+      </c>
+      <c r="U47" s="96">
         <f t="shared" si="32"/>
-        <v>2989.25046980653</v>
+        <v>22094.827352182896</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.45">
@@ -7505,6 +7642,21 @@
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" s="24"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B50" s="24"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B51" s="24"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B52" s="24"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B53" s="24"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B54" s="24"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/bsc_scan_binance/src/main/resources/MQL5/XXX.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\ScanBinance\bsc_scan_binance\src\main\resources\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83338E18-6260-4E92-B715-C50DB7C5194B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060B83E6-279D-47B3-90F0-F4866786C725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6072" yWindow="4620" windowWidth="32100" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6072" yWindow="0" windowWidth="32100" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Input L30" sheetId="2" r:id="rId1"/>
@@ -410,7 +410,7 @@
     <numFmt numFmtId="180" formatCode="0.00;\-0.00;;\ @"/>
     <numFmt numFmtId="181" formatCode="#,##0.000"/>
     <numFmt numFmtId="182" formatCode="#,##0.000_);\(#,##0.000\)"/>
-    <numFmt numFmtId="187" formatCode="#,##0_);\(#,##0\)"/>
+    <numFmt numFmtId="183" formatCode="#,##0_);\(#,##0\)"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1568,6 +1568,18 @@
     <xf numFmtId="3" fontId="11" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="18" fillId="20" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="18" fillId="20" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="15" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1591,18 +1603,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="20" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="18" fillId="20" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2870,7 +2870,7 @@
   <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2885,12 +2885,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
+      <c r="A1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
     </row>
     <row r="2" spans="1:24" ht="25.2" x14ac:dyDescent="0.4">
       <c r="A2" s="51" t="s">
@@ -2898,24 +2898,24 @@
       </c>
       <c r="B2" s="52"/>
       <c r="C2" s="53"/>
-      <c r="D2" s="114">
-        <v>10</v>
+      <c r="D2" s="106">
+        <v>3</v>
       </c>
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
-      <c r="J2" s="111" t="s">
+      <c r="J2" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111" t="s">
+      <c r="K2" s="115"/>
+      <c r="L2" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111" t="s">
+      <c r="M2" s="115"/>
+      <c r="N2" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
       <c r="Q2" s="45"/>
       <c r="R2" s="45"/>
       <c r="S2" s="45"/>
@@ -2933,27 +2933,27 @@
       <c r="C3" s="53"/>
       <c r="D3" s="48">
         <f>D2</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
-      <c r="J3" s="108">
+      <c r="J3" s="112">
         <f>SUM('Bảng Input L30'!B13:B44)</f>
         <v>22.048074582385389</v>
       </c>
-      <c r="K3" s="108"/>
-      <c r="L3" s="109">
+      <c r="K3" s="112"/>
+      <c r="L3" s="113">
         <f>J3*91</f>
         <v>2006.3747869970705</v>
       </c>
-      <c r="M3" s="109"/>
-      <c r="N3" s="110">
+      <c r="M3" s="113"/>
+      <c r="N3" s="114">
         <f>L3+'Bảng Input L30'!C45</f>
-        <v>37440.15242839737</v>
-      </c>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
+        <v>12636.508079417161</v>
+      </c>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
       <c r="Q3" s="25"/>
       <c r="R3" s="25"/>
       <c r="S3" s="25"/>
@@ -2971,12 +2971,12 @@
       <c r="C4" s="53"/>
       <c r="D4" s="48">
         <f>D3</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="112">
+      <c r="H4" s="104">
         <f>D9</f>
         <v>1.6180000000000001</v>
       </c>
@@ -3007,14 +3007,14 @@
       <c r="C5" s="53"/>
       <c r="D5" s="48">
         <f>D4</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="113">
+      <c r="H5" s="105">
         <f>D2</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I5" s="2">
         <v>1.6180000000000001</v>
@@ -3043,14 +3043,14 @@
       <c r="C6" s="53"/>
       <c r="D6" s="48">
         <f>D5</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G6" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="113">
-        <f>H5*3</f>
-        <v>30</v>
+      <c r="H6" s="105">
+        <f>H5*2</f>
+        <v>6</v>
       </c>
       <c r="N6" s="46" t="s">
         <v>13</v>
@@ -3064,7 +3064,7 @@
       <c r="C7" s="53"/>
       <c r="D7" s="48">
         <f>D6</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3073,63 +3073,63 @@
       </c>
       <c r="J7" s="43">
         <f>I7-H$5</f>
-        <v>2190</v>
+        <v>2197</v>
       </c>
       <c r="K7" s="43">
         <f t="shared" ref="K7:X7" si="0">J7-$H$5</f>
-        <v>2180</v>
+        <v>2194</v>
       </c>
       <c r="L7" s="43">
         <f t="shared" si="0"/>
-        <v>2170</v>
+        <v>2191</v>
       </c>
       <c r="M7" s="43">
         <f t="shared" si="0"/>
-        <v>2160</v>
+        <v>2188</v>
       </c>
       <c r="N7" s="43">
         <f t="shared" si="0"/>
-        <v>2150</v>
+        <v>2185</v>
       </c>
       <c r="O7" s="43">
         <f t="shared" si="0"/>
-        <v>2140</v>
+        <v>2182</v>
       </c>
       <c r="P7" s="43">
         <f t="shared" si="0"/>
-        <v>2130</v>
+        <v>2179</v>
       </c>
       <c r="Q7" s="43">
         <f t="shared" si="0"/>
-        <v>2120</v>
+        <v>2176</v>
       </c>
       <c r="R7" s="43">
         <f t="shared" si="0"/>
-        <v>2110</v>
+        <v>2173</v>
       </c>
       <c r="S7" s="43">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>2170</v>
       </c>
       <c r="T7" s="43">
         <f t="shared" si="0"/>
-        <v>2090</v>
+        <v>2167</v>
       </c>
       <c r="U7" s="43">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>2164</v>
       </c>
       <c r="V7" s="43">
         <f t="shared" si="0"/>
-        <v>2070</v>
+        <v>2161</v>
       </c>
       <c r="W7" s="43">
         <f t="shared" si="0"/>
-        <v>2060</v>
+        <v>2158</v>
       </c>
       <c r="X7" s="43">
         <f t="shared" si="0"/>
-        <v>2050</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
@@ -3148,63 +3148,63 @@
       </c>
       <c r="J8" s="43">
         <f t="shared" ref="J8:X8" si="1">$I$7-J7</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K8" s="43">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L8" s="43">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="M8" s="43">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="N8" s="43">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="O8" s="43">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="P8" s="43">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="43">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="R8" s="43">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="S8" s="43">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="T8" s="43">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="U8" s="43">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="V8" s="43">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="W8" s="43">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="X8" s="43">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="B10" s="52"/>
       <c r="C10" s="53"/>
-      <c r="D10" s="115">
+      <c r="D10" s="107">
         <v>15</v>
       </c>
       <c r="G10" s="38" t="s">
@@ -3349,67 +3349,67 @@
       </c>
       <c r="I11" s="36">
         <f>H11*H6*100</f>
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="J11" s="36">
         <f>H11*100*(H6-H5)</f>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="K11" s="36">
         <f t="shared" ref="K11:X11" si="2">$H$11*100*($H$6-$H$5*J10)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L11" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="M11" s="36">
         <f>$H$11*100*($H$6-$H$5*L10)</f>
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="N11" s="36">
         <f t="shared" si="2"/>
-        <v>-20</v>
+        <v>-9</v>
       </c>
       <c r="O11" s="36">
         <f t="shared" si="2"/>
-        <v>-30</v>
+        <v>-12</v>
       </c>
       <c r="P11" s="36">
         <f t="shared" si="2"/>
-        <v>-40</v>
+        <v>-15</v>
       </c>
       <c r="Q11" s="36">
         <f t="shared" si="2"/>
-        <v>-50</v>
+        <v>-18</v>
       </c>
       <c r="R11" s="36">
         <f t="shared" si="2"/>
-        <v>-60</v>
+        <v>-21</v>
       </c>
       <c r="S11" s="36">
         <f t="shared" si="2"/>
-        <v>-70</v>
+        <v>-24</v>
       </c>
       <c r="T11" s="36">
         <f t="shared" si="2"/>
-        <v>-80</v>
+        <v>-27</v>
       </c>
       <c r="U11" s="36">
         <f t="shared" si="2"/>
-        <v>-90</v>
+        <v>-30</v>
       </c>
       <c r="V11" s="36">
         <f t="shared" si="2"/>
-        <v>-100</v>
+        <v>-33</v>
       </c>
       <c r="W11" s="36">
         <f t="shared" si="2"/>
-        <v>-110</v>
+        <v>-36</v>
       </c>
       <c r="X11" s="36">
         <f t="shared" si="2"/>
-        <v>-120</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3435,63 +3435,63 @@
       <c r="I12" s="3"/>
       <c r="J12" s="36">
         <f>H12*100*H6</f>
-        <v>48.54</v>
+        <v>9.7079999999999984</v>
       </c>
       <c r="K12" s="36">
         <f>H12*100*(H6-H5)</f>
-        <v>32.36</v>
+        <v>4.8539999999999992</v>
       </c>
       <c r="L12" s="36">
         <f t="shared" ref="L12:X12" si="4">$H$12*100*($H$6-$H$5*J10)</f>
-        <v>16.18</v>
+        <v>0</v>
       </c>
       <c r="M12" s="36">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-4.8539999999999992</v>
       </c>
       <c r="N12" s="36">
         <f t="shared" si="4"/>
-        <v>-16.18</v>
+        <v>-9.7079999999999984</v>
       </c>
       <c r="O12" s="36">
         <f t="shared" si="4"/>
-        <v>-32.36</v>
+        <v>-14.561999999999999</v>
       </c>
       <c r="P12" s="36">
         <f t="shared" si="4"/>
-        <v>-48.54</v>
+        <v>-19.415999999999997</v>
       </c>
       <c r="Q12" s="36">
         <f t="shared" si="4"/>
-        <v>-64.72</v>
+        <v>-24.27</v>
       </c>
       <c r="R12" s="36">
         <f t="shared" si="4"/>
-        <v>-80.899999999999991</v>
+        <v>-29.123999999999999</v>
       </c>
       <c r="S12" s="36">
         <f t="shared" si="4"/>
-        <v>-97.08</v>
+        <v>-33.977999999999994</v>
       </c>
       <c r="T12" s="36">
         <f t="shared" si="4"/>
-        <v>-113.25999999999999</v>
+        <v>-38.831999999999994</v>
       </c>
       <c r="U12" s="36">
         <f t="shared" si="4"/>
-        <v>-129.44</v>
+        <v>-43.686</v>
       </c>
       <c r="V12" s="36">
         <f t="shared" si="4"/>
-        <v>-145.61999999999998</v>
+        <v>-48.54</v>
       </c>
       <c r="W12" s="36">
         <f t="shared" si="4"/>
-        <v>-161.79999999999998</v>
+        <v>-53.393999999999998</v>
       </c>
       <c r="X12" s="36">
         <f t="shared" si="4"/>
-        <v>-177.98</v>
+        <v>-58.247999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
@@ -3505,11 +3505,11 @@
       </c>
       <c r="C13" s="9">
         <f>+B13*D13*100</f>
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="D13" s="9">
         <f>IF(A13=0,0,$D$2+$D$3+$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="G13" s="39">
         <v>3</v>
@@ -3522,59 +3522,59 @@
       <c r="J13" s="3"/>
       <c r="K13" s="36">
         <f>H13*100*H6</f>
-        <v>78.537720000000007</v>
+        <v>15.707544000000002</v>
       </c>
       <c r="L13" s="36">
         <f>H13*100*(H6-H5)</f>
-        <v>52.358480000000007</v>
+        <v>7.8537720000000011</v>
       </c>
       <c r="M13" s="36">
         <f t="shared" ref="M13:X13" si="5">$H$13*100*($H$6-$H$5*J10)</f>
-        <v>26.179240000000004</v>
+        <v>0</v>
       </c>
       <c r="N13" s="36">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-7.8537720000000011</v>
       </c>
       <c r="O13" s="36">
         <f t="shared" si="5"/>
-        <v>-26.179240000000004</v>
+        <v>-15.707544000000002</v>
       </c>
       <c r="P13" s="36">
         <f t="shared" si="5"/>
-        <v>-52.358480000000007</v>
+        <v>-23.561316000000005</v>
       </c>
       <c r="Q13" s="36">
         <f t="shared" si="5"/>
-        <v>-78.537720000000007</v>
+        <v>-31.415088000000004</v>
       </c>
       <c r="R13" s="36">
         <f t="shared" si="5"/>
-        <v>-104.71696000000001</v>
+        <v>-39.268860000000004</v>
       </c>
       <c r="S13" s="36">
         <f t="shared" si="5"/>
-        <v>-130.89620000000002</v>
+        <v>-47.12263200000001</v>
       </c>
       <c r="T13" s="36">
         <f t="shared" si="5"/>
-        <v>-157.07544000000001</v>
+        <v>-54.976404000000009</v>
       </c>
       <c r="U13" s="36">
         <f t="shared" si="5"/>
-        <v>-183.25468000000004</v>
+        <v>-62.830176000000009</v>
       </c>
       <c r="V13" s="36">
         <f t="shared" si="5"/>
-        <v>-209.43392000000003</v>
+        <v>-70.683948000000015</v>
       </c>
       <c r="W13" s="36">
         <f t="shared" si="5"/>
-        <v>-235.61316000000002</v>
+        <v>-78.537720000000007</v>
       </c>
       <c r="X13" s="36">
         <f t="shared" si="5"/>
-        <v>-261.79240000000004</v>
+        <v>-86.391492000000014</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
@@ -3588,11 +3588,11 @@
       </c>
       <c r="C14" s="9">
         <f t="shared" ref="C14:C44" si="8">+B14*D14*100</f>
-        <v>210.34</v>
+        <v>63.102000000000004</v>
       </c>
       <c r="D14" s="9">
         <f>IF(A14=0,0,$D$3+$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="G14" s="39">
         <v>4</v>
@@ -3606,55 +3606,55 @@
       <c r="K14" s="3"/>
       <c r="L14" s="36">
         <f>H14*100*H6</f>
-        <v>127.07403096000002</v>
+        <v>25.414806192</v>
       </c>
       <c r="M14" s="36">
         <f>H14*100*(H6-H5)</f>
-        <v>84.716020640000011</v>
+        <v>12.707403096</v>
       </c>
       <c r="N14" s="36">
         <f t="shared" ref="N14:X14" si="9">$H$14*100*($H$6-$H$5*J10)</f>
-        <v>42.358010320000005</v>
+        <v>0</v>
       </c>
       <c r="O14" s="36">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-12.707403096</v>
       </c>
       <c r="P14" s="36">
         <f t="shared" si="9"/>
-        <v>-42.358010320000005</v>
+        <v>-25.414806192</v>
       </c>
       <c r="Q14" s="36">
         <f t="shared" si="9"/>
-        <v>-84.716020640000011</v>
+        <v>-38.122209288000001</v>
       </c>
       <c r="R14" s="36">
         <f t="shared" si="9"/>
-        <v>-127.07403096000002</v>
+        <v>-50.829612384000001</v>
       </c>
       <c r="S14" s="36">
         <f t="shared" si="9"/>
-        <v>-169.43204128000002</v>
+        <v>-63.537015480000008</v>
       </c>
       <c r="T14" s="36">
         <f t="shared" si="9"/>
-        <v>-211.79005160000003</v>
+        <v>-76.244418576000001</v>
       </c>
       <c r="U14" s="36">
         <f t="shared" si="9"/>
-        <v>-254.14806192000003</v>
+        <v>-88.951821672000008</v>
       </c>
       <c r="V14" s="36">
         <f t="shared" si="9"/>
-        <v>-296.50607224000004</v>
+        <v>-101.659224768</v>
       </c>
       <c r="W14" s="36">
         <f t="shared" si="9"/>
-        <v>-338.86408256000004</v>
+        <v>-114.36662786400001</v>
       </c>
       <c r="X14" s="36">
         <f t="shared" si="9"/>
-        <v>-381.22209288000005</v>
+        <v>-127.07403096000002</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
@@ -3668,11 +3668,11 @@
       </c>
       <c r="C15" s="9">
         <f t="shared" si="8"/>
-        <v>314.15088000000003</v>
+        <v>94.245264000000006</v>
       </c>
       <c r="D15" s="9">
         <f>IF(A15=0,0,$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="G15" s="39">
         <v>5</v>
@@ -3687,51 +3687,51 @@
       <c r="L15" s="3"/>
       <c r="M15" s="36">
         <f>H15*H6*100</f>
-        <v>205.60578209328006</v>
+        <v>41.121156418656014</v>
       </c>
       <c r="N15" s="36">
         <f>H15*100*(H6-H5)</f>
-        <v>137.07052139552002</v>
+        <v>20.560578209328003</v>
       </c>
       <c r="O15" s="36">
         <f t="shared" ref="O15:X15" si="10">$H$15*100*($H$6-$H$5*J10)</f>
-        <v>68.535260697760009</v>
+        <v>0</v>
       </c>
       <c r="P15" s="36">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-20.560578209328003</v>
       </c>
       <c r="Q15" s="36">
         <f t="shared" si="10"/>
-        <v>-68.535260697760009</v>
+        <v>-41.121156418656007</v>
       </c>
       <c r="R15" s="36">
         <f t="shared" si="10"/>
-        <v>-137.07052139552002</v>
+        <v>-61.681734627984014</v>
       </c>
       <c r="S15" s="36">
         <f t="shared" si="10"/>
-        <v>-205.60578209328006</v>
+        <v>-82.242312837312014</v>
       </c>
       <c r="T15" s="36">
         <f t="shared" si="10"/>
-        <v>-274.14104279104004</v>
+        <v>-102.80289104664003</v>
       </c>
       <c r="U15" s="36">
         <f t="shared" si="10"/>
-        <v>-342.67630348880004</v>
+        <v>-123.36346925596803</v>
       </c>
       <c r="V15" s="36">
         <f t="shared" si="10"/>
-        <v>-411.21156418656011</v>
+        <v>-143.92404746529604</v>
       </c>
       <c r="W15" s="36">
         <f t="shared" si="10"/>
-        <v>-479.74682488432012</v>
+        <v>-164.48462567462403</v>
       </c>
       <c r="X15" s="36">
         <f t="shared" si="10"/>
-        <v>-548.28208558208007</v>
+        <v>-185.04520388395204</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
@@ -3745,11 +3745,11 @@
       </c>
       <c r="C16" s="9">
         <f t="shared" si="8"/>
-        <v>465.93811352000012</v>
+        <v>139.78143405600002</v>
       </c>
       <c r="D16" s="9">
         <f>IF(A16=0,0,$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="G16" s="39">
         <v>6</v>
@@ -3765,47 +3765,47 @@
       <c r="M16" s="3"/>
       <c r="N16" s="36">
         <f>H16*H6*100</f>
-        <v>332.67015542692712</v>
+        <v>66.534031085385422</v>
       </c>
       <c r="O16" s="36">
         <f>H16*100*(H6-H5)</f>
-        <v>221.78010361795143</v>
+        <v>33.267015542692711</v>
       </c>
       <c r="P16" s="36">
         <f t="shared" ref="P16:X16" si="11">$H$16*100*($H$6-$H$5*J10)</f>
-        <v>110.89005180897571</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="36">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-33.267015542692711</v>
       </c>
       <c r="R16" s="36">
         <f t="shared" si="11"/>
-        <v>-110.89005180897571</v>
+        <v>-66.534031085385422</v>
       </c>
       <c r="S16" s="36">
         <f t="shared" si="11"/>
-        <v>-221.78010361795143</v>
+        <v>-99.80104662807814</v>
       </c>
       <c r="T16" s="36">
         <f t="shared" si="11"/>
-        <v>-332.67015542692712</v>
+        <v>-133.06806217077084</v>
       </c>
       <c r="U16" s="36">
         <f t="shared" si="11"/>
-        <v>-443.56020723590285</v>
+        <v>-166.33507771346356</v>
       </c>
       <c r="V16" s="36">
         <f t="shared" si="11"/>
-        <v>-554.45025904487852</v>
+        <v>-199.60209325615628</v>
       </c>
       <c r="W16" s="36">
         <f t="shared" si="11"/>
-        <v>-665.34031085385425</v>
+        <v>-232.869108798849</v>
       </c>
       <c r="X16" s="36">
         <f t="shared" si="11"/>
-        <v>-776.23036266282998</v>
+        <v>-266.13612434154169</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
@@ -3819,11 +3819,11 @@
       </c>
       <c r="C17" s="9">
         <f t="shared" si="8"/>
-        <v>685.35260697760009</v>
+        <v>205.60578209328006</v>
       </c>
       <c r="D17" s="9">
         <f>IF(A17=0,0,$D$6+($D$7*($D$10-6)))</f>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G17" s="39">
         <v>7</v>
@@ -3840,43 +3840,43 @@
       <c r="N17" s="3"/>
       <c r="O17" s="36">
         <f>H6*H17*100</f>
-        <v>538.26031148076822</v>
+        <v>107.65206229615363</v>
       </c>
       <c r="P17" s="36">
         <f>H17*100*(H6-H5)</f>
-        <v>358.84020765384543</v>
+        <v>53.826031148076808</v>
       </c>
       <c r="Q17" s="36">
         <f t="shared" ref="Q17:X17" si="12">$H$17*100*($H$6-$H$5*J10)</f>
-        <v>179.42010382692271</v>
+        <v>0</v>
       </c>
       <c r="R17" s="36">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-53.826031148076808</v>
       </c>
       <c r="S17" s="36">
         <f t="shared" si="12"/>
-        <v>-179.42010382692271</v>
+        <v>-107.65206229615362</v>
       </c>
       <c r="T17" s="36">
         <f t="shared" si="12"/>
-        <v>-358.84020765384543</v>
+        <v>-161.47809344423044</v>
       </c>
       <c r="U17" s="36">
         <f t="shared" si="12"/>
-        <v>-538.26031148076811</v>
+        <v>-215.30412459230723</v>
       </c>
       <c r="V17" s="36">
         <f t="shared" si="12"/>
-        <v>-717.68041530769085</v>
+        <v>-269.13015574038405</v>
       </c>
       <c r="W17" s="36">
         <f t="shared" si="12"/>
-        <v>-897.10051913461348</v>
+        <v>-322.95618688846088</v>
       </c>
       <c r="X17" s="36">
         <f t="shared" si="12"/>
-        <v>-1076.5206229615362</v>
+        <v>-376.7822180365377</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
@@ -3890,11 +3890,11 @@
       </c>
       <c r="C18" s="9">
         <f t="shared" si="8"/>
-        <v>998.01046628078143</v>
+        <v>299.40313988423441</v>
       </c>
       <c r="D18" s="9">
         <f>IF(A18=0,0,($D$7*($D$10-6)))</f>
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="G18" s="39">
         <v>8</v>
@@ -3912,39 +3912,39 @@
       <c r="O18" s="3"/>
       <c r="P18" s="36">
         <f>H6*H18*100</f>
-        <v>870.90518397588289</v>
+        <v>174.18103679517657</v>
       </c>
       <c r="Q18" s="36">
         <f>H18*100*(H6-H5)</f>
-        <v>580.603455983922</v>
+        <v>87.090518397588298</v>
       </c>
       <c r="R18" s="36">
         <f t="shared" ref="R18:X18" si="13">$H$18*100*($H$6-$H$5*J10)</f>
-        <v>290.301727991961</v>
+        <v>0</v>
       </c>
       <c r="S18" s="36">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-87.090518397588298</v>
       </c>
       <c r="T18" s="36">
         <f t="shared" si="13"/>
-        <v>-290.301727991961</v>
+        <v>-174.1810367951766</v>
       </c>
       <c r="U18" s="36">
         <f t="shared" si="13"/>
-        <v>-580.603455983922</v>
+        <v>-261.27155519276488</v>
       </c>
       <c r="V18" s="36">
         <f t="shared" si="13"/>
-        <v>-870.90518397588289</v>
+        <v>-348.36207359035319</v>
       </c>
       <c r="W18" s="36">
         <f t="shared" si="13"/>
-        <v>-1161.206911967844</v>
+        <v>-435.45259198794145</v>
       </c>
       <c r="X18" s="36">
         <f t="shared" si="13"/>
-        <v>-1451.5086399598049</v>
+        <v>-522.54311038552976</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
@@ -3958,11 +3958,11 @@
       </c>
       <c r="C19" s="9">
         <f t="shared" si="8"/>
-        <v>1435.3608306153819</v>
+        <v>430.60824918461452</v>
       </c>
       <c r="D19" s="9">
         <f>IF(A19=0,0,($D$7*($D$10-7)))</f>
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="G19" s="39">
         <v>9</v>
@@ -3981,35 +3981,35 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="36">
         <f>H6*H19*100</f>
-        <v>1409.1245876729786</v>
+        <v>281.82491753459573</v>
       </c>
       <c r="R19" s="36">
         <f>H19*100*(H6-H5)</f>
-        <v>939.41639178198568</v>
+        <v>140.91245876729786</v>
       </c>
       <c r="S19" s="36">
         <f t="shared" ref="S19:X19" si="14">$H$19*100*($H$6-$H$5*J10)</f>
-        <v>469.70819589099284</v>
+        <v>0</v>
       </c>
       <c r="T19" s="36">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-140.91245876729786</v>
       </c>
       <c r="U19" s="36">
         <f t="shared" si="14"/>
-        <v>-469.70819589099284</v>
+        <v>-281.82491753459573</v>
       </c>
       <c r="V19" s="36">
         <f t="shared" si="14"/>
-        <v>-939.41639178198568</v>
+        <v>-422.73737630189356</v>
       </c>
       <c r="W19" s="36">
         <f t="shared" si="14"/>
-        <v>-1409.1245876729786</v>
+        <v>-563.64983506919145</v>
       </c>
       <c r="X19" s="36">
         <f t="shared" si="14"/>
-        <v>-1878.8327835639714</v>
+        <v>-704.56229383648929</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
@@ -4023,11 +4023,11 @@
       </c>
       <c r="C20" s="9">
         <f t="shared" si="8"/>
-        <v>2032.1120959437267</v>
+        <v>609.63362878311807</v>
       </c>
       <c r="D20" s="9">
         <f>IF(A20=0,0,($D$7*($D$10-8)))</f>
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="G20" s="39">
         <v>10</v>
@@ -4047,31 +4047,31 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="36">
         <f>H6*H20*100</f>
-        <v>2279.9635828548794</v>
+        <v>455.99271657097586</v>
       </c>
       <c r="S20" s="36">
         <f>H20*100*(H6-H5)</f>
-        <v>1519.9757219032531</v>
+        <v>227.99635828548799</v>
       </c>
       <c r="T20" s="36">
         <f>$H$20*100*($H$6-$H$5*J10)</f>
-        <v>759.98786095162654</v>
+        <v>0</v>
       </c>
       <c r="U20" s="36">
         <f>$H$20*100*($H$6-$H$5*K10)</f>
-        <v>0</v>
+        <v>-227.99635828548799</v>
       </c>
       <c r="V20" s="36">
         <f>$H$20*100*($H$6-$H$5*L10)</f>
-        <v>-759.98786095162654</v>
+        <v>-455.99271657097597</v>
       </c>
       <c r="W20" s="36">
         <f>$H$20*100*($H$6-$H$5*M10)</f>
-        <v>-1519.9757219032531</v>
+        <v>-683.98907485646396</v>
       </c>
       <c r="X20" s="36">
         <f>$H$20*100*($H$6-$H$5*N10)</f>
-        <v>-2279.9635828548799</v>
+        <v>-911.98543314195194</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
@@ -4085,11 +4085,11 @@
       </c>
       <c r="C21" s="9">
         <f t="shared" si="8"/>
-        <v>2818.2491753459572</v>
+        <v>845.47475260378724</v>
       </c>
       <c r="D21" s="9">
         <f>IF(A21=0,0,($D$7*($D$10-9)))</f>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G21" s="39">
         <v>11</v>
@@ -4110,27 +4110,27 @@
       <c r="R21" s="3"/>
       <c r="S21" s="37">
         <f>H6*H21*100</f>
-        <v>3688.9810770591948</v>
+        <v>737.79621541183906</v>
       </c>
       <c r="T21" s="37">
         <f>H21*100*(H6-H5)</f>
-        <v>2459.3207180394634</v>
+        <v>368.89810770591953</v>
       </c>
       <c r="U21" s="37">
         <f>$H$21*100*($H$6-$H$5*J10)</f>
-        <v>1229.6603590197317</v>
+        <v>0</v>
       </c>
       <c r="V21" s="37">
         <f>$H$21*100*($H$6-$H$5*K10)</f>
-        <v>0</v>
+        <v>-368.89810770591953</v>
       </c>
       <c r="W21" s="37">
         <f>$H$21*100*($H$6-$H$5*L10)</f>
-        <v>-1229.6603590197317</v>
+        <v>-737.79621541183906</v>
       </c>
       <c r="X21" s="37">
         <f>$H$21*100*($H$6-$H$5*M10)</f>
-        <v>-2459.3207180394634</v>
+        <v>-1106.6943231177586</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
@@ -4144,11 +4144,11 @@
       </c>
       <c r="C22" s="9">
         <f t="shared" si="8"/>
-        <v>3799.9393047581329</v>
+        <v>1139.9817914274397</v>
       </c>
       <c r="D22" s="9">
         <f>IF(A22=0,0,($D$7*($D$10-10)))</f>
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G22" s="39">
         <v>12</v>
@@ -4170,23 +4170,23 @@
       <c r="S22" s="37"/>
       <c r="T22" s="37">
         <f>H6*H22*100</f>
-        <v>5968.7713826817781</v>
+        <v>1193.7542765363555</v>
       </c>
       <c r="U22" s="37">
         <f>H22*100*(H6-H5)</f>
-        <v>3979.1809217878522</v>
+        <v>596.87713826817787</v>
       </c>
       <c r="V22" s="37">
         <f>$H$22*100*($H$6-$H$5*J10)</f>
-        <v>1989.5904608939261</v>
+        <v>0</v>
       </c>
       <c r="W22" s="37">
         <f>$H$22*100*($H$6-$H$5*K10)</f>
-        <v>0</v>
+        <v>-596.87713826817787</v>
       </c>
       <c r="X22" s="37">
         <f>$H$22*100*($H$6-$H$5*L10)</f>
-        <v>-1989.5904608939261</v>
+        <v>-1193.7542765363557</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
@@ -4200,11 +4200,11 @@
       </c>
       <c r="C23" s="9">
         <f t="shared" si="8"/>
-        <v>4918.6414360789267</v>
+        <v>1475.5924308236781</v>
       </c>
       <c r="D23" s="9">
         <f>IF(A23=0,0,($D$7*($D$10-11)))</f>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G23" s="39">
         <v>13</v>
@@ -4227,19 +4227,19 @@
       <c r="T23" s="37"/>
       <c r="U23" s="37">
         <f>H6*H23*100</f>
-        <v>9657.4720971791176</v>
+        <v>1931.4944194358236</v>
       </c>
       <c r="V23" s="37">
         <f>H23*100*(H6-H5)</f>
-        <v>6438.3147314527459</v>
+        <v>965.7472097179118</v>
       </c>
       <c r="W23" s="37">
         <f>$H$23*100*($H$6-$H$5*J10)</f>
-        <v>3219.157365726373</v>
+        <v>0</v>
       </c>
       <c r="X23" s="37">
         <f>$H$23*100*($H$6-$H$5*K10)</f>
-        <v>0</v>
+        <v>-965.7472097179118</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
@@ -4253,11 +4253,11 @@
       </c>
       <c r="C24" s="9">
         <f t="shared" si="8"/>
-        <v>5968.7713826817781</v>
+        <v>1790.6314148045335</v>
       </c>
       <c r="D24" s="9">
         <f>IF(A24=0,0,($D$7*($D$10-12)))</f>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G24" s="39">
         <v>14</v>
@@ -4281,15 +4281,15 @@
       <c r="U24" s="37"/>
       <c r="V24" s="37">
         <f>H6*H24*100</f>
-        <v>15625.789853235816</v>
+        <v>3125.157970647163</v>
       </c>
       <c r="W24" s="37">
         <f>H24*100*(H6-H5)</f>
-        <v>10417.193235490544</v>
+        <v>1562.5789853235817</v>
       </c>
       <c r="X24" s="37">
         <f>$H$24*100*($H$6-$H$5*J10)</f>
-        <v>5208.5966177452719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
@@ -4303,11 +4303,11 @@
       </c>
       <c r="C25" s="9">
         <f t="shared" si="8"/>
-        <v>6438.3147314527459</v>
+        <v>1931.4944194358236</v>
       </c>
       <c r="D25" s="9">
         <f>IF(A25=0,0,($D$7*($D$10-13)))</f>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G25" s="39">
         <v>15</v>
@@ -4332,11 +4332,11 @@
       <c r="V25" s="37"/>
       <c r="W25" s="37">
         <f>H6*H25*100</f>
-        <v>25282.527982535554</v>
+        <v>5056.5055965071115</v>
       </c>
       <c r="X25" s="37">
         <f>H24*100*(H6-H5)</f>
-        <v>10417.193235490544</v>
+        <v>1562.5789853235817</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
@@ -4350,11 +4350,11 @@
       </c>
       <c r="C26" s="9">
         <f t="shared" si="8"/>
-        <v>5208.5966177452719</v>
+        <v>1562.5789853235815</v>
       </c>
       <c r="D26" s="9">
         <f>IF(A26=0,0,($D$7*($D$10-14)))</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G26" s="39">
         <v>16</v>
@@ -4380,7 +4380,7 @@
       <c r="W26" s="37"/>
       <c r="X26" s="37">
         <f>H26*H6*100</f>
-        <v>40907.130275742529</v>
+        <v>8181.4260551485049</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
@@ -4409,67 +4409,67 @@
       </c>
       <c r="I27" s="42">
         <f t="shared" ref="I27:X27" si="15">SUM(I11:I26)</f>
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="J27" s="42">
         <f t="shared" si="15"/>
-        <v>68.539999999999992</v>
+        <v>12.707999999999998</v>
       </c>
       <c r="K27" s="42">
         <f t="shared" si="15"/>
-        <v>120.89772000000001</v>
+        <v>20.561544000000001</v>
       </c>
       <c r="L27" s="42">
         <f t="shared" si="15"/>
-        <v>195.61251096000001</v>
+        <v>30.268578192</v>
       </c>
       <c r="M27" s="42">
         <f t="shared" si="15"/>
-        <v>306.50104273328009</v>
+        <v>42.974559514656015</v>
       </c>
       <c r="N27" s="42">
         <f t="shared" si="15"/>
-        <v>475.91868714244714</v>
+        <v>60.532837294713431</v>
       </c>
       <c r="O27" s="42">
         <f t="shared" si="15"/>
-        <v>740.03643579647962</v>
+        <v>85.942130742846345</v>
       </c>
       <c r="P27" s="42">
         <f t="shared" si="15"/>
-        <v>1157.378953118704</v>
+        <v>124.05436754192537</v>
       </c>
       <c r="Q27" s="42">
         <f t="shared" si="15"/>
-        <v>1822.6391461460632</v>
+        <v>182.71996668283532</v>
       </c>
       <c r="R27" s="42">
         <f t="shared" si="15"/>
-        <v>2889.0301384643303</v>
+        <v>274.64090609282744</v>
       </c>
       <c r="S27" s="42">
         <f t="shared" si="15"/>
-        <v>4604.4507640352867</v>
+        <v>420.36898605819499</v>
       </c>
       <c r="T27" s="42">
         <f t="shared" si="15"/>
-        <v>7370.001336209094</v>
+        <v>653.15701944215925</v>
       </c>
       <c r="U27" s="42">
         <f t="shared" si="15"/>
-        <v>11834.662161986314</v>
+        <v>1026.8080574574142</v>
       </c>
       <c r="V27" s="42">
         <f t="shared" si="15"/>
-        <v>19048.483378093864</v>
+        <v>1628.3754369660958</v>
       </c>
       <c r="W27" s="42">
         <f t="shared" si="15"/>
-        <v>30710.446105755873</v>
+        <v>2598.7114570111453</v>
       </c>
       <c r="X27" s="42">
         <f t="shared" si="15"/>
-        <v>43131.676379579854</v>
+        <v>3200.0413245140589</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
@@ -4833,17 +4833,17 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="106" t="s">
+      <c r="A45" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="107"/>
+      <c r="B45" s="111"/>
       <c r="C45" s="30">
         <f>SUM(C13:C44)</f>
-        <v>35433.777641400302</v>
+        <v>10630.133292420091</v>
       </c>
       <c r="D45" s="31">
         <f>MAX(D13:D44)</f>
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/bsc_scan_binance/src/main/resources/MQL5/XXX.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\ScanBinance\bsc_scan_binance\src\main\resources\MQL5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiGek\bsc_scan_binance\src\main\resources\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060B83E6-279D-47B3-90F0-F4866786C725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6072" yWindow="0" windowWidth="32100" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6072" yWindow="0" windowWidth="32100" windowHeight="16680"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Input L30" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
     <sheet name="Tính TP thay đổi hệ số, quãng" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet1 (2)" sheetId="9" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -242,7 +242,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -320,7 +320,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -401,36 +401,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="0;\-0;;\ @"/>
-    <numFmt numFmtId="180" formatCode="0.00;\-0.00;;\ @"/>
-    <numFmt numFmtId="181" formatCode="#,##0.000"/>
-    <numFmt numFmtId="182" formatCode="#,##0.000_);\(#,##0.000\)"/>
-    <numFmt numFmtId="183" formatCode="#,##0_);\(#,##0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0;\-0;;\ @"/>
+    <numFmt numFmtId="167" formatCode="0.00;\-0.00;;\ @"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.000_);\(#,##0.000\)"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -444,33 +443,33 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1288,7 +1287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -1300,15 +1299,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="179" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1346,22 +1345,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="179" fontId="13" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -1406,19 +1405,19 @@
     <xf numFmtId="4" fontId="19" fillId="17" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="15" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="11" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1568,16 +1567,16 @@
     <xf numFmtId="3" fontId="11" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="20" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="18" fillId="20" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="18" fillId="20" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="18" fillId="20" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1607,12 +1606,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Input" xfId="6" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -1766,7 +1765,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1810,7 +1809,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1854,7 +1853,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1897,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +1941,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1986,7 +1985,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2030,7 +2029,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2074,7 +2073,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2118,7 +2117,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2162,7 +2161,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2206,7 +2205,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2249,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2294,7 +2293,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2338,7 +2337,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2381,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2431,7 +2430,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FEEA44E-3371-1BF6-9579-7574AF61AB11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0FEEA44E-3371-1BF6-9579-7574AF61AB11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2475,7 +2474,7 @@
         <xdr:cNvPr id="13" name="Group 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE8F6142-CAC0-B2C8-3DFC-4405A2B7E2F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE8F6142-CAC0-B2C8-3DFC-4405A2B7E2F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2494,7 +2493,7 @@
           <xdr:cNvPr id="10" name="Picture 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17C0D9C-C1A8-44E4-BA80-4FF45A16E8BE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A17C0D9C-C1A8-44E4-BA80-4FF45A16E8BE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2522,7 +2521,7 @@
           <xdr:cNvPr id="11" name="Picture 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD89EAA5-933D-43F9-9188-1CF5419B887C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD89EAA5-933D-43F9-9188-1CF5419B887C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2551,7 +2550,7 @@
           <xdr:cNvPr id="12" name="Speech Bubble: Oval 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA588575-FDE5-2D41-5369-43FCF08A7D34}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA588575-FDE5-2D41-5369-43FCF08A7D34}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2599,6 +2598,125 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>169600</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>78674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="182880"/>
+          <a:ext cx="14800000" cy="10685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>190551</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>31303</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="601980" y="10942320"/>
+          <a:ext cx="14828571" cy="8657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>283886</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>13935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="19933920"/>
+          <a:ext cx="14914286" cy="10438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2866,25 +2984,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.69921875" style="12" customWidth="1"/>
-    <col min="3" max="4" width="14.69921875" style="11" customWidth="1"/>
-    <col min="5" max="6" width="9.09765625" style="5"/>
+    <col min="1" max="1" width="14.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="12" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" style="11" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="5"/>
     <col min="7" max="7" width="19" style="5" customWidth="1"/>
-    <col min="8" max="24" width="10.59765625" style="5" customWidth="1"/>
-    <col min="25" max="16384" width="9.09765625" style="5"/>
+    <col min="8" max="24" width="10.5546875" style="5" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="16.8">
       <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
@@ -2892,14 +3010,14 @@
       <c r="C1" s="109"/>
       <c r="D1" s="109"/>
     </row>
-    <row r="2" spans="1:24" ht="25.2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" ht="25.2">
       <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="52"/>
       <c r="C2" s="53"/>
       <c r="D2" s="106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
@@ -2925,7 +3043,7 @@
       <c r="W2" s="45"/>
       <c r="X2" s="45"/>
     </row>
-    <row r="3" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="16.8">
       <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
@@ -2933,24 +3051,24 @@
       <c r="C3" s="53"/>
       <c r="D3" s="48">
         <f>D2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="112">
-        <f>SUM('Bảng Input L30'!B13:B44)</f>
-        <v>22.048074582385389</v>
+        <f>SUM('Bảng Input L30'!B13:B43)</f>
+        <v>35.683784674299567</v>
       </c>
       <c r="K3" s="112"/>
       <c r="L3" s="113">
         <f>J3*91</f>
-        <v>2006.3747869970705</v>
+        <v>3247.2244053612608</v>
       </c>
       <c r="M3" s="113"/>
       <c r="N3" s="114">
-        <f>L3+'Bảng Input L30'!C45</f>
-        <v>12636.508079417161</v>
+        <f>L3+'Bảng Input L30'!C44</f>
+        <v>14743.594850118401</v>
       </c>
       <c r="O3" s="114"/>
       <c r="P3" s="114"/>
@@ -2963,7 +3081,7 @@
       <c r="W3" s="25"/>
       <c r="X3" s="25"/>
     </row>
-    <row r="4" spans="1:24" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="18.600000000000001">
       <c r="A4" s="51" t="s">
         <v>3</v>
       </c>
@@ -2971,7 +3089,7 @@
       <c r="C4" s="53"/>
       <c r="D4" s="48">
         <f>D3</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>14</v>
@@ -2999,7 +3117,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="18.600000000000001">
       <c r="A5" s="51" t="s">
         <v>4</v>
       </c>
@@ -3007,14 +3125,14 @@
       <c r="C5" s="53"/>
       <c r="D5" s="48">
         <f>D4</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>57</v>
       </c>
       <c r="H5" s="105">
         <f>D2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="2">
         <v>1.6180000000000001</v>
@@ -3035,7 +3153,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="20.399999999999999">
       <c r="A6" s="51" t="s">
         <v>5</v>
       </c>
@@ -3043,20 +3161,19 @@
       <c r="C6" s="53"/>
       <c r="D6" s="48">
         <f>D5</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="33" t="s">
         <v>75</v>
       </c>
       <c r="H6" s="105">
-        <f>H5*2</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N6" s="46" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="16.8">
       <c r="A7" s="51" t="s">
         <v>6</v>
       </c>
@@ -3064,7 +3181,7 @@
       <c r="C7" s="53"/>
       <c r="D7" s="48">
         <f>D6</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3073,66 +3190,66 @@
       </c>
       <c r="J7" s="43">
         <f>I7-H$5</f>
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="K7" s="43">
         <f t="shared" ref="K7:X7" si="0">J7-$H$5</f>
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="L7" s="43">
         <f t="shared" si="0"/>
-        <v>2191</v>
+        <v>2194</v>
       </c>
       <c r="M7" s="43">
         <f t="shared" si="0"/>
-        <v>2188</v>
+        <v>2192</v>
       </c>
       <c r="N7" s="43">
         <f t="shared" si="0"/>
-        <v>2185</v>
+        <v>2190</v>
       </c>
       <c r="O7" s="43">
         <f t="shared" si="0"/>
-        <v>2182</v>
+        <v>2188</v>
       </c>
       <c r="P7" s="43">
         <f t="shared" si="0"/>
-        <v>2179</v>
+        <v>2186</v>
       </c>
       <c r="Q7" s="43">
         <f t="shared" si="0"/>
-        <v>2176</v>
+        <v>2184</v>
       </c>
       <c r="R7" s="43">
         <f t="shared" si="0"/>
-        <v>2173</v>
+        <v>2182</v>
       </c>
       <c r="S7" s="43">
         <f t="shared" si="0"/>
-        <v>2170</v>
+        <v>2180</v>
       </c>
       <c r="T7" s="43">
         <f t="shared" si="0"/>
-        <v>2167</v>
+        <v>2178</v>
       </c>
       <c r="U7" s="43">
         <f t="shared" si="0"/>
-        <v>2164</v>
+        <v>2176</v>
       </c>
       <c r="V7" s="43">
         <f t="shared" si="0"/>
-        <v>2161</v>
+        <v>2174</v>
       </c>
       <c r="W7" s="43">
         <f t="shared" si="0"/>
-        <v>2158</v>
+        <v>2172</v>
       </c>
       <c r="X7" s="43">
         <f t="shared" si="0"/>
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="16.8">
       <c r="A8" s="51" t="s">
         <v>76</v>
       </c>
@@ -3148,66 +3265,66 @@
       </c>
       <c r="J8" s="43">
         <f t="shared" ref="J8:X8" si="1">$I$7-J7</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" s="43">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L8" s="43">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M8" s="43">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N8" s="43">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O8" s="43">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P8" s="43">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Q8" s="43">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R8" s="43">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="S8" s="43">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T8" s="43">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="U8" s="43">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="V8" s="43">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="W8" s="43">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="X8" s="43">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="16.8">
       <c r="A9" s="51" t="s">
         <v>7</v>
       </c>
@@ -3271,14 +3388,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="16.8">
       <c r="A10" s="51" t="s">
         <v>77</v>
       </c>
       <c r="B10" s="52"/>
       <c r="C10" s="53"/>
       <c r="D10" s="107">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>55</v>
@@ -3335,7 +3452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="17.399999999999999" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -3349,11 +3466,11 @@
       </c>
       <c r="I11" s="36">
         <f>H11*H6*100</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J11" s="36">
         <f>H11*100*(H6-H5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" s="36">
         <f t="shared" ref="K11:X11" si="2">$H$11*100*($H$6-$H$5*J10)</f>
@@ -3361,58 +3478,58 @@
       </c>
       <c r="L11" s="36">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="M11" s="36">
         <f>$H$11*100*($H$6-$H$5*L10)</f>
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="N11" s="36">
         <f t="shared" si="2"/>
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="O11" s="36">
         <f t="shared" si="2"/>
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="P11" s="36">
         <f t="shared" si="2"/>
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="Q11" s="36">
         <f t="shared" si="2"/>
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="R11" s="36">
         <f t="shared" si="2"/>
-        <v>-21</v>
+        <v>-14</v>
       </c>
       <c r="S11" s="36">
         <f t="shared" si="2"/>
-        <v>-24</v>
+        <v>-16</v>
       </c>
       <c r="T11" s="36">
         <f t="shared" si="2"/>
-        <v>-27</v>
+        <v>-18</v>
       </c>
       <c r="U11" s="36">
         <f t="shared" si="2"/>
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="V11" s="36">
         <f t="shared" si="2"/>
-        <v>-33</v>
+        <v>-22</v>
       </c>
       <c r="W11" s="36">
         <f t="shared" si="2"/>
-        <v>-36</v>
+        <v>-24</v>
       </c>
       <c r="X11" s="36">
         <f t="shared" si="2"/>
-        <v>-39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
@@ -3435,11 +3552,11 @@
       <c r="I12" s="3"/>
       <c r="J12" s="36">
         <f>H12*100*H6</f>
-        <v>9.7079999999999984</v>
+        <v>6.4719999999999995</v>
       </c>
       <c r="K12" s="36">
         <f>H12*100*(H6-H5)</f>
-        <v>4.8539999999999992</v>
+        <v>3.2359999999999998</v>
       </c>
       <c r="L12" s="36">
         <f t="shared" ref="L12:X12" si="4">$H$12*100*($H$6-$H$5*J10)</f>
@@ -3447,54 +3564,54 @@
       </c>
       <c r="M12" s="36">
         <f t="shared" si="4"/>
-        <v>-4.8539999999999992</v>
+        <v>-3.2359999999999998</v>
       </c>
       <c r="N12" s="36">
         <f t="shared" si="4"/>
-        <v>-9.7079999999999984</v>
+        <v>-6.4719999999999995</v>
       </c>
       <c r="O12" s="36">
         <f t="shared" si="4"/>
-        <v>-14.561999999999999</v>
+        <v>-9.7079999999999984</v>
       </c>
       <c r="P12" s="36">
         <f t="shared" si="4"/>
-        <v>-19.415999999999997</v>
+        <v>-12.943999999999999</v>
       </c>
       <c r="Q12" s="36">
         <f t="shared" si="4"/>
-        <v>-24.27</v>
+        <v>-16.18</v>
       </c>
       <c r="R12" s="36">
         <f t="shared" si="4"/>
-        <v>-29.123999999999999</v>
+        <v>-19.415999999999997</v>
       </c>
       <c r="S12" s="36">
         <f t="shared" si="4"/>
-        <v>-33.977999999999994</v>
+        <v>-22.651999999999997</v>
       </c>
       <c r="T12" s="36">
         <f t="shared" si="4"/>
-        <v>-38.831999999999994</v>
+        <v>-25.887999999999998</v>
       </c>
       <c r="U12" s="36">
         <f t="shared" si="4"/>
-        <v>-43.686</v>
+        <v>-29.123999999999999</v>
       </c>
       <c r="V12" s="36">
         <f t="shared" si="4"/>
-        <v>-48.54</v>
+        <v>-32.36</v>
       </c>
       <c r="W12" s="36">
         <f t="shared" si="4"/>
-        <v>-53.393999999999998</v>
+        <v>-35.595999999999997</v>
       </c>
       <c r="X12" s="36">
         <f t="shared" si="4"/>
-        <v>-58.247999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
+        <v>-38.831999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="17.399999999999999" thickTop="1">
       <c r="A13" s="29" t="str">
         <f>IF($D$10&gt;0,"L1",0)</f>
         <v>L1</v>
@@ -3505,11 +3622,11 @@
       </c>
       <c r="C13" s="9">
         <f>+B13*D13*100</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D13" s="9">
         <f>IF(A13=0,0,$D$2+$D$3+$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G13" s="39">
         <v>3</v>
@@ -3522,11 +3639,11 @@
       <c r="J13" s="3"/>
       <c r="K13" s="36">
         <f>H13*100*H6</f>
-        <v>15.707544000000002</v>
+        <v>10.471696000000001</v>
       </c>
       <c r="L13" s="36">
         <f>H13*100*(H6-H5)</f>
-        <v>7.8537720000000011</v>
+        <v>5.2358480000000007</v>
       </c>
       <c r="M13" s="36">
         <f t="shared" ref="M13:X13" si="5">$H$13*100*($H$6-$H$5*J10)</f>
@@ -3534,65 +3651,65 @@
       </c>
       <c r="N13" s="36">
         <f t="shared" si="5"/>
-        <v>-7.8537720000000011</v>
+        <v>-5.2358480000000007</v>
       </c>
       <c r="O13" s="36">
         <f t="shared" si="5"/>
-        <v>-15.707544000000002</v>
+        <v>-10.471696000000001</v>
       </c>
       <c r="P13" s="36">
         <f t="shared" si="5"/>
-        <v>-23.561316000000005</v>
+        <v>-15.707544000000002</v>
       </c>
       <c r="Q13" s="36">
         <f t="shared" si="5"/>
-        <v>-31.415088000000004</v>
+        <v>-20.943392000000003</v>
       </c>
       <c r="R13" s="36">
         <f t="shared" si="5"/>
-        <v>-39.268860000000004</v>
+        <v>-26.179240000000004</v>
       </c>
       <c r="S13" s="36">
         <f t="shared" si="5"/>
-        <v>-47.12263200000001</v>
+        <v>-31.415088000000004</v>
       </c>
       <c r="T13" s="36">
         <f t="shared" si="5"/>
-        <v>-54.976404000000009</v>
+        <v>-36.650936000000002</v>
       </c>
       <c r="U13" s="36">
         <f t="shared" si="5"/>
-        <v>-62.830176000000009</v>
+        <v>-41.886784000000006</v>
       </c>
       <c r="V13" s="36">
         <f t="shared" si="5"/>
-        <v>-70.683948000000015</v>
+        <v>-47.12263200000001</v>
       </c>
       <c r="W13" s="36">
         <f t="shared" si="5"/>
-        <v>-78.537720000000007</v>
+        <v>-52.358480000000007</v>
       </c>
       <c r="X13" s="36">
         <f t="shared" si="5"/>
-        <v>-86.391492000000014</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-57.594328000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="16.8">
       <c r="A14" s="29" t="str">
-        <f t="shared" ref="A14:A44" si="6">IF(A13=0,0,IF(VALUE(MID(A13,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A13,2,2))+1))</f>
+        <f t="shared" ref="A14:A43" si="6">IF(A13=0,0,IF(VALUE(MID(A13,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A13,2,2))+1))</f>
         <v>L2</v>
       </c>
       <c r="B14" s="10">
-        <f t="shared" ref="B14:B44" si="7">IF(A14&lt;&gt;0,B13*$D$9,0)</f>
+        <f t="shared" ref="B14:B43" si="7">IF(A14&lt;&gt;0,B13*$D$9,0)</f>
         <v>1.618E-2</v>
       </c>
       <c r="C14" s="9">
-        <f t="shared" ref="C14:C44" si="8">+B14*D14*100</f>
-        <v>63.102000000000004</v>
+        <f t="shared" ref="C14:C43" si="8">+B14*D14*100</f>
+        <v>45.304000000000002</v>
       </c>
       <c r="D14" s="9">
         <f>IF(A14=0,0,$D$3+$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G14" s="39">
         <v>4</v>
@@ -3606,11 +3723,11 @@
       <c r="K14" s="3"/>
       <c r="L14" s="36">
         <f>H14*100*H6</f>
-        <v>25.414806192</v>
+        <v>16.943204128000001</v>
       </c>
       <c r="M14" s="36">
         <f>H14*100*(H6-H5)</f>
-        <v>12.707403096</v>
+        <v>8.4716020640000007</v>
       </c>
       <c r="N14" s="36">
         <f t="shared" ref="N14:X14" si="9">$H$14*100*($H$6-$H$5*J10)</f>
@@ -3618,46 +3735,46 @@
       </c>
       <c r="O14" s="36">
         <f t="shared" si="9"/>
-        <v>-12.707403096</v>
+        <v>-8.4716020640000007</v>
       </c>
       <c r="P14" s="36">
         <f t="shared" si="9"/>
-        <v>-25.414806192</v>
+        <v>-16.943204128000001</v>
       </c>
       <c r="Q14" s="36">
         <f t="shared" si="9"/>
-        <v>-38.122209288000001</v>
+        <v>-25.414806192</v>
       </c>
       <c r="R14" s="36">
         <f t="shared" si="9"/>
-        <v>-50.829612384000001</v>
+        <v>-33.886408256000003</v>
       </c>
       <c r="S14" s="36">
         <f t="shared" si="9"/>
-        <v>-63.537015480000008</v>
+        <v>-42.358010320000005</v>
       </c>
       <c r="T14" s="36">
         <f t="shared" si="9"/>
-        <v>-76.244418576000001</v>
+        <v>-50.829612384000001</v>
       </c>
       <c r="U14" s="36">
         <f t="shared" si="9"/>
-        <v>-88.951821672000008</v>
+        <v>-59.301214448000003</v>
       </c>
       <c r="V14" s="36">
         <f t="shared" si="9"/>
-        <v>-101.659224768</v>
+        <v>-67.772816512000006</v>
       </c>
       <c r="W14" s="36">
         <f t="shared" si="9"/>
-        <v>-114.36662786400001</v>
+        <v>-76.244418576000001</v>
       </c>
       <c r="X14" s="36">
         <f t="shared" si="9"/>
-        <v>-127.07403096000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-84.716020640000011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="16.8">
       <c r="A15" s="29" t="str">
         <f t="shared" si="6"/>
         <v>L3</v>
@@ -3668,11 +3785,11 @@
       </c>
       <c r="C15" s="9">
         <f t="shared" si="8"/>
-        <v>94.245264000000006</v>
+        <v>68.066023999999999</v>
       </c>
       <c r="D15" s="9">
         <f>IF(A15=0,0,$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G15" s="39">
         <v>5</v>
@@ -3687,11 +3804,11 @@
       <c r="L15" s="3"/>
       <c r="M15" s="36">
         <f>H15*H6*100</f>
-        <v>41.121156418656014</v>
+        <v>27.414104279104006</v>
       </c>
       <c r="N15" s="36">
         <f>H15*100*(H6-H5)</f>
-        <v>20.560578209328003</v>
+        <v>13.707052139552003</v>
       </c>
       <c r="O15" s="36">
         <f t="shared" ref="O15:X15" si="10">$H$15*100*($H$6-$H$5*J10)</f>
@@ -3699,42 +3816,42 @@
       </c>
       <c r="P15" s="36">
         <f t="shared" si="10"/>
-        <v>-20.560578209328003</v>
+        <v>-13.707052139552003</v>
       </c>
       <c r="Q15" s="36">
         <f t="shared" si="10"/>
-        <v>-41.121156418656007</v>
+        <v>-27.414104279104006</v>
       </c>
       <c r="R15" s="36">
         <f t="shared" si="10"/>
-        <v>-61.681734627984014</v>
+        <v>-41.121156418656007</v>
       </c>
       <c r="S15" s="36">
         <f t="shared" si="10"/>
-        <v>-82.242312837312014</v>
+        <v>-54.828208558208011</v>
       </c>
       <c r="T15" s="36">
         <f t="shared" si="10"/>
-        <v>-102.80289104664003</v>
+        <v>-68.535260697760009</v>
       </c>
       <c r="U15" s="36">
         <f t="shared" si="10"/>
-        <v>-123.36346925596803</v>
+        <v>-82.242312837312014</v>
       </c>
       <c r="V15" s="36">
         <f t="shared" si="10"/>
-        <v>-143.92404746529604</v>
+        <v>-95.949364976864018</v>
       </c>
       <c r="W15" s="36">
         <f t="shared" si="10"/>
-        <v>-164.48462567462403</v>
+        <v>-109.65641711641602</v>
       </c>
       <c r="X15" s="36">
         <f t="shared" si="10"/>
-        <v>-185.04520388395204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-123.36346925596803</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="16.8">
       <c r="A16" s="29" t="str">
         <f t="shared" si="6"/>
         <v>L4</v>
@@ -3745,11 +3862,11 @@
       </c>
       <c r="C16" s="9">
         <f t="shared" si="8"/>
-        <v>139.78143405600002</v>
+        <v>101.65922476800003</v>
       </c>
       <c r="D16" s="9">
         <f>IF(A16=0,0,$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G16" s="39">
         <v>6</v>
@@ -3765,11 +3882,11 @@
       <c r="M16" s="3"/>
       <c r="N16" s="36">
         <f>H16*H6*100</f>
-        <v>66.534031085385422</v>
+        <v>44.356020723590284</v>
       </c>
       <c r="O16" s="36">
         <f>H16*100*(H6-H5)</f>
-        <v>33.267015542692711</v>
+        <v>22.178010361795142</v>
       </c>
       <c r="P16" s="36">
         <f t="shared" ref="P16:X16" si="11">$H$16*100*($H$6-$H$5*J10)</f>
@@ -3777,38 +3894,38 @@
       </c>
       <c r="Q16" s="36">
         <f t="shared" si="11"/>
-        <v>-33.267015542692711</v>
+        <v>-22.178010361795142</v>
       </c>
       <c r="R16" s="36">
         <f t="shared" si="11"/>
-        <v>-66.534031085385422</v>
+        <v>-44.356020723590284</v>
       </c>
       <c r="S16" s="36">
         <f t="shared" si="11"/>
-        <v>-99.80104662807814</v>
+        <v>-66.534031085385422</v>
       </c>
       <c r="T16" s="36">
         <f t="shared" si="11"/>
-        <v>-133.06806217077084</v>
+        <v>-88.712041447180567</v>
       </c>
       <c r="U16" s="36">
         <f t="shared" si="11"/>
-        <v>-166.33507771346356</v>
+        <v>-110.89005180897571</v>
       </c>
       <c r="V16" s="36">
         <f t="shared" si="11"/>
-        <v>-199.60209325615628</v>
+        <v>-133.06806217077084</v>
       </c>
       <c r="W16" s="36">
         <f t="shared" si="11"/>
-        <v>-232.869108798849</v>
+        <v>-155.24607253256599</v>
       </c>
       <c r="X16" s="36">
         <f t="shared" si="11"/>
-        <v>-266.13612434154169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-177.42408289436113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="16.8">
       <c r="A17" s="29" t="str">
         <f t="shared" si="6"/>
         <v>L5</v>
@@ -3819,11 +3936,11 @@
       </c>
       <c r="C17" s="9">
         <f t="shared" si="8"/>
-        <v>205.60578209328006</v>
+        <v>150.77757353507204</v>
       </c>
       <c r="D17" s="9">
         <f>IF(A17=0,0,$D$6+($D$7*($D$10-6)))</f>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G17" s="39">
         <v>7</v>
@@ -3840,11 +3957,11 @@
       <c r="N17" s="3"/>
       <c r="O17" s="36">
         <f>H6*H17*100</f>
-        <v>107.65206229615363</v>
+        <v>71.768041530769082</v>
       </c>
       <c r="P17" s="36">
         <f>H17*100*(H6-H5)</f>
-        <v>53.826031148076808</v>
+        <v>35.884020765384541</v>
       </c>
       <c r="Q17" s="36">
         <f t="shared" ref="Q17:X17" si="12">$H$17*100*($H$6-$H$5*J10)</f>
@@ -3852,34 +3969,34 @@
       </c>
       <c r="R17" s="36">
         <f t="shared" si="12"/>
-        <v>-53.826031148076808</v>
+        <v>-35.884020765384541</v>
       </c>
       <c r="S17" s="36">
         <f t="shared" si="12"/>
-        <v>-107.65206229615362</v>
+        <v>-71.768041530769082</v>
       </c>
       <c r="T17" s="36">
         <f t="shared" si="12"/>
-        <v>-161.47809344423044</v>
+        <v>-107.65206229615362</v>
       </c>
       <c r="U17" s="36">
         <f t="shared" si="12"/>
-        <v>-215.30412459230723</v>
+        <v>-143.53608306153816</v>
       </c>
       <c r="V17" s="36">
         <f t="shared" si="12"/>
-        <v>-269.13015574038405</v>
+        <v>-179.42010382692271</v>
       </c>
       <c r="W17" s="36">
         <f t="shared" si="12"/>
-        <v>-322.95618688846088</v>
+        <v>-215.30412459230723</v>
       </c>
       <c r="X17" s="36">
         <f t="shared" si="12"/>
-        <v>-376.7822180365377</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-251.18814535769178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="16.8">
       <c r="A18" s="29" t="str">
         <f t="shared" si="6"/>
         <v>L6</v>
@@ -3890,11 +4007,11 @@
       </c>
       <c r="C18" s="9">
         <f t="shared" si="8"/>
-        <v>299.40313988423441</v>
+        <v>221.78010361795143</v>
       </c>
       <c r="D18" s="9">
         <f>IF(A18=0,0,($D$7*($D$10-6)))</f>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G18" s="39">
         <v>8</v>
@@ -3912,11 +4029,11 @@
       <c r="O18" s="3"/>
       <c r="P18" s="36">
         <f>H6*H18*100</f>
-        <v>174.18103679517657</v>
+        <v>116.12069119678439</v>
       </c>
       <c r="Q18" s="36">
         <f>H18*100*(H6-H5)</f>
-        <v>87.090518397588298</v>
+        <v>58.060345598392196</v>
       </c>
       <c r="R18" s="36">
         <f t="shared" ref="R18:X18" si="13">$H$18*100*($H$6-$H$5*J10)</f>
@@ -3924,30 +4041,30 @@
       </c>
       <c r="S18" s="36">
         <f t="shared" si="13"/>
-        <v>-87.090518397588298</v>
+        <v>-58.060345598392196</v>
       </c>
       <c r="T18" s="36">
         <f t="shared" si="13"/>
-        <v>-174.1810367951766</v>
+        <v>-116.12069119678439</v>
       </c>
       <c r="U18" s="36">
         <f t="shared" si="13"/>
-        <v>-261.27155519276488</v>
+        <v>-174.1810367951766</v>
       </c>
       <c r="V18" s="36">
         <f t="shared" si="13"/>
-        <v>-348.36207359035319</v>
+        <v>-232.24138239356878</v>
       </c>
       <c r="W18" s="36">
         <f t="shared" si="13"/>
-        <v>-435.45259198794145</v>
+        <v>-290.301727991961</v>
       </c>
       <c r="X18" s="36">
         <f t="shared" si="13"/>
-        <v>-522.54311038552976</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-348.36207359035319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="16.8">
       <c r="A19" s="29" t="str">
         <f t="shared" si="6"/>
         <v>L7</v>
@@ -3958,11 +4075,11 @@
       </c>
       <c r="C19" s="9">
         <f t="shared" si="8"/>
-        <v>430.60824918461452</v>
+        <v>322.95618688846093</v>
       </c>
       <c r="D19" s="9">
         <f>IF(A19=0,0,($D$7*($D$10-7)))</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G19" s="39">
         <v>9</v>
@@ -3981,11 +4098,11 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="36">
         <f>H6*H19*100</f>
-        <v>281.82491753459573</v>
+        <v>187.88327835639714</v>
       </c>
       <c r="R19" s="36">
         <f>H19*100*(H6-H5)</f>
-        <v>140.91245876729786</v>
+        <v>93.941639178198571</v>
       </c>
       <c r="S19" s="36">
         <f t="shared" ref="S19:X19" si="14">$H$19*100*($H$6-$H$5*J10)</f>
@@ -3993,26 +4110,26 @@
       </c>
       <c r="T19" s="36">
         <f t="shared" si="14"/>
-        <v>-140.91245876729786</v>
+        <v>-93.941639178198571</v>
       </c>
       <c r="U19" s="36">
         <f t="shared" si="14"/>
-        <v>-281.82491753459573</v>
+        <v>-187.88327835639714</v>
       </c>
       <c r="V19" s="36">
         <f t="shared" si="14"/>
-        <v>-422.73737630189356</v>
+        <v>-281.82491753459573</v>
       </c>
       <c r="W19" s="36">
         <f t="shared" si="14"/>
-        <v>-563.64983506919145</v>
+        <v>-375.76655671279428</v>
       </c>
       <c r="X19" s="36">
         <f t="shared" si="14"/>
-        <v>-704.56229383648929</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-469.70819589099284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="16.8">
       <c r="A20" s="29" t="str">
         <f t="shared" si="6"/>
         <v>L8</v>
@@ -4023,11 +4140,11 @@
       </c>
       <c r="C20" s="9">
         <f t="shared" si="8"/>
-        <v>609.63362878311807</v>
+        <v>464.48276478713757</v>
       </c>
       <c r="D20" s="9">
         <f>IF(A20=0,0,($D$7*($D$10-8)))</f>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G20" s="39">
         <v>10</v>
@@ -4047,11 +4164,11 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="36">
         <f>H6*H20*100</f>
-        <v>455.99271657097586</v>
+        <v>303.99514438065063</v>
       </c>
       <c r="S20" s="36">
         <f>H20*100*(H6-H5)</f>
-        <v>227.99635828548799</v>
+        <v>151.99757219032531</v>
       </c>
       <c r="T20" s="36">
         <f>$H$20*100*($H$6-$H$5*J10)</f>
@@ -4059,22 +4176,22 @@
       </c>
       <c r="U20" s="36">
         <f>$H$20*100*($H$6-$H$5*K10)</f>
-        <v>-227.99635828548799</v>
+        <v>-151.99757219032531</v>
       </c>
       <c r="V20" s="36">
         <f>$H$20*100*($H$6-$H$5*L10)</f>
-        <v>-455.99271657097597</v>
+        <v>-303.99514438065063</v>
       </c>
       <c r="W20" s="36">
         <f>$H$20*100*($H$6-$H$5*M10)</f>
-        <v>-683.98907485646396</v>
+        <v>-455.99271657097597</v>
       </c>
       <c r="X20" s="36">
         <f>$H$20*100*($H$6-$H$5*N10)</f>
-        <v>-911.98543314195194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-607.99028876130126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="16.8">
       <c r="A21" s="29" t="str">
         <f t="shared" si="6"/>
         <v>L9</v>
@@ -4085,11 +4202,11 @@
       </c>
       <c r="C21" s="9">
         <f t="shared" si="8"/>
-        <v>845.47475260378724</v>
+        <v>657.59147424739001</v>
       </c>
       <c r="D21" s="9">
         <f>IF(A21=0,0,($D$7*($D$10-9)))</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G21" s="39">
         <v>11</v>
@@ -4110,11 +4227,11 @@
       <c r="R21" s="3"/>
       <c r="S21" s="37">
         <f>H6*H21*100</f>
-        <v>737.79621541183906</v>
+        <v>491.86414360789269</v>
       </c>
       <c r="T21" s="37">
         <f>H21*100*(H6-H5)</f>
-        <v>368.89810770591953</v>
+        <v>245.93207180394634</v>
       </c>
       <c r="U21" s="37">
         <f>$H$21*100*($H$6-$H$5*J10)</f>
@@ -4122,18 +4239,18 @@
       </c>
       <c r="V21" s="37">
         <f>$H$21*100*($H$6-$H$5*K10)</f>
-        <v>-368.89810770591953</v>
+        <v>-245.93207180394634</v>
       </c>
       <c r="W21" s="37">
         <f>$H$21*100*($H$6-$H$5*L10)</f>
-        <v>-737.79621541183906</v>
+        <v>-491.86414360789269</v>
       </c>
       <c r="X21" s="37">
         <f>$H$21*100*($H$6-$H$5*M10)</f>
-        <v>-1106.6943231177586</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-737.79621541183906</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="16.8">
       <c r="A22" s="29" t="str">
         <f t="shared" si="6"/>
         <v>L10</v>
@@ -4144,11 +4261,11 @@
       </c>
       <c r="C22" s="9">
         <f t="shared" si="8"/>
-        <v>1139.9817914274397</v>
+        <v>911.98543314195172</v>
       </c>
       <c r="D22" s="9">
         <f>IF(A22=0,0,($D$7*($D$10-10)))</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G22" s="39">
         <v>12</v>
@@ -4170,11 +4287,11 @@
       <c r="S22" s="37"/>
       <c r="T22" s="37">
         <f>H6*H22*100</f>
-        <v>1193.7542765363555</v>
+        <v>795.83618435757046</v>
       </c>
       <c r="U22" s="37">
         <f>H22*100*(H6-H5)</f>
-        <v>596.87713826817787</v>
+        <v>397.91809217878523</v>
       </c>
       <c r="V22" s="37">
         <f>$H$22*100*($H$6-$H$5*J10)</f>
@@ -4182,14 +4299,14 @@
       </c>
       <c r="W22" s="37">
         <f>$H$22*100*($H$6-$H$5*K10)</f>
-        <v>-596.87713826817787</v>
+        <v>-397.91809217878523</v>
       </c>
       <c r="X22" s="37">
         <f>$H$22*100*($H$6-$H$5*L10)</f>
-        <v>-1193.7542765363557</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-795.83618435757046</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="16.8">
       <c r="A23" s="29" t="str">
         <f t="shared" si="6"/>
         <v>L11</v>
@@ -4200,11 +4317,11 @@
       </c>
       <c r="C23" s="9">
         <f t="shared" si="8"/>
-        <v>1475.5924308236781</v>
+        <v>1229.6603590197317</v>
       </c>
       <c r="D23" s="9">
         <f>IF(A23=0,0,($D$7*($D$10-11)))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G23" s="39">
         <v>13</v>
@@ -4227,11 +4344,11 @@
       <c r="T23" s="37"/>
       <c r="U23" s="37">
         <f>H6*H23*100</f>
-        <v>1931.4944194358236</v>
+        <v>1287.6629462905491</v>
       </c>
       <c r="V23" s="37">
         <f>H23*100*(H6-H5)</f>
-        <v>965.7472097179118</v>
+        <v>643.83147314527457</v>
       </c>
       <c r="W23" s="37">
         <f>$H$23*100*($H$6-$H$5*J10)</f>
@@ -4239,10 +4356,10 @@
       </c>
       <c r="X23" s="37">
         <f>$H$23*100*($H$6-$H$5*K10)</f>
-        <v>-965.7472097179118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>-643.83147314527457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="16.8">
       <c r="A24" s="29" t="str">
         <f t="shared" si="6"/>
         <v>L12</v>
@@ -4253,11 +4370,11 @@
       </c>
       <c r="C24" s="9">
         <f t="shared" si="8"/>
-        <v>1790.6314148045335</v>
+        <v>1591.6723687151409</v>
       </c>
       <c r="D24" s="9">
         <f>IF(A24=0,0,($D$7*($D$10-12)))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G24" s="39">
         <v>14</v>
@@ -4281,18 +4398,18 @@
       <c r="U24" s="37"/>
       <c r="V24" s="37">
         <f>H6*H24*100</f>
-        <v>3125.157970647163</v>
+        <v>2083.438647098109</v>
       </c>
       <c r="W24" s="37">
         <f>H24*100*(H6-H5)</f>
-        <v>1562.5789853235817</v>
+        <v>1041.7193235490545</v>
       </c>
       <c r="X24" s="37">
         <f>$H$24*100*($H$6-$H$5*J10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="16.8">
       <c r="A25" s="29" t="str">
         <f t="shared" si="6"/>
         <v>L13</v>
@@ -4332,14 +4449,14 @@
       <c r="V25" s="37"/>
       <c r="W25" s="37">
         <f>H6*H25*100</f>
-        <v>5056.5055965071115</v>
+        <v>3371.0037310047405</v>
       </c>
       <c r="X25" s="37">
         <f>H24*100*(H6-H5)</f>
-        <v>1562.5789853235817</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>1041.7193235490545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="16.8">
       <c r="A26" s="29" t="str">
         <f t="shared" si="6"/>
         <v>L14</v>
@@ -4350,11 +4467,11 @@
       </c>
       <c r="C26" s="9">
         <f t="shared" si="8"/>
-        <v>1562.5789853235815</v>
+        <v>2083.438647098109</v>
       </c>
       <c r="D26" s="9">
         <f>IF(A26=0,0,($D$7*($D$10-14)))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26" s="39">
         <v>16</v>
@@ -4380,10 +4497,10 @@
       <c r="W26" s="37"/>
       <c r="X26" s="37">
         <f>H26*H6*100</f>
-        <v>8181.4260551485049</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+        <v>5454.28403676567</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="16.8">
       <c r="A27" s="29" t="str">
         <f t="shared" si="6"/>
         <v>L15</v>
@@ -4394,11 +4511,11 @@
       </c>
       <c r="C27" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1685.5018655023703</v>
       </c>
       <c r="D27" s="9">
         <f>IF(A27=0,0,($D$7*($D$10-15)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" s="41" t="s">
         <v>50</v>
@@ -4409,77 +4526,77 @@
       </c>
       <c r="I27" s="42">
         <f t="shared" ref="I27:X27" si="15">SUM(I11:I26)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J27" s="42">
         <f t="shared" si="15"/>
-        <v>12.707999999999998</v>
+        <v>8.4719999999999995</v>
       </c>
       <c r="K27" s="42">
         <f t="shared" si="15"/>
-        <v>20.561544000000001</v>
+        <v>13.707696000000002</v>
       </c>
       <c r="L27" s="42">
         <f t="shared" si="15"/>
-        <v>30.268578192</v>
+        <v>20.179052128000002</v>
       </c>
       <c r="M27" s="42">
         <f t="shared" si="15"/>
-        <v>42.974559514656015</v>
+        <v>28.649706343104008</v>
       </c>
       <c r="N27" s="42">
         <f t="shared" si="15"/>
-        <v>60.532837294713431</v>
+        <v>40.35522486314229</v>
       </c>
       <c r="O27" s="42">
         <f t="shared" si="15"/>
-        <v>85.942130742846345</v>
+        <v>57.294753828564225</v>
       </c>
       <c r="P27" s="42">
         <f t="shared" si="15"/>
-        <v>124.05436754192537</v>
+        <v>82.702911694616915</v>
       </c>
       <c r="Q27" s="42">
         <f t="shared" si="15"/>
-        <v>182.71996668283532</v>
+        <v>121.81331112189017</v>
       </c>
       <c r="R27" s="42">
         <f t="shared" si="15"/>
-        <v>274.64090609282744</v>
+        <v>183.09393739521835</v>
       </c>
       <c r="S27" s="42">
         <f t="shared" si="15"/>
-        <v>420.36898605819499</v>
+        <v>280.24599070546321</v>
       </c>
       <c r="T27" s="42">
         <f t="shared" si="15"/>
-        <v>653.15701944215925</v>
+        <v>435.43801296143965</v>
       </c>
       <c r="U27" s="42">
         <f t="shared" si="15"/>
-        <v>1026.8080574574142</v>
+        <v>684.53870497160938</v>
       </c>
       <c r="V27" s="42">
         <f t="shared" si="15"/>
-        <v>1628.3754369660958</v>
+        <v>1085.5836246440645</v>
       </c>
       <c r="W27" s="42">
         <f t="shared" si="15"/>
-        <v>2598.7114570111453</v>
+        <v>1732.4743046740964</v>
       </c>
       <c r="X27" s="42">
         <f t="shared" si="15"/>
-        <v>3200.0413245140589</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="29">
+        <v>2133.3608830093722</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="16.8">
+      <c r="A28" s="29" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>L16</v>
       </c>
       <c r="B28" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>13.635710091914175</v>
       </c>
       <c r="C28" s="9">
         <f t="shared" si="8"/>
@@ -4556,7 +4673,7 @@
         <v>35.683784674299567</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="16.8">
       <c r="A29" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4574,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="16.8">
       <c r="A30" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4592,19 +4709,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:24" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="16.8">
+      <c r="A31" s="29">
+        <f>IF(A30=0,0,IF(VALUE(MID(A30,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A30,2,2))+1))</f>
+        <v>0</v>
+      </c>
+      <c r="B31" s="10">
+        <f>IF(A31&lt;&gt;0,B30*$D$9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="9">
+        <f>IF(A31=0,0,($D$7*($D$10-19)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="16.8">
       <c r="A32" s="29">
-        <f>IF(A30=0,0,IF(VALUE(MID(A30,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A30,2,2))+1))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B32" s="10">
-        <f>IF(A32&lt;&gt;0,B30*$D$9,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C32" s="9">
@@ -4612,11 +4741,11 @@
         <v>0</v>
       </c>
       <c r="D32" s="9">
-        <f>IF(A32=0,0,($D$7*($D$10-19)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="D32:D43" si="16">IF(A32=0,0,($D$7*($D$10-20)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.8">
       <c r="A33" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4630,11 +4759,11 @@
         <v>0</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" ref="D33:D44" si="16">IF(A33=0,0,($D$7*($D$10-20)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.8">
       <c r="A34" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4652,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="16.8">
       <c r="A35" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4670,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="16.8">
       <c r="A36" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4688,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="16.8">
       <c r="A37" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4706,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="16.8">
       <c r="A38" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4724,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="16.8">
       <c r="A39" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4742,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="16.8">
       <c r="A40" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4760,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="16.8">
       <c r="A41" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4778,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="16.8">
       <c r="A42" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4796,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="17.399999999999999" thickBot="1">
       <c r="A43" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4814,46 +4943,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="B44" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C44" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D44" s="9">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="110" t="s">
+    <row r="44" spans="1:4" ht="18" thickTop="1" thickBot="1">
+      <c r="A44" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="111"/>
-      <c r="C45" s="30">
-        <f>SUM(C13:C44)</f>
-        <v>10630.133292420091</v>
-      </c>
-      <c r="D45" s="31">
-        <f>MAX(D13:D44)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="30">
+        <f>SUM(C13:C43)</f>
+        <v>11496.37044475714</v>
+      </c>
+      <c r="D44" s="31">
+        <f>MAX(D13:D43)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="13.8" thickTop="1"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D2:D10" name="DATA_2"/>
   </protectedRanges>
   <mergeCells count="8">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:P3"/>
@@ -4948,16 +5059,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AU56"/>
   <sheetViews>
     <sheetView topLeftCell="K149" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="V224" sqref="V224"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="3" spans="2:47" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:47">
       <c r="B3" t="s">
         <v>58</v>
       </c>
@@ -4992,7 +5103,7 @@
         <v>107.7</v>
       </c>
     </row>
-    <row r="56" spans="2:38" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:38">
       <c r="B56" t="s">
         <v>68</v>
       </c>
@@ -5029,25 +5140,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AE54"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="13"/>
+    <col min="1" max="1" width="9.109375" style="13"/>
     <col min="2" max="2" width="6" style="13" customWidth="1"/>
-    <col min="3" max="5" width="12.796875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="9.09765625" style="24"/>
-    <col min="7" max="20" width="9.09765625" style="13"/>
-    <col min="21" max="21" width="10.3984375" style="13" customWidth="1"/>
-    <col min="22" max="16384" width="9.09765625" style="13"/>
+    <col min="3" max="5" width="12.77734375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="24"/>
+    <col min="7" max="20" width="9.109375" style="13"/>
+    <col min="21" max="21" width="10.44140625" style="13" customWidth="1"/>
+    <col min="22" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:23">
       <c r="B1" s="77"/>
       <c r="C1" s="77"/>
       <c r="D1" s="77"/>
@@ -5056,7 +5167,7 @@
       <c r="G1" s="77"/>
       <c r="H1" s="77"/>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:23">
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
       <c r="D2" s="78"/>
@@ -5108,7 +5219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:23" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:23" ht="18">
       <c r="B3" s="77"/>
       <c r="C3" s="77"/>
       <c r="D3" s="78"/>
@@ -5174,7 +5285,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:23">
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
       <c r="D4" s="80"/>
@@ -5228,7 +5339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:23">
       <c r="B5" s="14" t="s">
         <v>54</v>
       </c>
@@ -5290,7 +5401,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:23">
       <c r="B6" s="66" t="s">
         <v>35</v>
       </c>
@@ -5371,7 +5482,7 @@
       <c r="V6" s="21"/>
       <c r="W6" s="21"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:23">
       <c r="B7" s="66" t="s">
         <v>36</v>
       </c>
@@ -5450,7 +5561,7 @@
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:23">
       <c r="B8" s="66" t="s">
         <v>37</v>
       </c>
@@ -5526,7 +5637,7 @@
       <c r="V8" s="21"/>
       <c r="W8" s="21"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:23">
       <c r="B9" s="66" t="s">
         <v>38</v>
       </c>
@@ -5599,7 +5710,7 @@
       <c r="V9" s="21"/>
       <c r="W9" s="21"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:23">
       <c r="B10" s="66" t="s">
         <v>39</v>
       </c>
@@ -5669,7 +5780,7 @@
       <c r="V10" s="21"/>
       <c r="W10" s="21"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:23">
       <c r="B11" s="66" t="s">
         <v>40</v>
       </c>
@@ -5736,7 +5847,7 @@
       <c r="V11" s="21"/>
       <c r="W11" s="21"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:23">
       <c r="B12" s="66" t="s">
         <v>41</v>
       </c>
@@ -5800,7 +5911,7 @@
       <c r="V12" s="21"/>
       <c r="W12" s="21"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:23">
       <c r="B13" s="66" t="s">
         <v>42</v>
       </c>
@@ -5861,7 +5972,7 @@
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:23">
       <c r="B14" s="66" t="s">
         <v>43</v>
       </c>
@@ -5919,7 +6030,7 @@
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
     </row>
-    <row r="15" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:23" ht="14.1" customHeight="1">
       <c r="B15" s="66" t="s">
         <v>44</v>
       </c>
@@ -5974,7 +6085,7 @@
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:23">
       <c r="B16" s="69" t="s">
         <v>45</v>
       </c>
@@ -6026,7 +6137,7 @@
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:31">
       <c r="B17" s="70" t="s">
         <v>46</v>
       </c>
@@ -6075,7 +6186,7 @@
       <c r="V17" s="21"/>
       <c r="W17" s="21"/>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:31">
       <c r="B18" s="70" t="s">
         <v>47</v>
       </c>
@@ -6121,7 +6232,7 @@
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:31">
       <c r="B19" s="70" t="s">
         <v>48</v>
       </c>
@@ -6164,7 +6275,7 @@
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:31">
       <c r="B20" s="70" t="s">
         <v>49</v>
       </c>
@@ -6204,7 +6315,7 @@
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:31">
       <c r="B21" s="24"/>
       <c r="F21" s="64">
         <f>SUM(F6:F20)</f>
@@ -6273,7 +6384,7 @@
       <c r="V21" s="21"/>
       <c r="W21" s="21"/>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:31">
       <c r="B22" s="24"/>
       <c r="F22" s="13"/>
       <c r="G22" s="21"/>
@@ -6294,32 +6405,32 @@
       <c r="V22" s="21"/>
       <c r="W22" s="21"/>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:31">
       <c r="B23" s="24"/>
       <c r="F23" s="13"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:31">
       <c r="B24" s="24"/>
       <c r="F24" s="13"/>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:31">
       <c r="B25" s="24"/>
       <c r="F25" s="13"/>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:31">
       <c r="B26" s="24"/>
       <c r="F26" s="13"/>
       <c r="G26" s="21"/>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:31">
       <c r="B27" s="24"/>
       <c r="F27" s="13"/>
       <c r="G27" s="21"/>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:31">
       <c r="B28" s="77"/>
       <c r="C28" s="77"/>
       <c r="D28" s="78"/>
@@ -6401,7 +6512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:31" ht="18">
       <c r="B29" s="77"/>
       <c r="C29" s="77"/>
       <c r="D29" s="78"/>
@@ -6507,7 +6618,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:31">
       <c r="B30" s="79"/>
       <c r="C30" s="79"/>
       <c r="D30" s="80"/>
@@ -6591,7 +6702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:31">
       <c r="B31" s="14" t="s">
         <v>54</v>
       </c>
@@ -6683,7 +6794,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:31">
       <c r="B32" s="66" t="s">
         <v>35</v>
       </c>
@@ -6762,7 +6873,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:23">
       <c r="B33" s="66" t="s">
         <v>36</v>
       </c>
@@ -6839,7 +6950,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:23">
       <c r="B34" s="66" t="s">
         <v>37</v>
       </c>
@@ -6913,7 +7024,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:23">
       <c r="B35" s="66" t="s">
         <v>38</v>
       </c>
@@ -6984,7 +7095,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:23">
       <c r="B36" s="66" t="s">
         <v>39</v>
       </c>
@@ -7052,7 +7163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:23">
       <c r="B37" s="66" t="s">
         <v>40</v>
       </c>
@@ -7117,7 +7228,7 @@
         <v>7.0000000000000009</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:23">
       <c r="B38" s="66" t="s">
         <v>41</v>
       </c>
@@ -7179,7 +7290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:23">
       <c r="B39" s="66" t="s">
         <v>42</v>
       </c>
@@ -7238,7 +7349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:23">
       <c r="B40" s="66" t="s">
         <v>43</v>
       </c>
@@ -7294,7 +7405,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:23">
       <c r="B41" s="66" t="s">
         <v>44</v>
       </c>
@@ -7348,7 +7459,7 @@
       </c>
       <c r="V41" s="76"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:23">
       <c r="B42" s="69" t="s">
         <v>45</v>
       </c>
@@ -7398,7 +7509,7 @@
         <v>1503.0662268511771</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:23">
       <c r="B43" s="70" t="s">
         <v>46</v>
       </c>
@@ -7447,7 +7558,7 @@
       <c r="V43" s="21"/>
       <c r="W43" s="21"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:23">
       <c r="B44" s="70" t="s">
         <v>47</v>
       </c>
@@ -7491,7 +7602,7 @@
         <v>5164.5735078828729</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:23">
       <c r="B45" s="70" t="s">
         <v>48</v>
       </c>
@@ -7532,7 +7643,7 @@
         <v>9351.0751662014536</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:23">
       <c r="B46" s="70" t="s">
         <v>49</v>
       </c>
@@ -7570,7 +7681,7 @@
         <v>3219.157365726373</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:23">
       <c r="B47" s="24"/>
       <c r="F47" s="64">
         <f>SUM(F32:F46)</f>
@@ -7637,25 +7748,25 @@
         <v>22094.827352182896</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:23">
       <c r="B48" s="24"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:2">
       <c r="B49" s="24"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:2">
       <c r="B50" s="24"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:2">
       <c r="B51" s="24"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:2">
       <c r="B52" s="24"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:2">
       <c r="B53" s="24"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:2">
       <c r="B54" s="24"/>
     </row>
   </sheetData>
@@ -7664,4 +7775,28 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="K169:L169"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AC90" sqref="AC90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="169" spans="11:12">
+      <c r="K169">
+        <v>2149.9029999999998</v>
+      </c>
+      <c r="L169">
+        <v>2159.9029999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/bsc_scan_binance/src/main/resources/MQL5/XXX.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6072" yWindow="0" windowWidth="32100" windowHeight="16680" activeTab="2"/>
+    <workbookView xWindow="6072" yWindow="0" windowWidth="32100" windowHeight="16680"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Input L30" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
   <si>
     <t>THÔNG TIN ĐẦU VÀO</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>DCA</t>
-  </si>
-  <si>
-    <t>Vol</t>
   </si>
   <si>
     <t>TP L1</t>
@@ -377,6 +374,21 @@
   <si>
     <t>TP L20</t>
   </si>
+  <si>
+    <t>L16</t>
+  </si>
+  <si>
+    <t>L17</t>
+  </si>
+  <si>
+    <t>L18</t>
+  </si>
+  <si>
+    <t>L19</t>
+  </si>
+  <si>
+    <t>L20</t>
+  </si>
 </sst>
 </file>
 
@@ -391,7 +403,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.000"/>
     <numFmt numFmtId="169" formatCode="#,##0.000_);\(#,##0.000\)"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,13 +593,21 @@
       <charset val="163"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="4" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,12 +673,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -706,7 +720,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1132,32 +1146,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -1220,41 +1208,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1267,7 +1220,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1286,13 +1239,13 @@
     <xf numFmtId="4" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1346,7 +1299,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1371,7 +1324,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="19" fillId="17" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="19" fillId="16" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1386,15 +1339,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1410,127 +1360,97 @@
     <xf numFmtId="3" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="17" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="17" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="15" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="18" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="18" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="18" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="18" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="19" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="19" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="18" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="18" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="19" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="19" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="18" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="19" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="15" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="18" fillId="19" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="18" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="18" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="18" fillId="20" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="18" fillId="20" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="18" fillId="19" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1539,18 +1459,15 @@
     <xf numFmtId="165" fontId="15" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="13" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="29" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1568,6 +1485,15 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="15" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1579,7 +1505,147 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2786,10 +2852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB58"/>
+  <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -2805,12 +2871,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8">
-      <c r="A1" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
+      <c r="A1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
     </row>
     <row r="2" spans="1:28" ht="25.2">
       <c r="A2" s="49" t="s">
@@ -2818,24 +2884,24 @@
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
-      <c r="D2" s="101">
-        <v>2</v>
+      <c r="D2" s="90">
+        <v>3</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="43"/>
-      <c r="J2" s="112" t="s">
+      <c r="J2" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112" t="s">
+      <c r="M2" s="100"/>
+      <c r="N2" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
       <c r="S2" s="43"/>
@@ -2853,27 +2919,27 @@
       <c r="C3" s="51"/>
       <c r="D3" s="46">
         <f>D2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="30"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="109">
+      <c r="J3" s="97">
         <f>SUM('Bảng Input L30'!B13:B37)</f>
-        <v>244.65446578390544</v>
-      </c>
-      <c r="K3" s="109"/>
-      <c r="L3" s="110">
+        <v>5.1928112714018964</v>
+      </c>
+      <c r="K3" s="97"/>
+      <c r="L3" s="98">
         <f>J3*91</f>
-        <v>22263.556386335396</v>
-      </c>
-      <c r="M3" s="110"/>
-      <c r="N3" s="111">
+        <v>472.54582569757258</v>
+      </c>
+      <c r="M3" s="98"/>
+      <c r="N3" s="99">
         <f ca="1">L3+'Bảng Input L30'!C35</f>
         <v>62630.484540361416</v>
       </c>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
       <c r="Q3" s="23"/>
       <c r="R3" s="23"/>
       <c r="S3" s="23"/>
@@ -2891,12 +2957,12 @@
       <c r="C4" s="51"/>
       <c r="D4" s="46">
         <f>D3</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="99">
+      <c r="H4" s="88">
         <f>D9</f>
         <v>1.6180000000000001</v>
       </c>
@@ -2927,14 +2993,13 @@
       <c r="C5" s="51"/>
       <c r="D5" s="46">
         <f>D4</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="100">
-        <f>D2</f>
-        <v>2</v>
+        <v>56</v>
+      </c>
+      <c r="H5" s="89">
+        <v>3</v>
       </c>
       <c r="I5" s="2">
         <v>1.6180000000000001</v>
@@ -2963,12 +3028,12 @@
       <c r="C6" s="51"/>
       <c r="D6" s="46">
         <f>D5</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="100">
+        <v>74</v>
+      </c>
+      <c r="H6" s="89">
         <v>6</v>
       </c>
       <c r="N6" s="44" t="s">
@@ -2983,7 +3048,7 @@
       <c r="C7" s="51"/>
       <c r="D7" s="46">
         <f>D6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -2992,84 +3057,84 @@
       </c>
       <c r="J7" s="41">
         <f>I7-H$5</f>
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="K7" s="41">
         <f t="shared" ref="K7:X7" si="0">J7-$H$5</f>
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="L7" s="41">
         <f t="shared" si="0"/>
-        <v>2194</v>
+        <v>2191</v>
       </c>
       <c r="M7" s="41">
         <f t="shared" si="0"/>
-        <v>2192</v>
+        <v>2188</v>
       </c>
       <c r="N7" s="41">
         <f t="shared" si="0"/>
-        <v>2190</v>
+        <v>2185</v>
       </c>
       <c r="O7" s="41">
         <f t="shared" si="0"/>
-        <v>2188</v>
+        <v>2182</v>
       </c>
       <c r="P7" s="41">
         <f t="shared" si="0"/>
-        <v>2186</v>
+        <v>2179</v>
       </c>
       <c r="Q7" s="41">
         <f t="shared" si="0"/>
-        <v>2184</v>
+        <v>2176</v>
       </c>
       <c r="R7" s="41">
         <f t="shared" si="0"/>
-        <v>2182</v>
+        <v>2173</v>
       </c>
       <c r="S7" s="41">
         <f t="shared" si="0"/>
-        <v>2180</v>
+        <v>2170</v>
       </c>
       <c r="T7" s="41">
         <f t="shared" si="0"/>
-        <v>2178</v>
+        <v>2167</v>
       </c>
       <c r="U7" s="41">
         <f t="shared" si="0"/>
-        <v>2176</v>
+        <v>2164</v>
       </c>
       <c r="V7" s="41">
         <f t="shared" si="0"/>
-        <v>2174</v>
+        <v>2161</v>
       </c>
       <c r="W7" s="41">
         <f t="shared" si="0"/>
-        <v>2172</v>
+        <v>2158</v>
       </c>
       <c r="X7" s="41">
         <f t="shared" si="0"/>
-        <v>2170</v>
+        <v>2155</v>
       </c>
       <c r="Y7" s="41">
         <f t="shared" ref="Y7" si="1">X7-$H$5</f>
-        <v>2168</v>
+        <v>2152</v>
       </c>
       <c r="Z7" s="41">
         <f t="shared" ref="Z7" si="2">Y7-$H$5</f>
-        <v>2166</v>
+        <v>2149</v>
       </c>
       <c r="AA7" s="41">
         <f t="shared" ref="AA7" si="3">Z7-$H$5</f>
-        <v>2164</v>
+        <v>2146</v>
       </c>
       <c r="AB7" s="41">
         <f t="shared" ref="AB7" si="4">AA7-$H$5</f>
-        <v>2162</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8">
       <c r="A8" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="51"/>
@@ -3083,79 +3148,79 @@
       </c>
       <c r="J8" s="41">
         <f t="shared" ref="J8:X8" si="5">$I$7-J7</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" s="41">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L8" s="41">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M8" s="41">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N8" s="41">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O8" s="41">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P8" s="41">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="41">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R8" s="41">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="S8" s="41">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T8" s="41">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="U8" s="41">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="V8" s="41">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="W8" s="41">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="X8" s="41">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="Y8" s="41">
         <f t="shared" ref="Y8:AB8" si="6">$I$7-Y7</f>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="Z8" s="41">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AA8" s="41">
         <f t="shared" si="6"/>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="AB8" s="41">
         <f t="shared" si="6"/>
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="16.8">
@@ -3171,84 +3236,82 @@
         <v>17</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="K9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="L9" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="M9" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="N9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="32" t="s">
+      <c r="O9" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="32" t="s">
+      <c r="P9" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="32" t="s">
+      <c r="Q9" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="32" t="s">
+      <c r="R9" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="32" t="s">
+      <c r="S9" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="S9" s="32" t="s">
+      <c r="T9" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="T9" s="32" t="s">
+      <c r="U9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="U9" s="32" t="s">
+      <c r="V9" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="V9" s="32" t="s">
+      <c r="W9" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="W9" s="32" t="s">
+      <c r="X9" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="X9" s="32" t="s">
-        <v>34</v>
-      </c>
       <c r="Y9" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z9" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="Z9" s="32" t="s">
+      <c r="AA9" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="AA9" s="32" t="s">
+      <c r="AB9" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="AB9" s="32" t="s">
-        <v>82</v>
-      </c>
     </row>
-    <row r="10" spans="1:28" ht="16.8">
+    <row r="10" spans="1:28" ht="18.600000000000001">
       <c r="A10" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="51"/>
-      <c r="D10" s="102">
-        <v>20</v>
+      <c r="D10" s="91">
+        <v>12</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>18</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="H10" s="89"/>
       <c r="I10" s="32">
         <v>1</v>
       </c>
@@ -3328,79 +3391,79 @@
       </c>
       <c r="J11" s="34">
         <f>H11*100*(H6-H5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11" s="34">
         <f t="shared" ref="K11:AB11" si="7">$H$11*100*($H$6-$H$5*J10)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11" s="34">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="M11" s="34">
         <f>$H$11*100*($H$6-$H$5*L10)</f>
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="N11" s="34">
         <f t="shared" si="7"/>
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="O11" s="34">
         <f t="shared" si="7"/>
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="P11" s="34">
         <f t="shared" si="7"/>
-        <v>-8</v>
+        <v>-15</v>
       </c>
       <c r="Q11" s="34">
         <f t="shared" si="7"/>
-        <v>-10</v>
+        <v>-18</v>
       </c>
       <c r="R11" s="34">
         <f t="shared" si="7"/>
-        <v>-12</v>
+        <v>-21</v>
       </c>
       <c r="S11" s="34">
         <f t="shared" si="7"/>
-        <v>-14</v>
+        <v>-24</v>
       </c>
       <c r="T11" s="34">
         <f t="shared" si="7"/>
-        <v>-16</v>
+        <v>-27</v>
       </c>
       <c r="U11" s="34">
         <f t="shared" si="7"/>
-        <v>-18</v>
+        <v>-30</v>
       </c>
       <c r="V11" s="34">
         <f t="shared" si="7"/>
-        <v>-20</v>
+        <v>-33</v>
       </c>
       <c r="W11" s="34">
         <f t="shared" si="7"/>
-        <v>-22</v>
+        <v>-36</v>
       </c>
       <c r="X11" s="34">
         <f t="shared" si="7"/>
-        <v>-24</v>
+        <v>-39</v>
       </c>
       <c r="Y11" s="34">
         <f t="shared" si="7"/>
-        <v>-26</v>
+        <v>-42</v>
       </c>
       <c r="Z11" s="34">
         <f t="shared" si="7"/>
-        <v>-28</v>
+        <v>-45</v>
       </c>
       <c r="AA11" s="34">
         <f t="shared" si="7"/>
-        <v>-30</v>
+        <v>-48</v>
       </c>
       <c r="AB11" s="34">
         <f t="shared" si="7"/>
-        <v>-32</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="18" thickTop="1" thickBot="1">
@@ -3430,75 +3493,75 @@
       </c>
       <c r="K12" s="34">
         <f>H12*100*(H6-H5)</f>
-        <v>6.4719999999999995</v>
+        <v>4.8539999999999992</v>
       </c>
       <c r="L12" s="34">
         <f t="shared" ref="L12:AB12" si="9">$H$12*100*($H$6-$H$5*J10)</f>
-        <v>3.2359999999999998</v>
+        <v>0</v>
       </c>
       <c r="M12" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-4.8539999999999992</v>
       </c>
       <c r="N12" s="34">
         <f t="shared" si="9"/>
-        <v>-3.2359999999999998</v>
+        <v>-9.7079999999999984</v>
       </c>
       <c r="O12" s="34">
         <f t="shared" si="9"/>
-        <v>-6.4719999999999995</v>
+        <v>-14.561999999999999</v>
       </c>
       <c r="P12" s="34">
         <f t="shared" si="9"/>
-        <v>-9.7079999999999984</v>
+        <v>-19.415999999999997</v>
       </c>
       <c r="Q12" s="34">
         <f t="shared" si="9"/>
-        <v>-12.943999999999999</v>
+        <v>-24.27</v>
       </c>
       <c r="R12" s="34">
         <f t="shared" si="9"/>
-        <v>-16.18</v>
+        <v>-29.123999999999999</v>
       </c>
       <c r="S12" s="34">
         <f t="shared" si="9"/>
-        <v>-19.415999999999997</v>
+        <v>-33.977999999999994</v>
       </c>
       <c r="T12" s="34">
         <f t="shared" si="9"/>
-        <v>-22.651999999999997</v>
+        <v>-38.831999999999994</v>
       </c>
       <c r="U12" s="34">
         <f t="shared" si="9"/>
-        <v>-25.887999999999998</v>
+        <v>-43.686</v>
       </c>
       <c r="V12" s="34">
         <f t="shared" si="9"/>
-        <v>-29.123999999999999</v>
+        <v>-48.54</v>
       </c>
       <c r="W12" s="34">
         <f t="shared" si="9"/>
-        <v>-32.36</v>
+        <v>-53.393999999999998</v>
       </c>
       <c r="X12" s="34">
         <f t="shared" si="9"/>
-        <v>-35.595999999999997</v>
+        <v>-58.247999999999998</v>
       </c>
       <c r="Y12" s="34">
         <f t="shared" si="9"/>
-        <v>-38.831999999999994</v>
+        <v>-63.101999999999997</v>
       </c>
       <c r="Z12" s="34">
         <f t="shared" si="9"/>
-        <v>-42.067999999999998</v>
+        <v>-67.955999999999989</v>
       </c>
       <c r="AA12" s="34">
         <f t="shared" si="9"/>
-        <v>-45.303999999999995</v>
+        <v>-72.809999999999988</v>
       </c>
       <c r="AB12" s="34">
         <f t="shared" si="9"/>
-        <v>-48.54</v>
+        <v>-77.663999999999987</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="17.399999999999999" thickTop="1">
@@ -3512,11 +3575,11 @@
       </c>
       <c r="C13" s="9">
         <f>+B13*D13*100</f>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D13" s="9">
         <f>IF(A13=0,0,$D$2+$D$3+$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G13" s="37">
         <v>3</v>
@@ -3533,71 +3596,71 @@
       </c>
       <c r="L13" s="34">
         <f>H13*100*(H6-H5)</f>
-        <v>10.471696000000001</v>
+        <v>7.8537720000000011</v>
       </c>
       <c r="M13" s="34">
         <f t="shared" ref="M13:AB13" si="10">$H$13*100*($H$6-$H$5*J10)</f>
-        <v>5.2358480000000007</v>
+        <v>0</v>
       </c>
       <c r="N13" s="34">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-7.8537720000000011</v>
       </c>
       <c r="O13" s="34">
         <f t="shared" si="10"/>
-        <v>-5.2358480000000007</v>
+        <v>-15.707544000000002</v>
       </c>
       <c r="P13" s="34">
         <f t="shared" si="10"/>
-        <v>-10.471696000000001</v>
+        <v>-23.561316000000005</v>
       </c>
       <c r="Q13" s="34">
         <f t="shared" si="10"/>
-        <v>-15.707544000000002</v>
+        <v>-31.415088000000004</v>
       </c>
       <c r="R13" s="34">
         <f t="shared" si="10"/>
-        <v>-20.943392000000003</v>
+        <v>-39.268860000000004</v>
       </c>
       <c r="S13" s="34">
         <f t="shared" si="10"/>
-        <v>-26.179240000000004</v>
+        <v>-47.12263200000001</v>
       </c>
       <c r="T13" s="34">
         <f t="shared" si="10"/>
-        <v>-31.415088000000004</v>
+        <v>-54.976404000000009</v>
       </c>
       <c r="U13" s="34">
         <f t="shared" si="10"/>
-        <v>-36.650936000000002</v>
+        <v>-62.830176000000009</v>
       </c>
       <c r="V13" s="34">
         <f t="shared" si="10"/>
-        <v>-41.886784000000006</v>
+        <v>-70.683948000000015</v>
       </c>
       <c r="W13" s="34">
         <f t="shared" si="10"/>
-        <v>-47.12263200000001</v>
+        <v>-78.537720000000007</v>
       </c>
       <c r="X13" s="34">
         <f t="shared" si="10"/>
-        <v>-52.358480000000007</v>
+        <v>-86.391492000000014</v>
       </c>
       <c r="Y13" s="34">
         <f t="shared" si="10"/>
-        <v>-57.594328000000004</v>
+        <v>-94.24526400000002</v>
       </c>
       <c r="Z13" s="34">
         <f t="shared" si="10"/>
-        <v>-62.830176000000009</v>
+        <v>-102.09903600000001</v>
       </c>
       <c r="AA13" s="34">
         <f t="shared" si="10"/>
-        <v>-68.066024000000013</v>
+        <v>-109.95280800000002</v>
       </c>
       <c r="AB13" s="34">
         <f t="shared" si="10"/>
-        <v>-73.301872000000003</v>
+        <v>-117.80658000000001</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="16.8">
@@ -3611,11 +3674,11 @@
       </c>
       <c r="C14" s="9">
         <f t="shared" ref="C14:C34" si="13">+B14*D14*100</f>
-        <v>58.247999999999998</v>
+        <v>48.54</v>
       </c>
       <c r="D14" s="9">
         <f>IF(A14=0,0,$D$3+$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G14" s="37">
         <v>4</v>
@@ -3633,67 +3696,67 @@
       </c>
       <c r="M14" s="34">
         <f>H14*100*(H6-H5)</f>
-        <v>16.943204128000001</v>
+        <v>12.707403096</v>
       </c>
       <c r="N14" s="34">
         <f t="shared" ref="N14:AB14" si="14">$H$14*100*($H$6-$H$5*J10)</f>
-        <v>8.4716020640000007</v>
+        <v>0</v>
       </c>
       <c r="O14" s="34">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-12.707403096</v>
       </c>
       <c r="P14" s="34">
         <f t="shared" si="14"/>
-        <v>-8.4716020640000007</v>
+        <v>-25.414806192</v>
       </c>
       <c r="Q14" s="34">
         <f t="shared" si="14"/>
-        <v>-16.943204128000001</v>
+        <v>-38.122209288000001</v>
       </c>
       <c r="R14" s="34">
         <f t="shared" si="14"/>
-        <v>-25.414806192</v>
+        <v>-50.829612384000001</v>
       </c>
       <c r="S14" s="34">
         <f t="shared" si="14"/>
-        <v>-33.886408256000003</v>
+        <v>-63.537015480000008</v>
       </c>
       <c r="T14" s="34">
         <f t="shared" si="14"/>
-        <v>-42.358010320000005</v>
+        <v>-76.244418576000001</v>
       </c>
       <c r="U14" s="34">
         <f t="shared" si="14"/>
-        <v>-50.829612384000001</v>
+        <v>-88.951821672000008</v>
       </c>
       <c r="V14" s="34">
         <f t="shared" si="14"/>
-        <v>-59.301214448000003</v>
+        <v>-101.659224768</v>
       </c>
       <c r="W14" s="34">
         <f t="shared" si="14"/>
-        <v>-67.772816512000006</v>
+        <v>-114.36662786400001</v>
       </c>
       <c r="X14" s="34">
         <f t="shared" si="14"/>
-        <v>-76.244418576000001</v>
+        <v>-127.07403096000002</v>
       </c>
       <c r="Y14" s="34">
         <f t="shared" si="14"/>
-        <v>-84.716020640000011</v>
+        <v>-139.78143405600002</v>
       </c>
       <c r="Z14" s="34">
         <f t="shared" si="14"/>
-        <v>-93.187622704000006</v>
+        <v>-152.488837152</v>
       </c>
       <c r="AA14" s="34">
         <f t="shared" si="14"/>
-        <v>-101.659224768</v>
+        <v>-165.19624024800001</v>
       </c>
       <c r="AB14" s="34">
         <f t="shared" si="14"/>
-        <v>-110.13082683200001</v>
+        <v>-177.90364334400002</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="16.8">
@@ -3707,11 +3770,11 @@
       </c>
       <c r="C15" s="9">
         <f t="shared" si="13"/>
-        <v>89.009416000000002</v>
+        <v>70.683948000000001</v>
       </c>
       <c r="D15" s="9">
         <f>IF(A15=0,0,$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G15" s="37">
         <v>5</v>
@@ -3730,63 +3793,63 @@
       </c>
       <c r="N15" s="34">
         <f>H15*100*(H6-H5)</f>
-        <v>27.414104279104006</v>
+        <v>20.560578209328003</v>
       </c>
       <c r="O15" s="34">
         <f t="shared" ref="O15:AB15" si="15">$H$15*100*($H$6-$H$5*J10)</f>
-        <v>13.707052139552003</v>
+        <v>0</v>
       </c>
       <c r="P15" s="34">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-20.560578209328003</v>
       </c>
       <c r="Q15" s="34">
         <f t="shared" si="15"/>
-        <v>-13.707052139552003</v>
+        <v>-41.121156418656007</v>
       </c>
       <c r="R15" s="34">
         <f t="shared" si="15"/>
-        <v>-27.414104279104006</v>
+        <v>-61.681734627984014</v>
       </c>
       <c r="S15" s="34">
         <f t="shared" si="15"/>
-        <v>-41.121156418656007</v>
+        <v>-82.242312837312014</v>
       </c>
       <c r="T15" s="34">
         <f t="shared" si="15"/>
-        <v>-54.828208558208011</v>
+        <v>-102.80289104664003</v>
       </c>
       <c r="U15" s="34">
         <f t="shared" si="15"/>
-        <v>-68.535260697760009</v>
+        <v>-123.36346925596803</v>
       </c>
       <c r="V15" s="34">
         <f t="shared" si="15"/>
-        <v>-82.242312837312014</v>
+        <v>-143.92404746529604</v>
       </c>
       <c r="W15" s="34">
         <f t="shared" si="15"/>
-        <v>-95.949364976864018</v>
+        <v>-164.48462567462403</v>
       </c>
       <c r="X15" s="34">
         <f t="shared" si="15"/>
-        <v>-109.65641711641602</v>
+        <v>-185.04520388395204</v>
       </c>
       <c r="Y15" s="34">
         <f t="shared" si="15"/>
-        <v>-123.36346925596803</v>
+        <v>-205.60578209328006</v>
       </c>
       <c r="Z15" s="34">
         <f t="shared" si="15"/>
-        <v>-137.07052139552002</v>
+        <v>-226.16636030260804</v>
       </c>
       <c r="AA15" s="34">
         <f t="shared" si="15"/>
-        <v>-150.77757353507204</v>
+        <v>-246.72693851193605</v>
       </c>
       <c r="AB15" s="34">
         <f t="shared" si="15"/>
-        <v>-164.48462567462403</v>
+        <v>-267.28751672126407</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="16.8">
@@ -3800,11 +3863,11 @@
       </c>
       <c r="C16" s="9">
         <f t="shared" si="13"/>
-        <v>135.54563302400001</v>
+        <v>101.65922476800003</v>
       </c>
       <c r="D16" s="9">
         <f>IF(A16=0,0,$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G16" s="37">
         <v>6</v>
@@ -3824,59 +3887,59 @@
       </c>
       <c r="O16" s="34">
         <f>H16*100*(H6-H5)</f>
-        <v>44.356020723590284</v>
+        <v>33.267015542692711</v>
       </c>
       <c r="P16" s="34">
         <f t="shared" ref="P16:X16" si="16">$H$16*100*($H$6-$H$5*J10)</f>
-        <v>22.178010361795142</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="34">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-33.267015542692711</v>
       </c>
       <c r="R16" s="34">
         <f t="shared" si="16"/>
-        <v>-22.178010361795142</v>
+        <v>-66.534031085385422</v>
       </c>
       <c r="S16" s="34">
         <f t="shared" si="16"/>
-        <v>-44.356020723590284</v>
+        <v>-99.80104662807814</v>
       </c>
       <c r="T16" s="34">
         <f t="shared" si="16"/>
-        <v>-66.534031085385422</v>
+        <v>-133.06806217077084</v>
       </c>
       <c r="U16" s="34">
         <f t="shared" si="16"/>
-        <v>-88.712041447180567</v>
+        <v>-166.33507771346356</v>
       </c>
       <c r="V16" s="34">
         <f t="shared" si="16"/>
-        <v>-110.89005180897571</v>
+        <v>-199.60209325615628</v>
       </c>
       <c r="W16" s="34">
         <f t="shared" si="16"/>
-        <v>-133.06806217077084</v>
+        <v>-232.869108798849</v>
       </c>
       <c r="X16" s="34">
         <f t="shared" si="16"/>
-        <v>-155.24607253256599</v>
+        <v>-266.13612434154169</v>
       </c>
       <c r="Y16" s="34">
         <f t="shared" ref="Y16" si="17">$H$16*100*($H$6-$H$5*S10)</f>
-        <v>-177.42408289436113</v>
+        <v>-299.40313988423441</v>
       </c>
       <c r="Z16" s="34">
         <f t="shared" ref="Z16" si="18">$H$16*100*($H$6-$H$5*T10)</f>
-        <v>-199.60209325615628</v>
+        <v>-332.67015542692712</v>
       </c>
       <c r="AA16" s="34">
         <f t="shared" ref="AA16" si="19">$H$16*100*($H$6-$H$5*U10)</f>
-        <v>-221.78010361795143</v>
+        <v>-365.93717096961984</v>
       </c>
       <c r="AB16" s="34">
         <f t="shared" ref="AB16" si="20">$H$16*100*($H$6-$H$5*V10)</f>
-        <v>-243.95811397974657</v>
+        <v>-399.20418651231256</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="16.8">
@@ -3890,11 +3953,11 @@
       </c>
       <c r="C17" s="9">
         <f t="shared" si="13"/>
-        <v>205.60578209328006</v>
+        <v>143.92404746529604</v>
       </c>
       <c r="D17" s="9">
         <f>IF(A17=0,0,$D$6+($D$7*($D$10-6)))</f>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G17" s="37">
         <v>7</v>
@@ -3915,55 +3978,55 @@
       </c>
       <c r="P17" s="34">
         <f>H17*100*(H6-H5)</f>
-        <v>71.768041530769082</v>
+        <v>53.826031148076808</v>
       </c>
       <c r="Q17" s="34">
         <f t="shared" ref="Q17:X17" si="21">$H$17*100*($H$6-$H$5*J10)</f>
-        <v>35.884020765384541</v>
+        <v>0</v>
       </c>
       <c r="R17" s="34">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-53.826031148076808</v>
       </c>
       <c r="S17" s="34">
         <f t="shared" si="21"/>
-        <v>-35.884020765384541</v>
+        <v>-107.65206229615362</v>
       </c>
       <c r="T17" s="34">
         <f t="shared" si="21"/>
-        <v>-71.768041530769082</v>
+        <v>-161.47809344423044</v>
       </c>
       <c r="U17" s="34">
         <f t="shared" si="21"/>
-        <v>-107.65206229615362</v>
+        <v>-215.30412459230723</v>
       </c>
       <c r="V17" s="34">
         <f t="shared" si="21"/>
-        <v>-143.53608306153816</v>
+        <v>-269.13015574038405</v>
       </c>
       <c r="W17" s="34">
         <f t="shared" si="21"/>
-        <v>-179.42010382692271</v>
+        <v>-322.95618688846088</v>
       </c>
       <c r="X17" s="34">
         <f t="shared" si="21"/>
-        <v>-215.30412459230723</v>
+        <v>-376.7822180365377</v>
       </c>
       <c r="Y17" s="34">
         <f t="shared" ref="Y17" si="22">$H$17*100*($H$6-$H$5*R10)</f>
-        <v>-251.18814535769178</v>
+        <v>-430.60824918461446</v>
       </c>
       <c r="Z17" s="34">
         <f t="shared" ref="Z17" si="23">$H$17*100*($H$6-$H$5*S10)</f>
-        <v>-287.07216612307633</v>
+        <v>-484.43428033269129</v>
       </c>
       <c r="AA17" s="34">
         <f t="shared" ref="AA17" si="24">$H$17*100*($H$6-$H$5*T10)</f>
-        <v>-322.95618688846088</v>
+        <v>-538.26031148076811</v>
       </c>
       <c r="AB17" s="34">
         <f t="shared" ref="AB17" si="25">$H$17*100*($H$6-$H$5*U10)</f>
-        <v>-358.84020765384543</v>
+        <v>-592.08634262884493</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="16.8">
@@ -3977,11 +4040,11 @@
       </c>
       <c r="C18" s="9">
         <f t="shared" si="13"/>
-        <v>310.49214506513198</v>
+        <v>199.60209325615628</v>
       </c>
       <c r="D18" s="9">
         <f>IF(A18=0,0,($D$7*($D$10-6)))</f>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G18" s="37">
         <v>8</v>
@@ -4003,51 +4066,51 @@
       </c>
       <c r="Q18" s="34">
         <f>H18*100*(H6-H5)</f>
-        <v>116.12069119678439</v>
+        <v>87.090518397588298</v>
       </c>
       <c r="R18" s="34">
         <f t="shared" ref="R18:X18" si="26">$H$18*100*($H$6-$H$5*J10)</f>
-        <v>58.060345598392196</v>
+        <v>0</v>
       </c>
       <c r="S18" s="34">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>-87.090518397588298</v>
       </c>
       <c r="T18" s="34">
         <f t="shared" si="26"/>
-        <v>-58.060345598392196</v>
+        <v>-174.1810367951766</v>
       </c>
       <c r="U18" s="34">
         <f t="shared" si="26"/>
-        <v>-116.12069119678439</v>
+        <v>-261.27155519276488</v>
       </c>
       <c r="V18" s="34">
         <f t="shared" si="26"/>
-        <v>-174.1810367951766</v>
+        <v>-348.36207359035319</v>
       </c>
       <c r="W18" s="34">
         <f t="shared" si="26"/>
-        <v>-232.24138239356878</v>
+        <v>-435.45259198794145</v>
       </c>
       <c r="X18" s="34">
         <f t="shared" si="26"/>
-        <v>-290.301727991961</v>
+        <v>-522.54311038552976</v>
       </c>
       <c r="Y18" s="34">
         <f t="shared" ref="Y18" si="27">$H$18*100*($H$6-$H$5*Q10)</f>
-        <v>-348.36207359035319</v>
+        <v>-609.63362878311807</v>
       </c>
       <c r="Z18" s="34">
         <f t="shared" ref="Z18" si="28">$H$18*100*($H$6-$H$5*R10)</f>
-        <v>-406.42241918874538</v>
+        <v>-696.72414718070638</v>
       </c>
       <c r="AA18" s="34">
         <f t="shared" ref="AA18" si="29">$H$18*100*($H$6-$H$5*S10)</f>
-        <v>-464.48276478713757</v>
+        <v>-783.81466557829469</v>
       </c>
       <c r="AB18" s="34">
         <f t="shared" ref="AB18" si="30">$H$18*100*($H$6-$H$5*T10)</f>
-        <v>-522.54311038552976</v>
+        <v>-870.90518397588289</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="16.8">
@@ -4061,11 +4124,11 @@
       </c>
       <c r="C19" s="9">
         <f t="shared" si="13"/>
-        <v>466.49226994999913</v>
+        <v>269.13015574038411</v>
       </c>
       <c r="D19" s="9">
         <f>IF(A19=0,0,($D$7*($D$10-7)))</f>
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G19" s="37">
         <v>9</v>
@@ -4088,47 +4151,47 @@
       </c>
       <c r="R19" s="34">
         <f>H19*100*(H6-H5)</f>
-        <v>187.88327835639714</v>
+        <v>140.91245876729786</v>
       </c>
       <c r="S19" s="34">
         <f t="shared" ref="S19:X19" si="31">$H$19*100*($H$6-$H$5*J10)</f>
-        <v>93.941639178198571</v>
+        <v>0</v>
       </c>
       <c r="T19" s="34">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>-140.91245876729786</v>
       </c>
       <c r="U19" s="34">
         <f t="shared" si="31"/>
-        <v>-93.941639178198571</v>
+        <v>-281.82491753459573</v>
       </c>
       <c r="V19" s="34">
         <f t="shared" si="31"/>
-        <v>-187.88327835639714</v>
+        <v>-422.73737630189356</v>
       </c>
       <c r="W19" s="34">
         <f t="shared" si="31"/>
-        <v>-281.82491753459573</v>
+        <v>-563.64983506919145</v>
       </c>
       <c r="X19" s="34">
         <f t="shared" si="31"/>
-        <v>-375.76655671279428</v>
+        <v>-704.56229383648929</v>
       </c>
       <c r="Y19" s="34">
         <f t="shared" ref="Y19" si="32">$H$19*100*($H$6-$H$5*P10)</f>
-        <v>-469.70819589099284</v>
+        <v>-845.47475260378712</v>
       </c>
       <c r="Z19" s="34">
         <f t="shared" ref="Z19" si="33">$H$19*100*($H$6-$H$5*Q10)</f>
-        <v>-563.64983506919145</v>
+        <v>-986.38721137108496</v>
       </c>
       <c r="AA19" s="34">
         <f t="shared" ref="AA19" si="34">$H$19*100*($H$6-$H$5*R10)</f>
-        <v>-657.59147424739001</v>
+        <v>-1127.2996701383829</v>
       </c>
       <c r="AB19" s="34">
         <f t="shared" ref="AB19" si="35">$H$19*100*($H$6-$H$5*S10)</f>
-        <v>-751.53311342558857</v>
+        <v>-1268.2121289056806</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="16.8">
@@ -4142,11 +4205,11 @@
       </c>
       <c r="C20" s="9">
         <f t="shared" si="13"/>
-        <v>696.72414718070627</v>
+        <v>348.36207359035313</v>
       </c>
       <c r="D20" s="9">
         <f>IF(A20=0,0,($D$7*($D$10-8)))</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G20" s="37">
         <v>10</v>
@@ -4170,43 +4233,43 @@
       </c>
       <c r="S20" s="34">
         <f>H20*100*(H6-H5)</f>
-        <v>303.99514438065063</v>
+        <v>227.99635828548799</v>
       </c>
       <c r="T20" s="34">
         <f>$H$20*100*($H$6-$H$5*J10)</f>
-        <v>151.99757219032531</v>
+        <v>0</v>
       </c>
       <c r="U20" s="34">
         <f>$H$20*100*($H$6-$H$5*K10)</f>
-        <v>0</v>
+        <v>-227.99635828548799</v>
       </c>
       <c r="V20" s="34">
         <f>$H$20*100*($H$6-$H$5*L10)</f>
-        <v>-151.99757219032531</v>
+        <v>-455.99271657097597</v>
       </c>
       <c r="W20" s="34">
         <f>$H$20*100*($H$6-$H$5*M10)</f>
-        <v>-303.99514438065063</v>
+        <v>-683.98907485646396</v>
       </c>
       <c r="X20" s="34">
         <f>$H$20*100*($H$6-$H$5*N10)</f>
-        <v>-455.99271657097597</v>
+        <v>-911.98543314195194</v>
       </c>
       <c r="Y20" s="34">
         <f t="shared" ref="Y20:AB20" si="36">$H$20*100*($H$6-$H$5*O10)</f>
-        <v>-607.99028876130126</v>
+        <v>-1139.9817914274399</v>
       </c>
       <c r="Z20" s="34">
         <f t="shared" si="36"/>
-        <v>-759.98786095162654</v>
+        <v>-1367.9781497129279</v>
       </c>
       <c r="AA20" s="34">
         <f t="shared" si="36"/>
-        <v>-911.98543314195194</v>
+        <v>-1595.9745079984159</v>
       </c>
       <c r="AB20" s="34">
         <f t="shared" si="36"/>
-        <v>-1063.9830053322771</v>
+        <v>-1823.9708662839039</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="16.8">
@@ -4220,11 +4283,11 @@
       </c>
       <c r="C21" s="9">
         <f t="shared" si="13"/>
-        <v>1033.3580309601844</v>
+        <v>422.73737630189362</v>
       </c>
       <c r="D21" s="9">
         <f>IF(A21=0,0,($D$7*($D$10-9)))</f>
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G21" s="37">
         <v>11</v>
@@ -4249,39 +4312,39 @@
       </c>
       <c r="T21" s="35">
         <f>H21*100*(H6-H5)</f>
-        <v>491.86414360789269</v>
+        <v>368.89810770591953</v>
       </c>
       <c r="U21" s="35">
         <f>$H$21*100*($H$6-$H$5*J10)</f>
-        <v>245.93207180394634</v>
+        <v>0</v>
       </c>
       <c r="V21" s="35">
         <f>$H$21*100*($H$6-$H$5*K10)</f>
-        <v>0</v>
+        <v>-368.89810770591953</v>
       </c>
       <c r="W21" s="35">
         <f>$H$21*100*($H$6-$H$5*L10)</f>
-        <v>-245.93207180394634</v>
+        <v>-737.79621541183906</v>
       </c>
       <c r="X21" s="35">
         <f>$H$21*100*($H$6-$H$5*M10)</f>
-        <v>-491.86414360789269</v>
+        <v>-1106.6943231177586</v>
       </c>
       <c r="Y21" s="35">
         <f t="shared" ref="Y21:AB21" si="37">$H$21*100*($H$6-$H$5*N10)</f>
-        <v>-737.79621541183906</v>
+        <v>-1475.5924308236781</v>
       </c>
       <c r="Z21" s="35">
         <f t="shared" si="37"/>
-        <v>-983.72828721578537</v>
+        <v>-1844.4905385295976</v>
       </c>
       <c r="AA21" s="35">
         <f t="shared" si="37"/>
-        <v>-1229.6603590197317</v>
+        <v>-2213.3886462355172</v>
       </c>
       <c r="AB21" s="35">
         <f t="shared" si="37"/>
-        <v>-1475.5924308236781</v>
+        <v>-2582.2867539414365</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="16.8">
@@ -4295,11 +4358,11 @@
       </c>
       <c r="C22" s="9">
         <f t="shared" si="13"/>
-        <v>1519.9757219032531</v>
+        <v>455.99271657097586</v>
       </c>
       <c r="D22" s="9">
         <f>IF(A22=0,0,($D$7*($D$10-10)))</f>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G22" s="37">
         <v>12</v>
@@ -4325,35 +4388,35 @@
       </c>
       <c r="U22" s="35">
         <f>H22*100*(H6-H5)</f>
-        <v>795.83618435757046</v>
+        <v>596.87713826817787</v>
       </c>
       <c r="V22" s="35">
         <f>$H$22*100*($H$6-$H$5*J10)</f>
-        <v>397.91809217878523</v>
+        <v>0</v>
       </c>
       <c r="W22" s="35">
         <f>$H$22*100*($H$6-$H$5*K10)</f>
-        <v>0</v>
+        <v>-596.87713826817787</v>
       </c>
       <c r="X22" s="35">
         <f>$H$22*100*($H$6-$H$5*L10)</f>
-        <v>-397.91809217878523</v>
+        <v>-1193.7542765363557</v>
       </c>
       <c r="Y22" s="35">
         <f t="shared" ref="Y22:AB22" si="38">$H$22*100*($H$6-$H$5*M10)</f>
-        <v>-795.83618435757046</v>
+        <v>-1790.6314148045335</v>
       </c>
       <c r="Z22" s="35">
         <f t="shared" si="38"/>
-        <v>-1193.7542765363557</v>
+        <v>-2387.5085530727115</v>
       </c>
       <c r="AA22" s="35">
         <f t="shared" si="38"/>
-        <v>-1591.6723687151409</v>
+        <v>-2984.385691340889</v>
       </c>
       <c r="AB22" s="35">
         <f t="shared" si="38"/>
-        <v>-1989.5904608939261</v>
+        <v>-3581.262829609067</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="16.8">
@@ -4367,11 +4430,11 @@
       </c>
       <c r="C23" s="9">
         <f t="shared" si="13"/>
-        <v>2213.3886462355172</v>
+        <v>368.89810770591953</v>
       </c>
       <c r="D23" s="9">
         <f>IF(A23=0,0,($D$7*($D$10-11)))</f>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G23" s="37">
         <v>13</v>
@@ -4398,31 +4461,31 @@
       </c>
       <c r="V23" s="35">
         <f>H23*100*(H6-H5)</f>
-        <v>1287.6629462905491</v>
+        <v>965.7472097179118</v>
       </c>
       <c r="W23" s="35">
         <f>$H$23*100*($H$6-$H$5*J10)</f>
-        <v>643.83147314527457</v>
+        <v>0</v>
       </c>
       <c r="X23" s="35">
         <f>$H$23*100*($H$6-$H$5*K10)</f>
-        <v>0</v>
+        <v>-965.7472097179118</v>
       </c>
       <c r="Y23" s="35">
         <f t="shared" ref="Y23:AB23" si="39">$H$23*100*($H$6-$H$5*L10)</f>
-        <v>-643.83147314527457</v>
+        <v>-1931.4944194358236</v>
       </c>
       <c r="Z23" s="35">
         <f t="shared" si="39"/>
-        <v>-1287.6629462905491</v>
+        <v>-2897.2416291537356</v>
       </c>
       <c r="AA23" s="35">
         <f t="shared" si="39"/>
-        <v>-1931.4944194358236</v>
+        <v>-3862.9888388716472</v>
       </c>
       <c r="AB23" s="35">
         <f t="shared" si="39"/>
-        <v>-2575.3258925810983</v>
+        <v>-4828.7360485895597</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="16.8">
@@ -4436,11 +4499,11 @@
       </c>
       <c r="C24" s="9">
         <f t="shared" si="13"/>
-        <v>3183.3447374302818</v>
+        <v>0</v>
       </c>
       <c r="D24" s="9">
         <f>IF(A24=0,0,($D$7*($D$10-12)))</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G24" s="37">
         <v>14</v>
@@ -4468,45 +4531,45 @@
       </c>
       <c r="W24" s="35">
         <f>H24*100*(H6-H5)</f>
-        <v>2083.438647098109</v>
+        <v>1562.5789853235817</v>
       </c>
       <c r="X24" s="35">
         <f>$H$24*100*($H$6-$H$5*J10)</f>
-        <v>1041.7193235490545</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="35">
         <f t="shared" ref="Y24:AB24" si="40">$H$24*100*($H$6-$H$5*K10)</f>
-        <v>0</v>
+        <v>-1562.5789853235817</v>
       </c>
       <c r="Z24" s="35">
         <f t="shared" si="40"/>
-        <v>-1041.7193235490545</v>
+        <v>-3125.1579706471634</v>
       </c>
       <c r="AA24" s="35">
         <f t="shared" si="40"/>
-        <v>-2083.438647098109</v>
+        <v>-4687.7369559707449</v>
       </c>
       <c r="AB24" s="35">
         <f t="shared" si="40"/>
-        <v>-3125.1579706471634</v>
+        <v>-6250.3159412943269</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="16.8">
-      <c r="A25" s="27" t="str">
+      <c r="A25" s="27">
         <f t="shared" si="11"/>
-        <v>L13</v>
+        <v>0</v>
       </c>
       <c r="B25" s="10">
         <f t="shared" si="12"/>
-        <v>3.2191573657263728</v>
+        <v>0</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" si="13"/>
-        <v>4506.8203120169219</v>
+        <v>0</v>
       </c>
       <c r="D25" s="9">
         <f>IF(A25=0,0,($D$7*($D$10-13)))</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G25" s="37">
         <v>15</v>
@@ -4535,41 +4598,41 @@
       </c>
       <c r="X25" s="35">
         <f>H25*100*(H6-H5)</f>
-        <v>3371.0037310047405</v>
+        <v>2528.2527982535553</v>
       </c>
       <c r="Y25" s="35">
         <f>$H$25*100*($H$6-$H$5*J10)</f>
-        <v>1685.5018655023703</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="35">
         <f>$H$25*100*($H$6-$H$5*K10)</f>
-        <v>0</v>
+        <v>-2528.2527982535553</v>
       </c>
       <c r="AA25" s="35">
         <f>$H$25*100*($H$6-$H$5*L10)</f>
-        <v>-1685.5018655023703</v>
+        <v>-5056.5055965071106</v>
       </c>
       <c r="AB25" s="35">
         <f>$H$25*100*($H$6-$H$5*M10)</f>
-        <v>-3371.0037310047405</v>
+        <v>-7584.7583947606663</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="16.8">
-      <c r="A26" s="27" t="str">
+      <c r="A26" s="27">
         <f t="shared" si="11"/>
-        <v>L14</v>
+        <v>0</v>
       </c>
       <c r="B26" s="10">
         <f t="shared" si="12"/>
-        <v>5.2085966177452718</v>
+        <v>0</v>
       </c>
       <c r="C26" s="9">
         <f t="shared" si="13"/>
-        <v>6250.315941294326</v>
+        <v>0</v>
       </c>
       <c r="D26" s="9">
         <f>IF(A26=0,0,($D$7*($D$10-14)))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G26" s="37">
         <v>16</v>
@@ -4599,37 +4662,37 @@
       </c>
       <c r="Y26" s="35">
         <f>$H$26*100*($H$6-$H$5)</f>
-        <v>5454.28403676567</v>
+        <v>4090.7130275742525</v>
       </c>
       <c r="Z26" s="35">
         <f>$H$26*100*($H$6-$H$5*J10)</f>
-        <v>2727.142018382835</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="35">
         <f>$H$26*100*($H$6-$H$5*K10)</f>
-        <v>0</v>
+        <v>-4090.7130275742525</v>
       </c>
       <c r="AB26" s="35">
         <f>$H$26*100*($H$6-$H$5*L10)</f>
-        <v>-2727.142018382835</v>
+        <v>-8181.4260551485049</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="16.8">
-      <c r="A27" s="27" t="str">
+      <c r="A27" s="27">
         <f t="shared" si="11"/>
-        <v>L15</v>
+        <v>0</v>
       </c>
       <c r="B27" s="10">
         <f t="shared" si="12"/>
-        <v>8.4275093275118511</v>
+        <v>0</v>
       </c>
       <c r="C27" s="9">
         <f t="shared" si="13"/>
-        <v>8427.5093275118506</v>
+        <v>0</v>
       </c>
       <c r="D27" s="9">
         <f>IF(A27=0,0,($D$7*($D$10-15)))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G27" s="37">
         <v>17</v>
@@ -4644,33 +4707,33 @@
       </c>
       <c r="Z27" s="35">
         <f>$H$27*100*($H$6-$H$5*I$10)</f>
-        <v>8825.0315714868557</v>
+        <v>6618.7736786151418</v>
       </c>
       <c r="AA27" s="35">
         <f t="shared" ref="AA27:AB27" si="41">$H$27*100*($H$6-$H$5*J$10)</f>
-        <v>4412.5157857434278</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="35">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>-6618.7736786151418</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="16.8">
-      <c r="A28" s="27" t="str">
+      <c r="A28" s="27">
         <f t="shared" si="11"/>
-        <v>L16</v>
+        <v>0</v>
       </c>
       <c r="B28" s="10">
         <f t="shared" si="12"/>
-        <v>13.635710091914175</v>
+        <v>0</v>
       </c>
       <c r="C28" s="9">
         <f t="shared" si="13"/>
-        <v>10908.56807353134</v>
+        <v>0</v>
       </c>
       <c r="D28" s="9">
         <f>IF(A28=0,0,($D$7*($D$10-16)))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G28" s="37">
         <v>18</v>
@@ -4685,29 +4748,29 @@
       </c>
       <c r="AA28" s="35">
         <f>$H$28*100*($H$6-$H$5*I$10)</f>
-        <v>14278.901082665732</v>
+        <v>10709.175811999299</v>
       </c>
       <c r="AB28" s="35">
         <f>$H$28*100*($H$6-$H$5*J$10)</f>
-        <v>7139.4505413328661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="16.8">
-      <c r="A29" s="27" t="str">
+      <c r="A29" s="27">
         <f t="shared" si="11"/>
-        <v>L17</v>
+        <v>0</v>
       </c>
       <c r="B29" s="10">
         <f t="shared" si="12"/>
-        <v>22.062578928717137</v>
+        <v>0</v>
       </c>
       <c r="C29" s="9">
         <f t="shared" si="13"/>
-        <v>13237.547357230284</v>
+        <v>0</v>
       </c>
       <c r="D29" s="9">
         <f>IF(A29=0,0,($D$7*($D$10-17)))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G29" s="37">
         <v>19</v>
@@ -4722,25 +4785,25 @@
       </c>
       <c r="AB29" s="35">
         <f>$H$29*100*($H$6-$H$5*I$10)</f>
-        <v>23103.261951753153</v>
+        <v>17327.446463814864</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="16.8">
-      <c r="A30" s="27" t="str">
+      <c r="A30" s="27">
         <f t="shared" si="11"/>
-        <v>L18</v>
+        <v>0</v>
       </c>
       <c r="B30" s="10">
         <f t="shared" si="12"/>
-        <v>35.697252706664329</v>
+        <v>0</v>
       </c>
       <c r="C30" s="9">
         <f t="shared" si="13"/>
-        <v>14278.901082665732</v>
+        <v>0</v>
       </c>
       <c r="D30" s="9">
         <f>IF(A30=0,0,($D$7*($D$10-18)))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G30" s="37">
         <v>20</v>
@@ -4755,24 +4818,24 @@
       </c>
     </row>
     <row r="31" spans="1:28" ht="16.8">
-      <c r="A31" s="27" t="str">
+      <c r="A31" s="27">
         <f>IF(A30=0,0,IF(VALUE(MID(A30,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A30,2,2))+1))</f>
-        <v>L19</v>
+        <v>0</v>
       </c>
       <c r="B31" s="10">
         <f>IF(A31&lt;&gt;0,B30*$D$9,0)</f>
-        <v>57.758154879382886</v>
+        <v>0</v>
       </c>
       <c r="C31" s="9">
         <f t="shared" si="13"/>
-        <v>11551.630975876576</v>
+        <v>0</v>
       </c>
       <c r="D31" s="9">
         <f>IF(A31=0,0,($D$7*($D$10-19)))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H31" s="45">
         <f>SUM(H11:H26)</f>
@@ -4792,81 +4855,81 @@
       </c>
       <c r="L31" s="40">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="M31" s="40">
         <f t="shared" si="42"/>
-        <v>-2</v>
+        <v>-10.853999999999999</v>
       </c>
       <c r="N31" s="40">
         <f t="shared" si="42"/>
-        <v>-7.2359999999999998</v>
+        <v>-26.561771999999998</v>
       </c>
       <c r="O31" s="40">
         <f t="shared" si="42"/>
-        <v>-17.707847999999998</v>
+        <v>-54.976947095999996</v>
       </c>
       <c r="P31" s="40">
         <f t="shared" si="42"/>
-        <v>-36.651298064000002</v>
+        <v>-103.952700401328</v>
       </c>
       <c r="Q31" s="40">
         <f t="shared" si="42"/>
-        <v>-69.301800267552011</v>
+        <v>-186.19546924934872</v>
       </c>
       <c r="R31" s="40">
         <f t="shared" si="42"/>
-        <v>-124.13031283289916</v>
+        <v>-322.26426924544626</v>
       </c>
       <c r="S31" s="40">
         <f t="shared" si="42"/>
-        <v>-214.84284616363084</v>
+        <v>-545.42358763913205</v>
       </c>
       <c r="T31" s="40">
         <f t="shared" si="42"/>
-        <v>-363.61572509275476</v>
+        <v>-909.49536480011579</v>
       </c>
       <c r="U31" s="40">
         <f t="shared" si="42"/>
-        <v>-606.33024320007712</v>
+        <v>-1501.5635002465874</v>
       </c>
       <c r="V31" s="40">
         <f t="shared" si="42"/>
-        <v>-1001.0423334977249</v>
+        <v>-2462.529743398979</v>
       </c>
       <c r="W31" s="40">
         <f t="shared" si="42"/>
-        <v>-1641.6864955993192</v>
+        <v>-4020.3731248195477</v>
       </c>
       <c r="X31" s="40">
         <f t="shared" si="42"/>
-        <v>-2680.2487498796986</v>
+        <v>-6543.9637159580279</v>
       </c>
       <c r="Y31" s="40">
         <f t="shared" si="42"/>
-        <v>-4362.6424773053523</v>
+        <v>-10630.133292420091</v>
       </c>
       <c r="Z31" s="40">
         <f t="shared" si="42"/>
-        <v>-7086.7555282800604</v>
+        <v>-17244.555667135708</v>
       </c>
       <c r="AA31" s="40">
         <f t="shared" si="42"/>
-        <v>-11496.37044475714</v>
+        <v>-27949.691069425578</v>
       </c>
       <c r="AB31" s="40">
         <f t="shared" si="42"/>
-        <v>-18633.127379617054</v>
+        <v>-45273.600150330589</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="16.8">
-      <c r="A32" s="27" t="str">
+      <c r="A32" s="27">
         <f t="shared" si="11"/>
-        <v>L20</v>
+        <v>0</v>
       </c>
       <c r="B32" s="10">
         <f t="shared" si="12"/>
-        <v>93.452694594841518</v>
+        <v>0</v>
       </c>
       <c r="C32" s="9">
         <f t="shared" si="13"/>
@@ -4876,85 +4939,85 @@
         <f t="shared" ref="D32:D34" si="43">IF(A32=0,0,($D$7*($D$10-20)))</f>
         <v>0</v>
       </c>
-      <c r="I32" s="103">
+      <c r="I32" s="94">
         <f t="shared" ref="I32:AB32" si="44">SUM(I11:I30)</f>
         <v>6</v>
       </c>
-      <c r="J32" s="103">
+      <c r="J32" s="94">
         <f t="shared" si="44"/>
-        <v>13.707999999999998</v>
-      </c>
-      <c r="K32" s="103">
+        <v>12.707999999999998</v>
+      </c>
+      <c r="K32" s="94">
         <f t="shared" si="44"/>
-        <v>24.179544</v>
-      </c>
-      <c r="L32" s="103">
+        <v>20.561544000000001</v>
+      </c>
+      <c r="L32" s="94">
         <f t="shared" si="44"/>
-        <v>39.122502191999999</v>
-      </c>
-      <c r="M32" s="103">
+        <v>30.268578192</v>
+      </c>
+      <c r="M32" s="94">
         <f t="shared" si="44"/>
-        <v>61.300208546656016</v>
-      </c>
-      <c r="N32" s="103">
+        <v>42.974559514656015</v>
+      </c>
+      <c r="N32" s="94">
         <f t="shared" si="44"/>
-        <v>95.183737428489422</v>
-      </c>
-      <c r="O32" s="103">
+        <v>60.532837294713431</v>
+      </c>
+      <c r="O32" s="94">
         <f t="shared" si="44"/>
-        <v>148.00728715929591</v>
-      </c>
-      <c r="P32" s="103">
+        <v>85.942130742846345</v>
+      </c>
+      <c r="P32" s="94">
         <f t="shared" si="44"/>
-        <v>231.47579062374081</v>
-      </c>
-      <c r="Q32" s="103">
+        <v>124.05436754192537</v>
+      </c>
+      <c r="Q32" s="94">
         <f t="shared" si="44"/>
-        <v>364.52782922921267</v>
-      </c>
-      <c r="R32" s="103">
+        <v>182.71996668283532</v>
+      </c>
+      <c r="R32" s="94">
         <f t="shared" si="44"/>
-        <v>577.806027692866</v>
-      </c>
-      <c r="S32" s="103">
+        <v>274.64090609282744</v>
+      </c>
+      <c r="S32" s="94">
         <f t="shared" si="44"/>
-        <v>920.89015280705735</v>
-      </c>
-      <c r="T32" s="103">
+        <v>420.36898605819499</v>
+      </c>
+      <c r="T32" s="94">
         <f t="shared" si="44"/>
-        <v>1474.0002672418186</v>
-      </c>
-      <c r="U32" s="103">
+        <v>653.15701944215925</v>
+      </c>
+      <c r="U32" s="94">
         <f t="shared" si="44"/>
-        <v>2366.9324323972633</v>
-      </c>
-      <c r="V32" s="103">
+        <v>1026.8080574574142</v>
+      </c>
+      <c r="V32" s="94">
         <f t="shared" si="44"/>
-        <v>3809.6966756187721</v>
-      </c>
-      <c r="W32" s="103">
+        <v>1628.3754369660958</v>
+      </c>
+      <c r="W32" s="94">
         <f t="shared" si="44"/>
-        <v>6142.0892211511764</v>
-      </c>
-      <c r="X32" s="103">
+        <v>2598.7114570111453</v>
+      </c>
+      <c r="X32" s="94">
         <f t="shared" si="44"/>
-        <v>9913.9003598226009</v>
-      </c>
-      <c r="Y32" s="103">
+        <v>4165.7151374440327</v>
+      </c>
+      <c r="Y32" s="94">
         <f t="shared" si="44"/>
-        <v>16014.690782192971</v>
-      </c>
-      <c r="Z32" s="103">
+        <v>6698.1270923844459</v>
+      </c>
+      <c r="Z32" s="94">
         <f t="shared" si="44"/>
-        <v>25883.769685588228</v>
-      </c>
-      <c r="AA32" s="103">
+        <v>10792.569635478032</v>
+      </c>
+      <c r="AA32" s="94">
         <f t="shared" si="44"/>
-        <v>41849.939351281755</v>
-      </c>
-      <c r="AB32" s="103">
+        <v>17414.377670203456</v>
+      </c>
+      <c r="AB32" s="94">
         <f t="shared" si="44"/>
-        <v>67681.201870373872</v>
+        <v>28125.463070389182</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="16.8">
@@ -5075,10 +5138,10 @@
       </c>
     </row>
     <row r="35" spans="1:28" ht="18" thickTop="1" thickBot="1">
-      <c r="A35" s="105" t="s">
+      <c r="A35" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="106"/>
+      <c r="B35" s="93"/>
       <c r="C35" s="28">
         <f ca="1">SUM(C13:C37)</f>
         <v>48871.123362156599</v>
@@ -5091,7 +5154,7 @@
     <row r="36" spans="1:28" ht="13.8" thickTop="1"/>
     <row r="38" spans="1:28" ht="13.8">
       <c r="E38" s="11"/>
-      <c r="F38" s="73"/>
+      <c r="F38" s="70"/>
       <c r="G38" s="14" t="s">
         <v>15</v>
       </c>
@@ -5139,129 +5202,179 @@
       <c r="W38" s="16">
         <v>5</v>
       </c>
+      <c r="X38" s="16">
+        <v>5</v>
+      </c>
+      <c r="Y38" s="16">
+        <v>5</v>
+      </c>
+      <c r="Z38" s="16">
+        <v>5</v>
+      </c>
+      <c r="AA38" s="16">
+        <v>5</v>
+      </c>
+      <c r="AB38" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="39" spans="1:28" ht="18">
       <c r="E39" s="11"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="H39" s="71"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72">
+      <c r="F39" s="70"/>
+      <c r="G39" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" s="68"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69">
         <f>J38</f>
         <v>5</v>
       </c>
-      <c r="K39" s="72">
+      <c r="K39" s="69">
         <f>SUM($J$38:K38)</f>
         <v>10</v>
       </c>
-      <c r="L39" s="72">
+      <c r="L39" s="69">
         <f>SUM($J$38:L38)</f>
         <v>15</v>
       </c>
-      <c r="M39" s="72">
+      <c r="M39" s="69">
         <f>SUM($J$38:M38)</f>
         <v>20</v>
       </c>
-      <c r="N39" s="72">
+      <c r="N39" s="69">
         <f>SUM($J$38:N38)</f>
         <v>25</v>
       </c>
-      <c r="O39" s="72">
+      <c r="O39" s="69">
         <f>SUM($J$38:O38)</f>
         <v>30</v>
       </c>
-      <c r="P39" s="72">
+      <c r="P39" s="69">
         <f>SUM($J$38:P38)</f>
         <v>35</v>
       </c>
-      <c r="Q39" s="72">
+      <c r="Q39" s="69">
         <f>SUM($J$38:Q38)</f>
         <v>40</v>
       </c>
-      <c r="R39" s="72">
+      <c r="R39" s="69">
         <f>SUM($J$38:R38)</f>
         <v>45</v>
       </c>
-      <c r="S39" s="72">
+      <c r="S39" s="69">
         <f>SUM($J$38:S38)</f>
         <v>50</v>
       </c>
-      <c r="T39" s="72">
+      <c r="T39" s="69">
         <f>SUM($J$38:T38)</f>
         <v>55</v>
       </c>
-      <c r="U39" s="72">
+      <c r="U39" s="69">
         <f>SUM($J$38:U38)</f>
         <v>60</v>
       </c>
-      <c r="V39" s="72">
+      <c r="V39" s="69">
         <f>SUM($J$38:V38)</f>
         <v>65</v>
       </c>
-      <c r="W39" s="72">
+      <c r="W39" s="69">
         <f>SUM($J$38:W38)</f>
         <v>70</v>
       </c>
+      <c r="X39" s="69">
+        <f>SUM($J$38:X38)</f>
+        <v>75</v>
+      </c>
+      <c r="Y39" s="69">
+        <f>SUM($J$38:Y38)</f>
+        <v>80</v>
+      </c>
+      <c r="Z39" s="69">
+        <f>SUM($J$38:Z38)</f>
+        <v>85</v>
+      </c>
+      <c r="AA39" s="69">
+        <f>SUM($J$38:AA38)</f>
+        <v>90</v>
+      </c>
+      <c r="AB39" s="69">
+        <f>SUM($J$38:AB38)</f>
+        <v>95</v>
+      </c>
     </row>
     <row r="40" spans="1:28" ht="13.8">
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="75"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="72"/>
       <c r="G40" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H40" s="17"/>
-      <c r="I40" s="64">
+      <c r="I40" s="61">
         <v>30</v>
       </c>
-      <c r="J40" s="64">
+      <c r="J40" s="61">
         <v>30</v>
       </c>
-      <c r="K40" s="64">
+      <c r="K40" s="61">
         <v>30</v>
       </c>
-      <c r="L40" s="64">
+      <c r="L40" s="61">
         <v>30</v>
       </c>
-      <c r="M40" s="64">
+      <c r="M40" s="61">
         <v>30</v>
       </c>
-      <c r="N40" s="64">
+      <c r="N40" s="61">
         <v>30</v>
       </c>
-      <c r="O40" s="64">
+      <c r="O40" s="61">
         <v>30</v>
       </c>
-      <c r="P40" s="64">
+      <c r="P40" s="61">
         <v>30</v>
       </c>
-      <c r="Q40" s="64">
+      <c r="Q40" s="61">
         <v>30</v>
       </c>
-      <c r="R40" s="64">
+      <c r="R40" s="61">
         <v>30</v>
       </c>
-      <c r="S40" s="76">
+      <c r="S40" s="73">
         <v>5</v>
       </c>
-      <c r="T40" s="68">
+      <c r="T40" s="73">
         <v>5</v>
       </c>
-      <c r="U40" s="68">
+      <c r="U40" s="73">
         <v>5</v>
       </c>
-      <c r="V40" s="68">
-        <v>6</v>
-      </c>
-      <c r="W40" s="68">
-        <v>7</v>
+      <c r="V40" s="65">
+        <v>10</v>
+      </c>
+      <c r="W40" s="65">
+        <v>10</v>
+      </c>
+      <c r="X40" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y40" s="65">
+        <v>10</v>
+      </c>
+      <c r="Z40" s="65">
+        <v>10</v>
+      </c>
+      <c r="AA40" s="65">
+        <v>10</v>
+      </c>
+      <c r="AB40" s="65">
+        <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="13.8">
+    <row r="41" spans="1:28" ht="18.600000000000001">
       <c r="D41" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E41" s="52">
         <v>1</v>
@@ -5272,58 +5385,71 @@
       <c r="G41" s="52">
         <v>1.6180000000000001</v>
       </c>
-      <c r="H41" s="54" t="s">
+      <c r="H41" s="89"/>
+      <c r="I41" s="32">
+        <v>1</v>
+      </c>
+      <c r="J41" s="32">
+        <v>2</v>
+      </c>
+      <c r="K41" s="32">
+        <v>3</v>
+      </c>
+      <c r="L41" s="32">
+        <v>4</v>
+      </c>
+      <c r="M41" s="32">
+        <v>5</v>
+      </c>
+      <c r="N41" s="32">
+        <v>6</v>
+      </c>
+      <c r="O41" s="32">
+        <v>7</v>
+      </c>
+      <c r="P41" s="32">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="32">
+        <v>9</v>
+      </c>
+      <c r="R41" s="32">
+        <v>10</v>
+      </c>
+      <c r="S41" s="32">
+        <v>11</v>
+      </c>
+      <c r="T41" s="32">
+        <v>12</v>
+      </c>
+      <c r="U41" s="32">
+        <v>13</v>
+      </c>
+      <c r="V41" s="32">
+        <v>14</v>
+      </c>
+      <c r="W41" s="32">
+        <v>15</v>
+      </c>
+      <c r="X41" s="32">
+        <v>16</v>
+      </c>
+      <c r="Y41" s="32">
+        <v>17</v>
+      </c>
+      <c r="Z41" s="32">
         <v>18</v>
       </c>
-      <c r="I41" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="J41" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="K41" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="L41" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="M41" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="N41" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="O41" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="P41" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q41" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="R41" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="S41" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="T41" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="U41" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="V41" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="W41" s="68" t="s">
-        <v>49</v>
+      <c r="AA41" s="32">
+        <v>19</v>
+      </c>
+      <c r="AB41" s="32">
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="13.8">
-      <c r="D42" s="64" t="s">
-        <v>35</v>
+      <c r="D42" s="61" t="s">
+        <v>34</v>
       </c>
       <c r="E42" s="18">
         <v>0.01</v>
@@ -5336,127 +5462,147 @@
         <f>E42</f>
         <v>0.01</v>
       </c>
-      <c r="H42" s="65">
+      <c r="H42" s="62">
         <v>0.01</v>
       </c>
-      <c r="I42" s="80">
+      <c r="I42" s="77">
         <f>H42*I40*100</f>
         <v>30</v>
       </c>
-      <c r="J42" s="81">
-        <f t="shared" ref="J42:W42" si="45">$H$42*(J40-J39)*100</f>
+      <c r="J42" s="78">
+        <f t="shared" ref="J42:AB42" si="45">$H$42*(J40-J39)*100</f>
         <v>25</v>
       </c>
-      <c r="K42" s="81">
+      <c r="K42" s="78">
         <f t="shared" si="45"/>
         <v>20</v>
       </c>
-      <c r="L42" s="81">
+      <c r="L42" s="78">
         <f t="shared" si="45"/>
         <v>15</v>
       </c>
-      <c r="M42" s="81">
+      <c r="M42" s="78">
         <f t="shared" si="45"/>
         <v>10</v>
       </c>
-      <c r="N42" s="81">
+      <c r="N42" s="78">
         <f t="shared" si="45"/>
         <v>5</v>
       </c>
-      <c r="O42" s="81">
+      <c r="O42" s="78">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="P42" s="81">
+      <c r="P42" s="78">
         <f t="shared" si="45"/>
         <v>-5</v>
       </c>
-      <c r="Q42" s="81">
+      <c r="Q42" s="78">
         <f t="shared" si="45"/>
         <v>-10</v>
       </c>
-      <c r="R42" s="82">
+      <c r="R42" s="79">
         <f t="shared" si="45"/>
         <v>-15</v>
       </c>
-      <c r="S42" s="77">
+      <c r="S42" s="74">
         <f t="shared" si="45"/>
         <v>-45</v>
       </c>
-      <c r="T42" s="55">
+      <c r="T42" s="54">
         <f t="shared" si="45"/>
         <v>-50</v>
       </c>
-      <c r="U42" s="55">
+      <c r="U42" s="54">
         <f t="shared" si="45"/>
         <v>-55.000000000000007</v>
       </c>
-      <c r="V42" s="55">
+      <c r="V42" s="54">
         <f t="shared" si="45"/>
-        <v>-59</v>
-      </c>
-      <c r="W42" s="56">
+        <v>-55.000000000000007</v>
+      </c>
+      <c r="W42" s="55">
         <f t="shared" si="45"/>
-        <v>-63</v>
+        <v>-60</v>
+      </c>
+      <c r="X42" s="55">
+        <f t="shared" si="45"/>
+        <v>-65</v>
+      </c>
+      <c r="Y42" s="55">
+        <f t="shared" si="45"/>
+        <v>-70</v>
+      </c>
+      <c r="Z42" s="55">
+        <f t="shared" si="45"/>
+        <v>-75</v>
+      </c>
+      <c r="AA42" s="55">
+        <f t="shared" si="45"/>
+        <v>-80</v>
+      </c>
+      <c r="AB42" s="55">
+        <f t="shared" si="45"/>
+        <v>-85</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="13.8">
-      <c r="D43" s="64" t="s">
-        <v>36</v>
+      <c r="D43" s="61" t="s">
+        <v>35</v>
       </c>
       <c r="E43" s="19">
-        <f t="shared" ref="E43:E56" si="46">E42*$E$41</f>
+        <f t="shared" ref="E43:E61" si="46">E42*$E$41</f>
         <v>0.01</v>
       </c>
       <c r="F43" s="19">
-        <f t="shared" ref="F43:F56" si="47">F42*$F$41</f>
+        <f t="shared" ref="F43:F61" si="47">F42*$F$41</f>
         <v>1.3819999999999999E-2</v>
       </c>
       <c r="G43" s="19">
-        <f t="shared" ref="G43:G56" si="48">G42*$G$41</f>
+        <f t="shared" ref="G43:G61" si="48">G42*$G$41</f>
         <v>1.618E-2</v>
       </c>
-      <c r="H43" s="66">
+      <c r="H43" s="63">
         <v>0.01</v>
       </c>
-      <c r="I43" s="83"/>
-      <c r="J43" s="84">
+      <c r="I43" s="80"/>
+      <c r="J43" s="81">
         <f>H43*J40*100</f>
         <v>30</v>
       </c>
-      <c r="K43" s="84">
+      <c r="K43" s="81">
         <f>$H$43*(K40-(K39-J39))*100</f>
         <v>25</v>
       </c>
-      <c r="L43" s="84">
-        <f t="shared" ref="L43:W43" si="49">$H$43*100*(L40-(L39-$J$39))</f>
+      <c r="L43" s="81">
+        <f t="shared" ref="L43:AB43" si="49">$H$43*100*(L40-(L39-$J$39))</f>
         <v>20</v>
       </c>
-      <c r="M43" s="84">
+      <c r="M43" s="81">
         <f t="shared" si="49"/>
         <v>15</v>
       </c>
-      <c r="N43" s="84">
+      <c r="N43" s="81">
         <f t="shared" si="49"/>
         <v>10</v>
       </c>
-      <c r="O43" s="84">
+      <c r="O43" s="81">
         <f t="shared" si="49"/>
         <v>5</v>
       </c>
-      <c r="P43" s="84">
+      <c r="P43" s="81">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="84">
+      <c r="Q43" s="81">
         <f t="shared" si="49"/>
         <v>-5</v>
       </c>
-      <c r="R43" s="85">
+      <c r="R43" s="82">
         <f t="shared" si="49"/>
         <v>-10</v>
       </c>
-      <c r="S43" s="78">
+      <c r="S43" s="75">
         <f t="shared" si="49"/>
         <v>-40</v>
       </c>
@@ -5470,16 +5616,36 @@
       </c>
       <c r="V43" s="20">
         <f t="shared" si="49"/>
-        <v>-54</v>
-      </c>
-      <c r="W43" s="58">
+        <v>-50</v>
+      </c>
+      <c r="W43" s="57">
         <f t="shared" si="49"/>
-        <v>-58</v>
+        <v>-55</v>
+      </c>
+      <c r="X43" s="57">
+        <f t="shared" si="49"/>
+        <v>-60</v>
+      </c>
+      <c r="Y43" s="57">
+        <f t="shared" si="49"/>
+        <v>-65</v>
+      </c>
+      <c r="Z43" s="57">
+        <f t="shared" si="49"/>
+        <v>-70</v>
+      </c>
+      <c r="AA43" s="57">
+        <f t="shared" si="49"/>
+        <v>-75</v>
+      </c>
+      <c r="AB43" s="57">
+        <f t="shared" si="49"/>
+        <v>-80</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="13.8">
-      <c r="D44" s="64" t="s">
-        <v>37</v>
+      <c r="D44" s="61" t="s">
+        <v>36</v>
       </c>
       <c r="E44" s="19">
         <f t="shared" si="46"/>
@@ -5493,44 +5659,44 @@
         <f t="shared" si="48"/>
         <v>2.6179240000000003E-2</v>
       </c>
-      <c r="H44" s="66">
+      <c r="H44" s="63">
         <v>0.01</v>
       </c>
-      <c r="I44" s="83"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="84">
+      <c r="I44" s="80"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="81">
         <f>H44*K40*100</f>
         <v>30</v>
       </c>
-      <c r="L44" s="84">
-        <f t="shared" ref="L44:W44" si="50">$H$44*100*(L40 -(L39-$K$39))</f>
+      <c r="L44" s="81">
+        <f t="shared" ref="L44:AB44" si="50">$H$44*100*(L40 -(L39-$K$39))</f>
         <v>25</v>
       </c>
-      <c r="M44" s="84">
+      <c r="M44" s="81">
         <f t="shared" si="50"/>
         <v>20</v>
       </c>
-      <c r="N44" s="84">
+      <c r="N44" s="81">
         <f t="shared" si="50"/>
         <v>15</v>
       </c>
-      <c r="O44" s="84">
+      <c r="O44" s="81">
         <f t="shared" si="50"/>
         <v>10</v>
       </c>
-      <c r="P44" s="84">
+      <c r="P44" s="81">
         <f t="shared" si="50"/>
         <v>5</v>
       </c>
-      <c r="Q44" s="84">
+      <c r="Q44" s="81">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R44" s="85">
+      <c r="R44" s="82">
         <f t="shared" si="50"/>
         <v>-5</v>
       </c>
-      <c r="S44" s="78">
+      <c r="S44" s="75">
         <f t="shared" si="50"/>
         <v>-35</v>
       </c>
@@ -5544,16 +5710,36 @@
       </c>
       <c r="V44" s="20">
         <f t="shared" si="50"/>
-        <v>-49</v>
-      </c>
-      <c r="W44" s="58">
+        <v>-45</v>
+      </c>
+      <c r="W44" s="57">
         <f t="shared" si="50"/>
-        <v>-53</v>
+        <v>-50</v>
+      </c>
+      <c r="X44" s="57">
+        <f t="shared" si="50"/>
+        <v>-55</v>
+      </c>
+      <c r="Y44" s="57">
+        <f t="shared" si="50"/>
+        <v>-60</v>
+      </c>
+      <c r="Z44" s="57">
+        <f t="shared" si="50"/>
+        <v>-65</v>
+      </c>
+      <c r="AA44" s="57">
+        <f t="shared" si="50"/>
+        <v>-70</v>
+      </c>
+      <c r="AB44" s="57">
+        <f t="shared" si="50"/>
+        <v>-75</v>
       </c>
     </row>
     <row r="45" spans="1:28" ht="13.8">
-      <c r="D45" s="64" t="s">
-        <v>38</v>
+      <c r="D45" s="61" t="s">
+        <v>37</v>
       </c>
       <c r="E45" s="19">
         <f t="shared" si="46"/>
@@ -5567,41 +5753,41 @@
         <f t="shared" si="48"/>
         <v>4.2358010320000007E-2</v>
       </c>
-      <c r="H45" s="66">
+      <c r="H45" s="63">
         <v>0.01</v>
       </c>
-      <c r="I45" s="83"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="84">
+      <c r="I45" s="80"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="81">
         <f>H45*L40*100</f>
         <v>30</v>
       </c>
-      <c r="M45" s="84">
-        <f t="shared" ref="M45:W45" si="51">$H$45*(M40-(M39-$L$39))*100</f>
+      <c r="M45" s="81">
+        <f t="shared" ref="M45:AB45" si="51">$H$45*(M40-(M39-$L$39))*100</f>
         <v>25</v>
       </c>
-      <c r="N45" s="84">
+      <c r="N45" s="81">
         <f t="shared" si="51"/>
         <v>20</v>
       </c>
-      <c r="O45" s="84">
+      <c r="O45" s="81">
         <f t="shared" si="51"/>
         <v>15</v>
       </c>
-      <c r="P45" s="84">
+      <c r="P45" s="81">
         <f t="shared" si="51"/>
         <v>10</v>
       </c>
-      <c r="Q45" s="84">
+      <c r="Q45" s="81">
         <f t="shared" si="51"/>
         <v>5</v>
       </c>
-      <c r="R45" s="85">
+      <c r="R45" s="82">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="S45" s="78">
+      <c r="S45" s="75">
         <f t="shared" si="51"/>
         <v>-30</v>
       </c>
@@ -5615,16 +5801,36 @@
       </c>
       <c r="V45" s="20">
         <f t="shared" si="51"/>
-        <v>-44</v>
-      </c>
-      <c r="W45" s="58">
+        <v>-40</v>
+      </c>
+      <c r="W45" s="57">
         <f t="shared" si="51"/>
-        <v>-48</v>
+        <v>-45</v>
+      </c>
+      <c r="X45" s="57">
+        <f t="shared" si="51"/>
+        <v>-50</v>
+      </c>
+      <c r="Y45" s="57">
+        <f t="shared" si="51"/>
+        <v>-55.000000000000007</v>
+      </c>
+      <c r="Z45" s="57">
+        <f t="shared" si="51"/>
+        <v>-60</v>
+      </c>
+      <c r="AA45" s="57">
+        <f t="shared" si="51"/>
+        <v>-65</v>
+      </c>
+      <c r="AB45" s="57">
+        <f t="shared" si="51"/>
+        <v>-70</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="13.8">
-      <c r="D46" s="64" t="s">
-        <v>39</v>
+      <c r="D46" s="61" t="s">
+        <v>38</v>
       </c>
       <c r="E46" s="19">
         <f t="shared" si="46"/>
@@ -5638,38 +5844,38 @@
         <f t="shared" si="48"/>
         <v>6.8535260697760017E-2</v>
       </c>
-      <c r="H46" s="66">
+      <c r="H46" s="63">
         <v>0.01</v>
       </c>
-      <c r="I46" s="83"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="84">
+      <c r="I46" s="80"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="81"/>
+      <c r="M46" s="81">
         <f>H46*M40*100</f>
         <v>30</v>
       </c>
-      <c r="N46" s="84">
-        <f t="shared" ref="N46:W46" si="52">$H$46*(N40-(N39-$M$39))*100</f>
+      <c r="N46" s="81">
+        <f t="shared" ref="N46:AB46" si="52">$H$46*(N40-(N39-$M$39))*100</f>
         <v>25</v>
       </c>
-      <c r="O46" s="84">
+      <c r="O46" s="81">
         <f t="shared" si="52"/>
         <v>20</v>
       </c>
-      <c r="P46" s="84">
+      <c r="P46" s="81">
         <f t="shared" si="52"/>
         <v>15</v>
       </c>
-      <c r="Q46" s="84">
+      <c r="Q46" s="81">
         <f t="shared" si="52"/>
         <v>10</v>
       </c>
-      <c r="R46" s="85">
+      <c r="R46" s="82">
         <f t="shared" si="52"/>
         <v>5</v>
       </c>
-      <c r="S46" s="78">
+      <c r="S46" s="75">
         <f t="shared" si="52"/>
         <v>-25</v>
       </c>
@@ -5683,16 +5889,36 @@
       </c>
       <c r="V46" s="20">
         <f t="shared" si="52"/>
-        <v>-39</v>
-      </c>
-      <c r="W46" s="58">
+        <v>-35</v>
+      </c>
+      <c r="W46" s="57">
         <f t="shared" si="52"/>
-        <v>-43</v>
+        <v>-40</v>
+      </c>
+      <c r="X46" s="57">
+        <f t="shared" si="52"/>
+        <v>-45</v>
+      </c>
+      <c r="Y46" s="57">
+        <f t="shared" si="52"/>
+        <v>-50</v>
+      </c>
+      <c r="Z46" s="57">
+        <f t="shared" si="52"/>
+        <v>-55.000000000000007</v>
+      </c>
+      <c r="AA46" s="57">
+        <f t="shared" si="52"/>
+        <v>-60</v>
+      </c>
+      <c r="AB46" s="57">
+        <f t="shared" si="52"/>
+        <v>-65</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="13.8">
-      <c r="D47" s="64" t="s">
-        <v>40</v>
+      <c r="D47" s="61" t="s">
+        <v>39</v>
       </c>
       <c r="E47" s="19">
         <f t="shared" si="46"/>
@@ -5706,35 +5932,35 @@
         <f t="shared" si="48"/>
         <v>0.11089005180897571</v>
       </c>
-      <c r="H47" s="66">
+      <c r="H47" s="63">
         <v>0.01</v>
       </c>
-      <c r="I47" s="83"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="84"/>
-      <c r="L47" s="84"/>
-      <c r="M47" s="84"/>
-      <c r="N47" s="84">
+      <c r="I47" s="80"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="81"/>
+      <c r="N47" s="81">
         <f>H47*N40*100</f>
         <v>30</v>
       </c>
-      <c r="O47" s="84">
-        <f t="shared" ref="O47:W47" si="53">$H$47*(O40-(O39-$N$39))*100</f>
+      <c r="O47" s="81">
+        <f t="shared" ref="O47:AB47" si="53">$H$47*(O40-(O39-$N$39))*100</f>
         <v>25</v>
       </c>
-      <c r="P47" s="84">
+      <c r="P47" s="81">
         <f t="shared" si="53"/>
         <v>20</v>
       </c>
-      <c r="Q47" s="84">
+      <c r="Q47" s="81">
         <f t="shared" si="53"/>
         <v>15</v>
       </c>
-      <c r="R47" s="85">
+      <c r="R47" s="82">
         <f t="shared" si="53"/>
         <v>10</v>
       </c>
-      <c r="S47" s="78">
+      <c r="S47" s="75">
         <f t="shared" si="53"/>
         <v>-20</v>
       </c>
@@ -5748,16 +5974,36 @@
       </c>
       <c r="V47" s="20">
         <f t="shared" si="53"/>
-        <v>-34</v>
-      </c>
-      <c r="W47" s="58">
+        <v>-30</v>
+      </c>
+      <c r="W47" s="57">
         <f t="shared" si="53"/>
-        <v>-38</v>
+        <v>-35</v>
+      </c>
+      <c r="X47" s="57">
+        <f t="shared" si="53"/>
+        <v>-40</v>
+      </c>
+      <c r="Y47" s="57">
+        <f t="shared" si="53"/>
+        <v>-45</v>
+      </c>
+      <c r="Z47" s="57">
+        <f t="shared" si="53"/>
+        <v>-50</v>
+      </c>
+      <c r="AA47" s="57">
+        <f t="shared" si="53"/>
+        <v>-55.000000000000007</v>
+      </c>
+      <c r="AB47" s="57">
+        <f t="shared" si="53"/>
+        <v>-60</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="13.8">
-      <c r="D48" s="64" t="s">
-        <v>41</v>
+      <c r="D48" s="61" t="s">
+        <v>40</v>
       </c>
       <c r="E48" s="19">
         <f t="shared" si="46"/>
@@ -5771,32 +6017,32 @@
         <f t="shared" si="48"/>
         <v>0.17942010382692272</v>
       </c>
-      <c r="H48" s="66">
+      <c r="H48" s="63">
         <v>0.01</v>
       </c>
-      <c r="I48" s="83"/>
-      <c r="J48" s="84"/>
-      <c r="K48" s="84"/>
-      <c r="L48" s="84"/>
-      <c r="M48" s="84"/>
-      <c r="N48" s="84"/>
-      <c r="O48" s="84">
+      <c r="I48" s="80"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="81"/>
+      <c r="O48" s="81">
         <f>H48*O40*100</f>
         <v>30</v>
       </c>
-      <c r="P48" s="84">
-        <f t="shared" ref="P48:W48" si="54">$H$48*(P40-(P39-$O$39))*100</f>
+      <c r="P48" s="81">
+        <f t="shared" ref="P48:AB48" si="54">$H$48*(P40-(P39-$O$39))*100</f>
         <v>25</v>
       </c>
-      <c r="Q48" s="84">
+      <c r="Q48" s="81">
         <f t="shared" si="54"/>
         <v>20</v>
       </c>
-      <c r="R48" s="85">
+      <c r="R48" s="82">
         <f t="shared" si="54"/>
         <v>15</v>
       </c>
-      <c r="S48" s="78">
+      <c r="S48" s="75">
         <f t="shared" si="54"/>
         <v>-15</v>
       </c>
@@ -5810,16 +6056,36 @@
       </c>
       <c r="V48" s="20">
         <f t="shared" si="54"/>
-        <v>-28.999999999999996</v>
-      </c>
-      <c r="W48" s="58">
+        <v>-25</v>
+      </c>
+      <c r="W48" s="57">
         <f t="shared" si="54"/>
-        <v>-33</v>
+        <v>-30</v>
+      </c>
+      <c r="X48" s="57">
+        <f t="shared" si="54"/>
+        <v>-35</v>
+      </c>
+      <c r="Y48" s="57">
+        <f t="shared" si="54"/>
+        <v>-40</v>
+      </c>
+      <c r="Z48" s="57">
+        <f t="shared" si="54"/>
+        <v>-45</v>
+      </c>
+      <c r="AA48" s="57">
+        <f t="shared" si="54"/>
+        <v>-50</v>
+      </c>
+      <c r="AB48" s="57">
+        <f t="shared" si="54"/>
+        <v>-55.000000000000007</v>
       </c>
     </row>
-    <row r="49" spans="4:23" ht="13.8">
-      <c r="D49" s="64" t="s">
-        <v>42</v>
+    <row r="49" spans="4:28" ht="13.8">
+      <c r="D49" s="61" t="s">
+        <v>41</v>
       </c>
       <c r="E49" s="19">
         <f t="shared" si="46"/>
@@ -5833,29 +6099,29 @@
         <f t="shared" si="48"/>
         <v>0.29030172799196097</v>
       </c>
-      <c r="H49" s="66">
+      <c r="H49" s="63">
         <v>0.01</v>
       </c>
-      <c r="I49" s="83"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="84"/>
-      <c r="O49" s="84"/>
-      <c r="P49" s="84">
+      <c r="I49" s="80"/>
+      <c r="J49" s="81"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="81"/>
+      <c r="M49" s="81"/>
+      <c r="N49" s="81"/>
+      <c r="O49" s="81"/>
+      <c r="P49" s="81">
         <f>H49*P40*100</f>
         <v>30</v>
       </c>
-      <c r="Q49" s="84">
-        <f t="shared" ref="Q49:W49" si="55">$H$49*(Q40-(Q39-$P$39))*100</f>
+      <c r="Q49" s="81">
+        <f t="shared" ref="Q49:AB49" si="55">$H$49*(Q40-(Q39-$P$39))*100</f>
         <v>25</v>
       </c>
-      <c r="R49" s="85">
+      <c r="R49" s="82">
         <f t="shared" si="55"/>
         <v>20</v>
       </c>
-      <c r="S49" s="78">
+      <c r="S49" s="75">
         <f t="shared" si="55"/>
         <v>-10</v>
       </c>
@@ -5869,16 +6135,36 @@
       </c>
       <c r="V49" s="20">
         <f t="shared" si="55"/>
-        <v>-24</v>
-      </c>
-      <c r="W49" s="58">
+        <v>-20</v>
+      </c>
+      <c r="W49" s="57">
         <f t="shared" si="55"/>
-        <v>-28.000000000000004</v>
+        <v>-25</v>
+      </c>
+      <c r="X49" s="57">
+        <f t="shared" si="55"/>
+        <v>-30</v>
+      </c>
+      <c r="Y49" s="57">
+        <f t="shared" si="55"/>
+        <v>-35</v>
+      </c>
+      <c r="Z49" s="57">
+        <f t="shared" si="55"/>
+        <v>-40</v>
+      </c>
+      <c r="AA49" s="57">
+        <f t="shared" si="55"/>
+        <v>-45</v>
+      </c>
+      <c r="AB49" s="57">
+        <f t="shared" si="55"/>
+        <v>-50</v>
       </c>
     </row>
-    <row r="50" spans="4:23" ht="13.8">
-      <c r="D50" s="64" t="s">
-        <v>43</v>
+    <row r="50" spans="4:28" ht="13.8">
+      <c r="D50" s="61" t="s">
+        <v>42</v>
       </c>
       <c r="E50" s="19">
         <f t="shared" si="46"/>
@@ -5892,26 +6178,26 @@
         <f t="shared" si="48"/>
         <v>0.46970819589099289</v>
       </c>
-      <c r="H50" s="66">
+      <c r="H50" s="63">
         <v>0.01</v>
       </c>
-      <c r="I50" s="83"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="84"/>
-      <c r="P50" s="84"/>
-      <c r="Q50" s="84">
+      <c r="I50" s="80"/>
+      <c r="J50" s="81"/>
+      <c r="K50" s="81"/>
+      <c r="L50" s="81"/>
+      <c r="M50" s="81"/>
+      <c r="N50" s="81"/>
+      <c r="O50" s="81"/>
+      <c r="P50" s="81"/>
+      <c r="Q50" s="81">
         <f>H50*Q40*100</f>
         <v>30</v>
       </c>
-      <c r="R50" s="85">
-        <f t="shared" ref="R50:W50" si="56">$H$50*(R40-(R39-$Q$39))*100</f>
+      <c r="R50" s="82">
+        <f t="shared" ref="R50:AB50" si="56">$H$50*(R40-(R39-$Q$39))*100</f>
         <v>25</v>
       </c>
-      <c r="S50" s="78">
+      <c r="S50" s="75">
         <f t="shared" si="56"/>
         <v>-5</v>
       </c>
@@ -5925,16 +6211,36 @@
       </c>
       <c r="V50" s="20">
         <f t="shared" si="56"/>
-        <v>-19</v>
-      </c>
-      <c r="W50" s="58">
+        <v>-15</v>
+      </c>
+      <c r="W50" s="57">
         <f t="shared" si="56"/>
-        <v>-23</v>
+        <v>-20</v>
+      </c>
+      <c r="X50" s="57">
+        <f t="shared" si="56"/>
+        <v>-25</v>
+      </c>
+      <c r="Y50" s="57">
+        <f t="shared" si="56"/>
+        <v>-30</v>
+      </c>
+      <c r="Z50" s="57">
+        <f t="shared" si="56"/>
+        <v>-35</v>
+      </c>
+      <c r="AA50" s="57">
+        <f t="shared" si="56"/>
+        <v>-40</v>
+      </c>
+      <c r="AB50" s="57">
+        <f t="shared" si="56"/>
+        <v>-45</v>
       </c>
     </row>
-    <row r="51" spans="4:23" ht="13.8">
-      <c r="D51" s="64" t="s">
-        <v>44</v>
+    <row r="51" spans="4:28" ht="13.8">
+      <c r="D51" s="61" t="s">
+        <v>43</v>
       </c>
       <c r="E51" s="19">
         <f t="shared" si="46"/>
@@ -5948,23 +6254,23 @@
         <f t="shared" si="48"/>
         <v>0.75998786095162651</v>
       </c>
-      <c r="H51" s="66">
+      <c r="H51" s="63">
         <v>0.01</v>
       </c>
-      <c r="I51" s="86"/>
-      <c r="J51" s="87"/>
-      <c r="K51" s="87"/>
-      <c r="L51" s="87"/>
-      <c r="M51" s="87"/>
-      <c r="N51" s="87"/>
-      <c r="O51" s="87"/>
-      <c r="P51" s="87"/>
-      <c r="Q51" s="87"/>
-      <c r="R51" s="88">
+      <c r="I51" s="83"/>
+      <c r="J51" s="84"/>
+      <c r="K51" s="84"/>
+      <c r="L51" s="84"/>
+      <c r="M51" s="84"/>
+      <c r="N51" s="84"/>
+      <c r="O51" s="84"/>
+      <c r="P51" s="84"/>
+      <c r="Q51" s="84"/>
+      <c r="R51" s="85">
         <f>H51*R40*100</f>
         <v>30</v>
       </c>
-      <c r="S51" s="79">
+      <c r="S51" s="76">
         <f>$H$51*(S40-(S39-$R$39))*100</f>
         <v>0</v>
       </c>
@@ -5978,16 +6284,36 @@
       </c>
       <c r="V51" s="21">
         <f>$H$51*(V40-(V39-$R$39))*100</f>
-        <v>-14.000000000000002</v>
-      </c>
-      <c r="W51" s="59">
+        <v>-10</v>
+      </c>
+      <c r="W51" s="58">
         <f>$H$51*(W40-(W39-$R$39))*100</f>
-        <v>-18</v>
+        <v>-15</v>
+      </c>
+      <c r="X51" s="58">
+        <f t="shared" ref="X51:AB51" si="57">$H$51*(X40-(X39-$R$39))*100</f>
+        <v>-20</v>
+      </c>
+      <c r="Y51" s="58">
+        <f t="shared" si="57"/>
+        <v>-25</v>
+      </c>
+      <c r="Z51" s="58">
+        <f t="shared" si="57"/>
+        <v>-30</v>
+      </c>
+      <c r="AA51" s="58">
+        <f t="shared" si="57"/>
+        <v>-35</v>
+      </c>
+      <c r="AB51" s="58">
+        <f t="shared" si="57"/>
+        <v>-40</v>
       </c>
     </row>
-    <row r="52" spans="4:23" ht="13.8">
-      <c r="D52" s="67" t="s">
-        <v>45</v>
+    <row r="52" spans="4:28" ht="13.8">
+      <c r="D52" s="64" t="s">
+        <v>44</v>
       </c>
       <c r="E52" s="19">
         <f t="shared" si="46"/>
@@ -6001,10 +6327,10 @@
         <f t="shared" si="48"/>
         <v>1.2296603590197317</v>
       </c>
-      <c r="H52" s="69">
+      <c r="H52" s="66">
         <v>0.46970819589099289</v>
       </c>
-      <c r="I52" s="63"/>
+      <c r="I52" s="60"/>
       <c r="J52" s="53"/>
       <c r="K52" s="53"/>
       <c r="L52" s="53"/>
@@ -6013,31 +6339,51 @@
       <c r="O52" s="53"/>
       <c r="P52" s="53"/>
       <c r="Q52" s="53"/>
-      <c r="R52" s="94"/>
-      <c r="S52" s="98">
+      <c r="R52" s="55"/>
+      <c r="S52" s="103">
         <f>H52*S40*100</f>
         <v>234.85409794549645</v>
       </c>
-      <c r="T52" s="55">
+      <c r="T52" s="54">
         <f>$H$52*(T40-(T39-$S$39))*100</f>
         <v>0</v>
       </c>
-      <c r="U52" s="55">
+      <c r="U52" s="54">
         <f>$H$52*(U40-(U39-$S$39))*100</f>
         <v>-234.85409794549645</v>
       </c>
-      <c r="V52" s="55">
+      <c r="V52" s="54">
         <f>$H$52*(V40-(V39-$S$39))*100</f>
-        <v>-422.73737630189362</v>
-      </c>
-      <c r="W52" s="56">
+        <v>-234.85409794549645</v>
+      </c>
+      <c r="W52" s="55">
         <f>$H$52*(W40-(W39-$S$39))*100</f>
-        <v>-610.62065465829073</v>
+        <v>-469.7081958909929</v>
+      </c>
+      <c r="X52" s="55">
+        <f t="shared" ref="X52:AB52" si="58">$H$52*(X40-(X39-$S$39))*100</f>
+        <v>-704.56229383648929</v>
+      </c>
+      <c r="Y52" s="55">
+        <f t="shared" si="58"/>
+        <v>-939.41639178198579</v>
+      </c>
+      <c r="Z52" s="55">
+        <f t="shared" si="58"/>
+        <v>-1174.2704897274821</v>
+      </c>
+      <c r="AA52" s="55">
+        <f t="shared" si="58"/>
+        <v>-1409.1245876729786</v>
+      </c>
+      <c r="AB52" s="55">
+        <f t="shared" si="58"/>
+        <v>-1643.9786856184749</v>
       </c>
     </row>
-    <row r="53" spans="4:23" ht="13.8">
-      <c r="D53" s="68" t="s">
-        <v>46</v>
+    <row r="53" spans="4:28" ht="13.8">
+      <c r="D53" s="65" t="s">
+        <v>45</v>
       </c>
       <c r="E53" s="19">
         <f t="shared" si="46"/>
@@ -6051,10 +6397,10 @@
         <f t="shared" si="48"/>
         <v>1.9895904608939261</v>
       </c>
-      <c r="H53" s="70">
+      <c r="H53" s="67">
         <v>0.75998786095162651</v>
       </c>
-      <c r="I53" s="57"/>
+      <c r="I53" s="56"/>
       <c r="J53" s="20"/>
       <c r="K53" s="20"/>
       <c r="L53" s="20"/>
@@ -6063,9 +6409,9 @@
       <c r="O53" s="20"/>
       <c r="P53" s="20"/>
       <c r="Q53" s="20"/>
-      <c r="R53" s="95"/>
-      <c r="S53" s="57"/>
-      <c r="T53" s="89">
+      <c r="R53" s="57"/>
+      <c r="S53" s="75"/>
+      <c r="T53" s="86">
         <f>H53*T40*100</f>
         <v>379.99393047581327</v>
       </c>
@@ -6075,16 +6421,36 @@
       </c>
       <c r="V53" s="20">
         <f>$H$53*(V40-(V39-$T$39))*100</f>
-        <v>-303.99514438065063</v>
-      </c>
-      <c r="W53" s="58">
+        <v>0</v>
+      </c>
+      <c r="W53" s="57">
         <f>$H$53*(W40-(W39-$T$39))*100</f>
-        <v>-607.99028876130126</v>
+        <v>-379.99393047581327</v>
+      </c>
+      <c r="X53" s="57">
+        <f t="shared" ref="X53:AB53" si="59">$H$53*(X40-(X39-$T$39))*100</f>
+        <v>-759.98786095162654</v>
+      </c>
+      <c r="Y53" s="57">
+        <f t="shared" si="59"/>
+        <v>-1139.9817914274397</v>
+      </c>
+      <c r="Z53" s="57">
+        <f t="shared" si="59"/>
+        <v>-1519.9757219032531</v>
+      </c>
+      <c r="AA53" s="57">
+        <f t="shared" si="59"/>
+        <v>-1899.9696523790665</v>
+      </c>
+      <c r="AB53" s="57">
+        <f t="shared" si="59"/>
+        <v>-2279.9635828548794</v>
       </c>
     </row>
-    <row r="54" spans="4:23" ht="13.8">
-      <c r="D54" s="68" t="s">
-        <v>47</v>
+    <row r="54" spans="4:28" ht="13.8">
+      <c r="D54" s="65" t="s">
+        <v>46</v>
       </c>
       <c r="E54" s="19">
         <f t="shared" si="46"/>
@@ -6098,10 +6464,10 @@
         <f t="shared" si="48"/>
         <v>3.2191573657263728</v>
       </c>
-      <c r="H54" s="70">
+      <c r="H54" s="67">
         <v>1.2296603590197317</v>
       </c>
-      <c r="I54" s="57"/>
+      <c r="I54" s="56"/>
       <c r="J54" s="20"/>
       <c r="K54" s="20"/>
       <c r="L54" s="20"/>
@@ -6110,25 +6476,45 @@
       <c r="O54" s="20"/>
       <c r="P54" s="20"/>
       <c r="Q54" s="20"/>
-      <c r="R54" s="95"/>
-      <c r="S54" s="57"/>
+      <c r="R54" s="57"/>
+      <c r="S54" s="75"/>
       <c r="T54" s="20"/>
-      <c r="U54" s="89">
+      <c r="U54" s="86">
         <f>H54*U40*100</f>
         <v>614.83017950986584</v>
       </c>
       <c r="V54" s="20">
         <f>$H$54*(V40-(V39-$U$39))*100</f>
-        <v>122.96603590197317</v>
-      </c>
-      <c r="W54" s="58">
+        <v>614.83017950986584</v>
+      </c>
+      <c r="W54" s="57">
         <f>$H$54*(W40-(W39-$U$39))*100</f>
-        <v>-368.89810770591953</v>
+        <v>0</v>
+      </c>
+      <c r="X54" s="57">
+        <f t="shared" ref="X54:AB54" si="60">$H$54*(X40-(X39-$U$39))*100</f>
+        <v>-614.83017950986584</v>
+      </c>
+      <c r="Y54" s="57">
+        <f t="shared" si="60"/>
+        <v>-1229.6603590197317</v>
+      </c>
+      <c r="Z54" s="57">
+        <f t="shared" si="60"/>
+        <v>-1844.4905385295974</v>
+      </c>
+      <c r="AA54" s="57">
+        <f t="shared" si="60"/>
+        <v>-2459.3207180394634</v>
+      </c>
+      <c r="AB54" s="57">
+        <f t="shared" si="60"/>
+        <v>-3074.1508975493293</v>
       </c>
     </row>
-    <row r="55" spans="4:23" ht="13.8">
-      <c r="D55" s="68" t="s">
-        <v>48</v>
+    <row r="55" spans="4:28" ht="13.8">
+      <c r="D55" s="65" t="s">
+        <v>47</v>
       </c>
       <c r="E55" s="19">
         <f t="shared" si="46"/>
@@ -6142,10 +6528,10 @@
         <f t="shared" si="48"/>
         <v>5.2085966177452718</v>
       </c>
-      <c r="H55" s="70">
+      <c r="H55" s="67">
         <v>1.9895904608939261</v>
       </c>
-      <c r="I55" s="57"/>
+      <c r="I55" s="20"/>
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
       <c r="L55" s="20"/>
@@ -6154,22 +6540,42 @@
       <c r="O55" s="20"/>
       <c r="P55" s="20"/>
       <c r="Q55" s="20"/>
-      <c r="R55" s="95"/>
-      <c r="S55" s="57"/>
+      <c r="R55" s="57"/>
+      <c r="S55" s="75"/>
       <c r="T55" s="20"/>
       <c r="U55" s="20"/>
-      <c r="V55" s="89">
+      <c r="V55" s="86">
         <f>H55*V40*100</f>
-        <v>1193.7542765363555</v>
-      </c>
-      <c r="W55" s="58">
-        <f>$H$55*(W40-(W39-$V$39))*100</f>
-        <v>397.91809217878523</v>
+        <v>1989.5904608939261</v>
+      </c>
+      <c r="W55" s="57">
+        <f>$H$55*(W$40-(W$39-V$39))*100</f>
+        <v>994.79523044696305</v>
+      </c>
+      <c r="X55" s="57">
+        <f t="shared" ref="X55:AB55" si="61">$H$55*(X40-(X39-$V$39))*100</f>
+        <v>0</v>
+      </c>
+      <c r="Y55" s="57">
+        <f t="shared" si="61"/>
+        <v>-994.79523044696305</v>
+      </c>
+      <c r="Z55" s="57">
+        <f t="shared" si="61"/>
+        <v>-1989.5904608939261</v>
+      </c>
+      <c r="AA55" s="57">
+        <f t="shared" si="61"/>
+        <v>-2984.385691340889</v>
+      </c>
+      <c r="AB55" s="57">
+        <f t="shared" si="61"/>
+        <v>-3979.1809217878522</v>
       </c>
     </row>
-    <row r="56" spans="4:23" ht="13.8">
-      <c r="D56" s="68" t="s">
-        <v>49</v>
+    <row r="56" spans="4:28" ht="13.8">
+      <c r="D56" s="65" t="s">
+        <v>48</v>
       </c>
       <c r="E56" s="19">
         <f t="shared" si="46"/>
@@ -6183,163 +6589,468 @@
         <f t="shared" si="48"/>
         <v>8.4275093275118511</v>
       </c>
-      <c r="H56" s="70">
+      <c r="H56" s="67">
         <v>3.2191573657263728</v>
       </c>
-      <c r="I56" s="60"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="61"/>
-      <c r="M56" s="61"/>
-      <c r="N56" s="61"/>
-      <c r="O56" s="61"/>
-      <c r="P56" s="61"/>
-      <c r="Q56" s="61"/>
-      <c r="R56" s="96"/>
-      <c r="S56" s="60"/>
-      <c r="T56" s="61"/>
-      <c r="U56" s="61"/>
-      <c r="V56" s="61"/>
-      <c r="W56" s="90">
-        <f>H56*W40*100</f>
-        <v>2253.4101560084609</v>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="57"/>
+      <c r="S56" s="75"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="87">
+        <f>$H56*W$40*100</f>
+        <v>3219.157365726373</v>
+      </c>
+      <c r="X56" s="57">
+        <f>$H$56*(X$40-(X$39-W$39))*100</f>
+        <v>1609.5786828631865</v>
+      </c>
+      <c r="Y56" s="57">
+        <f>$H$56*(Y$40-(Y$39-$W$39))*100</f>
+        <v>0</v>
+      </c>
+      <c r="Z56" s="57">
+        <f>$H$56*(Z$40-(Z$39-$W$39))*100</f>
+        <v>-1609.5786828631865</v>
+      </c>
+      <c r="AA56" s="57">
+        <f>$H$56*(AA$40-(AA$39-$W$39))*100</f>
+        <v>-3219.157365726373</v>
+      </c>
+      <c r="AB56" s="57">
+        <f>$H$56*(AB$40-(AB$39-$W$39))*100</f>
+        <v>-4828.7360485895588</v>
       </c>
     </row>
-    <row r="57" spans="4:23" ht="13.8">
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="104">
-        <f t="shared" ref="I57:W57" si="57">SUMIF(I42:I56, "&lt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="104">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="104">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="104">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="104">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="104">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="O57" s="104">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="104">
-        <f t="shared" si="57"/>
+    <row r="57" spans="4:28" ht="13.8">
+      <c r="D57" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="19">
+        <f t="shared" si="46"/>
+        <v>0.01</v>
+      </c>
+      <c r="F57" s="19">
+        <f t="shared" si="47"/>
+        <v>1.2812109612781724</v>
+      </c>
+      <c r="G57" s="19">
+        <f t="shared" si="48"/>
+        <v>13.635710091914175</v>
+      </c>
+      <c r="H57" s="67">
+        <v>5.2085966177452718</v>
+      </c>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="57"/>
+      <c r="S57" s="75"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="87">
+        <f>$H57*X$40*100</f>
+        <v>5208.5966177452719</v>
+      </c>
+      <c r="Y57" s="57">
+        <f>$H$57*(Y$40-(Y$39-$X$39))*100</f>
+        <v>2604.298308872636</v>
+      </c>
+      <c r="Z57" s="57">
+        <f>$H$57*(Z$40-(Z$39-$X$39))*100</f>
+        <v>0</v>
+      </c>
+      <c r="AA57" s="57">
+        <f>$H$57*(AA$40-(AA$39-$X$39))*100</f>
+        <v>-2604.298308872636</v>
+      </c>
+      <c r="AB57" s="57">
+        <f>$H$57*(AB$40-(AB$39-$X$39))*100</f>
+        <v>-5208.5966177452719</v>
+      </c>
+    </row>
+    <row r="58" spans="4:28" ht="13.8">
+      <c r="D58" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="19">
+        <f t="shared" si="46"/>
+        <v>0.01</v>
+      </c>
+      <c r="F58" s="19">
+        <f t="shared" si="47"/>
+        <v>1.770633548486434</v>
+      </c>
+      <c r="G58" s="19">
+        <f t="shared" si="48"/>
+        <v>22.062578928717137</v>
+      </c>
+      <c r="H58" s="67">
+        <v>8.4275093275118511</v>
+      </c>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="57"/>
+      <c r="S58" s="75"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="20"/>
+      <c r="W58" s="20"/>
+      <c r="X58" s="20"/>
+      <c r="Y58" s="87">
+        <f>$H58*Y$40*100</f>
+        <v>8427.5093275118506</v>
+      </c>
+      <c r="Z58" s="57">
+        <f>$H$58*(Z$40-(Z$39-$Y$39))*100</f>
+        <v>4213.7546637559253</v>
+      </c>
+      <c r="AA58" s="57">
+        <f>$H$58*(AA$40-(AA$39-$Y$39))*100</f>
+        <v>0</v>
+      </c>
+      <c r="AB58" s="57">
+        <f>$H$58*(AB$40-(AB$39-$Y$39))*100</f>
+        <v>-4213.7546637559253</v>
+      </c>
+    </row>
+    <row r="59" spans="4:28" ht="13.8">
+      <c r="D59" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="19">
+        <f t="shared" si="46"/>
+        <v>0.01</v>
+      </c>
+      <c r="F59" s="19">
+        <f t="shared" si="47"/>
+        <v>2.4470155640082516</v>
+      </c>
+      <c r="G59" s="19">
+        <f t="shared" si="48"/>
+        <v>35.697252706664329</v>
+      </c>
+      <c r="H59" s="67">
+        <v>13.635710091914175</v>
+      </c>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="57"/>
+      <c r="S59" s="75"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="20"/>
+      <c r="W59" s="20"/>
+      <c r="X59" s="20"/>
+      <c r="Y59" s="20"/>
+      <c r="Z59" s="87">
+        <f>$H59*Z$40*100</f>
+        <v>13635.710091914174</v>
+      </c>
+      <c r="AA59" s="57">
+        <f>$H$59*(AA$40-(AA$39-$Z$39))*100</f>
+        <v>6817.855045957087</v>
+      </c>
+      <c r="AB59" s="57">
+        <f>$H$59*(AB$40-(AB$39-$Z$39))*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="4:28" ht="13.8">
+      <c r="D60" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="19">
+        <f t="shared" si="46"/>
+        <v>0.01</v>
+      </c>
+      <c r="F60" s="19">
+        <f t="shared" si="47"/>
+        <v>3.3817755094594033</v>
+      </c>
+      <c r="G60" s="19">
+        <f t="shared" si="48"/>
+        <v>57.758154879382886</v>
+      </c>
+      <c r="H60" s="67">
+        <v>22.062578928717137</v>
+      </c>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="57"/>
+      <c r="S60" s="75"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="20"/>
+      <c r="X60" s="20"/>
+      <c r="Y60" s="20"/>
+      <c r="Z60" s="20"/>
+      <c r="AA60" s="87">
+        <f>$H60*AA$40*100</f>
+        <v>22062.578928717136</v>
+      </c>
+      <c r="AB60" s="57">
+        <f>$H$60*(AB$40-(AB$39-$AA$39))*100</f>
+        <v>11031.289464358568</v>
+      </c>
+    </row>
+    <row r="61" spans="4:28" ht="13.8">
+      <c r="D61" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="19">
+        <f t="shared" si="46"/>
+        <v>0.01</v>
+      </c>
+      <c r="F61" s="19">
+        <f t="shared" si="47"/>
+        <v>4.6736137540728953</v>
+      </c>
+      <c r="G61" s="19">
+        <f t="shared" si="48"/>
+        <v>93.452694594841518</v>
+      </c>
+      <c r="H61" s="67">
+        <v>35.697252706664329</v>
+      </c>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="58"/>
+      <c r="S61" s="75"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="20"/>
+      <c r="Z61" s="20"/>
+      <c r="AA61" s="20"/>
+      <c r="AB61" s="87">
+        <f>$H61*AB$40*100</f>
+        <v>35697.252706664331</v>
+      </c>
+    </row>
+    <row r="62" spans="4:28" ht="13.8">
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="102">
+        <f>SUMIF(I42:I61, "&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="102">
+        <f t="shared" ref="J62:AB62" si="62">SUMIF(J42:J61, "&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="102">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="102">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="102">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="102">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="102">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="102">
+        <f t="shared" si="62"/>
         <v>-5</v>
       </c>
-      <c r="Q57" s="104">
-        <f t="shared" si="57"/>
+      <c r="Q62" s="102">
+        <f t="shared" si="62"/>
         <v>-15</v>
       </c>
-      <c r="R57" s="104">
-        <f t="shared" si="57"/>
+      <c r="R62" s="102">
+        <f t="shared" si="62"/>
         <v>-30</v>
       </c>
-      <c r="S57" s="104">
-        <f t="shared" si="57"/>
+      <c r="S62" s="102">
+        <f t="shared" si="62"/>
         <v>-225</v>
       </c>
-      <c r="T57" s="104">
-        <f t="shared" si="57"/>
+      <c r="T62" s="102">
+        <f t="shared" si="62"/>
         <v>-275</v>
       </c>
-      <c r="U57" s="104">
-        <f t="shared" si="57"/>
+      <c r="U62" s="102">
+        <f t="shared" si="62"/>
         <v>-559.85409794549651</v>
       </c>
-      <c r="V57" s="104">
-        <f t="shared" si="57"/>
-        <v>-1091.7325206825442</v>
-      </c>
-      <c r="W57" s="104">
-        <f t="shared" si="57"/>
-        <v>-1992.5090511255114</v>
+      <c r="V62" s="102">
+        <f t="shared" si="62"/>
+        <v>-559.85409794549651</v>
+      </c>
+      <c r="W62" s="102">
+        <f t="shared" si="62"/>
+        <v>-1224.7021263668062</v>
+      </c>
+      <c r="X62" s="102">
+        <f t="shared" si="62"/>
+        <v>-2504.3803342979818</v>
+      </c>
+      <c r="Y62" s="102">
+        <f t="shared" si="62"/>
+        <v>-4778.8537726761197</v>
+      </c>
+      <c r="Z62" s="102">
+        <f t="shared" si="62"/>
+        <v>-8662.9058939174465</v>
+      </c>
+      <c r="AA62" s="102">
+        <f t="shared" si="62"/>
+        <v>-15151.256324031407</v>
+      </c>
+      <c r="AB62" s="102">
+        <f t="shared" si="62"/>
+        <v>-25853.361417901291</v>
       </c>
     </row>
-    <row r="58" spans="4:23" ht="13.8">
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="62">
-        <f t="shared" ref="H58:W58" si="58">SUM(H42:H56)</f>
-        <v>7.7681042424826501</v>
-      </c>
-      <c r="I58" s="92">
-        <f t="shared" si="58"/>
+    <row r="63" spans="4:28" ht="13.8">
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="59">
+        <f>SUM(H42:H61)</f>
+        <v>92.799751915035415</v>
+      </c>
+      <c r="I63" s="101">
+        <f>SUM(I42:I61)</f>
         <v>30</v>
       </c>
-      <c r="J58" s="93">
-        <f t="shared" si="58"/>
+      <c r="J63" s="101">
+        <f t="shared" ref="J63:AB63" si="63">SUM(J42:J61)</f>
         <v>55</v>
       </c>
-      <c r="K58" s="93">
-        <f t="shared" si="58"/>
+      <c r="K63" s="101">
+        <f t="shared" si="63"/>
         <v>75</v>
       </c>
-      <c r="L58" s="93">
-        <f t="shared" si="58"/>
+      <c r="L63" s="101">
+        <f t="shared" si="63"/>
         <v>90</v>
       </c>
-      <c r="M58" s="93">
-        <f t="shared" si="58"/>
+      <c r="M63" s="101">
+        <f t="shared" si="63"/>
         <v>100</v>
       </c>
-      <c r="N58" s="93">
-        <f t="shared" si="58"/>
+      <c r="N63" s="101">
+        <f t="shared" si="63"/>
         <v>105</v>
       </c>
-      <c r="O58" s="93">
-        <f t="shared" si="58"/>
+      <c r="O63" s="101">
+        <f t="shared" si="63"/>
         <v>105</v>
       </c>
-      <c r="P58" s="93">
-        <f t="shared" si="58"/>
+      <c r="P63" s="101">
+        <f t="shared" si="63"/>
         <v>100</v>
       </c>
-      <c r="Q58" s="93">
-        <f t="shared" si="58"/>
+      <c r="Q63" s="101">
+        <f t="shared" si="63"/>
         <v>90</v>
       </c>
-      <c r="R58" s="97">
-        <f t="shared" si="58"/>
+      <c r="R63" s="101">
+        <f t="shared" si="63"/>
         <v>75</v>
       </c>
-      <c r="S58" s="91">
-        <f t="shared" si="58"/>
+      <c r="S63" s="101">
+        <f t="shared" si="63"/>
         <v>9.8540979454964486</v>
       </c>
-      <c r="T58" s="91">
-        <f t="shared" si="58"/>
+      <c r="T63" s="101">
+        <f t="shared" si="63"/>
         <v>104.99393047581327</v>
       </c>
-      <c r="U58" s="91">
-        <f t="shared" si="58"/>
+      <c r="U63" s="101">
+        <f t="shared" si="63"/>
         <v>54.976081564369338</v>
       </c>
-      <c r="V58" s="91">
-        <f t="shared" si="58"/>
-        <v>224.98779175578454</v>
-      </c>
-      <c r="W58" s="91">
-        <f t="shared" si="58"/>
-        <v>658.81919706173471</v>
+      <c r="V63" s="101">
+        <f t="shared" si="63"/>
+        <v>2044.5665424582953</v>
+      </c>
+      <c r="W63" s="101">
+        <f t="shared" si="63"/>
+        <v>2989.25046980653</v>
+      </c>
+      <c r="X63" s="101">
+        <f t="shared" si="63"/>
+        <v>4313.7949663104764</v>
+      </c>
+      <c r="Y63" s="101">
+        <f t="shared" si="63"/>
+        <v>6252.953863708367</v>
+      </c>
+      <c r="Z63" s="101">
+        <f t="shared" si="63"/>
+        <v>9186.5588617526519</v>
+      </c>
+      <c r="AA63" s="101">
+        <f t="shared" si="63"/>
+        <v>13729.177650642816</v>
+      </c>
+      <c r="AB63" s="101">
+        <f t="shared" si="63"/>
+        <v>20875.180753121607</v>
       </c>
     </row>
   </sheetData>
@@ -6357,101 +7068,201 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="19" priority="53">
+    <cfRule type="expression" dxfId="39" priority="73">
       <formula>$I$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="18" priority="54">
+    <cfRule type="expression" dxfId="38" priority="74">
       <formula>$J$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="17" priority="55">
+    <cfRule type="expression" dxfId="37" priority="75">
       <formula>$K$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="16" priority="56">
+    <cfRule type="expression" dxfId="36" priority="76">
       <formula>$L$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="15" priority="57">
+    <cfRule type="expression" dxfId="35" priority="77">
       <formula>$M$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="14" priority="58">
+    <cfRule type="expression" dxfId="34" priority="78">
       <formula>$N$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="13" priority="59">
+    <cfRule type="expression" dxfId="33" priority="79">
       <formula>$O$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="expression" dxfId="12" priority="60">
+    <cfRule type="expression" dxfId="32" priority="80">
       <formula>$P$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10">
-    <cfRule type="expression" dxfId="11" priority="61">
+    <cfRule type="expression" dxfId="31" priority="81">
       <formula>$Q$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="expression" dxfId="10" priority="62">
+    <cfRule type="expression" dxfId="30" priority="82">
       <formula>$R$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10">
-    <cfRule type="expression" dxfId="9" priority="63">
+    <cfRule type="expression" dxfId="29" priority="83">
       <formula>$S$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10">
-    <cfRule type="expression" dxfId="8" priority="64">
+    <cfRule type="expression" dxfId="28" priority="84">
       <formula>$T$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="expression" dxfId="7" priority="65">
+    <cfRule type="expression" dxfId="27" priority="85">
       <formula>$U$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10">
-    <cfRule type="expression" dxfId="6" priority="66">
+    <cfRule type="expression" dxfId="26" priority="86">
       <formula>$V$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
-    <cfRule type="expression" dxfId="5" priority="67">
+    <cfRule type="expression" dxfId="25" priority="87">
       <formula>$W$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X10">
-    <cfRule type="expression" dxfId="4" priority="68">
+    <cfRule type="expression" dxfId="24" priority="88">
       <formula>$X$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>$Y$10=$D$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z10">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>$Z$10=$D$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA10">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>$AA$10=$D$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB10">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>$AB$10=$D$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
+    <cfRule type="expression" dxfId="19" priority="5">
+      <formula>$I$10=$D$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
+    <cfRule type="expression" dxfId="18" priority="6">
+      <formula>$J$10=$D$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41">
+    <cfRule type="expression" dxfId="17" priority="7">
+      <formula>$K$10=$D$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L41">
+    <cfRule type="expression" dxfId="16" priority="8">
+      <formula>$L$10=$D$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M41">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>$M$10=$D$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N41">
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>$N$10=$D$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O41">
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>$O$10=$D$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P41">
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$P$10=$D$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q41">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>$Q$10=$D$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R41">
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>$R$10=$D$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S41">
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>$S$10=$D$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T41">
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>$T$10=$D$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U41">
+    <cfRule type="expression" dxfId="7" priority="17">
+      <formula>$U$10=$D$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V41">
+    <cfRule type="expression" dxfId="6" priority="18">
+      <formula>$V$10=$D$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W41">
+    <cfRule type="expression" dxfId="5" priority="19">
+      <formula>$W$10=$D$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X41">
+    <cfRule type="expression" dxfId="4" priority="20">
+      <formula>$X$10=$D$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y41">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$Y$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z10">
+  <conditionalFormatting sqref="Z41">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$Z$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA10">
+  <conditionalFormatting sqref="AA41">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$AA$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB10">
+  <conditionalFormatting sqref="AB41">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$AB$10=$D$10</formula>
     </cfRule>
@@ -6473,34 +7284,34 @@
   <sheetData>
     <row r="3" spans="2:47">
       <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
         <v>58</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
+      <c r="O3" t="s">
         <v>64</v>
       </c>
-      <c r="M3" t="s">
+      <c r="X3" t="s">
         <v>60</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Y3" t="s">
         <v>65</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AI3" t="s">
         <v>61</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AJ3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT3" t="s">
         <v>66</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>67</v>
       </c>
       <c r="AU3">
         <v>107.7</v>
@@ -6508,31 +7319,31 @@
     </row>
     <row r="56" spans="2:38">
       <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" t="s">
         <v>68</v>
       </c>
-      <c r="D56" t="s">
+      <c r="M56" t="s">
         <v>69</v>
       </c>
-      <c r="M56" t="s">
+      <c r="O56" t="s">
         <v>70</v>
       </c>
-      <c r="O56" t="s">
+      <c r="X56" t="s">
         <v>71</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Z56" t="s">
         <v>72</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AI56" t="s">
         <v>73</v>
       </c>
-      <c r="AI56" t="s">
-        <v>74</v>
-      </c>
       <c r="AJ56" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL56" t="s">
         <v>68</v>
-      </c>
-      <c r="AL56" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6546,7 +7357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K169:L169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="E172" sqref="E172"/>
     </sheetView>
   </sheetViews>

--- a/bsc_scan_binance/src/main/resources/MQL5/XXX.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>THÔNG TIN ĐẦU VÀO</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>L20</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -720,7 +723,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1197,19 +1200,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1220,7 +1210,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1260,9 +1250,6 @@
     <xf numFmtId="3" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1345,9 +1332,6 @@
     <xf numFmtId="3" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1405,33 +1389,21 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="11" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="18" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="18" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="11" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="18" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="11" fillId="18" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1462,12 +1434,18 @@
     <xf numFmtId="4" fontId="13" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="29" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="30" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="15" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1486,13 +1464,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="30" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="15" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1825,7 +1800,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1869,7 +1844,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,7 +1888,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1957,7 +1932,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +1976,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2045,7 +2020,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2064,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2108,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2177,7 +2152,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,7 +2196,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2265,7 +2240,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2309,7 +2284,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2328,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2372,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2441,7 +2416,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2854,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC58" sqref="AC58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -2865,104 +2840,106 @@
     <col min="3" max="4" width="14.6640625" style="11" customWidth="1"/>
     <col min="5" max="6" width="9.109375" style="5"/>
     <col min="7" max="7" width="19" style="5" customWidth="1"/>
-    <col min="8" max="24" width="10.5546875" style="5" customWidth="1"/>
-    <col min="25" max="25" width="10.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="5"/>
+    <col min="8" max="17" width="10.5546875" style="5" customWidth="1"/>
+    <col min="18" max="20" width="8.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="8.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="9.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
     </row>
     <row r="2" spans="1:28" ht="25.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="90">
-        <v>3</v>
-      </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="100" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="84">
+        <v>1</v>
+      </c>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100" t="s">
+      <c r="K2" s="96"/>
+      <c r="L2" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100" t="s">
+      <c r="M2" s="96"/>
+      <c r="N2" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
     </row>
     <row r="3" spans="1:28" ht="16.8">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="46">
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="45">
         <f>D2</f>
-        <v>3</v>
-      </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="97">
+        <v>1</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="93">
         <f>SUM('Bảng Input L30'!B13:B37)</f>
-        <v>5.1928112714018964</v>
-      </c>
-      <c r="K3" s="97"/>
-      <c r="L3" s="98">
+        <v>440.96149164770793</v>
+      </c>
+      <c r="K3" s="93"/>
+      <c r="L3" s="94">
         <f>J3*91</f>
-        <v>472.54582569757258</v>
-      </c>
-      <c r="M3" s="98"/>
-      <c r="N3" s="99">
-        <f ca="1">L3+'Bảng Input L30'!C35</f>
-        <v>62630.484540361416</v>
-      </c>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
+        <v>40127.49573994142</v>
+      </c>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95">
+        <f>L3+'Bảng Input L30'!C35</f>
+        <v>75561.273381341744</v>
+      </c>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
     </row>
     <row r="4" spans="1:28" ht="18.600000000000001">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="46">
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="45">
         <f>D3</f>
-        <v>3</v>
-      </c>
-      <c r="G4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="88">
+      <c r="H4" s="82">
         <f>D9</f>
         <v>1.6180000000000001</v>
       </c>
@@ -2986,19 +2963,19 @@
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="1:28" ht="18.600000000000001">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="46">
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="45">
         <f>D4</f>
-        <v>3</v>
-      </c>
-      <c r="G5" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="89">
+      <c r="H5" s="83">
         <v>3</v>
       </c>
       <c r="I5" s="2">
@@ -3021,355 +2998,355 @@
       <c r="X5" s="2"/>
     </row>
     <row r="6" spans="1:28" ht="20.399999999999999">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="46">
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="45">
         <f>D5</f>
-        <v>3</v>
-      </c>
-      <c r="G6" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="89">
+      <c r="H6" s="83">
         <v>6</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="43" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="16.8">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="46">
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="45">
         <f>D6</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="41">
+      <c r="I7" s="40">
         <v>2200</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="40">
         <f>I7-H$5</f>
         <v>2197</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="40">
         <f t="shared" ref="K7:X7" si="0">J7-$H$5</f>
         <v>2194</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="40">
         <f t="shared" si="0"/>
         <v>2191</v>
       </c>
-      <c r="M7" s="41">
+      <c r="M7" s="40">
         <f t="shared" si="0"/>
         <v>2188</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N7" s="40">
         <f t="shared" si="0"/>
         <v>2185</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="40">
         <f t="shared" si="0"/>
         <v>2182</v>
       </c>
-      <c r="P7" s="41">
+      <c r="P7" s="40">
         <f t="shared" si="0"/>
         <v>2179</v>
       </c>
-      <c r="Q7" s="41">
+      <c r="Q7" s="40">
         <f t="shared" si="0"/>
         <v>2176</v>
       </c>
-      <c r="R7" s="41">
+      <c r="R7" s="40">
         <f t="shared" si="0"/>
         <v>2173</v>
       </c>
-      <c r="S7" s="41">
+      <c r="S7" s="40">
         <f t="shared" si="0"/>
         <v>2170</v>
       </c>
-      <c r="T7" s="41">
+      <c r="T7" s="40">
         <f t="shared" si="0"/>
         <v>2167</v>
       </c>
-      <c r="U7" s="41">
+      <c r="U7" s="40">
         <f t="shared" si="0"/>
         <v>2164</v>
       </c>
-      <c r="V7" s="41">
+      <c r="V7" s="40">
         <f t="shared" si="0"/>
         <v>2161</v>
       </c>
-      <c r="W7" s="41">
+      <c r="W7" s="40">
         <f t="shared" si="0"/>
         <v>2158</v>
       </c>
-      <c r="X7" s="41">
+      <c r="X7" s="40">
         <f t="shared" si="0"/>
         <v>2155</v>
       </c>
-      <c r="Y7" s="41">
+      <c r="Y7" s="40">
         <f t="shared" ref="Y7" si="1">X7-$H$5</f>
         <v>2152</v>
       </c>
-      <c r="Z7" s="41">
+      <c r="Z7" s="40">
         <f t="shared" ref="Z7" si="2">Y7-$H$5</f>
         <v>2149</v>
       </c>
-      <c r="AA7" s="41">
+      <c r="AA7" s="40">
         <f t="shared" ref="AA7" si="3">Z7-$H$5</f>
         <v>2146</v>
       </c>
-      <c r="AB7" s="41">
+      <c r="AB7" s="40">
         <f t="shared" ref="AB7" si="4">AA7-$H$5</f>
         <v>2143</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="47">
-        <v>0.01</v>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="46">
+        <v>0.1</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="41">
+      <c r="I8" s="40">
         <v>0</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="40">
         <f t="shared" ref="J8:X8" si="5">$I$7-J7</f>
         <v>3</v>
       </c>
-      <c r="K8" s="41">
+      <c r="K8" s="40">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="40">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="M8" s="41">
+      <c r="M8" s="40">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N8" s="40">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="40">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="P8" s="41">
+      <c r="P8" s="40">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="Q8" s="41">
+      <c r="Q8" s="40">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="R8" s="41">
+      <c r="R8" s="40">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="S8" s="41">
+      <c r="S8" s="40">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="T8" s="41">
+      <c r="T8" s="40">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="U8" s="41">
+      <c r="U8" s="40">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="V8" s="41">
+      <c r="V8" s="40">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="W8" s="41">
+      <c r="W8" s="40">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="X8" s="41">
+      <c r="X8" s="40">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="Y8" s="41">
+      <c r="Y8" s="40">
         <f t="shared" ref="Y8:AB8" si="6">$I$7-Y7</f>
         <v>48</v>
       </c>
-      <c r="Z8" s="41">
+      <c r="Z8" s="40">
         <f t="shared" si="6"/>
         <v>51</v>
       </c>
-      <c r="AA8" s="41">
+      <c r="AA8" s="40">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="AB8" s="41">
+      <c r="AB8" s="40">
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="16.8">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="48">
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="47">
         <v>1.6180000000000001</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="32" t="s">
+      <c r="N9" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="32" t="s">
+      <c r="O9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="32" t="s">
+      <c r="P9" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="32" t="s">
+      <c r="Q9" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="32" t="s">
+      <c r="R9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="32" t="s">
+      <c r="S9" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="32" t="s">
+      <c r="T9" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="U9" s="32" t="s">
+      <c r="U9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="V9" s="32" t="s">
+      <c r="V9" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="32" t="s">
+      <c r="W9" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="X9" s="32" t="s">
+      <c r="X9" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="Y9" s="32" t="s">
+      <c r="Y9" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="Z9" s="32" t="s">
+      <c r="Z9" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="AA9" s="32" t="s">
+      <c r="AA9" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="AB9" s="32" t="s">
+      <c r="AB9" s="31" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="18.600000000000001">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="91">
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="85">
+        <v>15</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="83"/>
+      <c r="I10" s="31">
+        <v>1</v>
+      </c>
+      <c r="J10" s="31">
+        <v>2</v>
+      </c>
+      <c r="K10" s="31">
+        <v>3</v>
+      </c>
+      <c r="L10" s="31">
+        <v>4</v>
+      </c>
+      <c r="M10" s="31">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31">
+        <v>6</v>
+      </c>
+      <c r="O10" s="31">
+        <v>7</v>
+      </c>
+      <c r="P10" s="31">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="31">
+        <v>9</v>
+      </c>
+      <c r="R10" s="31">
+        <v>10</v>
+      </c>
+      <c r="S10" s="31">
+        <v>11</v>
+      </c>
+      <c r="T10" s="31">
         <v>12</v>
       </c>
-      <c r="G10" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="89"/>
-      <c r="I10" s="32">
-        <v>1</v>
-      </c>
-      <c r="J10" s="32">
-        <v>2</v>
-      </c>
-      <c r="K10" s="32">
-        <v>3</v>
-      </c>
-      <c r="L10" s="32">
-        <v>4</v>
-      </c>
-      <c r="M10" s="32">
-        <v>5</v>
-      </c>
-      <c r="N10" s="32">
-        <v>6</v>
-      </c>
-      <c r="O10" s="32">
-        <v>7</v>
-      </c>
-      <c r="P10" s="32">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="32">
-        <v>9</v>
-      </c>
-      <c r="R10" s="32">
-        <v>10</v>
-      </c>
-      <c r="S10" s="32">
-        <v>11</v>
-      </c>
-      <c r="T10" s="32">
-        <v>12</v>
-      </c>
-      <c r="U10" s="32">
+      <c r="U10" s="31">
         <v>13</v>
       </c>
-      <c r="V10" s="32">
+      <c r="V10" s="31">
         <v>14</v>
       </c>
-      <c r="W10" s="32">
+      <c r="W10" s="31">
         <v>15</v>
       </c>
-      <c r="X10" s="32">
+      <c r="X10" s="31">
         <v>16</v>
       </c>
-      <c r="Y10" s="32">
+      <c r="Y10" s="31">
         <v>17</v>
       </c>
-      <c r="Z10" s="32">
+      <c r="Z10" s="31">
         <v>18</v>
       </c>
-      <c r="AA10" s="32">
+      <c r="AA10" s="31">
         <v>19</v>
       </c>
-      <c r="AB10" s="32">
+      <c r="AB10" s="31">
         <v>20</v>
       </c>
     </row>
@@ -3378,593 +3355,593 @@
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="G11" s="37">
+      <c r="G11" s="36">
         <v>1</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="37">
         <f>'Bảng Input L30'!B13</f>
-        <v>0.01</v>
-      </c>
-      <c r="I11" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="33">
         <f>H11*H6*100</f>
-        <v>6</v>
-      </c>
-      <c r="J11" s="34">
+        <v>60.000000000000007</v>
+      </c>
+      <c r="J11" s="33">
         <f>H11*100*(H6-H5)</f>
-        <v>3</v>
-      </c>
-      <c r="K11" s="34">
+        <v>30</v>
+      </c>
+      <c r="K11" s="33">
         <f t="shared" ref="K11:AB11" si="7">$H$11*100*($H$6-$H$5*J10)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="34">
-        <f t="shared" si="7"/>
-        <v>-3</v>
-      </c>
-      <c r="M11" s="34">
-        <f>$H$11*100*($H$6-$H$5*L10)</f>
-        <v>-6</v>
-      </c>
-      <c r="N11" s="34">
-        <f t="shared" si="7"/>
-        <v>-9</v>
-      </c>
-      <c r="O11" s="34">
-        <f t="shared" si="7"/>
-        <v>-12</v>
-      </c>
-      <c r="P11" s="34">
-        <f t="shared" si="7"/>
-        <v>-15</v>
-      </c>
-      <c r="Q11" s="34">
-        <f t="shared" si="7"/>
-        <v>-18</v>
-      </c>
-      <c r="R11" s="34">
-        <f t="shared" si="7"/>
-        <v>-21</v>
-      </c>
-      <c r="S11" s="34">
-        <f t="shared" si="7"/>
-        <v>-24</v>
-      </c>
-      <c r="T11" s="34">
-        <f t="shared" si="7"/>
-        <v>-27</v>
-      </c>
-      <c r="U11" s="34">
+      <c r="L11" s="33">
         <f t="shared" si="7"/>
         <v>-30</v>
       </c>
-      <c r="V11" s="34">
+      <c r="M11" s="33">
+        <f>$H$11*100*($H$6-$H$5*L10)</f>
+        <v>-60</v>
+      </c>
+      <c r="N11" s="33">
         <f t="shared" si="7"/>
-        <v>-33</v>
-      </c>
-      <c r="W11" s="34">
+        <v>-90</v>
+      </c>
+      <c r="O11" s="33">
         <f t="shared" si="7"/>
-        <v>-36</v>
-      </c>
-      <c r="X11" s="34">
+        <v>-120</v>
+      </c>
+      <c r="P11" s="33">
         <f t="shared" si="7"/>
-        <v>-39</v>
-      </c>
-      <c r="Y11" s="34">
+        <v>-150</v>
+      </c>
+      <c r="Q11" s="33">
         <f t="shared" si="7"/>
-        <v>-42</v>
-      </c>
-      <c r="Z11" s="34">
+        <v>-180</v>
+      </c>
+      <c r="R11" s="33">
         <f t="shared" si="7"/>
-        <v>-45</v>
-      </c>
-      <c r="AA11" s="34">
+        <v>-210</v>
+      </c>
+      <c r="S11" s="33">
         <f t="shared" si="7"/>
-        <v>-48</v>
-      </c>
-      <c r="AB11" s="34">
+        <v>-240</v>
+      </c>
+      <c r="T11" s="33">
         <f t="shared" si="7"/>
-        <v>-51</v>
+        <v>-270</v>
+      </c>
+      <c r="U11" s="33">
+        <f t="shared" si="7"/>
+        <v>-300</v>
+      </c>
+      <c r="V11" s="33">
+        <f t="shared" si="7"/>
+        <v>-330</v>
+      </c>
+      <c r="W11" s="33">
+        <f t="shared" si="7"/>
+        <v>-360</v>
+      </c>
+      <c r="X11" s="33">
+        <f t="shared" si="7"/>
+        <v>-390</v>
+      </c>
+      <c r="Y11" s="33">
+        <f t="shared" si="7"/>
+        <v>-420</v>
+      </c>
+      <c r="Z11" s="33">
+        <f t="shared" si="7"/>
+        <v>-450</v>
+      </c>
+      <c r="AA11" s="33">
+        <f t="shared" si="7"/>
+        <v>-480</v>
+      </c>
+      <c r="AB11" s="33">
+        <f t="shared" si="7"/>
+        <v>-510</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="18" thickTop="1" thickBot="1">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="36">
         <v>2</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="32">
         <f t="shared" ref="H12:H30" si="8">H11*$H$4</f>
-        <v>1.618E-2</v>
+        <v>0.16180000000000003</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="34">
+      <c r="J12" s="33">
         <f>H12*100*H6</f>
-        <v>9.7079999999999984</v>
-      </c>
-      <c r="K12" s="34">
+        <v>97.080000000000013</v>
+      </c>
+      <c r="K12" s="33">
         <f>H12*100*(H6-H5)</f>
-        <v>4.8539999999999992</v>
-      </c>
-      <c r="L12" s="34">
+        <v>48.540000000000006</v>
+      </c>
+      <c r="L12" s="33">
         <f t="shared" ref="L12:AB12" si="9">$H$12*100*($H$6-$H$5*J10)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12" s="33">
         <f t="shared" si="9"/>
-        <v>-4.8539999999999992</v>
-      </c>
-      <c r="N12" s="34">
+        <v>-48.540000000000006</v>
+      </c>
+      <c r="N12" s="33">
         <f t="shared" si="9"/>
-        <v>-9.7079999999999984</v>
-      </c>
-      <c r="O12" s="34">
+        <v>-97.080000000000013</v>
+      </c>
+      <c r="O12" s="33">
         <f t="shared" si="9"/>
-        <v>-14.561999999999999</v>
-      </c>
-      <c r="P12" s="34">
+        <v>-145.62000000000003</v>
+      </c>
+      <c r="P12" s="33">
         <f t="shared" si="9"/>
-        <v>-19.415999999999997</v>
-      </c>
-      <c r="Q12" s="34">
+        <v>-194.16000000000003</v>
+      </c>
+      <c r="Q12" s="33">
         <f t="shared" si="9"/>
-        <v>-24.27</v>
-      </c>
-      <c r="R12" s="34">
+        <v>-242.70000000000005</v>
+      </c>
+      <c r="R12" s="33">
         <f t="shared" si="9"/>
-        <v>-29.123999999999999</v>
-      </c>
-      <c r="S12" s="34">
+        <v>-291.24000000000007</v>
+      </c>
+      <c r="S12" s="33">
         <f t="shared" si="9"/>
-        <v>-33.977999999999994</v>
-      </c>
-      <c r="T12" s="34">
+        <v>-339.78000000000009</v>
+      </c>
+      <c r="T12" s="33">
         <f t="shared" si="9"/>
-        <v>-38.831999999999994</v>
-      </c>
-      <c r="U12" s="34">
+        <v>-388.32000000000005</v>
+      </c>
+      <c r="U12" s="33">
         <f t="shared" si="9"/>
-        <v>-43.686</v>
-      </c>
-      <c r="V12" s="34">
+        <v>-436.86000000000007</v>
+      </c>
+      <c r="V12" s="33">
         <f t="shared" si="9"/>
-        <v>-48.54</v>
-      </c>
-      <c r="W12" s="34">
+        <v>-485.40000000000009</v>
+      </c>
+      <c r="W12" s="33">
         <f t="shared" si="9"/>
-        <v>-53.393999999999998</v>
-      </c>
-      <c r="X12" s="34">
+        <v>-533.94000000000005</v>
+      </c>
+      <c r="X12" s="33">
         <f t="shared" si="9"/>
-        <v>-58.247999999999998</v>
-      </c>
-      <c r="Y12" s="34">
+        <v>-582.48000000000013</v>
+      </c>
+      <c r="Y12" s="33">
         <f t="shared" si="9"/>
-        <v>-63.101999999999997</v>
-      </c>
-      <c r="Z12" s="34">
+        <v>-631.0200000000001</v>
+      </c>
+      <c r="Z12" s="33">
         <f t="shared" si="9"/>
-        <v>-67.955999999999989</v>
-      </c>
-      <c r="AA12" s="34">
+        <v>-679.56000000000017</v>
+      </c>
+      <c r="AA12" s="33">
         <f t="shared" si="9"/>
-        <v>-72.809999999999988</v>
-      </c>
-      <c r="AB12" s="34">
+        <v>-728.10000000000014</v>
+      </c>
+      <c r="AB12" s="33">
         <f t="shared" si="9"/>
-        <v>-77.663999999999987</v>
+        <v>-776.6400000000001</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="17.399999999999999" thickTop="1">
-      <c r="A13" s="27" t="str">
+      <c r="A13" s="26" t="str">
         <f>IF($D$10&gt;0,"L1",0)</f>
         <v>L1</v>
       </c>
       <c r="B13" s="8">
         <f>+D8</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="C13" s="9">
         <f>+B13*D13*100</f>
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="D13" s="9">
         <f>IF(A13=0,0,$D$2+$D$3+$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>33</v>
-      </c>
-      <c r="G13" s="37">
+        <v>14</v>
+      </c>
+      <c r="G13" s="36">
         <v>3</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="32">
         <f t="shared" si="8"/>
-        <v>2.6179240000000003E-2</v>
+        <v>0.26179240000000004</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="34">
+      <c r="K13" s="33">
         <f>H13*100*H6</f>
-        <v>15.707544000000002</v>
-      </c>
-      <c r="L13" s="34">
+        <v>157.07544000000001</v>
+      </c>
+      <c r="L13" s="33">
         <f>H13*100*(H6-H5)</f>
-        <v>7.8537720000000011</v>
-      </c>
-      <c r="M13" s="34">
+        <v>78.537720000000007</v>
+      </c>
+      <c r="M13" s="33">
         <f t="shared" ref="M13:AB13" si="10">$H$13*100*($H$6-$H$5*J10)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="34">
-        <f t="shared" si="10"/>
-        <v>-7.8537720000000011</v>
-      </c>
-      <c r="O13" s="34">
-        <f t="shared" si="10"/>
-        <v>-15.707544000000002</v>
-      </c>
-      <c r="P13" s="34">
-        <f t="shared" si="10"/>
-        <v>-23.561316000000005</v>
-      </c>
-      <c r="Q13" s="34">
-        <f t="shared" si="10"/>
-        <v>-31.415088000000004</v>
-      </c>
-      <c r="R13" s="34">
-        <f t="shared" si="10"/>
-        <v>-39.268860000000004</v>
-      </c>
-      <c r="S13" s="34">
-        <f t="shared" si="10"/>
-        <v>-47.12263200000001</v>
-      </c>
-      <c r="T13" s="34">
-        <f t="shared" si="10"/>
-        <v>-54.976404000000009</v>
-      </c>
-      <c r="U13" s="34">
-        <f t="shared" si="10"/>
-        <v>-62.830176000000009</v>
-      </c>
-      <c r="V13" s="34">
-        <f t="shared" si="10"/>
-        <v>-70.683948000000015</v>
-      </c>
-      <c r="W13" s="34">
+      <c r="N13" s="33">
         <f t="shared" si="10"/>
         <v>-78.537720000000007</v>
       </c>
-      <c r="X13" s="34">
+      <c r="O13" s="33">
         <f t="shared" si="10"/>
-        <v>-86.391492000000014</v>
-      </c>
-      <c r="Y13" s="34">
+        <v>-157.07544000000001</v>
+      </c>
+      <c r="P13" s="33">
         <f t="shared" si="10"/>
-        <v>-94.24526400000002</v>
-      </c>
-      <c r="Z13" s="34">
+        <v>-235.61316000000002</v>
+      </c>
+      <c r="Q13" s="33">
         <f t="shared" si="10"/>
-        <v>-102.09903600000001</v>
-      </c>
-      <c r="AA13" s="34">
+        <v>-314.15088000000003</v>
+      </c>
+      <c r="R13" s="33">
         <f t="shared" si="10"/>
-        <v>-109.95280800000002</v>
-      </c>
-      <c r="AB13" s="34">
+        <v>-392.68860000000006</v>
+      </c>
+      <c r="S13" s="33">
         <f t="shared" si="10"/>
-        <v>-117.80658000000001</v>
+        <v>-471.22632000000004</v>
+      </c>
+      <c r="T13" s="33">
+        <f t="shared" si="10"/>
+        <v>-549.76404000000002</v>
+      </c>
+      <c r="U13" s="33">
+        <f t="shared" si="10"/>
+        <v>-628.30176000000006</v>
+      </c>
+      <c r="V13" s="33">
+        <f t="shared" si="10"/>
+        <v>-706.83948000000009</v>
+      </c>
+      <c r="W13" s="33">
+        <f t="shared" si="10"/>
+        <v>-785.37720000000013</v>
+      </c>
+      <c r="X13" s="33">
+        <f t="shared" si="10"/>
+        <v>-863.91492000000017</v>
+      </c>
+      <c r="Y13" s="33">
+        <f t="shared" si="10"/>
+        <v>-942.45264000000009</v>
+      </c>
+      <c r="Z13" s="33">
+        <f t="shared" si="10"/>
+        <v>-1020.9903600000001</v>
+      </c>
+      <c r="AA13" s="33">
+        <f t="shared" si="10"/>
+        <v>-1099.52808</v>
+      </c>
+      <c r="AB13" s="33">
+        <f t="shared" si="10"/>
+        <v>-1178.0658000000001</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="16.8">
-      <c r="A14" s="27" t="str">
+      <c r="A14" s="26" t="str">
         <f t="shared" ref="A14:A34" si="11">IF(A13=0,0,IF(VALUE(MID(A13,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A13,2,2))+1))</f>
         <v>L2</v>
       </c>
       <c r="B14" s="10">
         <f t="shared" ref="B14:B34" si="12">IF(A14&lt;&gt;0,B13*$D$9,0)</f>
-        <v>1.618E-2</v>
+        <v>0.16180000000000003</v>
       </c>
       <c r="C14" s="9">
         <f t="shared" ref="C14:C34" si="13">+B14*D14*100</f>
-        <v>48.54</v>
+        <v>210.34</v>
       </c>
       <c r="D14" s="9">
         <f>IF(A14=0,0,$D$3+$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>30</v>
-      </c>
-      <c r="G14" s="37">
+        <v>13</v>
+      </c>
+      <c r="G14" s="36">
         <v>4</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="32">
         <f t="shared" si="8"/>
-        <v>4.2358010320000007E-2</v>
+        <v>0.42358010320000011</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="34">
+      <c r="L14" s="33">
         <f>H14*100*H6</f>
-        <v>25.414806192</v>
-      </c>
-      <c r="M14" s="34">
+        <v>254.14806192000009</v>
+      </c>
+      <c r="M14" s="33">
         <f>H14*100*(H6-H5)</f>
-        <v>12.707403096</v>
-      </c>
-      <c r="N14" s="34">
+        <v>127.07403096000004</v>
+      </c>
+      <c r="N14" s="33">
         <f t="shared" ref="N14:AB14" si="14">$H$14*100*($H$6-$H$5*J10)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="34">
+      <c r="O14" s="33">
         <f t="shared" si="14"/>
-        <v>-12.707403096</v>
-      </c>
-      <c r="P14" s="34">
+        <v>-127.07403096000004</v>
+      </c>
+      <c r="P14" s="33">
         <f t="shared" si="14"/>
-        <v>-25.414806192</v>
-      </c>
-      <c r="Q14" s="34">
+        <v>-254.14806192000009</v>
+      </c>
+      <c r="Q14" s="33">
         <f t="shared" si="14"/>
-        <v>-38.122209288000001</v>
-      </c>
-      <c r="R14" s="34">
+        <v>-381.2220928800001</v>
+      </c>
+      <c r="R14" s="33">
         <f t="shared" si="14"/>
-        <v>-50.829612384000001</v>
-      </c>
-      <c r="S14" s="34">
+        <v>-508.29612384000018</v>
+      </c>
+      <c r="S14" s="33">
         <f t="shared" si="14"/>
-        <v>-63.537015480000008</v>
-      </c>
-      <c r="T14" s="34">
+        <v>-635.37015480000014</v>
+      </c>
+      <c r="T14" s="33">
         <f t="shared" si="14"/>
-        <v>-76.244418576000001</v>
-      </c>
-      <c r="U14" s="34">
+        <v>-762.44418576000021</v>
+      </c>
+      <c r="U14" s="33">
         <f t="shared" si="14"/>
-        <v>-88.951821672000008</v>
-      </c>
-      <c r="V14" s="34">
+        <v>-889.51821672000028</v>
+      </c>
+      <c r="V14" s="33">
         <f t="shared" si="14"/>
-        <v>-101.659224768</v>
-      </c>
-      <c r="W14" s="34">
+        <v>-1016.5922476800004</v>
+      </c>
+      <c r="W14" s="33">
         <f t="shared" si="14"/>
-        <v>-114.36662786400001</v>
-      </c>
-      <c r="X14" s="34">
+        <v>-1143.6662786400004</v>
+      </c>
+      <c r="X14" s="33">
         <f t="shared" si="14"/>
-        <v>-127.07403096000002</v>
-      </c>
-      <c r="Y14" s="34">
+        <v>-1270.7403096000003</v>
+      </c>
+      <c r="Y14" s="33">
         <f t="shared" si="14"/>
-        <v>-139.78143405600002</v>
-      </c>
-      <c r="Z14" s="34">
+        <v>-1397.8143405600003</v>
+      </c>
+      <c r="Z14" s="33">
         <f t="shared" si="14"/>
-        <v>-152.488837152</v>
-      </c>
-      <c r="AA14" s="34">
+        <v>-1524.8883715200004</v>
+      </c>
+      <c r="AA14" s="33">
         <f t="shared" si="14"/>
-        <v>-165.19624024800001</v>
-      </c>
-      <c r="AB14" s="34">
+        <v>-1651.9624024800005</v>
+      </c>
+      <c r="AB14" s="33">
         <f t="shared" si="14"/>
-        <v>-177.90364334400002</v>
+        <v>-1779.0364334400006</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="16.8">
-      <c r="A15" s="27" t="str">
+      <c r="A15" s="26" t="str">
         <f t="shared" si="11"/>
         <v>L3</v>
       </c>
       <c r="B15" s="10">
         <f t="shared" si="12"/>
-        <v>2.6179240000000003E-2</v>
+        <v>0.26179240000000004</v>
       </c>
       <c r="C15" s="9">
         <f t="shared" si="13"/>
-        <v>70.683948000000001</v>
+        <v>314.15088000000003</v>
       </c>
       <c r="D15" s="9">
         <f>IF(A15=0,0,$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>27</v>
-      </c>
-      <c r="G15" s="37">
+        <v>12</v>
+      </c>
+      <c r="G15" s="36">
         <v>5</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="32">
         <f t="shared" si="8"/>
-        <v>6.8535260697760017E-2</v>
+        <v>0.68535260697760025</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="34">
+      <c r="M15" s="33">
         <f>H15*H6*100</f>
-        <v>41.121156418656014</v>
-      </c>
-      <c r="N15" s="34">
+        <v>411.21156418656017</v>
+      </c>
+      <c r="N15" s="33">
         <f>H15*100*(H6-H5)</f>
-        <v>20.560578209328003</v>
-      </c>
-      <c r="O15" s="34">
+        <v>205.60578209328008</v>
+      </c>
+      <c r="O15" s="33">
         <f t="shared" ref="O15:AB15" si="15">$H$15*100*($H$6-$H$5*J10)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="33">
         <f t="shared" si="15"/>
-        <v>-20.560578209328003</v>
-      </c>
-      <c r="Q15" s="34">
+        <v>-205.60578209328008</v>
+      </c>
+      <c r="Q15" s="33">
         <f t="shared" si="15"/>
-        <v>-41.121156418656007</v>
-      </c>
-      <c r="R15" s="34">
+        <v>-411.21156418656017</v>
+      </c>
+      <c r="R15" s="33">
         <f t="shared" si="15"/>
-        <v>-61.681734627984014</v>
-      </c>
-      <c r="S15" s="34">
+        <v>-616.81734627984019</v>
+      </c>
+      <c r="S15" s="33">
         <f t="shared" si="15"/>
-        <v>-82.242312837312014</v>
-      </c>
-      <c r="T15" s="34">
+        <v>-822.42312837312033</v>
+      </c>
+      <c r="T15" s="33">
         <f t="shared" si="15"/>
-        <v>-102.80289104664003</v>
-      </c>
-      <c r="U15" s="34">
+        <v>-1028.0289104664002</v>
+      </c>
+      <c r="U15" s="33">
         <f t="shared" si="15"/>
-        <v>-123.36346925596803</v>
-      </c>
-      <c r="V15" s="34">
+        <v>-1233.6346925596804</v>
+      </c>
+      <c r="V15" s="33">
         <f t="shared" si="15"/>
-        <v>-143.92404746529604</v>
-      </c>
-      <c r="W15" s="34">
+        <v>-1439.2404746529605</v>
+      </c>
+      <c r="W15" s="33">
         <f t="shared" si="15"/>
-        <v>-164.48462567462403</v>
-      </c>
-      <c r="X15" s="34">
+        <v>-1644.8462567462407</v>
+      </c>
+      <c r="X15" s="33">
         <f t="shared" si="15"/>
-        <v>-185.04520388395204</v>
-      </c>
-      <c r="Y15" s="34">
+        <v>-1850.4520388395206</v>
+      </c>
+      <c r="Y15" s="33">
         <f t="shared" si="15"/>
-        <v>-205.60578209328006</v>
-      </c>
-      <c r="Z15" s="34">
+        <v>-2056.0578209328005</v>
+      </c>
+      <c r="Z15" s="33">
         <f t="shared" si="15"/>
-        <v>-226.16636030260804</v>
-      </c>
-      <c r="AA15" s="34">
+        <v>-2261.6636030260806</v>
+      </c>
+      <c r="AA15" s="33">
         <f t="shared" si="15"/>
-        <v>-246.72693851193605</v>
-      </c>
-      <c r="AB15" s="34">
+        <v>-2467.2693851193608</v>
+      </c>
+      <c r="AB15" s="33">
         <f t="shared" si="15"/>
-        <v>-267.28751672126407</v>
+        <v>-2672.8751672126409</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="16.8">
-      <c r="A16" s="27" t="str">
+      <c r="A16" s="26" t="str">
         <f t="shared" si="11"/>
         <v>L4</v>
       </c>
       <c r="B16" s="10">
         <f t="shared" si="12"/>
-        <v>4.2358010320000007E-2</v>
+        <v>0.42358010320000011</v>
       </c>
       <c r="C16" s="9">
         <f t="shared" si="13"/>
-        <v>101.65922476800003</v>
+        <v>465.93811352000012</v>
       </c>
       <c r="D16" s="9">
         <f>IF(A16=0,0,$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>24</v>
-      </c>
-      <c r="G16" s="37">
+        <v>11</v>
+      </c>
+      <c r="G16" s="36">
         <v>6</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="32">
         <f t="shared" si="8"/>
-        <v>0.11089005180897571</v>
+        <v>1.1089005180897573</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="34">
+      <c r="N16" s="33">
         <f>H16*H6*100</f>
-        <v>66.534031085385422</v>
-      </c>
-      <c r="O16" s="34">
+        <v>665.34031085385448</v>
+      </c>
+      <c r="O16" s="33">
         <f>H16*100*(H6-H5)</f>
-        <v>33.267015542692711</v>
-      </c>
-      <c r="P16" s="34">
+        <v>332.67015542692718</v>
+      </c>
+      <c r="P16" s="33">
         <f t="shared" ref="P16:X16" si="16">$H$16*100*($H$6-$H$5*J10)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16" s="33">
         <f t="shared" si="16"/>
-        <v>-33.267015542692711</v>
-      </c>
-      <c r="R16" s="34">
+        <v>-332.67015542692718</v>
+      </c>
+      <c r="R16" s="33">
         <f t="shared" si="16"/>
-        <v>-66.534031085385422</v>
-      </c>
-      <c r="S16" s="34">
+        <v>-665.34031085385436</v>
+      </c>
+      <c r="S16" s="33">
         <f t="shared" si="16"/>
-        <v>-99.80104662807814</v>
-      </c>
-      <c r="T16" s="34">
+        <v>-998.01046628078154</v>
+      </c>
+      <c r="T16" s="33">
         <f t="shared" si="16"/>
-        <v>-133.06806217077084</v>
-      </c>
-      <c r="U16" s="34">
+        <v>-1330.6806217077087</v>
+      </c>
+      <c r="U16" s="33">
         <f t="shared" si="16"/>
-        <v>-166.33507771346356</v>
-      </c>
-      <c r="V16" s="34">
+        <v>-1663.3507771346358</v>
+      </c>
+      <c r="V16" s="33">
         <f t="shared" si="16"/>
-        <v>-199.60209325615628</v>
-      </c>
-      <c r="W16" s="34">
+        <v>-1996.0209325615631</v>
+      </c>
+      <c r="W16" s="33">
         <f t="shared" si="16"/>
-        <v>-232.869108798849</v>
-      </c>
-      <c r="X16" s="34">
+        <v>-2328.6910879884904</v>
+      </c>
+      <c r="X16" s="33">
         <f t="shared" si="16"/>
-        <v>-266.13612434154169</v>
-      </c>
-      <c r="Y16" s="34">
+        <v>-2661.3612434154174</v>
+      </c>
+      <c r="Y16" s="33">
         <f t="shared" ref="Y16" si="17">$H$16*100*($H$6-$H$5*S10)</f>
-        <v>-299.40313988423441</v>
-      </c>
-      <c r="Z16" s="34">
+        <v>-2994.0313988423445</v>
+      </c>
+      <c r="Z16" s="33">
         <f t="shared" ref="Z16" si="18">$H$16*100*($H$6-$H$5*T10)</f>
-        <v>-332.67015542692712</v>
-      </c>
-      <c r="AA16" s="34">
+        <v>-3326.7015542692716</v>
+      </c>
+      <c r="AA16" s="33">
         <f t="shared" ref="AA16" si="19">$H$16*100*($H$6-$H$5*U10)</f>
-        <v>-365.93717096961984</v>
-      </c>
-      <c r="AB16" s="34">
+        <v>-3659.3717096961991</v>
+      </c>
+      <c r="AB16" s="33">
         <f t="shared" ref="AB16" si="20">$H$16*100*($H$6-$H$5*V10)</f>
-        <v>-399.20418651231256</v>
+        <v>-3992.0418651231262</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="16.8">
-      <c r="A17" s="27" t="str">
+      <c r="A17" s="26" t="str">
         <f t="shared" si="11"/>
         <v>L5</v>
       </c>
       <c r="B17" s="10">
         <f t="shared" si="12"/>
-        <v>6.8535260697760017E-2</v>
+        <v>0.68535260697760025</v>
       </c>
       <c r="C17" s="9">
         <f t="shared" si="13"/>
-        <v>143.92404746529604</v>
+        <v>685.3526069776002</v>
       </c>
       <c r="D17" s="9">
         <f>IF(A17=0,0,$D$6+($D$7*($D$10-6)))</f>
-        <v>21</v>
-      </c>
-      <c r="G17" s="37">
+        <v>10</v>
+      </c>
+      <c r="G17" s="36">
         <v>7</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="32">
         <f t="shared" si="8"/>
-        <v>0.17942010382692272</v>
+        <v>1.7942010382692275</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -3972,86 +3949,86 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="34">
+      <c r="O17" s="33">
         <f>H6*H17*100</f>
-        <v>107.65206229615363</v>
-      </c>
-      <c r="P17" s="34">
+        <v>1076.5206229615367</v>
+      </c>
+      <c r="P17" s="33">
         <f>H17*100*(H6-H5)</f>
-        <v>53.826031148076808</v>
-      </c>
-      <c r="Q17" s="34">
+        <v>538.26031148076822</v>
+      </c>
+      <c r="Q17" s="33">
         <f t="shared" ref="Q17:X17" si="21">$H$17*100*($H$6-$H$5*J10)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="34">
+      <c r="R17" s="33">
         <f t="shared" si="21"/>
-        <v>-53.826031148076808</v>
-      </c>
-      <c r="S17" s="34">
+        <v>-538.26031148076822</v>
+      </c>
+      <c r="S17" s="33">
         <f t="shared" si="21"/>
-        <v>-107.65206229615362</v>
-      </c>
-      <c r="T17" s="34">
+        <v>-1076.5206229615364</v>
+      </c>
+      <c r="T17" s="33">
         <f t="shared" si="21"/>
-        <v>-161.47809344423044</v>
-      </c>
-      <c r="U17" s="34">
+        <v>-1614.7809344423047</v>
+      </c>
+      <c r="U17" s="33">
         <f t="shared" si="21"/>
-        <v>-215.30412459230723</v>
-      </c>
-      <c r="V17" s="34">
+        <v>-2153.0412459230729</v>
+      </c>
+      <c r="V17" s="33">
         <f t="shared" si="21"/>
-        <v>-269.13015574038405</v>
-      </c>
-      <c r="W17" s="34">
+        <v>-2691.3015574038409</v>
+      </c>
+      <c r="W17" s="33">
         <f t="shared" si="21"/>
-        <v>-322.95618688846088</v>
-      </c>
-      <c r="X17" s="34">
+        <v>-3229.5618688846093</v>
+      </c>
+      <c r="X17" s="33">
         <f t="shared" si="21"/>
-        <v>-376.7822180365377</v>
-      </c>
-      <c r="Y17" s="34">
+        <v>-3767.8221803653778</v>
+      </c>
+      <c r="Y17" s="33">
         <f t="shared" ref="Y17" si="22">$H$17*100*($H$6-$H$5*R10)</f>
-        <v>-430.60824918461446</v>
-      </c>
-      <c r="Z17" s="34">
+        <v>-4306.0824918461458</v>
+      </c>
+      <c r="Z17" s="33">
         <f t="shared" ref="Z17" si="23">$H$17*100*($H$6-$H$5*S10)</f>
-        <v>-484.43428033269129</v>
-      </c>
-      <c r="AA17" s="34">
+        <v>-4844.3428033269138</v>
+      </c>
+      <c r="AA17" s="33">
         <f t="shared" ref="AA17" si="24">$H$17*100*($H$6-$H$5*T10)</f>
-        <v>-538.26031148076811</v>
-      </c>
-      <c r="AB17" s="34">
+        <v>-5382.6031148076818</v>
+      </c>
+      <c r="AB17" s="33">
         <f t="shared" ref="AB17" si="25">$H$17*100*($H$6-$H$5*U10)</f>
-        <v>-592.08634262884493</v>
+        <v>-5920.8634262884507</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="16.8">
-      <c r="A18" s="27" t="str">
+      <c r="A18" s="26" t="str">
         <f t="shared" si="11"/>
         <v>L6</v>
       </c>
       <c r="B18" s="10">
         <f t="shared" si="12"/>
-        <v>0.11089005180897571</v>
+        <v>1.1089005180897573</v>
       </c>
       <c r="C18" s="9">
         <f t="shared" si="13"/>
-        <v>199.60209325615628</v>
+        <v>998.01046628078166</v>
       </c>
       <c r="D18" s="9">
         <f>IF(A18=0,0,($D$7*($D$10-6)))</f>
-        <v>18</v>
-      </c>
-      <c r="G18" s="37">
+        <v>9</v>
+      </c>
+      <c r="G18" s="36">
         <v>8</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="32">
         <f t="shared" si="8"/>
-        <v>0.29030172799196097</v>
+        <v>2.9030172799196103</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -4060,82 +4037,82 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="34">
+      <c r="P18" s="33">
         <f>H6*H18*100</f>
-        <v>174.18103679517657</v>
-      </c>
-      <c r="Q18" s="34">
+        <v>1741.8103679517665</v>
+      </c>
+      <c r="Q18" s="33">
         <f>H18*100*(H6-H5)</f>
-        <v>87.090518397588298</v>
-      </c>
-      <c r="R18" s="34">
+        <v>870.90518397588312</v>
+      </c>
+      <c r="R18" s="33">
         <f t="shared" ref="R18:X18" si="26">$H$18*100*($H$6-$H$5*J10)</f>
         <v>0</v>
       </c>
-      <c r="S18" s="34">
+      <c r="S18" s="33">
         <f t="shared" si="26"/>
-        <v>-87.090518397588298</v>
-      </c>
-      <c r="T18" s="34">
+        <v>-870.90518397588312</v>
+      </c>
+      <c r="T18" s="33">
         <f t="shared" si="26"/>
-        <v>-174.1810367951766</v>
-      </c>
-      <c r="U18" s="34">
+        <v>-1741.8103679517662</v>
+      </c>
+      <c r="U18" s="33">
         <f t="shared" si="26"/>
-        <v>-261.27155519276488</v>
-      </c>
-      <c r="V18" s="34">
+        <v>-2612.7155519276494</v>
+      </c>
+      <c r="V18" s="33">
         <f t="shared" si="26"/>
-        <v>-348.36207359035319</v>
-      </c>
-      <c r="W18" s="34">
+        <v>-3483.6207359035325</v>
+      </c>
+      <c r="W18" s="33">
         <f t="shared" si="26"/>
-        <v>-435.45259198794145</v>
-      </c>
-      <c r="X18" s="34">
+        <v>-4354.5259198794156</v>
+      </c>
+      <c r="X18" s="33">
         <f t="shared" si="26"/>
-        <v>-522.54311038552976</v>
-      </c>
-      <c r="Y18" s="34">
+        <v>-5225.4311038552987</v>
+      </c>
+      <c r="Y18" s="33">
         <f t="shared" ref="Y18" si="27">$H$18*100*($H$6-$H$5*Q10)</f>
-        <v>-609.63362878311807</v>
-      </c>
-      <c r="Z18" s="34">
+        <v>-6096.3362878311818</v>
+      </c>
+      <c r="Z18" s="33">
         <f t="shared" ref="Z18" si="28">$H$18*100*($H$6-$H$5*R10)</f>
-        <v>-696.72414718070638</v>
-      </c>
-      <c r="AA18" s="34">
+        <v>-6967.241471807065</v>
+      </c>
+      <c r="AA18" s="33">
         <f t="shared" ref="AA18" si="29">$H$18*100*($H$6-$H$5*S10)</f>
-        <v>-783.81466557829469</v>
-      </c>
-      <c r="AB18" s="34">
+        <v>-7838.146655782949</v>
+      </c>
+      <c r="AB18" s="33">
         <f t="shared" ref="AB18" si="30">$H$18*100*($H$6-$H$5*T10)</f>
-        <v>-870.90518397588289</v>
+        <v>-8709.0518397588312</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="16.8">
-      <c r="A19" s="27" t="str">
+      <c r="A19" s="26" t="str">
         <f t="shared" si="11"/>
         <v>L7</v>
       </c>
       <c r="B19" s="10">
         <f t="shared" si="12"/>
-        <v>0.17942010382692272</v>
+        <v>1.7942010382692275</v>
       </c>
       <c r="C19" s="9">
         <f t="shared" si="13"/>
-        <v>269.13015574038411</v>
+        <v>1435.3608306153819</v>
       </c>
       <c r="D19" s="9">
         <f>IF(A19=0,0,($D$7*($D$10-7)))</f>
-        <v>15</v>
-      </c>
-      <c r="G19" s="37">
+        <v>8</v>
+      </c>
+      <c r="G19" s="36">
         <v>9</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="32">
         <f t="shared" si="8"/>
-        <v>0.46970819589099289</v>
+        <v>4.69708195890993</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -4145,78 +4122,78 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="34">
+      <c r="Q19" s="33">
         <f>H6*H19*100</f>
-        <v>281.82491753459573</v>
-      </c>
-      <c r="R19" s="34">
+        <v>2818.2491753459581</v>
+      </c>
+      <c r="R19" s="33">
         <f>H19*100*(H6-H5)</f>
-        <v>140.91245876729786</v>
-      </c>
-      <c r="S19" s="34">
+        <v>1409.124587672979</v>
+      </c>
+      <c r="S19" s="33">
         <f t="shared" ref="S19:X19" si="31">$H$19*100*($H$6-$H$5*J10)</f>
         <v>0</v>
       </c>
-      <c r="T19" s="34">
+      <c r="T19" s="33">
         <f t="shared" si="31"/>
-        <v>-140.91245876729786</v>
-      </c>
-      <c r="U19" s="34">
+        <v>-1409.124587672979</v>
+      </c>
+      <c r="U19" s="33">
         <f t="shared" si="31"/>
-        <v>-281.82491753459573</v>
-      </c>
-      <c r="V19" s="34">
+        <v>-2818.2491753459581</v>
+      </c>
+      <c r="V19" s="33">
         <f t="shared" si="31"/>
-        <v>-422.73737630189356</v>
-      </c>
-      <c r="W19" s="34">
+        <v>-4227.3737630189371</v>
+      </c>
+      <c r="W19" s="33">
         <f t="shared" si="31"/>
-        <v>-563.64983506919145</v>
-      </c>
-      <c r="X19" s="34">
+        <v>-5636.4983506919161</v>
+      </c>
+      <c r="X19" s="33">
         <f t="shared" si="31"/>
-        <v>-704.56229383648929</v>
-      </c>
-      <c r="Y19" s="34">
+        <v>-7045.6229383648952</v>
+      </c>
+      <c r="Y19" s="33">
         <f t="shared" ref="Y19" si="32">$H$19*100*($H$6-$H$5*P10)</f>
-        <v>-845.47475260378712</v>
-      </c>
-      <c r="Z19" s="34">
+        <v>-8454.7475260378742</v>
+      </c>
+      <c r="Z19" s="33">
         <f t="shared" ref="Z19" si="33">$H$19*100*($H$6-$H$5*Q10)</f>
-        <v>-986.38721137108496</v>
-      </c>
-      <c r="AA19" s="34">
+        <v>-9863.8721137108532</v>
+      </c>
+      <c r="AA19" s="33">
         <f t="shared" ref="AA19" si="34">$H$19*100*($H$6-$H$5*R10)</f>
-        <v>-1127.2996701383829</v>
-      </c>
-      <c r="AB19" s="34">
+        <v>-11272.996701383832</v>
+      </c>
+      <c r="AB19" s="33">
         <f t="shared" ref="AB19" si="35">$H$19*100*($H$6-$H$5*S10)</f>
-        <v>-1268.2121289056806</v>
+        <v>-12682.121289056811</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="16.8">
-      <c r="A20" s="27" t="str">
+      <c r="A20" s="26" t="str">
         <f t="shared" si="11"/>
         <v>L8</v>
       </c>
       <c r="B20" s="10">
         <f t="shared" si="12"/>
-        <v>0.29030172799196097</v>
+        <v>2.9030172799196103</v>
       </c>
       <c r="C20" s="9">
         <f t="shared" si="13"/>
-        <v>348.36207359035313</v>
+        <v>2032.1120959437274</v>
       </c>
       <c r="D20" s="9">
         <f>IF(A20=0,0,($D$7*($D$10-8)))</f>
-        <v>12</v>
-      </c>
-      <c r="G20" s="37">
+        <v>7</v>
+      </c>
+      <c r="G20" s="36">
         <v>10</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="32">
         <f t="shared" si="8"/>
-        <v>0.75998786095162651</v>
+        <v>7.5998786095162671</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -4227,74 +4204,74 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="34">
+      <c r="R20" s="33">
         <f>H6*H20*100</f>
-        <v>455.99271657097586</v>
-      </c>
-      <c r="S20" s="34">
+        <v>4559.9271657097606</v>
+      </c>
+      <c r="S20" s="33">
         <f>H20*100*(H6-H5)</f>
-        <v>227.99635828548799</v>
-      </c>
-      <c r="T20" s="34">
+        <v>2279.9635828548803</v>
+      </c>
+      <c r="T20" s="33">
         <f>$H$20*100*($H$6-$H$5*J10)</f>
         <v>0</v>
       </c>
-      <c r="U20" s="34">
+      <c r="U20" s="33">
         <f>$H$20*100*($H$6-$H$5*K10)</f>
-        <v>-227.99635828548799</v>
-      </c>
-      <c r="V20" s="34">
+        <v>-2279.9635828548803</v>
+      </c>
+      <c r="V20" s="33">
         <f>$H$20*100*($H$6-$H$5*L10)</f>
-        <v>-455.99271657097597</v>
-      </c>
-      <c r="W20" s="34">
+        <v>-4559.9271657097606</v>
+      </c>
+      <c r="W20" s="33">
         <f>$H$20*100*($H$6-$H$5*M10)</f>
-        <v>-683.98907485646396</v>
-      </c>
-      <c r="X20" s="34">
+        <v>-6839.8907485646414</v>
+      </c>
+      <c r="X20" s="33">
         <f>$H$20*100*($H$6-$H$5*N10)</f>
-        <v>-911.98543314195194</v>
-      </c>
-      <c r="Y20" s="34">
+        <v>-9119.8543314195213</v>
+      </c>
+      <c r="Y20" s="33">
         <f t="shared" ref="Y20:AB20" si="36">$H$20*100*($H$6-$H$5*O10)</f>
-        <v>-1139.9817914274399</v>
-      </c>
-      <c r="Z20" s="34">
+        <v>-11399.817914274401</v>
+      </c>
+      <c r="Z20" s="33">
         <f t="shared" si="36"/>
-        <v>-1367.9781497129279</v>
-      </c>
-      <c r="AA20" s="34">
+        <v>-13679.781497129283</v>
+      </c>
+      <c r="AA20" s="33">
         <f t="shared" si="36"/>
-        <v>-1595.9745079984159</v>
-      </c>
-      <c r="AB20" s="34">
+        <v>-15959.745079984163</v>
+      </c>
+      <c r="AB20" s="33">
         <f t="shared" si="36"/>
-        <v>-1823.9708662839039</v>
+        <v>-18239.708662839043</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="16.8">
-      <c r="A21" s="27" t="str">
+      <c r="A21" s="26" t="str">
         <f t="shared" si="11"/>
         <v>L9</v>
       </c>
       <c r="B21" s="10">
         <f t="shared" si="12"/>
-        <v>0.46970819589099289</v>
+        <v>4.69708195890993</v>
       </c>
       <c r="C21" s="9">
         <f t="shared" si="13"/>
-        <v>422.73737630189362</v>
+        <v>2818.2491753459581</v>
       </c>
       <c r="D21" s="9">
         <f>IF(A21=0,0,($D$7*($D$10-9)))</f>
-        <v>9</v>
-      </c>
-      <c r="G21" s="37">
+        <v>6</v>
+      </c>
+      <c r="G21" s="36">
         <v>11</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="32">
         <f t="shared" si="8"/>
-        <v>1.2296603590197317</v>
+        <v>12.296603590197321</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -4306,70 +4283,70 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-      <c r="S21" s="35">
+      <c r="S21" s="34">
         <f>H6*H21*100</f>
-        <v>737.79621541183906</v>
-      </c>
-      <c r="T21" s="35">
+        <v>7377.9621541183933</v>
+      </c>
+      <c r="T21" s="34">
         <f>H21*100*(H6-H5)</f>
-        <v>368.89810770591953</v>
-      </c>
-      <c r="U21" s="35">
+        <v>3688.9810770591967</v>
+      </c>
+      <c r="U21" s="34">
         <f>$H$21*100*($H$6-$H$5*J10)</f>
         <v>0</v>
       </c>
-      <c r="V21" s="35">
+      <c r="V21" s="34">
         <f>$H$21*100*($H$6-$H$5*K10)</f>
-        <v>-368.89810770591953</v>
-      </c>
-      <c r="W21" s="35">
+        <v>-3688.9810770591967</v>
+      </c>
+      <c r="W21" s="34">
         <f>$H$21*100*($H$6-$H$5*L10)</f>
-        <v>-737.79621541183906</v>
-      </c>
-      <c r="X21" s="35">
+        <v>-7377.9621541183933</v>
+      </c>
+      <c r="X21" s="34">
         <f>$H$21*100*($H$6-$H$5*M10)</f>
-        <v>-1106.6943231177586</v>
-      </c>
-      <c r="Y21" s="35">
+        <v>-11066.943231177589</v>
+      </c>
+      <c r="Y21" s="34">
         <f t="shared" ref="Y21:AB21" si="37">$H$21*100*($H$6-$H$5*N10)</f>
-        <v>-1475.5924308236781</v>
-      </c>
-      <c r="Z21" s="35">
+        <v>-14755.924308236787</v>
+      </c>
+      <c r="Z21" s="34">
         <f t="shared" si="37"/>
-        <v>-1844.4905385295976</v>
-      </c>
-      <c r="AA21" s="35">
+        <v>-18444.905385295981</v>
+      </c>
+      <c r="AA21" s="34">
         <f t="shared" si="37"/>
-        <v>-2213.3886462355172</v>
-      </c>
-      <c r="AB21" s="35">
+        <v>-22133.886462355178</v>
+      </c>
+      <c r="AB21" s="34">
         <f t="shared" si="37"/>
-        <v>-2582.2867539414365</v>
+        <v>-25822.867539414376</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="16.8">
-      <c r="A22" s="27" t="str">
+      <c r="A22" s="26" t="str">
         <f t="shared" si="11"/>
         <v>L10</v>
       </c>
       <c r="B22" s="10">
         <f t="shared" si="12"/>
-        <v>0.75998786095162651</v>
+        <v>7.5998786095162671</v>
       </c>
       <c r="C22" s="9">
         <f t="shared" si="13"/>
-        <v>455.99271657097586</v>
+        <v>3799.9393047581334</v>
       </c>
       <c r="D22" s="9">
         <f>IF(A22=0,0,($D$7*($D$10-10)))</f>
-        <v>6</v>
-      </c>
-      <c r="G22" s="37">
+        <v>5</v>
+      </c>
+      <c r="G22" s="36">
         <v>12</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="32">
         <f t="shared" si="8"/>
-        <v>1.9895904608939261</v>
+        <v>19.895904608939269</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -4381,67 +4358,67 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35">
+      <c r="S22" s="34"/>
+      <c r="T22" s="34">
         <f>H6*H22*100</f>
-        <v>1193.7542765363555</v>
-      </c>
-      <c r="U22" s="35">
+        <v>11937.542765363562</v>
+      </c>
+      <c r="U22" s="34">
         <f>H22*100*(H6-H5)</f>
-        <v>596.87713826817787</v>
-      </c>
-      <c r="V22" s="35">
+        <v>5968.7713826817799</v>
+      </c>
+      <c r="V22" s="34">
         <f>$H$22*100*($H$6-$H$5*J10)</f>
         <v>0</v>
       </c>
-      <c r="W22" s="35">
+      <c r="W22" s="34">
         <f>$H$22*100*($H$6-$H$5*K10)</f>
-        <v>-596.87713826817787</v>
-      </c>
-      <c r="X22" s="35">
+        <v>-5968.7713826817799</v>
+      </c>
+      <c r="X22" s="34">
         <f>$H$22*100*($H$6-$H$5*L10)</f>
-        <v>-1193.7542765363557</v>
-      </c>
-      <c r="Y22" s="35">
+        <v>-11937.54276536356</v>
+      </c>
+      <c r="Y22" s="34">
         <f t="shared" ref="Y22:AB22" si="38">$H$22*100*($H$6-$H$5*M10)</f>
-        <v>-1790.6314148045335</v>
-      </c>
-      <c r="Z22" s="35">
+        <v>-17906.314148045341</v>
+      </c>
+      <c r="Z22" s="34">
         <f t="shared" si="38"/>
-        <v>-2387.5085530727115</v>
-      </c>
-      <c r="AA22" s="35">
+        <v>-23875.085530727119</v>
+      </c>
+      <c r="AA22" s="34">
         <f t="shared" si="38"/>
-        <v>-2984.385691340889</v>
-      </c>
-      <c r="AB22" s="35">
+        <v>-29843.856913408901</v>
+      </c>
+      <c r="AB22" s="34">
         <f t="shared" si="38"/>
-        <v>-3581.262829609067</v>
+        <v>-35812.628296090683</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="16.8">
-      <c r="A23" s="27" t="str">
+      <c r="A23" s="26" t="str">
         <f t="shared" si="11"/>
         <v>L11</v>
       </c>
       <c r="B23" s="10">
         <f t="shared" si="12"/>
-        <v>1.2296603590197317</v>
+        <v>12.296603590197321</v>
       </c>
       <c r="C23" s="9">
         <f t="shared" si="13"/>
-        <v>368.89810770591953</v>
+        <v>4918.6414360789286</v>
       </c>
       <c r="D23" s="9">
         <f>IF(A23=0,0,($D$7*($D$10-11)))</f>
-        <v>3</v>
-      </c>
-      <c r="G23" s="37">
+        <v>4</v>
+      </c>
+      <c r="G23" s="36">
         <v>13</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="32">
         <f t="shared" si="8"/>
-        <v>3.2191573657263728</v>
+        <v>32.191573657263739</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -4453,64 +4430,64 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35">
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34">
         <f>H6*H23*100</f>
-        <v>1931.4944194358236</v>
-      </c>
-      <c r="V23" s="35">
+        <v>19314.944194358242</v>
+      </c>
+      <c r="V23" s="34">
         <f>H23*100*(H6-H5)</f>
-        <v>965.7472097179118</v>
-      </c>
-      <c r="W23" s="35">
+        <v>9657.4720971791212</v>
+      </c>
+      <c r="W23" s="34">
         <f>$H$23*100*($H$6-$H$5*J10)</f>
         <v>0</v>
       </c>
-      <c r="X23" s="35">
+      <c r="X23" s="34">
         <f>$H$23*100*($H$6-$H$5*K10)</f>
-        <v>-965.7472097179118</v>
-      </c>
-      <c r="Y23" s="35">
+        <v>-9657.4720971791212</v>
+      </c>
+      <c r="Y23" s="34">
         <f t="shared" ref="Y23:AB23" si="39">$H$23*100*($H$6-$H$5*L10)</f>
-        <v>-1931.4944194358236</v>
-      </c>
-      <c r="Z23" s="35">
+        <v>-19314.944194358242</v>
+      </c>
+      <c r="Z23" s="34">
         <f t="shared" si="39"/>
-        <v>-2897.2416291537356</v>
-      </c>
-      <c r="AA23" s="35">
+        <v>-28972.416291537364</v>
+      </c>
+      <c r="AA23" s="34">
         <f t="shared" si="39"/>
-        <v>-3862.9888388716472</v>
-      </c>
-      <c r="AB23" s="35">
+        <v>-38629.888388716485</v>
+      </c>
+      <c r="AB23" s="34">
         <f t="shared" si="39"/>
-        <v>-4828.7360485895597</v>
+        <v>-48287.36048589561</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="16.8">
-      <c r="A24" s="27" t="str">
+      <c r="A24" s="26" t="str">
         <f t="shared" si="11"/>
         <v>L12</v>
       </c>
       <c r="B24" s="10">
         <f t="shared" si="12"/>
-        <v>1.9895904608939261</v>
+        <v>19.895904608939269</v>
       </c>
       <c r="C24" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5968.7713826817808</v>
       </c>
       <c r="D24" s="9">
         <f>IF(A24=0,0,($D$7*($D$10-12)))</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="37">
+        <v>3</v>
+      </c>
+      <c r="G24" s="36">
         <v>14</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="32">
         <f t="shared" si="8"/>
-        <v>5.2085966177452718</v>
+        <v>52.085966177452732</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -4522,61 +4499,61 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35">
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34">
         <f>H6*H24*100</f>
-        <v>3125.157970647163</v>
-      </c>
-      <c r="W24" s="35">
+        <v>31251.579706471635</v>
+      </c>
+      <c r="W24" s="34">
         <f>H24*100*(H6-H5)</f>
-        <v>1562.5789853235817</v>
-      </c>
-      <c r="X24" s="35">
+        <v>15625.789853235819</v>
+      </c>
+      <c r="X24" s="34">
         <f>$H$24*100*($H$6-$H$5*J10)</f>
         <v>0</v>
       </c>
-      <c r="Y24" s="35">
+      <c r="Y24" s="34">
         <f t="shared" ref="Y24:AB24" si="40">$H$24*100*($H$6-$H$5*K10)</f>
-        <v>-1562.5789853235817</v>
-      </c>
-      <c r="Z24" s="35">
+        <v>-15625.789853235819</v>
+      </c>
+      <c r="Z24" s="34">
         <f t="shared" si="40"/>
-        <v>-3125.1579706471634</v>
-      </c>
-      <c r="AA24" s="35">
+        <v>-31251.579706471639</v>
+      </c>
+      <c r="AA24" s="34">
         <f t="shared" si="40"/>
-        <v>-4687.7369559707449</v>
-      </c>
-      <c r="AB24" s="35">
+        <v>-46877.369559707455</v>
+      </c>
+      <c r="AB24" s="34">
         <f t="shared" si="40"/>
-        <v>-6250.3159412943269</v>
+        <v>-62503.159412943278</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="16.8">
-      <c r="A25" s="27">
+      <c r="A25" s="26" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>L13</v>
       </c>
       <c r="B25" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>32.191573657263739</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6438.3147314527478</v>
       </c>
       <c r="D25" s="9">
         <f>IF(A25=0,0,($D$7*($D$10-13)))</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="37">
+        <v>2</v>
+      </c>
+      <c r="G25" s="36">
         <v>15</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="32">
         <f t="shared" si="8"/>
-        <v>8.4275093275118511</v>
+        <v>84.275093275118522</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -4588,58 +4565,58 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35">
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34">
         <f>H6*H25*100</f>
-        <v>5056.5055965071115</v>
-      </c>
-      <c r="X25" s="35">
+        <v>50565.055965071107</v>
+      </c>
+      <c r="X25" s="34">
         <f>H25*100*(H6-H5)</f>
-        <v>2528.2527982535553</v>
-      </c>
-      <c r="Y25" s="35">
+        <v>25282.527982535557</v>
+      </c>
+      <c r="Y25" s="34">
         <f>$H$25*100*($H$6-$H$5*J10)</f>
         <v>0</v>
       </c>
-      <c r="Z25" s="35">
+      <c r="Z25" s="34">
         <f>$H$25*100*($H$6-$H$5*K10)</f>
-        <v>-2528.2527982535553</v>
-      </c>
-      <c r="AA25" s="35">
+        <v>-25282.527982535557</v>
+      </c>
+      <c r="AA25" s="34">
         <f>$H$25*100*($H$6-$H$5*L10)</f>
-        <v>-5056.5055965071106</v>
-      </c>
-      <c r="AB25" s="35">
+        <v>-50565.055965071115</v>
+      </c>
+      <c r="AB25" s="34">
         <f>$H$25*100*($H$6-$H$5*M10)</f>
-        <v>-7584.7583947606663</v>
+        <v>-75847.583947606676</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="16.8">
-      <c r="A26" s="27">
+      <c r="A26" s="26" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>L14</v>
       </c>
       <c r="B26" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>52.085966177452732</v>
       </c>
       <c r="C26" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5208.5966177452729</v>
       </c>
       <c r="D26" s="9">
         <f>IF(A26=0,0,($D$7*($D$10-14)))</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="37">
+        <v>1</v>
+      </c>
+      <c r="G26" s="36">
         <v>16</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="32">
         <f t="shared" si="8"/>
-        <v>13.635710091914175</v>
+        <v>136.35710091914177</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -4651,40 +4628,40 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35">
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34">
         <f>H26*H6*100</f>
-        <v>8181.4260551485049</v>
-      </c>
-      <c r="Y26" s="35">
+        <v>81814.260551485058</v>
+      </c>
+      <c r="Y26" s="34">
         <f>$H$26*100*($H$6-$H$5)</f>
-        <v>4090.7130275742525</v>
-      </c>
-      <c r="Z26" s="35">
+        <v>40907.130275742529</v>
+      </c>
+      <c r="Z26" s="34">
         <f>$H$26*100*($H$6-$H$5*J10)</f>
         <v>0</v>
       </c>
-      <c r="AA26" s="35">
+      <c r="AA26" s="34">
         <f>$H$26*100*($H$6-$H$5*K10)</f>
-        <v>-4090.7130275742525</v>
-      </c>
-      <c r="AB26" s="35">
+        <v>-40907.130275742529</v>
+      </c>
+      <c r="AB26" s="34">
         <f>$H$26*100*($H$6-$H$5*L10)</f>
-        <v>-8181.4260551485049</v>
+        <v>-81814.260551485058</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="16.8">
-      <c r="A27" s="27">
+      <c r="A27" s="26" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>L15</v>
       </c>
       <c r="B27" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>84.275093275118522</v>
       </c>
       <c r="C27" s="9">
         <f t="shared" si="13"/>
@@ -4694,32 +4671,32 @@
         <f>IF(A27=0,0,($D$7*($D$10-15)))</f>
         <v>0</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="36">
         <v>17</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="32">
         <f t="shared" si="8"/>
-        <v>22.062578928717137</v>
-      </c>
-      <c r="Y27" s="35">
+        <v>220.62578928717141</v>
+      </c>
+      <c r="Y27" s="34">
         <f>$H$27*$H$6*100</f>
-        <v>13237.547357230284</v>
-      </c>
-      <c r="Z27" s="35">
+        <v>132375.47357230284</v>
+      </c>
+      <c r="Z27" s="34">
         <f>$H$27*100*($H$6-$H$5*I$10)</f>
-        <v>6618.7736786151418</v>
-      </c>
-      <c r="AA27" s="35">
+        <v>66187.736786151421</v>
+      </c>
+      <c r="AA27" s="34">
         <f t="shared" ref="AA27:AB27" si="41">$H$27*100*($H$6-$H$5*J$10)</f>
         <v>0</v>
       </c>
-      <c r="AB27" s="35">
+      <c r="AB27" s="34">
         <f t="shared" si="41"/>
-        <v>-6618.7736786151418</v>
+        <v>-66187.736786151421</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="16.8">
-      <c r="A28" s="27">
+      <c r="A28" s="26">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4735,28 +4712,28 @@
         <f>IF(A28=0,0,($D$7*($D$10-16)))</f>
         <v>0</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="36">
         <v>18</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="32">
         <f t="shared" si="8"/>
-        <v>35.697252706664329</v>
-      </c>
-      <c r="Z28" s="35">
+        <v>356.97252706664335</v>
+      </c>
+      <c r="Z28" s="34">
         <f>$H$28*$H$6*100</f>
-        <v>21418.351623998598</v>
-      </c>
-      <c r="AA28" s="35">
+        <v>214183.516239986</v>
+      </c>
+      <c r="AA28" s="34">
         <f>$H$28*100*($H$6-$H$5*I$10)</f>
-        <v>10709.175811999299</v>
-      </c>
-      <c r="AB28" s="35">
+        <v>107091.75811999301</v>
+      </c>
+      <c r="AB28" s="34">
         <f>$H$28*100*($H$6-$H$5*J$10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="16.8">
-      <c r="A29" s="27">
+      <c r="A29" s="26">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4772,24 +4749,24 @@
         <f>IF(A29=0,0,($D$7*($D$10-17)))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="36">
         <v>19</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H29" s="32">
         <f t="shared" si="8"/>
-        <v>57.758154879382886</v>
-      </c>
-      <c r="AA29" s="35">
+        <v>577.58154879382903</v>
+      </c>
+      <c r="AA29" s="34">
         <f>$H$29*$H$6*100</f>
-        <v>34654.892927629735</v>
-      </c>
-      <c r="AB29" s="35">
+        <v>346548.92927629745</v>
+      </c>
+      <c r="AB29" s="34">
         <f>$H$29*100*($H$6-$H$5*I$10)</f>
-        <v>17327.446463814864</v>
+        <v>173274.46463814873</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="16.8">
-      <c r="A30" s="27">
+      <c r="A30" s="26">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4805,20 +4782,20 @@
         <f>IF(A30=0,0,($D$7*($D$10-18)))</f>
         <v>0</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="36">
         <v>20</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H30" s="32">
         <f t="shared" si="8"/>
-        <v>93.452694594841518</v>
-      </c>
-      <c r="AB30" s="35">
+        <v>934.52694594841546</v>
+      </c>
+      <c r="AB30" s="34">
         <f>$H$30*$H$6*100</f>
-        <v>56071.616756904907</v>
+        <v>560716.16756904928</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="16.8">
-      <c r="A31" s="27">
+      <c r="A31" s="26">
         <f>IF(A30=0,0,IF(VALUE(MID(A30,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A30,2,2))+1))</f>
         <v>0</v>
       </c>
@@ -4834,96 +4811,96 @@
         <f>IF(A31=0,0,($D$7*($D$10-19)))</f>
         <v>0</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="H31" s="45">
+      <c r="H31" s="44">
         <f>SUM(H11:H26)</f>
-        <v>35.683784674299567</v>
-      </c>
-      <c r="I31" s="40">
+        <v>356.83784674299574</v>
+      </c>
+      <c r="I31" s="39">
         <f>SUMIF(I11:I30, "&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="J31" s="40">
+      <c r="J31" s="39">
         <f t="shared" ref="J31:AB31" si="42">SUMIF(J11:J30, "&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="K31" s="40">
+      <c r="K31" s="39">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="L31" s="40">
+      <c r="L31" s="39">
         <f t="shared" si="42"/>
-        <v>-3</v>
-      </c>
-      <c r="M31" s="40">
+        <v>-30</v>
+      </c>
+      <c r="M31" s="39">
         <f t="shared" si="42"/>
-        <v>-10.853999999999999</v>
-      </c>
-      <c r="N31" s="40">
+        <v>-108.54</v>
+      </c>
+      <c r="N31" s="39">
         <f t="shared" si="42"/>
-        <v>-26.561771999999998</v>
-      </c>
-      <c r="O31" s="40">
+        <v>-265.61772000000002</v>
+      </c>
+      <c r="O31" s="39">
         <f t="shared" si="42"/>
-        <v>-54.976947095999996</v>
-      </c>
-      <c r="P31" s="40">
+        <v>-549.76947096000004</v>
+      </c>
+      <c r="P31" s="39">
         <f t="shared" si="42"/>
-        <v>-103.952700401328</v>
-      </c>
-      <c r="Q31" s="40">
+        <v>-1039.5270040132802</v>
+      </c>
+      <c r="Q31" s="39">
         <f t="shared" si="42"/>
-        <v>-186.19546924934872</v>
-      </c>
-      <c r="R31" s="40">
+        <v>-1861.9546924934875</v>
+      </c>
+      <c r="R31" s="39">
         <f t="shared" si="42"/>
-        <v>-322.26426924544626</v>
-      </c>
-      <c r="S31" s="40">
+        <v>-3222.642692454463</v>
+      </c>
+      <c r="S31" s="39">
         <f t="shared" si="42"/>
-        <v>-545.42358763913205</v>
-      </c>
-      <c r="T31" s="40">
+        <v>-5454.2358763913217</v>
+      </c>
+      <c r="T31" s="39">
         <f t="shared" si="42"/>
-        <v>-909.49536480011579</v>
-      </c>
-      <c r="U31" s="40">
+        <v>-9094.9536480011593</v>
+      </c>
+      <c r="U31" s="39">
         <f t="shared" si="42"/>
-        <v>-1501.5635002465874</v>
-      </c>
-      <c r="V31" s="40">
+        <v>-15015.635002465877</v>
+      </c>
+      <c r="V31" s="39">
         <f t="shared" si="42"/>
-        <v>-2462.529743398979</v>
-      </c>
-      <c r="W31" s="40">
+        <v>-24625.297433989792</v>
+      </c>
+      <c r="W31" s="39">
         <f t="shared" si="42"/>
-        <v>-4020.3731248195477</v>
-      </c>
-      <c r="X31" s="40">
+        <v>-40203.731248195487</v>
+      </c>
+      <c r="X31" s="39">
         <f t="shared" si="42"/>
-        <v>-6543.9637159580279</v>
-      </c>
-      <c r="Y31" s="40">
+        <v>-65439.637159580307</v>
+      </c>
+      <c r="Y31" s="39">
         <f t="shared" si="42"/>
-        <v>-10630.133292420091</v>
-      </c>
-      <c r="Z31" s="40">
+        <v>-106301.33292420095</v>
+      </c>
+      <c r="Z31" s="39">
         <f t="shared" si="42"/>
-        <v>-17244.555667135708</v>
-      </c>
-      <c r="AA31" s="40">
+        <v>-172445.55667135713</v>
+      </c>
+      <c r="AA31" s="39">
         <f t="shared" si="42"/>
-        <v>-27949.691069425578</v>
-      </c>
-      <c r="AB31" s="40">
+        <v>-279496.91069425584</v>
+      </c>
+      <c r="AB31" s="39">
         <f t="shared" si="42"/>
-        <v>-45273.600150330589</v>
+        <v>-452736.00150330603</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="16.8">
-      <c r="A32" s="27">
+      <c r="A32" s="26">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4939,89 +4916,89 @@
         <f t="shared" ref="D32:D34" si="43">IF(A32=0,0,($D$7*($D$10-20)))</f>
         <v>0</v>
       </c>
-      <c r="I32" s="94">
+      <c r="I32" s="87">
         <f t="shared" ref="I32:AB32" si="44">SUM(I11:I30)</f>
-        <v>6</v>
-      </c>
-      <c r="J32" s="94">
+        <v>60.000000000000007</v>
+      </c>
+      <c r="J32" s="87">
         <f t="shared" si="44"/>
-        <v>12.707999999999998</v>
-      </c>
-      <c r="K32" s="94">
+        <v>127.08000000000001</v>
+      </c>
+      <c r="K32" s="87">
         <f t="shared" si="44"/>
-        <v>20.561544000000001</v>
-      </c>
-      <c r="L32" s="94">
+        <v>205.61544000000004</v>
+      </c>
+      <c r="L32" s="87">
         <f t="shared" si="44"/>
-        <v>30.268578192</v>
-      </c>
-      <c r="M32" s="94">
+        <v>302.68578192000007</v>
+      </c>
+      <c r="M32" s="87">
         <f t="shared" si="44"/>
-        <v>42.974559514656015</v>
-      </c>
-      <c r="N32" s="94">
+        <v>429.74559514656022</v>
+      </c>
+      <c r="N32" s="87">
         <f t="shared" si="44"/>
-        <v>60.532837294713431</v>
-      </c>
-      <c r="O32" s="94">
+        <v>605.32837294713454</v>
+      </c>
+      <c r="O32" s="87">
         <f t="shared" si="44"/>
-        <v>85.942130742846345</v>
-      </c>
-      <c r="P32" s="94">
+        <v>859.42130742846382</v>
+      </c>
+      <c r="P32" s="87">
         <f t="shared" si="44"/>
-        <v>124.05436754192537</v>
-      </c>
-      <c r="Q32" s="94">
+        <v>1240.5436754192544</v>
+      </c>
+      <c r="Q32" s="87">
         <f t="shared" si="44"/>
-        <v>182.71996668283532</v>
-      </c>
-      <c r="R32" s="94">
+        <v>1827.1996668283537</v>
+      </c>
+      <c r="R32" s="87">
         <f t="shared" si="44"/>
-        <v>274.64090609282744</v>
-      </c>
-      <c r="S32" s="94">
+        <v>2746.4090609282766</v>
+      </c>
+      <c r="S32" s="87">
         <f t="shared" si="44"/>
-        <v>420.36898605819499</v>
-      </c>
-      <c r="T32" s="94">
+        <v>4203.6898605819515</v>
+      </c>
+      <c r="T32" s="87">
         <f t="shared" si="44"/>
-        <v>653.15701944215925</v>
-      </c>
-      <c r="U32" s="94">
+        <v>6531.5701944215989</v>
+      </c>
+      <c r="U32" s="87">
         <f t="shared" si="44"/>
-        <v>1026.8080574574142</v>
-      </c>
-      <c r="V32" s="94">
+        <v>10268.080574574145</v>
+      </c>
+      <c r="V32" s="87">
         <f t="shared" si="44"/>
-        <v>1628.3754369660958</v>
-      </c>
-      <c r="W32" s="94">
+        <v>16283.754369660965</v>
+      </c>
+      <c r="W32" s="87">
         <f t="shared" si="44"/>
-        <v>2598.7114570111453</v>
-      </c>
-      <c r="X32" s="94">
+        <v>25987.11457011144</v>
+      </c>
+      <c r="X32" s="87">
         <f t="shared" si="44"/>
-        <v>4165.7151374440327</v>
-      </c>
-      <c r="Y32" s="94">
+        <v>41657.151374440306</v>
+      </c>
+      <c r="Y32" s="87">
         <f t="shared" si="44"/>
-        <v>6698.1270923844459</v>
-      </c>
-      <c r="Z32" s="94">
+        <v>66981.270923844422</v>
+      </c>
+      <c r="Z32" s="87">
         <f t="shared" si="44"/>
-        <v>10792.569635478032</v>
-      </c>
-      <c r="AA32" s="94">
+        <v>107925.69635478029</v>
+      </c>
+      <c r="AA32" s="87">
         <f t="shared" si="44"/>
-        <v>17414.377670203456</v>
-      </c>
-      <c r="AB32" s="94">
+        <v>174143.77670203464</v>
+      </c>
+      <c r="AB32" s="87">
         <f t="shared" si="44"/>
-        <v>28125.463070389182</v>
+        <v>281254.63070389198</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="16.8">
-      <c r="A33" s="27">
+      <c r="A33" s="26">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5038,89 +5015,89 @@
         <v>0</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="I33" s="42">
+      <c r="I33" s="41">
         <f>SUM($H11:$H11)</f>
-        <v>0.01</v>
-      </c>
-      <c r="J33" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="J33" s="41">
         <f>SUM($H11:$H12)</f>
-        <v>2.6180000000000002E-2</v>
-      </c>
-      <c r="K33" s="42">
+        <v>0.26180000000000003</v>
+      </c>
+      <c r="K33" s="41">
         <f>SUM($H11:$H13)</f>
-        <v>5.2359240000000001E-2</v>
-      </c>
-      <c r="L33" s="42">
+        <v>0.52359240000000007</v>
+      </c>
+      <c r="L33" s="41">
         <f>SUM($H11:$H14)</f>
-        <v>9.4717250320000002E-2</v>
-      </c>
-      <c r="M33" s="42">
+        <v>0.94717250320000024</v>
+      </c>
+      <c r="M33" s="41">
         <f>SUM($H11:$H15)</f>
-        <v>0.16325251101776</v>
-      </c>
-      <c r="N33" s="42">
+        <v>1.6325251101776006</v>
+      </c>
+      <c r="N33" s="41">
         <f>SUM($H11:$H16)</f>
-        <v>0.27414256282673571</v>
-      </c>
-      <c r="O33" s="42">
+        <v>2.7414256282673577</v>
+      </c>
+      <c r="O33" s="41">
         <f>SUM($H11:$H17)</f>
-        <v>0.45356266665365841</v>
-      </c>
-      <c r="P33" s="42">
+        <v>4.5356266665365848</v>
+      </c>
+      <c r="P33" s="41">
         <f>SUM($H11:$H18)</f>
-        <v>0.74386439464561938</v>
-      </c>
-      <c r="Q33" s="42">
+        <v>7.4386439464561951</v>
+      </c>
+      <c r="Q33" s="41">
         <f>SUM($H11:$H19)</f>
-        <v>1.2135725905366122</v>
-      </c>
-      <c r="R33" s="42">
+        <v>12.135725905366126</v>
+      </c>
+      <c r="R33" s="41">
         <f>SUM($H11:$H20)</f>
-        <v>1.9735604514882388</v>
-      </c>
-      <c r="S33" s="42">
+        <v>19.735604514882393</v>
+      </c>
+      <c r="S33" s="41">
         <f>SUM($H11:$H21)</f>
-        <v>3.2032208105079705</v>
-      </c>
-      <c r="T33" s="42">
+        <v>32.032208105079718</v>
+      </c>
+      <c r="T33" s="41">
         <f>SUM($H11:$H22)</f>
-        <v>5.1928112714018964</v>
-      </c>
-      <c r="U33" s="42">
+        <v>51.928112714018987</v>
+      </c>
+      <c r="U33" s="41">
         <f>SUM($H11:$H23)</f>
-        <v>8.4119686371282683</v>
-      </c>
-      <c r="V33" s="42">
+        <v>84.119686371282725</v>
+      </c>
+      <c r="V33" s="41">
         <f>SUM($H11:$H24)</f>
-        <v>13.62056525487354</v>
-      </c>
-      <c r="W33" s="42">
+        <v>136.20565254873546</v>
+      </c>
+      <c r="W33" s="41">
         <f>SUM($H11:$H25)</f>
-        <v>22.048074582385389</v>
-      </c>
-      <c r="X33" s="42">
+        <v>220.48074582385397</v>
+      </c>
+      <c r="X33" s="41">
         <f>SUM($H11:$H26)</f>
-        <v>35.683784674299567</v>
-      </c>
-      <c r="Y33" s="42">
+        <v>356.83784674299574</v>
+      </c>
+      <c r="Y33" s="41">
         <f>SUM($H11:$H27)</f>
-        <v>57.746363603016704</v>
-      </c>
-      <c r="Z33" s="42">
+        <v>577.46363603016721</v>
+      </c>
+      <c r="Z33" s="41">
         <f>SUM($H11:$H28)</f>
-        <v>93.443616309681033</v>
-      </c>
-      <c r="AA33" s="42">
+        <v>934.43616309681056</v>
+      </c>
+      <c r="AA33" s="41">
         <f>SUM($H11:$H29)</f>
-        <v>151.20177118906392</v>
-      </c>
-      <c r="AB33" s="42">
+        <v>1512.0177118906395</v>
+      </c>
+      <c r="AB33" s="41">
         <f>SUM($H11:$H30)</f>
-        <v>244.65446578390544</v>
+        <v>2446.5446578390547</v>
       </c>
     </row>
     <row r="34" spans="1:28" ht="17.399999999999999" thickBot="1">
-      <c r="A34" s="27">
+      <c r="A34" s="26">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5138,23 +5115,26 @@
       </c>
     </row>
     <row r="35" spans="1:28" ht="18" thickTop="1" thickBot="1">
-      <c r="A35" s="92" t="s">
+      <c r="A35" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="93"/>
-      <c r="C35" s="28">
-        <f ca="1">SUM(C13:C37)</f>
-        <v>48871.123362156599</v>
-      </c>
-      <c r="D35" s="29">
-        <f ca="1">MAX(D13:D37)</f>
-        <v>36</v>
+      <c r="B35" s="27">
+        <f>SUM(B13:B34)</f>
+        <v>220.48074582385397</v>
+      </c>
+      <c r="C35" s="27">
+        <f>SUM(C13:C34)</f>
+        <v>35433.777641400316</v>
+      </c>
+      <c r="D35" s="28">
+        <f>MAX(D13:D34)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="13.8" thickTop="1"/>
     <row r="38" spans="1:28" ht="13.8">
       <c r="E38" s="11"/>
-      <c r="F38" s="70"/>
+      <c r="F38" s="68"/>
       <c r="G38" s="14" t="s">
         <v>15</v>
       </c>
@@ -5220,235 +5200,239 @@
     </row>
     <row r="39" spans="1:28" ht="18">
       <c r="E39" s="11"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="68" t="s">
+      <c r="F39" s="68"/>
+      <c r="G39" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="H39" s="68"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69">
+      <c r="H39" s="66"/>
+      <c r="I39" s="67">
+        <v>0</v>
+      </c>
+      <c r="J39" s="67">
         <f>J38</f>
         <v>5</v>
       </c>
-      <c r="K39" s="69">
+      <c r="K39" s="67">
         <f>SUM($J$38:K38)</f>
         <v>10</v>
       </c>
-      <c r="L39" s="69">
+      <c r="L39" s="67">
         <f>SUM($J$38:L38)</f>
         <v>15</v>
       </c>
-      <c r="M39" s="69">
+      <c r="M39" s="67">
         <f>SUM($J$38:M38)</f>
         <v>20</v>
       </c>
-      <c r="N39" s="69">
+      <c r="N39" s="67">
         <f>SUM($J$38:N38)</f>
         <v>25</v>
       </c>
-      <c r="O39" s="69">
+      <c r="O39" s="67">
         <f>SUM($J$38:O38)</f>
         <v>30</v>
       </c>
-      <c r="P39" s="69">
+      <c r="P39" s="67">
         <f>SUM($J$38:P38)</f>
         <v>35</v>
       </c>
-      <c r="Q39" s="69">
+      <c r="Q39" s="67">
         <f>SUM($J$38:Q38)</f>
         <v>40</v>
       </c>
-      <c r="R39" s="69">
+      <c r="R39" s="67">
         <f>SUM($J$38:R38)</f>
         <v>45</v>
       </c>
-      <c r="S39" s="69">
+      <c r="S39" s="67">
         <f>SUM($J$38:S38)</f>
         <v>50</v>
       </c>
-      <c r="T39" s="69">
+      <c r="T39" s="67">
         <f>SUM($J$38:T38)</f>
         <v>55</v>
       </c>
-      <c r="U39" s="69">
+      <c r="U39" s="67">
         <f>SUM($J$38:U38)</f>
         <v>60</v>
       </c>
-      <c r="V39" s="69">
+      <c r="V39" s="67">
         <f>SUM($J$38:V38)</f>
         <v>65</v>
       </c>
-      <c r="W39" s="69">
+      <c r="W39" s="67">
         <f>SUM($J$38:W38)</f>
         <v>70</v>
       </c>
-      <c r="X39" s="69">
+      <c r="X39" s="67">
         <f>SUM($J$38:X38)</f>
         <v>75</v>
       </c>
-      <c r="Y39" s="69">
+      <c r="Y39" s="67">
         <f>SUM($J$38:Y38)</f>
         <v>80</v>
       </c>
-      <c r="Z39" s="69">
+      <c r="Z39" s="67">
         <f>SUM($J$38:Z38)</f>
         <v>85</v>
       </c>
-      <c r="AA39" s="69">
+      <c r="AA39" s="67">
         <f>SUM($J$38:AA38)</f>
         <v>90</v>
       </c>
-      <c r="AB39" s="69">
+      <c r="AB39" s="67">
         <f>SUM($J$38:AB38)</f>
         <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="13.8">
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="72"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="70"/>
       <c r="G40" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H40" s="17"/>
-      <c r="I40" s="61">
+      <c r="I40" s="59">
         <v>30</v>
       </c>
-      <c r="J40" s="61">
+      <c r="J40" s="59">
         <v>30</v>
       </c>
-      <c r="K40" s="61">
+      <c r="K40" s="59">
         <v>30</v>
       </c>
-      <c r="L40" s="61">
+      <c r="L40" s="59">
         <v>30</v>
       </c>
-      <c r="M40" s="61">
+      <c r="M40" s="59">
         <v>30</v>
       </c>
-      <c r="N40" s="61">
+      <c r="N40" s="59">
         <v>30</v>
       </c>
-      <c r="O40" s="61">
+      <c r="O40" s="59">
         <v>30</v>
       </c>
-      <c r="P40" s="61">
+      <c r="P40" s="59">
         <v>30</v>
       </c>
-      <c r="Q40" s="61">
+      <c r="Q40" s="59">
         <v>30</v>
       </c>
-      <c r="R40" s="61">
+      <c r="R40" s="59">
         <v>30</v>
       </c>
-      <c r="S40" s="73">
+      <c r="S40" s="71">
         <v>5</v>
       </c>
-      <c r="T40" s="73">
+      <c r="T40" s="71">
         <v>5</v>
       </c>
-      <c r="U40" s="73">
+      <c r="U40" s="71">
         <v>5</v>
       </c>
-      <c r="V40" s="65">
+      <c r="V40" s="63">
         <v>10</v>
       </c>
-      <c r="W40" s="65">
+      <c r="W40" s="63">
         <v>10</v>
       </c>
-      <c r="X40" s="65">
+      <c r="X40" s="63">
         <v>10</v>
       </c>
-      <c r="Y40" s="65">
+      <c r="Y40" s="63">
         <v>10</v>
       </c>
-      <c r="Z40" s="65">
+      <c r="Z40" s="63">
         <v>10</v>
       </c>
-      <c r="AA40" s="65">
+      <c r="AA40" s="63">
         <v>10</v>
       </c>
-      <c r="AB40" s="65">
-        <v>10</v>
+      <c r="AB40" s="63">
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:28" ht="18.600000000000001">
       <c r="D41" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="52">
+      <c r="E41" s="51">
         <v>1</v>
       </c>
-      <c r="F41" s="52">
+      <c r="F41" s="51">
         <v>1.3819999999999999</v>
       </c>
-      <c r="G41" s="52">
+      <c r="G41" s="51">
         <v>1.6180000000000001</v>
       </c>
-      <c r="H41" s="89"/>
-      <c r="I41" s="32">
+      <c r="H41" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="I41" s="98">
         <v>1</v>
       </c>
-      <c r="J41" s="32">
+      <c r="J41" s="98">
         <v>2</v>
       </c>
-      <c r="K41" s="32">
+      <c r="K41" s="98">
         <v>3</v>
       </c>
-      <c r="L41" s="32">
+      <c r="L41" s="98">
         <v>4</v>
       </c>
-      <c r="M41" s="32">
+      <c r="M41" s="98">
         <v>5</v>
       </c>
-      <c r="N41" s="32">
+      <c r="N41" s="98">
         <v>6</v>
       </c>
-      <c r="O41" s="32">
+      <c r="O41" s="98">
         <v>7</v>
       </c>
-      <c r="P41" s="32">
+      <c r="P41" s="98">
         <v>8</v>
       </c>
-      <c r="Q41" s="32">
+      <c r="Q41" s="98">
         <v>9</v>
       </c>
-      <c r="R41" s="32">
+      <c r="R41" s="98">
         <v>10</v>
       </c>
-      <c r="S41" s="32">
+      <c r="S41" s="98">
         <v>11</v>
       </c>
-      <c r="T41" s="32">
+      <c r="T41" s="98">
         <v>12</v>
       </c>
-      <c r="U41" s="32">
+      <c r="U41" s="98">
         <v>13</v>
       </c>
-      <c r="V41" s="32">
+      <c r="V41" s="98">
         <v>14</v>
       </c>
-      <c r="W41" s="32">
+      <c r="W41" s="98">
         <v>15</v>
       </c>
-      <c r="X41" s="32">
+      <c r="X41" s="98">
         <v>16</v>
       </c>
-      <c r="Y41" s="32">
+      <c r="Y41" s="98">
         <v>17</v>
       </c>
-      <c r="Z41" s="32">
+      <c r="Z41" s="98">
         <v>18</v>
       </c>
-      <c r="AA41" s="32">
+      <c r="AA41" s="98">
         <v>19</v>
       </c>
-      <c r="AB41" s="32">
+      <c r="AB41" s="98">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="13.8">
-      <c r="D42" s="61" t="s">
+      <c r="D42" s="59" t="s">
         <v>34</v>
       </c>
       <c r="E42" s="18">
@@ -5462,92 +5446,92 @@
         <f>E42</f>
         <v>0.01</v>
       </c>
-      <c r="H42" s="62">
+      <c r="H42" s="60">
         <v>0.01</v>
       </c>
-      <c r="I42" s="77">
+      <c r="I42" s="73">
         <f>H42*I40*100</f>
         <v>30</v>
       </c>
-      <c r="J42" s="78">
-        <f t="shared" ref="J42:AB42" si="45">$H$42*(J40-J39)*100</f>
-        <v>25</v>
-      </c>
-      <c r="K42" s="78">
-        <f t="shared" si="45"/>
-        <v>20</v>
-      </c>
-      <c r="L42" s="78">
-        <f t="shared" si="45"/>
-        <v>15</v>
-      </c>
-      <c r="M42" s="78">
-        <f t="shared" si="45"/>
-        <v>10</v>
-      </c>
-      <c r="N42" s="78">
-        <f t="shared" si="45"/>
-        <v>5</v>
-      </c>
-      <c r="O42" s="78">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="78">
-        <f t="shared" si="45"/>
+      <c r="J42" s="74">
+        <f>$H$42*($I$39-J$39)*100</f>
         <v>-5</v>
       </c>
-      <c r="Q42" s="78">
-        <f t="shared" si="45"/>
+      <c r="K42" s="74">
+        <f t="shared" ref="K42:AB42" si="45">$H$42*($I$39-K$39)*100</f>
         <v>-10</v>
       </c>
-      <c r="R42" s="79">
+      <c r="L42" s="74">
         <f t="shared" si="45"/>
         <v>-15</v>
       </c>
-      <c r="S42" s="74">
+      <c r="M42" s="74">
+        <f t="shared" si="45"/>
+        <v>-20</v>
+      </c>
+      <c r="N42" s="74">
+        <f t="shared" si="45"/>
+        <v>-25</v>
+      </c>
+      <c r="O42" s="74">
+        <f t="shared" si="45"/>
+        <v>-30</v>
+      </c>
+      <c r="P42" s="74">
+        <f t="shared" si="45"/>
+        <v>-35</v>
+      </c>
+      <c r="Q42" s="74">
+        <f t="shared" si="45"/>
+        <v>-40</v>
+      </c>
+      <c r="R42" s="74">
         <f t="shared" si="45"/>
         <v>-45</v>
       </c>
-      <c r="T42" s="54">
+      <c r="S42" s="97">
         <f t="shared" si="45"/>
         <v>-50</v>
       </c>
-      <c r="U42" s="54">
+      <c r="T42" s="97">
         <f t="shared" si="45"/>
         <v>-55.000000000000007</v>
       </c>
-      <c r="V42" s="54">
-        <f t="shared" si="45"/>
-        <v>-55.000000000000007</v>
-      </c>
-      <c r="W42" s="55">
+      <c r="U42" s="97">
         <f t="shared" si="45"/>
         <v>-60</v>
       </c>
-      <c r="X42" s="55">
+      <c r="V42" s="97">
         <f t="shared" si="45"/>
         <v>-65</v>
       </c>
-      <c r="Y42" s="55">
+      <c r="W42" s="97">
         <f t="shared" si="45"/>
         <v>-70</v>
       </c>
-      <c r="Z42" s="55">
+      <c r="X42" s="97">
         <f t="shared" si="45"/>
         <v>-75</v>
       </c>
-      <c r="AA42" s="55">
+      <c r="Y42" s="97">
         <f t="shared" si="45"/>
         <v>-80</v>
       </c>
-      <c r="AB42" s="55">
+      <c r="Z42" s="97">
         <f t="shared" si="45"/>
         <v>-85</v>
       </c>
+      <c r="AA42" s="97">
+        <f t="shared" si="45"/>
+        <v>-90</v>
+      </c>
+      <c r="AB42" s="97">
+        <f t="shared" si="45"/>
+        <v>-95</v>
+      </c>
     </row>
     <row r="43" spans="1:28" ht="13.8">
-      <c r="D43" s="61" t="s">
+      <c r="D43" s="59" t="s">
         <v>35</v>
       </c>
       <c r="E43" s="19">
@@ -5562,89 +5546,89 @@
         <f t="shared" ref="G43:G61" si="48">G42*$G$41</f>
         <v>1.618E-2</v>
       </c>
-      <c r="H43" s="63">
+      <c r="H43" s="61">
         <v>0.01</v>
       </c>
-      <c r="I43" s="80"/>
-      <c r="J43" s="81">
+      <c r="I43" s="75"/>
+      <c r="J43" s="76">
         <f>H43*J40*100</f>
         <v>30</v>
       </c>
-      <c r="K43" s="81">
-        <f>$H$43*(K40-(K39-J39))*100</f>
-        <v>25</v>
-      </c>
-      <c r="L43" s="81">
-        <f t="shared" ref="L43:AB43" si="49">$H$43*100*(L40-(L39-$J$39))</f>
-        <v>20</v>
-      </c>
-      <c r="M43" s="81">
+      <c r="K43" s="74">
+        <f>$H$43*($J$39-K$39)*100</f>
+        <v>-5</v>
+      </c>
+      <c r="L43" s="74">
+        <f t="shared" ref="L43:AB43" si="49">$H$43*($J$39-L$39)*100</f>
+        <v>-10</v>
+      </c>
+      <c r="M43" s="74">
         <f t="shared" si="49"/>
-        <v>15</v>
-      </c>
-      <c r="N43" s="81">
+        <v>-15</v>
+      </c>
+      <c r="N43" s="74">
         <f t="shared" si="49"/>
-        <v>10</v>
-      </c>
-      <c r="O43" s="81">
+        <v>-20</v>
+      </c>
+      <c r="O43" s="74">
         <f t="shared" si="49"/>
-        <v>5</v>
-      </c>
-      <c r="P43" s="81">
+        <v>-25</v>
+      </c>
+      <c r="P43" s="74">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="81">
+        <v>-30</v>
+      </c>
+      <c r="Q43" s="74">
         <f t="shared" si="49"/>
-        <v>-5</v>
-      </c>
-      <c r="R43" s="82">
-        <f t="shared" si="49"/>
-        <v>-10</v>
-      </c>
-      <c r="S43" s="75">
+        <v>-35</v>
+      </c>
+      <c r="R43" s="74">
         <f t="shared" si="49"/>
         <v>-40</v>
       </c>
-      <c r="T43" s="20">
+      <c r="S43" s="97">
         <f t="shared" si="49"/>
         <v>-45</v>
       </c>
-      <c r="U43" s="20">
+      <c r="T43" s="97">
         <f t="shared" si="49"/>
         <v>-50</v>
       </c>
-      <c r="V43" s="20">
+      <c r="U43" s="97">
         <f t="shared" si="49"/>
-        <v>-50</v>
-      </c>
-      <c r="W43" s="57">
-        <f t="shared" si="49"/>
-        <v>-55</v>
-      </c>
-      <c r="X43" s="57">
+        <v>-55.000000000000007</v>
+      </c>
+      <c r="V43" s="97">
         <f t="shared" si="49"/>
         <v>-60</v>
       </c>
-      <c r="Y43" s="57">
+      <c r="W43" s="97">
         <f t="shared" si="49"/>
         <v>-65</v>
       </c>
-      <c r="Z43" s="57">
+      <c r="X43" s="97">
         <f t="shared" si="49"/>
         <v>-70</v>
       </c>
-      <c r="AA43" s="57">
+      <c r="Y43" s="97">
         <f t="shared" si="49"/>
         <v>-75</v>
       </c>
-      <c r="AB43" s="57">
+      <c r="Z43" s="97">
         <f t="shared" si="49"/>
         <v>-80</v>
       </c>
+      <c r="AA43" s="97">
+        <f t="shared" si="49"/>
+        <v>-85</v>
+      </c>
+      <c r="AB43" s="97">
+        <f t="shared" si="49"/>
+        <v>-90</v>
+      </c>
     </row>
     <row r="44" spans="1:28" ht="13.8">
-      <c r="D44" s="61" t="s">
+      <c r="D44" s="59" t="s">
         <v>36</v>
       </c>
       <c r="E44" s="19">
@@ -5659,86 +5643,86 @@
         <f t="shared" si="48"/>
         <v>2.6179240000000003E-2</v>
       </c>
-      <c r="H44" s="63">
+      <c r="H44" s="61">
         <v>0.01</v>
       </c>
-      <c r="I44" s="80"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81">
+      <c r="I44" s="75"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76">
         <f>H44*K40*100</f>
         <v>30</v>
       </c>
-      <c r="L44" s="81">
-        <f t="shared" ref="L44:AB44" si="50">$H$44*100*(L40 -(L39-$K$39))</f>
-        <v>25</v>
-      </c>
-      <c r="M44" s="81">
+      <c r="L44" s="74">
+        <f>$H$44*($K$39-L$39)*100</f>
+        <v>-5</v>
+      </c>
+      <c r="M44" s="74">
+        <f t="shared" ref="M44:AB44" si="50">$H$44*($K$39-M$39)*100</f>
+        <v>-10</v>
+      </c>
+      <c r="N44" s="74">
         <f t="shared" si="50"/>
-        <v>20</v>
-      </c>
-      <c r="N44" s="81">
+        <v>-15</v>
+      </c>
+      <c r="O44" s="74">
         <f t="shared" si="50"/>
-        <v>15</v>
-      </c>
-      <c r="O44" s="81">
+        <v>-20</v>
+      </c>
+      <c r="P44" s="74">
         <f t="shared" si="50"/>
-        <v>10</v>
-      </c>
-      <c r="P44" s="81">
+        <v>-25</v>
+      </c>
+      <c r="Q44" s="74">
         <f t="shared" si="50"/>
-        <v>5</v>
-      </c>
-      <c r="Q44" s="81">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="82">
-        <f t="shared" si="50"/>
-        <v>-5</v>
-      </c>
-      <c r="S44" s="75">
+        <v>-30</v>
+      </c>
+      <c r="R44" s="74">
         <f t="shared" si="50"/>
         <v>-35</v>
       </c>
-      <c r="T44" s="20">
+      <c r="S44" s="97">
         <f t="shared" si="50"/>
         <v>-40</v>
       </c>
-      <c r="U44" s="20">
+      <c r="T44" s="97">
         <f t="shared" si="50"/>
         <v>-45</v>
       </c>
-      <c r="V44" s="20">
-        <f t="shared" si="50"/>
-        <v>-45</v>
-      </c>
-      <c r="W44" s="57">
+      <c r="U44" s="97">
         <f t="shared" si="50"/>
         <v>-50</v>
       </c>
-      <c r="X44" s="57">
+      <c r="V44" s="97">
         <f t="shared" si="50"/>
-        <v>-55</v>
-      </c>
-      <c r="Y44" s="57">
+        <v>-55.000000000000007</v>
+      </c>
+      <c r="W44" s="97">
         <f t="shared" si="50"/>
         <v>-60</v>
       </c>
-      <c r="Z44" s="57">
+      <c r="X44" s="97">
         <f t="shared" si="50"/>
         <v>-65</v>
       </c>
-      <c r="AA44" s="57">
+      <c r="Y44" s="97">
         <f t="shared" si="50"/>
         <v>-70</v>
       </c>
-      <c r="AB44" s="57">
+      <c r="Z44" s="97">
         <f t="shared" si="50"/>
         <v>-75</v>
       </c>
+      <c r="AA44" s="97">
+        <f t="shared" si="50"/>
+        <v>-80</v>
+      </c>
+      <c r="AB44" s="97">
+        <f t="shared" si="50"/>
+        <v>-85</v>
+      </c>
     </row>
     <row r="45" spans="1:28" ht="13.8">
-      <c r="D45" s="61" t="s">
+      <c r="D45" s="59" t="s">
         <v>37</v>
       </c>
       <c r="E45" s="19">
@@ -5753,83 +5737,83 @@
         <f t="shared" si="48"/>
         <v>4.2358010320000007E-2</v>
       </c>
-      <c r="H45" s="63">
+      <c r="H45" s="61">
         <v>0.01</v>
       </c>
-      <c r="I45" s="80"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81">
+      <c r="I45" s="75"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76">
         <f>H45*L40*100</f>
         <v>30</v>
       </c>
-      <c r="M45" s="81">
-        <f t="shared" ref="M45:AB45" si="51">$H$45*(M40-(M39-$L$39))*100</f>
-        <v>25</v>
-      </c>
-      <c r="N45" s="81">
+      <c r="M45" s="74">
+        <f>$H$45*($L$39-M$39)*100</f>
+        <v>-5</v>
+      </c>
+      <c r="N45" s="74">
+        <f t="shared" ref="N45:AB45" si="51">$H$45*($L$39-N$39)*100</f>
+        <v>-10</v>
+      </c>
+      <c r="O45" s="74">
         <f t="shared" si="51"/>
-        <v>20</v>
-      </c>
-      <c r="O45" s="81">
+        <v>-15</v>
+      </c>
+      <c r="P45" s="74">
         <f t="shared" si="51"/>
-        <v>15</v>
-      </c>
-      <c r="P45" s="81">
+        <v>-20</v>
+      </c>
+      <c r="Q45" s="74">
         <f t="shared" si="51"/>
-        <v>10</v>
-      </c>
-      <c r="Q45" s="81">
-        <f t="shared" si="51"/>
-        <v>5</v>
-      </c>
-      <c r="R45" s="82">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="S45" s="75">
+        <v>-25</v>
+      </c>
+      <c r="R45" s="74">
         <f t="shared" si="51"/>
         <v>-30</v>
       </c>
-      <c r="T45" s="20">
+      <c r="S45" s="74">
         <f t="shared" si="51"/>
         <v>-35</v>
       </c>
-      <c r="U45" s="20">
+      <c r="T45" s="74">
         <f t="shared" si="51"/>
         <v>-40</v>
       </c>
-      <c r="V45" s="20">
-        <f t="shared" si="51"/>
-        <v>-40</v>
-      </c>
-      <c r="W45" s="57">
+      <c r="U45" s="74">
         <f t="shared" si="51"/>
         <v>-45</v>
       </c>
-      <c r="X45" s="57">
+      <c r="V45" s="74">
         <f t="shared" si="51"/>
         <v>-50</v>
       </c>
-      <c r="Y45" s="57">
+      <c r="W45" s="74">
         <f t="shared" si="51"/>
         <v>-55.000000000000007</v>
       </c>
-      <c r="Z45" s="57">
+      <c r="X45" s="74">
         <f t="shared" si="51"/>
         <v>-60</v>
       </c>
-      <c r="AA45" s="57">
+      <c r="Y45" s="74">
         <f t="shared" si="51"/>
         <v>-65</v>
       </c>
-      <c r="AB45" s="57">
+      <c r="Z45" s="74">
         <f t="shared" si="51"/>
         <v>-70</v>
       </c>
+      <c r="AA45" s="74">
+        <f t="shared" si="51"/>
+        <v>-75</v>
+      </c>
+      <c r="AB45" s="74">
+        <f t="shared" si="51"/>
+        <v>-80</v>
+      </c>
     </row>
     <row r="46" spans="1:28" ht="13.8">
-      <c r="D46" s="61" t="s">
+      <c r="D46" s="59" t="s">
         <v>38</v>
       </c>
       <c r="E46" s="19">
@@ -5844,80 +5828,80 @@
         <f t="shared" si="48"/>
         <v>6.8535260697760017E-2</v>
       </c>
-      <c r="H46" s="63">
+      <c r="H46" s="61">
         <v>0.01</v>
       </c>
-      <c r="I46" s="80"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81">
+      <c r="I46" s="75"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="76">
         <f>H46*M40*100</f>
         <v>30</v>
       </c>
-      <c r="N46" s="81">
-        <f t="shared" ref="N46:AB46" si="52">$H$46*(N40-(N39-$M$39))*100</f>
-        <v>25</v>
-      </c>
-      <c r="O46" s="81">
+      <c r="N46" s="74">
+        <f>$H$46*($M$39-N$39)*100</f>
+        <v>-5</v>
+      </c>
+      <c r="O46" s="74">
+        <f t="shared" ref="O46:AB46" si="52">$H$46*($M$39-O$39)*100</f>
+        <v>-10</v>
+      </c>
+      <c r="P46" s="74">
         <f t="shared" si="52"/>
-        <v>20</v>
-      </c>
-      <c r="P46" s="81">
+        <v>-15</v>
+      </c>
+      <c r="Q46" s="74">
         <f t="shared" si="52"/>
-        <v>15</v>
-      </c>
-      <c r="Q46" s="81">
-        <f t="shared" si="52"/>
-        <v>10</v>
-      </c>
-      <c r="R46" s="82">
-        <f t="shared" si="52"/>
-        <v>5</v>
-      </c>
-      <c r="S46" s="75">
+        <v>-20</v>
+      </c>
+      <c r="R46" s="74">
         <f t="shared" si="52"/>
         <v>-25</v>
       </c>
-      <c r="T46" s="20">
+      <c r="S46" s="74">
         <f t="shared" si="52"/>
         <v>-30</v>
       </c>
-      <c r="U46" s="20">
+      <c r="T46" s="74">
         <f t="shared" si="52"/>
         <v>-35</v>
       </c>
-      <c r="V46" s="20">
-        <f t="shared" si="52"/>
-        <v>-35</v>
-      </c>
-      <c r="W46" s="57">
+      <c r="U46" s="74">
         <f t="shared" si="52"/>
         <v>-40</v>
       </c>
-      <c r="X46" s="57">
+      <c r="V46" s="74">
         <f t="shared" si="52"/>
         <v>-45</v>
       </c>
-      <c r="Y46" s="57">
+      <c r="W46" s="74">
         <f t="shared" si="52"/>
         <v>-50</v>
       </c>
-      <c r="Z46" s="57">
+      <c r="X46" s="74">
         <f t="shared" si="52"/>
         <v>-55.000000000000007</v>
       </c>
-      <c r="AA46" s="57">
+      <c r="Y46" s="74">
         <f t="shared" si="52"/>
         <v>-60</v>
       </c>
-      <c r="AB46" s="57">
+      <c r="Z46" s="74">
         <f t="shared" si="52"/>
         <v>-65</v>
       </c>
+      <c r="AA46" s="74">
+        <f t="shared" si="52"/>
+        <v>-70</v>
+      </c>
+      <c r="AB46" s="74">
+        <f t="shared" si="52"/>
+        <v>-75</v>
+      </c>
     </row>
     <row r="47" spans="1:28" ht="13.8">
-      <c r="D47" s="61" t="s">
+      <c r="D47" s="59" t="s">
         <v>39</v>
       </c>
       <c r="E47" s="19">
@@ -5932,77 +5916,77 @@
         <f t="shared" si="48"/>
         <v>0.11089005180897571</v>
       </c>
-      <c r="H47" s="63">
+      <c r="H47" s="61">
         <v>0.01</v>
       </c>
-      <c r="I47" s="80"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="81">
+      <c r="I47" s="75"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="76"/>
+      <c r="N47" s="76">
         <f>H47*N40*100</f>
         <v>30</v>
       </c>
-      <c r="O47" s="81">
-        <f t="shared" ref="O47:AB47" si="53">$H$47*(O40-(O39-$N$39))*100</f>
-        <v>25</v>
-      </c>
-      <c r="P47" s="81">
+      <c r="O47" s="74">
+        <f>$H$47*($N$39-O$39)*100</f>
+        <v>-5</v>
+      </c>
+      <c r="P47" s="74">
+        <f t="shared" ref="P47:AB47" si="53">$H$47*($N$39-P$39)*100</f>
+        <v>-10</v>
+      </c>
+      <c r="Q47" s="74">
         <f t="shared" si="53"/>
-        <v>20</v>
-      </c>
-      <c r="Q47" s="81">
-        <f t="shared" si="53"/>
-        <v>15</v>
-      </c>
-      <c r="R47" s="82">
-        <f t="shared" si="53"/>
-        <v>10</v>
-      </c>
-      <c r="S47" s="75">
+        <v>-15</v>
+      </c>
+      <c r="R47" s="74">
         <f t="shared" si="53"/>
         <v>-20</v>
       </c>
-      <c r="T47" s="20">
+      <c r="S47" s="74">
         <f t="shared" si="53"/>
         <v>-25</v>
       </c>
-      <c r="U47" s="20">
+      <c r="T47" s="74">
         <f t="shared" si="53"/>
         <v>-30</v>
       </c>
-      <c r="V47" s="20">
-        <f t="shared" si="53"/>
-        <v>-30</v>
-      </c>
-      <c r="W47" s="57">
+      <c r="U47" s="74">
         <f t="shared" si="53"/>
         <v>-35</v>
       </c>
-      <c r="X47" s="57">
+      <c r="V47" s="74">
         <f t="shared" si="53"/>
         <v>-40</v>
       </c>
-      <c r="Y47" s="57">
+      <c r="W47" s="74">
         <f t="shared" si="53"/>
         <v>-45</v>
       </c>
-      <c r="Z47" s="57">
+      <c r="X47" s="74">
         <f t="shared" si="53"/>
         <v>-50</v>
       </c>
-      <c r="AA47" s="57">
+      <c r="Y47" s="74">
         <f t="shared" si="53"/>
         <v>-55.000000000000007</v>
       </c>
-      <c r="AB47" s="57">
+      <c r="Z47" s="74">
         <f t="shared" si="53"/>
         <v>-60</v>
       </c>
+      <c r="AA47" s="74">
+        <f t="shared" si="53"/>
+        <v>-65</v>
+      </c>
+      <c r="AB47" s="74">
+        <f t="shared" si="53"/>
+        <v>-70</v>
+      </c>
     </row>
     <row r="48" spans="1:28" ht="13.8">
-      <c r="D48" s="61" t="s">
+      <c r="D48" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E48" s="19">
@@ -6017,74 +6001,74 @@
         <f t="shared" si="48"/>
         <v>0.17942010382692272</v>
       </c>
-      <c r="H48" s="63">
+      <c r="H48" s="61">
         <v>0.01</v>
       </c>
-      <c r="I48" s="80"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="81">
+      <c r="I48" s="75"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="76"/>
+      <c r="N48" s="76"/>
+      <c r="O48" s="76">
         <f>H48*O40*100</f>
         <v>30</v>
       </c>
-      <c r="P48" s="81">
-        <f t="shared" ref="P48:AB48" si="54">$H$48*(P40-(P39-$O$39))*100</f>
-        <v>25</v>
-      </c>
-      <c r="Q48" s="81">
-        <f t="shared" si="54"/>
-        <v>20</v>
-      </c>
-      <c r="R48" s="82">
-        <f t="shared" si="54"/>
-        <v>15</v>
-      </c>
-      <c r="S48" s="75">
+      <c r="P48" s="74">
+        <f>$H$48*($O$39-P$39)*100</f>
+        <v>-5</v>
+      </c>
+      <c r="Q48" s="74">
+        <f t="shared" ref="Q48:AB48" si="54">$H$48*($O$39-Q$39)*100</f>
+        <v>-10</v>
+      </c>
+      <c r="R48" s="74">
         <f t="shared" si="54"/>
         <v>-15</v>
       </c>
-      <c r="T48" s="20">
+      <c r="S48" s="74">
         <f t="shared" si="54"/>
         <v>-20</v>
       </c>
-      <c r="U48" s="20">
+      <c r="T48" s="74">
         <f t="shared" si="54"/>
         <v>-25</v>
       </c>
-      <c r="V48" s="20">
-        <f t="shared" si="54"/>
-        <v>-25</v>
-      </c>
-      <c r="W48" s="57">
+      <c r="U48" s="74">
         <f t="shared" si="54"/>
         <v>-30</v>
       </c>
-      <c r="X48" s="57">
+      <c r="V48" s="74">
         <f t="shared" si="54"/>
         <v>-35</v>
       </c>
-      <c r="Y48" s="57">
+      <c r="W48" s="74">
         <f t="shared" si="54"/>
         <v>-40</v>
       </c>
-      <c r="Z48" s="57">
+      <c r="X48" s="74">
         <f t="shared" si="54"/>
         <v>-45</v>
       </c>
-      <c r="AA48" s="57">
+      <c r="Y48" s="74">
         <f t="shared" si="54"/>
         <v>-50</v>
       </c>
-      <c r="AB48" s="57">
+      <c r="Z48" s="74">
         <f t="shared" si="54"/>
         <v>-55.000000000000007</v>
       </c>
+      <c r="AA48" s="74">
+        <f t="shared" si="54"/>
+        <v>-60</v>
+      </c>
+      <c r="AB48" s="74">
+        <f t="shared" si="54"/>
+        <v>-65</v>
+      </c>
     </row>
     <row r="49" spans="4:28" ht="13.8">
-      <c r="D49" s="61" t="s">
+      <c r="D49" s="59" t="s">
         <v>41</v>
       </c>
       <c r="E49" s="19">
@@ -6099,71 +6083,71 @@
         <f t="shared" si="48"/>
         <v>0.29030172799196097</v>
       </c>
-      <c r="H49" s="63">
+      <c r="H49" s="61">
         <v>0.01</v>
       </c>
-      <c r="I49" s="80"/>
-      <c r="J49" s="81"/>
-      <c r="K49" s="81"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="81"/>
-      <c r="N49" s="81"/>
-      <c r="O49" s="81"/>
-      <c r="P49" s="81">
+      <c r="I49" s="75"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="76"/>
+      <c r="O49" s="76"/>
+      <c r="P49" s="76">
         <f>H49*P40*100</f>
         <v>30</v>
       </c>
-      <c r="Q49" s="81">
-        <f t="shared" ref="Q49:AB49" si="55">$H$49*(Q40-(Q39-$P$39))*100</f>
-        <v>25</v>
-      </c>
-      <c r="R49" s="82">
-        <f t="shared" si="55"/>
-        <v>20</v>
-      </c>
-      <c r="S49" s="75">
-        <f t="shared" si="55"/>
+      <c r="Q49" s="74">
+        <f>$H$49*($P$39-Q$39)*100</f>
+        <v>-5</v>
+      </c>
+      <c r="R49" s="74">
+        <f t="shared" ref="R49:AB49" si="55">$H$49*($P$39-R$39)*100</f>
         <v>-10</v>
       </c>
-      <c r="T49" s="20">
+      <c r="S49" s="74">
         <f t="shared" si="55"/>
         <v>-15</v>
       </c>
-      <c r="U49" s="20">
+      <c r="T49" s="74">
         <f t="shared" si="55"/>
         <v>-20</v>
       </c>
-      <c r="V49" s="20">
-        <f t="shared" si="55"/>
-        <v>-20</v>
-      </c>
-      <c r="W49" s="57">
+      <c r="U49" s="74">
         <f t="shared" si="55"/>
         <v>-25</v>
       </c>
-      <c r="X49" s="57">
+      <c r="V49" s="74">
         <f t="shared" si="55"/>
         <v>-30</v>
       </c>
-      <c r="Y49" s="57">
+      <c r="W49" s="74">
         <f t="shared" si="55"/>
         <v>-35</v>
       </c>
-      <c r="Z49" s="57">
+      <c r="X49" s="74">
         <f t="shared" si="55"/>
         <v>-40</v>
       </c>
-      <c r="AA49" s="57">
+      <c r="Y49" s="74">
         <f t="shared" si="55"/>
         <v>-45</v>
       </c>
-      <c r="AB49" s="57">
+      <c r="Z49" s="74">
         <f t="shared" si="55"/>
         <v>-50</v>
       </c>
+      <c r="AA49" s="74">
+        <f t="shared" si="55"/>
+        <v>-55.000000000000007</v>
+      </c>
+      <c r="AB49" s="74">
+        <f t="shared" si="55"/>
+        <v>-60</v>
+      </c>
     </row>
     <row r="50" spans="4:28" ht="13.8">
-      <c r="D50" s="61" t="s">
+      <c r="D50" s="59" t="s">
         <v>42</v>
       </c>
       <c r="E50" s="19">
@@ -6178,68 +6162,68 @@
         <f t="shared" si="48"/>
         <v>0.46970819589099289</v>
       </c>
-      <c r="H50" s="63">
+      <c r="H50" s="61">
         <v>0.01</v>
       </c>
-      <c r="I50" s="80"/>
-      <c r="J50" s="81"/>
-      <c r="K50" s="81"/>
-      <c r="L50" s="81"/>
-      <c r="M50" s="81"/>
-      <c r="N50" s="81"/>
-      <c r="O50" s="81"/>
-      <c r="P50" s="81"/>
-      <c r="Q50" s="81">
+      <c r="I50" s="75"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="76"/>
+      <c r="P50" s="76"/>
+      <c r="Q50" s="76">
         <f>H50*Q40*100</f>
         <v>30</v>
       </c>
-      <c r="R50" s="82">
-        <f t="shared" ref="R50:AB50" si="56">$H$50*(R40-(R39-$Q$39))*100</f>
-        <v>25</v>
-      </c>
-      <c r="S50" s="75">
-        <f t="shared" si="56"/>
+      <c r="R50" s="74">
+        <f>$H$50*($Q$39-R$39)*100</f>
         <v>-5</v>
       </c>
-      <c r="T50" s="20">
-        <f t="shared" si="56"/>
+      <c r="S50" s="74">
+        <f t="shared" ref="S50:AB50" si="56">$H$50*($Q$39-S$39)*100</f>
         <v>-10</v>
       </c>
-      <c r="U50" s="20">
+      <c r="T50" s="74">
         <f t="shared" si="56"/>
         <v>-15</v>
       </c>
-      <c r="V50" s="20">
-        <f t="shared" si="56"/>
-        <v>-15</v>
-      </c>
-      <c r="W50" s="57">
+      <c r="U50" s="74">
         <f t="shared" si="56"/>
         <v>-20</v>
       </c>
-      <c r="X50" s="57">
+      <c r="V50" s="74">
         <f t="shared" si="56"/>
         <v>-25</v>
       </c>
-      <c r="Y50" s="57">
+      <c r="W50" s="74">
         <f t="shared" si="56"/>
         <v>-30</v>
       </c>
-      <c r="Z50" s="57">
+      <c r="X50" s="74">
         <f t="shared" si="56"/>
         <v>-35</v>
       </c>
-      <c r="AA50" s="57">
+      <c r="Y50" s="74">
         <f t="shared" si="56"/>
         <v>-40</v>
       </c>
-      <c r="AB50" s="57">
+      <c r="Z50" s="74">
         <f t="shared" si="56"/>
         <v>-45</v>
       </c>
+      <c r="AA50" s="74">
+        <f t="shared" si="56"/>
+        <v>-50</v>
+      </c>
+      <c r="AB50" s="74">
+        <f t="shared" si="56"/>
+        <v>-55.000000000000007</v>
+      </c>
     </row>
     <row r="51" spans="4:28" ht="13.8">
-      <c r="D51" s="61" t="s">
+      <c r="D51" s="59" t="s">
         <v>43</v>
       </c>
       <c r="E51" s="19">
@@ -6254,65 +6238,65 @@
         <f t="shared" si="48"/>
         <v>0.75998786095162651</v>
       </c>
-      <c r="H51" s="63">
+      <c r="H51" s="61">
         <v>0.01</v>
       </c>
-      <c r="I51" s="83"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="85">
+      <c r="I51" s="77"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="78"/>
+      <c r="M51" s="78"/>
+      <c r="N51" s="78"/>
+      <c r="O51" s="78"/>
+      <c r="P51" s="78"/>
+      <c r="Q51" s="78"/>
+      <c r="R51" s="79">
         <f>H51*R40*100</f>
         <v>30</v>
       </c>
-      <c r="S51" s="76">
-        <f>$H$51*(S40-(S39-$R$39))*100</f>
-        <v>0</v>
-      </c>
-      <c r="T51" s="21">
-        <f>$H$51*(T40-(T39-$R$39))*100</f>
+      <c r="S51" s="74">
+        <f>$H$51*($R$39-S$39)*100</f>
         <v>-5</v>
       </c>
-      <c r="U51" s="21">
-        <f>$H$51*(U40-(U39-$R$39))*100</f>
+      <c r="T51" s="74">
+        <f t="shared" ref="T51:AB51" si="57">$H$51*($R$39-T$39)*100</f>
         <v>-10</v>
       </c>
-      <c r="V51" s="21">
-        <f>$H$51*(V40-(V39-$R$39))*100</f>
-        <v>-10</v>
-      </c>
-      <c r="W51" s="58">
-        <f>$H$51*(W40-(W39-$R$39))*100</f>
+      <c r="U51" s="74">
+        <f t="shared" si="57"/>
         <v>-15</v>
       </c>
-      <c r="X51" s="58">
-        <f t="shared" ref="X51:AB51" si="57">$H$51*(X40-(X39-$R$39))*100</f>
+      <c r="V51" s="74">
+        <f t="shared" si="57"/>
         <v>-20</v>
       </c>
-      <c r="Y51" s="58">
+      <c r="W51" s="74">
         <f t="shared" si="57"/>
         <v>-25</v>
       </c>
-      <c r="Z51" s="58">
+      <c r="X51" s="74">
         <f t="shared" si="57"/>
         <v>-30</v>
       </c>
-      <c r="AA51" s="58">
+      <c r="Y51" s="74">
         <f t="shared" si="57"/>
         <v>-35</v>
       </c>
-      <c r="AB51" s="58">
+      <c r="Z51" s="74">
         <f t="shared" si="57"/>
         <v>-40</v>
       </c>
+      <c r="AA51" s="74">
+        <f t="shared" si="57"/>
+        <v>-45</v>
+      </c>
+      <c r="AB51" s="74">
+        <f t="shared" si="57"/>
+        <v>-50</v>
+      </c>
     </row>
     <row r="52" spans="4:28" ht="13.8">
-      <c r="D52" s="64" t="s">
+      <c r="D52" s="62" t="s">
         <v>44</v>
       </c>
       <c r="E52" s="19">
@@ -6327,62 +6311,62 @@
         <f t="shared" si="48"/>
         <v>1.2296603590197317</v>
       </c>
-      <c r="H52" s="66">
+      <c r="H52" s="64">
         <v>0.46970819589099289</v>
       </c>
-      <c r="I52" s="60"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53"/>
-      <c r="R52" s="55"/>
-      <c r="S52" s="103">
+      <c r="I52" s="58"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52"/>
+      <c r="R52" s="53"/>
+      <c r="S52" s="90">
         <f>H52*S40*100</f>
         <v>234.85409794549645</v>
       </c>
-      <c r="T52" s="54">
-        <f>$H$52*(T40-(T39-$S$39))*100</f>
-        <v>0</v>
-      </c>
-      <c r="U52" s="54">
-        <f>$H$52*(U40-(U39-$S$39))*100</f>
+      <c r="T52" s="74">
+        <f>$H$52*($S$39-T$39)*100</f>
         <v>-234.85409794549645</v>
       </c>
-      <c r="V52" s="54">
-        <f>$H$52*(V40-(V39-$S$39))*100</f>
-        <v>-234.85409794549645</v>
-      </c>
-      <c r="W52" s="55">
-        <f>$H$52*(W40-(W39-$S$39))*100</f>
+      <c r="U52" s="74">
+        <f t="shared" ref="U52:AB52" si="58">$H$52*($S$39-U$39)*100</f>
         <v>-469.7081958909929</v>
       </c>
-      <c r="X52" s="55">
-        <f t="shared" ref="X52:AB52" si="58">$H$52*(X40-(X39-$S$39))*100</f>
+      <c r="V52" s="74">
+        <f t="shared" si="58"/>
         <v>-704.56229383648929</v>
       </c>
-      <c r="Y52" s="55">
+      <c r="W52" s="74">
         <f t="shared" si="58"/>
         <v>-939.41639178198579</v>
       </c>
-      <c r="Z52" s="55">
+      <c r="X52" s="74">
         <f t="shared" si="58"/>
         <v>-1174.2704897274821</v>
       </c>
-      <c r="AA52" s="55">
+      <c r="Y52" s="74">
         <f t="shared" si="58"/>
         <v>-1409.1245876729786</v>
       </c>
-      <c r="AB52" s="55">
+      <c r="Z52" s="74">
         <f t="shared" si="58"/>
         <v>-1643.9786856184749</v>
       </c>
+      <c r="AA52" s="74">
+        <f t="shared" si="58"/>
+        <v>-1878.8327835639716</v>
+      </c>
+      <c r="AB52" s="74">
+        <f t="shared" si="58"/>
+        <v>-2113.6868815094681</v>
+      </c>
     </row>
     <row r="53" spans="4:28" ht="13.8">
-      <c r="D53" s="65" t="s">
+      <c r="D53" s="63" t="s">
         <v>45</v>
       </c>
       <c r="E53" s="19">
@@ -6397,10 +6381,10 @@
         <f t="shared" si="48"/>
         <v>1.9895904608939261</v>
       </c>
-      <c r="H53" s="67">
+      <c r="H53" s="65">
         <v>0.75998786095162651</v>
       </c>
-      <c r="I53" s="56"/>
+      <c r="I53" s="54"/>
       <c r="J53" s="20"/>
       <c r="K53" s="20"/>
       <c r="L53" s="20"/>
@@ -6409,47 +6393,47 @@
       <c r="O53" s="20"/>
       <c r="P53" s="20"/>
       <c r="Q53" s="20"/>
-      <c r="R53" s="57"/>
-      <c r="S53" s="75"/>
-      <c r="T53" s="86">
+      <c r="R53" s="55"/>
+      <c r="S53" s="72"/>
+      <c r="T53" s="80">
         <f>H53*T40*100</f>
         <v>379.99393047581327</v>
       </c>
-      <c r="U53" s="20">
-        <f>$H$53*(U40-(U39-$T$39))*100</f>
-        <v>0</v>
-      </c>
-      <c r="V53" s="20">
-        <f>$H$53*(V40-(V39-$T$39))*100</f>
-        <v>0</v>
-      </c>
-      <c r="W53" s="57">
-        <f>$H$53*(W40-(W39-$T$39))*100</f>
+      <c r="U53" s="74">
+        <f>$H$53*($T$39-U$39)*100</f>
         <v>-379.99393047581327</v>
       </c>
-      <c r="X53" s="57">
-        <f t="shared" ref="X53:AB53" si="59">$H$53*(X40-(X39-$T$39))*100</f>
+      <c r="V53" s="74">
+        <f t="shared" ref="V53:AB53" si="59">$H$53*($T$39-V$39)*100</f>
         <v>-759.98786095162654</v>
       </c>
-      <c r="Y53" s="57">
+      <c r="W53" s="74">
         <f t="shared" si="59"/>
         <v>-1139.9817914274397</v>
       </c>
-      <c r="Z53" s="57">
+      <c r="X53" s="74">
         <f t="shared" si="59"/>
         <v>-1519.9757219032531</v>
       </c>
-      <c r="AA53" s="57">
+      <c r="Y53" s="74">
         <f t="shared" si="59"/>
         <v>-1899.9696523790665</v>
       </c>
-      <c r="AB53" s="57">
+      <c r="Z53" s="74">
         <f t="shared" si="59"/>
         <v>-2279.9635828548794</v>
       </c>
+      <c r="AA53" s="74">
+        <f t="shared" si="59"/>
+        <v>-2659.9575133306926</v>
+      </c>
+      <c r="AB53" s="74">
+        <f t="shared" si="59"/>
+        <v>-3039.9514438065062</v>
+      </c>
     </row>
     <row r="54" spans="4:28" ht="13.8">
-      <c r="D54" s="65" t="s">
+      <c r="D54" s="63" t="s">
         <v>46</v>
       </c>
       <c r="E54" s="19">
@@ -6464,10 +6448,10 @@
         <f t="shared" si="48"/>
         <v>3.2191573657263728</v>
       </c>
-      <c r="H54" s="67">
+      <c r="H54" s="65">
         <v>1.2296603590197317</v>
       </c>
-      <c r="I54" s="56"/>
+      <c r="I54" s="54"/>
       <c r="J54" s="20"/>
       <c r="K54" s="20"/>
       <c r="L54" s="20"/>
@@ -6476,44 +6460,44 @@
       <c r="O54" s="20"/>
       <c r="P54" s="20"/>
       <c r="Q54" s="20"/>
-      <c r="R54" s="57"/>
-      <c r="S54" s="75"/>
+      <c r="R54" s="55"/>
+      <c r="S54" s="72"/>
       <c r="T54" s="20"/>
-      <c r="U54" s="86">
+      <c r="U54" s="80">
         <f>H54*U40*100</f>
         <v>614.83017950986584</v>
       </c>
-      <c r="V54" s="20">
-        <f>$H$54*(V40-(V39-$U$39))*100</f>
-        <v>614.83017950986584</v>
-      </c>
-      <c r="W54" s="57">
-        <f>$H$54*(W40-(W39-$U$39))*100</f>
-        <v>0</v>
-      </c>
-      <c r="X54" s="57">
-        <f t="shared" ref="X54:AB54" si="60">$H$54*(X40-(X39-$U$39))*100</f>
+      <c r="V54" s="74">
+        <f>$H$54*($U$39-V$39)*100</f>
         <v>-614.83017950986584</v>
       </c>
-      <c r="Y54" s="57">
-        <f t="shared" si="60"/>
+      <c r="W54" s="74">
+        <f t="shared" ref="W54:AB54" si="60">$H$54*($U$39-W$39)*100</f>
         <v>-1229.6603590197317</v>
       </c>
-      <c r="Z54" s="57">
+      <c r="X54" s="74">
         <f t="shared" si="60"/>
         <v>-1844.4905385295974</v>
       </c>
-      <c r="AA54" s="57">
+      <c r="Y54" s="74">
         <f t="shared" si="60"/>
         <v>-2459.3207180394634</v>
       </c>
-      <c r="AB54" s="57">
+      <c r="Z54" s="74">
         <f t="shared" si="60"/>
         <v>-3074.1508975493293</v>
       </c>
+      <c r="AA54" s="74">
+        <f t="shared" si="60"/>
+        <v>-3688.9810770591948</v>
+      </c>
+      <c r="AB54" s="74">
+        <f t="shared" si="60"/>
+        <v>-4303.8112565690608</v>
+      </c>
     </row>
     <row r="55" spans="4:28" ht="13.8">
-      <c r="D55" s="65" t="s">
+      <c r="D55" s="63" t="s">
         <v>47</v>
       </c>
       <c r="E55" s="19">
@@ -6528,7 +6512,7 @@
         <f t="shared" si="48"/>
         <v>5.2085966177452718</v>
       </c>
-      <c r="H55" s="67">
+      <c r="H55" s="65">
         <v>1.9895904608939261</v>
       </c>
       <c r="I55" s="20"/>
@@ -6540,41 +6524,41 @@
       <c r="O55" s="20"/>
       <c r="P55" s="20"/>
       <c r="Q55" s="20"/>
-      <c r="R55" s="57"/>
-      <c r="S55" s="75"/>
+      <c r="R55" s="55"/>
+      <c r="S55" s="72"/>
       <c r="T55" s="20"/>
       <c r="U55" s="20"/>
-      <c r="V55" s="86">
+      <c r="V55" s="80">
         <f>H55*V40*100</f>
         <v>1989.5904608939261</v>
       </c>
-      <c r="W55" s="57">
-        <f>$H$55*(W$40-(W$39-V$39))*100</f>
-        <v>994.79523044696305</v>
-      </c>
-      <c r="X55" s="57">
-        <f t="shared" ref="X55:AB55" si="61">$H$55*(X40-(X39-$V$39))*100</f>
-        <v>0</v>
-      </c>
-      <c r="Y55" s="57">
-        <f t="shared" si="61"/>
+      <c r="W55" s="74">
+        <f>$H$55*($V$39-W$39)*100</f>
         <v>-994.79523044696305</v>
       </c>
-      <c r="Z55" s="57">
-        <f t="shared" si="61"/>
+      <c r="X55" s="74">
+        <f t="shared" ref="X55:AB55" si="61">$H$55*($V$39-X$39)*100</f>
         <v>-1989.5904608939261</v>
       </c>
-      <c r="AA55" s="57">
+      <c r="Y55" s="74">
         <f t="shared" si="61"/>
         <v>-2984.385691340889</v>
       </c>
-      <c r="AB55" s="57">
+      <c r="Z55" s="74">
         <f t="shared" si="61"/>
         <v>-3979.1809217878522</v>
       </c>
+      <c r="AA55" s="74">
+        <f t="shared" si="61"/>
+        <v>-4973.9761522348153</v>
+      </c>
+      <c r="AB55" s="74">
+        <f t="shared" si="61"/>
+        <v>-5968.7713826817781</v>
+      </c>
     </row>
     <row r="56" spans="4:28" ht="13.8">
-      <c r="D56" s="65" t="s">
+      <c r="D56" s="63" t="s">
         <v>48</v>
       </c>
       <c r="E56" s="19">
@@ -6589,7 +6573,7 @@
         <f t="shared" si="48"/>
         <v>8.4275093275118511</v>
       </c>
-      <c r="H56" s="67">
+      <c r="H56" s="65">
         <v>3.2191573657263728</v>
       </c>
       <c r="I56" s="20"/>
@@ -6601,38 +6585,38 @@
       <c r="O56" s="20"/>
       <c r="P56" s="20"/>
       <c r="Q56" s="20"/>
-      <c r="R56" s="57"/>
-      <c r="S56" s="75"/>
+      <c r="R56" s="55"/>
+      <c r="S56" s="72"/>
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
       <c r="V56" s="20"/>
-      <c r="W56" s="87">
+      <c r="W56" s="81">
         <f>$H56*W$40*100</f>
         <v>3219.157365726373</v>
       </c>
-      <c r="X56" s="57">
-        <f>$H$56*(X$40-(X$39-W$39))*100</f>
-        <v>1609.5786828631865</v>
-      </c>
-      <c r="Y56" s="57">
-        <f>$H$56*(Y$40-(Y$39-$W$39))*100</f>
-        <v>0</v>
-      </c>
-      <c r="Z56" s="57">
-        <f>$H$56*(Z$40-(Z$39-$W$39))*100</f>
+      <c r="X56" s="74">
+        <f>$H$56*($W$39-X$39)*100</f>
         <v>-1609.5786828631865</v>
       </c>
-      <c r="AA56" s="57">
-        <f>$H$56*(AA$40-(AA$39-$W$39))*100</f>
+      <c r="Y56" s="74">
+        <f t="shared" ref="Y56:AB56" si="62">$H$56*($W$39-Y$39)*100</f>
         <v>-3219.157365726373</v>
       </c>
-      <c r="AB56" s="57">
-        <f>$H$56*(AB$40-(AB$39-$W$39))*100</f>
+      <c r="Z56" s="74">
+        <f t="shared" si="62"/>
         <v>-4828.7360485895588</v>
+      </c>
+      <c r="AA56" s="74">
+        <f t="shared" si="62"/>
+        <v>-6438.3147314527459</v>
+      </c>
+      <c r="AB56" s="74">
+        <f t="shared" si="62"/>
+        <v>-8047.8934143159322</v>
       </c>
     </row>
     <row r="57" spans="4:28" ht="13.8">
-      <c r="D57" s="65" t="s">
+      <c r="D57" s="63" t="s">
         <v>82</v>
       </c>
       <c r="E57" s="19">
@@ -6647,7 +6631,7 @@
         <f t="shared" si="48"/>
         <v>13.635710091914175</v>
       </c>
-      <c r="H57" s="67">
+      <c r="H57" s="65">
         <v>5.2085966177452718</v>
       </c>
       <c r="I57" s="20"/>
@@ -6659,35 +6643,35 @@
       <c r="O57" s="20"/>
       <c r="P57" s="20"/>
       <c r="Q57" s="20"/>
-      <c r="R57" s="57"/>
-      <c r="S57" s="75"/>
+      <c r="R57" s="55"/>
+      <c r="S57" s="72"/>
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
       <c r="V57" s="20"/>
       <c r="W57" s="20"/>
-      <c r="X57" s="87">
+      <c r="X57" s="81">
         <f>$H57*X$40*100</f>
         <v>5208.5966177452719</v>
       </c>
-      <c r="Y57" s="57">
-        <f>$H$57*(Y$40-(Y$39-$X$39))*100</f>
-        <v>2604.298308872636</v>
-      </c>
-      <c r="Z57" s="57">
-        <f>$H$57*(Z$40-(Z$39-$X$39))*100</f>
-        <v>0</v>
-      </c>
-      <c r="AA57" s="57">
-        <f>$H$57*(AA$40-(AA$39-$X$39))*100</f>
+      <c r="Y57" s="74">
+        <f>$H$57*($X$39-Y$39)*100</f>
         <v>-2604.298308872636</v>
       </c>
-      <c r="AB57" s="57">
-        <f>$H$57*(AB$40-(AB$39-$X$39))*100</f>
+      <c r="Z57" s="74">
+        <f t="shared" ref="Z57:AB57" si="63">$H$57*($X$39-Z$39)*100</f>
         <v>-5208.5966177452719</v>
+      </c>
+      <c r="AA57" s="74">
+        <f t="shared" si="63"/>
+        <v>-7812.8949266179079</v>
+      </c>
+      <c r="AB57" s="74">
+        <f t="shared" si="63"/>
+        <v>-10417.193235490544</v>
       </c>
     </row>
     <row r="58" spans="4:28" ht="13.8">
-      <c r="D58" s="65" t="s">
+      <c r="D58" s="63" t="s">
         <v>83</v>
       </c>
       <c r="E58" s="19">
@@ -6702,7 +6686,7 @@
         <f t="shared" si="48"/>
         <v>22.062578928717137</v>
       </c>
-      <c r="H58" s="67">
+      <c r="H58" s="65">
         <v>8.4275093275118511</v>
       </c>
       <c r="I58" s="20"/>
@@ -6714,32 +6698,32 @@
       <c r="O58" s="20"/>
       <c r="P58" s="20"/>
       <c r="Q58" s="20"/>
-      <c r="R58" s="57"/>
-      <c r="S58" s="75"/>
+      <c r="R58" s="55"/>
+      <c r="S58" s="72"/>
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
       <c r="V58" s="20"/>
       <c r="W58" s="20"/>
       <c r="X58" s="20"/>
-      <c r="Y58" s="87">
+      <c r="Y58" s="81">
         <f>$H58*Y$40*100</f>
         <v>8427.5093275118506</v>
       </c>
-      <c r="Z58" s="57">
-        <f>$H$58*(Z$40-(Z$39-$Y$39))*100</f>
-        <v>4213.7546637559253</v>
-      </c>
-      <c r="AA58" s="57">
-        <f>$H$58*(AA$40-(AA$39-$Y$39))*100</f>
-        <v>0</v>
-      </c>
-      <c r="AB58" s="57">
-        <f>$H$58*(AB$40-(AB$39-$Y$39))*100</f>
+      <c r="Z58" s="74">
+        <f>$H$58*($Y$39-Z$39)*100</f>
         <v>-4213.7546637559253</v>
+      </c>
+      <c r="AA58" s="74">
+        <f t="shared" ref="AA58:AB58" si="64">$H$58*($Y$39-AA$39)*100</f>
+        <v>-8427.5093275118506</v>
+      </c>
+      <c r="AB58" s="74">
+        <f t="shared" si="64"/>
+        <v>-12641.263991267777</v>
       </c>
     </row>
     <row r="59" spans="4:28" ht="13.8">
-      <c r="D59" s="65" t="s">
+      <c r="D59" s="63" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="19">
@@ -6754,7 +6738,7 @@
         <f t="shared" si="48"/>
         <v>35.697252706664329</v>
       </c>
-      <c r="H59" s="67">
+      <c r="H59" s="65">
         <v>13.635710091914175</v>
       </c>
       <c r="I59" s="20"/>
@@ -6766,29 +6750,29 @@
       <c r="O59" s="20"/>
       <c r="P59" s="20"/>
       <c r="Q59" s="20"/>
-      <c r="R59" s="57"/>
-      <c r="S59" s="75"/>
+      <c r="R59" s="55"/>
+      <c r="S59" s="72"/>
       <c r="T59" s="20"/>
       <c r="U59" s="20"/>
       <c r="V59" s="20"/>
       <c r="W59" s="20"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="20"/>
-      <c r="Z59" s="87">
+      <c r="Z59" s="81">
         <f>$H59*Z$40*100</f>
         <v>13635.710091914174</v>
       </c>
-      <c r="AA59" s="57">
-        <f>$H$59*(AA$40-(AA$39-$Z$39))*100</f>
-        <v>6817.855045957087</v>
-      </c>
-      <c r="AB59" s="57">
-        <f>$H$59*(AB$40-(AB$39-$Z$39))*100</f>
-        <v>0</v>
+      <c r="AA59" s="74">
+        <f>$H$59*($Z$39-AA$39)*100</f>
+        <v>-6817.855045957087</v>
+      </c>
+      <c r="AB59" s="74">
+        <f>$H$59*($Z$39-AB$39)*100</f>
+        <v>-13635.710091914174</v>
       </c>
     </row>
     <row r="60" spans="4:28" ht="13.8">
-      <c r="D60" s="65" t="s">
+      <c r="D60" s="63" t="s">
         <v>85</v>
       </c>
       <c r="E60" s="19">
@@ -6803,7 +6787,7 @@
         <f t="shared" si="48"/>
         <v>57.758154879382886</v>
       </c>
-      <c r="H60" s="67">
+      <c r="H60" s="65">
         <v>22.062578928717137</v>
       </c>
       <c r="I60" s="20"/>
@@ -6815,8 +6799,8 @@
       <c r="O60" s="20"/>
       <c r="P60" s="20"/>
       <c r="Q60" s="20"/>
-      <c r="R60" s="57"/>
-      <c r="S60" s="75"/>
+      <c r="R60" s="55"/>
+      <c r="S60" s="72"/>
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
       <c r="V60" s="20"/>
@@ -6824,17 +6808,17 @@
       <c r="X60" s="20"/>
       <c r="Y60" s="20"/>
       <c r="Z60" s="20"/>
-      <c r="AA60" s="87">
+      <c r="AA60" s="81">
         <f>$H60*AA$40*100</f>
         <v>22062.578928717136</v>
       </c>
-      <c r="AB60" s="57">
-        <f>$H$60*(AB$40-(AB$39-$AA$39))*100</f>
-        <v>11031.289464358568</v>
+      <c r="AB60" s="74">
+        <f>$H$60*($AA$39-AB$39)*100</f>
+        <v>-11031.289464358568</v>
       </c>
     </row>
     <row r="61" spans="4:28" ht="13.8">
-      <c r="D61" s="65" t="s">
+      <c r="D61" s="63" t="s">
         <v>86</v>
       </c>
       <c r="E61" s="19">
@@ -6849,7 +6833,7 @@
         <f t="shared" si="48"/>
         <v>93.452694594841518</v>
       </c>
-      <c r="H61" s="67">
+      <c r="H61" s="65">
         <v>35.697252706664329</v>
       </c>
       <c r="I61" s="20"/>
@@ -6861,8 +6845,8 @@
       <c r="O61" s="20"/>
       <c r="P61" s="20"/>
       <c r="Q61" s="20"/>
-      <c r="R61" s="58"/>
-      <c r="S61" s="75"/>
+      <c r="R61" s="56"/>
+      <c r="S61" s="72"/>
       <c r="T61" s="20"/>
       <c r="U61" s="20"/>
       <c r="V61" s="20"/>
@@ -6871,186 +6855,186 @@
       <c r="Y61" s="20"/>
       <c r="Z61" s="20"/>
       <c r="AA61" s="20"/>
-      <c r="AB61" s="87">
+      <c r="AB61" s="81">
         <f>$H61*AB$40*100</f>
-        <v>35697.252706664331</v>
+        <v>107091.75811999298</v>
       </c>
     </row>
     <row r="62" spans="4:28" ht="13.8">
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="102">
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="89">
         <f>SUMIF(I42:I61, "&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="J62" s="102">
-        <f t="shared" ref="J62:AB62" si="62">SUMIF(J42:J61, "&lt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="K62" s="102">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="L62" s="102">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="M62" s="102">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="N62" s="102">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="O62" s="102">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="P62" s="102">
-        <f t="shared" si="62"/>
+      <c r="J62" s="89">
+        <f t="shared" ref="J62:AB62" si="65">SUMIF(J42:J61, "&lt;0")</f>
         <v>-5</v>
       </c>
-      <c r="Q62" s="102">
-        <f t="shared" si="62"/>
+      <c r="K62" s="89">
+        <f t="shared" si="65"/>
         <v>-15</v>
       </c>
-      <c r="R62" s="102">
-        <f t="shared" si="62"/>
+      <c r="L62" s="89">
+        <f t="shared" si="65"/>
         <v>-30</v>
       </c>
-      <c r="S62" s="102">
-        <f t="shared" si="62"/>
+      <c r="M62" s="89">
+        <f t="shared" si="65"/>
+        <v>-50</v>
+      </c>
+      <c r="N62" s="89">
+        <f t="shared" si="65"/>
+        <v>-75</v>
+      </c>
+      <c r="O62" s="89">
+        <f t="shared" si="65"/>
+        <v>-105</v>
+      </c>
+      <c r="P62" s="89">
+        <f t="shared" si="65"/>
+        <v>-140</v>
+      </c>
+      <c r="Q62" s="89">
+        <f t="shared" si="65"/>
+        <v>-180</v>
+      </c>
+      <c r="R62" s="89">
+        <f t="shared" si="65"/>
         <v>-225</v>
       </c>
-      <c r="T62" s="102">
-        <f t="shared" si="62"/>
+      <c r="S62" s="89">
+        <f t="shared" si="65"/>
         <v>-275</v>
       </c>
-      <c r="U62" s="102">
-        <f t="shared" si="62"/>
+      <c r="T62" s="89">
+        <f t="shared" si="65"/>
         <v>-559.85409794549651</v>
       </c>
-      <c r="V62" s="102">
-        <f t="shared" si="62"/>
-        <v>-559.85409794549651</v>
-      </c>
-      <c r="W62" s="102">
-        <f t="shared" si="62"/>
+      <c r="U62" s="89">
+        <f t="shared" si="65"/>
         <v>-1224.7021263668062</v>
       </c>
-      <c r="X62" s="102">
-        <f t="shared" si="62"/>
+      <c r="V62" s="89">
+        <f t="shared" si="65"/>
         <v>-2504.3803342979818</v>
       </c>
-      <c r="Y62" s="102">
-        <f t="shared" si="62"/>
+      <c r="W62" s="89">
+        <f t="shared" si="65"/>
         <v>-4778.8537726761197</v>
       </c>
-      <c r="Z62" s="102">
-        <f t="shared" si="62"/>
+      <c r="X62" s="89">
+        <f t="shared" si="65"/>
         <v>-8662.9058939174465</v>
       </c>
-      <c r="AA62" s="102">
-        <f t="shared" si="62"/>
+      <c r="Y62" s="89">
+        <f t="shared" si="65"/>
         <v>-15151.256324031407</v>
       </c>
-      <c r="AB62" s="102">
-        <f t="shared" si="62"/>
+      <c r="Z62" s="89">
+        <f t="shared" si="65"/>
         <v>-25853.361417901291</v>
+      </c>
+      <c r="AA62" s="89">
+        <f t="shared" si="65"/>
+        <v>-43373.321557728268</v>
+      </c>
+      <c r="AB62" s="89">
+        <f t="shared" si="65"/>
+        <v>-71924.571161913802</v>
       </c>
     </row>
     <row r="63" spans="4:28" ht="13.8">
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="59">
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="57">
         <f>SUM(H42:H61)</f>
         <v>92.799751915035415</v>
       </c>
-      <c r="I63" s="101">
+      <c r="I63" s="88">
         <f>SUM(I42:I61)</f>
         <v>30</v>
       </c>
-      <c r="J63" s="101">
-        <f t="shared" ref="J63:AB63" si="63">SUM(J42:J61)</f>
-        <v>55</v>
-      </c>
-      <c r="K63" s="101">
-        <f t="shared" si="63"/>
-        <v>75</v>
-      </c>
-      <c r="L63" s="101">
-        <f t="shared" si="63"/>
-        <v>90</v>
-      </c>
-      <c r="M63" s="101">
-        <f t="shared" si="63"/>
-        <v>100</v>
-      </c>
-      <c r="N63" s="101">
-        <f t="shared" si="63"/>
-        <v>105</v>
-      </c>
-      <c r="O63" s="101">
-        <f t="shared" si="63"/>
-        <v>105</v>
-      </c>
-      <c r="P63" s="101">
-        <f t="shared" si="63"/>
-        <v>100</v>
-      </c>
-      <c r="Q63" s="101">
-        <f t="shared" si="63"/>
-        <v>90</v>
-      </c>
-      <c r="R63" s="101">
-        <f t="shared" si="63"/>
-        <v>75</v>
-      </c>
-      <c r="S63" s="101">
-        <f t="shared" si="63"/>
-        <v>9.8540979454964486</v>
-      </c>
-      <c r="T63" s="101">
-        <f t="shared" si="63"/>
-        <v>104.99393047581327</v>
-      </c>
-      <c r="U63" s="101">
-        <f t="shared" si="63"/>
-        <v>54.976081564369338</v>
-      </c>
-      <c r="V63" s="101">
-        <f t="shared" si="63"/>
-        <v>2044.5665424582953</v>
-      </c>
-      <c r="W63" s="101">
-        <f t="shared" si="63"/>
-        <v>2989.25046980653</v>
-      </c>
-      <c r="X63" s="101">
-        <f t="shared" si="63"/>
-        <v>4313.7949663104764</v>
-      </c>
-      <c r="Y63" s="101">
-        <f t="shared" si="63"/>
-        <v>6252.953863708367</v>
-      </c>
-      <c r="Z63" s="101">
-        <f t="shared" si="63"/>
-        <v>9186.5588617526519</v>
-      </c>
-      <c r="AA63" s="101">
-        <f t="shared" si="63"/>
-        <v>13729.177650642816</v>
-      </c>
-      <c r="AB63" s="101">
-        <f t="shared" si="63"/>
-        <v>20875.180753121607</v>
+      <c r="J63" s="88">
+        <f t="shared" ref="J63:AB63" si="66">SUM(J42:J61)</f>
+        <v>25</v>
+      </c>
+      <c r="K63" s="88">
+        <f t="shared" si="66"/>
+        <v>15</v>
+      </c>
+      <c r="L63" s="88">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="88">
+        <f t="shared" si="66"/>
+        <v>-20</v>
+      </c>
+      <c r="N63" s="88">
+        <f t="shared" si="66"/>
+        <v>-45</v>
+      </c>
+      <c r="O63" s="88">
+        <f t="shared" si="66"/>
+        <v>-75</v>
+      </c>
+      <c r="P63" s="88">
+        <f t="shared" si="66"/>
+        <v>-110</v>
+      </c>
+      <c r="Q63" s="88">
+        <f t="shared" si="66"/>
+        <v>-150</v>
+      </c>
+      <c r="R63" s="88">
+        <f t="shared" si="66"/>
+        <v>-195</v>
+      </c>
+      <c r="S63" s="88">
+        <f t="shared" si="66"/>
+        <v>-40.145902054503551</v>
+      </c>
+      <c r="T63" s="88">
+        <f t="shared" si="66"/>
+        <v>-179.86016746968323</v>
+      </c>
+      <c r="U63" s="88">
+        <f t="shared" si="66"/>
+        <v>-609.87194685694033</v>
+      </c>
+      <c r="V63" s="88">
+        <f t="shared" si="66"/>
+        <v>-514.7898734040557</v>
+      </c>
+      <c r="W63" s="88">
+        <f t="shared" si="66"/>
+        <v>-1559.6964069497467</v>
+      </c>
+      <c r="X63" s="88">
+        <f t="shared" si="66"/>
+        <v>-3454.3092761721746</v>
+      </c>
+      <c r="Y63" s="88">
+        <f t="shared" si="66"/>
+        <v>-6723.746996519556</v>
+      </c>
+      <c r="Z63" s="88">
+        <f t="shared" si="66"/>
+        <v>-12217.651325987117</v>
+      </c>
+      <c r="AA63" s="88">
+        <f t="shared" si="66"/>
+        <v>-21310.742629011133</v>
+      </c>
+      <c r="AB63" s="88">
+        <f t="shared" si="66"/>
+        <v>35167.186958079183</v>
       </c>
     </row>
   </sheetData>
